--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thienphu\Desktop\Capstone\1. Project management\9. Timelog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thienphu\Desktop\Capstone\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
   <si>
     <t>Week</t>
   </si>
@@ -281,6 +281,28 @@
   </si>
   <si>
     <t>Present about Scrum model, Risk management, Huy presnet spring framework</t>
+  </si>
+  <si>
+    <t>7:30PM</t>
+  </si>
+  <si>
+    <t>10:30PM</t>
+  </si>
+  <si>
+    <t>9:30PM</t>
+  </si>
+  <si>
+    <t>Research Srum model</t>
+  </si>
+  <si>
+    <t>Research Srum model (cont)
+Integrate ACDM to Scrum</t>
+  </si>
+  <si>
+    <t>10:00PM</t>
+  </si>
+  <si>
+    <t>Review Srcum that integrated ACDM</t>
   </si>
 </sst>
 </file>
@@ -290,7 +312,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,8 +393,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +416,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -649,131 +683,144 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,11 +1220,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1232,7 @@
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="48.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="60" style="1" bestFit="1" customWidth="1"/>
@@ -1198,77 +1245,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="48"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="50"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="51" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="56"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="59"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
@@ -1306,10 +1353,10 @@
       <c r="I6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -1333,20 +1380,20 @@
       <c r="G7" s="14"/>
       <c r="H7" s="17"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="66" t="s">
+      <c r="J7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="66"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="9">
-        <f>SUM(L8:L40)</f>
-        <v>12.8</v>
+        <f>SUM(L8:L37)</f>
+        <v>18.3</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="68">
+      <c r="A8" s="61">
         <v>2</v>
       </c>
       <c r="B8" s="10">
@@ -1382,7 +1429,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="10">
         <v>41589</v>
       </c>
@@ -1403,13 +1450,20 @@
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="15"/>
+      <c r="J9" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="K9" s="2"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="3"/>
+      <c r="L9" s="4">
+        <f>SUM(E8:E17)</f>
+        <v>16.3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="10">
         <v>41590</v>
       </c>
@@ -1431,19 +1485,19 @@
       <c r="H10" s="21"/>
       <c r="I10" s="2"/>
       <c r="J10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="4">
-        <f>SUM(E8:E15)</f>
-        <v>11.8</v>
+        <v>14</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="23">
+        <f>SUM(E18:E20)</f>
+        <v>1</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="10">
         <v>41590</v>
       </c>
@@ -1464,13 +1518,20 @@
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
+      <c r="J11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="23">
+        <f>SUM(E21:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="10">
         <v>41591</v>
       </c>
@@ -1486,17 +1547,17 @@
       <c r="F12" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="33" t="s">
         <v>74</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="23">
-        <f>SUM(E16:E20)</f>
+        <f>SUM(E26:E30)</f>
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -1504,9 +1565,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="71">
-        <v>3</v>
-      </c>
+      <c r="A13" s="62"/>
       <c r="B13" s="10">
         <v>41592</v>
       </c>
@@ -1522,18 +1581,25 @@
       <c r="F13" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="33" t="s">
         <v>79</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="15"/>
+      <c r="J13" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="K13" s="6"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="23">
+        <f>SUM(E31:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="10">
         <v>41592</v>
       </c>
@@ -1546,20 +1612,20 @@
       <c r="E14" s="26">
         <v>1.25</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="70" t="s">
         <v>80</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="23">
-        <f>SUM(E21:E25)</f>
+        <f>SUM(E36:E40)</f>
         <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -1567,7 +1633,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="10">
         <v>41593</v>
       </c>
@@ -1580,20 +1646,20 @@
       <c r="E15" s="26">
         <v>1.05</v>
       </c>
-      <c r="F15" s="75" t="s">
+      <c r="F15" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="70" t="s">
         <v>82</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="23">
-        <f>SUM(E26:E30)</f>
+        <f>SUM(E41:E45)</f>
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -1601,47 +1667,67 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="19">
-        <v>41596</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="74">
+        <v>41594</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="76">
+        <v>1</v>
+      </c>
+      <c r="F16" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
       <c r="J16" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="23">
-        <f>SUM(E31:E35)</f>
+        <f>SUM(E46:E50)</f>
         <v>0</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="19">
-        <v>41597</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+    <row r="17" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="63"/>
+      <c r="B17" s="74">
+        <v>41595</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="76">
+        <v>3.5</v>
+      </c>
+      <c r="F17" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
       <c r="J17" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="23">
-        <f>SUM(E36:E40)</f>
+        <f>SUM(E51:E55)</f>
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -1649,25 +1735,35 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
-        <v>4</v>
+      <c r="A18" s="64">
+        <v>3</v>
       </c>
       <c r="B18" s="19">
-        <v>41598</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+        <v>41596</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="69">
+        <v>1</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="73" t="s">
+        <v>89</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="15" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="23">
-        <f>SUM(E41:E45)</f>
+        <f>SUM(E56:E60)</f>
         <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -1675,7 +1771,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="19">
         <v>41599</v>
       </c>
@@ -1687,11 +1783,11 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="15" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="23">
-        <f>SUM(E46:E50)</f>
+        <f>SUM(E61:E65)</f>
         <v>0</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -1699,7 +1795,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="19">
         <v>41600</v>
       </c>
@@ -1711,11 +1807,11 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="15" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="23">
-        <f>SUM(E51:E55)</f>
+        <f>SUM(E66:E70)</f>
         <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -1723,7 +1819,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="50">
+        <v>4</v>
+      </c>
       <c r="B21" s="10">
         <v>41603</v>
       </c>
@@ -1735,11 +1833,11 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="23">
-        <f>SUM(E56:E60)</f>
+        <f>SUM(E71:E75)</f>
         <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -1747,7 +1845,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="10">
         <v>41604</v>
       </c>
@@ -1759,11 +1857,11 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="23">
-        <f>SUM(E61:E65)</f>
+        <f>SUM(E76:E80)</f>
         <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -1771,9 +1869,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="36">
-        <v>5</v>
-      </c>
+      <c r="A23" s="51"/>
       <c r="B23" s="10">
         <v>41605</v>
       </c>
@@ -1785,11 +1881,11 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="23">
-        <f>SUM(E66:E70)</f>
+        <f>SUM(E81:E85)</f>
         <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -1797,7 +1893,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="10">
         <v>41606</v>
       </c>
@@ -1809,11 +1905,11 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="23">
-        <f>SUM(E71:E75)</f>
+        <f>SUM(E86:E90)</f>
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -1821,7 +1917,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="10">
         <v>41607</v>
       </c>
@@ -1833,11 +1929,11 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="23">
-        <f>SUM(E76:E80)</f>
+        <f>SUM(E91:E95)</f>
         <v>0</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -1845,7 +1941,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="52">
+        <v>5</v>
+      </c>
       <c r="B26" s="19">
         <v>41610</v>
       </c>
@@ -1857,11 +1955,11 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="23">
-        <f>SUM(E81:E85)</f>
+        <f>SUM(E96:E100)</f>
         <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
@@ -1869,7 +1967,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="19">
         <v>41611</v>
       </c>
@@ -1881,11 +1979,11 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="23">
-        <f>SUM(E86:E90)</f>
+        <f>SUM(E101:E105)</f>
         <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
@@ -1893,9 +1991,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
-        <v>6</v>
-      </c>
+      <c r="A28" s="52"/>
       <c r="B28" s="19">
         <v>41612</v>
       </c>
@@ -1907,11 +2003,11 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="23">
-        <f>SUM(E91:E95)</f>
+        <f>SUM(E106:E110)</f>
         <v>0</v>
       </c>
       <c r="M28" s="3" t="s">
@@ -1919,7 +2015,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="19">
         <v>41613</v>
       </c>
@@ -1931,11 +2027,11 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="23">
-        <f>SUM(E96:E100)</f>
+        <f>SUM(E111:E115)</f>
         <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
@@ -1943,7 +2039,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="19">
         <v>41614</v>
       </c>
@@ -1955,11 +2051,11 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="23">
-        <f>SUM(E101:E105)</f>
+        <f>SUM(E116:E120)</f>
         <v>0</v>
       </c>
       <c r="M30" s="3" t="s">
@@ -1967,7 +2063,9 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="51">
+        <v>6</v>
+      </c>
       <c r="B31" s="10">
         <v>41617</v>
       </c>
@@ -1979,11 +2077,11 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="23">
-        <f>SUM(E106:E110)</f>
+        <f>SUM(E121:E125)</f>
         <v>0</v>
       </c>
       <c r="M31" s="3" t="s">
@@ -1991,7 +2089,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="10">
         <v>41618</v>
       </c>
@@ -2003,11 +2101,11 @@
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="23">
-        <f>SUM(E111:E115)</f>
+        <f>SUM(E126:E130)</f>
         <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
@@ -2015,9 +2113,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
-        <v>7</v>
-      </c>
+      <c r="A33" s="51"/>
       <c r="B33" s="10">
         <v>41619</v>
       </c>
@@ -2029,11 +2125,11 @@
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="23">
-        <f>SUM(E116:E120)</f>
+        <f>SUM(E131:E135)</f>
         <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
@@ -2041,7 +2137,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="10">
         <v>41620</v>
       </c>
@@ -2053,11 +2149,11 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="23">
-        <f>SUM(E121:E125)</f>
+        <f>SUM(E136:E140)</f>
         <v>0</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -2065,7 +2161,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="10">
         <v>41621</v>
       </c>
@@ -2077,11 +2173,11 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="23">
-        <f>SUM(E126:E130)</f>
+        <f>SUM(E141:E145)</f>
         <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -2089,7 +2185,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+      <c r="A36" s="52">
+        <v>7</v>
+      </c>
       <c r="B36" s="19">
         <v>41624</v>
       </c>
@@ -2101,11 +2199,11 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="23">
-        <f>SUM(E131:E135)</f>
+        <f>SUM(E146:E150)</f>
         <v>0</v>
       </c>
       <c r="M36" s="3" t="s">
@@ -2113,7 +2211,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="19">
         <v>41625</v>
       </c>
@@ -2125,11 +2223,11 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="23">
-        <f>SUM(E136:E140)</f>
+        <f>SUM(E151:E155)</f>
         <v>0</v>
       </c>
       <c r="M37" s="3" t="s">
@@ -2137,9 +2235,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="39">
-        <v>8</v>
-      </c>
+      <c r="A38" s="52"/>
       <c r="B38" s="19">
         <v>41626</v>
       </c>
@@ -2150,20 +2246,9 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K38" s="6"/>
-      <c r="L38" s="23">
-        <f>SUM(E141:E145)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="19">
         <v>41627</v>
       </c>
@@ -2174,20 +2259,9 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="K39" s="6"/>
-      <c r="L39" s="23">
-        <f>SUM(E146:E150)</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="19">
         <v>41628</v>
       </c>
@@ -2198,20 +2272,11 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="23">
-        <f>SUM(E151:E155)</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="51">
+        <v>8</v>
+      </c>
       <c r="B41" s="10">
         <v>41631</v>
       </c>
@@ -2224,7 +2289,7 @@
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="10">
         <v>41632</v>
       </c>
@@ -2237,9 +2302,7 @@
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="36">
-        <v>9</v>
-      </c>
+      <c r="A43" s="51"/>
       <c r="B43" s="10">
         <v>41633</v>
       </c>
@@ -2252,7 +2315,7 @@
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="10">
         <v>41634</v>
       </c>
@@ -2265,7 +2328,7 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="10">
         <v>41635</v>
       </c>
@@ -2278,7 +2341,9 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
+      <c r="A46" s="52">
+        <v>9</v>
+      </c>
       <c r="B46" s="19">
         <v>41638</v>
       </c>
@@ -2291,7 +2356,7 @@
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
+      <c r="A47" s="52"/>
       <c r="B47" s="19">
         <v>41639</v>
       </c>
@@ -2304,9 +2369,7 @@
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="39">
-        <v>10</v>
-      </c>
+      <c r="A48" s="52"/>
       <c r="B48" s="19">
         <v>41640</v>
       </c>
@@ -2319,7 +2382,7 @@
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="19">
         <v>41641</v>
       </c>
@@ -2332,7 +2395,7 @@
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="19">
         <v>41642</v>
       </c>
@@ -2345,7 +2408,9 @@
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+      <c r="A51" s="51">
+        <v>10</v>
+      </c>
       <c r="B51" s="10">
         <v>41645</v>
       </c>
@@ -2358,7 +2423,7 @@
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="10">
         <v>41646</v>
       </c>
@@ -2371,9 +2436,7 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="36">
-        <v>11</v>
-      </c>
+      <c r="A53" s="51"/>
       <c r="B53" s="10">
         <v>41647</v>
       </c>
@@ -2386,7 +2449,7 @@
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="10">
         <v>41648</v>
       </c>
@@ -2399,7 +2462,7 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="10">
         <v>41649</v>
       </c>
@@ -2412,7 +2475,9 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
+      <c r="A56" s="52">
+        <v>11</v>
+      </c>
       <c r="B56" s="19">
         <v>41652</v>
       </c>
@@ -2425,7 +2490,7 @@
       <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
+      <c r="A57" s="52"/>
       <c r="B57" s="19">
         <v>41653</v>
       </c>
@@ -2438,9 +2503,7 @@
       <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="39">
-        <v>12</v>
-      </c>
+      <c r="A58" s="52"/>
       <c r="B58" s="19">
         <v>41654</v>
       </c>
@@ -2453,7 +2516,7 @@
       <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="19">
         <v>41655</v>
       </c>
@@ -2466,7 +2529,7 @@
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="19">
         <v>41656</v>
       </c>
@@ -2479,7 +2542,9 @@
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+      <c r="A61" s="51">
+        <v>12</v>
+      </c>
       <c r="B61" s="10">
         <v>41659</v>
       </c>
@@ -2492,7 +2557,7 @@
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="10">
         <v>41660</v>
       </c>
@@ -2505,9 +2570,7 @@
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="36">
-        <v>13</v>
-      </c>
+      <c r="A63" s="51"/>
       <c r="B63" s="10">
         <v>41661</v>
       </c>
@@ -2520,7 +2583,7 @@
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
+      <c r="A64" s="51"/>
       <c r="B64" s="10">
         <v>41662</v>
       </c>
@@ -2533,7 +2596,7 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="10">
         <v>41663</v>
       </c>
@@ -2546,7 +2609,9 @@
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
+      <c r="A66" s="52">
+        <v>13</v>
+      </c>
       <c r="B66" s="19">
         <v>41666</v>
       </c>
@@ -2561,7 +2626,7 @@
       <c r="I66" s="5"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="38"/>
+      <c r="A67" s="52"/>
       <c r="B67" s="19">
         <v>41667</v>
       </c>
@@ -2576,9 +2641,7 @@
       <c r="I67" s="5"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="39">
-        <v>14</v>
-      </c>
+      <c r="A68" s="52"/>
       <c r="B68" s="19">
         <v>41668</v>
       </c>
@@ -2593,7 +2656,7 @@
       <c r="I68" s="5"/>
     </row>
     <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="19">
         <v>41669</v>
       </c>
@@ -2608,7 +2671,7 @@
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="19">
         <v>41670</v>
       </c>
@@ -2623,7 +2686,9 @@
       <c r="I70" s="5"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
+      <c r="A71" s="51">
+        <v>14</v>
+      </c>
       <c r="B71" s="10">
         <v>41673</v>
       </c>
@@ -2638,7 +2703,7 @@
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="41"/>
+      <c r="A72" s="51"/>
       <c r="B72" s="10">
         <v>41674</v>
       </c>
@@ -2653,9 +2718,7 @@
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="36">
-        <v>15</v>
-      </c>
+      <c r="A73" s="51"/>
       <c r="B73" s="10">
         <v>41675</v>
       </c>
@@ -2670,7 +2733,7 @@
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
+      <c r="A74" s="51"/>
       <c r="B74" s="10">
         <v>41676</v>
       </c>
@@ -2685,7 +2748,7 @@
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="10">
         <v>41677</v>
       </c>
@@ -2700,7 +2763,9 @@
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
+      <c r="A76" s="52">
+        <v>15</v>
+      </c>
       <c r="B76" s="19">
         <v>41680</v>
       </c>
@@ -2713,7 +2778,7 @@
       <c r="I76" s="5"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
+      <c r="A77" s="52"/>
       <c r="B77" s="19">
         <v>41681</v>
       </c>
@@ -2726,9 +2791,7 @@
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="39">
-        <v>16</v>
-      </c>
+      <c r="A78" s="52"/>
       <c r="B78" s="19">
         <v>41682</v>
       </c>
@@ -2741,7 +2804,7 @@
       <c r="I78" s="5"/>
     </row>
     <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="19">
         <v>41683</v>
       </c>
@@ -2754,7 +2817,7 @@
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="19">
         <v>41684</v>
       </c>
@@ -2767,7 +2830,9 @@
       <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="51">
+        <v>16</v>
+      </c>
       <c r="B81" s="10">
         <v>41687</v>
       </c>
@@ -2780,7 +2845,7 @@
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
+      <c r="A82" s="51"/>
       <c r="B82" s="10">
         <v>41688</v>
       </c>
@@ -2793,9 +2858,7 @@
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="36">
-        <v>17</v>
-      </c>
+      <c r="A83" s="51"/>
       <c r="B83" s="10">
         <v>41689</v>
       </c>
@@ -2808,7 +2871,7 @@
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="37"/>
+      <c r="A84" s="51"/>
       <c r="B84" s="10">
         <v>41690</v>
       </c>
@@ -2821,7 +2884,7 @@
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="37"/>
+      <c r="A85" s="51"/>
       <c r="B85" s="10">
         <v>41691</v>
       </c>
@@ -2834,7 +2897,9 @@
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="37"/>
+      <c r="A86" s="52">
+        <v>17</v>
+      </c>
       <c r="B86" s="19">
         <v>41694</v>
       </c>
@@ -2847,7 +2912,7 @@
       <c r="I86" s="5"/>
     </row>
     <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="38"/>
+      <c r="A87" s="52"/>
       <c r="B87" s="19">
         <v>41695</v>
       </c>
@@ -2860,9 +2925,7 @@
       <c r="I87" s="5"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="39">
-        <v>18</v>
-      </c>
+      <c r="A88" s="52"/>
       <c r="B88" s="19">
         <v>41696</v>
       </c>
@@ -2875,7 +2938,7 @@
       <c r="I88" s="5"/>
     </row>
     <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="52"/>
       <c r="B89" s="19">
         <v>41697</v>
       </c>
@@ -2888,7 +2951,7 @@
       <c r="I89" s="5"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="52"/>
       <c r="B90" s="19">
         <v>41698</v>
       </c>
@@ -2901,7 +2964,9 @@
       <c r="I90" s="5"/>
     </row>
     <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="51">
+        <v>18</v>
+      </c>
       <c r="B91" s="10">
         <v>41701</v>
       </c>
@@ -2914,7 +2979,7 @@
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
+      <c r="A92" s="51"/>
       <c r="B92" s="10">
         <v>41702</v>
       </c>
@@ -2927,9 +2992,7 @@
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="36">
-        <v>19</v>
-      </c>
+      <c r="A93" s="51"/>
       <c r="B93" s="10">
         <v>41703</v>
       </c>
@@ -2942,7 +3005,7 @@
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="37"/>
+      <c r="A94" s="51"/>
       <c r="B94" s="10">
         <v>41704</v>
       </c>
@@ -2955,7 +3018,7 @@
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="37"/>
+      <c r="A95" s="51"/>
       <c r="B95" s="10">
         <v>41705</v>
       </c>
@@ -2968,7 +3031,9 @@
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="37"/>
+      <c r="A96" s="52">
+        <v>19</v>
+      </c>
       <c r="B96" s="19">
         <v>41708</v>
       </c>
@@ -2981,7 +3046,7 @@
       <c r="I96" s="5"/>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="38"/>
+      <c r="A97" s="52"/>
       <c r="B97" s="19">
         <v>41709</v>
       </c>
@@ -2994,9 +3059,7 @@
       <c r="I97" s="5"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="39">
-        <v>20</v>
-      </c>
+      <c r="A98" s="52"/>
       <c r="B98" s="19">
         <v>41710</v>
       </c>
@@ -3009,7 +3072,7 @@
       <c r="I98" s="5"/>
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="52"/>
       <c r="B99" s="19">
         <v>41711</v>
       </c>
@@ -3022,7 +3085,7 @@
       <c r="I99" s="5"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="52"/>
       <c r="B100" s="19">
         <v>41712</v>
       </c>
@@ -3035,7 +3098,9 @@
       <c r="I100" s="5"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="51">
+        <v>20</v>
+      </c>
       <c r="B101" s="10">
         <v>41715</v>
       </c>
@@ -3048,7 +3113,7 @@
       <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="41"/>
+      <c r="A102" s="51"/>
       <c r="B102" s="10">
         <v>41716</v>
       </c>
@@ -3061,9 +3126,7 @@
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="36">
-        <v>21</v>
-      </c>
+      <c r="A103" s="51"/>
       <c r="B103" s="10">
         <v>41717</v>
       </c>
@@ -3076,7 +3139,7 @@
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="37"/>
+      <c r="A104" s="51"/>
       <c r="B104" s="10">
         <v>41718</v>
       </c>
@@ -3089,7 +3152,7 @@
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="37"/>
+      <c r="A105" s="51"/>
       <c r="B105" s="10">
         <v>41719</v>
       </c>
@@ -3102,7 +3165,9 @@
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="37"/>
+      <c r="A106" s="52">
+        <v>21</v>
+      </c>
       <c r="B106" s="19">
         <v>41722</v>
       </c>
@@ -3115,7 +3180,7 @@
       <c r="I106" s="5"/>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="38"/>
+      <c r="A107" s="52"/>
       <c r="B107" s="19">
         <v>41723</v>
       </c>
@@ -3128,9 +3193,7 @@
       <c r="I107" s="5"/>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="39">
-        <v>22</v>
-      </c>
+      <c r="A108" s="52"/>
       <c r="B108" s="19">
         <v>41724</v>
       </c>
@@ -3143,7 +3206,7 @@
       <c r="I108" s="5"/>
     </row>
     <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+      <c r="A109" s="52"/>
       <c r="B109" s="19">
         <v>41725</v>
       </c>
@@ -3156,7 +3219,7 @@
       <c r="I109" s="5"/>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+      <c r="A110" s="52"/>
       <c r="B110" s="19">
         <v>41726</v>
       </c>
@@ -3169,7 +3232,9 @@
       <c r="I110" s="5"/>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+      <c r="A111" s="51">
+        <v>22</v>
+      </c>
       <c r="B111" s="10">
         <v>41729</v>
       </c>
@@ -3182,7 +3247,7 @@
       <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="41"/>
+      <c r="A112" s="51"/>
       <c r="B112" s="10">
         <v>41730</v>
       </c>
@@ -3195,9 +3260,7 @@
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="36">
-        <v>23</v>
-      </c>
+      <c r="A113" s="51"/>
       <c r="B113" s="10">
         <v>41731</v>
       </c>
@@ -3210,7 +3273,7 @@
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="37"/>
+      <c r="A114" s="51"/>
       <c r="B114" s="10">
         <v>41732</v>
       </c>
@@ -3223,7 +3286,7 @@
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="37"/>
+      <c r="A115" s="51"/>
       <c r="B115" s="10">
         <v>41733</v>
       </c>
@@ -3236,7 +3299,9 @@
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="37"/>
+      <c r="A116" s="52">
+        <v>23</v>
+      </c>
       <c r="B116" s="19">
         <v>41736</v>
       </c>
@@ -3249,7 +3314,7 @@
       <c r="I116" s="5"/>
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="38"/>
+      <c r="A117" s="52"/>
       <c r="B117" s="19">
         <v>41737</v>
       </c>
@@ -3262,9 +3327,7 @@
       <c r="I117" s="5"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="39">
-        <v>24</v>
-      </c>
+      <c r="A118" s="52"/>
       <c r="B118" s="19">
         <v>41738</v>
       </c>
@@ -3277,7 +3340,7 @@
       <c r="I118" s="5"/>
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+      <c r="A119" s="52"/>
       <c r="B119" s="19">
         <v>41739</v>
       </c>
@@ -3290,7 +3353,7 @@
       <c r="I119" s="5"/>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
+      <c r="A120" s="52"/>
       <c r="B120" s="19">
         <v>41740</v>
       </c>
@@ -3303,7 +3366,9 @@
       <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+      <c r="A121" s="51">
+        <v>24</v>
+      </c>
       <c r="B121" s="10">
         <v>41743</v>
       </c>
@@ -3316,7 +3381,7 @@
       <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="41"/>
+      <c r="A122" s="51"/>
       <c r="B122" s="10">
         <v>41744</v>
       </c>
@@ -3329,9 +3394,7 @@
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="36">
-        <v>25</v>
-      </c>
+      <c r="A123" s="51"/>
       <c r="B123" s="10">
         <v>41745</v>
       </c>
@@ -3344,7 +3407,7 @@
       <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="37"/>
+      <c r="A124" s="51"/>
       <c r="B124" s="10">
         <v>41746</v>
       </c>
@@ -3357,7 +3420,7 @@
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="37"/>
+      <c r="A125" s="51"/>
       <c r="B125" s="10">
         <v>41747</v>
       </c>
@@ -3370,7 +3433,9 @@
       <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="37"/>
+      <c r="A126" s="52">
+        <v>25</v>
+      </c>
       <c r="B126" s="19">
         <v>41750</v>
       </c>
@@ -3383,7 +3448,7 @@
       <c r="I126" s="5"/>
     </row>
     <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="38"/>
+      <c r="A127" s="52"/>
       <c r="B127" s="19">
         <v>41751</v>
       </c>
@@ -3396,9 +3461,7 @@
       <c r="I127" s="5"/>
     </row>
     <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="39">
-        <v>26</v>
-      </c>
+      <c r="A128" s="52"/>
       <c r="B128" s="19">
         <v>41752</v>
       </c>
@@ -3411,7 +3474,7 @@
       <c r="I128" s="5"/>
     </row>
     <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
+      <c r="A129" s="52"/>
       <c r="B129" s="19">
         <v>41753</v>
       </c>
@@ -3424,7 +3487,7 @@
       <c r="I129" s="5"/>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
+      <c r="A130" s="52"/>
       <c r="B130" s="19">
         <v>41754</v>
       </c>
@@ -3437,7 +3500,9 @@
       <c r="I130" s="5"/>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
+      <c r="A131" s="51">
+        <v>26</v>
+      </c>
       <c r="B131" s="10">
         <v>41757</v>
       </c>
@@ -3450,7 +3515,7 @@
       <c r="I131" s="6"/>
     </row>
     <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
+      <c r="A132" s="51"/>
       <c r="B132" s="10">
         <v>41758</v>
       </c>
@@ -3463,9 +3528,7 @@
       <c r="I132" s="6"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="36">
-        <v>27</v>
-      </c>
+      <c r="A133" s="51"/>
       <c r="B133" s="10">
         <v>41759</v>
       </c>
@@ -3478,7 +3541,7 @@
       <c r="I133" s="6"/>
     </row>
     <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="37"/>
+      <c r="A134" s="51"/>
       <c r="B134" s="10">
         <v>41760</v>
       </c>
@@ -3491,7 +3554,7 @@
       <c r="I134" s="6"/>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="37"/>
+      <c r="A135" s="51"/>
       <c r="B135" s="10">
         <v>41761</v>
       </c>
@@ -3504,7 +3567,9 @@
       <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="37"/>
+      <c r="A136" s="52">
+        <v>27</v>
+      </c>
       <c r="B136" s="19">
         <v>41764</v>
       </c>
@@ -3517,7 +3582,7 @@
       <c r="I136" s="5"/>
     </row>
     <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="38"/>
+      <c r="A137" s="52"/>
       <c r="B137" s="19">
         <v>41765</v>
       </c>
@@ -3530,9 +3595,7 @@
       <c r="I137" s="5"/>
     </row>
     <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="39">
-        <v>28</v>
-      </c>
+      <c r="A138" s="52"/>
       <c r="B138" s="19">
         <v>41766</v>
       </c>
@@ -3545,7 +3608,7 @@
       <c r="I138" s="5"/>
     </row>
     <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
+      <c r="A139" s="52"/>
       <c r="B139" s="19">
         <v>41767</v>
       </c>
@@ -3558,7 +3621,7 @@
       <c r="I139" s="5"/>
     </row>
     <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
+      <c r="A140" s="52"/>
       <c r="B140" s="19">
         <v>41768</v>
       </c>
@@ -3571,7 +3634,9 @@
       <c r="I140" s="5"/>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="40"/>
+      <c r="A141" s="51">
+        <v>28</v>
+      </c>
       <c r="B141" s="10">
         <v>41771</v>
       </c>
@@ -3584,7 +3649,7 @@
       <c r="I141" s="6"/>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="41"/>
+      <c r="A142" s="51"/>
       <c r="B142" s="10">
         <v>41772</v>
       </c>
@@ -3597,9 +3662,7 @@
       <c r="I142" s="6"/>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="36">
-        <v>29</v>
-      </c>
+      <c r="A143" s="51"/>
       <c r="B143" s="10">
         <v>41773</v>
       </c>
@@ -3612,7 +3675,7 @@
       <c r="I143" s="6"/>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="37"/>
+      <c r="A144" s="51"/>
       <c r="B144" s="10">
         <v>41774</v>
       </c>
@@ -3625,7 +3688,7 @@
       <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="37"/>
+      <c r="A145" s="51"/>
       <c r="B145" s="10">
         <v>41775</v>
       </c>
@@ -3638,7 +3701,9 @@
       <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="37"/>
+      <c r="A146" s="52">
+        <v>29</v>
+      </c>
       <c r="B146" s="19">
         <v>41778</v>
       </c>
@@ -3651,7 +3716,7 @@
       <c r="I146" s="5"/>
     </row>
     <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="38"/>
+      <c r="A147" s="52"/>
       <c r="B147" s="19">
         <v>41779</v>
       </c>
@@ -3664,9 +3729,7 @@
       <c r="I147" s="5"/>
     </row>
     <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="42">
-        <v>30</v>
-      </c>
+      <c r="A148" s="52"/>
       <c r="B148" s="19">
         <v>41780</v>
       </c>
@@ -3679,7 +3742,7 @@
       <c r="I148" s="5"/>
     </row>
     <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="43"/>
+      <c r="A149" s="52"/>
       <c r="B149" s="19">
         <v>41781</v>
       </c>
@@ -3692,7 +3755,7 @@
       <c r="I149" s="5"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="43"/>
+      <c r="A150" s="52"/>
       <c r="B150" s="19">
         <v>41782</v>
       </c>
@@ -3705,7 +3768,9 @@
       <c r="I150" s="5"/>
     </row>
     <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="43"/>
+      <c r="A151" s="68">
+        <v>30</v>
+      </c>
       <c r="B151" s="10">
         <v>41785</v>
       </c>
@@ -3718,7 +3783,7 @@
       <c r="I151" s="2"/>
     </row>
     <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="44"/>
+      <c r="A152" s="68"/>
       <c r="B152" s="10">
         <v>41786</v>
       </c>
@@ -3731,6 +3796,7 @@
       <c r="I152" s="2"/>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="68"/>
       <c r="B153" s="10">
         <v>41787</v>
       </c>
@@ -3743,6 +3809,7 @@
       <c r="I153" s="2"/>
     </row>
     <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="68"/>
       <c r="B154" s="10">
         <v>41788</v>
       </c>
@@ -3755,6 +3822,7 @@
       <c r="I154" s="2"/>
     </row>
     <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="68"/>
       <c r="B155" s="10">
         <v>41789</v>
       </c>
@@ -3767,11 +3835,13 @@
       <c r="I155" s="2"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="68"/>
       <c r="B156" s="20">
         <v>41790</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="80"/>
       <c r="B157" s="10">
         <v>41791</v>
       </c>
@@ -3943,47 +4013,44 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A156"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A76:A80"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="F2:M4"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A57"/>
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J6:M6"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="L10" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
   <si>
     <t>Week</t>
   </si>
@@ -313,6 +313,28 @@
 -Process of team 
 -Test management document
 2/Review time log</t>
+  </si>
+  <si>
+    <t>4:30PM</t>
+  </si>
+  <si>
+    <t>6:00PM</t>
+  </si>
+  <si>
+    <t>1:15PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Define architecture plan document
+Write meeting minutes </t>
+  </si>
+  <si>
+    <t>Define team process document (use Scrum Model combine ACDM)</t>
+  </si>
+  <si>
+    <t>AS_PM_Deadline Team Process.doxc</t>
+  </si>
+  <si>
+    <t>AS_AD_Architecture Plan.doxc</t>
   </si>
 </sst>
 </file>
@@ -617,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -725,115 +747,130 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1231,13 +1268,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:M192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E19" activeCellId="1" sqref="F17 E19"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1258,77 +1295,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="58"/>
+      <c r="A1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="59" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="67"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="62"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
@@ -1366,10 +1403,10 @@
       <c r="I6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -1393,20 +1430,20 @@
       <c r="G7" s="14"/>
       <c r="H7" s="17"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="74"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="9">
         <f>SUM(L8:L37)</f>
-        <v>19.3</v>
+        <v>22.950000000000003</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
+      <c r="A8" s="74">
         <v>2</v>
       </c>
       <c r="B8" s="10">
@@ -1442,7 +1479,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="10">
         <v>41589</v>
       </c>
@@ -1476,7 +1513,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="10">
         <v>41590</v>
       </c>
@@ -1502,15 +1539,15 @@
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="23">
-        <f>SUM(E18:E20)</f>
-        <v>2</v>
+        <f>SUM(E18:E22)</f>
+        <v>5.65</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="10">
         <v>41590</v>
       </c>
@@ -1536,7 +1573,7 @@
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="23">
-        <f>SUM(E21:E25)</f>
+        <f>SUM(E23:E27)</f>
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -1544,7 +1581,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="10">
         <v>41591</v>
       </c>
@@ -1570,7 +1607,7 @@
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="23">
-        <f>SUM(E26:E30)</f>
+        <f>SUM(E28:E32)</f>
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -1578,7 +1615,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="10">
         <v>41592</v>
       </c>
@@ -1604,7 +1641,7 @@
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="23">
-        <f>SUM(E31:E35)</f>
+        <f>SUM(E33:E37)</f>
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
@@ -1612,7 +1649,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="10">
         <v>41592</v>
       </c>
@@ -1638,7 +1675,7 @@
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="23">
-        <f>SUM(E36:E40)</f>
+        <f>SUM(E38:E42)</f>
         <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -1646,7 +1683,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="10">
         <v>41593</v>
       </c>
@@ -1672,7 +1709,7 @@
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="23">
-        <f>SUM(E41:E45)</f>
+        <f>SUM(E43:E47)</f>
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -1680,7 +1717,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="38">
         <v>41594</v>
       </c>
@@ -1706,7 +1743,7 @@
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="23">
-        <f>SUM(E46:E50)</f>
+        <f>SUM(E48:E52)</f>
         <v>0</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -1714,7 +1751,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="38">
         <v>41595</v>
       </c>
@@ -1740,7 +1777,7 @@
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="23">
-        <f>SUM(E51:E55)</f>
+        <f>SUM(E53:E57)</f>
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -1748,7 +1785,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="51">
+      <c r="A18" s="84">
         <v>3</v>
       </c>
       <c r="B18" s="19">
@@ -1763,10 +1800,10 @@
       <c r="E18" s="35">
         <v>1</v>
       </c>
-      <c r="F18" s="81" t="s">
+      <c r="F18" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="80" t="s">
+      <c r="G18" s="46" t="s">
         <v>89</v>
       </c>
       <c r="H18" s="5"/>
@@ -1776,7 +1813,7 @@
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="23">
-        <f>SUM(E56:E60)</f>
+        <f>SUM(E58:E62)</f>
         <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -1784,8 +1821,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="19">
+      <c r="A19" s="79"/>
+      <c r="B19" s="81">
         <v>41597</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1797,10 +1834,10 @@
       <c r="E19" s="35">
         <v>1</v>
       </c>
-      <c r="F19" s="79" t="s">
+      <c r="F19" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="80" t="s">
+      <c r="G19" s="46" t="s">
         <v>91</v>
       </c>
       <c r="H19" s="5"/>
@@ -1810,57 +1847,75 @@
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="23">
-        <f>SUM(E61:E65)</f>
+        <f>SUM(E63:E67)</f>
         <v>0</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="19">
-        <v>41600</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+    <row r="20" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A20" s="79"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="86" t="s">
+        <v>98</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="15" t="s">
         <v>41</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="23">
-        <f>SUM(E66:E70)</f>
+        <f>SUM(E68:E72)</f>
         <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="52">
-        <v>4</v>
-      </c>
-      <c r="B21" s="10">
-        <v>41603</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+    <row r="21" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A21" s="79"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="35">
+        <v>2.15</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="5"/>
       <c r="J21" s="15" t="s">
         <v>42</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="23">
-        <f>SUM(E71:E75)</f>
+        <f>SUM(E73:E77)</f>
         <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -1868,23 +1923,23 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="10">
-        <v>41604</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="19">
+        <v>41600</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="23">
-        <f>SUM(E76:E80)</f>
+        <f>SUM(E78:E82)</f>
         <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -1892,9 +1947,11 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="77">
+        <v>4</v>
+      </c>
       <c r="B23" s="10">
-        <v>41605</v>
+        <v>41603</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1908,7 +1965,7 @@
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="23">
-        <f>SUM(E81:E85)</f>
+        <f>SUM(E83:E87)</f>
         <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -1916,9 +1973,9 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="78"/>
       <c r="B24" s="10">
-        <v>41606</v>
+        <v>41604</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1932,7 +1989,7 @@
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="23">
-        <f>SUM(E86:E90)</f>
+        <f>SUM(E88:E92)</f>
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -1940,9 +1997,9 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="10">
-        <v>41607</v>
+        <v>41605</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1956,7 +2013,7 @@
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="23">
-        <f>SUM(E91:E95)</f>
+        <f>SUM(E93:E97)</f>
         <v>0</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -1964,25 +2021,23 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="45">
-        <v>5</v>
-      </c>
-      <c r="B26" s="19">
-        <v>41610</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="10">
+        <v>41606</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
       <c r="J26" s="15" t="s">
         <v>47</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="23">
-        <f>SUM(E96:E100)</f>
+        <f>SUM(E98:E102)</f>
         <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
@@ -1990,23 +2045,23 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="19">
-        <v>41611</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="A27" s="78"/>
+      <c r="B27" s="10">
+        <v>41607</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="15" t="s">
         <v>48</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="23">
-        <f>SUM(E101:E105)</f>
+        <f>SUM(E103:E107)</f>
         <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
@@ -2014,9 +2069,11 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="79">
+        <v>5</v>
+      </c>
       <c r="B28" s="19">
-        <v>41612</v>
+        <v>41610</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2030,7 +2087,7 @@
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="23">
-        <f>SUM(E106:E110)</f>
+        <f>SUM(E108:E112)</f>
         <v>0</v>
       </c>
       <c r="M28" s="3" t="s">
@@ -2038,9 +2095,9 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="19">
-        <v>41613</v>
+        <v>41611</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2054,7 +2111,7 @@
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="23">
-        <f>SUM(E111:E115)</f>
+        <f>SUM(E113:E117)</f>
         <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
@@ -2062,9 +2119,9 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="79"/>
       <c r="B30" s="19">
-        <v>41614</v>
+        <v>41612</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -2078,7 +2135,7 @@
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="23">
-        <f>SUM(E116:E120)</f>
+        <f>SUM(E118:E122)</f>
         <v>0</v>
       </c>
       <c r="M30" s="3" t="s">
@@ -2086,25 +2143,23 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="46">
-        <v>6</v>
-      </c>
-      <c r="B31" s="10">
-        <v>41617</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="19">
+        <v>41613</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="15" t="s">
         <v>52</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="23">
-        <f>SUM(E121:E125)</f>
+        <f>SUM(E123:E127)</f>
         <v>0</v>
       </c>
       <c r="M31" s="3" t="s">
@@ -2112,23 +2167,23 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="10">
-        <v>41618</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="19">
+        <v>41614</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="15" t="s">
         <v>53</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="23">
-        <f>SUM(E126:E130)</f>
+        <f>SUM(E128:E132)</f>
         <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
@@ -2136,9 +2191,11 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
+      <c r="A33" s="78">
+        <v>6</v>
+      </c>
       <c r="B33" s="10">
-        <v>41619</v>
+        <v>41617</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -2152,7 +2209,7 @@
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="23">
-        <f>SUM(E131:E135)</f>
+        <f>SUM(E133:E137)</f>
         <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
@@ -2160,9 +2217,9 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="10">
-        <v>41620</v>
+        <v>41618</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -2176,7 +2233,7 @@
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="23">
-        <f>SUM(E136:E140)</f>
+        <f>SUM(E138:E142)</f>
         <v>0</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -2184,9 +2241,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
+      <c r="A35" s="78"/>
       <c r="B35" s="10">
-        <v>41621</v>
+        <v>41619</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -2200,7 +2257,7 @@
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="23">
-        <f>SUM(E141:E145)</f>
+        <f>SUM(E143:E147)</f>
         <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -2208,25 +2265,23 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="45">
-        <v>7</v>
-      </c>
-      <c r="B36" s="19">
-        <v>41624</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="A36" s="78"/>
+      <c r="B36" s="10">
+        <v>41620</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
       <c r="J36" s="15" t="s">
         <v>57</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="23">
-        <f>SUM(E146:E150)</f>
+        <f>SUM(E148:E152)</f>
         <v>0</v>
       </c>
       <c r="M36" s="3" t="s">
@@ -2234,23 +2289,23 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="19">
-        <v>41625</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="A37" s="78"/>
+      <c r="B37" s="10">
+        <v>41621</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
       <c r="J37" s="15" t="s">
         <v>58</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="23">
-        <f>SUM(E151:E155)</f>
+        <f>SUM(E153:E157)</f>
         <v>0</v>
       </c>
       <c r="M37" s="3" t="s">
@@ -2258,9 +2313,11 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="79">
+        <v>7</v>
+      </c>
       <c r="B38" s="19">
-        <v>41626</v>
+        <v>41624</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2271,9 +2328,9 @@
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="79"/>
       <c r="B39" s="19">
-        <v>41627</v>
+        <v>41625</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2284,9 +2341,9 @@
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="79"/>
       <c r="B40" s="19">
-        <v>41628</v>
+        <v>41626</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2297,37 +2354,37 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="46">
+      <c r="A41" s="79"/>
+      <c r="B41" s="19">
+        <v>41627</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="79"/>
+      <c r="B42" s="19">
+        <v>41628</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="78">
         <v>8</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B43" s="10">
         <v>41631</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
-      <c r="B42" s="10">
-        <v>41632</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
-      <c r="B43" s="10">
-        <v>41633</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -2338,9 +2395,9 @@
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
+      <c r="A44" s="78"/>
       <c r="B44" s="10">
-        <v>41634</v>
+        <v>41632</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2351,9 +2408,9 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
+      <c r="A45" s="78"/>
       <c r="B45" s="10">
-        <v>41635</v>
+        <v>41633</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -2364,37 +2421,37 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="45">
+      <c r="A46" s="78"/>
+      <c r="B46" s="10">
+        <v>41634</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="78"/>
+      <c r="B47" s="10">
+        <v>41635</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="79">
         <v>9</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B48" s="19">
         <v>41638</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
-      <c r="B47" s="19">
-        <v>41639</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
-      <c r="B48" s="19">
-        <v>41640</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2405,9 +2462,9 @@
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="79"/>
       <c r="B49" s="19">
-        <v>41641</v>
+        <v>41639</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -2418,9 +2475,9 @@
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="79"/>
       <c r="B50" s="19">
-        <v>41642</v>
+        <v>41640</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -2431,37 +2488,37 @@
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="46">
+      <c r="A51" s="79"/>
+      <c r="B51" s="19">
+        <v>41641</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="79"/>
+      <c r="B52" s="19">
+        <v>41642</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="78">
         <v>10</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B53" s="10">
         <v>41645</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
-      <c r="B52" s="10">
-        <v>41646</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
-      <c r="B53" s="10">
-        <v>41647</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -2472,9 +2529,9 @@
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
+      <c r="A54" s="78"/>
       <c r="B54" s="10">
-        <v>41648</v>
+        <v>41646</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -2485,9 +2542,9 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
+      <c r="A55" s="78"/>
       <c r="B55" s="10">
-        <v>41649</v>
+        <v>41647</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -2498,37 +2555,37 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="45">
+      <c r="A56" s="78"/>
+      <c r="B56" s="10">
+        <v>41648</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="78"/>
+      <c r="B57" s="10">
+        <v>41649</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="79">
         <v>11</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B58" s="19">
         <v>41652</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
-      <c r="B57" s="19">
-        <v>41653</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
-      <c r="B58" s="19">
-        <v>41654</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -2539,9 +2596,9 @@
       <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
+      <c r="A59" s="79"/>
       <c r="B59" s="19">
-        <v>41655</v>
+        <v>41653</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2552,9 +2609,9 @@
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
+      <c r="A60" s="79"/>
       <c r="B60" s="19">
-        <v>41656</v>
+        <v>41654</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2565,37 +2622,37 @@
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="46">
+      <c r="A61" s="79"/>
+      <c r="B61" s="19">
+        <v>41655</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="79"/>
+      <c r="B62" s="19">
+        <v>41656</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="78">
         <v>12</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B63" s="10">
         <v>41659</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
-      <c r="B62" s="10">
-        <v>41660</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
-      <c r="B63" s="10">
-        <v>41661</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -2606,9 +2663,9 @@
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
+      <c r="A64" s="78"/>
       <c r="B64" s="10">
-        <v>41662</v>
+        <v>41660</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2619,9 +2676,9 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="46"/>
+      <c r="A65" s="78"/>
       <c r="B65" s="10">
-        <v>41663</v>
+        <v>41661</v>
       </c>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -2632,41 +2689,37 @@
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="45">
+      <c r="A66" s="78"/>
+      <c r="B66" s="10">
+        <v>41662</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="78"/>
+      <c r="B67" s="10">
+        <v>41663</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="79">
         <v>13</v>
       </c>
-      <c r="B66" s="19">
+      <c r="B68" s="19">
         <v>41666</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-    </row>
-    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
-      <c r="B67" s="19">
-        <v>41667</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-    </row>
-    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
-      <c r="B68" s="19">
-        <v>41668</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -2679,9 +2732,9 @@
       <c r="I68" s="5"/>
     </row>
     <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="45"/>
+      <c r="A69" s="79"/>
       <c r="B69" s="19">
-        <v>41669</v>
+        <v>41667</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2694,9 +2747,9 @@
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
+      <c r="A70" s="79"/>
       <c r="B70" s="19">
-        <v>41670</v>
+        <v>41668</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -2709,41 +2762,41 @@
       <c r="I70" s="5"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="46">
+      <c r="A71" s="79"/>
+      <c r="B71" s="19">
+        <v>41669</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="79"/>
+      <c r="B72" s="19">
+        <v>41670</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="78">
         <v>14</v>
       </c>
-      <c r="B71" s="10">
+      <c r="B73" s="10">
         <v>41673</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="46"/>
-      <c r="B72" s="10">
-        <v>41674</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-    </row>
-    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="46"/>
-      <c r="B73" s="10">
-        <v>41675</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -2756,9 +2809,9 @@
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="46"/>
+      <c r="A74" s="78"/>
       <c r="B74" s="10">
-        <v>41676</v>
+        <v>41674</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -2771,9 +2824,9 @@
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="46"/>
+      <c r="A75" s="78"/>
       <c r="B75" s="10">
-        <v>41677</v>
+        <v>41675</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2786,37 +2839,41 @@
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="45">
+      <c r="A76" s="78"/>
+      <c r="B76" s="10">
+        <v>41676</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="78"/>
+      <c r="B77" s="10">
+        <v>41677</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="79">
         <v>15</v>
       </c>
-      <c r="B76" s="19">
+      <c r="B78" s="19">
         <v>41680</v>
-      </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-    </row>
-    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
-      <c r="B77" s="19">
-        <v>41681</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
-      <c r="B78" s="19">
-        <v>41682</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -2827,9 +2884,9 @@
       <c r="I78" s="5"/>
     </row>
     <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
+      <c r="A79" s="79"/>
       <c r="B79" s="19">
-        <v>41683</v>
+        <v>41681</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -2840,9 +2897,9 @@
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
+      <c r="A80" s="79"/>
       <c r="B80" s="19">
-        <v>41684</v>
+        <v>41682</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -2853,37 +2910,37 @@
       <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="46">
+      <c r="A81" s="79"/>
+      <c r="B81" s="19">
+        <v>41683</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="79"/>
+      <c r="B82" s="19">
+        <v>41684</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="78">
         <v>16</v>
       </c>
-      <c r="B81" s="10">
+      <c r="B83" s="10">
         <v>41687</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="46"/>
-      <c r="B82" s="10">
-        <v>41688</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-    </row>
-    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="46"/>
-      <c r="B83" s="10">
-        <v>41689</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2894,9 +2951,9 @@
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="46"/>
+      <c r="A84" s="78"/>
       <c r="B84" s="10">
-        <v>41690</v>
+        <v>41688</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -2907,9 +2964,9 @@
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="46"/>
+      <c r="A85" s="78"/>
       <c r="B85" s="10">
-        <v>41691</v>
+        <v>41689</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2920,37 +2977,37 @@
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="45">
+      <c r="A86" s="78"/>
+      <c r="B86" s="10">
+        <v>41690</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="78"/>
+      <c r="B87" s="10">
+        <v>41691</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="79">
         <v>17</v>
       </c>
-      <c r="B86" s="19">
+      <c r="B88" s="19">
         <v>41694</v>
-      </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-    </row>
-    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="45"/>
-      <c r="B87" s="19">
-        <v>41695</v>
-      </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-    </row>
-    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="45"/>
-      <c r="B88" s="19">
-        <v>41696</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -2961,9 +3018,9 @@
       <c r="I88" s="5"/>
     </row>
     <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
+      <c r="A89" s="79"/>
       <c r="B89" s="19">
-        <v>41697</v>
+        <v>41695</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -2974,9 +3031,9 @@
       <c r="I89" s="5"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="45"/>
+      <c r="A90" s="79"/>
       <c r="B90" s="19">
-        <v>41698</v>
+        <v>41696</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -2987,37 +3044,37 @@
       <c r="I90" s="5"/>
     </row>
     <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="46">
+      <c r="A91" s="79"/>
+      <c r="B91" s="19">
+        <v>41697</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="79"/>
+      <c r="B92" s="19">
+        <v>41698</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="78">
         <v>18</v>
       </c>
-      <c r="B91" s="10">
+      <c r="B93" s="10">
         <v>41701</v>
-      </c>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-    </row>
-    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="46"/>
-      <c r="B92" s="10">
-        <v>41702</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-    </row>
-    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="46"/>
-      <c r="B93" s="10">
-        <v>41703</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -3028,9 +3085,9 @@
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="46"/>
+      <c r="A94" s="78"/>
       <c r="B94" s="10">
-        <v>41704</v>
+        <v>41702</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -3041,9 +3098,9 @@
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="46"/>
+      <c r="A95" s="78"/>
       <c r="B95" s="10">
-        <v>41705</v>
+        <v>41703</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3054,37 +3111,37 @@
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="45">
+      <c r="A96" s="78"/>
+      <c r="B96" s="10">
+        <v>41704</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="78"/>
+      <c r="B97" s="10">
+        <v>41705</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="79">
         <v>19</v>
       </c>
-      <c r="B96" s="19">
+      <c r="B98" s="19">
         <v>41708</v>
-      </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-    </row>
-    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="45"/>
-      <c r="B97" s="19">
-        <v>41709</v>
-      </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-    </row>
-    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="45"/>
-      <c r="B98" s="19">
-        <v>41710</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -3095,9 +3152,9 @@
       <c r="I98" s="5"/>
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="45"/>
+      <c r="A99" s="79"/>
       <c r="B99" s="19">
-        <v>41711</v>
+        <v>41709</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -3108,9 +3165,9 @@
       <c r="I99" s="5"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="45"/>
+      <c r="A100" s="79"/>
       <c r="B100" s="19">
-        <v>41712</v>
+        <v>41710</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -3121,37 +3178,37 @@
       <c r="I100" s="5"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="46">
+      <c r="A101" s="79"/>
+      <c r="B101" s="19">
+        <v>41711</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="79"/>
+      <c r="B102" s="19">
+        <v>41712</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="78">
         <v>20</v>
       </c>
-      <c r="B101" s="10">
+      <c r="B103" s="10">
         <v>41715</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-    </row>
-    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="46"/>
-      <c r="B102" s="10">
-        <v>41716</v>
-      </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-    </row>
-    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="46"/>
-      <c r="B103" s="10">
-        <v>41717</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -3162,9 +3219,9 @@
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="46"/>
+      <c r="A104" s="78"/>
       <c r="B104" s="10">
-        <v>41718</v>
+        <v>41716</v>
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -3175,9 +3232,9 @@
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="46"/>
+      <c r="A105" s="78"/>
       <c r="B105" s="10">
-        <v>41719</v>
+        <v>41717</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3188,37 +3245,37 @@
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="45">
+      <c r="A106" s="78"/>
+      <c r="B106" s="10">
+        <v>41718</v>
+      </c>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="78"/>
+      <c r="B107" s="10">
+        <v>41719</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="79">
         <v>21</v>
       </c>
-      <c r="B106" s="19">
+      <c r="B108" s="19">
         <v>41722</v>
-      </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-    </row>
-    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="45"/>
-      <c r="B107" s="19">
-        <v>41723</v>
-      </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-    </row>
-    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="45"/>
-      <c r="B108" s="19">
-        <v>41724</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -3229,9 +3286,9 @@
       <c r="I108" s="5"/>
     </row>
     <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="45"/>
+      <c r="A109" s="79"/>
       <c r="B109" s="19">
-        <v>41725</v>
+        <v>41723</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -3242,9 +3299,9 @@
       <c r="I109" s="5"/>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="45"/>
+      <c r="A110" s="79"/>
       <c r="B110" s="19">
-        <v>41726</v>
+        <v>41724</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -3255,37 +3312,37 @@
       <c r="I110" s="5"/>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="46">
+      <c r="A111" s="79"/>
+      <c r="B111" s="19">
+        <v>41725</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+    </row>
+    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="79"/>
+      <c r="B112" s="19">
+        <v>41726</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+    </row>
+    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="78">
         <v>22</v>
       </c>
-      <c r="B111" s="10">
+      <c r="B113" s="10">
         <v>41729</v>
-      </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-    </row>
-    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="46"/>
-      <c r="B112" s="10">
-        <v>41730</v>
-      </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-    </row>
-    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="46"/>
-      <c r="B113" s="10">
-        <v>41731</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -3296,9 +3353,9 @@
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="46"/>
+      <c r="A114" s="78"/>
       <c r="B114" s="10">
-        <v>41732</v>
+        <v>41730</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -3309,9 +3366,9 @@
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="46"/>
+      <c r="A115" s="78"/>
       <c r="B115" s="10">
-        <v>41733</v>
+        <v>41731</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3322,37 +3379,37 @@
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="45">
+      <c r="A116" s="78"/>
+      <c r="B116" s="10">
+        <v>41732</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="78"/>
+      <c r="B117" s="10">
+        <v>41733</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="79">
         <v>23</v>
       </c>
-      <c r="B116" s="19">
+      <c r="B118" s="19">
         <v>41736</v>
-      </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-    </row>
-    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="45"/>
-      <c r="B117" s="19">
-        <v>41737</v>
-      </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-    </row>
-    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="45"/>
-      <c r="B118" s="19">
-        <v>41738</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -3363,9 +3420,9 @@
       <c r="I118" s="5"/>
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="45"/>
+      <c r="A119" s="79"/>
       <c r="B119" s="19">
-        <v>41739</v>
+        <v>41737</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -3376,9 +3433,9 @@
       <c r="I119" s="5"/>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="45"/>
+      <c r="A120" s="79"/>
       <c r="B120" s="19">
-        <v>41740</v>
+        <v>41738</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -3389,37 +3446,37 @@
       <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="46">
+      <c r="A121" s="79"/>
+      <c r="B121" s="19">
+        <v>41739</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+    </row>
+    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="79"/>
+      <c r="B122" s="19">
+        <v>41740</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+    </row>
+    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="78">
         <v>24</v>
       </c>
-      <c r="B121" s="10">
+      <c r="B123" s="10">
         <v>41743</v>
-      </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
-    </row>
-    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="46"/>
-      <c r="B122" s="10">
-        <v>41744</v>
-      </c>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-    </row>
-    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="46"/>
-      <c r="B123" s="10">
-        <v>41745</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3430,9 +3487,9 @@
       <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="46"/>
+      <c r="A124" s="78"/>
       <c r="B124" s="10">
-        <v>41746</v>
+        <v>41744</v>
       </c>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3443,9 +3500,9 @@
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="46"/>
+      <c r="A125" s="78"/>
       <c r="B125" s="10">
-        <v>41747</v>
+        <v>41745</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3456,37 +3513,37 @@
       <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="45">
+      <c r="A126" s="78"/>
+      <c r="B126" s="10">
+        <v>41746</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="78"/>
+      <c r="B127" s="10">
+        <v>41747</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+    </row>
+    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="79">
         <v>25</v>
       </c>
-      <c r="B126" s="19">
+      <c r="B128" s="19">
         <v>41750</v>
-      </c>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-    </row>
-    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="45"/>
-      <c r="B127" s="19">
-        <v>41751</v>
-      </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-    </row>
-    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="45"/>
-      <c r="B128" s="19">
-        <v>41752</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -3497,9 +3554,9 @@
       <c r="I128" s="5"/>
     </row>
     <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="45"/>
+      <c r="A129" s="79"/>
       <c r="B129" s="19">
-        <v>41753</v>
+        <v>41751</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -3510,9 +3567,9 @@
       <c r="I129" s="5"/>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="45"/>
+      <c r="A130" s="79"/>
       <c r="B130" s="19">
-        <v>41754</v>
+        <v>41752</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -3523,37 +3580,37 @@
       <c r="I130" s="5"/>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="46">
+      <c r="A131" s="79"/>
+      <c r="B131" s="19">
+        <v>41753</v>
+      </c>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+    </row>
+    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="79"/>
+      <c r="B132" s="19">
+        <v>41754</v>
+      </c>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+    </row>
+    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="78">
         <v>26</v>
       </c>
-      <c r="B131" s="10">
+      <c r="B133" s="10">
         <v>41757</v>
-      </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-    </row>
-    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="46"/>
-      <c r="B132" s="10">
-        <v>41758</v>
-      </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
-    </row>
-    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="46"/>
-      <c r="B133" s="10">
-        <v>41759</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -3564,9 +3621,9 @@
       <c r="I133" s="6"/>
     </row>
     <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="46"/>
+      <c r="A134" s="78"/>
       <c r="B134" s="10">
-        <v>41760</v>
+        <v>41758</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -3577,9 +3634,9 @@
       <c r="I134" s="6"/>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="46"/>
+      <c r="A135" s="78"/>
       <c r="B135" s="10">
-        <v>41761</v>
+        <v>41759</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -3590,37 +3647,37 @@
       <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="45">
+      <c r="A136" s="78"/>
+      <c r="B136" s="10">
+        <v>41760</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+    </row>
+    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="78"/>
+      <c r="B137" s="10">
+        <v>41761</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+    </row>
+    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="79">
         <v>27</v>
       </c>
-      <c r="B136" s="19">
+      <c r="B138" s="19">
         <v>41764</v>
-      </c>
-      <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-    </row>
-    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="45"/>
-      <c r="B137" s="19">
-        <v>41765</v>
-      </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-    </row>
-    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="45"/>
-      <c r="B138" s="19">
-        <v>41766</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -3631,9 +3688,9 @@
       <c r="I138" s="5"/>
     </row>
     <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="45"/>
+      <c r="A139" s="79"/>
       <c r="B139" s="19">
-        <v>41767</v>
+        <v>41765</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -3644,9 +3701,9 @@
       <c r="I139" s="5"/>
     </row>
     <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="45"/>
+      <c r="A140" s="79"/>
       <c r="B140" s="19">
-        <v>41768</v>
+        <v>41766</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -3657,37 +3714,37 @@
       <c r="I140" s="5"/>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="46">
+      <c r="A141" s="79"/>
+      <c r="B141" s="19">
+        <v>41767</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="79"/>
+      <c r="B142" s="19">
+        <v>41768</v>
+      </c>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+    </row>
+    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="78">
         <v>28</v>
       </c>
-      <c r="B141" s="10">
+      <c r="B143" s="10">
         <v>41771</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-    </row>
-    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="46"/>
-      <c r="B142" s="10">
-        <v>41772</v>
-      </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
-    </row>
-    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="46"/>
-      <c r="B143" s="10">
-        <v>41773</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -3698,9 +3755,9 @@
       <c r="I143" s="6"/>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="46"/>
+      <c r="A144" s="78"/>
       <c r="B144" s="10">
-        <v>41774</v>
+        <v>41772</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -3711,9 +3768,9 @@
       <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="46"/>
+      <c r="A145" s="78"/>
       <c r="B145" s="10">
-        <v>41775</v>
+        <v>41773</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -3724,37 +3781,37 @@
       <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="45">
+      <c r="A146" s="78"/>
+      <c r="B146" s="10">
+        <v>41774</v>
+      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+    </row>
+    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="78"/>
+      <c r="B147" s="10">
+        <v>41775</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+    </row>
+    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="79">
         <v>29</v>
       </c>
-      <c r="B146" s="19">
+      <c r="B148" s="19">
         <v>41778</v>
-      </c>
-      <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-    </row>
-    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="45"/>
-      <c r="B147" s="19">
-        <v>41779</v>
-      </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
-      <c r="I147" s="5"/>
-    </row>
-    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="45"/>
-      <c r="B148" s="19">
-        <v>41780</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -3765,9 +3822,9 @@
       <c r="I148" s="5"/>
     </row>
     <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="45"/>
+      <c r="A149" s="79"/>
       <c r="B149" s="19">
-        <v>41781</v>
+        <v>41779</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -3778,9 +3835,9 @@
       <c r="I149" s="5"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="45"/>
+      <c r="A150" s="79"/>
       <c r="B150" s="19">
-        <v>41782</v>
+        <v>41780</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -3791,37 +3848,37 @@
       <c r="I150" s="5"/>
     </row>
     <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="47">
+      <c r="A151" s="79"/>
+      <c r="B151" s="19">
+        <v>41781</v>
+      </c>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="5"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+    </row>
+    <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="79"/>
+      <c r="B152" s="19">
+        <v>41782</v>
+      </c>
+      <c r="C152" s="5"/>
+      <c r="D152" s="5"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+    </row>
+    <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="80">
         <v>30</v>
       </c>
-      <c r="B151" s="10">
+      <c r="B153" s="10">
         <v>41785</v>
-      </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-    </row>
-    <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="47"/>
-      <c r="B152" s="10">
-        <v>41786</v>
-      </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-    </row>
-    <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="47"/>
-      <c r="B153" s="10">
-        <v>41787</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -3832,9 +3889,9 @@
       <c r="I153" s="2"/>
     </row>
     <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="47"/>
+      <c r="A154" s="80"/>
       <c r="B154" s="10">
-        <v>41788</v>
+        <v>41786</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -3845,9 +3902,9 @@
       <c r="I154" s="2"/>
     </row>
     <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="47"/>
+      <c r="A155" s="80"/>
       <c r="B155" s="10">
-        <v>41789</v>
+        <v>41787</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -3858,184 +3915,240 @@
       <c r="I155" s="2"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="47"/>
-      <c r="B156" s="20">
+      <c r="A156" s="80"/>
+      <c r="B156" s="10">
+        <v>41788</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="80"/>
+      <c r="B157" s="10">
+        <v>41789</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A158" s="80"/>
+      <c r="B158" s="20">
         <v>41790</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="44"/>
-      <c r="B157" s="10">
+    <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="44"/>
+      <c r="B159" s="10">
         <v>41791</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B158" s="10">
-        <v>41792</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B159" s="10">
-        <v>41793</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B160" s="10">
-        <v>41794</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="161" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B161" s="10">
-        <v>41795</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="162" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B162" s="10">
-        <v>41796</v>
+        <v>41794</v>
       </c>
     </row>
     <row r="163" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B163" s="10">
-        <v>41797</v>
+        <v>41795</v>
       </c>
     </row>
     <row r="164" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B164" s="10">
-        <v>41798</v>
+        <v>41796</v>
       </c>
     </row>
     <row r="165" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B165" s="10">
-        <v>41799</v>
+        <v>41797</v>
       </c>
     </row>
     <row r="166" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B166" s="10">
-        <v>41800</v>
+        <v>41798</v>
       </c>
     </row>
     <row r="167" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B167" s="10">
-        <v>41801</v>
+        <v>41799</v>
       </c>
     </row>
     <row r="168" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B168" s="10">
-        <v>41802</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="169" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B169" s="10">
-        <v>41803</v>
+        <v>41801</v>
       </c>
     </row>
     <row r="170" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B170" s="10">
-        <v>41804</v>
+        <v>41802</v>
       </c>
     </row>
     <row r="171" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B171" s="10">
-        <v>41805</v>
+        <v>41803</v>
       </c>
     </row>
     <row r="172" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B172" s="10">
-        <v>41806</v>
+        <v>41804</v>
       </c>
     </row>
     <row r="173" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B173" s="10">
-        <v>41807</v>
+        <v>41805</v>
       </c>
     </row>
     <row r="174" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B174" s="10">
-        <v>41808</v>
+        <v>41806</v>
       </c>
     </row>
     <row r="175" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B175" s="10">
-        <v>41809</v>
+        <v>41807</v>
       </c>
     </row>
     <row r="176" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B176" s="10">
-        <v>41810</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B177" s="10">
-        <v>41811</v>
+        <v>41809</v>
       </c>
     </row>
     <row r="178" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B178" s="10">
-        <v>41812</v>
+        <v>41810</v>
       </c>
     </row>
     <row r="179" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B179" s="10">
-        <v>41813</v>
+        <v>41811</v>
       </c>
     </row>
     <row r="180" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B180" s="10">
-        <v>41814</v>
+        <v>41812</v>
       </c>
     </row>
     <row r="181" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B181" s="10">
-        <v>41815</v>
+        <v>41813</v>
       </c>
     </row>
     <row r="182" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B182" s="10">
-        <v>41816</v>
+        <v>41814</v>
       </c>
     </row>
     <row r="183" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B183" s="10">
-        <v>41817</v>
+        <v>41815</v>
       </c>
     </row>
     <row r="184" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B184" s="10">
-        <v>41818</v>
+        <v>41816</v>
       </c>
     </row>
     <row r="185" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B185" s="10">
-        <v>41819</v>
+        <v>41817</v>
       </c>
     </row>
     <row r="186" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B186" s="10">
-        <v>41820</v>
+        <v>41818</v>
       </c>
     </row>
     <row r="187" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B187" s="10">
-        <v>41821</v>
+        <v>41819</v>
       </c>
     </row>
     <row r="188" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B188" s="10">
-        <v>41822</v>
+        <v>41820</v>
       </c>
     </row>
     <row r="189" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B189" s="10">
-        <v>41823</v>
+        <v>41821</v>
       </c>
     </row>
     <row r="190" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B190" s="10">
+        <v>41822</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B191" s="10">
+        <v>41823</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B192" s="10">
         <v>41824</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A153:A158"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A77"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="F2:M4"/>
@@ -4043,35 +4156,6 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A156"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A76:A80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="102">
   <si>
     <t>Week</t>
   </si>
@@ -335,6 +335,18 @@
   </si>
   <si>
     <t>AS_AD_Architecture Plan.doxc</t>
+  </si>
+  <si>
+    <t>5:00PM</t>
+  </si>
+  <si>
+    <t>Phu, Khang, Dao, Chau discuss about Scrum model combine ACDM
+Update architeture plan document and deadline team process document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS_AD_Architecture Plan.doxc
+AS_PM_Deadline Team Process.doxc
+</t>
   </si>
 </sst>
 </file>
@@ -639,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -756,6 +768,45 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -834,44 +885,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1271,10 +1286,10 @@
   <dimension ref="A1:M192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1295,77 +1310,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="51"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="53"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="54" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="59"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="62"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="75"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="86"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
@@ -1403,10 +1418,10 @@
       <c r="I6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -1430,20 +1445,20 @@
       <c r="G7" s="14"/>
       <c r="H7" s="17"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="69" t="s">
+      <c r="J7" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="69"/>
+      <c r="K7" s="82"/>
       <c r="L7" s="9">
         <f>SUM(L8:L37)</f>
-        <v>22.950000000000003</v>
+        <v>26.450000000000003</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="74">
+      <c r="A8" s="57">
         <v>2</v>
       </c>
       <c r="B8" s="10">
@@ -1479,7 +1494,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="10">
         <v>41589</v>
       </c>
@@ -1513,7 +1528,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="10">
         <v>41590</v>
       </c>
@@ -1540,14 +1555,14 @@
       <c r="K10" s="6"/>
       <c r="L10" s="23">
         <f>SUM(E18:E22)</f>
-        <v>5.65</v>
+        <v>9.15</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="10">
         <v>41590</v>
       </c>
@@ -1581,7 +1596,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="10">
         <v>41591</v>
       </c>
@@ -1615,7 +1630,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="10">
         <v>41592</v>
       </c>
@@ -1649,7 +1664,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="10">
         <v>41592</v>
       </c>
@@ -1683,7 +1698,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="10">
         <v>41593</v>
       </c>
@@ -1717,7 +1732,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="38">
         <v>41594</v>
       </c>
@@ -1751,7 +1766,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="38">
         <v>41595</v>
       </c>
@@ -1785,7 +1800,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="84">
+      <c r="A18" s="52">
         <v>3</v>
       </c>
       <c r="B18" s="19">
@@ -1821,8 +1836,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
-      <c r="B19" s="81">
+      <c r="A19" s="53"/>
+      <c r="B19" s="49">
         <v>41597</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1855,8 +1870,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
-      <c r="B20" s="82"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="12" t="s">
         <v>92</v>
       </c>
@@ -1872,7 +1887,7 @@
       <c r="G20" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="86" t="s">
+      <c r="H20" s="48" t="s">
         <v>98</v>
       </c>
       <c r="I20" s="5"/>
@@ -1889,8 +1904,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="83"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="12" t="s">
         <v>68</v>
       </c>
@@ -1906,7 +1921,7 @@
       <c r="G21" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="86" t="s">
+      <c r="H21" s="48" t="s">
         <v>97</v>
       </c>
       <c r="I21" s="5"/>
@@ -1922,17 +1937,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
+    <row r="22" spans="1:13" ht="66" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
       <c r="B22" s="19">
-        <v>41600</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+        <v>41598</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="F22" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="87" t="s">
+        <v>101</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="15" t="s">
         <v>43</v>
@@ -1947,7 +1974,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="77">
+      <c r="A23" s="60">
         <v>4</v>
       </c>
       <c r="B23" s="10">
@@ -1973,7 +2000,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="10">
         <v>41604</v>
       </c>
@@ -1997,7 +2024,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="10">
         <v>41605</v>
       </c>
@@ -2021,7 +2048,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="10">
         <v>41606</v>
       </c>
@@ -2045,7 +2072,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="78"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="10">
         <v>41607</v>
       </c>
@@ -2069,7 +2096,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="79">
+      <c r="A28" s="53">
         <v>5</v>
       </c>
       <c r="B28" s="19">
@@ -2095,7 +2122,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="19">
         <v>41611</v>
       </c>
@@ -2119,7 +2146,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="19">
         <v>41612</v>
       </c>
@@ -2143,7 +2170,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="19">
         <v>41613</v>
       </c>
@@ -2167,7 +2194,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="19">
         <v>41614</v>
       </c>
@@ -2191,7 +2218,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="78">
+      <c r="A33" s="55">
         <v>6</v>
       </c>
       <c r="B33" s="10">
@@ -2217,7 +2244,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="78"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="10">
         <v>41618</v>
       </c>
@@ -2241,7 +2268,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="10">
         <v>41619</v>
       </c>
@@ -2265,7 +2292,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="10">
         <v>41620</v>
       </c>
@@ -2289,7 +2316,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="10">
         <v>41621</v>
       </c>
@@ -2313,7 +2340,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="79">
+      <c r="A38" s="53">
         <v>7</v>
       </c>
       <c r="B38" s="19">
@@ -2328,7 +2355,7 @@
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="79"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="19">
         <v>41625</v>
       </c>
@@ -2341,7 +2368,7 @@
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="19">
         <v>41626</v>
       </c>
@@ -2354,7 +2381,7 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="19">
         <v>41627</v>
       </c>
@@ -2367,7 +2394,7 @@
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="19">
         <v>41628</v>
       </c>
@@ -2380,7 +2407,7 @@
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="78">
+      <c r="A43" s="55">
         <v>8</v>
       </c>
       <c r="B43" s="10">
@@ -2395,7 +2422,7 @@
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="78"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="10">
         <v>41632</v>
       </c>
@@ -2408,7 +2435,7 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="10">
         <v>41633</v>
       </c>
@@ -2421,7 +2448,7 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="10">
         <v>41634</v>
       </c>
@@ -2434,7 +2461,7 @@
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="10">
         <v>41635</v>
       </c>
@@ -2447,7 +2474,7 @@
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="79">
+      <c r="A48" s="53">
         <v>9</v>
       </c>
       <c r="B48" s="19">
@@ -2462,7 +2489,7 @@
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="19">
         <v>41639</v>
       </c>
@@ -2475,7 +2502,7 @@
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="79"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="19">
         <v>41640</v>
       </c>
@@ -2488,7 +2515,7 @@
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="79"/>
+      <c r="A51" s="53"/>
       <c r="B51" s="19">
         <v>41641</v>
       </c>
@@ -2501,7 +2528,7 @@
       <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="79"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="19">
         <v>41642</v>
       </c>
@@ -2514,7 +2541,7 @@
       <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="78">
+      <c r="A53" s="55">
         <v>10</v>
       </c>
       <c r="B53" s="10">
@@ -2529,7 +2556,7 @@
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="78"/>
+      <c r="A54" s="55"/>
       <c r="B54" s="10">
         <v>41646</v>
       </c>
@@ -2542,7 +2569,7 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="78"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="10">
         <v>41647</v>
       </c>
@@ -2555,7 +2582,7 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="10">
         <v>41648</v>
       </c>
@@ -2568,7 +2595,7 @@
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="78"/>
+      <c r="A57" s="55"/>
       <c r="B57" s="10">
         <v>41649</v>
       </c>
@@ -2581,7 +2608,7 @@
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="79">
+      <c r="A58" s="53">
         <v>11</v>
       </c>
       <c r="B58" s="19">
@@ -2596,7 +2623,7 @@
       <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="79"/>
+      <c r="A59" s="53"/>
       <c r="B59" s="19">
         <v>41653</v>
       </c>
@@ -2609,7 +2636,7 @@
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="79"/>
+      <c r="A60" s="53"/>
       <c r="B60" s="19">
         <v>41654</v>
       </c>
@@ -2622,7 +2649,7 @@
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="79"/>
+      <c r="A61" s="53"/>
       <c r="B61" s="19">
         <v>41655</v>
       </c>
@@ -2635,7 +2662,7 @@
       <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="79"/>
+      <c r="A62" s="53"/>
       <c r="B62" s="19">
         <v>41656</v>
       </c>
@@ -2648,7 +2675,7 @@
       <c r="I62" s="5"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="78">
+      <c r="A63" s="55">
         <v>12</v>
       </c>
       <c r="B63" s="10">
@@ -2663,7 +2690,7 @@
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="78"/>
+      <c r="A64" s="55"/>
       <c r="B64" s="10">
         <v>41660</v>
       </c>
@@ -2676,7 +2703,7 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="78"/>
+      <c r="A65" s="55"/>
       <c r="B65" s="10">
         <v>41661</v>
       </c>
@@ -2689,7 +2716,7 @@
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="78"/>
+      <c r="A66" s="55"/>
       <c r="B66" s="10">
         <v>41662</v>
       </c>
@@ -2702,7 +2729,7 @@
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="78"/>
+      <c r="A67" s="55"/>
       <c r="B67" s="10">
         <v>41663</v>
       </c>
@@ -2715,7 +2742,7 @@
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="79">
+      <c r="A68" s="53">
         <v>13</v>
       </c>
       <c r="B68" s="19">
@@ -2732,7 +2759,7 @@
       <c r="I68" s="5"/>
     </row>
     <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="79"/>
+      <c r="A69" s="53"/>
       <c r="B69" s="19">
         <v>41667</v>
       </c>
@@ -2747,7 +2774,7 @@
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="79"/>
+      <c r="A70" s="53"/>
       <c r="B70" s="19">
         <v>41668</v>
       </c>
@@ -2762,7 +2789,7 @@
       <c r="I70" s="5"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="79"/>
+      <c r="A71" s="53"/>
       <c r="B71" s="19">
         <v>41669</v>
       </c>
@@ -2777,7 +2804,7 @@
       <c r="I71" s="5"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="79"/>
+      <c r="A72" s="53"/>
       <c r="B72" s="19">
         <v>41670</v>
       </c>
@@ -2792,7 +2819,7 @@
       <c r="I72" s="5"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="78">
+      <c r="A73" s="55">
         <v>14</v>
       </c>
       <c r="B73" s="10">
@@ -2809,7 +2836,7 @@
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="78"/>
+      <c r="A74" s="55"/>
       <c r="B74" s="10">
         <v>41674</v>
       </c>
@@ -2824,7 +2851,7 @@
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="78"/>
+      <c r="A75" s="55"/>
       <c r="B75" s="10">
         <v>41675</v>
       </c>
@@ -2839,7 +2866,7 @@
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="78"/>
+      <c r="A76" s="55"/>
       <c r="B76" s="10">
         <v>41676</v>
       </c>
@@ -2854,7 +2881,7 @@
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="78"/>
+      <c r="A77" s="55"/>
       <c r="B77" s="10">
         <v>41677</v>
       </c>
@@ -2869,7 +2896,7 @@
       <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="79">
+      <c r="A78" s="53">
         <v>15</v>
       </c>
       <c r="B78" s="19">
@@ -2884,7 +2911,7 @@
       <c r="I78" s="5"/>
     </row>
     <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="79"/>
+      <c r="A79" s="53"/>
       <c r="B79" s="19">
         <v>41681</v>
       </c>
@@ -2897,7 +2924,7 @@
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="79"/>
+      <c r="A80" s="53"/>
       <c r="B80" s="19">
         <v>41682</v>
       </c>
@@ -2910,7 +2937,7 @@
       <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="79"/>
+      <c r="A81" s="53"/>
       <c r="B81" s="19">
         <v>41683</v>
       </c>
@@ -2923,7 +2950,7 @@
       <c r="I81" s="5"/>
     </row>
     <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="79"/>
+      <c r="A82" s="53"/>
       <c r="B82" s="19">
         <v>41684</v>
       </c>
@@ -2936,7 +2963,7 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="78">
+      <c r="A83" s="55">
         <v>16</v>
       </c>
       <c r="B83" s="10">
@@ -2951,7 +2978,7 @@
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="78"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="10">
         <v>41688</v>
       </c>
@@ -2964,7 +2991,7 @@
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="78"/>
+      <c r="A85" s="55"/>
       <c r="B85" s="10">
         <v>41689</v>
       </c>
@@ -2977,7 +3004,7 @@
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="78"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="10">
         <v>41690</v>
       </c>
@@ -2990,7 +3017,7 @@
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="78"/>
+      <c r="A87" s="55"/>
       <c r="B87" s="10">
         <v>41691</v>
       </c>
@@ -3003,7 +3030,7 @@
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="79">
+      <c r="A88" s="53">
         <v>17</v>
       </c>
       <c r="B88" s="19">
@@ -3018,7 +3045,7 @@
       <c r="I88" s="5"/>
     </row>
     <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="79"/>
+      <c r="A89" s="53"/>
       <c r="B89" s="19">
         <v>41695</v>
       </c>
@@ -3031,7 +3058,7 @@
       <c r="I89" s="5"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="79"/>
+      <c r="A90" s="53"/>
       <c r="B90" s="19">
         <v>41696</v>
       </c>
@@ -3044,7 +3071,7 @@
       <c r="I90" s="5"/>
     </row>
     <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="79"/>
+      <c r="A91" s="53"/>
       <c r="B91" s="19">
         <v>41697</v>
       </c>
@@ -3057,7 +3084,7 @@
       <c r="I91" s="5"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="79"/>
+      <c r="A92" s="53"/>
       <c r="B92" s="19">
         <v>41698</v>
       </c>
@@ -3070,7 +3097,7 @@
       <c r="I92" s="5"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="78">
+      <c r="A93" s="55">
         <v>18</v>
       </c>
       <c r="B93" s="10">
@@ -3085,7 +3112,7 @@
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="78"/>
+      <c r="A94" s="55"/>
       <c r="B94" s="10">
         <v>41702</v>
       </c>
@@ -3098,7 +3125,7 @@
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="78"/>
+      <c r="A95" s="55"/>
       <c r="B95" s="10">
         <v>41703</v>
       </c>
@@ -3111,7 +3138,7 @@
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="78"/>
+      <c r="A96" s="55"/>
       <c r="B96" s="10">
         <v>41704</v>
       </c>
@@ -3124,7 +3151,7 @@
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="78"/>
+      <c r="A97" s="55"/>
       <c r="B97" s="10">
         <v>41705</v>
       </c>
@@ -3137,7 +3164,7 @@
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="79">
+      <c r="A98" s="53">
         <v>19</v>
       </c>
       <c r="B98" s="19">
@@ -3152,7 +3179,7 @@
       <c r="I98" s="5"/>
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="79"/>
+      <c r="A99" s="53"/>
       <c r="B99" s="19">
         <v>41709</v>
       </c>
@@ -3165,7 +3192,7 @@
       <c r="I99" s="5"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="79"/>
+      <c r="A100" s="53"/>
       <c r="B100" s="19">
         <v>41710</v>
       </c>
@@ -3178,7 +3205,7 @@
       <c r="I100" s="5"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="79"/>
+      <c r="A101" s="53"/>
       <c r="B101" s="19">
         <v>41711</v>
       </c>
@@ -3191,7 +3218,7 @@
       <c r="I101" s="5"/>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="79"/>
+      <c r="A102" s="53"/>
       <c r="B102" s="19">
         <v>41712</v>
       </c>
@@ -3204,7 +3231,7 @@
       <c r="I102" s="5"/>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="78">
+      <c r="A103" s="55">
         <v>20</v>
       </c>
       <c r="B103" s="10">
@@ -3219,7 +3246,7 @@
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="78"/>
+      <c r="A104" s="55"/>
       <c r="B104" s="10">
         <v>41716</v>
       </c>
@@ -3232,7 +3259,7 @@
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="78"/>
+      <c r="A105" s="55"/>
       <c r="B105" s="10">
         <v>41717</v>
       </c>
@@ -3245,7 +3272,7 @@
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="78"/>
+      <c r="A106" s="55"/>
       <c r="B106" s="10">
         <v>41718</v>
       </c>
@@ -3258,7 +3285,7 @@
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="78"/>
+      <c r="A107" s="55"/>
       <c r="B107" s="10">
         <v>41719</v>
       </c>
@@ -3271,7 +3298,7 @@
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="79">
+      <c r="A108" s="53">
         <v>21</v>
       </c>
       <c r="B108" s="19">
@@ -3286,7 +3313,7 @@
       <c r="I108" s="5"/>
     </row>
     <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="79"/>
+      <c r="A109" s="53"/>
       <c r="B109" s="19">
         <v>41723</v>
       </c>
@@ -3299,7 +3326,7 @@
       <c r="I109" s="5"/>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="79"/>
+      <c r="A110" s="53"/>
       <c r="B110" s="19">
         <v>41724</v>
       </c>
@@ -3312,7 +3339,7 @@
       <c r="I110" s="5"/>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="79"/>
+      <c r="A111" s="53"/>
       <c r="B111" s="19">
         <v>41725</v>
       </c>
@@ -3325,7 +3352,7 @@
       <c r="I111" s="5"/>
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="79"/>
+      <c r="A112" s="53"/>
       <c r="B112" s="19">
         <v>41726</v>
       </c>
@@ -3338,7 +3365,7 @@
       <c r="I112" s="5"/>
     </row>
     <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="78">
+      <c r="A113" s="55">
         <v>22</v>
       </c>
       <c r="B113" s="10">
@@ -3353,7 +3380,7 @@
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="78"/>
+      <c r="A114" s="55"/>
       <c r="B114" s="10">
         <v>41730</v>
       </c>
@@ -3366,7 +3393,7 @@
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="78"/>
+      <c r="A115" s="55"/>
       <c r="B115" s="10">
         <v>41731</v>
       </c>
@@ -3379,7 +3406,7 @@
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="78"/>
+      <c r="A116" s="55"/>
       <c r="B116" s="10">
         <v>41732</v>
       </c>
@@ -3392,7 +3419,7 @@
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="78"/>
+      <c r="A117" s="55"/>
       <c r="B117" s="10">
         <v>41733</v>
       </c>
@@ -3405,7 +3432,7 @@
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="79">
+      <c r="A118" s="53">
         <v>23</v>
       </c>
       <c r="B118" s="19">
@@ -3420,7 +3447,7 @@
       <c r="I118" s="5"/>
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="79"/>
+      <c r="A119" s="53"/>
       <c r="B119" s="19">
         <v>41737</v>
       </c>
@@ -3433,7 +3460,7 @@
       <c r="I119" s="5"/>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="79"/>
+      <c r="A120" s="53"/>
       <c r="B120" s="19">
         <v>41738</v>
       </c>
@@ -3446,7 +3473,7 @@
       <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="79"/>
+      <c r="A121" s="53"/>
       <c r="B121" s="19">
         <v>41739</v>
       </c>
@@ -3459,7 +3486,7 @@
       <c r="I121" s="5"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="79"/>
+      <c r="A122" s="53"/>
       <c r="B122" s="19">
         <v>41740</v>
       </c>
@@ -3472,7 +3499,7 @@
       <c r="I122" s="5"/>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="78">
+      <c r="A123" s="55">
         <v>24</v>
       </c>
       <c r="B123" s="10">
@@ -3487,7 +3514,7 @@
       <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="78"/>
+      <c r="A124" s="55"/>
       <c r="B124" s="10">
         <v>41744</v>
       </c>
@@ -3500,7 +3527,7 @@
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="78"/>
+      <c r="A125" s="55"/>
       <c r="B125" s="10">
         <v>41745</v>
       </c>
@@ -3513,7 +3540,7 @@
       <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="78"/>
+      <c r="A126" s="55"/>
       <c r="B126" s="10">
         <v>41746</v>
       </c>
@@ -3526,7 +3553,7 @@
       <c r="I126" s="6"/>
     </row>
     <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="78"/>
+      <c r="A127" s="55"/>
       <c r="B127" s="10">
         <v>41747</v>
       </c>
@@ -3539,7 +3566,7 @@
       <c r="I127" s="6"/>
     </row>
     <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="79">
+      <c r="A128" s="53">
         <v>25</v>
       </c>
       <c r="B128" s="19">
@@ -3554,7 +3581,7 @@
       <c r="I128" s="5"/>
     </row>
     <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="79"/>
+      <c r="A129" s="53"/>
       <c r="B129" s="19">
         <v>41751</v>
       </c>
@@ -3567,7 +3594,7 @@
       <c r="I129" s="5"/>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="79"/>
+      <c r="A130" s="53"/>
       <c r="B130" s="19">
         <v>41752</v>
       </c>
@@ -3580,7 +3607,7 @@
       <c r="I130" s="5"/>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="79"/>
+      <c r="A131" s="53"/>
       <c r="B131" s="19">
         <v>41753</v>
       </c>
@@ -3593,7 +3620,7 @@
       <c r="I131" s="5"/>
     </row>
     <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="79"/>
+      <c r="A132" s="53"/>
       <c r="B132" s="19">
         <v>41754</v>
       </c>
@@ -3606,7 +3633,7 @@
       <c r="I132" s="5"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="78">
+      <c r="A133" s="55">
         <v>26</v>
       </c>
       <c r="B133" s="10">
@@ -3621,7 +3648,7 @@
       <c r="I133" s="6"/>
     </row>
     <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="78"/>
+      <c r="A134" s="55"/>
       <c r="B134" s="10">
         <v>41758</v>
       </c>
@@ -3634,7 +3661,7 @@
       <c r="I134" s="6"/>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="78"/>
+      <c r="A135" s="55"/>
       <c r="B135" s="10">
         <v>41759</v>
       </c>
@@ -3647,7 +3674,7 @@
       <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="78"/>
+      <c r="A136" s="55"/>
       <c r="B136" s="10">
         <v>41760</v>
       </c>
@@ -3660,7 +3687,7 @@
       <c r="I136" s="6"/>
     </row>
     <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="78"/>
+      <c r="A137" s="55"/>
       <c r="B137" s="10">
         <v>41761</v>
       </c>
@@ -3673,7 +3700,7 @@
       <c r="I137" s="6"/>
     </row>
     <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="79">
+      <c r="A138" s="53">
         <v>27</v>
       </c>
       <c r="B138" s="19">
@@ -3688,7 +3715,7 @@
       <c r="I138" s="5"/>
     </row>
     <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="79"/>
+      <c r="A139" s="53"/>
       <c r="B139" s="19">
         <v>41765</v>
       </c>
@@ -3701,7 +3728,7 @@
       <c r="I139" s="5"/>
     </row>
     <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="79"/>
+      <c r="A140" s="53"/>
       <c r="B140" s="19">
         <v>41766</v>
       </c>
@@ -3714,7 +3741,7 @@
       <c r="I140" s="5"/>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="79"/>
+      <c r="A141" s="53"/>
       <c r="B141" s="19">
         <v>41767</v>
       </c>
@@ -3727,7 +3754,7 @@
       <c r="I141" s="5"/>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="79"/>
+      <c r="A142" s="53"/>
       <c r="B142" s="19">
         <v>41768</v>
       </c>
@@ -3740,7 +3767,7 @@
       <c r="I142" s="5"/>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="78">
+      <c r="A143" s="55">
         <v>28</v>
       </c>
       <c r="B143" s="10">
@@ -3755,7 +3782,7 @@
       <c r="I143" s="6"/>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="78"/>
+      <c r="A144" s="55"/>
       <c r="B144" s="10">
         <v>41772</v>
       </c>
@@ -3768,7 +3795,7 @@
       <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="78"/>
+      <c r="A145" s="55"/>
       <c r="B145" s="10">
         <v>41773</v>
       </c>
@@ -3781,7 +3808,7 @@
       <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="78"/>
+      <c r="A146" s="55"/>
       <c r="B146" s="10">
         <v>41774</v>
       </c>
@@ -3794,7 +3821,7 @@
       <c r="I146" s="6"/>
     </row>
     <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="78"/>
+      <c r="A147" s="55"/>
       <c r="B147" s="10">
         <v>41775</v>
       </c>
@@ -3807,7 +3834,7 @@
       <c r="I147" s="6"/>
     </row>
     <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="79">
+      <c r="A148" s="53">
         <v>29</v>
       </c>
       <c r="B148" s="19">
@@ -3822,7 +3849,7 @@
       <c r="I148" s="5"/>
     </row>
     <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="79"/>
+      <c r="A149" s="53"/>
       <c r="B149" s="19">
         <v>41779</v>
       </c>
@@ -3835,7 +3862,7 @@
       <c r="I149" s="5"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="79"/>
+      <c r="A150" s="53"/>
       <c r="B150" s="19">
         <v>41780</v>
       </c>
@@ -3848,7 +3875,7 @@
       <c r="I150" s="5"/>
     </row>
     <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="79"/>
+      <c r="A151" s="53"/>
       <c r="B151" s="19">
         <v>41781</v>
       </c>
@@ -3861,7 +3888,7 @@
       <c r="I151" s="5"/>
     </row>
     <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="79"/>
+      <c r="A152" s="53"/>
       <c r="B152" s="19">
         <v>41782</v>
       </c>
@@ -3874,7 +3901,7 @@
       <c r="I152" s="5"/>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="80">
+      <c r="A153" s="56">
         <v>30</v>
       </c>
       <c r="B153" s="10">
@@ -3889,7 +3916,7 @@
       <c r="I153" s="2"/>
     </row>
     <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="80"/>
+      <c r="A154" s="56"/>
       <c r="B154" s="10">
         <v>41786</v>
       </c>
@@ -3902,7 +3929,7 @@
       <c r="I154" s="2"/>
     </row>
     <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="80"/>
+      <c r="A155" s="56"/>
       <c r="B155" s="10">
         <v>41787</v>
       </c>
@@ -3915,7 +3942,7 @@
       <c r="I155" s="2"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="80"/>
+      <c r="A156" s="56"/>
       <c r="B156" s="10">
         <v>41788</v>
       </c>
@@ -3928,7 +3955,7 @@
       <c r="I156" s="2"/>
     </row>
     <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="80"/>
+      <c r="A157" s="56"/>
       <c r="B157" s="10">
         <v>41789</v>
       </c>
@@ -3941,7 +3968,7 @@
       <c r="I157" s="2"/>
     </row>
     <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="80"/>
+      <c r="A158" s="56"/>
       <c r="B158" s="20">
         <v>41790</v>
       </c>
@@ -4119,21 +4146,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="F2:M4"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A108:A112"/>
@@ -4149,13 +4168,21 @@
     <mergeCell ref="A63:A67"/>
     <mergeCell ref="A68:A72"/>
     <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="F2:M4"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A153:A158"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A152"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
@@ -337,9 +337,6 @@
     <t>AS_AD_Architecture Plan.doxc</t>
   </si>
   <si>
-    <t>5:00PM</t>
-  </si>
-  <si>
     <t>Phu, Khang, Dao, Chau discuss about Scrum model combine ACDM
 Update architeture plan document and deadline team process document</t>
   </si>
@@ -347,6 +344,9 @@
     <t xml:space="preserve">AS_AD_Architecture Plan.doxc
 AS_PM_Deadline Team Process.doxc
 </t>
+  </si>
+  <si>
+    <t>5:30PM</t>
   </si>
 </sst>
 </file>
@@ -771,6 +771,108 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -783,110 +885,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1289,7 +1289,7 @@
       <pane xSplit="5" ySplit="6" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1310,77 +1310,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="66"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="67" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="75"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
@@ -1418,10 +1418,10 @@
       <c r="I6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -1445,20 +1445,20 @@
       <c r="G7" s="14"/>
       <c r="H7" s="17"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="82" t="s">
+      <c r="J7" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="82"/>
+      <c r="K7" s="71"/>
       <c r="L7" s="9">
         <f>SUM(L8:L37)</f>
-        <v>26.450000000000003</v>
+        <v>26.950000000000003</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="57">
+      <c r="A8" s="76">
         <v>2</v>
       </c>
       <c r="B8" s="10">
@@ -1494,7 +1494,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="10">
         <v>41589</v>
       </c>
@@ -1528,7 +1528,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="10">
         <v>41590</v>
       </c>
@@ -1555,14 +1555,14 @@
       <c r="K10" s="6"/>
       <c r="L10" s="23">
         <f>SUM(E18:E22)</f>
-        <v>9.15</v>
+        <v>9.65</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="10">
         <v>41590</v>
       </c>
@@ -1596,7 +1596,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="10">
         <v>41591</v>
       </c>
@@ -1630,7 +1630,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="10">
         <v>41592</v>
       </c>
@@ -1664,7 +1664,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="10">
         <v>41592</v>
       </c>
@@ -1698,7 +1698,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="10">
         <v>41593</v>
       </c>
@@ -1732,7 +1732,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="38">
         <v>41594</v>
       </c>
@@ -1766,7 +1766,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="38">
         <v>41595</v>
       </c>
@@ -1800,7 +1800,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
+      <c r="A18" s="86">
         <v>3</v>
       </c>
       <c r="B18" s="19">
@@ -1836,8 +1836,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="49">
+      <c r="A19" s="81"/>
+      <c r="B19" s="83">
         <v>41597</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1870,8 +1870,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="12" t="s">
         <v>92</v>
       </c>
@@ -1904,8 +1904,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="12" t="s">
         <v>68</v>
       </c>
@@ -1938,7 +1938,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="19">
         <v>41598</v>
       </c>
@@ -1946,19 +1946,19 @@
         <v>64</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E22" s="35">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="47" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="49" t="s">
         <v>100</v>
-      </c>
-      <c r="H22" s="87" t="s">
-        <v>101</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="15" t="s">
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="60">
+      <c r="A23" s="79">
         <v>4</v>
       </c>
       <c r="B23" s="10">
@@ -2000,7 +2000,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="10">
         <v>41604</v>
       </c>
@@ -2024,7 +2024,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="10">
         <v>41605</v>
       </c>
@@ -2048,7 +2048,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="10">
         <v>41606</v>
       </c>
@@ -2072,7 +2072,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="10">
         <v>41607</v>
       </c>
@@ -2096,7 +2096,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="53">
+      <c r="A28" s="81">
         <v>5</v>
       </c>
       <c r="B28" s="19">
@@ -2122,7 +2122,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="19">
         <v>41611</v>
       </c>
@@ -2146,7 +2146,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="81"/>
       <c r="B30" s="19">
         <v>41612</v>
       </c>
@@ -2170,7 +2170,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="81"/>
       <c r="B31" s="19">
         <v>41613</v>
       </c>
@@ -2194,7 +2194,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
+      <c r="A32" s="81"/>
       <c r="B32" s="19">
         <v>41614</v>
       </c>
@@ -2218,7 +2218,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="55">
+      <c r="A33" s="80">
         <v>6</v>
       </c>
       <c r="B33" s="10">
@@ -2244,7 +2244,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="10">
         <v>41618</v>
       </c>
@@ -2268,7 +2268,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="10">
         <v>41619</v>
       </c>
@@ -2292,7 +2292,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="10">
         <v>41620</v>
       </c>
@@ -2316,7 +2316,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="10">
         <v>41621</v>
       </c>
@@ -2340,7 +2340,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="53">
+      <c r="A38" s="81">
         <v>7</v>
       </c>
       <c r="B38" s="19">
@@ -2355,7 +2355,7 @@
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
+      <c r="A39" s="81"/>
       <c r="B39" s="19">
         <v>41625</v>
       </c>
@@ -2368,7 +2368,7 @@
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
+      <c r="A40" s="81"/>
       <c r="B40" s="19">
         <v>41626</v>
       </c>
@@ -2381,7 +2381,7 @@
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
+      <c r="A41" s="81"/>
       <c r="B41" s="19">
         <v>41627</v>
       </c>
@@ -2394,7 +2394,7 @@
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
+      <c r="A42" s="81"/>
       <c r="B42" s="19">
         <v>41628</v>
       </c>
@@ -2407,7 +2407,7 @@
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="55">
+      <c r="A43" s="80">
         <v>8</v>
       </c>
       <c r="B43" s="10">
@@ -2422,7 +2422,7 @@
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
+      <c r="A44" s="80"/>
       <c r="B44" s="10">
         <v>41632</v>
       </c>
@@ -2435,7 +2435,7 @@
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="10">
         <v>41633</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
+      <c r="A46" s="80"/>
       <c r="B46" s="10">
         <v>41634</v>
       </c>
@@ -2461,7 +2461,7 @@
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
+      <c r="A47" s="80"/>
       <c r="B47" s="10">
         <v>41635</v>
       </c>
@@ -2474,7 +2474,7 @@
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="53">
+      <c r="A48" s="81">
         <v>9</v>
       </c>
       <c r="B48" s="19">
@@ -2489,7 +2489,7 @@
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
+      <c r="A49" s="81"/>
       <c r="B49" s="19">
         <v>41639</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="I49" s="5"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
+      <c r="A50" s="81"/>
       <c r="B50" s="19">
         <v>41640</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="I50" s="5"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
+      <c r="A51" s="81"/>
       <c r="B51" s="19">
         <v>41641</v>
       </c>
@@ -2528,7 +2528,7 @@
       <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
+      <c r="A52" s="81"/>
       <c r="B52" s="19">
         <v>41642</v>
       </c>
@@ -2541,7 +2541,7 @@
       <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="55">
+      <c r="A53" s="80">
         <v>10</v>
       </c>
       <c r="B53" s="10">
@@ -2556,7 +2556,7 @@
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
+      <c r="A54" s="80"/>
       <c r="B54" s="10">
         <v>41646</v>
       </c>
@@ -2569,7 +2569,7 @@
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
+      <c r="A55" s="80"/>
       <c r="B55" s="10">
         <v>41647</v>
       </c>
@@ -2582,7 +2582,7 @@
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+      <c r="A56" s="80"/>
       <c r="B56" s="10">
         <v>41648</v>
       </c>
@@ -2595,7 +2595,7 @@
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
+      <c r="A57" s="80"/>
       <c r="B57" s="10">
         <v>41649</v>
       </c>
@@ -2608,7 +2608,7 @@
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="53">
+      <c r="A58" s="81">
         <v>11</v>
       </c>
       <c r="B58" s="19">
@@ -2623,7 +2623,7 @@
       <c r="I58" s="5"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
+      <c r="A59" s="81"/>
       <c r="B59" s="19">
         <v>41653</v>
       </c>
@@ -2636,7 +2636,7 @@
       <c r="I59" s="5"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
+      <c r="A60" s="81"/>
       <c r="B60" s="19">
         <v>41654</v>
       </c>
@@ -2649,7 +2649,7 @@
       <c r="I60" s="5"/>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
+      <c r="A61" s="81"/>
       <c r="B61" s="19">
         <v>41655</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="I61" s="5"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
+      <c r="A62" s="81"/>
       <c r="B62" s="19">
         <v>41656</v>
       </c>
@@ -2675,7 +2675,7 @@
       <c r="I62" s="5"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="55">
+      <c r="A63" s="80">
         <v>12</v>
       </c>
       <c r="B63" s="10">
@@ -2690,7 +2690,7 @@
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="10">
         <v>41660</v>
       </c>
@@ -2703,7 +2703,7 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="10">
         <v>41661</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="10">
         <v>41662</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="10">
         <v>41663</v>
       </c>
@@ -2742,7 +2742,7 @@
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="53">
+      <c r="A68" s="81">
         <v>13</v>
       </c>
       <c r="B68" s="19">
@@ -2759,7 +2759,7 @@
       <c r="I68" s="5"/>
     </row>
     <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="53"/>
+      <c r="A69" s="81"/>
       <c r="B69" s="19">
         <v>41667</v>
       </c>
@@ -2774,7 +2774,7 @@
       <c r="I69" s="5"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="53"/>
+      <c r="A70" s="81"/>
       <c r="B70" s="19">
         <v>41668</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="I70" s="5"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="53"/>
+      <c r="A71" s="81"/>
       <c r="B71" s="19">
         <v>41669</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="I71" s="5"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
+      <c r="A72" s="81"/>
       <c r="B72" s="19">
         <v>41670</v>
       </c>
@@ -2819,7 +2819,7 @@
       <c r="I72" s="5"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="55">
+      <c r="A73" s="80">
         <v>14</v>
       </c>
       <c r="B73" s="10">
@@ -2836,7 +2836,7 @@
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="10">
         <v>41674</v>
       </c>
@@ -2851,7 +2851,7 @@
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="10">
         <v>41675</v>
       </c>
@@ -2866,7 +2866,7 @@
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="55"/>
+      <c r="A76" s="80"/>
       <c r="B76" s="10">
         <v>41676</v>
       </c>
@@ -2881,7 +2881,7 @@
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
+      <c r="A77" s="80"/>
       <c r="B77" s="10">
         <v>41677</v>
       </c>
@@ -2896,7 +2896,7 @@
       <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="53">
+      <c r="A78" s="81">
         <v>15</v>
       </c>
       <c r="B78" s="19">
@@ -2911,7 +2911,7 @@
       <c r="I78" s="5"/>
     </row>
     <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="53"/>
+      <c r="A79" s="81"/>
       <c r="B79" s="19">
         <v>41681</v>
       </c>
@@ -2924,7 +2924,7 @@
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="53"/>
+      <c r="A80" s="81"/>
       <c r="B80" s="19">
         <v>41682</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="53"/>
+      <c r="A81" s="81"/>
       <c r="B81" s="19">
         <v>41683</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="I81" s="5"/>
     </row>
     <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="53"/>
+      <c r="A82" s="81"/>
       <c r="B82" s="19">
         <v>41684</v>
       </c>
@@ -2963,7 +2963,7 @@
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="55">
+      <c r="A83" s="80">
         <v>16</v>
       </c>
       <c r="B83" s="10">
@@ -2978,7 +2978,7 @@
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
+      <c r="A84" s="80"/>
       <c r="B84" s="10">
         <v>41688</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="10">
         <v>41689</v>
       </c>
@@ -3004,7 +3004,7 @@
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="10">
         <v>41690</v>
       </c>
@@ -3017,7 +3017,7 @@
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="55"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="10">
         <v>41691</v>
       </c>
@@ -3030,7 +3030,7 @@
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="53">
+      <c r="A88" s="81">
         <v>17</v>
       </c>
       <c r="B88" s="19">
@@ -3045,7 +3045,7 @@
       <c r="I88" s="5"/>
     </row>
     <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="53"/>
+      <c r="A89" s="81"/>
       <c r="B89" s="19">
         <v>41695</v>
       </c>
@@ -3058,7 +3058,7 @@
       <c r="I89" s="5"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="53"/>
+      <c r="A90" s="81"/>
       <c r="B90" s="19">
         <v>41696</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="I90" s="5"/>
     </row>
     <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="53"/>
+      <c r="A91" s="81"/>
       <c r="B91" s="19">
         <v>41697</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="I91" s="5"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="53"/>
+      <c r="A92" s="81"/>
       <c r="B92" s="19">
         <v>41698</v>
       </c>
@@ -3097,7 +3097,7 @@
       <c r="I92" s="5"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="55">
+      <c r="A93" s="80">
         <v>18</v>
       </c>
       <c r="B93" s="10">
@@ -3112,7 +3112,7 @@
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
+      <c r="A94" s="80"/>
       <c r="B94" s="10">
         <v>41702</v>
       </c>
@@ -3125,7 +3125,7 @@
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
+      <c r="A95" s="80"/>
       <c r="B95" s="10">
         <v>41703</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="10">
         <v>41704</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="55"/>
+      <c r="A97" s="80"/>
       <c r="B97" s="10">
         <v>41705</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="53">
+      <c r="A98" s="81">
         <v>19</v>
       </c>
       <c r="B98" s="19">
@@ -3179,7 +3179,7 @@
       <c r="I98" s="5"/>
     </row>
     <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="53"/>
+      <c r="A99" s="81"/>
       <c r="B99" s="19">
         <v>41709</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="I99" s="5"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="53"/>
+      <c r="A100" s="81"/>
       <c r="B100" s="19">
         <v>41710</v>
       </c>
@@ -3205,7 +3205,7 @@
       <c r="I100" s="5"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="53"/>
+      <c r="A101" s="81"/>
       <c r="B101" s="19">
         <v>41711</v>
       </c>
@@ -3218,7 +3218,7 @@
       <c r="I101" s="5"/>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="53"/>
+      <c r="A102" s="81"/>
       <c r="B102" s="19">
         <v>41712</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="I102" s="5"/>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="55">
+      <c r="A103" s="80">
         <v>20</v>
       </c>
       <c r="B103" s="10">
@@ -3246,7 +3246,7 @@
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="55"/>
+      <c r="A104" s="80"/>
       <c r="B104" s="10">
         <v>41716</v>
       </c>
@@ -3259,7 +3259,7 @@
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="55"/>
+      <c r="A105" s="80"/>
       <c r="B105" s="10">
         <v>41717</v>
       </c>
@@ -3272,7 +3272,7 @@
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="55"/>
+      <c r="A106" s="80"/>
       <c r="B106" s="10">
         <v>41718</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="55"/>
+      <c r="A107" s="80"/>
       <c r="B107" s="10">
         <v>41719</v>
       </c>
@@ -3298,7 +3298,7 @@
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="53">
+      <c r="A108" s="81">
         <v>21</v>
       </c>
       <c r="B108" s="19">
@@ -3313,7 +3313,7 @@
       <c r="I108" s="5"/>
     </row>
     <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
+      <c r="A109" s="81"/>
       <c r="B109" s="19">
         <v>41723</v>
       </c>
@@ -3326,7 +3326,7 @@
       <c r="I109" s="5"/>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="53"/>
+      <c r="A110" s="81"/>
       <c r="B110" s="19">
         <v>41724</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="I110" s="5"/>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="53"/>
+      <c r="A111" s="81"/>
       <c r="B111" s="19">
         <v>41725</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="I111" s="5"/>
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="53"/>
+      <c r="A112" s="81"/>
       <c r="B112" s="19">
         <v>41726</v>
       </c>
@@ -3365,7 +3365,7 @@
       <c r="I112" s="5"/>
     </row>
     <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="55">
+      <c r="A113" s="80">
         <v>22</v>
       </c>
       <c r="B113" s="10">
@@ -3380,7 +3380,7 @@
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="55"/>
+      <c r="A114" s="80"/>
       <c r="B114" s="10">
         <v>41730</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="55"/>
+      <c r="A115" s="80"/>
       <c r="B115" s="10">
         <v>41731</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="55"/>
+      <c r="A116" s="80"/>
       <c r="B116" s="10">
         <v>41732</v>
       </c>
@@ -3419,7 +3419,7 @@
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="55"/>
+      <c r="A117" s="80"/>
       <c r="B117" s="10">
         <v>41733</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="53">
+      <c r="A118" s="81">
         <v>23</v>
       </c>
       <c r="B118" s="19">
@@ -3447,7 +3447,7 @@
       <c r="I118" s="5"/>
     </row>
     <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="53"/>
+      <c r="A119" s="81"/>
       <c r="B119" s="19">
         <v>41737</v>
       </c>
@@ -3460,7 +3460,7 @@
       <c r="I119" s="5"/>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="53"/>
+      <c r="A120" s="81"/>
       <c r="B120" s="19">
         <v>41738</v>
       </c>
@@ -3473,7 +3473,7 @@
       <c r="I120" s="5"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="53"/>
+      <c r="A121" s="81"/>
       <c r="B121" s="19">
         <v>41739</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="I121" s="5"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="53"/>
+      <c r="A122" s="81"/>
       <c r="B122" s="19">
         <v>41740</v>
       </c>
@@ -3499,7 +3499,7 @@
       <c r="I122" s="5"/>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="55">
+      <c r="A123" s="80">
         <v>24</v>
       </c>
       <c r="B123" s="10">
@@ -3514,7 +3514,7 @@
       <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="55"/>
+      <c r="A124" s="80"/>
       <c r="B124" s="10">
         <v>41744</v>
       </c>
@@ -3527,7 +3527,7 @@
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="55"/>
+      <c r="A125" s="80"/>
       <c r="B125" s="10">
         <v>41745</v>
       </c>
@@ -3540,7 +3540,7 @@
       <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="55"/>
+      <c r="A126" s="80"/>
       <c r="B126" s="10">
         <v>41746</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="I126" s="6"/>
     </row>
     <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="55"/>
+      <c r="A127" s="80"/>
       <c r="B127" s="10">
         <v>41747</v>
       </c>
@@ -3566,7 +3566,7 @@
       <c r="I127" s="6"/>
     </row>
     <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="53">
+      <c r="A128" s="81">
         <v>25</v>
       </c>
       <c r="B128" s="19">
@@ -3581,7 +3581,7 @@
       <c r="I128" s="5"/>
     </row>
     <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="53"/>
+      <c r="A129" s="81"/>
       <c r="B129" s="19">
         <v>41751</v>
       </c>
@@ -3594,7 +3594,7 @@
       <c r="I129" s="5"/>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="53"/>
+      <c r="A130" s="81"/>
       <c r="B130" s="19">
         <v>41752</v>
       </c>
@@ -3607,7 +3607,7 @@
       <c r="I130" s="5"/>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="53"/>
+      <c r="A131" s="81"/>
       <c r="B131" s="19">
         <v>41753</v>
       </c>
@@ -3620,7 +3620,7 @@
       <c r="I131" s="5"/>
     </row>
     <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="53"/>
+      <c r="A132" s="81"/>
       <c r="B132" s="19">
         <v>41754</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="I132" s="5"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="55">
+      <c r="A133" s="80">
         <v>26</v>
       </c>
       <c r="B133" s="10">
@@ -3648,7 +3648,7 @@
       <c r="I133" s="6"/>
     </row>
     <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="55"/>
+      <c r="A134" s="80"/>
       <c r="B134" s="10">
         <v>41758</v>
       </c>
@@ -3661,7 +3661,7 @@
       <c r="I134" s="6"/>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="55"/>
+      <c r="A135" s="80"/>
       <c r="B135" s="10">
         <v>41759</v>
       </c>
@@ -3674,7 +3674,7 @@
       <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="55"/>
+      <c r="A136" s="80"/>
       <c r="B136" s="10">
         <v>41760</v>
       </c>
@@ -3687,7 +3687,7 @@
       <c r="I136" s="6"/>
     </row>
     <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="55"/>
+      <c r="A137" s="80"/>
       <c r="B137" s="10">
         <v>41761</v>
       </c>
@@ -3700,7 +3700,7 @@
       <c r="I137" s="6"/>
     </row>
     <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="53">
+      <c r="A138" s="81">
         <v>27</v>
       </c>
       <c r="B138" s="19">
@@ -3715,7 +3715,7 @@
       <c r="I138" s="5"/>
     </row>
     <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="53"/>
+      <c r="A139" s="81"/>
       <c r="B139" s="19">
         <v>41765</v>
       </c>
@@ -3728,7 +3728,7 @@
       <c r="I139" s="5"/>
     </row>
     <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="53"/>
+      <c r="A140" s="81"/>
       <c r="B140" s="19">
         <v>41766</v>
       </c>
@@ -3741,7 +3741,7 @@
       <c r="I140" s="5"/>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="53"/>
+      <c r="A141" s="81"/>
       <c r="B141" s="19">
         <v>41767</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="I141" s="5"/>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="53"/>
+      <c r="A142" s="81"/>
       <c r="B142" s="19">
         <v>41768</v>
       </c>
@@ -3767,7 +3767,7 @@
       <c r="I142" s="5"/>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="55">
+      <c r="A143" s="80">
         <v>28</v>
       </c>
       <c r="B143" s="10">
@@ -3782,7 +3782,7 @@
       <c r="I143" s="6"/>
     </row>
     <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="55"/>
+      <c r="A144" s="80"/>
       <c r="B144" s="10">
         <v>41772</v>
       </c>
@@ -3795,7 +3795,7 @@
       <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="55"/>
+      <c r="A145" s="80"/>
       <c r="B145" s="10">
         <v>41773</v>
       </c>
@@ -3808,7 +3808,7 @@
       <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="55"/>
+      <c r="A146" s="80"/>
       <c r="B146" s="10">
         <v>41774</v>
       </c>
@@ -3821,7 +3821,7 @@
       <c r="I146" s="6"/>
     </row>
     <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="55"/>
+      <c r="A147" s="80"/>
       <c r="B147" s="10">
         <v>41775</v>
       </c>
@@ -3834,7 +3834,7 @@
       <c r="I147" s="6"/>
     </row>
     <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="53">
+      <c r="A148" s="81">
         <v>29</v>
       </c>
       <c r="B148" s="19">
@@ -3849,7 +3849,7 @@
       <c r="I148" s="5"/>
     </row>
     <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="53"/>
+      <c r="A149" s="81"/>
       <c r="B149" s="19">
         <v>41779</v>
       </c>
@@ -3862,7 +3862,7 @@
       <c r="I149" s="5"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="53"/>
+      <c r="A150" s="81"/>
       <c r="B150" s="19">
         <v>41780</v>
       </c>
@@ -3875,7 +3875,7 @@
       <c r="I150" s="5"/>
     </row>
     <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="53"/>
+      <c r="A151" s="81"/>
       <c r="B151" s="19">
         <v>41781</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="I151" s="5"/>
     </row>
     <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="53"/>
+      <c r="A152" s="81"/>
       <c r="B152" s="19">
         <v>41782</v>
       </c>
@@ -3901,7 +3901,7 @@
       <c r="I152" s="5"/>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="56">
+      <c r="A153" s="82">
         <v>30</v>
       </c>
       <c r="B153" s="10">
@@ -3916,7 +3916,7 @@
       <c r="I153" s="2"/>
     </row>
     <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="56"/>
+      <c r="A154" s="82"/>
       <c r="B154" s="10">
         <v>41786</v>
       </c>
@@ -3929,7 +3929,7 @@
       <c r="I154" s="2"/>
     </row>
     <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="56"/>
+      <c r="A155" s="82"/>
       <c r="B155" s="10">
         <v>41787</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="I155" s="2"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="56"/>
+      <c r="A156" s="82"/>
       <c r="B156" s="10">
         <v>41788</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="I156" s="2"/>
     </row>
     <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="56"/>
+      <c r="A157" s="82"/>
       <c r="B157" s="10">
         <v>41789</v>
       </c>
@@ -3968,7 +3968,7 @@
       <c r="I157" s="2"/>
     </row>
     <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="56"/>
+      <c r="A158" s="82"/>
       <c r="B158" s="20">
         <v>41790</v>
       </c>
@@ -4146,13 +4146,21 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="F2:M4"/>
-    <mergeCell ref="A3:E4"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A153:A158"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A78:A82"/>
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="A108:A112"/>
@@ -4168,21 +4176,13 @@
     <mergeCell ref="A63:A67"/>
     <mergeCell ref="A68:A72"/>
     <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="F2:M4"/>
+    <mergeCell ref="A3:E4"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
   <si>
     <t>Week</t>
   </si>
@@ -347,6 +347,36 @@
   </si>
   <si>
     <t>5:30PM</t>
+  </si>
+  <si>
+    <t>10:10AM</t>
+  </si>
+  <si>
+    <t>11:30AM</t>
+  </si>
+  <si>
+    <t>5:10PM</t>
+  </si>
+  <si>
+    <t>Prepare architecture plan and deadline team process to report with mentor</t>
+  </si>
+  <si>
+    <t>Report:
+-Change plan document
+-Requirement plan document
+-Architecture plan document
+-Master plan
+-Issue that team are meeting
+-Plan for next week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divide ACDM task  for each member </t>
+  </si>
+  <si>
+    <t>Research chief architect role of ACDM and Stage 3 of ACDM</t>
+  </si>
+  <si>
+    <t>Report to research result</t>
   </si>
 </sst>
 </file>
@@ -651,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -774,6 +804,46 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -851,36 +921,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1283,13 +1323,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:M197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1310,77 +1350,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="53"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="69"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="72"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="75"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="78"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
@@ -1418,10 +1458,10 @@
       <c r="I6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -1445,20 +1485,20 @@
       <c r="G7" s="14"/>
       <c r="H7" s="17"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="71"/>
+      <c r="K7" s="85"/>
       <c r="L7" s="9">
         <f>SUM(L8:L37)</f>
-        <v>26.950000000000003</v>
+        <v>34.1</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="76">
+      <c r="A8" s="61">
         <v>2</v>
       </c>
       <c r="B8" s="10">
@@ -1494,7 +1534,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
+      <c r="A9" s="62"/>
       <c r="B9" s="10">
         <v>41589</v>
       </c>
@@ -1528,7 +1568,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
+      <c r="A10" s="62"/>
       <c r="B10" s="10">
         <v>41590</v>
       </c>
@@ -1554,15 +1594,15 @@
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="23">
-        <f>SUM(E18:E22)</f>
-        <v>9.65</v>
+        <f>SUM(E18:E27)</f>
+        <v>16.8</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="10">
         <v>41590</v>
       </c>
@@ -1588,7 +1628,7 @@
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="23">
-        <f>SUM(E23:E27)</f>
+        <f>SUM(E28:E32)</f>
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -1596,7 +1636,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="10">
         <v>41591</v>
       </c>
@@ -1622,7 +1662,7 @@
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="23">
-        <f>SUM(E28:E32)</f>
+        <f>SUM(E33:E37)</f>
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -1630,7 +1670,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="10">
         <v>41592</v>
       </c>
@@ -1656,7 +1696,7 @@
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="23">
-        <f>SUM(E33:E37)</f>
+        <f>SUM(E38:E42)</f>
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
@@ -1664,7 +1704,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="10">
         <v>41592</v>
       </c>
@@ -1690,7 +1730,7 @@
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="23">
-        <f>SUM(E38:E42)</f>
+        <f>SUM(E43:E47)</f>
         <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -1698,7 +1738,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
+      <c r="A15" s="62"/>
       <c r="B15" s="10">
         <v>41593</v>
       </c>
@@ -1724,7 +1764,7 @@
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="23">
-        <f>SUM(E43:E47)</f>
+        <f>SUM(E48:E52)</f>
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -1732,7 +1772,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
+      <c r="A16" s="62"/>
       <c r="B16" s="38">
         <v>41594</v>
       </c>
@@ -1758,7 +1798,7 @@
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="23">
-        <f>SUM(E48:E52)</f>
+        <f>SUM(E53:E57)</f>
         <v>0</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -1766,7 +1806,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="38">
         <v>41595</v>
       </c>
@@ -1792,7 +1832,7 @@
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="23">
-        <f>SUM(E53:E57)</f>
+        <f>SUM(E58:E62)</f>
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -1800,7 +1840,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="86">
+      <c r="A18" s="90">
         <v>3</v>
       </c>
       <c r="B18" s="19">
@@ -1828,7 +1868,7 @@
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="23">
-        <f>SUM(E58:E62)</f>
+        <f>SUM(E63:E67)</f>
         <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -1836,8 +1876,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="83">
+      <c r="A19" s="58"/>
+      <c r="B19" s="55">
         <v>41597</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1862,7 +1902,7 @@
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="23">
-        <f>SUM(E63:E67)</f>
+        <f>SUM(E68:E72)</f>
         <v>0</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -1870,8 +1910,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="84"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="12" t="s">
         <v>92</v>
       </c>
@@ -1896,7 +1936,7 @@
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="23">
-        <f>SUM(E68:E72)</f>
+        <f>SUM(E73:E77)</f>
         <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -1904,8 +1944,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="85"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="12" t="s">
         <v>68</v>
       </c>
@@ -1930,7 +1970,7 @@
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="23">
-        <f>SUM(E73:E77)</f>
+        <f>SUM(E78:E82)</f>
         <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -1938,7 +1978,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="A22" s="87"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="19">
         <v>41598</v>
       </c>
@@ -1966,57 +2006,75 @@
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="23">
-        <f>SUM(E78:E82)</f>
+        <f>SUM(E83:E87)</f>
         <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="79">
-        <v>4</v>
-      </c>
-      <c r="B23" s="10">
-        <v>41603</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+    <row r="23" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
+      <c r="B23" s="55">
+        <v>41599</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="35">
+        <v>1</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="5"/>
       <c r="J23" s="15" t="s">
         <v>44</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="23">
-        <f>SUM(E83:E87)</f>
+        <f>SUM(E88:E92)</f>
         <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
-      <c r="B24" s="10">
-        <v>41604</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+    <row r="24" spans="1:13" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="58"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="35">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="49"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="15" t="s">
         <v>45</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="23">
-        <f>SUM(E88:E92)</f>
+        <f>SUM(E93:E97)</f>
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -2024,47 +2082,63 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
-      <c r="B25" s="10">
-        <v>41605</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="35">
+        <v>1.33</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="49"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="15" t="s">
         <v>46</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="23">
-        <f>SUM(E93:E97)</f>
+        <f>SUM(E98:E102)</f>
         <v>0</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="80"/>
-      <c r="B26" s="10">
-        <v>41606</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+    <row r="26" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A26" s="58"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="35">
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="49"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="15" t="s">
         <v>47</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="23">
-        <f>SUM(E98:E102)</f>
+        <f>SUM(E103:E107)</f>
         <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
@@ -2072,23 +2146,31 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
-      <c r="B27" s="10">
-        <v>41607</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="35">
+        <v>2.16</v>
+      </c>
+      <c r="F27" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="15" t="s">
         <v>48</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="23">
-        <f>SUM(E103:E107)</f>
+        <f>SUM(E108:E112)</f>
         <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
@@ -2096,25 +2178,25 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="81">
-        <v>5</v>
-      </c>
-      <c r="B28" s="19">
-        <v>41610</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="A28" s="50">
+        <v>4</v>
+      </c>
+      <c r="B28" s="10">
+        <v>41603</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
       <c r="J28" s="15" t="s">
         <v>49</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="23">
-        <f>SUM(E108:E112)</f>
+        <f>SUM(E113:E117)</f>
         <v>0</v>
       </c>
       <c r="M28" s="3" t="s">
@@ -2122,23 +2204,23 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="81"/>
-      <c r="B29" s="19">
-        <v>41611</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="10">
+        <v>41604</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
       <c r="J29" s="15" t="s">
         <v>50</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="23">
-        <f>SUM(E113:E117)</f>
+        <f>SUM(E118:E122)</f>
         <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
@@ -2146,23 +2228,23 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
-      <c r="B30" s="19">
-        <v>41612</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="10">
+        <v>41605</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
       <c r="J30" s="15" t="s">
         <v>51</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="23">
-        <f>SUM(E118:E122)</f>
+        <f>SUM(E123:E127)</f>
         <v>0</v>
       </c>
       <c r="M30" s="3" t="s">
@@ -2170,23 +2252,23 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="19">
-        <v>41613</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="10">
+        <v>41606</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
       <c r="J31" s="15" t="s">
         <v>52</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="23">
-        <f>SUM(E123:E127)</f>
+        <f>SUM(E128:E132)</f>
         <v>0</v>
       </c>
       <c r="M31" s="3" t="s">
@@ -2194,23 +2276,23 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="19">
-        <v>41614</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="10">
+        <v>41607</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
       <c r="J32" s="15" t="s">
         <v>53</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="23">
-        <f>SUM(E128:E132)</f>
+        <f>SUM(E133:E137)</f>
         <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
@@ -2218,25 +2300,25 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="80">
-        <v>6</v>
-      </c>
-      <c r="B33" s="10">
-        <v>41617</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="A33" s="58">
+        <v>5</v>
+      </c>
+      <c r="B33" s="19">
+        <v>41610</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="15" t="s">
         <v>54</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="23">
-        <f>SUM(E133:E137)</f>
+        <f>SUM(E138:E142)</f>
         <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
@@ -2244,23 +2326,23 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="80"/>
-      <c r="B34" s="10">
-        <v>41618</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="19">
+        <v>41611</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="15" t="s">
         <v>55</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="23">
-        <f>SUM(E138:E142)</f>
+        <f>SUM(E143:E147)</f>
         <v>0</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -2268,23 +2350,23 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="80"/>
-      <c r="B35" s="10">
-        <v>41619</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="19">
+        <v>41612</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="15" t="s">
         <v>56</v>
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="23">
-        <f>SUM(E143:E147)</f>
+        <f>SUM(E148:E152)</f>
         <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -2292,23 +2374,23 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="80"/>
-      <c r="B36" s="10">
-        <v>41620</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="19">
+        <v>41613</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="15" t="s">
         <v>57</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="23">
-        <f>SUM(E148:E152)</f>
+        <f>SUM(E153:E157)</f>
         <v>0</v>
       </c>
       <c r="M36" s="3" t="s">
@@ -2316,23 +2398,23 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="80"/>
-      <c r="B37" s="10">
-        <v>41621</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="19">
+        <v>41614</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="15" t="s">
         <v>58</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="23">
-        <f>SUM(E153:E157)</f>
+        <f>SUM(E158:E162)</f>
         <v>0</v>
       </c>
       <c r="M37" s="3" t="s">
@@ -2340,1842 +2422,1879 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="81">
+      <c r="A38" s="59">
+        <v>6</v>
+      </c>
+      <c r="B38" s="10">
+        <v>41617</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="59"/>
+      <c r="B39" s="10">
+        <v>41618</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="59"/>
+      <c r="B40" s="10">
+        <v>41619</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="59"/>
+      <c r="B41" s="10">
+        <v>41620</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="59"/>
+      <c r="B42" s="10">
+        <v>41621</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="58">
         <v>7</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B43" s="19">
         <v>41624</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="81"/>
-      <c r="B39" s="19">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="58"/>
+      <c r="B44" s="19">
         <v>41625</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="81"/>
-      <c r="B40" s="19">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="58"/>
+      <c r="B45" s="19">
         <v>41626</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="81"/>
-      <c r="B41" s="19">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="58"/>
+      <c r="B46" s="19">
         <v>41627</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="81"/>
-      <c r="B42" s="19">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="58"/>
+      <c r="B47" s="19">
         <v>41628</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="80">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="59">
         <v>8</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B48" s="10">
         <v>41631</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="80"/>
-      <c r="B44" s="10">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="59"/>
+      <c r="B49" s="10">
         <v>41632</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="80"/>
-      <c r="B45" s="10">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="59"/>
+      <c r="B50" s="10">
         <v>41633</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="80"/>
-      <c r="B46" s="10">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="59"/>
+      <c r="B51" s="10">
         <v>41634</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="80"/>
-      <c r="B47" s="10">
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="59"/>
+      <c r="B52" s="10">
         <v>41635</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="81">
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="58">
         <v>9</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B53" s="19">
         <v>41638</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="81"/>
-      <c r="B49" s="19">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="58"/>
+      <c r="B54" s="19">
         <v>41639</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="81"/>
-      <c r="B50" s="19">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="58"/>
+      <c r="B55" s="19">
         <v>41640</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="81"/>
-      <c r="B51" s="19">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="58"/>
+      <c r="B56" s="19">
         <v>41641</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="81"/>
-      <c r="B52" s="19">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="58"/>
+      <c r="B57" s="19">
         <v>41642</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="80">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="59">
         <v>10</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B58" s="10">
         <v>41645</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="80"/>
-      <c r="B54" s="10">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="59"/>
+      <c r="B59" s="10">
         <v>41646</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="80"/>
-      <c r="B55" s="10">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="59"/>
+      <c r="B60" s="10">
         <v>41647</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="80"/>
-      <c r="B56" s="10">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="59"/>
+      <c r="B61" s="10">
         <v>41648</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="80"/>
-      <c r="B57" s="10">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="59"/>
+      <c r="B62" s="10">
         <v>41649</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="81">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="58">
         <v>11</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B63" s="19">
         <v>41652</v>
       </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="81"/>
-      <c r="B59" s="19">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="58"/>
+      <c r="B64" s="19">
         <v>41653</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="81"/>
-      <c r="B60" s="19">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="58"/>
+      <c r="B65" s="19">
         <v>41654</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="81"/>
-      <c r="B61" s="19">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="58"/>
+      <c r="B66" s="19">
         <v>41655</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="81"/>
-      <c r="B62" s="19">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="58"/>
+      <c r="B67" s="19">
         <v>41656</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="80">
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="59">
         <v>12</v>
       </c>
-      <c r="B63" s="10">
+      <c r="B68" s="10">
         <v>41659</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="80"/>
-      <c r="B64" s="10">
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="59"/>
+      <c r="B69" s="10">
         <v>41660</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="80"/>
-      <c r="B65" s="10">
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="59"/>
+      <c r="B70" s="10">
         <v>41661</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="80"/>
-      <c r="B66" s="10">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="59"/>
+      <c r="B71" s="10">
         <v>41662</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-    </row>
-    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="80"/>
-      <c r="B67" s="10">
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="59"/>
+      <c r="B72" s="10">
         <v>41663</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="81">
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="58">
         <v>13</v>
       </c>
-      <c r="B68" s="19">
+      <c r="B73" s="19">
         <v>41666</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5" t="s">
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-    </row>
-    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="81"/>
-      <c r="B69" s="19">
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="58"/>
+      <c r="B74" s="19">
         <v>41667</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5" t="s">
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="81"/>
-      <c r="B70" s="19">
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="58"/>
+      <c r="B75" s="19">
         <v>41668</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5" t="s">
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-    </row>
-    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="81"/>
-      <c r="B71" s="19">
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="58"/>
+      <c r="B76" s="19">
         <v>41669</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5" t="s">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="81"/>
-      <c r="B72" s="19">
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="58"/>
+      <c r="B77" s="19">
         <v>41670</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5" t="s">
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="80">
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="59">
         <v>14</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B78" s="10">
         <v>41673</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="2" t="s">
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="80"/>
-      <c r="B74" s="10">
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="59"/>
+      <c r="B79" s="10">
         <v>41674</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="2" t="s">
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="80"/>
-      <c r="B75" s="10">
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="59"/>
+      <c r="B80" s="10">
         <v>41675</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="2" t="s">
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="80"/>
-      <c r="B76" s="10">
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="59"/>
+      <c r="B81" s="10">
         <v>41676</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="2" t="s">
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-    </row>
-    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="80"/>
-      <c r="B77" s="10">
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="59"/>
+      <c r="B82" s="10">
         <v>41677</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="2" t="s">
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-    </row>
-    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="81">
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="58">
         <v>15</v>
       </c>
-      <c r="B78" s="19">
+      <c r="B83" s="19">
         <v>41680</v>
       </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-    </row>
-    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="81"/>
-      <c r="B79" s="19">
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="58"/>
+      <c r="B84" s="19">
         <v>41681</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-    </row>
-    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="81"/>
-      <c r="B80" s="19">
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="58"/>
+      <c r="B85" s="19">
         <v>41682</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="81"/>
-      <c r="B81" s="19">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+    </row>
+    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="58"/>
+      <c r="B86" s="19">
         <v>41683</v>
       </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="81"/>
-      <c r="B82" s="19">
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+    </row>
+    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="58"/>
+      <c r="B87" s="19">
         <v>41684</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="80">
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="59">
         <v>16</v>
       </c>
-      <c r="B83" s="10">
+      <c r="B88" s="10">
         <v>41687</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="80"/>
-      <c r="B84" s="10">
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="59"/>
+      <c r="B89" s="10">
         <v>41688</v>
       </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-    </row>
-    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="80"/>
-      <c r="B85" s="10">
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="59"/>
+      <c r="B90" s="10">
         <v>41689</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-    </row>
-    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="80"/>
-      <c r="B86" s="10">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="59"/>
+      <c r="B91" s="10">
         <v>41690</v>
       </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-    </row>
-    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="80"/>
-      <c r="B87" s="10">
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="59"/>
+      <c r="B92" s="10">
         <v>41691</v>
       </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-    </row>
-    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="81">
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="58">
         <v>17</v>
       </c>
-      <c r="B88" s="19">
+      <c r="B93" s="19">
         <v>41694</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-    </row>
-    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="81"/>
-      <c r="B89" s="19">
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="58"/>
+      <c r="B94" s="19">
         <v>41695</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-    </row>
-    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="81"/>
-      <c r="B90" s="19">
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+    </row>
+    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="58"/>
+      <c r="B95" s="19">
         <v>41696</v>
       </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-    </row>
-    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="81"/>
-      <c r="B91" s="19">
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="58"/>
+      <c r="B96" s="19">
         <v>41697</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-    </row>
-    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="81"/>
-      <c r="B92" s="19">
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="58"/>
+      <c r="B97" s="19">
         <v>41698</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-    </row>
-    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="80">
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="59">
         <v>18</v>
       </c>
-      <c r="B93" s="10">
+      <c r="B98" s="10">
         <v>41701</v>
       </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-    </row>
-    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="80"/>
-      <c r="B94" s="10">
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="59"/>
+      <c r="B99" s="10">
         <v>41702</v>
       </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-    </row>
-    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="80"/>
-      <c r="B95" s="10">
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="59"/>
+      <c r="B100" s="10">
         <v>41703</v>
       </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-    </row>
-    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="80"/>
-      <c r="B96" s="10">
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="59"/>
+      <c r="B101" s="10">
         <v>41704</v>
       </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-    </row>
-    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="80"/>
-      <c r="B97" s="10">
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="59"/>
+      <c r="B102" s="10">
         <v>41705</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-    </row>
-    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="81">
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="58">
         <v>19</v>
       </c>
-      <c r="B98" s="19">
+      <c r="B103" s="19">
         <v>41708</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-    </row>
-    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="81"/>
-      <c r="B99" s="19">
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="58"/>
+      <c r="B104" s="19">
         <v>41709</v>
       </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="81"/>
-      <c r="B100" s="19">
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+    </row>
+    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="58"/>
+      <c r="B105" s="19">
         <v>41710</v>
       </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-    </row>
-    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="81"/>
-      <c r="B101" s="19">
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+    </row>
+    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="58"/>
+      <c r="B106" s="19">
         <v>41711</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-    </row>
-    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="81"/>
-      <c r="B102" s="19">
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+    </row>
+    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="58"/>
+      <c r="B107" s="19">
         <v>41712</v>
       </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-    </row>
-    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="80">
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="59">
         <v>20</v>
       </c>
-      <c r="B103" s="10">
+      <c r="B108" s="10">
         <v>41715</v>
       </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-    </row>
-    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="80"/>
-      <c r="B104" s="10">
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="59"/>
+      <c r="B109" s="10">
         <v>41716</v>
       </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-    </row>
-    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="80"/>
-      <c r="B105" s="10">
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="59"/>
+      <c r="B110" s="10">
         <v>41717</v>
       </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-    </row>
-    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="80"/>
-      <c r="B106" s="10">
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+    </row>
+    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="59"/>
+      <c r="B111" s="10">
         <v>41718</v>
       </c>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-    </row>
-    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="80"/>
-      <c r="B107" s="10">
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="59"/>
+      <c r="B112" s="10">
         <v>41719</v>
       </c>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-    </row>
-    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="81">
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="58">
         <v>21</v>
       </c>
-      <c r="B108" s="19">
+      <c r="B113" s="19">
         <v>41722</v>
       </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-    </row>
-    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="81"/>
-      <c r="B109" s="19">
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+    </row>
+    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="58"/>
+      <c r="B114" s="19">
         <v>41723</v>
       </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-    </row>
-    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="81"/>
-      <c r="B110" s="19">
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="58"/>
+      <c r="B115" s="19">
         <v>41724</v>
       </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-    </row>
-    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="81"/>
-      <c r="B111" s="19">
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+    </row>
+    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="58"/>
+      <c r="B116" s="19">
         <v>41725</v>
       </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-    </row>
-    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="81"/>
-      <c r="B112" s="19">
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+    </row>
+    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="58"/>
+      <c r="B117" s="19">
         <v>41726</v>
       </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-    </row>
-    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="80">
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+    </row>
+    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="59">
         <v>22</v>
       </c>
-      <c r="B113" s="10">
+      <c r="B118" s="10">
         <v>41729</v>
       </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-    </row>
-    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="80"/>
-      <c r="B114" s="10">
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="59"/>
+      <c r="B119" s="10">
         <v>41730</v>
       </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-    </row>
-    <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="80"/>
-      <c r="B115" s="10">
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="59"/>
+      <c r="B120" s="10">
         <v>41731</v>
       </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-    </row>
-    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="80"/>
-      <c r="B116" s="10">
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="59"/>
+      <c r="B121" s="10">
         <v>41732</v>
       </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-    </row>
-    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="80"/>
-      <c r="B117" s="10">
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="59"/>
+      <c r="B122" s="10">
         <v>41733</v>
       </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-    </row>
-    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="81">
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="58">
         <v>23</v>
       </c>
-      <c r="B118" s="19">
+      <c r="B123" s="19">
         <v>41736</v>
       </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-    </row>
-    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="81"/>
-      <c r="B119" s="19">
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+    </row>
+    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="58"/>
+      <c r="B124" s="19">
         <v>41737</v>
       </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-    </row>
-    <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="81"/>
-      <c r="B120" s="19">
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+    </row>
+    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="58"/>
+      <c r="B125" s="19">
         <v>41738</v>
       </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-    </row>
-    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="81"/>
-      <c r="B121" s="19">
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+    </row>
+    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="58"/>
+      <c r="B126" s="19">
         <v>41739</v>
       </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-    </row>
-    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="81"/>
-      <c r="B122" s="19">
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+    </row>
+    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="58"/>
+      <c r="B127" s="19">
         <v>41740</v>
       </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-    </row>
-    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="80">
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+    </row>
+    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="59">
         <v>24</v>
       </c>
-      <c r="B123" s="10">
+      <c r="B128" s="10">
         <v>41743</v>
       </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-    </row>
-    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="80"/>
-      <c r="B124" s="10">
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="59"/>
+      <c r="B129" s="10">
         <v>41744</v>
       </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
-    </row>
-    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="80"/>
-      <c r="B125" s="10">
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+    </row>
+    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="59"/>
+      <c r="B130" s="10">
         <v>41745</v>
       </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
-    </row>
-    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="80"/>
-      <c r="B126" s="10">
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+    </row>
+    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="59"/>
+      <c r="B131" s="10">
         <v>41746</v>
       </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-    </row>
-    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="80"/>
-      <c r="B127" s="10">
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+    </row>
+    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="59"/>
+      <c r="B132" s="10">
         <v>41747</v>
       </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
-    </row>
-    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="81">
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="58">
         <v>25</v>
       </c>
-      <c r="B128" s="19">
+      <c r="B133" s="19">
         <v>41750</v>
       </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-    </row>
-    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="81"/>
-      <c r="B129" s="19">
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+    </row>
+    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="58"/>
+      <c r="B134" s="19">
         <v>41751</v>
       </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-    </row>
-    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="81"/>
-      <c r="B130" s="19">
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+    </row>
+    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="58"/>
+      <c r="B135" s="19">
         <v>41752</v>
       </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-    </row>
-    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="81"/>
-      <c r="B131" s="19">
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="58"/>
+      <c r="B136" s="19">
         <v>41753</v>
       </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
-    </row>
-    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="81"/>
-      <c r="B132" s="19">
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+    </row>
+    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="58"/>
+      <c r="B137" s="19">
         <v>41754</v>
       </c>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
-      <c r="I132" s="5"/>
-    </row>
-    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="80">
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+    </row>
+    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="59">
         <v>26</v>
       </c>
-      <c r="B133" s="10">
+      <c r="B138" s="10">
         <v>41757</v>
       </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-    </row>
-    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="80"/>
-      <c r="B134" s="10">
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+    </row>
+    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="59"/>
+      <c r="B139" s="10">
         <v>41758</v>
       </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-    </row>
-    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="80"/>
-      <c r="B135" s="10">
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+    </row>
+    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="59"/>
+      <c r="B140" s="10">
         <v>41759</v>
       </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-    </row>
-    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="80"/>
-      <c r="B136" s="10">
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="59"/>
+      <c r="B141" s="10">
         <v>41760</v>
       </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-    </row>
-    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="80"/>
-      <c r="B137" s="10">
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="59"/>
+      <c r="B142" s="10">
         <v>41761</v>
       </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
-    </row>
-    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="81">
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="58">
         <v>27</v>
       </c>
-      <c r="B138" s="19">
+      <c r="B143" s="19">
         <v>41764</v>
       </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-    </row>
-    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="81"/>
-      <c r="B139" s="19">
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+    </row>
+    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="58"/>
+      <c r="B144" s="19">
         <v>41765</v>
       </c>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-    </row>
-    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="81"/>
-      <c r="B140" s="19">
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+    </row>
+    <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="58"/>
+      <c r="B145" s="19">
         <v>41766</v>
       </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-    </row>
-    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="81"/>
-      <c r="B141" s="19">
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+    </row>
+    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="58"/>
+      <c r="B146" s="19">
         <v>41767</v>
       </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="5"/>
-      <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-    </row>
-    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="81"/>
-      <c r="B142" s="19">
+      <c r="C146" s="5"/>
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+    </row>
+    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="58"/>
+      <c r="B147" s="19">
         <v>41768</v>
       </c>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-    </row>
-    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="80">
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+    </row>
+    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="59">
         <v>28</v>
       </c>
-      <c r="B143" s="10">
+      <c r="B148" s="10">
         <v>41771</v>
       </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-    </row>
-    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="80"/>
-      <c r="B144" s="10">
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+    </row>
+    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="59"/>
+      <c r="B149" s="10">
         <v>41772</v>
       </c>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
-      <c r="E144" s="6"/>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
-    </row>
-    <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="80"/>
-      <c r="B145" s="10">
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+    </row>
+    <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="59"/>
+      <c r="B150" s="10">
         <v>41773</v>
       </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6"/>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-    </row>
-    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="80"/>
-      <c r="B146" s="10">
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+    </row>
+    <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="59"/>
+      <c r="B151" s="10">
         <v>41774</v>
       </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
-    </row>
-    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="80"/>
-      <c r="B147" s="10">
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+    </row>
+    <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="59"/>
+      <c r="B152" s="10">
         <v>41775</v>
       </c>
-      <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
-      <c r="G147" s="6"/>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
-    </row>
-    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="81">
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+    </row>
+    <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="58">
         <v>29</v>
       </c>
-      <c r="B148" s="19">
+      <c r="B153" s="19">
         <v>41778</v>
       </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
-    </row>
-    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="81"/>
-      <c r="B149" s="19">
+      <c r="C153" s="5"/>
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+    </row>
+    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="58"/>
+      <c r="B154" s="19">
         <v>41779</v>
       </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
-      <c r="F149" s="5"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5"/>
-    </row>
-    <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="81"/>
-      <c r="B150" s="19">
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+    </row>
+    <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="58"/>
+      <c r="B155" s="19">
         <v>41780</v>
       </c>
-      <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-    </row>
-    <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="81"/>
-      <c r="B151" s="19">
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+    </row>
+    <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="58"/>
+      <c r="B156" s="19">
         <v>41781</v>
       </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-    </row>
-    <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="81"/>
-      <c r="B152" s="19">
+      <c r="C156" s="5"/>
+      <c r="D156" s="5"/>
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+    </row>
+    <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="58"/>
+      <c r="B157" s="19">
         <v>41782</v>
       </c>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-    </row>
-    <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="82">
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+    </row>
+    <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A158" s="60">
         <v>30</v>
       </c>
-      <c r="B153" s="10">
+      <c r="B158" s="10">
         <v>41785</v>
       </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-    </row>
-    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="82"/>
-      <c r="B154" s="10">
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+    </row>
+    <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="60"/>
+      <c r="B159" s="10">
         <v>41786</v>
       </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-    </row>
-    <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="82"/>
-      <c r="B155" s="10">
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+    </row>
+    <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="60"/>
+      <c r="B160" s="10">
         <v>41787</v>
       </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-    </row>
-    <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="82"/>
-      <c r="B156" s="10">
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+    </row>
+    <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="60"/>
+      <c r="B161" s="10">
         <v>41788</v>
       </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-    </row>
-    <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="82"/>
-      <c r="B157" s="10">
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+    </row>
+    <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="60"/>
+      <c r="B162" s="10">
         <v>41789</v>
       </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-    </row>
-    <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="82"/>
-      <c r="B158" s="20">
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+    </row>
+    <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="60"/>
+      <c r="B163" s="20">
         <v>41790</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="44"/>
-      <c r="B159" s="10">
+    <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="44"/>
+      <c r="B164" s="10">
         <v>41791</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B160" s="10">
+    <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B165" s="10">
         <v>41792</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B161" s="10">
+    <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B166" s="10">
         <v>41793</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B162" s="10">
+    <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B167" s="10">
         <v>41794</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B163" s="10">
+    <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B168" s="10">
         <v>41795</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B164" s="10">
+    <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B169" s="10">
         <v>41796</v>
       </c>
     </row>
-    <row r="165" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B165" s="10">
+    <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B170" s="10">
         <v>41797</v>
       </c>
     </row>
-    <row r="166" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B166" s="10">
+    <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B171" s="10">
         <v>41798</v>
       </c>
     </row>
-    <row r="167" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B167" s="10">
+    <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B172" s="10">
         <v>41799</v>
       </c>
     </row>
-    <row r="168" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B168" s="10">
+    <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B173" s="10">
         <v>41800</v>
       </c>
     </row>
-    <row r="169" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B169" s="10">
+    <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B174" s="10">
         <v>41801</v>
       </c>
     </row>
-    <row r="170" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B170" s="10">
+    <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B175" s="10">
         <v>41802</v>
       </c>
     </row>
-    <row r="171" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B171" s="10">
+    <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B176" s="10">
         <v>41803</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B172" s="10">
-        <v>41804</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B173" s="10">
-        <v>41805</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B174" s="10">
-        <v>41806</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B175" s="10">
-        <v>41807</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B176" s="10">
-        <v>41808</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B177" s="10">
-        <v>41809</v>
+        <v>41804</v>
       </c>
     </row>
     <row r="178" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B178" s="10">
-        <v>41810</v>
+        <v>41805</v>
       </c>
     </row>
     <row r="179" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B179" s="10">
-        <v>41811</v>
+        <v>41806</v>
       </c>
     </row>
     <row r="180" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B180" s="10">
-        <v>41812</v>
+        <v>41807</v>
       </c>
     </row>
     <row r="181" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B181" s="10">
-        <v>41813</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="182" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B182" s="10">
-        <v>41814</v>
+        <v>41809</v>
       </c>
     </row>
     <row r="183" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B183" s="10">
-        <v>41815</v>
+        <v>41810</v>
       </c>
     </row>
     <row r="184" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B184" s="10">
-        <v>41816</v>
+        <v>41811</v>
       </c>
     </row>
     <row r="185" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B185" s="10">
-        <v>41817</v>
+        <v>41812</v>
       </c>
     </row>
     <row r="186" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B186" s="10">
-        <v>41818</v>
+        <v>41813</v>
       </c>
     </row>
     <row r="187" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B187" s="10">
-        <v>41819</v>
+        <v>41814</v>
       </c>
     </row>
     <row r="188" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B188" s="10">
-        <v>41820</v>
+        <v>41815</v>
       </c>
     </row>
     <row r="189" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B189" s="10">
-        <v>41821</v>
+        <v>41816</v>
       </c>
     </row>
     <row r="190" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B190" s="10">
-        <v>41822</v>
+        <v>41817</v>
       </c>
     </row>
     <row r="191" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B191" s="10">
-        <v>41823</v>
+        <v>41818</v>
       </c>
     </row>
     <row r="192" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B192" s="10">
+        <v>41819</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B193" s="10">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B194" s="10">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B195" s="10">
+        <v>41822</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B196" s="10">
+        <v>41823</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B197" s="10">
         <v>41824</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A77"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="F2:M4"/>
@@ -4183,6 +4302,36 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A158:A163"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="B23:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
   <si>
     <t>Week</t>
   </si>
@@ -377,6 +377,14 @@
   </si>
   <si>
     <t>Report to research result</t>
+  </si>
+  <si>
+    <t>11:30PM</t>
+  </si>
+  <si>
+    <t>Mapping ACDM to Scrum Model
+Mapping role of ACDM to role of Scrum
+Update Deadline Team process</t>
   </si>
 </sst>
 </file>
@@ -681,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -817,6 +825,105 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -826,107 +933,17 @@
     <xf numFmtId="16" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,13 +1340,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M197"/>
+  <dimension ref="A1:M198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1350,77 +1367,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="69"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="60"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="70" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="75"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="66"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="78"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="69"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
@@ -1458,10 +1475,10 @@
       <c r="I6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -1485,20 +1502,20 @@
       <c r="G7" s="14"/>
       <c r="H7" s="17"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="85" t="s">
+      <c r="J7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="85"/>
+      <c r="K7" s="76"/>
       <c r="L7" s="9">
         <f>SUM(L8:L37)</f>
-        <v>34.1</v>
+        <v>36.6</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="61">
+      <c r="A8" s="81">
         <v>2</v>
       </c>
       <c r="B8" s="10">
@@ -1534,7 +1551,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="10">
         <v>41589</v>
       </c>
@@ -1568,7 +1585,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="10">
         <v>41590</v>
       </c>
@@ -1594,15 +1611,15 @@
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="23">
-        <f>SUM(E18:E27)</f>
-        <v>16.8</v>
+        <f>SUM(E18:E28)</f>
+        <v>19.3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="10">
         <v>41590</v>
       </c>
@@ -1628,7 +1645,7 @@
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="23">
-        <f>SUM(E28:E32)</f>
+        <f>SUM(E29:E33)</f>
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -1636,7 +1653,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="62"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="10">
         <v>41591</v>
       </c>
@@ -1662,7 +1679,7 @@
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="23">
-        <f>SUM(E33:E37)</f>
+        <f>SUM(E34:E38)</f>
         <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -1670,7 +1687,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="10">
         <v>41592</v>
       </c>
@@ -1696,7 +1713,7 @@
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="23">
-        <f>SUM(E38:E42)</f>
+        <f>SUM(E39:E43)</f>
         <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
@@ -1704,7 +1721,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="10">
         <v>41592</v>
       </c>
@@ -1730,7 +1747,7 @@
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="23">
-        <f>SUM(E43:E47)</f>
+        <f>SUM(E44:E48)</f>
         <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -1738,7 +1755,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="10">
         <v>41593</v>
       </c>
@@ -1764,7 +1781,7 @@
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="23">
-        <f>SUM(E48:E52)</f>
+        <f>SUM(E49:E53)</f>
         <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -1772,7 +1789,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="38">
         <v>41594</v>
       </c>
@@ -1798,7 +1815,7 @@
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="23">
-        <f>SUM(E53:E57)</f>
+        <f>SUM(E54:E58)</f>
         <v>0</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -1806,7 +1823,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="38">
         <v>41595</v>
       </c>
@@ -1832,7 +1849,7 @@
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="23">
-        <f>SUM(E58:E62)</f>
+        <f>SUM(E59:E63)</f>
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -1840,7 +1857,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="90">
+      <c r="A18" s="86">
         <v>3</v>
       </c>
       <c r="B18" s="19">
@@ -1868,7 +1885,7 @@
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="23">
-        <f>SUM(E63:E67)</f>
+        <f>SUM(E64:E68)</f>
         <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -1876,8 +1893,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="55">
+      <c r="A19" s="84"/>
+      <c r="B19" s="88">
         <v>41597</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1902,7 +1919,7 @@
       </c>
       <c r="K19" s="6"/>
       <c r="L19" s="23">
-        <f>SUM(E68:E72)</f>
+        <f>SUM(E69:E73)</f>
         <v>0</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -1910,8 +1927,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="56"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="12" t="s">
         <v>92</v>
       </c>
@@ -1936,7 +1953,7 @@
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="23">
-        <f>SUM(E73:E77)</f>
+        <f>SUM(E74:E78)</f>
         <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -1944,8 +1961,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="57"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="12" t="s">
         <v>68</v>
       </c>
@@ -1970,7 +1987,7 @@
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="23">
-        <f>SUM(E78:E82)</f>
+        <f>SUM(E79:E83)</f>
         <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -1978,7 +1995,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="19">
         <v>41598</v>
       </c>
@@ -2006,7 +2023,7 @@
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="23">
-        <f>SUM(E83:E87)</f>
+        <f>SUM(E84:E88)</f>
         <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -2014,8 +2031,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="55">
+      <c r="A23" s="84"/>
+      <c r="B23" s="92">
         <v>41599</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -2042,7 +2059,7 @@
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="23">
-        <f>SUM(E88:E92)</f>
+        <f>SUM(E89:E93)</f>
         <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -2050,8 +2067,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="56"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="93"/>
       <c r="C24" s="12" t="s">
         <v>77</v>
       </c>
@@ -2074,7 +2091,7 @@
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="23">
-        <f>SUM(E93:E97)</f>
+        <f>SUM(E94:E98)</f>
         <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -2082,8 +2099,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="56"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="12" t="s">
         <v>102</v>
       </c>
@@ -2106,7 +2123,7 @@
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="23">
-        <f>SUM(E98:E102)</f>
+        <f>SUM(E99:E103)</f>
         <v>0</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -2114,8 +2131,8 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="56"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="12" t="s">
         <v>64</v>
       </c>
@@ -2138,7 +2155,7 @@
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="23">
-        <f>SUM(E103:E107)</f>
+        <f>SUM(E104:E108)</f>
         <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
@@ -2146,8 +2163,8 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
-      <c r="B27" s="57"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="12" t="s">
         <v>62</v>
       </c>
@@ -2170,33 +2187,41 @@
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="23">
-        <f>SUM(E108:E112)</f>
+        <f>SUM(E109:E113)</f>
         <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="50">
-        <v>4</v>
-      </c>
-      <c r="B28" s="10">
-        <v>41603</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+    <row r="28" spans="1:13" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="87"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="35">
+        <v>2.5</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="5"/>
       <c r="J28" s="15" t="s">
         <v>49</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="23">
-        <f>SUM(E113:E117)</f>
+        <f>SUM(E114:E118)</f>
         <v>0</v>
       </c>
       <c r="M28" s="3" t="s">
@@ -2204,9 +2229,11 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+      <c r="A29" s="50">
+        <v>4</v>
+      </c>
       <c r="B29" s="10">
-        <v>41604</v>
+        <v>41603</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -2220,7 +2247,7 @@
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="23">
-        <f>SUM(E118:E122)</f>
+        <f>SUM(E119:E123)</f>
         <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
@@ -2230,7 +2257,7 @@
     <row r="30" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="51"/>
       <c r="B30" s="10">
-        <v>41605</v>
+        <v>41604</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -2244,7 +2271,7 @@
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="23">
-        <f>SUM(E123:E127)</f>
+        <f>SUM(E124:E128)</f>
         <v>0</v>
       </c>
       <c r="M30" s="3" t="s">
@@ -2254,7 +2281,7 @@
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="51"/>
       <c r="B31" s="10">
-        <v>41606</v>
+        <v>41605</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -2268,7 +2295,7 @@
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="23">
-        <f>SUM(E128:E132)</f>
+        <f>SUM(E129:E133)</f>
         <v>0</v>
       </c>
       <c r="M31" s="3" t="s">
@@ -2278,7 +2305,7 @@
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="51"/>
       <c r="B32" s="10">
-        <v>41607</v>
+        <v>41606</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -2292,7 +2319,7 @@
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="23">
-        <f>SUM(E133:E137)</f>
+        <f>SUM(E134:E138)</f>
         <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
@@ -2300,25 +2327,23 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="58">
-        <v>5</v>
-      </c>
-      <c r="B33" s="19">
-        <v>41610</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="10">
+        <v>41607</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="15" t="s">
         <v>54</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="23">
-        <f>SUM(E138:E142)</f>
+        <f>SUM(E139:E143)</f>
         <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
@@ -2326,9 +2351,11 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="84">
+        <v>5</v>
+      </c>
       <c r="B34" s="19">
-        <v>41611</v>
+        <v>41610</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -2342,7 +2369,7 @@
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="23">
-        <f>SUM(E143:E147)</f>
+        <f>SUM(E144:E148)</f>
         <v>0</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -2350,9 +2377,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="19">
-        <v>41612</v>
+        <v>41611</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -2366,7 +2393,7 @@
       </c>
       <c r="K35" s="6"/>
       <c r="L35" s="23">
-        <f>SUM(E148:E152)</f>
+        <f>SUM(E149:E153)</f>
         <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -2374,9 +2401,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="19">
-        <v>41613</v>
+        <v>41612</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2390,7 +2417,7 @@
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="23">
-        <f>SUM(E153:E157)</f>
+        <f>SUM(E154:E158)</f>
         <v>0</v>
       </c>
       <c r="M36" s="3" t="s">
@@ -2398,9 +2425,9 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="19">
-        <v>41614</v>
+        <v>41613</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2414,7 +2441,7 @@
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="23">
-        <f>SUM(E158:E162)</f>
+        <f>SUM(E159:E163)</f>
         <v>0</v>
       </c>
       <c r="M37" s="3" t="s">
@@ -2422,24 +2449,24 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="59">
+      <c r="A38" s="84"/>
+      <c r="B38" s="19">
+        <v>41614</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="85">
         <v>6</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B39" s="10">
         <v>41617</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="10">
-        <v>41618</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -2450,9 +2477,9 @@
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
+      <c r="A40" s="85"/>
       <c r="B40" s="10">
-        <v>41619</v>
+        <v>41618</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2463,9 +2490,9 @@
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="10">
-        <v>41620</v>
+        <v>41619</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -2476,9 +2503,9 @@
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
+      <c r="A42" s="85"/>
       <c r="B42" s="10">
-        <v>41621</v>
+        <v>41620</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -2489,24 +2516,24 @@
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="58">
+      <c r="A43" s="85"/>
+      <c r="B43" s="10">
+        <v>41621</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="84">
         <v>7</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B44" s="19">
         <v>41624</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="19">
-        <v>41625</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2517,9 +2544,9 @@
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="19">
-        <v>41626</v>
+        <v>41625</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2530,9 +2557,9 @@
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
+      <c r="A46" s="84"/>
       <c r="B46" s="19">
-        <v>41627</v>
+        <v>41626</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -2543,9 +2570,9 @@
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="84"/>
       <c r="B47" s="19">
-        <v>41628</v>
+        <v>41627</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -2556,24 +2583,24 @@
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="59">
+      <c r="A48" s="84"/>
+      <c r="B48" s="19">
+        <v>41628</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="85">
         <v>8</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B49" s="10">
         <v>41631</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="10">
-        <v>41632</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -2584,9 +2611,9 @@
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
+      <c r="A50" s="85"/>
       <c r="B50" s="10">
-        <v>41633</v>
+        <v>41632</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -2597,9 +2624,9 @@
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
+      <c r="A51" s="85"/>
       <c r="B51" s="10">
-        <v>41634</v>
+        <v>41633</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -2610,9 +2637,9 @@
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
+      <c r="A52" s="85"/>
       <c r="B52" s="10">
-        <v>41635</v>
+        <v>41634</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -2623,24 +2650,24 @@
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="58">
+      <c r="A53" s="85"/>
+      <c r="B53" s="10">
+        <v>41635</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="84">
         <v>9</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B54" s="19">
         <v>41638</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="19">
-        <v>41639</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -2651,9 +2678,9 @@
       <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
+      <c r="A55" s="84"/>
       <c r="B55" s="19">
-        <v>41640</v>
+        <v>41639</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -2664,9 +2691,9 @@
       <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
+      <c r="A56" s="84"/>
       <c r="B56" s="19">
-        <v>41641</v>
+        <v>41640</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -2677,9 +2704,9 @@
       <c r="I56" s="5"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
+      <c r="A57" s="84"/>
       <c r="B57" s="19">
-        <v>41642</v>
+        <v>41641</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2690,24 +2717,24 @@
       <c r="I57" s="5"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="59">
+      <c r="A58" s="84"/>
+      <c r="B58" s="19">
+        <v>41642</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="85">
         <v>10</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B59" s="10">
         <v>41645</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="59"/>
-      <c r="B59" s="10">
-        <v>41646</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -2718,9 +2745,9 @@
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="59"/>
+      <c r="A60" s="85"/>
       <c r="B60" s="10">
-        <v>41647</v>
+        <v>41646</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -2731,9 +2758,9 @@
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
+      <c r="A61" s="85"/>
       <c r="B61" s="10">
-        <v>41648</v>
+        <v>41647</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2744,9 +2771,9 @@
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="59"/>
+      <c r="A62" s="85"/>
       <c r="B62" s="10">
-        <v>41649</v>
+        <v>41648</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -2757,24 +2784,24 @@
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="58">
+      <c r="A63" s="85"/>
+      <c r="B63" s="10">
+        <v>41649</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="84">
         <v>11</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B64" s="19">
         <v>41652</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
-      <c r="B64" s="19">
-        <v>41653</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -2785,9 +2812,9 @@
       <c r="I64" s="5"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
+      <c r="A65" s="84"/>
       <c r="B65" s="19">
-        <v>41654</v>
+        <v>41653</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -2798,9 +2825,9 @@
       <c r="I65" s="5"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
+      <c r="A66" s="84"/>
       <c r="B66" s="19">
-        <v>41655</v>
+        <v>41654</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -2811,9 +2838,9 @@
       <c r="I66" s="5"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
+      <c r="A67" s="84"/>
       <c r="B67" s="19">
-        <v>41656</v>
+        <v>41655</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -2824,24 +2851,24 @@
       <c r="I67" s="5"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="59">
+      <c r="A68" s="84"/>
+      <c r="B68" s="19">
+        <v>41656</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="85">
         <v>12</v>
       </c>
-      <c r="B68" s="10">
+      <c r="B69" s="10">
         <v>41659</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="59"/>
-      <c r="B69" s="10">
-        <v>41660</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2852,9 +2879,9 @@
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="59"/>
+      <c r="A70" s="85"/>
       <c r="B70" s="10">
-        <v>41661</v>
+        <v>41660</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -2865,9 +2892,9 @@
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="59"/>
+      <c r="A71" s="85"/>
       <c r="B71" s="10">
-        <v>41662</v>
+        <v>41661</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -2878,9 +2905,9 @@
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="59"/>
+      <c r="A72" s="85"/>
       <c r="B72" s="10">
-        <v>41663</v>
+        <v>41662</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -2891,26 +2918,24 @@
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="58">
+      <c r="A73" s="85"/>
+      <c r="B73" s="10">
+        <v>41663</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="84">
         <v>13</v>
       </c>
-      <c r="B73" s="19">
+      <c r="B74" s="19">
         <v>41666</v>
-      </c>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-    </row>
-    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="58"/>
-      <c r="B74" s="19">
-        <v>41667</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -2923,9 +2948,9 @@
       <c r="I74" s="5"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="58"/>
+      <c r="A75" s="84"/>
       <c r="B75" s="19">
-        <v>41668</v>
+        <v>41667</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -2938,9 +2963,9 @@
       <c r="I75" s="5"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="58"/>
+      <c r="A76" s="84"/>
       <c r="B76" s="19">
-        <v>41669</v>
+        <v>41668</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -2953,9 +2978,9 @@
       <c r="I76" s="5"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
+      <c r="A77" s="84"/>
       <c r="B77" s="19">
-        <v>41670</v>
+        <v>41669</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -2968,26 +2993,26 @@
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="59">
+      <c r="A78" s="84"/>
+      <c r="B78" s="19">
+        <v>41670</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="85">
         <v>14</v>
       </c>
-      <c r="B78" s="10">
+      <c r="B79" s="10">
         <v>41673</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-    </row>
-    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="59"/>
-      <c r="B79" s="10">
-        <v>41674</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -3000,9 +3025,9 @@
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="59"/>
+      <c r="A80" s="85"/>
       <c r="B80" s="10">
-        <v>41675</v>
+        <v>41674</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -3015,9 +3040,9 @@
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="59"/>
+      <c r="A81" s="85"/>
       <c r="B81" s="10">
-        <v>41676</v>
+        <v>41675</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -3030,9 +3055,9 @@
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="59"/>
+      <c r="A82" s="85"/>
       <c r="B82" s="10">
-        <v>41677</v>
+        <v>41676</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -3045,24 +3070,26 @@
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="58">
+      <c r="A83" s="85"/>
+      <c r="B83" s="10">
+        <v>41677</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="84">
         <v>15</v>
       </c>
-      <c r="B83" s="19">
+      <c r="B84" s="19">
         <v>41680</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="58"/>
-      <c r="B84" s="19">
-        <v>41681</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -3073,9 +3100,9 @@
       <c r="I84" s="5"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="58"/>
+      <c r="A85" s="84"/>
       <c r="B85" s="19">
-        <v>41682</v>
+        <v>41681</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -3086,9 +3113,9 @@
       <c r="I85" s="5"/>
     </row>
     <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="58"/>
+      <c r="A86" s="84"/>
       <c r="B86" s="19">
-        <v>41683</v>
+        <v>41682</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -3099,9 +3126,9 @@
       <c r="I86" s="5"/>
     </row>
     <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="58"/>
+      <c r="A87" s="84"/>
       <c r="B87" s="19">
-        <v>41684</v>
+        <v>41683</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -3112,24 +3139,24 @@
       <c r="I87" s="5"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="59">
+      <c r="A88" s="84"/>
+      <c r="B88" s="19">
+        <v>41684</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="85">
         <v>16</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B89" s="10">
         <v>41687</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-    </row>
-    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="59"/>
-      <c r="B89" s="10">
-        <v>41688</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -3140,9 +3167,9 @@
       <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="59"/>
+      <c r="A90" s="85"/>
       <c r="B90" s="10">
-        <v>41689</v>
+        <v>41688</v>
       </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -3153,9 +3180,9 @@
       <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="59"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="10">
-        <v>41690</v>
+        <v>41689</v>
       </c>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -3166,9 +3193,9 @@
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="59"/>
+      <c r="A92" s="85"/>
       <c r="B92" s="10">
-        <v>41691</v>
+        <v>41690</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -3179,24 +3206,24 @@
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="58">
+      <c r="A93" s="85"/>
+      <c r="B93" s="10">
+        <v>41691</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="84">
         <v>17</v>
       </c>
-      <c r="B93" s="19">
+      <c r="B94" s="19">
         <v>41694</v>
-      </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-    </row>
-    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="58"/>
-      <c r="B94" s="19">
-        <v>41695</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -3207,9 +3234,9 @@
       <c r="I94" s="5"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="58"/>
+      <c r="A95" s="84"/>
       <c r="B95" s="19">
-        <v>41696</v>
+        <v>41695</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -3220,9 +3247,9 @@
       <c r="I95" s="5"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="58"/>
+      <c r="A96" s="84"/>
       <c r="B96" s="19">
-        <v>41697</v>
+        <v>41696</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -3233,9 +3260,9 @@
       <c r="I96" s="5"/>
     </row>
     <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="58"/>
+      <c r="A97" s="84"/>
       <c r="B97" s="19">
-        <v>41698</v>
+        <v>41697</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -3246,24 +3273,24 @@
       <c r="I97" s="5"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="59">
+      <c r="A98" s="84"/>
+      <c r="B98" s="19">
+        <v>41698</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="85">
         <v>18</v>
       </c>
-      <c r="B98" s="10">
+      <c r="B99" s="10">
         <v>41701</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-    </row>
-    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="59"/>
-      <c r="B99" s="10">
-        <v>41702</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -3274,9 +3301,9 @@
       <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="59"/>
+      <c r="A100" s="85"/>
       <c r="B100" s="10">
-        <v>41703</v>
+        <v>41702</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -3287,9 +3314,9 @@
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="59"/>
+      <c r="A101" s="85"/>
       <c r="B101" s="10">
-        <v>41704</v>
+        <v>41703</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -3300,9 +3327,9 @@
       <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="59"/>
+      <c r="A102" s="85"/>
       <c r="B102" s="10">
-        <v>41705</v>
+        <v>41704</v>
       </c>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -3313,24 +3340,24 @@
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="58">
+      <c r="A103" s="85"/>
+      <c r="B103" s="10">
+        <v>41705</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="84">
         <v>19</v>
       </c>
-      <c r="B103" s="19">
+      <c r="B104" s="19">
         <v>41708</v>
-      </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-    </row>
-    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="58"/>
-      <c r="B104" s="19">
-        <v>41709</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -3341,9 +3368,9 @@
       <c r="I104" s="5"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="58"/>
+      <c r="A105" s="84"/>
       <c r="B105" s="19">
-        <v>41710</v>
+        <v>41709</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -3354,9 +3381,9 @@
       <c r="I105" s="5"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="58"/>
+      <c r="A106" s="84"/>
       <c r="B106" s="19">
-        <v>41711</v>
+        <v>41710</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
@@ -3367,9 +3394,9 @@
       <c r="I106" s="5"/>
     </row>
     <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="58"/>
+      <c r="A107" s="84"/>
       <c r="B107" s="19">
-        <v>41712</v>
+        <v>41711</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
@@ -3380,24 +3407,24 @@
       <c r="I107" s="5"/>
     </row>
     <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="59">
+      <c r="A108" s="84"/>
+      <c r="B108" s="19">
+        <v>41712</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="85">
         <v>20</v>
       </c>
-      <c r="B108" s="10">
+      <c r="B109" s="10">
         <v>41715</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-    </row>
-    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="59"/>
-      <c r="B109" s="10">
-        <v>41716</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -3408,9 +3435,9 @@
       <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="59"/>
+      <c r="A110" s="85"/>
       <c r="B110" s="10">
-        <v>41717</v>
+        <v>41716</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -3421,9 +3448,9 @@
       <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="59"/>
+      <c r="A111" s="85"/>
       <c r="B111" s="10">
-        <v>41718</v>
+        <v>41717</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -3434,9 +3461,9 @@
       <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="59"/>
+      <c r="A112" s="85"/>
       <c r="B112" s="10">
-        <v>41719</v>
+        <v>41718</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -3447,24 +3474,24 @@
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="58">
+      <c r="A113" s="85"/>
+      <c r="B113" s="10">
+        <v>41719</v>
+      </c>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="84">
         <v>21</v>
       </c>
-      <c r="B113" s="19">
+      <c r="B114" s="19">
         <v>41722</v>
-      </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-    </row>
-    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="58"/>
-      <c r="B114" s="19">
-        <v>41723</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -3475,9 +3502,9 @@
       <c r="I114" s="5"/>
     </row>
     <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="58"/>
+      <c r="A115" s="84"/>
       <c r="B115" s="19">
-        <v>41724</v>
+        <v>41723</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -3488,9 +3515,9 @@
       <c r="I115" s="5"/>
     </row>
     <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="58"/>
+      <c r="A116" s="84"/>
       <c r="B116" s="19">
-        <v>41725</v>
+        <v>41724</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -3501,9 +3528,9 @@
       <c r="I116" s="5"/>
     </row>
     <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="58"/>
+      <c r="A117" s="84"/>
       <c r="B117" s="19">
-        <v>41726</v>
+        <v>41725</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -3514,24 +3541,24 @@
       <c r="I117" s="5"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="59">
+      <c r="A118" s="84"/>
+      <c r="B118" s="19">
+        <v>41726</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+    </row>
+    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="85">
         <v>22</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B119" s="10">
         <v>41729</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-    </row>
-    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="59"/>
-      <c r="B119" s="10">
-        <v>41730</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -3542,9 +3569,9 @@
       <c r="I119" s="6"/>
     </row>
     <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="59"/>
+      <c r="A120" s="85"/>
       <c r="B120" s="10">
-        <v>41731</v>
+        <v>41730</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -3555,9 +3582,9 @@
       <c r="I120" s="6"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="59"/>
+      <c r="A121" s="85"/>
       <c r="B121" s="10">
-        <v>41732</v>
+        <v>41731</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -3568,9 +3595,9 @@
       <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="59"/>
+      <c r="A122" s="85"/>
       <c r="B122" s="10">
-        <v>41733</v>
+        <v>41732</v>
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -3581,24 +3608,24 @@
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="58">
+      <c r="A123" s="85"/>
+      <c r="B123" s="10">
+        <v>41733</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="84">
         <v>23</v>
       </c>
-      <c r="B123" s="19">
+      <c r="B124" s="19">
         <v>41736</v>
-      </c>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-    </row>
-    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="58"/>
-      <c r="B124" s="19">
-        <v>41737</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -3609,9 +3636,9 @@
       <c r="I124" s="5"/>
     </row>
     <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="58"/>
+      <c r="A125" s="84"/>
       <c r="B125" s="19">
-        <v>41738</v>
+        <v>41737</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -3622,9 +3649,9 @@
       <c r="I125" s="5"/>
     </row>
     <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="58"/>
+      <c r="A126" s="84"/>
       <c r="B126" s="19">
-        <v>41739</v>
+        <v>41738</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -3635,9 +3662,9 @@
       <c r="I126" s="5"/>
     </row>
     <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="58"/>
+      <c r="A127" s="84"/>
       <c r="B127" s="19">
-        <v>41740</v>
+        <v>41739</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -3648,24 +3675,24 @@
       <c r="I127" s="5"/>
     </row>
     <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="59">
+      <c r="A128" s="84"/>
+      <c r="B128" s="19">
+        <v>41740</v>
+      </c>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+    </row>
+    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="85">
         <v>24</v>
       </c>
-      <c r="B128" s="10">
+      <c r="B129" s="10">
         <v>41743</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
-    </row>
-    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="59"/>
-      <c r="B129" s="10">
-        <v>41744</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -3676,9 +3703,9 @@
       <c r="I129" s="6"/>
     </row>
     <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="59"/>
+      <c r="A130" s="85"/>
       <c r="B130" s="10">
-        <v>41745</v>
+        <v>41744</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -3689,9 +3716,9 @@
       <c r="I130" s="6"/>
     </row>
     <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="59"/>
+      <c r="A131" s="85"/>
       <c r="B131" s="10">
-        <v>41746</v>
+        <v>41745</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3702,9 +3729,9 @@
       <c r="I131" s="6"/>
     </row>
     <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="59"/>
+      <c r="A132" s="85"/>
       <c r="B132" s="10">
-        <v>41747</v>
+        <v>41746</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -3715,24 +3742,24 @@
       <c r="I132" s="6"/>
     </row>
     <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="58">
+      <c r="A133" s="85"/>
+      <c r="B133" s="10">
+        <v>41747</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="84">
         <v>25</v>
       </c>
-      <c r="B133" s="19">
+      <c r="B134" s="19">
         <v>41750</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="5"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
-    </row>
-    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="58"/>
-      <c r="B134" s="19">
-        <v>41751</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -3743,9 +3770,9 @@
       <c r="I134" s="5"/>
     </row>
     <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="58"/>
+      <c r="A135" s="84"/>
       <c r="B135" s="19">
-        <v>41752</v>
+        <v>41751</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -3756,9 +3783,9 @@
       <c r="I135" s="5"/>
     </row>
     <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="58"/>
+      <c r="A136" s="84"/>
       <c r="B136" s="19">
-        <v>41753</v>
+        <v>41752</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -3769,9 +3796,9 @@
       <c r="I136" s="5"/>
     </row>
     <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="58"/>
+      <c r="A137" s="84"/>
       <c r="B137" s="19">
-        <v>41754</v>
+        <v>41753</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -3782,24 +3809,24 @@
       <c r="I137" s="5"/>
     </row>
     <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="59">
+      <c r="A138" s="84"/>
+      <c r="B138" s="19">
+        <v>41754</v>
+      </c>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+    </row>
+    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="85">
         <v>26</v>
       </c>
-      <c r="B138" s="10">
+      <c r="B139" s="10">
         <v>41757</v>
-      </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-    </row>
-    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="59"/>
-      <c r="B139" s="10">
-        <v>41758</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -3810,9 +3837,9 @@
       <c r="I139" s="6"/>
     </row>
     <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="59"/>
+      <c r="A140" s="85"/>
       <c r="B140" s="10">
-        <v>41759</v>
+        <v>41758</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -3823,9 +3850,9 @@
       <c r="I140" s="6"/>
     </row>
     <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="59"/>
+      <c r="A141" s="85"/>
       <c r="B141" s="10">
-        <v>41760</v>
+        <v>41759</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -3836,9 +3863,9 @@
       <c r="I141" s="6"/>
     </row>
     <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="59"/>
+      <c r="A142" s="85"/>
       <c r="B142" s="10">
-        <v>41761</v>
+        <v>41760</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -3849,24 +3876,24 @@
       <c r="I142" s="6"/>
     </row>
     <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="58">
+      <c r="A143" s="85"/>
+      <c r="B143" s="10">
+        <v>41761</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="84">
         <v>27</v>
       </c>
-      <c r="B143" s="19">
+      <c r="B144" s="19">
         <v>41764</v>
-      </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
-      <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
-      <c r="I143" s="5"/>
-    </row>
-    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="58"/>
-      <c r="B144" s="19">
-        <v>41765</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -3877,9 +3904,9 @@
       <c r="I144" s="5"/>
     </row>
     <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="58"/>
+      <c r="A145" s="84"/>
       <c r="B145" s="19">
-        <v>41766</v>
+        <v>41765</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -3890,9 +3917,9 @@
       <c r="I145" s="5"/>
     </row>
     <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="58"/>
+      <c r="A146" s="84"/>
       <c r="B146" s="19">
-        <v>41767</v>
+        <v>41766</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -3903,9 +3930,9 @@
       <c r="I146" s="5"/>
     </row>
     <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="58"/>
+      <c r="A147" s="84"/>
       <c r="B147" s="19">
-        <v>41768</v>
+        <v>41767</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -3916,24 +3943,24 @@
       <c r="I147" s="5"/>
     </row>
     <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="59">
+      <c r="A148" s="84"/>
+      <c r="B148" s="19">
+        <v>41768</v>
+      </c>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+    </row>
+    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="85">
         <v>28</v>
       </c>
-      <c r="B148" s="10">
+      <c r="B149" s="10">
         <v>41771</v>
-      </c>
-      <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
-      <c r="G148" s="6"/>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
-    </row>
-    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="59"/>
-      <c r="B149" s="10">
-        <v>41772</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -3944,9 +3971,9 @@
       <c r="I149" s="6"/>
     </row>
     <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="59"/>
+      <c r="A150" s="85"/>
       <c r="B150" s="10">
-        <v>41773</v>
+        <v>41772</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -3957,9 +3984,9 @@
       <c r="I150" s="6"/>
     </row>
     <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="59"/>
+      <c r="A151" s="85"/>
       <c r="B151" s="10">
-        <v>41774</v>
+        <v>41773</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -3970,9 +3997,9 @@
       <c r="I151" s="6"/>
     </row>
     <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="59"/>
+      <c r="A152" s="85"/>
       <c r="B152" s="10">
-        <v>41775</v>
+        <v>41774</v>
       </c>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -3983,24 +4010,24 @@
       <c r="I152" s="6"/>
     </row>
     <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="58">
+      <c r="A153" s="85"/>
+      <c r="B153" s="10">
+        <v>41775</v>
+      </c>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+    </row>
+    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="84">
         <v>29</v>
       </c>
-      <c r="B153" s="19">
+      <c r="B154" s="19">
         <v>41778</v>
-      </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-    </row>
-    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="58"/>
-      <c r="B154" s="19">
-        <v>41779</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -4011,9 +4038,9 @@
       <c r="I154" s="5"/>
     </row>
     <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="58"/>
+      <c r="A155" s="84"/>
       <c r="B155" s="19">
-        <v>41780</v>
+        <v>41779</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -4024,9 +4051,9 @@
       <c r="I155" s="5"/>
     </row>
     <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="58"/>
+      <c r="A156" s="84"/>
       <c r="B156" s="19">
-        <v>41781</v>
+        <v>41780</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -4037,9 +4064,9 @@
       <c r="I156" s="5"/>
     </row>
     <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="58"/>
+      <c r="A157" s="84"/>
       <c r="B157" s="19">
-        <v>41782</v>
+        <v>41781</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -4050,24 +4077,24 @@
       <c r="I157" s="5"/>
     </row>
     <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="60">
+      <c r="A158" s="84"/>
+      <c r="B158" s="19">
+        <v>41782</v>
+      </c>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+    </row>
+    <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="91">
         <v>30</v>
       </c>
-      <c r="B158" s="10">
+      <c r="B159" s="10">
         <v>41785</v>
-      </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-    </row>
-    <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="60"/>
-      <c r="B159" s="10">
-        <v>41786</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -4078,9 +4105,9 @@
       <c r="I159" s="2"/>
     </row>
     <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="60"/>
+      <c r="A160" s="91"/>
       <c r="B160" s="10">
-        <v>41787</v>
+        <v>41786</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -4091,9 +4118,9 @@
       <c r="I160" s="2"/>
     </row>
     <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="60"/>
+      <c r="A161" s="91"/>
       <c r="B161" s="10">
-        <v>41788</v>
+        <v>41787</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -4104,9 +4131,9 @@
       <c r="I161" s="2"/>
     </row>
     <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="60"/>
+      <c r="A162" s="91"/>
       <c r="B162" s="10">
-        <v>41789</v>
+        <v>41788</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -4117,184 +4144,226 @@
       <c r="I162" s="2"/>
     </row>
     <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="60"/>
-      <c r="B163" s="20">
+      <c r="A163" s="91"/>
+      <c r="B163" s="10">
+        <v>41789</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+    </row>
+    <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="91"/>
+      <c r="B164" s="20">
         <v>41790</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="44"/>
-      <c r="B164" s="10">
+    <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A165" s="44"/>
+      <c r="B165" s="10">
         <v>41791</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B165" s="10">
-        <v>41792</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B166" s="10">
-        <v>41793</v>
+        <v>41792</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B167" s="10">
-        <v>41794</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B168" s="10">
-        <v>41795</v>
+        <v>41794</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B169" s="10">
-        <v>41796</v>
+        <v>41795</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B170" s="10">
-        <v>41797</v>
+        <v>41796</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B171" s="10">
-        <v>41798</v>
+        <v>41797</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B172" s="10">
-        <v>41799</v>
+        <v>41798</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B173" s="10">
-        <v>41800</v>
+        <v>41799</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B174" s="10">
-        <v>41801</v>
+        <v>41800</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B175" s="10">
-        <v>41802</v>
+        <v>41801</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B176" s="10">
-        <v>41803</v>
+        <v>41802</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B177" s="10">
-        <v>41804</v>
+        <v>41803</v>
       </c>
     </row>
     <row r="178" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B178" s="10">
-        <v>41805</v>
+        <v>41804</v>
       </c>
     </row>
     <row r="179" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B179" s="10">
-        <v>41806</v>
+        <v>41805</v>
       </c>
     </row>
     <row r="180" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B180" s="10">
-        <v>41807</v>
+        <v>41806</v>
       </c>
     </row>
     <row r="181" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B181" s="10">
-        <v>41808</v>
+        <v>41807</v>
       </c>
     </row>
     <row r="182" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B182" s="10">
-        <v>41809</v>
+        <v>41808</v>
       </c>
     </row>
     <row r="183" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B183" s="10">
-        <v>41810</v>
+        <v>41809</v>
       </c>
     </row>
     <row r="184" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B184" s="10">
-        <v>41811</v>
+        <v>41810</v>
       </c>
     </row>
     <row r="185" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B185" s="10">
-        <v>41812</v>
+        <v>41811</v>
       </c>
     </row>
     <row r="186" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B186" s="10">
-        <v>41813</v>
+        <v>41812</v>
       </c>
     </row>
     <row r="187" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B187" s="10">
-        <v>41814</v>
+        <v>41813</v>
       </c>
     </row>
     <row r="188" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B188" s="10">
-        <v>41815</v>
+        <v>41814</v>
       </c>
     </row>
     <row r="189" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B189" s="10">
-        <v>41816</v>
+        <v>41815</v>
       </c>
     </row>
     <row r="190" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B190" s="10">
-        <v>41817</v>
+        <v>41816</v>
       </c>
     </row>
     <row r="191" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B191" s="10">
-        <v>41818</v>
+        <v>41817</v>
       </c>
     </row>
     <row r="192" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B192" s="10">
-        <v>41819</v>
+        <v>41818</v>
       </c>
     </row>
     <row r="193" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B193" s="10">
-        <v>41820</v>
+        <v>41819</v>
       </c>
     </row>
     <row r="194" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B194" s="10">
-        <v>41821</v>
+        <v>41820</v>
       </c>
     </row>
     <row r="195" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B195" s="10">
-        <v>41822</v>
+        <v>41821</v>
       </c>
     </row>
     <row r="196" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B196" s="10">
-        <v>41823</v>
+        <v>41822</v>
       </c>
     </row>
     <row r="197" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B197" s="10">
+        <v>41823</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B198" s="10">
         <v>41824</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="36">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A159:A164"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A18:A28"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="F2:M4"/>
@@ -4302,36 +4371,6 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="A158:A163"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="B23:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="118">
   <si>
     <t>Week</t>
   </si>
@@ -406,6 +406,10 @@
   <si>
     <t>Drawing Scrum model that have use ACDM
 Description for Scrum model</t>
+  </si>
+  <si>
+    <t>Update Deadline team process document
+Update Architect Plan</t>
   </si>
 </sst>
 </file>
@@ -882,130 +886,130 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1403,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N200"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="6" ySplit="6" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
@@ -1431,82 +1435,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="69"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="77"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="70" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="72"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="80"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="75"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="83"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="78"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="89"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="32"/>
       <c r="H5" s="58" t="s">
         <v>112</v>
@@ -1551,10 +1555,10 @@
       <c r="J6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -1582,20 +1586,20 @@
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="85" t="s">
+      <c r="K7" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="85"/>
+      <c r="L7" s="93"/>
       <c r="M7" s="38">
         <f>SUM(M8:M37)</f>
-        <v>39.6</v>
+        <v>42.1</v>
       </c>
       <c r="N7" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="90">
+      <c r="A8" s="69">
         <v>2</v>
       </c>
       <c r="B8" s="2">
@@ -1610,7 +1614,7 @@
       <c r="E8" s="13">
         <v>1.5</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="98">
         <f>SUM(E8:E9)</f>
         <v>3</v>
       </c>
@@ -1635,7 +1639,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="91"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="2">
         <v>41589</v>
       </c>
@@ -1648,7 +1652,7 @@
       <c r="E9" s="13">
         <v>1.5</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="99"/>
       <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1670,7 +1674,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="2">
         <v>41590</v>
       </c>
@@ -1683,7 +1687,7 @@
       <c r="E10" s="13">
         <v>2</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="98">
         <f>SUM(E10:E11)</f>
         <v>4</v>
       </c>
@@ -1700,15 +1704,15 @@
       </c>
       <c r="L10" s="44"/>
       <c r="M10" s="45">
-        <f>SUM(F18:F30)</f>
-        <v>22.3</v>
+        <f>SUM(F18:F31)</f>
+        <v>24.8</v>
       </c>
       <c r="N10" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="91"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="2">
         <v>41590</v>
       </c>
@@ -1721,7 +1725,7 @@
       <c r="E11" s="13">
         <v>2</v>
       </c>
-      <c r="F11" s="60"/>
+      <c r="F11" s="99"/>
       <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1735,7 +1739,7 @@
       </c>
       <c r="L11" s="44"/>
       <c r="M11" s="45">
-        <f>SUM(F31:F35)</f>
+        <f>SUM(F32:F36)</f>
         <v>0</v>
       </c>
       <c r="N11" s="39" t="s">
@@ -1743,7 +1747,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="91"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="2">
         <v>41591</v>
       </c>
@@ -1773,7 +1777,7 @@
       </c>
       <c r="L12" s="44"/>
       <c r="M12" s="45">
-        <f>SUM(F36:F40)</f>
+        <f>SUM(F37:F41)</f>
         <v>0</v>
       </c>
       <c r="N12" s="39" t="s">
@@ -1781,7 +1785,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="91"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="2">
         <v>41592</v>
       </c>
@@ -1794,7 +1798,7 @@
       <c r="E13" s="13">
         <v>1</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="98">
         <f>SUM(E13:E14)</f>
         <v>2.25</v>
       </c>
@@ -1811,7 +1815,7 @@
       </c>
       <c r="L13" s="44"/>
       <c r="M13" s="45">
-        <f>SUM(F41:F45)</f>
+        <f>SUM(F42:F46)</f>
         <v>0</v>
       </c>
       <c r="N13" s="39" t="s">
@@ -1819,7 +1823,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="91"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="2">
         <v>41592</v>
       </c>
@@ -1832,7 +1836,7 @@
       <c r="E14" s="13">
         <v>1.25</v>
       </c>
-      <c r="F14" s="60"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="21" t="s">
         <v>28</v>
       </c>
@@ -1846,7 +1850,7 @@
       </c>
       <c r="L14" s="44"/>
       <c r="M14" s="45">
-        <f>SUM(F46:F50)</f>
+        <f>SUM(F47:F51)</f>
         <v>0</v>
       </c>
       <c r="N14" s="39" t="s">
@@ -1854,7 +1858,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="91"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="2">
         <v>41593</v>
       </c>
@@ -1884,7 +1888,7 @@
       </c>
       <c r="L15" s="44"/>
       <c r="M15" s="45">
-        <f>SUM(F51:F55)</f>
+        <f>SUM(F52:F56)</f>
         <v>0</v>
       </c>
       <c r="N15" s="39" t="s">
@@ -1892,7 +1896,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="23">
         <v>41594</v>
       </c>
@@ -1922,7 +1926,7 @@
       </c>
       <c r="L16" s="44"/>
       <c r="M16" s="45">
-        <f>SUM(F56:F60)</f>
+        <f>SUM(F57:F61)</f>
         <v>0</v>
       </c>
       <c r="N16" s="39" t="s">
@@ -1930,7 +1934,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="23">
         <v>41595</v>
       </c>
@@ -1960,7 +1964,7 @@
       </c>
       <c r="L17" s="44"/>
       <c r="M17" s="45">
-        <f>SUM(F61:F65)</f>
+        <f>SUM(F62:F66)</f>
         <v>0</v>
       </c>
       <c r="N17" s="39" t="s">
@@ -1968,7 +1972,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="95">
+      <c r="A18" s="63">
         <v>3</v>
       </c>
       <c r="B18" s="9">
@@ -2000,7 +2004,7 @@
       </c>
       <c r="L18" s="44"/>
       <c r="M18" s="45">
-        <f>SUM(F66:F70)</f>
+        <f>SUM(F67:F71)</f>
         <v>0</v>
       </c>
       <c r="N18" s="39" t="s">
@@ -2008,8 +2012,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
-      <c r="B19" s="97">
+      <c r="A19" s="64"/>
+      <c r="B19" s="61">
         <v>41597</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2021,7 +2025,7 @@
       <c r="E19" s="22">
         <v>1</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F19" s="59">
         <f>SUM(E19:E21)</f>
         <v>4.6500000000000004</v>
       </c>
@@ -2038,7 +2042,7 @@
       </c>
       <c r="L19" s="44"/>
       <c r="M19" s="45">
-        <f>SUM(F71:F75)</f>
+        <f>SUM(F72:F76)</f>
         <v>0</v>
       </c>
       <c r="N19" s="39" t="s">
@@ -2046,8 +2050,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="93"/>
-      <c r="B20" s="98"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="3" t="s">
         <v>91</v>
       </c>
@@ -2057,7 +2061,7 @@
       <c r="E20" s="22">
         <v>1.5</v>
       </c>
-      <c r="F20" s="62"/>
+      <c r="F20" s="100"/>
       <c r="G20" s="28" t="s">
         <v>27</v>
       </c>
@@ -2073,7 +2077,7 @@
       </c>
       <c r="L20" s="44"/>
       <c r="M20" s="45">
-        <f>SUM(F76:F80)</f>
+        <f>SUM(F77:F81)</f>
         <v>0</v>
       </c>
       <c r="N20" s="39" t="s">
@@ -2081,8 +2085,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
@@ -2092,7 +2096,7 @@
       <c r="E21" s="22">
         <v>2.15</v>
       </c>
-      <c r="F21" s="63"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="28" t="s">
         <v>27</v>
       </c>
@@ -2108,7 +2112,7 @@
       </c>
       <c r="L21" s="44"/>
       <c r="M21" s="45">
-        <f>SUM(F81:F85)</f>
+        <f>SUM(F82:F86)</f>
         <v>0</v>
       </c>
       <c r="N21" s="39" t="s">
@@ -2116,7 +2120,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="9">
         <v>41598</v>
       </c>
@@ -2148,7 +2152,7 @@
       </c>
       <c r="L22" s="44"/>
       <c r="M22" s="45">
-        <f>SUM(F86:F90)</f>
+        <f>SUM(F87:F91)</f>
         <v>0</v>
       </c>
       <c r="N22" s="39" t="s">
@@ -2156,8 +2160,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
-      <c r="B23" s="97">
+      <c r="A23" s="64"/>
+      <c r="B23" s="61">
         <v>41599</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2169,7 +2173,7 @@
       <c r="E23" s="22">
         <v>1</v>
       </c>
-      <c r="F23" s="61">
+      <c r="F23" s="59">
         <f>SUM(E23:E28)</f>
         <v>9.65</v>
       </c>
@@ -2188,7 +2192,7 @@
       </c>
       <c r="L23" s="44"/>
       <c r="M23" s="45">
-        <f>SUM(F91:F95)</f>
+        <f>SUM(F92:F96)</f>
         <v>0</v>
       </c>
       <c r="N23" s="39" t="s">
@@ -2196,8 +2200,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="93"/>
-      <c r="B24" s="98"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
@@ -2207,7 +2211,7 @@
       <c r="E24" s="22">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F24" s="62"/>
+      <c r="F24" s="100"/>
       <c r="G24" s="29" t="s">
         <v>28</v>
       </c>
@@ -2221,7 +2225,7 @@
       </c>
       <c r="L24" s="44"/>
       <c r="M24" s="45">
-        <f>SUM(F96:F100)</f>
+        <f>SUM(F97:F101)</f>
         <v>0</v>
       </c>
       <c r="N24" s="39" t="s">
@@ -2229,8 +2233,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="93"/>
-      <c r="B25" s="98"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="3" t="s">
         <v>101</v>
       </c>
@@ -2240,7 +2244,7 @@
       <c r="E25" s="22">
         <v>1.33</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="100"/>
       <c r="G25" s="26" t="s">
         <v>64</v>
       </c>
@@ -2254,7 +2258,7 @@
       </c>
       <c r="L25" s="44"/>
       <c r="M25" s="45">
-        <f>SUM(F101:F105)</f>
+        <f>SUM(F102:F106)</f>
         <v>0</v>
       </c>
       <c r="N25" s="39" t="s">
@@ -2262,8 +2266,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="93"/>
-      <c r="B26" s="98"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
@@ -2273,7 +2277,7 @@
       <c r="E26" s="22">
         <v>1.5</v>
       </c>
-      <c r="F26" s="62"/>
+      <c r="F26" s="100"/>
       <c r="G26" s="28" t="s">
         <v>27</v>
       </c>
@@ -2287,7 +2291,7 @@
       </c>
       <c r="L26" s="44"/>
       <c r="M26" s="45">
-        <f>SUM(F106:F110)</f>
+        <f>SUM(F107:F111)</f>
         <v>0</v>
       </c>
       <c r="N26" s="39" t="s">
@@ -2295,8 +2299,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="93"/>
-      <c r="B27" s="98"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
@@ -2306,7 +2310,7 @@
       <c r="E27" s="22">
         <v>2.16</v>
       </c>
-      <c r="F27" s="62"/>
+      <c r="F27" s="100"/>
       <c r="G27" s="26" t="s">
         <v>64</v>
       </c>
@@ -2320,7 +2324,7 @@
       </c>
       <c r="L27" s="44"/>
       <c r="M27" s="45">
-        <f>SUM(F111:F115)</f>
+        <f>SUM(F112:F116)</f>
         <v>0</v>
       </c>
       <c r="N27" s="39" t="s">
@@ -2328,8 +2332,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="93"/>
-      <c r="B28" s="99"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
@@ -2339,7 +2343,7 @@
       <c r="E28" s="22">
         <v>2.5</v>
       </c>
-      <c r="F28" s="63"/>
+      <c r="F28" s="60"/>
       <c r="G28" s="28" t="s">
         <v>27</v>
       </c>
@@ -2355,7 +2359,7 @@
       </c>
       <c r="L28" s="44"/>
       <c r="M28" s="45">
-        <f>SUM(F116:F120)</f>
+        <f>SUM(F117:F121)</f>
         <v>0</v>
       </c>
       <c r="N28" s="39" t="s">
@@ -2363,8 +2367,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A29" s="93"/>
-      <c r="B29" s="97">
+      <c r="A29" s="64"/>
+      <c r="B29" s="61">
         <v>41600</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2376,9 +2380,9 @@
       <c r="E29" s="22">
         <v>1.5</v>
       </c>
-      <c r="F29" s="61">
-        <f>SUM(E29:E30)</f>
-        <v>3</v>
+      <c r="F29" s="59">
+        <f>SUM(E29:E31)</f>
+        <v>5.5</v>
       </c>
       <c r="G29" s="31" t="s">
         <v>64</v>
@@ -2395,7 +2399,7 @@
       </c>
       <c r="L29" s="44"/>
       <c r="M29" s="45">
-        <f>SUM(F121:F125)</f>
+        <f>SUM(F122:F126)</f>
         <v>0</v>
       </c>
       <c r="N29" s="39" t="s">
@@ -2403,8 +2407,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A30" s="96"/>
-      <c r="B30" s="99"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
@@ -2414,7 +2418,7 @@
       <c r="E30" s="22">
         <v>1.5</v>
       </c>
-      <c r="F30" s="63"/>
+      <c r="F30" s="100"/>
       <c r="G30" s="28" t="s">
         <v>27</v>
       </c>
@@ -2430,34 +2434,42 @@
       </c>
       <c r="L30" s="44"/>
       <c r="M30" s="45">
-        <f>SUM(F126:F130)</f>
+        <f>SUM(F127:F131)</f>
         <v>0</v>
       </c>
       <c r="N30" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="52">
-        <v>4</v>
-      </c>
-      <c r="B31" s="2">
-        <v>41603</v>
-      </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
+    <row r="31" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="65"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="F31" s="60"/>
+      <c r="G31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="J31" s="37"/>
       <c r="K31" s="41" t="s">
         <v>52</v>
       </c>
       <c r="L31" s="44"/>
       <c r="M31" s="45">
-        <f>SUM(F131:F135)</f>
+        <f>SUM(F132:F136)</f>
         <v>0</v>
       </c>
       <c r="N31" s="39" t="s">
@@ -2465,9 +2477,11 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
+      <c r="A32" s="52">
+        <v>4</v>
+      </c>
       <c r="B32" s="2">
-        <v>41604</v>
+        <v>41603</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
@@ -2482,7 +2496,7 @@
       </c>
       <c r="L32" s="44"/>
       <c r="M32" s="45">
-        <f>SUM(F136:F140)</f>
+        <f>SUM(F137:F141)</f>
         <v>0</v>
       </c>
       <c r="N32" s="39" t="s">
@@ -2492,7 +2506,7 @@
     <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
       <c r="B33" s="2">
-        <v>41605</v>
+        <v>41604</v>
       </c>
       <c r="C33" s="44"/>
       <c r="D33" s="44"/>
@@ -2507,7 +2521,7 @@
       </c>
       <c r="L33" s="44"/>
       <c r="M33" s="45">
-        <f>SUM(F141:F145)</f>
+        <f>SUM(F142:F146)</f>
         <v>0</v>
       </c>
       <c r="N33" s="39" t="s">
@@ -2517,7 +2531,7 @@
     <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
       <c r="B34" s="2">
-        <v>41606</v>
+        <v>41605</v>
       </c>
       <c r="C34" s="44"/>
       <c r="D34" s="44"/>
@@ -2532,7 +2546,7 @@
       </c>
       <c r="L34" s="44"/>
       <c r="M34" s="45">
-        <f>SUM(F146:F150)</f>
+        <f>SUM(F147:F151)</f>
         <v>0</v>
       </c>
       <c r="N34" s="39" t="s">
@@ -2542,7 +2556,7 @@
     <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
       <c r="B35" s="2">
-        <v>41607</v>
+        <v>41606</v>
       </c>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
@@ -2557,7 +2571,7 @@
       </c>
       <c r="L35" s="44"/>
       <c r="M35" s="45">
-        <f>SUM(F151:F155)</f>
+        <f>SUM(F152:F156)</f>
         <v>0</v>
       </c>
       <c r="N35" s="39" t="s">
@@ -2565,26 +2579,24 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="93">
-        <v>5</v>
-      </c>
-      <c r="B36" s="9">
-        <v>41610</v>
-      </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="2">
+        <v>41607</v>
+      </c>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
       <c r="K36" s="41" t="s">
         <v>57</v>
       </c>
       <c r="L36" s="44"/>
       <c r="M36" s="45">
-        <f>SUM(F156:F160)</f>
+        <f>SUM(F157:F161)</f>
         <v>0</v>
       </c>
       <c r="N36" s="39" t="s">
@@ -2592,9 +2604,11 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="93"/>
+      <c r="A37" s="64">
+        <v>5</v>
+      </c>
       <c r="B37" s="9">
-        <v>41611</v>
+        <v>41610</v>
       </c>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -2609,7 +2623,7 @@
       </c>
       <c r="L37" s="44"/>
       <c r="M37" s="45">
-        <f>SUM(F161:F165)</f>
+        <f>SUM(F162:F166)</f>
         <v>0</v>
       </c>
       <c r="N37" s="39" t="s">
@@ -2617,9 +2631,9 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="93"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="9">
-        <v>41612</v>
+        <v>41611</v>
       </c>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -2635,9 +2649,9 @@
       <c r="N38" s="54"/>
     </row>
     <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="93"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="9">
-        <v>41613</v>
+        <v>41612</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -2653,9 +2667,9 @@
       <c r="N39" s="54"/>
     </row>
     <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="93"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="9">
-        <v>41614</v>
+        <v>41613</v>
       </c>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -2671,29 +2685,29 @@
       <c r="N40" s="54"/>
     </row>
     <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="94">
-        <v>6</v>
-      </c>
-      <c r="B41" s="2">
-        <v>41617</v>
-      </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="9">
+        <v>41614</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
       <c r="K41" s="54"/>
       <c r="L41" s="54"/>
       <c r="M41" s="54"/>
       <c r="N41" s="54"/>
     </row>
     <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="94"/>
+      <c r="A42" s="67">
+        <v>6</v>
+      </c>
       <c r="B42" s="2">
-        <v>41618</v>
+        <v>41617</v>
       </c>
       <c r="C42" s="44"/>
       <c r="D42" s="44"/>
@@ -2709,9 +2723,9 @@
       <c r="N42" s="54"/>
     </row>
     <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="94"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="2">
-        <v>41619</v>
+        <v>41618</v>
       </c>
       <c r="C43" s="44"/>
       <c r="D43" s="44"/>
@@ -2727,9 +2741,9 @@
       <c r="N43" s="54"/>
     </row>
     <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="94"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="2">
-        <v>41620</v>
+        <v>41619</v>
       </c>
       <c r="C44" s="44"/>
       <c r="D44" s="44"/>
@@ -2745,9 +2759,9 @@
       <c r="N44" s="54"/>
     </row>
     <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="94"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="2">
-        <v>41621</v>
+        <v>41620</v>
       </c>
       <c r="C45" s="44"/>
       <c r="D45" s="44"/>
@@ -2763,29 +2777,29 @@
       <c r="N45" s="54"/>
     </row>
     <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="93">
-        <v>7</v>
-      </c>
-      <c r="B46" s="9">
-        <v>41624</v>
-      </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="2">
+        <v>41621</v>
+      </c>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
       <c r="K46" s="54"/>
       <c r="L46" s="54"/>
       <c r="M46" s="54"/>
       <c r="N46" s="54"/>
     </row>
     <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="93"/>
+      <c r="A47" s="64">
+        <v>7</v>
+      </c>
       <c r="B47" s="9">
-        <v>41625</v>
+        <v>41624</v>
       </c>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -2801,9 +2815,9 @@
       <c r="N47" s="54"/>
     </row>
     <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="93"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="9">
-        <v>41626</v>
+        <v>41625</v>
       </c>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
@@ -2819,9 +2833,9 @@
       <c r="N48" s="54"/>
     </row>
     <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="93"/>
+      <c r="A49" s="64"/>
       <c r="B49" s="9">
-        <v>41627</v>
+        <v>41626</v>
       </c>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
@@ -2837,9 +2851,9 @@
       <c r="N49" s="54"/>
     </row>
     <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="93"/>
+      <c r="A50" s="64"/>
       <c r="B50" s="9">
-        <v>41628</v>
+        <v>41627</v>
       </c>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -2855,29 +2869,29 @@
       <c r="N50" s="54"/>
     </row>
     <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="94">
-        <v>8</v>
-      </c>
-      <c r="B51" s="2">
-        <v>41631</v>
-      </c>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="9">
+        <v>41628</v>
+      </c>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
       <c r="K51" s="54"/>
       <c r="L51" s="54"/>
       <c r="M51" s="54"/>
       <c r="N51" s="54"/>
     </row>
     <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="94"/>
+      <c r="A52" s="67">
+        <v>8</v>
+      </c>
       <c r="B52" s="2">
-        <v>41632</v>
+        <v>41631</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="44"/>
@@ -2893,9 +2907,9 @@
       <c r="N52" s="54"/>
     </row>
     <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="94"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="2">
-        <v>41633</v>
+        <v>41632</v>
       </c>
       <c r="C53" s="44"/>
       <c r="D53" s="44"/>
@@ -2911,9 +2925,9 @@
       <c r="N53" s="54"/>
     </row>
     <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="94"/>
+      <c r="A54" s="67"/>
       <c r="B54" s="2">
-        <v>41634</v>
+        <v>41633</v>
       </c>
       <c r="C54" s="44"/>
       <c r="D54" s="44"/>
@@ -2929,9 +2943,9 @@
       <c r="N54" s="54"/>
     </row>
     <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="94"/>
+      <c r="A55" s="67"/>
       <c r="B55" s="2">
-        <v>41635</v>
+        <v>41634</v>
       </c>
       <c r="C55" s="44"/>
       <c r="D55" s="44"/>
@@ -2947,29 +2961,29 @@
       <c r="N55" s="54"/>
     </row>
     <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="93">
-        <v>9</v>
-      </c>
-      <c r="B56" s="9">
-        <v>41638</v>
-      </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="2">
+        <v>41635</v>
+      </c>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
       <c r="K56" s="54"/>
       <c r="L56" s="54"/>
       <c r="M56" s="54"/>
       <c r="N56" s="54"/>
     </row>
     <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="93"/>
+      <c r="A57" s="64">
+        <v>9</v>
+      </c>
       <c r="B57" s="9">
-        <v>41639</v>
+        <v>41638</v>
       </c>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -2985,9 +2999,9 @@
       <c r="N57" s="54"/>
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="93"/>
+      <c r="A58" s="64"/>
       <c r="B58" s="9">
-        <v>41640</v>
+        <v>41639</v>
       </c>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
@@ -3003,9 +3017,9 @@
       <c r="N58" s="54"/>
     </row>
     <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="93"/>
+      <c r="A59" s="64"/>
       <c r="B59" s="9">
-        <v>41641</v>
+        <v>41640</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -3021,9 +3035,9 @@
       <c r="N59" s="54"/>
     </row>
     <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="93"/>
+      <c r="A60" s="64"/>
       <c r="B60" s="9">
-        <v>41642</v>
+        <v>41641</v>
       </c>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -3039,29 +3053,29 @@
       <c r="N60" s="54"/>
     </row>
     <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="94">
-        <v>10</v>
-      </c>
-      <c r="B61" s="2">
-        <v>41645</v>
-      </c>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="9">
+        <v>41642</v>
+      </c>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
       <c r="K61" s="54"/>
       <c r="L61" s="54"/>
       <c r="M61" s="54"/>
       <c r="N61" s="54"/>
     </row>
     <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="94"/>
+      <c r="A62" s="67">
+        <v>10</v>
+      </c>
       <c r="B62" s="2">
-        <v>41646</v>
+        <v>41645</v>
       </c>
       <c r="C62" s="44"/>
       <c r="D62" s="44"/>
@@ -3077,9 +3091,9 @@
       <c r="N62" s="54"/>
     </row>
     <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="94"/>
+      <c r="A63" s="67"/>
       <c r="B63" s="2">
-        <v>41647</v>
+        <v>41646</v>
       </c>
       <c r="C63" s="44"/>
       <c r="D63" s="44"/>
@@ -3095,9 +3109,9 @@
       <c r="N63" s="54"/>
     </row>
     <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="94"/>
+      <c r="A64" s="67"/>
       <c r="B64" s="2">
-        <v>41648</v>
+        <v>41647</v>
       </c>
       <c r="C64" s="44"/>
       <c r="D64" s="44"/>
@@ -3113,9 +3127,9 @@
       <c r="N64" s="54"/>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="94"/>
+      <c r="A65" s="67"/>
       <c r="B65" s="2">
-        <v>41649</v>
+        <v>41648</v>
       </c>
       <c r="C65" s="44"/>
       <c r="D65" s="44"/>
@@ -3131,29 +3145,29 @@
       <c r="N65" s="54"/>
     </row>
     <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="93">
-        <v>11</v>
-      </c>
-      <c r="B66" s="9">
-        <v>41652</v>
-      </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="2">
+        <v>41649</v>
+      </c>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
       <c r="K66" s="54"/>
       <c r="L66" s="54"/>
       <c r="M66" s="54"/>
       <c r="N66" s="54"/>
     </row>
     <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="93"/>
+      <c r="A67" s="64">
+        <v>11</v>
+      </c>
       <c r="B67" s="9">
-        <v>41653</v>
+        <v>41652</v>
       </c>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -3169,9 +3183,9 @@
       <c r="N67" s="54"/>
     </row>
     <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="93"/>
+      <c r="A68" s="64"/>
       <c r="B68" s="9">
-        <v>41654</v>
+        <v>41653</v>
       </c>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
@@ -3187,9 +3201,9 @@
       <c r="N68" s="54"/>
     </row>
     <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="93"/>
+      <c r="A69" s="64"/>
       <c r="B69" s="9">
-        <v>41655</v>
+        <v>41654</v>
       </c>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
@@ -3205,9 +3219,9 @@
       <c r="N69" s="54"/>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="93"/>
+      <c r="A70" s="64"/>
       <c r="B70" s="9">
-        <v>41656</v>
+        <v>41655</v>
       </c>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -3223,29 +3237,29 @@
       <c r="N70" s="54"/>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="94">
-        <v>12</v>
-      </c>
-      <c r="B71" s="2">
-        <v>41659</v>
-      </c>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="9">
+        <v>41656</v>
+      </c>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
       <c r="K71" s="54"/>
       <c r="L71" s="54"/>
       <c r="M71" s="54"/>
       <c r="N71" s="54"/>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="94"/>
+      <c r="A72" s="67">
+        <v>12</v>
+      </c>
       <c r="B72" s="2">
-        <v>41660</v>
+        <v>41659</v>
       </c>
       <c r="C72" s="44"/>
       <c r="D72" s="44"/>
@@ -3261,9 +3275,9 @@
       <c r="N72" s="54"/>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="94"/>
+      <c r="A73" s="67"/>
       <c r="B73" s="2">
-        <v>41661</v>
+        <v>41660</v>
       </c>
       <c r="C73" s="44"/>
       <c r="D73" s="44"/>
@@ -3279,9 +3293,9 @@
       <c r="N73" s="54"/>
     </row>
     <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="94"/>
+      <c r="A74" s="67"/>
       <c r="B74" s="2">
-        <v>41662</v>
+        <v>41661</v>
       </c>
       <c r="C74" s="44"/>
       <c r="D74" s="44"/>
@@ -3297,9 +3311,9 @@
       <c r="N74" s="54"/>
     </row>
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="94"/>
+      <c r="A75" s="67"/>
       <c r="B75" s="2">
-        <v>41663</v>
+        <v>41662</v>
       </c>
       <c r="C75" s="44"/>
       <c r="D75" s="44"/>
@@ -3315,31 +3329,29 @@
       <c r="N75" s="54"/>
     </row>
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="93">
-        <v>13</v>
-      </c>
-      <c r="B76" s="9">
-        <v>41666</v>
-      </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
+      <c r="A76" s="67"/>
+      <c r="B76" s="2">
+        <v>41663</v>
+      </c>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
       <c r="K76" s="54"/>
       <c r="L76" s="54"/>
       <c r="M76" s="54"/>
       <c r="N76" s="54"/>
     </row>
     <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="93"/>
+      <c r="A77" s="64">
+        <v>13</v>
+      </c>
       <c r="B77" s="9">
-        <v>41667</v>
+        <v>41666</v>
       </c>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -3357,9 +3369,9 @@
       <c r="N77" s="54"/>
     </row>
     <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="93"/>
+      <c r="A78" s="64"/>
       <c r="B78" s="9">
-        <v>41668</v>
+        <v>41667</v>
       </c>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
@@ -3377,9 +3389,9 @@
       <c r="N78" s="54"/>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="93"/>
+      <c r="A79" s="64"/>
       <c r="B79" s="9">
-        <v>41669</v>
+        <v>41668</v>
       </c>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
@@ -3397,9 +3409,9 @@
       <c r="N79" s="54"/>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="93"/>
+      <c r="A80" s="64"/>
       <c r="B80" s="9">
-        <v>41670</v>
+        <v>41669</v>
       </c>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -3417,31 +3429,31 @@
       <c r="N80" s="54"/>
     </row>
     <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="94">
-        <v>14</v>
-      </c>
-      <c r="B81" s="2">
-        <v>41673</v>
-      </c>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="40" t="s">
+      <c r="A81" s="64"/>
+      <c r="B81" s="9">
+        <v>41670</v>
+      </c>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H81" s="44"/>
-      <c r="I81" s="44"/>
-      <c r="J81" s="44"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
       <c r="K81" s="54"/>
       <c r="L81" s="54"/>
       <c r="M81" s="54"/>
       <c r="N81" s="54"/>
     </row>
     <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="94"/>
+      <c r="A82" s="67">
+        <v>14</v>
+      </c>
       <c r="B82" s="2">
-        <v>41674</v>
+        <v>41673</v>
       </c>
       <c r="C82" s="44"/>
       <c r="D82" s="44"/>
@@ -3459,9 +3471,9 @@
       <c r="N82" s="54"/>
     </row>
     <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="94"/>
+      <c r="A83" s="67"/>
       <c r="B83" s="2">
-        <v>41675</v>
+        <v>41674</v>
       </c>
       <c r="C83" s="44"/>
       <c r="D83" s="44"/>
@@ -3479,9 +3491,9 @@
       <c r="N83" s="54"/>
     </row>
     <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="94"/>
+      <c r="A84" s="67"/>
       <c r="B84" s="2">
-        <v>41676</v>
+        <v>41675</v>
       </c>
       <c r="C84" s="44"/>
       <c r="D84" s="44"/>
@@ -3499,9 +3511,9 @@
       <c r="N84" s="54"/>
     </row>
     <row r="85" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="94"/>
+      <c r="A85" s="67"/>
       <c r="B85" s="2">
-        <v>41677</v>
+        <v>41676</v>
       </c>
       <c r="C85" s="44"/>
       <c r="D85" s="44"/>
@@ -3519,29 +3531,31 @@
       <c r="N85" s="54"/>
     </row>
     <row r="86" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="93">
-        <v>15</v>
-      </c>
-      <c r="B86" s="9">
-        <v>41680</v>
-      </c>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
+      <c r="A86" s="67"/>
+      <c r="B86" s="2">
+        <v>41677</v>
+      </c>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
       <c r="K86" s="54"/>
       <c r="L86" s="54"/>
       <c r="M86" s="54"/>
       <c r="N86" s="54"/>
     </row>
     <row r="87" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="93"/>
+      <c r="A87" s="64">
+        <v>15</v>
+      </c>
       <c r="B87" s="9">
-        <v>41681</v>
+        <v>41680</v>
       </c>
       <c r="C87" s="37"/>
       <c r="D87" s="37"/>
@@ -3557,9 +3571,9 @@
       <c r="N87" s="54"/>
     </row>
     <row r="88" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="93"/>
+      <c r="A88" s="64"/>
       <c r="B88" s="9">
-        <v>41682</v>
+        <v>41681</v>
       </c>
       <c r="C88" s="37"/>
       <c r="D88" s="37"/>
@@ -3575,9 +3589,9 @@
       <c r="N88" s="54"/>
     </row>
     <row r="89" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="93"/>
+      <c r="A89" s="64"/>
       <c r="B89" s="9">
-        <v>41683</v>
+        <v>41682</v>
       </c>
       <c r="C89" s="37"/>
       <c r="D89" s="37"/>
@@ -3593,9 +3607,9 @@
       <c r="N89" s="54"/>
     </row>
     <row r="90" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="93"/>
+      <c r="A90" s="64"/>
       <c r="B90" s="9">
-        <v>41684</v>
+        <v>41683</v>
       </c>
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
@@ -3611,29 +3625,29 @@
       <c r="N90" s="54"/>
     </row>
     <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="94">
-        <v>16</v>
-      </c>
-      <c r="B91" s="2">
-        <v>41687</v>
-      </c>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
+      <c r="A91" s="64"/>
+      <c r="B91" s="9">
+        <v>41684</v>
+      </c>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
       <c r="K91" s="54"/>
       <c r="L91" s="54"/>
       <c r="M91" s="54"/>
       <c r="N91" s="54"/>
     </row>
     <row r="92" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="94"/>
+      <c r="A92" s="67">
+        <v>16</v>
+      </c>
       <c r="B92" s="2">
-        <v>41688</v>
+        <v>41687</v>
       </c>
       <c r="C92" s="44"/>
       <c r="D92" s="44"/>
@@ -3649,9 +3663,9 @@
       <c r="N92" s="54"/>
     </row>
     <row r="93" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="94"/>
+      <c r="A93" s="67"/>
       <c r="B93" s="2">
-        <v>41689</v>
+        <v>41688</v>
       </c>
       <c r="C93" s="44"/>
       <c r="D93" s="44"/>
@@ -3667,9 +3681,9 @@
       <c r="N93" s="54"/>
     </row>
     <row r="94" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="94"/>
+      <c r="A94" s="67"/>
       <c r="B94" s="2">
-        <v>41690</v>
+        <v>41689</v>
       </c>
       <c r="C94" s="44"/>
       <c r="D94" s="44"/>
@@ -3685,9 +3699,9 @@
       <c r="N94" s="54"/>
     </row>
     <row r="95" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="94"/>
+      <c r="A95" s="67"/>
       <c r="B95" s="2">
-        <v>41691</v>
+        <v>41690</v>
       </c>
       <c r="C95" s="44"/>
       <c r="D95" s="44"/>
@@ -3703,29 +3717,29 @@
       <c r="N95" s="54"/>
     </row>
     <row r="96" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="93">
-        <v>17</v>
-      </c>
-      <c r="B96" s="9">
-        <v>41694</v>
-      </c>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="37"/>
+      <c r="A96" s="67"/>
+      <c r="B96" s="2">
+        <v>41691</v>
+      </c>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
       <c r="K96" s="54"/>
       <c r="L96" s="54"/>
       <c r="M96" s="54"/>
       <c r="N96" s="54"/>
     </row>
     <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="93"/>
+      <c r="A97" s="64">
+        <v>17</v>
+      </c>
       <c r="B97" s="9">
-        <v>41695</v>
+        <v>41694</v>
       </c>
       <c r="C97" s="37"/>
       <c r="D97" s="37"/>
@@ -3741,9 +3755,9 @@
       <c r="N97" s="54"/>
     </row>
     <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="93"/>
+      <c r="A98" s="64"/>
       <c r="B98" s="9">
-        <v>41696</v>
+        <v>41695</v>
       </c>
       <c r="C98" s="37"/>
       <c r="D98" s="37"/>
@@ -3759,9 +3773,9 @@
       <c r="N98" s="54"/>
     </row>
     <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="93"/>
+      <c r="A99" s="64"/>
       <c r="B99" s="9">
-        <v>41697</v>
+        <v>41696</v>
       </c>
       <c r="C99" s="37"/>
       <c r="D99" s="37"/>
@@ -3777,9 +3791,9 @@
       <c r="N99" s="54"/>
     </row>
     <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="93"/>
+      <c r="A100" s="64"/>
       <c r="B100" s="9">
-        <v>41698</v>
+        <v>41697</v>
       </c>
       <c r="C100" s="37"/>
       <c r="D100" s="37"/>
@@ -3795,29 +3809,29 @@
       <c r="N100" s="54"/>
     </row>
     <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="94">
-        <v>18</v>
-      </c>
-      <c r="B101" s="2">
-        <v>41701</v>
-      </c>
-      <c r="C101" s="44"/>
-      <c r="D101" s="44"/>
-      <c r="E101" s="44"/>
-      <c r="F101" s="44"/>
-      <c r="G101" s="44"/>
-      <c r="H101" s="44"/>
-      <c r="I101" s="44"/>
-      <c r="J101" s="44"/>
+      <c r="A101" s="64"/>
+      <c r="B101" s="9">
+        <v>41698</v>
+      </c>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
       <c r="K101" s="54"/>
       <c r="L101" s="54"/>
       <c r="M101" s="54"/>
       <c r="N101" s="54"/>
     </row>
     <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="94"/>
+      <c r="A102" s="67">
+        <v>18</v>
+      </c>
       <c r="B102" s="2">
-        <v>41702</v>
+        <v>41701</v>
       </c>
       <c r="C102" s="44"/>
       <c r="D102" s="44"/>
@@ -3833,9 +3847,9 @@
       <c r="N102" s="54"/>
     </row>
     <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="94"/>
+      <c r="A103" s="67"/>
       <c r="B103" s="2">
-        <v>41703</v>
+        <v>41702</v>
       </c>
       <c r="C103" s="44"/>
       <c r="D103" s="44"/>
@@ -3851,9 +3865,9 @@
       <c r="N103" s="54"/>
     </row>
     <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="94"/>
+      <c r="A104" s="67"/>
       <c r="B104" s="2">
-        <v>41704</v>
+        <v>41703</v>
       </c>
       <c r="C104" s="44"/>
       <c r="D104" s="44"/>
@@ -3869,9 +3883,9 @@
       <c r="N104" s="54"/>
     </row>
     <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="94"/>
+      <c r="A105" s="67"/>
       <c r="B105" s="2">
-        <v>41705</v>
+        <v>41704</v>
       </c>
       <c r="C105" s="44"/>
       <c r="D105" s="44"/>
@@ -3887,29 +3901,29 @@
       <c r="N105" s="54"/>
     </row>
     <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="93">
-        <v>19</v>
-      </c>
-      <c r="B106" s="9">
-        <v>41708</v>
-      </c>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="37"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="37"/>
+      <c r="A106" s="67"/>
+      <c r="B106" s="2">
+        <v>41705</v>
+      </c>
+      <c r="C106" s="44"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="44"/>
+      <c r="F106" s="44"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="44"/>
+      <c r="I106" s="44"/>
+      <c r="J106" s="44"/>
       <c r="K106" s="54"/>
       <c r="L106" s="54"/>
       <c r="M106" s="54"/>
       <c r="N106" s="54"/>
     </row>
     <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="93"/>
+      <c r="A107" s="64">
+        <v>19</v>
+      </c>
       <c r="B107" s="9">
-        <v>41709</v>
+        <v>41708</v>
       </c>
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>
@@ -3925,9 +3939,9 @@
       <c r="N107" s="54"/>
     </row>
     <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="93"/>
+      <c r="A108" s="64"/>
       <c r="B108" s="9">
-        <v>41710</v>
+        <v>41709</v>
       </c>
       <c r="C108" s="37"/>
       <c r="D108" s="37"/>
@@ -3943,9 +3957,9 @@
       <c r="N108" s="54"/>
     </row>
     <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="93"/>
+      <c r="A109" s="64"/>
       <c r="B109" s="9">
-        <v>41711</v>
+        <v>41710</v>
       </c>
       <c r="C109" s="37"/>
       <c r="D109" s="37"/>
@@ -3961,9 +3975,9 @@
       <c r="N109" s="54"/>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="93"/>
+      <c r="A110" s="64"/>
       <c r="B110" s="9">
-        <v>41712</v>
+        <v>41711</v>
       </c>
       <c r="C110" s="37"/>
       <c r="D110" s="37"/>
@@ -3979,29 +3993,29 @@
       <c r="N110" s="54"/>
     </row>
     <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="94">
-        <v>20</v>
-      </c>
-      <c r="B111" s="2">
-        <v>41715</v>
-      </c>
-      <c r="C111" s="44"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="44"/>
-      <c r="F111" s="44"/>
-      <c r="G111" s="44"/>
-      <c r="H111" s="44"/>
-      <c r="I111" s="44"/>
-      <c r="J111" s="44"/>
+      <c r="A111" s="64"/>
+      <c r="B111" s="9">
+        <v>41712</v>
+      </c>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="37"/>
+      <c r="I111" s="37"/>
+      <c r="J111" s="37"/>
       <c r="K111" s="54"/>
       <c r="L111" s="54"/>
       <c r="M111" s="54"/>
       <c r="N111" s="54"/>
     </row>
     <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="94"/>
+      <c r="A112" s="67">
+        <v>20</v>
+      </c>
       <c r="B112" s="2">
-        <v>41716</v>
+        <v>41715</v>
       </c>
       <c r="C112" s="44"/>
       <c r="D112" s="44"/>
@@ -4017,9 +4031,9 @@
       <c r="N112" s="54"/>
     </row>
     <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="94"/>
+      <c r="A113" s="67"/>
       <c r="B113" s="2">
-        <v>41717</v>
+        <v>41716</v>
       </c>
       <c r="C113" s="44"/>
       <c r="D113" s="44"/>
@@ -4035,9 +4049,9 @@
       <c r="N113" s="54"/>
     </row>
     <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="94"/>
+      <c r="A114" s="67"/>
       <c r="B114" s="2">
-        <v>41718</v>
+        <v>41717</v>
       </c>
       <c r="C114" s="44"/>
       <c r="D114" s="44"/>
@@ -4053,9 +4067,9 @@
       <c r="N114" s="54"/>
     </row>
     <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="94"/>
+      <c r="A115" s="67"/>
       <c r="B115" s="2">
-        <v>41719</v>
+        <v>41718</v>
       </c>
       <c r="C115" s="44"/>
       <c r="D115" s="44"/>
@@ -4071,29 +4085,29 @@
       <c r="N115" s="54"/>
     </row>
     <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="93">
-        <v>21</v>
-      </c>
-      <c r="B116" s="9">
-        <v>41722</v>
-      </c>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
-      <c r="E116" s="37"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="37"/>
-      <c r="I116" s="37"/>
-      <c r="J116" s="37"/>
+      <c r="A116" s="67"/>
+      <c r="B116" s="2">
+        <v>41719</v>
+      </c>
+      <c r="C116" s="44"/>
+      <c r="D116" s="44"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="44"/>
+      <c r="H116" s="44"/>
+      <c r="I116" s="44"/>
+      <c r="J116" s="44"/>
       <c r="K116" s="54"/>
       <c r="L116" s="54"/>
       <c r="M116" s="54"/>
       <c r="N116" s="54"/>
     </row>
     <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="93"/>
+      <c r="A117" s="64">
+        <v>21</v>
+      </c>
       <c r="B117" s="9">
-        <v>41723</v>
+        <v>41722</v>
       </c>
       <c r="C117" s="37"/>
       <c r="D117" s="37"/>
@@ -4109,9 +4123,9 @@
       <c r="N117" s="54"/>
     </row>
     <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="93"/>
+      <c r="A118" s="64"/>
       <c r="B118" s="9">
-        <v>41724</v>
+        <v>41723</v>
       </c>
       <c r="C118" s="37"/>
       <c r="D118" s="37"/>
@@ -4127,9 +4141,9 @@
       <c r="N118" s="54"/>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="93"/>
+      <c r="A119" s="64"/>
       <c r="B119" s="9">
-        <v>41725</v>
+        <v>41724</v>
       </c>
       <c r="C119" s="37"/>
       <c r="D119" s="37"/>
@@ -4145,9 +4159,9 @@
       <c r="N119" s="54"/>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="93"/>
+      <c r="A120" s="64"/>
       <c r="B120" s="9">
-        <v>41726</v>
+        <v>41725</v>
       </c>
       <c r="C120" s="37"/>
       <c r="D120" s="37"/>
@@ -4163,29 +4177,29 @@
       <c r="N120" s="54"/>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="94">
-        <v>22</v>
-      </c>
-      <c r="B121" s="2">
-        <v>41729</v>
-      </c>
-      <c r="C121" s="44"/>
-      <c r="D121" s="44"/>
-      <c r="E121" s="44"/>
-      <c r="F121" s="44"/>
-      <c r="G121" s="44"/>
-      <c r="H121" s="44"/>
-      <c r="I121" s="44"/>
-      <c r="J121" s="44"/>
+      <c r="A121" s="64"/>
+      <c r="B121" s="9">
+        <v>41726</v>
+      </c>
+      <c r="C121" s="37"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="37"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="37"/>
       <c r="K121" s="54"/>
       <c r="L121" s="54"/>
       <c r="M121" s="54"/>
       <c r="N121" s="54"/>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="94"/>
+      <c r="A122" s="67">
+        <v>22</v>
+      </c>
       <c r="B122" s="2">
-        <v>41730</v>
+        <v>41729</v>
       </c>
       <c r="C122" s="44"/>
       <c r="D122" s="44"/>
@@ -4201,9 +4215,9 @@
       <c r="N122" s="54"/>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="94"/>
+      <c r="A123" s="67"/>
       <c r="B123" s="2">
-        <v>41731</v>
+        <v>41730</v>
       </c>
       <c r="C123" s="44"/>
       <c r="D123" s="44"/>
@@ -4219,9 +4233,9 @@
       <c r="N123" s="54"/>
     </row>
     <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="94"/>
+      <c r="A124" s="67"/>
       <c r="B124" s="2">
-        <v>41732</v>
+        <v>41731</v>
       </c>
       <c r="C124" s="44"/>
       <c r="D124" s="44"/>
@@ -4237,9 +4251,9 @@
       <c r="N124" s="54"/>
     </row>
     <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="94"/>
+      <c r="A125" s="67"/>
       <c r="B125" s="2">
-        <v>41733</v>
+        <v>41732</v>
       </c>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
@@ -4255,29 +4269,29 @@
       <c r="N125" s="54"/>
     </row>
     <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="93">
-        <v>23</v>
-      </c>
-      <c r="B126" s="9">
-        <v>41736</v>
-      </c>
-      <c r="C126" s="37"/>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="37"/>
+      <c r="A126" s="67"/>
+      <c r="B126" s="2">
+        <v>41733</v>
+      </c>
+      <c r="C126" s="44"/>
+      <c r="D126" s="44"/>
+      <c r="E126" s="44"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="44"/>
+      <c r="I126" s="44"/>
+      <c r="J126" s="44"/>
       <c r="K126" s="54"/>
       <c r="L126" s="54"/>
       <c r="M126" s="54"/>
       <c r="N126" s="54"/>
     </row>
     <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="93"/>
+      <c r="A127" s="64">
+        <v>23</v>
+      </c>
       <c r="B127" s="9">
-        <v>41737</v>
+        <v>41736</v>
       </c>
       <c r="C127" s="37"/>
       <c r="D127" s="37"/>
@@ -4293,9 +4307,9 @@
       <c r="N127" s="54"/>
     </row>
     <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="93"/>
+      <c r="A128" s="64"/>
       <c r="B128" s="9">
-        <v>41738</v>
+        <v>41737</v>
       </c>
       <c r="C128" s="37"/>
       <c r="D128" s="37"/>
@@ -4311,9 +4325,9 @@
       <c r="N128" s="54"/>
     </row>
     <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="93"/>
+      <c r="A129" s="64"/>
       <c r="B129" s="9">
-        <v>41739</v>
+        <v>41738</v>
       </c>
       <c r="C129" s="37"/>
       <c r="D129" s="37"/>
@@ -4329,9 +4343,9 @@
       <c r="N129" s="54"/>
     </row>
     <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="93"/>
+      <c r="A130" s="64"/>
       <c r="B130" s="9">
-        <v>41740</v>
+        <v>41739</v>
       </c>
       <c r="C130" s="37"/>
       <c r="D130" s="37"/>
@@ -4347,29 +4361,29 @@
       <c r="N130" s="54"/>
     </row>
     <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="94">
-        <v>24</v>
-      </c>
-      <c r="B131" s="2">
-        <v>41743</v>
-      </c>
-      <c r="C131" s="44"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="44"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="44"/>
-      <c r="I131" s="44"/>
-      <c r="J131" s="44"/>
+      <c r="A131" s="64"/>
+      <c r="B131" s="9">
+        <v>41740</v>
+      </c>
+      <c r="C131" s="37"/>
+      <c r="D131" s="37"/>
+      <c r="E131" s="37"/>
+      <c r="F131" s="37"/>
+      <c r="G131" s="37"/>
+      <c r="H131" s="37"/>
+      <c r="I131" s="37"/>
+      <c r="J131" s="37"/>
       <c r="K131" s="54"/>
       <c r="L131" s="54"/>
       <c r="M131" s="54"/>
       <c r="N131" s="54"/>
     </row>
     <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="94"/>
+      <c r="A132" s="67">
+        <v>24</v>
+      </c>
       <c r="B132" s="2">
-        <v>41744</v>
+        <v>41743</v>
       </c>
       <c r="C132" s="44"/>
       <c r="D132" s="44"/>
@@ -4385,9 +4399,9 @@
       <c r="N132" s="54"/>
     </row>
     <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="94"/>
+      <c r="A133" s="67"/>
       <c r="B133" s="2">
-        <v>41745</v>
+        <v>41744</v>
       </c>
       <c r="C133" s="44"/>
       <c r="D133" s="44"/>
@@ -4403,9 +4417,9 @@
       <c r="N133" s="54"/>
     </row>
     <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="94"/>
+      <c r="A134" s="67"/>
       <c r="B134" s="2">
-        <v>41746</v>
+        <v>41745</v>
       </c>
       <c r="C134" s="44"/>
       <c r="D134" s="44"/>
@@ -4421,9 +4435,9 @@
       <c r="N134" s="54"/>
     </row>
     <row r="135" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="94"/>
+      <c r="A135" s="67"/>
       <c r="B135" s="2">
-        <v>41747</v>
+        <v>41746</v>
       </c>
       <c r="C135" s="44"/>
       <c r="D135" s="44"/>
@@ -4439,29 +4453,29 @@
       <c r="N135" s="54"/>
     </row>
     <row r="136" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="93">
-        <v>25</v>
-      </c>
-      <c r="B136" s="9">
-        <v>41750</v>
-      </c>
-      <c r="C136" s="37"/>
-      <c r="D136" s="37"/>
-      <c r="E136" s="37"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="37"/>
-      <c r="I136" s="37"/>
-      <c r="J136" s="37"/>
+      <c r="A136" s="67"/>
+      <c r="B136" s="2">
+        <v>41747</v>
+      </c>
+      <c r="C136" s="44"/>
+      <c r="D136" s="44"/>
+      <c r="E136" s="44"/>
+      <c r="F136" s="44"/>
+      <c r="G136" s="44"/>
+      <c r="H136" s="44"/>
+      <c r="I136" s="44"/>
+      <c r="J136" s="44"/>
       <c r="K136" s="54"/>
       <c r="L136" s="54"/>
       <c r="M136" s="54"/>
       <c r="N136" s="54"/>
     </row>
     <row r="137" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="93"/>
+      <c r="A137" s="64">
+        <v>25</v>
+      </c>
       <c r="B137" s="9">
-        <v>41751</v>
+        <v>41750</v>
       </c>
       <c r="C137" s="37"/>
       <c r="D137" s="37"/>
@@ -4477,9 +4491,9 @@
       <c r="N137" s="54"/>
     </row>
     <row r="138" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="93"/>
+      <c r="A138" s="64"/>
       <c r="B138" s="9">
-        <v>41752</v>
+        <v>41751</v>
       </c>
       <c r="C138" s="37"/>
       <c r="D138" s="37"/>
@@ -4495,9 +4509,9 @@
       <c r="N138" s="54"/>
     </row>
     <row r="139" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="93"/>
+      <c r="A139" s="64"/>
       <c r="B139" s="9">
-        <v>41753</v>
+        <v>41752</v>
       </c>
       <c r="C139" s="37"/>
       <c r="D139" s="37"/>
@@ -4513,9 +4527,9 @@
       <c r="N139" s="54"/>
     </row>
     <row r="140" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="93"/>
+      <c r="A140" s="64"/>
       <c r="B140" s="9">
-        <v>41754</v>
+        <v>41753</v>
       </c>
       <c r="C140" s="37"/>
       <c r="D140" s="37"/>
@@ -4531,29 +4545,29 @@
       <c r="N140" s="54"/>
     </row>
     <row r="141" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="94">
-        <v>26</v>
-      </c>
-      <c r="B141" s="2">
-        <v>41757</v>
-      </c>
-      <c r="C141" s="44"/>
-      <c r="D141" s="44"/>
-      <c r="E141" s="44"/>
-      <c r="F141" s="44"/>
-      <c r="G141" s="44"/>
-      <c r="H141" s="44"/>
-      <c r="I141" s="44"/>
-      <c r="J141" s="44"/>
+      <c r="A141" s="64"/>
+      <c r="B141" s="9">
+        <v>41754</v>
+      </c>
+      <c r="C141" s="37"/>
+      <c r="D141" s="37"/>
+      <c r="E141" s="37"/>
+      <c r="F141" s="37"/>
+      <c r="G141" s="37"/>
+      <c r="H141" s="37"/>
+      <c r="I141" s="37"/>
+      <c r="J141" s="37"/>
       <c r="K141" s="54"/>
       <c r="L141" s="54"/>
       <c r="M141" s="54"/>
       <c r="N141" s="54"/>
     </row>
     <row r="142" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="94"/>
+      <c r="A142" s="67">
+        <v>26</v>
+      </c>
       <c r="B142" s="2">
-        <v>41758</v>
+        <v>41757</v>
       </c>
       <c r="C142" s="44"/>
       <c r="D142" s="44"/>
@@ -4569,9 +4583,9 @@
       <c r="N142" s="54"/>
     </row>
     <row r="143" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="94"/>
+      <c r="A143" s="67"/>
       <c r="B143" s="2">
-        <v>41759</v>
+        <v>41758</v>
       </c>
       <c r="C143" s="44"/>
       <c r="D143" s="44"/>
@@ -4587,9 +4601,9 @@
       <c r="N143" s="54"/>
     </row>
     <row r="144" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="94"/>
+      <c r="A144" s="67"/>
       <c r="B144" s="2">
-        <v>41760</v>
+        <v>41759</v>
       </c>
       <c r="C144" s="44"/>
       <c r="D144" s="44"/>
@@ -4605,9 +4619,9 @@
       <c r="N144" s="54"/>
     </row>
     <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="94"/>
+      <c r="A145" s="67"/>
       <c r="B145" s="2">
-        <v>41761</v>
+        <v>41760</v>
       </c>
       <c r="C145" s="44"/>
       <c r="D145" s="44"/>
@@ -4623,29 +4637,29 @@
       <c r="N145" s="54"/>
     </row>
     <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="93">
-        <v>27</v>
-      </c>
-      <c r="B146" s="9">
-        <v>41764</v>
-      </c>
-      <c r="C146" s="37"/>
-      <c r="D146" s="37"/>
-      <c r="E146" s="37"/>
-      <c r="F146" s="37"/>
-      <c r="G146" s="37"/>
-      <c r="H146" s="37"/>
-      <c r="I146" s="37"/>
-      <c r="J146" s="37"/>
+      <c r="A146" s="67"/>
+      <c r="B146" s="2">
+        <v>41761</v>
+      </c>
+      <c r="C146" s="44"/>
+      <c r="D146" s="44"/>
+      <c r="E146" s="44"/>
+      <c r="F146" s="44"/>
+      <c r="G146" s="44"/>
+      <c r="H146" s="44"/>
+      <c r="I146" s="44"/>
+      <c r="J146" s="44"/>
       <c r="K146" s="54"/>
       <c r="L146" s="54"/>
       <c r="M146" s="54"/>
       <c r="N146" s="54"/>
     </row>
     <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="93"/>
+      <c r="A147" s="64">
+        <v>27</v>
+      </c>
       <c r="B147" s="9">
-        <v>41765</v>
+        <v>41764</v>
       </c>
       <c r="C147" s="37"/>
       <c r="D147" s="37"/>
@@ -4661,9 +4675,9 @@
       <c r="N147" s="54"/>
     </row>
     <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="93"/>
+      <c r="A148" s="64"/>
       <c r="B148" s="9">
-        <v>41766</v>
+        <v>41765</v>
       </c>
       <c r="C148" s="37"/>
       <c r="D148" s="37"/>
@@ -4679,9 +4693,9 @@
       <c r="N148" s="54"/>
     </row>
     <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="93"/>
+      <c r="A149" s="64"/>
       <c r="B149" s="9">
-        <v>41767</v>
+        <v>41766</v>
       </c>
       <c r="C149" s="37"/>
       <c r="D149" s="37"/>
@@ -4697,9 +4711,9 @@
       <c r="N149" s="54"/>
     </row>
     <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="93"/>
+      <c r="A150" s="64"/>
       <c r="B150" s="9">
-        <v>41768</v>
+        <v>41767</v>
       </c>
       <c r="C150" s="37"/>
       <c r="D150" s="37"/>
@@ -4715,29 +4729,29 @@
       <c r="N150" s="54"/>
     </row>
     <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="94">
-        <v>28</v>
-      </c>
-      <c r="B151" s="2">
-        <v>41771</v>
-      </c>
-      <c r="C151" s="44"/>
-      <c r="D151" s="44"/>
-      <c r="E151" s="44"/>
-      <c r="F151" s="44"/>
-      <c r="G151" s="44"/>
-      <c r="H151" s="44"/>
-      <c r="I151" s="44"/>
-      <c r="J151" s="44"/>
+      <c r="A151" s="64"/>
+      <c r="B151" s="9">
+        <v>41768</v>
+      </c>
+      <c r="C151" s="37"/>
+      <c r="D151" s="37"/>
+      <c r="E151" s="37"/>
+      <c r="F151" s="37"/>
+      <c r="G151" s="37"/>
+      <c r="H151" s="37"/>
+      <c r="I151" s="37"/>
+      <c r="J151" s="37"/>
       <c r="K151" s="54"/>
       <c r="L151" s="54"/>
       <c r="M151" s="54"/>
       <c r="N151" s="54"/>
     </row>
     <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="94"/>
+      <c r="A152" s="67">
+        <v>28</v>
+      </c>
       <c r="B152" s="2">
-        <v>41772</v>
+        <v>41771</v>
       </c>
       <c r="C152" s="44"/>
       <c r="D152" s="44"/>
@@ -4753,9 +4767,9 @@
       <c r="N152" s="54"/>
     </row>
     <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="94"/>
+      <c r="A153" s="67"/>
       <c r="B153" s="2">
-        <v>41773</v>
+        <v>41772</v>
       </c>
       <c r="C153" s="44"/>
       <c r="D153" s="44"/>
@@ -4771,9 +4785,9 @@
       <c r="N153" s="54"/>
     </row>
     <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="94"/>
+      <c r="A154" s="67"/>
       <c r="B154" s="2">
-        <v>41774</v>
+        <v>41773</v>
       </c>
       <c r="C154" s="44"/>
       <c r="D154" s="44"/>
@@ -4789,9 +4803,9 @@
       <c r="N154" s="54"/>
     </row>
     <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="94"/>
+      <c r="A155" s="67"/>
       <c r="B155" s="2">
-        <v>41775</v>
+        <v>41774</v>
       </c>
       <c r="C155" s="44"/>
       <c r="D155" s="44"/>
@@ -4807,29 +4821,29 @@
       <c r="N155" s="54"/>
     </row>
     <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="93">
-        <v>29</v>
-      </c>
-      <c r="B156" s="9">
-        <v>41778</v>
-      </c>
-      <c r="C156" s="37"/>
-      <c r="D156" s="37"/>
-      <c r="E156" s="37"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="37"/>
-      <c r="H156" s="37"/>
-      <c r="I156" s="37"/>
-      <c r="J156" s="37"/>
+      <c r="A156" s="67"/>
+      <c r="B156" s="2">
+        <v>41775</v>
+      </c>
+      <c r="C156" s="44"/>
+      <c r="D156" s="44"/>
+      <c r="E156" s="44"/>
+      <c r="F156" s="44"/>
+      <c r="G156" s="44"/>
+      <c r="H156" s="44"/>
+      <c r="I156" s="44"/>
+      <c r="J156" s="44"/>
       <c r="K156" s="54"/>
       <c r="L156" s="54"/>
       <c r="M156" s="54"/>
       <c r="N156" s="54"/>
     </row>
     <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="93"/>
+      <c r="A157" s="64">
+        <v>29</v>
+      </c>
       <c r="B157" s="9">
-        <v>41779</v>
+        <v>41778</v>
       </c>
       <c r="C157" s="37"/>
       <c r="D157" s="37"/>
@@ -4845,9 +4859,9 @@
       <c r="N157" s="54"/>
     </row>
     <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="93"/>
+      <c r="A158" s="64"/>
       <c r="B158" s="9">
-        <v>41780</v>
+        <v>41779</v>
       </c>
       <c r="C158" s="37"/>
       <c r="D158" s="37"/>
@@ -4863,9 +4877,9 @@
       <c r="N158" s="54"/>
     </row>
     <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="93"/>
+      <c r="A159" s="64"/>
       <c r="B159" s="9">
-        <v>41781</v>
+        <v>41780</v>
       </c>
       <c r="C159" s="37"/>
       <c r="D159" s="37"/>
@@ -4881,9 +4895,9 @@
       <c r="N159" s="54"/>
     </row>
     <row r="160" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="93"/>
+      <c r="A160" s="64"/>
       <c r="B160" s="9">
-        <v>41782</v>
+        <v>41781</v>
       </c>
       <c r="C160" s="37"/>
       <c r="D160" s="37"/>
@@ -4899,29 +4913,29 @@
       <c r="N160" s="54"/>
     </row>
     <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="100">
-        <v>30</v>
-      </c>
-      <c r="B161" s="2">
-        <v>41785</v>
-      </c>
-      <c r="C161" s="40"/>
-      <c r="D161" s="40"/>
-      <c r="E161" s="40"/>
-      <c r="F161" s="40"/>
-      <c r="G161" s="40"/>
-      <c r="H161" s="40"/>
-      <c r="I161" s="40"/>
-      <c r="J161" s="40"/>
+      <c r="A161" s="64"/>
+      <c r="B161" s="9">
+        <v>41782</v>
+      </c>
+      <c r="C161" s="37"/>
+      <c r="D161" s="37"/>
+      <c r="E161" s="37"/>
+      <c r="F161" s="37"/>
+      <c r="G161" s="37"/>
+      <c r="H161" s="37"/>
+      <c r="I161" s="37"/>
+      <c r="J161" s="37"/>
       <c r="K161" s="54"/>
       <c r="L161" s="54"/>
       <c r="M161" s="54"/>
       <c r="N161" s="54"/>
     </row>
     <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="100"/>
+      <c r="A162" s="68">
+        <v>30</v>
+      </c>
       <c r="B162" s="2">
-        <v>41786</v>
+        <v>41785</v>
       </c>
       <c r="C162" s="40"/>
       <c r="D162" s="40"/>
@@ -4937,9 +4951,9 @@
       <c r="N162" s="54"/>
     </row>
     <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="100"/>
+      <c r="A163" s="68"/>
       <c r="B163" s="2">
-        <v>41787</v>
+        <v>41786</v>
       </c>
       <c r="C163" s="40"/>
       <c r="D163" s="40"/>
@@ -4955,9 +4969,9 @@
       <c r="N163" s="54"/>
     </row>
     <row r="164" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="100"/>
+      <c r="A164" s="68"/>
       <c r="B164" s="2">
-        <v>41788</v>
+        <v>41787</v>
       </c>
       <c r="C164" s="40"/>
       <c r="D164" s="40"/>
@@ -4973,9 +4987,9 @@
       <c r="N164" s="54"/>
     </row>
     <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="100"/>
+      <c r="A165" s="68"/>
       <c r="B165" s="2">
-        <v>41789</v>
+        <v>41788</v>
       </c>
       <c r="C165" s="40"/>
       <c r="D165" s="40"/>
@@ -4991,27 +5005,27 @@
       <c r="N165" s="54"/>
     </row>
     <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="100"/>
-      <c r="B166" s="10">
-        <v>41790</v>
-      </c>
-      <c r="C166" s="54"/>
-      <c r="D166" s="54"/>
-      <c r="E166" s="54"/>
-      <c r="F166" s="54"/>
-      <c r="G166" s="54"/>
-      <c r="H166" s="54"/>
-      <c r="I166" s="54"/>
-      <c r="J166" s="54"/>
+      <c r="A166" s="68"/>
+      <c r="B166" s="2">
+        <v>41789</v>
+      </c>
+      <c r="C166" s="40"/>
+      <c r="D166" s="40"/>
+      <c r="E166" s="40"/>
+      <c r="F166" s="40"/>
+      <c r="G166" s="40"/>
+      <c r="H166" s="40"/>
+      <c r="I166" s="40"/>
+      <c r="J166" s="40"/>
       <c r="K166" s="54"/>
       <c r="L166" s="54"/>
       <c r="M166" s="54"/>
       <c r="N166" s="54"/>
     </row>
     <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="55"/>
-      <c r="B167" s="2">
-        <v>41791</v>
+      <c r="A167" s="68"/>
+      <c r="B167" s="10">
+        <v>41790</v>
       </c>
       <c r="C167" s="54"/>
       <c r="D167" s="54"/>
@@ -5027,9 +5041,9 @@
       <c r="N167" s="54"/>
     </row>
     <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="54"/>
+      <c r="A168" s="55"/>
       <c r="B168" s="2">
-        <v>41792</v>
+        <v>41791</v>
       </c>
       <c r="C168" s="54"/>
       <c r="D168" s="54"/>
@@ -5047,7 +5061,7 @@
     <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A169" s="54"/>
       <c r="B169" s="2">
-        <v>41793</v>
+        <v>41792</v>
       </c>
       <c r="C169" s="54"/>
       <c r="D169" s="54"/>
@@ -5065,7 +5079,7 @@
     <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A170" s="54"/>
       <c r="B170" s="2">
-        <v>41794</v>
+        <v>41793</v>
       </c>
       <c r="C170" s="54"/>
       <c r="D170" s="54"/>
@@ -5083,7 +5097,7 @@
     <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="54"/>
       <c r="B171" s="2">
-        <v>41795</v>
+        <v>41794</v>
       </c>
       <c r="C171" s="54"/>
       <c r="D171" s="54"/>
@@ -5101,7 +5115,7 @@
     <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A172" s="54"/>
       <c r="B172" s="2">
-        <v>41796</v>
+        <v>41795</v>
       </c>
       <c r="C172" s="54"/>
       <c r="D172" s="54"/>
@@ -5119,7 +5133,7 @@
     <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A173" s="54"/>
       <c r="B173" s="2">
-        <v>41797</v>
+        <v>41796</v>
       </c>
       <c r="C173" s="54"/>
       <c r="D173" s="54"/>
@@ -5137,7 +5151,7 @@
     <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A174" s="54"/>
       <c r="B174" s="2">
-        <v>41798</v>
+        <v>41797</v>
       </c>
       <c r="C174" s="54"/>
       <c r="D174" s="54"/>
@@ -5155,7 +5169,7 @@
     <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" s="54"/>
       <c r="B175" s="2">
-        <v>41799</v>
+        <v>41798</v>
       </c>
       <c r="C175" s="54"/>
       <c r="D175" s="54"/>
@@ -5173,7 +5187,7 @@
     <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A176" s="54"/>
       <c r="B176" s="2">
-        <v>41800</v>
+        <v>41799</v>
       </c>
       <c r="C176" s="54"/>
       <c r="D176" s="54"/>
@@ -5191,7 +5205,7 @@
     <row r="177" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A177" s="54"/>
       <c r="B177" s="2">
-        <v>41801</v>
+        <v>41800</v>
       </c>
       <c r="C177" s="54"/>
       <c r="D177" s="54"/>
@@ -5209,7 +5223,7 @@
     <row r="178" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A178" s="54"/>
       <c r="B178" s="2">
-        <v>41802</v>
+        <v>41801</v>
       </c>
       <c r="C178" s="54"/>
       <c r="D178" s="54"/>
@@ -5227,7 +5241,7 @@
     <row r="179" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A179" s="54"/>
       <c r="B179" s="2">
-        <v>41803</v>
+        <v>41802</v>
       </c>
       <c r="C179" s="54"/>
       <c r="D179" s="54"/>
@@ -5245,7 +5259,7 @@
     <row r="180" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" s="54"/>
       <c r="B180" s="2">
-        <v>41804</v>
+        <v>41803</v>
       </c>
       <c r="C180" s="54"/>
       <c r="D180" s="54"/>
@@ -5263,7 +5277,7 @@
     <row r="181" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A181" s="54"/>
       <c r="B181" s="2">
-        <v>41805</v>
+        <v>41804</v>
       </c>
       <c r="C181" s="54"/>
       <c r="D181" s="54"/>
@@ -5281,7 +5295,7 @@
     <row r="182" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A182" s="54"/>
       <c r="B182" s="2">
-        <v>41806</v>
+        <v>41805</v>
       </c>
       <c r="C182" s="54"/>
       <c r="D182" s="54"/>
@@ -5299,7 +5313,7 @@
     <row r="183" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" s="54"/>
       <c r="B183" s="2">
-        <v>41807</v>
+        <v>41806</v>
       </c>
       <c r="C183" s="54"/>
       <c r="D183" s="54"/>
@@ -5317,7 +5331,7 @@
     <row r="184" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" s="54"/>
       <c r="B184" s="2">
-        <v>41808</v>
+        <v>41807</v>
       </c>
       <c r="C184" s="54"/>
       <c r="D184" s="54"/>
@@ -5335,7 +5349,7 @@
     <row r="185" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="54"/>
       <c r="B185" s="2">
-        <v>41809</v>
+        <v>41808</v>
       </c>
       <c r="C185" s="54"/>
       <c r="D185" s="54"/>
@@ -5353,7 +5367,7 @@
     <row r="186" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="54"/>
       <c r="B186" s="2">
-        <v>41810</v>
+        <v>41809</v>
       </c>
       <c r="C186" s="54"/>
       <c r="D186" s="54"/>
@@ -5371,7 +5385,7 @@
     <row r="187" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="54"/>
       <c r="B187" s="2">
-        <v>41811</v>
+        <v>41810</v>
       </c>
       <c r="C187" s="54"/>
       <c r="D187" s="54"/>
@@ -5389,7 +5403,7 @@
     <row r="188" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="54"/>
       <c r="B188" s="2">
-        <v>41812</v>
+        <v>41811</v>
       </c>
       <c r="C188" s="54"/>
       <c r="D188" s="54"/>
@@ -5407,7 +5421,7 @@
     <row r="189" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="54"/>
       <c r="B189" s="2">
-        <v>41813</v>
+        <v>41812</v>
       </c>
       <c r="C189" s="54"/>
       <c r="D189" s="54"/>
@@ -5425,7 +5439,7 @@
     <row r="190" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="54"/>
       <c r="B190" s="2">
-        <v>41814</v>
+        <v>41813</v>
       </c>
       <c r="C190" s="54"/>
       <c r="D190" s="54"/>
@@ -5443,7 +5457,7 @@
     <row r="191" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="54"/>
       <c r="B191" s="2">
-        <v>41815</v>
+        <v>41814</v>
       </c>
       <c r="C191" s="54"/>
       <c r="D191" s="54"/>
@@ -5461,7 +5475,7 @@
     <row r="192" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" s="54"/>
       <c r="B192" s="2">
-        <v>41816</v>
+        <v>41815</v>
       </c>
       <c r="C192" s="54"/>
       <c r="D192" s="54"/>
@@ -5479,7 +5493,7 @@
     <row r="193" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" s="54"/>
       <c r="B193" s="2">
-        <v>41817</v>
+        <v>41816</v>
       </c>
       <c r="C193" s="54"/>
       <c r="D193" s="54"/>
@@ -5497,7 +5511,7 @@
     <row r="194" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="54"/>
       <c r="B194" s="2">
-        <v>41818</v>
+        <v>41817</v>
       </c>
       <c r="C194" s="54"/>
       <c r="D194" s="54"/>
@@ -5515,7 +5529,7 @@
     <row r="195" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="54"/>
       <c r="B195" s="2">
-        <v>41819</v>
+        <v>41818</v>
       </c>
       <c r="C195" s="54"/>
       <c r="D195" s="54"/>
@@ -5533,7 +5547,7 @@
     <row r="196" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="54"/>
       <c r="B196" s="2">
-        <v>41820</v>
+        <v>41819</v>
       </c>
       <c r="C196" s="54"/>
       <c r="D196" s="54"/>
@@ -5551,7 +5565,7 @@
     <row r="197" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="54"/>
       <c r="B197" s="2">
-        <v>41821</v>
+        <v>41820</v>
       </c>
       <c r="C197" s="54"/>
       <c r="D197" s="54"/>
@@ -5569,7 +5583,7 @@
     <row r="198" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="54"/>
       <c r="B198" s="2">
-        <v>41822</v>
+        <v>41821</v>
       </c>
       <c r="C198" s="54"/>
       <c r="D198" s="54"/>
@@ -5587,7 +5601,7 @@
     <row r="199" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" s="54"/>
       <c r="B199" s="2">
-        <v>41823</v>
+        <v>41822</v>
       </c>
       <c r="C199" s="54"/>
       <c r="D199" s="54"/>
@@ -5601,7 +5615,7 @@
     <row r="200" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="54"/>
       <c r="B200" s="2">
-        <v>41824</v>
+        <v>41823</v>
       </c>
       <c r="C200" s="54"/>
       <c r="D200" s="54"/>
@@ -5612,40 +5626,27 @@
       <c r="I200" s="54"/>
       <c r="J200" s="54"/>
     </row>
+    <row r="201" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="54"/>
+      <c r="B201" s="2">
+        <v>41824</v>
+      </c>
+      <c r="C201" s="54"/>
+      <c r="D201" s="54"/>
+      <c r="E201" s="54"/>
+      <c r="F201" s="54"/>
+      <c r="G201" s="54"/>
+      <c r="H201" s="54"/>
+      <c r="I201" s="54"/>
+      <c r="J201" s="54"/>
+    </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A18:A30"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A161:A166"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F23:F28"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
@@ -5653,11 +5654,38 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A18:A31"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A162:A167"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="B29:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -5665,7 +5693,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{4014B23A-9A92-4C0A-84AA-38D1DDC243A5}">
+          <x14:cfRule type="iconSet" priority="14" id="{4014B23A-9A92-4C0A-84AA-38D1DDC243A5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5684,7 +5712,7 @@
           <xm:sqref>F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{06A2D883-25A5-47A0-9E42-1356F547AC95}">
+          <x14:cfRule type="iconSet" priority="13" id="{06A2D883-25A5-47A0-9E42-1356F547AC95}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5703,7 +5731,7 @@
           <xm:sqref>F7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{F0155C6B-E81B-4907-9A36-C4DCA4908A78}">
+          <x14:cfRule type="iconSet" priority="12" id="{F0155C6B-E81B-4907-9A36-C4DCA4908A78}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5722,7 +5750,7 @@
           <xm:sqref>F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{B227CB59-278E-4A9D-98EB-7894CC307006}">
+          <x14:cfRule type="iconSet" priority="11" id="{B227CB59-278E-4A9D-98EB-7894CC307006}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5741,7 +5769,7 @@
           <xm:sqref>F13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{4FD1D166-C211-4511-AC07-D417ED483D0B}">
+          <x14:cfRule type="iconSet" priority="10" id="{4FD1D166-C211-4511-AC07-D417ED483D0B}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5760,7 +5788,7 @@
           <xm:sqref>F15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{8ED16EE5-9A95-4A55-8A04-0D8356EDEB0F}">
+          <x14:cfRule type="iconSet" priority="9" id="{8ED16EE5-9A95-4A55-8A04-0D8356EDEB0F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5779,7 +5807,7 @@
           <xm:sqref>F16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{00B9764F-B5E5-41A8-9F73-CE8C6FDA6D14}">
+          <x14:cfRule type="iconSet" priority="8" id="{00B9764F-B5E5-41A8-9F73-CE8C6FDA6D14}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5798,7 +5826,7 @@
           <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{D256993F-A47B-4EA7-86F9-CCDBFB57FDF7}">
+          <x14:cfRule type="iconSet" priority="7" id="{D256993F-A47B-4EA7-86F9-CCDBFB57FDF7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5817,7 +5845,7 @@
           <xm:sqref>F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{D41896BE-84C3-40A6-BA74-3E16B3A102FC}">
+          <x14:cfRule type="iconSet" priority="6" id="{D41896BE-84C3-40A6-BA74-3E16B3A102FC}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5836,7 +5864,7 @@
           <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{CFF9B7E8-896C-4401-A02A-3BD376BFEA70}">
+          <x14:cfRule type="iconSet" priority="5" id="{CFF9B7E8-896C-4401-A02A-3BD376BFEA70}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5855,7 +5883,7 @@
           <xm:sqref>F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{5C24DFB2-DBCA-41B9-8745-C2D5AB086724}">
+          <x14:cfRule type="iconSet" priority="4" id="{5C24DFB2-DBCA-41B9-8745-C2D5AB086724}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5874,7 +5902,7 @@
           <xm:sqref>F19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{883D7404-1110-4331-92AF-9AC0C5174910}">
+          <x14:cfRule type="iconSet" priority="3" id="{883D7404-1110-4331-92AF-9AC0C5174910}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5893,7 +5921,7 @@
           <xm:sqref>F23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{770D5C3E-D9F5-4088-A230-9B0D599889E9}">
+          <x14:cfRule type="iconSet" priority="1" id="{0DC21843-99CC-4844-8211-8B5CBDE1D20E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="122">
   <si>
     <t>Week</t>
   </si>
@@ -410,6 +410,20 @@
   <si>
     <t>Update Deadline team process document
 Update Architect Plan</t>
+  </si>
+  <si>
+    <t>12:00PM</t>
+  </si>
+  <si>
+    <t>Discuss about Scrum model that is draw by IDEF0
+Divide task about Scrum continuous</t>
+  </si>
+  <si>
+    <t>Trainning Java at Nhat Nghe Center</t>
+  </si>
+  <si>
+    <t>Define table that show description of phase 3 ACDM, inculde Name Steps, image of Process, description 
+Write Meeting Minutes</t>
   </si>
 </sst>
 </file>
@@ -742,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -886,131 +900,134 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,7 +1312,7 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,13 +1424,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N201"/>
+  <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="6" ySplit="6" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1435,82 +1452,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="77"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="70"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="80"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="73"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="76"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="86"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="79"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="95"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
       <c r="G5" s="32"/>
       <c r="H5" s="58" t="s">
         <v>112</v>
@@ -1555,10 +1572,10 @@
       <c r="J6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -1586,20 +1603,20 @@
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="93"/>
+      <c r="L7" s="86"/>
       <c r="M7" s="38">
         <f>SUM(M8:M37)</f>
-        <v>42.1</v>
+        <v>48.6</v>
       </c>
       <c r="N7" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="69">
+      <c r="A8" s="91">
         <v>2</v>
       </c>
       <c r="B8" s="2">
@@ -1614,7 +1631,7 @@
       <c r="E8" s="13">
         <v>1.5</v>
       </c>
-      <c r="F8" s="98">
+      <c r="F8" s="60">
         <f>SUM(E8:E9)</f>
         <v>3</v>
       </c>
@@ -1639,7 +1656,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="2">
         <v>41589</v>
       </c>
@@ -1652,7 +1669,7 @@
       <c r="E9" s="13">
         <v>1.5</v>
       </c>
-      <c r="F9" s="99"/>
+      <c r="F9" s="61"/>
       <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1674,7 +1691,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="2">
         <v>41590</v>
       </c>
@@ -1687,7 +1704,7 @@
       <c r="E10" s="13">
         <v>2</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="60">
         <f>SUM(E10:E11)</f>
         <v>4</v>
       </c>
@@ -1704,15 +1721,15 @@
       </c>
       <c r="L10" s="44"/>
       <c r="M10" s="45">
-        <f>SUM(F18:F31)</f>
-        <v>24.8</v>
+        <f>SUM(F18:F34)</f>
+        <v>31.3</v>
       </c>
       <c r="N10" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="2">
         <v>41590</v>
       </c>
@@ -1725,7 +1742,7 @@
       <c r="E11" s="13">
         <v>2</v>
       </c>
-      <c r="F11" s="99"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1739,7 +1756,7 @@
       </c>
       <c r="L11" s="44"/>
       <c r="M11" s="45">
-        <f>SUM(F32:F36)</f>
+        <f>SUM(F35:F39)</f>
         <v>0</v>
       </c>
       <c r="N11" s="39" t="s">
@@ -1747,7 +1764,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="2">
         <v>41591</v>
       </c>
@@ -1777,7 +1794,7 @@
       </c>
       <c r="L12" s="44"/>
       <c r="M12" s="45">
-        <f>SUM(F37:F41)</f>
+        <f>SUM(F40:F44)</f>
         <v>0</v>
       </c>
       <c r="N12" s="39" t="s">
@@ -1785,7 +1802,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="2">
         <v>41592</v>
       </c>
@@ -1798,7 +1815,7 @@
       <c r="E13" s="13">
         <v>1</v>
       </c>
-      <c r="F13" s="98">
+      <c r="F13" s="60">
         <f>SUM(E13:E14)</f>
         <v>2.25</v>
       </c>
@@ -1815,7 +1832,7 @@
       </c>
       <c r="L13" s="44"/>
       <c r="M13" s="45">
-        <f>SUM(F42:F46)</f>
+        <f>SUM(F45:F49)</f>
         <v>0</v>
       </c>
       <c r="N13" s="39" t="s">
@@ -1823,7 +1840,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="2">
         <v>41592</v>
       </c>
@@ -1836,7 +1853,7 @@
       <c r="E14" s="13">
         <v>1.25</v>
       </c>
-      <c r="F14" s="99"/>
+      <c r="F14" s="61"/>
       <c r="G14" s="21" t="s">
         <v>28</v>
       </c>
@@ -1850,7 +1867,7 @@
       </c>
       <c r="L14" s="44"/>
       <c r="M14" s="45">
-        <f>SUM(F47:F51)</f>
+        <f>SUM(F50:F54)</f>
         <v>0</v>
       </c>
       <c r="N14" s="39" t="s">
@@ -1858,7 +1875,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="2">
         <v>41593</v>
       </c>
@@ -1888,7 +1905,7 @@
       </c>
       <c r="L15" s="44"/>
       <c r="M15" s="45">
-        <f>SUM(F52:F56)</f>
+        <f>SUM(F55:F59)</f>
         <v>0</v>
       </c>
       <c r="N15" s="39" t="s">
@@ -1896,7 +1913,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="23">
         <v>41594</v>
       </c>
@@ -1926,7 +1943,7 @@
       </c>
       <c r="L16" s="44"/>
       <c r="M16" s="45">
-        <f>SUM(F57:F61)</f>
+        <f>SUM(F60:F64)</f>
         <v>0</v>
       </c>
       <c r="N16" s="39" t="s">
@@ -1934,7 +1951,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="23">
         <v>41595</v>
       </c>
@@ -1964,7 +1981,7 @@
       </c>
       <c r="L17" s="44"/>
       <c r="M17" s="45">
-        <f>SUM(F62:F66)</f>
+        <f>SUM(F65:F69)</f>
         <v>0</v>
       </c>
       <c r="N17" s="39" t="s">
@@ -1972,7 +1989,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="63">
+      <c r="A18" s="96">
         <v>3</v>
       </c>
       <c r="B18" s="9">
@@ -2004,7 +2021,7 @@
       </c>
       <c r="L18" s="44"/>
       <c r="M18" s="45">
-        <f>SUM(F67:F71)</f>
+        <f>SUM(F70:F74)</f>
         <v>0</v>
       </c>
       <c r="N18" s="39" t="s">
@@ -2012,8 +2029,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="61">
+      <c r="A19" s="94"/>
+      <c r="B19" s="99">
         <v>41597</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2025,7 +2042,7 @@
       <c r="E19" s="22">
         <v>1</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="62">
         <f>SUM(E19:E21)</f>
         <v>4.6500000000000004</v>
       </c>
@@ -2042,7 +2059,7 @@
       </c>
       <c r="L19" s="44"/>
       <c r="M19" s="45">
-        <f>SUM(F72:F76)</f>
+        <f>SUM(F75:F79)</f>
         <v>0</v>
       </c>
       <c r="N19" s="39" t="s">
@@ -2050,8 +2067,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="66"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="3" t="s">
         <v>91</v>
       </c>
@@ -2061,7 +2078,7 @@
       <c r="E20" s="22">
         <v>1.5</v>
       </c>
-      <c r="F20" s="100"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="28" t="s">
         <v>27</v>
       </c>
@@ -2077,7 +2094,7 @@
       </c>
       <c r="L20" s="44"/>
       <c r="M20" s="45">
-        <f>SUM(F77:F81)</f>
+        <f>SUM(F80:F84)</f>
         <v>0</v>
       </c>
       <c r="N20" s="39" t="s">
@@ -2085,8 +2102,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
@@ -2096,7 +2113,7 @@
       <c r="E21" s="22">
         <v>2.15</v>
       </c>
-      <c r="F21" s="60"/>
+      <c r="F21" s="64"/>
       <c r="G21" s="28" t="s">
         <v>27</v>
       </c>
@@ -2112,7 +2129,7 @@
       </c>
       <c r="L21" s="44"/>
       <c r="M21" s="45">
-        <f>SUM(F82:F86)</f>
+        <f>SUM(F85:F89)</f>
         <v>0</v>
       </c>
       <c r="N21" s="39" t="s">
@@ -2120,7 +2137,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
+      <c r="A22" s="94"/>
       <c r="B22" s="9">
         <v>41598</v>
       </c>
@@ -2152,7 +2169,7 @@
       </c>
       <c r="L22" s="44"/>
       <c r="M22" s="45">
-        <f>SUM(F87:F91)</f>
+        <f>SUM(F90:F94)</f>
         <v>0</v>
       </c>
       <c r="N22" s="39" t="s">
@@ -2160,8 +2177,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="61">
+      <c r="A23" s="94"/>
+      <c r="B23" s="99">
         <v>41599</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2173,7 +2190,7 @@
       <c r="E23" s="22">
         <v>1</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="62">
         <f>SUM(E23:E28)</f>
         <v>9.65</v>
       </c>
@@ -2192,7 +2209,7 @@
       </c>
       <c r="L23" s="44"/>
       <c r="M23" s="45">
-        <f>SUM(F92:F96)</f>
+        <f>SUM(F95:F99)</f>
         <v>0</v>
       </c>
       <c r="N23" s="39" t="s">
@@ -2200,8 +2217,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="66"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="100"/>
       <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
@@ -2211,7 +2228,7 @@
       <c r="E24" s="22">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F24" s="100"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="29" t="s">
         <v>28</v>
       </c>
@@ -2225,7 +2242,7 @@
       </c>
       <c r="L24" s="44"/>
       <c r="M24" s="45">
-        <f>SUM(F97:F101)</f>
+        <f>SUM(F100:F104)</f>
         <v>0</v>
       </c>
       <c r="N24" s="39" t="s">
@@ -2233,8 +2250,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="66"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="3" t="s">
         <v>101</v>
       </c>
@@ -2244,7 +2261,7 @@
       <c r="E25" s="22">
         <v>1.33</v>
       </c>
-      <c r="F25" s="100"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="26" t="s">
         <v>64</v>
       </c>
@@ -2258,7 +2275,7 @@
       </c>
       <c r="L25" s="44"/>
       <c r="M25" s="45">
-        <f>SUM(F102:F106)</f>
+        <f>SUM(F105:F109)</f>
         <v>0</v>
       </c>
       <c r="N25" s="39" t="s">
@@ -2266,8 +2283,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
-      <c r="B26" s="66"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
@@ -2277,7 +2294,7 @@
       <c r="E26" s="22">
         <v>1.5</v>
       </c>
-      <c r="F26" s="100"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="28" t="s">
         <v>27</v>
       </c>
@@ -2291,7 +2308,7 @@
       </c>
       <c r="L26" s="44"/>
       <c r="M26" s="45">
-        <f>SUM(F107:F111)</f>
+        <f>SUM(F110:F114)</f>
         <v>0</v>
       </c>
       <c r="N26" s="39" t="s">
@@ -2299,8 +2316,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
-      <c r="B27" s="66"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
@@ -2310,7 +2327,7 @@
       <c r="E27" s="22">
         <v>2.16</v>
       </c>
-      <c r="F27" s="100"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="26" t="s">
         <v>64</v>
       </c>
@@ -2324,7 +2341,7 @@
       </c>
       <c r="L27" s="44"/>
       <c r="M27" s="45">
-        <f>SUM(F112:F116)</f>
+        <f>SUM(F115:F119)</f>
         <v>0</v>
       </c>
       <c r="N27" s="39" t="s">
@@ -2332,8 +2349,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
-      <c r="B28" s="62"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="101"/>
       <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
@@ -2343,7 +2360,7 @@
       <c r="E28" s="22">
         <v>2.5</v>
       </c>
-      <c r="F28" s="60"/>
+      <c r="F28" s="64"/>
       <c r="G28" s="28" t="s">
         <v>27</v>
       </c>
@@ -2359,7 +2376,7 @@
       </c>
       <c r="L28" s="44"/>
       <c r="M28" s="45">
-        <f>SUM(F117:F121)</f>
+        <f>SUM(F120:F124)</f>
         <v>0</v>
       </c>
       <c r="N28" s="39" t="s">
@@ -2367,8 +2384,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
-      <c r="B29" s="61">
+      <c r="A29" s="94"/>
+      <c r="B29" s="99">
         <v>41600</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2380,7 +2397,7 @@
       <c r="E29" s="22">
         <v>1.5</v>
       </c>
-      <c r="F29" s="59">
+      <c r="F29" s="62">
         <f>SUM(E29:E31)</f>
         <v>5.5</v>
       </c>
@@ -2399,7 +2416,7 @@
       </c>
       <c r="L29" s="44"/>
       <c r="M29" s="45">
-        <f>SUM(F122:F126)</f>
+        <f>SUM(F125:F129)</f>
         <v>0</v>
       </c>
       <c r="N29" s="39" t="s">
@@ -2407,8 +2424,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
-      <c r="B30" s="66"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
@@ -2418,7 +2435,7 @@
       <c r="E30" s="22">
         <v>1.5</v>
       </c>
-      <c r="F30" s="100"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="28" t="s">
         <v>27</v>
       </c>
@@ -2434,7 +2451,7 @@
       </c>
       <c r="L30" s="44"/>
       <c r="M30" s="45">
-        <f>SUM(F127:F131)</f>
+        <f>SUM(F130:F134)</f>
         <v>0</v>
       </c>
       <c r="N30" s="39" t="s">
@@ -2442,8 +2459,8 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
-      <c r="B31" s="62"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="101"/>
       <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
@@ -2453,7 +2470,7 @@
       <c r="E31" s="22">
         <v>2.5</v>
       </c>
-      <c r="F31" s="60"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="28" t="s">
         <v>27</v>
       </c>
@@ -2469,59 +2486,80 @@
       </c>
       <c r="L31" s="44"/>
       <c r="M31" s="45">
-        <f>SUM(F132:F136)</f>
+        <f>SUM(F135:F139)</f>
         <v>0</v>
       </c>
       <c r="N31" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="52">
-        <v>4</v>
-      </c>
-      <c r="B32" s="2">
-        <v>41603</v>
-      </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
+    <row r="32" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A32" s="59"/>
+      <c r="B32" s="99">
+        <v>41601</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="F32" s="62">
+        <f>SUM(E32:E33)</f>
+        <v>2.5</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32" s="51"/>
+      <c r="J32" s="37"/>
       <c r="K32" s="41" t="s">
         <v>53</v>
       </c>
       <c r="L32" s="44"/>
       <c r="M32" s="45">
-        <f>SUM(F137:F141)</f>
+        <f>SUM(F140:F144)</f>
         <v>0</v>
       </c>
       <c r="N32" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="2">
-        <v>41604</v>
-      </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
+    <row r="33" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="59"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="22">
+        <v>1</v>
+      </c>
+      <c r="F33" s="64"/>
+      <c r="G33" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I33" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" s="37"/>
       <c r="K33" s="41" t="s">
         <v>54</v>
       </c>
       <c r="L33" s="44"/>
       <c r="M33" s="45">
-        <f>SUM(F142:F146)</f>
+        <f>SUM(F145:F149)</f>
         <v>0</v>
       </c>
       <c r="N33" s="39" t="s">
@@ -2529,24 +2567,37 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="2">
-        <v>41605</v>
-      </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="9">
+        <v>41602</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="22">
+        <v>4</v>
+      </c>
+      <c r="F34" s="56">
+        <f t="shared" ref="F34" si="4">E34</f>
+        <v>4</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="51"/>
+      <c r="J34" s="37"/>
       <c r="K34" s="41" t="s">
         <v>55</v>
       </c>
       <c r="L34" s="44"/>
       <c r="M34" s="45">
-        <f>SUM(F147:F151)</f>
+        <f>SUM(F150:F154)</f>
         <v>0</v>
       </c>
       <c r="N34" s="39" t="s">
@@ -2554,9 +2605,11 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
+      <c r="A35" s="52">
+        <v>4</v>
+      </c>
       <c r="B35" s="2">
-        <v>41606</v>
+        <v>41603</v>
       </c>
       <c r="C35" s="44"/>
       <c r="D35" s="44"/>
@@ -2571,7 +2624,7 @@
       </c>
       <c r="L35" s="44"/>
       <c r="M35" s="45">
-        <f>SUM(F152:F156)</f>
+        <f>SUM(F155:F159)</f>
         <v>0</v>
       </c>
       <c r="N35" s="39" t="s">
@@ -2581,7 +2634,7 @@
     <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
       <c r="B36" s="2">
-        <v>41607</v>
+        <v>41604</v>
       </c>
       <c r="C36" s="44"/>
       <c r="D36" s="44"/>
@@ -2596,7 +2649,7 @@
       </c>
       <c r="L36" s="44"/>
       <c r="M36" s="45">
-        <f>SUM(F157:F161)</f>
+        <f>SUM(F160:F164)</f>
         <v>0</v>
       </c>
       <c r="N36" s="39" t="s">
@@ -2604,26 +2657,24 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="64">
-        <v>5</v>
-      </c>
-      <c r="B37" s="9">
-        <v>41610</v>
-      </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="2">
+        <v>41605</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
       <c r="K37" s="41" t="s">
         <v>58</v>
       </c>
       <c r="L37" s="44"/>
       <c r="M37" s="45">
-        <f>SUM(F162:F166)</f>
+        <f>SUM(F165:F169)</f>
         <v>0</v>
       </c>
       <c r="N37" s="39" t="s">
@@ -2631,45 +2682,47 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
-      <c r="B38" s="9">
-        <v>41611</v>
-      </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="2">
+        <v>41606</v>
+      </c>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
       <c r="K38" s="54"/>
       <c r="L38" s="54"/>
       <c r="M38" s="54"/>
       <c r="N38" s="54"/>
     </row>
     <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
-      <c r="B39" s="9">
-        <v>41612</v>
-      </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="2">
+        <v>41607</v>
+      </c>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
       <c r="N39" s="54"/>
     </row>
     <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
+      <c r="A40" s="94">
+        <v>5</v>
+      </c>
       <c r="B40" s="9">
-        <v>41613</v>
+        <v>41610</v>
       </c>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -2685,9 +2738,9 @@
       <c r="N40" s="54"/>
     </row>
     <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
+      <c r="A41" s="94"/>
       <c r="B41" s="9">
-        <v>41614</v>
+        <v>41611</v>
       </c>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
@@ -2703,65 +2756,65 @@
       <c r="N41" s="54"/>
     </row>
     <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="67">
-        <v>6</v>
-      </c>
-      <c r="B42" s="2">
-        <v>41617</v>
-      </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
+      <c r="A42" s="94"/>
+      <c r="B42" s="9">
+        <v>41612</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
       <c r="K42" s="54"/>
       <c r="L42" s="54"/>
       <c r="M42" s="54"/>
       <c r="N42" s="54"/>
     </row>
     <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="67"/>
-      <c r="B43" s="2">
-        <v>41618</v>
-      </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
+      <c r="A43" s="94"/>
+      <c r="B43" s="9">
+        <v>41613</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
       <c r="K43" s="54"/>
       <c r="L43" s="54"/>
       <c r="M43" s="54"/>
       <c r="N43" s="54"/>
     </row>
     <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="67"/>
-      <c r="B44" s="2">
-        <v>41619</v>
-      </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
+      <c r="A44" s="94"/>
+      <c r="B44" s="9">
+        <v>41614</v>
+      </c>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
       <c r="K44" s="54"/>
       <c r="L44" s="54"/>
       <c r="M44" s="54"/>
       <c r="N44" s="54"/>
     </row>
     <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="67"/>
+      <c r="A45" s="95">
+        <v>6</v>
+      </c>
       <c r="B45" s="2">
-        <v>41620</v>
+        <v>41617</v>
       </c>
       <c r="C45" s="44"/>
       <c r="D45" s="44"/>
@@ -2777,9 +2830,9 @@
       <c r="N45" s="54"/>
     </row>
     <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
+      <c r="A46" s="95"/>
       <c r="B46" s="2">
-        <v>41621</v>
+        <v>41618</v>
       </c>
       <c r="C46" s="44"/>
       <c r="D46" s="44"/>
@@ -2795,65 +2848,65 @@
       <c r="N46" s="54"/>
     </row>
     <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="64">
-        <v>7</v>
-      </c>
-      <c r="B47" s="9">
-        <v>41624</v>
-      </c>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
+      <c r="A47" s="95"/>
+      <c r="B47" s="2">
+        <v>41619</v>
+      </c>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
       <c r="K47" s="54"/>
       <c r="L47" s="54"/>
       <c r="M47" s="54"/>
       <c r="N47" s="54"/>
     </row>
     <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
-      <c r="B48" s="9">
-        <v>41625</v>
-      </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
+      <c r="A48" s="95"/>
+      <c r="B48" s="2">
+        <v>41620</v>
+      </c>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
       <c r="K48" s="54"/>
       <c r="L48" s="54"/>
       <c r="M48" s="54"/>
       <c r="N48" s="54"/>
     </row>
     <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
-      <c r="B49" s="9">
-        <v>41626</v>
-      </c>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
+      <c r="A49" s="95"/>
+      <c r="B49" s="2">
+        <v>41621</v>
+      </c>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
       <c r="K49" s="54"/>
       <c r="L49" s="54"/>
       <c r="M49" s="54"/>
       <c r="N49" s="54"/>
     </row>
     <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
+      <c r="A50" s="94">
+        <v>7</v>
+      </c>
       <c r="B50" s="9">
-        <v>41627</v>
+        <v>41624</v>
       </c>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -2869,9 +2922,9 @@
       <c r="N50" s="54"/>
     </row>
     <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
+      <c r="A51" s="94"/>
       <c r="B51" s="9">
-        <v>41628</v>
+        <v>41625</v>
       </c>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -2887,65 +2940,65 @@
       <c r="N51" s="54"/>
     </row>
     <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="67">
-        <v>8</v>
-      </c>
-      <c r="B52" s="2">
-        <v>41631</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
+      <c r="A52" s="94"/>
+      <c r="B52" s="9">
+        <v>41626</v>
+      </c>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
       <c r="K52" s="54"/>
       <c r="L52" s="54"/>
       <c r="M52" s="54"/>
       <c r="N52" s="54"/>
     </row>
     <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
-      <c r="B53" s="2">
-        <v>41632</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
+      <c r="A53" s="94"/>
+      <c r="B53" s="9">
+        <v>41627</v>
+      </c>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
       <c r="K53" s="54"/>
       <c r="L53" s="54"/>
       <c r="M53" s="54"/>
       <c r="N53" s="54"/>
     </row>
     <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
-      <c r="B54" s="2">
-        <v>41633</v>
-      </c>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
+      <c r="A54" s="94"/>
+      <c r="B54" s="9">
+        <v>41628</v>
+      </c>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
       <c r="K54" s="54"/>
       <c r="L54" s="54"/>
       <c r="M54" s="54"/>
       <c r="N54" s="54"/>
     </row>
     <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
+      <c r="A55" s="95">
+        <v>8</v>
+      </c>
       <c r="B55" s="2">
-        <v>41634</v>
+        <v>41631</v>
       </c>
       <c r="C55" s="44"/>
       <c r="D55" s="44"/>
@@ -2961,9 +3014,9 @@
       <c r="N55" s="54"/>
     </row>
     <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
+      <c r="A56" s="95"/>
       <c r="B56" s="2">
-        <v>41635</v>
+        <v>41632</v>
       </c>
       <c r="C56" s="44"/>
       <c r="D56" s="44"/>
@@ -2979,65 +3032,65 @@
       <c r="N56" s="54"/>
     </row>
     <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="64">
-        <v>9</v>
-      </c>
-      <c r="B57" s="9">
-        <v>41638</v>
-      </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
+      <c r="A57" s="95"/>
+      <c r="B57" s="2">
+        <v>41633</v>
+      </c>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
       <c r="K57" s="54"/>
       <c r="L57" s="54"/>
       <c r="M57" s="54"/>
       <c r="N57" s="54"/>
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="64"/>
-      <c r="B58" s="9">
-        <v>41639</v>
-      </c>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
+      <c r="A58" s="95"/>
+      <c r="B58" s="2">
+        <v>41634</v>
+      </c>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
       <c r="K58" s="54"/>
       <c r="L58" s="54"/>
       <c r="M58" s="54"/>
       <c r="N58" s="54"/>
     </row>
     <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
-      <c r="B59" s="9">
-        <v>41640</v>
-      </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
+      <c r="A59" s="95"/>
+      <c r="B59" s="2">
+        <v>41635</v>
+      </c>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
       <c r="K59" s="54"/>
       <c r="L59" s="54"/>
       <c r="M59" s="54"/>
       <c r="N59" s="54"/>
     </row>
     <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="64"/>
+      <c r="A60" s="94">
+        <v>9</v>
+      </c>
       <c r="B60" s="9">
-        <v>41641</v>
+        <v>41638</v>
       </c>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -3053,9 +3106,9 @@
       <c r="N60" s="54"/>
     </row>
     <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="64"/>
+      <c r="A61" s="94"/>
       <c r="B61" s="9">
-        <v>41642</v>
+        <v>41639</v>
       </c>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -3071,65 +3124,65 @@
       <c r="N61" s="54"/>
     </row>
     <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="67">
-        <v>10</v>
-      </c>
-      <c r="B62" s="2">
-        <v>41645</v>
-      </c>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
+      <c r="A62" s="94"/>
+      <c r="B62" s="9">
+        <v>41640</v>
+      </c>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
       <c r="K62" s="54"/>
       <c r="L62" s="54"/>
       <c r="M62" s="54"/>
       <c r="N62" s="54"/>
     </row>
     <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
-      <c r="B63" s="2">
-        <v>41646</v>
-      </c>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
+      <c r="A63" s="94"/>
+      <c r="B63" s="9">
+        <v>41641</v>
+      </c>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
       <c r="K63" s="54"/>
       <c r="L63" s="54"/>
       <c r="M63" s="54"/>
       <c r="N63" s="54"/>
     </row>
     <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="67"/>
-      <c r="B64" s="2">
-        <v>41647</v>
-      </c>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
+      <c r="A64" s="94"/>
+      <c r="B64" s="9">
+        <v>41642</v>
+      </c>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
       <c r="K64" s="54"/>
       <c r="L64" s="54"/>
       <c r="M64" s="54"/>
       <c r="N64" s="54"/>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="67"/>
+      <c r="A65" s="95">
+        <v>10</v>
+      </c>
       <c r="B65" s="2">
-        <v>41648</v>
+        <v>41645</v>
       </c>
       <c r="C65" s="44"/>
       <c r="D65" s="44"/>
@@ -3145,9 +3198,9 @@
       <c r="N65" s="54"/>
     </row>
     <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="67"/>
+      <c r="A66" s="95"/>
       <c r="B66" s="2">
-        <v>41649</v>
+        <v>41646</v>
       </c>
       <c r="C66" s="44"/>
       <c r="D66" s="44"/>
@@ -3163,65 +3216,65 @@
       <c r="N66" s="54"/>
     </row>
     <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="64">
-        <v>11</v>
-      </c>
-      <c r="B67" s="9">
-        <v>41652</v>
-      </c>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
+      <c r="A67" s="95"/>
+      <c r="B67" s="2">
+        <v>41647</v>
+      </c>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
       <c r="K67" s="54"/>
       <c r="L67" s="54"/>
       <c r="M67" s="54"/>
       <c r="N67" s="54"/>
     </row>
     <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="64"/>
-      <c r="B68" s="9">
-        <v>41653</v>
-      </c>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
+      <c r="A68" s="95"/>
+      <c r="B68" s="2">
+        <v>41648</v>
+      </c>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
       <c r="K68" s="54"/>
       <c r="L68" s="54"/>
       <c r="M68" s="54"/>
       <c r="N68" s="54"/>
     </row>
     <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="64"/>
-      <c r="B69" s="9">
-        <v>41654</v>
-      </c>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
+      <c r="A69" s="95"/>
+      <c r="B69" s="2">
+        <v>41649</v>
+      </c>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
       <c r="K69" s="54"/>
       <c r="L69" s="54"/>
       <c r="M69" s="54"/>
       <c r="N69" s="54"/>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="64"/>
+      <c r="A70" s="94">
+        <v>11</v>
+      </c>
       <c r="B70" s="9">
-        <v>41655</v>
+        <v>41652</v>
       </c>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -3237,9 +3290,9 @@
       <c r="N70" s="54"/>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="64"/>
+      <c r="A71" s="94"/>
       <c r="B71" s="9">
-        <v>41656</v>
+        <v>41653</v>
       </c>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -3255,65 +3308,65 @@
       <c r="N71" s="54"/>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="67">
-        <v>12</v>
-      </c>
-      <c r="B72" s="2">
-        <v>41659</v>
-      </c>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="44"/>
+      <c r="A72" s="94"/>
+      <c r="B72" s="9">
+        <v>41654</v>
+      </c>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
       <c r="K72" s="54"/>
       <c r="L72" s="54"/>
       <c r="M72" s="54"/>
       <c r="N72" s="54"/>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="67"/>
-      <c r="B73" s="2">
-        <v>41660</v>
-      </c>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="44"/>
+      <c r="A73" s="94"/>
+      <c r="B73" s="9">
+        <v>41655</v>
+      </c>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
       <c r="K73" s="54"/>
       <c r="L73" s="54"/>
       <c r="M73" s="54"/>
       <c r="N73" s="54"/>
     </row>
     <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="67"/>
-      <c r="B74" s="2">
-        <v>41661</v>
-      </c>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="44"/>
+      <c r="A74" s="94"/>
+      <c r="B74" s="9">
+        <v>41656</v>
+      </c>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
       <c r="K74" s="54"/>
       <c r="L74" s="54"/>
       <c r="M74" s="54"/>
       <c r="N74" s="54"/>
     </row>
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="67"/>
+      <c r="A75" s="95">
+        <v>12</v>
+      </c>
       <c r="B75" s="2">
-        <v>41662</v>
+        <v>41659</v>
       </c>
       <c r="C75" s="44"/>
       <c r="D75" s="44"/>
@@ -3329,9 +3382,9 @@
       <c r="N75" s="54"/>
     </row>
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
+      <c r="A76" s="95"/>
       <c r="B76" s="2">
-        <v>41663</v>
+        <v>41660</v>
       </c>
       <c r="C76" s="44"/>
       <c r="D76" s="44"/>
@@ -3347,71 +3400,65 @@
       <c r="N76" s="54"/>
     </row>
     <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="64">
-        <v>13</v>
-      </c>
-      <c r="B77" s="9">
-        <v>41666</v>
-      </c>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
+      <c r="A77" s="95"/>
+      <c r="B77" s="2">
+        <v>41661</v>
+      </c>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
       <c r="K77" s="54"/>
       <c r="L77" s="54"/>
       <c r="M77" s="54"/>
       <c r="N77" s="54"/>
     </row>
     <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="64"/>
-      <c r="B78" s="9">
-        <v>41667</v>
-      </c>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="37"/>
+      <c r="A78" s="95"/>
+      <c r="B78" s="2">
+        <v>41662</v>
+      </c>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
       <c r="K78" s="54"/>
       <c r="L78" s="54"/>
       <c r="M78" s="54"/>
       <c r="N78" s="54"/>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="64"/>
-      <c r="B79" s="9">
-        <v>41668</v>
-      </c>
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
+      <c r="A79" s="95"/>
+      <c r="B79" s="2">
+        <v>41663</v>
+      </c>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
       <c r="K79" s="54"/>
       <c r="L79" s="54"/>
       <c r="M79" s="54"/>
       <c r="N79" s="54"/>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="64"/>
+      <c r="A80" s="94">
+        <v>13</v>
+      </c>
       <c r="B80" s="9">
-        <v>41669</v>
+        <v>41666</v>
       </c>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -3429,9 +3476,9 @@
       <c r="N80" s="54"/>
     </row>
     <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="64"/>
+      <c r="A81" s="94"/>
       <c r="B81" s="9">
-        <v>41670</v>
+        <v>41667</v>
       </c>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -3449,71 +3496,71 @@
       <c r="N81" s="54"/>
     </row>
     <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="67">
-        <v>14</v>
-      </c>
-      <c r="B82" s="2">
-        <v>41673</v>
-      </c>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="40" t="s">
+      <c r="A82" s="94"/>
+      <c r="B82" s="9">
+        <v>41668</v>
+      </c>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H82" s="44"/>
-      <c r="I82" s="44"/>
-      <c r="J82" s="44"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="37"/>
       <c r="K82" s="54"/>
       <c r="L82" s="54"/>
       <c r="M82" s="54"/>
       <c r="N82" s="54"/>
     </row>
     <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="67"/>
-      <c r="B83" s="2">
-        <v>41674</v>
-      </c>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="40" t="s">
+      <c r="A83" s="94"/>
+      <c r="B83" s="9">
+        <v>41669</v>
+      </c>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="44"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
       <c r="K83" s="54"/>
       <c r="L83" s="54"/>
       <c r="M83" s="54"/>
       <c r="N83" s="54"/>
     </row>
     <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="67"/>
-      <c r="B84" s="2">
-        <v>41675</v>
-      </c>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="40" t="s">
+      <c r="A84" s="94"/>
+      <c r="B84" s="9">
+        <v>41670</v>
+      </c>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H84" s="44"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="44"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
       <c r="K84" s="54"/>
       <c r="L84" s="54"/>
       <c r="M84" s="54"/>
       <c r="N84" s="54"/>
     </row>
     <row r="85" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="67"/>
+      <c r="A85" s="95">
+        <v>14</v>
+      </c>
       <c r="B85" s="2">
-        <v>41676</v>
+        <v>41673</v>
       </c>
       <c r="C85" s="44"/>
       <c r="D85" s="44"/>
@@ -3531,9 +3578,9 @@
       <c r="N85" s="54"/>
     </row>
     <row r="86" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="67"/>
+      <c r="A86" s="95"/>
       <c r="B86" s="2">
-        <v>41677</v>
+        <v>41674</v>
       </c>
       <c r="C86" s="44"/>
       <c r="D86" s="44"/>
@@ -3551,65 +3598,71 @@
       <c r="N86" s="54"/>
     </row>
     <row r="87" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="64">
-        <v>15</v>
-      </c>
-      <c r="B87" s="9">
-        <v>41680</v>
-      </c>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
+      <c r="A87" s="95"/>
+      <c r="B87" s="2">
+        <v>41675</v>
+      </c>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
       <c r="K87" s="54"/>
       <c r="L87" s="54"/>
       <c r="M87" s="54"/>
       <c r="N87" s="54"/>
     </row>
     <row r="88" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="64"/>
-      <c r="B88" s="9">
-        <v>41681</v>
-      </c>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
+      <c r="A88" s="95"/>
+      <c r="B88" s="2">
+        <v>41676</v>
+      </c>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
       <c r="K88" s="54"/>
       <c r="L88" s="54"/>
       <c r="M88" s="54"/>
       <c r="N88" s="54"/>
     </row>
     <row r="89" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="64"/>
-      <c r="B89" s="9">
-        <v>41682</v>
-      </c>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
+      <c r="A89" s="95"/>
+      <c r="B89" s="2">
+        <v>41677</v>
+      </c>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
       <c r="K89" s="54"/>
       <c r="L89" s="54"/>
       <c r="M89" s="54"/>
       <c r="N89" s="54"/>
     </row>
     <row r="90" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="64"/>
+      <c r="A90" s="94">
+        <v>15</v>
+      </c>
       <c r="B90" s="9">
-        <v>41683</v>
+        <v>41680</v>
       </c>
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
@@ -3625,9 +3678,9 @@
       <c r="N90" s="54"/>
     </row>
     <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="64"/>
+      <c r="A91" s="94"/>
       <c r="B91" s="9">
-        <v>41684</v>
+        <v>41681</v>
       </c>
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
@@ -3643,65 +3696,65 @@
       <c r="N91" s="54"/>
     </row>
     <row r="92" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="67">
-        <v>16</v>
-      </c>
-      <c r="B92" s="2">
-        <v>41687</v>
-      </c>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="44"/>
+      <c r="A92" s="94"/>
+      <c r="B92" s="9">
+        <v>41682</v>
+      </c>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
       <c r="K92" s="54"/>
       <c r="L92" s="54"/>
       <c r="M92" s="54"/>
       <c r="N92" s="54"/>
     </row>
     <row r="93" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="67"/>
-      <c r="B93" s="2">
-        <v>41688</v>
-      </c>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="44"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="44"/>
+      <c r="A93" s="94"/>
+      <c r="B93" s="9">
+        <v>41683</v>
+      </c>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
       <c r="K93" s="54"/>
       <c r="L93" s="54"/>
       <c r="M93" s="54"/>
       <c r="N93" s="54"/>
     </row>
     <row r="94" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="67"/>
-      <c r="B94" s="2">
-        <v>41689</v>
-      </c>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="44"/>
-      <c r="H94" s="44"/>
-      <c r="I94" s="44"/>
-      <c r="J94" s="44"/>
+      <c r="A94" s="94"/>
+      <c r="B94" s="9">
+        <v>41684</v>
+      </c>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
       <c r="K94" s="54"/>
       <c r="L94" s="54"/>
       <c r="M94" s="54"/>
       <c r="N94" s="54"/>
     </row>
     <row r="95" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="67"/>
+      <c r="A95" s="95">
+        <v>16</v>
+      </c>
       <c r="B95" s="2">
-        <v>41690</v>
+        <v>41687</v>
       </c>
       <c r="C95" s="44"/>
       <c r="D95" s="44"/>
@@ -3717,9 +3770,9 @@
       <c r="N95" s="54"/>
     </row>
     <row r="96" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="67"/>
+      <c r="A96" s="95"/>
       <c r="B96" s="2">
-        <v>41691</v>
+        <v>41688</v>
       </c>
       <c r="C96" s="44"/>
       <c r="D96" s="44"/>
@@ -3735,65 +3788,65 @@
       <c r="N96" s="54"/>
     </row>
     <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="64">
-        <v>17</v>
-      </c>
-      <c r="B97" s="9">
-        <v>41694</v>
-      </c>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="37"/>
+      <c r="A97" s="95"/>
+      <c r="B97" s="2">
+        <v>41689</v>
+      </c>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
       <c r="K97" s="54"/>
       <c r="L97" s="54"/>
       <c r="M97" s="54"/>
       <c r="N97" s="54"/>
     </row>
     <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="64"/>
-      <c r="B98" s="9">
-        <v>41695</v>
-      </c>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="37"/>
+      <c r="A98" s="95"/>
+      <c r="B98" s="2">
+        <v>41690</v>
+      </c>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
       <c r="K98" s="54"/>
       <c r="L98" s="54"/>
       <c r="M98" s="54"/>
       <c r="N98" s="54"/>
     </row>
     <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="64"/>
-      <c r="B99" s="9">
-        <v>41696</v>
-      </c>
-      <c r="C99" s="37"/>
-      <c r="D99" s="37"/>
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="37"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="37"/>
+      <c r="A99" s="95"/>
+      <c r="B99" s="2">
+        <v>41691</v>
+      </c>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
       <c r="K99" s="54"/>
       <c r="L99" s="54"/>
       <c r="M99" s="54"/>
       <c r="N99" s="54"/>
     </row>
     <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="64"/>
+      <c r="A100" s="94">
+        <v>17</v>
+      </c>
       <c r="B100" s="9">
-        <v>41697</v>
+        <v>41694</v>
       </c>
       <c r="C100" s="37"/>
       <c r="D100" s="37"/>
@@ -3809,9 +3862,9 @@
       <c r="N100" s="54"/>
     </row>
     <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="64"/>
+      <c r="A101" s="94"/>
       <c r="B101" s="9">
-        <v>41698</v>
+        <v>41695</v>
       </c>
       <c r="C101" s="37"/>
       <c r="D101" s="37"/>
@@ -3827,65 +3880,65 @@
       <c r="N101" s="54"/>
     </row>
     <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="67">
-        <v>18</v>
-      </c>
-      <c r="B102" s="2">
-        <v>41701</v>
-      </c>
-      <c r="C102" s="44"/>
-      <c r="D102" s="44"/>
-      <c r="E102" s="44"/>
-      <c r="F102" s="44"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="44"/>
-      <c r="J102" s="44"/>
+      <c r="A102" s="94"/>
+      <c r="B102" s="9">
+        <v>41696</v>
+      </c>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="37"/>
       <c r="K102" s="54"/>
       <c r="L102" s="54"/>
       <c r="M102" s="54"/>
       <c r="N102" s="54"/>
     </row>
     <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="67"/>
-      <c r="B103" s="2">
-        <v>41702</v>
-      </c>
-      <c r="C103" s="44"/>
-      <c r="D103" s="44"/>
-      <c r="E103" s="44"/>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="44"/>
-      <c r="J103" s="44"/>
+      <c r="A103" s="94"/>
+      <c r="B103" s="9">
+        <v>41697</v>
+      </c>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="37"/>
       <c r="K103" s="54"/>
       <c r="L103" s="54"/>
       <c r="M103" s="54"/>
       <c r="N103" s="54"/>
     </row>
     <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="67"/>
-      <c r="B104" s="2">
-        <v>41703</v>
-      </c>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="44"/>
-      <c r="J104" s="44"/>
+      <c r="A104" s="94"/>
+      <c r="B104" s="9">
+        <v>41698</v>
+      </c>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="37"/>
       <c r="K104" s="54"/>
       <c r="L104" s="54"/>
       <c r="M104" s="54"/>
       <c r="N104" s="54"/>
     </row>
     <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="67"/>
+      <c r="A105" s="95">
+        <v>18</v>
+      </c>
       <c r="B105" s="2">
-        <v>41704</v>
+        <v>41701</v>
       </c>
       <c r="C105" s="44"/>
       <c r="D105" s="44"/>
@@ -3901,9 +3954,9 @@
       <c r="N105" s="54"/>
     </row>
     <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="67"/>
+      <c r="A106" s="95"/>
       <c r="B106" s="2">
-        <v>41705</v>
+        <v>41702</v>
       </c>
       <c r="C106" s="44"/>
       <c r="D106" s="44"/>
@@ -3919,65 +3972,65 @@
       <c r="N106" s="54"/>
     </row>
     <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="64">
-        <v>19</v>
-      </c>
-      <c r="B107" s="9">
-        <v>41708</v>
-      </c>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="37"/>
-      <c r="I107" s="37"/>
-      <c r="J107" s="37"/>
+      <c r="A107" s="95"/>
+      <c r="B107" s="2">
+        <v>41703</v>
+      </c>
+      <c r="C107" s="44"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="44"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="44"/>
+      <c r="I107" s="44"/>
+      <c r="J107" s="44"/>
       <c r="K107" s="54"/>
       <c r="L107" s="54"/>
       <c r="M107" s="54"/>
       <c r="N107" s="54"/>
     </row>
     <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="64"/>
-      <c r="B108" s="9">
-        <v>41709</v>
-      </c>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="37"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="37"/>
+      <c r="A108" s="95"/>
+      <c r="B108" s="2">
+        <v>41704</v>
+      </c>
+      <c r="C108" s="44"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="44"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="44"/>
+      <c r="I108" s="44"/>
+      <c r="J108" s="44"/>
       <c r="K108" s="54"/>
       <c r="L108" s="54"/>
       <c r="M108" s="54"/>
       <c r="N108" s="54"/>
     </row>
     <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="64"/>
-      <c r="B109" s="9">
-        <v>41710</v>
-      </c>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="37"/>
-      <c r="I109" s="37"/>
-      <c r="J109" s="37"/>
+      <c r="A109" s="95"/>
+      <c r="B109" s="2">
+        <v>41705</v>
+      </c>
+      <c r="C109" s="44"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="44"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="44"/>
+      <c r="I109" s="44"/>
+      <c r="J109" s="44"/>
       <c r="K109" s="54"/>
       <c r="L109" s="54"/>
       <c r="M109" s="54"/>
       <c r="N109" s="54"/>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="64"/>
+      <c r="A110" s="94">
+        <v>19</v>
+      </c>
       <c r="B110" s="9">
-        <v>41711</v>
+        <v>41708</v>
       </c>
       <c r="C110" s="37"/>
       <c r="D110" s="37"/>
@@ -3993,9 +4046,9 @@
       <c r="N110" s="54"/>
     </row>
     <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="64"/>
+      <c r="A111" s="94"/>
       <c r="B111" s="9">
-        <v>41712</v>
+        <v>41709</v>
       </c>
       <c r="C111" s="37"/>
       <c r="D111" s="37"/>
@@ -4011,65 +4064,65 @@
       <c r="N111" s="54"/>
     </row>
     <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="67">
-        <v>20</v>
-      </c>
-      <c r="B112" s="2">
-        <v>41715</v>
-      </c>
-      <c r="C112" s="44"/>
-      <c r="D112" s="44"/>
-      <c r="E112" s="44"/>
-      <c r="F112" s="44"/>
-      <c r="G112" s="44"/>
-      <c r="H112" s="44"/>
-      <c r="I112" s="44"/>
-      <c r="J112" s="44"/>
+      <c r="A112" s="94"/>
+      <c r="B112" s="9">
+        <v>41710</v>
+      </c>
+      <c r="C112" s="37"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="37"/>
       <c r="K112" s="54"/>
       <c r="L112" s="54"/>
       <c r="M112" s="54"/>
       <c r="N112" s="54"/>
     </row>
     <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="67"/>
-      <c r="B113" s="2">
-        <v>41716</v>
-      </c>
-      <c r="C113" s="44"/>
-      <c r="D113" s="44"/>
-      <c r="E113" s="44"/>
-      <c r="F113" s="44"/>
-      <c r="G113" s="44"/>
-      <c r="H113" s="44"/>
-      <c r="I113" s="44"/>
-      <c r="J113" s="44"/>
+      <c r="A113" s="94"/>
+      <c r="B113" s="9">
+        <v>41711</v>
+      </c>
+      <c r="C113" s="37"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="37"/>
+      <c r="I113" s="37"/>
+      <c r="J113" s="37"/>
       <c r="K113" s="54"/>
       <c r="L113" s="54"/>
       <c r="M113" s="54"/>
       <c r="N113" s="54"/>
     </row>
     <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="67"/>
-      <c r="B114" s="2">
-        <v>41717</v>
-      </c>
-      <c r="C114" s="44"/>
-      <c r="D114" s="44"/>
-      <c r="E114" s="44"/>
-      <c r="F114" s="44"/>
-      <c r="G114" s="44"/>
-      <c r="H114" s="44"/>
-      <c r="I114" s="44"/>
-      <c r="J114" s="44"/>
+      <c r="A114" s="94"/>
+      <c r="B114" s="9">
+        <v>41712</v>
+      </c>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="37"/>
       <c r="K114" s="54"/>
       <c r="L114" s="54"/>
       <c r="M114" s="54"/>
       <c r="N114" s="54"/>
     </row>
     <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="67"/>
+      <c r="A115" s="95">
+        <v>20</v>
+      </c>
       <c r="B115" s="2">
-        <v>41718</v>
+        <v>41715</v>
       </c>
       <c r="C115" s="44"/>
       <c r="D115" s="44"/>
@@ -4085,9 +4138,9 @@
       <c r="N115" s="54"/>
     </row>
     <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="67"/>
+      <c r="A116" s="95"/>
       <c r="B116" s="2">
-        <v>41719</v>
+        <v>41716</v>
       </c>
       <c r="C116" s="44"/>
       <c r="D116" s="44"/>
@@ -4103,65 +4156,65 @@
       <c r="N116" s="54"/>
     </row>
     <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="64">
-        <v>21</v>
-      </c>
-      <c r="B117" s="9">
-        <v>41722</v>
-      </c>
-      <c r="C117" s="37"/>
-      <c r="D117" s="37"/>
-      <c r="E117" s="37"/>
-      <c r="F117" s="37"/>
-      <c r="G117" s="37"/>
-      <c r="H117" s="37"/>
-      <c r="I117" s="37"/>
-      <c r="J117" s="37"/>
+      <c r="A117" s="95"/>
+      <c r="B117" s="2">
+        <v>41717</v>
+      </c>
+      <c r="C117" s="44"/>
+      <c r="D117" s="44"/>
+      <c r="E117" s="44"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="44"/>
+      <c r="I117" s="44"/>
+      <c r="J117" s="44"/>
       <c r="K117" s="54"/>
       <c r="L117" s="54"/>
       <c r="M117" s="54"/>
       <c r="N117" s="54"/>
     </row>
     <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="64"/>
-      <c r="B118" s="9">
-        <v>41723</v>
-      </c>
-      <c r="C118" s="37"/>
-      <c r="D118" s="37"/>
-      <c r="E118" s="37"/>
-      <c r="F118" s="37"/>
-      <c r="G118" s="37"/>
-      <c r="H118" s="37"/>
-      <c r="I118" s="37"/>
-      <c r="J118" s="37"/>
+      <c r="A118" s="95"/>
+      <c r="B118" s="2">
+        <v>41718</v>
+      </c>
+      <c r="C118" s="44"/>
+      <c r="D118" s="44"/>
+      <c r="E118" s="44"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="44"/>
+      <c r="I118" s="44"/>
+      <c r="J118" s="44"/>
       <c r="K118" s="54"/>
       <c r="L118" s="54"/>
       <c r="M118" s="54"/>
       <c r="N118" s="54"/>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="64"/>
-      <c r="B119" s="9">
-        <v>41724</v>
-      </c>
-      <c r="C119" s="37"/>
-      <c r="D119" s="37"/>
-      <c r="E119" s="37"/>
-      <c r="F119" s="37"/>
-      <c r="G119" s="37"/>
-      <c r="H119" s="37"/>
-      <c r="I119" s="37"/>
-      <c r="J119" s="37"/>
+      <c r="A119" s="95"/>
+      <c r="B119" s="2">
+        <v>41719</v>
+      </c>
+      <c r="C119" s="44"/>
+      <c r="D119" s="44"/>
+      <c r="E119" s="44"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="44"/>
+      <c r="H119" s="44"/>
+      <c r="I119" s="44"/>
+      <c r="J119" s="44"/>
       <c r="K119" s="54"/>
       <c r="L119" s="54"/>
       <c r="M119" s="54"/>
       <c r="N119" s="54"/>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="64"/>
+      <c r="A120" s="94">
+        <v>21</v>
+      </c>
       <c r="B120" s="9">
-        <v>41725</v>
+        <v>41722</v>
       </c>
       <c r="C120" s="37"/>
       <c r="D120" s="37"/>
@@ -4177,9 +4230,9 @@
       <c r="N120" s="54"/>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="64"/>
+      <c r="A121" s="94"/>
       <c r="B121" s="9">
-        <v>41726</v>
+        <v>41723</v>
       </c>
       <c r="C121" s="37"/>
       <c r="D121" s="37"/>
@@ -4195,65 +4248,65 @@
       <c r="N121" s="54"/>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="67">
-        <v>22</v>
-      </c>
-      <c r="B122" s="2">
-        <v>41729</v>
-      </c>
-      <c r="C122" s="44"/>
-      <c r="D122" s="44"/>
-      <c r="E122" s="44"/>
-      <c r="F122" s="44"/>
-      <c r="G122" s="44"/>
-      <c r="H122" s="44"/>
-      <c r="I122" s="44"/>
-      <c r="J122" s="44"/>
+      <c r="A122" s="94"/>
+      <c r="B122" s="9">
+        <v>41724</v>
+      </c>
+      <c r="C122" s="37"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="37"/>
+      <c r="G122" s="37"/>
+      <c r="H122" s="37"/>
+      <c r="I122" s="37"/>
+      <c r="J122" s="37"/>
       <c r="K122" s="54"/>
       <c r="L122" s="54"/>
       <c r="M122" s="54"/>
       <c r="N122" s="54"/>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="67"/>
-      <c r="B123" s="2">
-        <v>41730</v>
-      </c>
-      <c r="C123" s="44"/>
-      <c r="D123" s="44"/>
-      <c r="E123" s="44"/>
-      <c r="F123" s="44"/>
-      <c r="G123" s="44"/>
-      <c r="H123" s="44"/>
-      <c r="I123" s="44"/>
-      <c r="J123" s="44"/>
+      <c r="A123" s="94"/>
+      <c r="B123" s="9">
+        <v>41725</v>
+      </c>
+      <c r="C123" s="37"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="37"/>
+      <c r="F123" s="37"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="37"/>
+      <c r="I123" s="37"/>
+      <c r="J123" s="37"/>
       <c r="K123" s="54"/>
       <c r="L123" s="54"/>
       <c r="M123" s="54"/>
       <c r="N123" s="54"/>
     </row>
     <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="67"/>
-      <c r="B124" s="2">
-        <v>41731</v>
-      </c>
-      <c r="C124" s="44"/>
-      <c r="D124" s="44"/>
-      <c r="E124" s="44"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="44"/>
-      <c r="I124" s="44"/>
-      <c r="J124" s="44"/>
+      <c r="A124" s="94"/>
+      <c r="B124" s="9">
+        <v>41726</v>
+      </c>
+      <c r="C124" s="37"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="37"/>
+      <c r="F124" s="37"/>
+      <c r="G124" s="37"/>
+      <c r="H124" s="37"/>
+      <c r="I124" s="37"/>
+      <c r="J124" s="37"/>
       <c r="K124" s="54"/>
       <c r="L124" s="54"/>
       <c r="M124" s="54"/>
       <c r="N124" s="54"/>
     </row>
     <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="67"/>
+      <c r="A125" s="95">
+        <v>22</v>
+      </c>
       <c r="B125" s="2">
-        <v>41732</v>
+        <v>41729</v>
       </c>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
@@ -4269,9 +4322,9 @@
       <c r="N125" s="54"/>
     </row>
     <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="67"/>
+      <c r="A126" s="95"/>
       <c r="B126" s="2">
-        <v>41733</v>
+        <v>41730</v>
       </c>
       <c r="C126" s="44"/>
       <c r="D126" s="44"/>
@@ -4287,65 +4340,65 @@
       <c r="N126" s="54"/>
     </row>
     <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="64">
-        <v>23</v>
-      </c>
-      <c r="B127" s="9">
-        <v>41736</v>
-      </c>
-      <c r="C127" s="37"/>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="37"/>
+      <c r="A127" s="95"/>
+      <c r="B127" s="2">
+        <v>41731</v>
+      </c>
+      <c r="C127" s="44"/>
+      <c r="D127" s="44"/>
+      <c r="E127" s="44"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="44"/>
+      <c r="H127" s="44"/>
+      <c r="I127" s="44"/>
+      <c r="J127" s="44"/>
       <c r="K127" s="54"/>
       <c r="L127" s="54"/>
       <c r="M127" s="54"/>
       <c r="N127" s="54"/>
     </row>
     <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="64"/>
-      <c r="B128" s="9">
-        <v>41737</v>
-      </c>
-      <c r="C128" s="37"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="37"/>
+      <c r="A128" s="95"/>
+      <c r="B128" s="2">
+        <v>41732</v>
+      </c>
+      <c r="C128" s="44"/>
+      <c r="D128" s="44"/>
+      <c r="E128" s="44"/>
+      <c r="F128" s="44"/>
+      <c r="G128" s="44"/>
+      <c r="H128" s="44"/>
+      <c r="I128" s="44"/>
+      <c r="J128" s="44"/>
       <c r="K128" s="54"/>
       <c r="L128" s="54"/>
       <c r="M128" s="54"/>
       <c r="N128" s="54"/>
     </row>
     <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="64"/>
-      <c r="B129" s="9">
-        <v>41738</v>
-      </c>
-      <c r="C129" s="37"/>
-      <c r="D129" s="37"/>
-      <c r="E129" s="37"/>
-      <c r="F129" s="37"/>
-      <c r="G129" s="37"/>
-      <c r="H129" s="37"/>
-      <c r="I129" s="37"/>
-      <c r="J129" s="37"/>
+      <c r="A129" s="95"/>
+      <c r="B129" s="2">
+        <v>41733</v>
+      </c>
+      <c r="C129" s="44"/>
+      <c r="D129" s="44"/>
+      <c r="E129" s="44"/>
+      <c r="F129" s="44"/>
+      <c r="G129" s="44"/>
+      <c r="H129" s="44"/>
+      <c r="I129" s="44"/>
+      <c r="J129" s="44"/>
       <c r="K129" s="54"/>
       <c r="L129" s="54"/>
       <c r="M129" s="54"/>
       <c r="N129" s="54"/>
     </row>
     <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="64"/>
+      <c r="A130" s="94">
+        <v>23</v>
+      </c>
       <c r="B130" s="9">
-        <v>41739</v>
+        <v>41736</v>
       </c>
       <c r="C130" s="37"/>
       <c r="D130" s="37"/>
@@ -4361,9 +4414,9 @@
       <c r="N130" s="54"/>
     </row>
     <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="64"/>
+      <c r="A131" s="94"/>
       <c r="B131" s="9">
-        <v>41740</v>
+        <v>41737</v>
       </c>
       <c r="C131" s="37"/>
       <c r="D131" s="37"/>
@@ -4379,65 +4432,65 @@
       <c r="N131" s="54"/>
     </row>
     <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="67">
-        <v>24</v>
-      </c>
-      <c r="B132" s="2">
-        <v>41743</v>
-      </c>
-      <c r="C132" s="44"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="44"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="44"/>
-      <c r="I132" s="44"/>
-      <c r="J132" s="44"/>
+      <c r="A132" s="94"/>
+      <c r="B132" s="9">
+        <v>41738</v>
+      </c>
+      <c r="C132" s="37"/>
+      <c r="D132" s="37"/>
+      <c r="E132" s="37"/>
+      <c r="F132" s="37"/>
+      <c r="G132" s="37"/>
+      <c r="H132" s="37"/>
+      <c r="I132" s="37"/>
+      <c r="J132" s="37"/>
       <c r="K132" s="54"/>
       <c r="L132" s="54"/>
       <c r="M132" s="54"/>
       <c r="N132" s="54"/>
     </row>
     <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="67"/>
-      <c r="B133" s="2">
-        <v>41744</v>
-      </c>
-      <c r="C133" s="44"/>
-      <c r="D133" s="44"/>
-      <c r="E133" s="44"/>
-      <c r="F133" s="44"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="44"/>
-      <c r="I133" s="44"/>
-      <c r="J133" s="44"/>
+      <c r="A133" s="94"/>
+      <c r="B133" s="9">
+        <v>41739</v>
+      </c>
+      <c r="C133" s="37"/>
+      <c r="D133" s="37"/>
+      <c r="E133" s="37"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="37"/>
+      <c r="H133" s="37"/>
+      <c r="I133" s="37"/>
+      <c r="J133" s="37"/>
       <c r="K133" s="54"/>
       <c r="L133" s="54"/>
       <c r="M133" s="54"/>
       <c r="N133" s="54"/>
     </row>
     <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="67"/>
-      <c r="B134" s="2">
-        <v>41745</v>
-      </c>
-      <c r="C134" s="44"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="44"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="44"/>
-      <c r="H134" s="44"/>
-      <c r="I134" s="44"/>
-      <c r="J134" s="44"/>
+      <c r="A134" s="94"/>
+      <c r="B134" s="9">
+        <v>41740</v>
+      </c>
+      <c r="C134" s="37"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="37"/>
+      <c r="F134" s="37"/>
+      <c r="G134" s="37"/>
+      <c r="H134" s="37"/>
+      <c r="I134" s="37"/>
+      <c r="J134" s="37"/>
       <c r="K134" s="54"/>
       <c r="L134" s="54"/>
       <c r="M134" s="54"/>
       <c r="N134" s="54"/>
     </row>
     <row r="135" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="67"/>
+      <c r="A135" s="95">
+        <v>24</v>
+      </c>
       <c r="B135" s="2">
-        <v>41746</v>
+        <v>41743</v>
       </c>
       <c r="C135" s="44"/>
       <c r="D135" s="44"/>
@@ -4453,9 +4506,9 @@
       <c r="N135" s="54"/>
     </row>
     <row r="136" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="67"/>
+      <c r="A136" s="95"/>
       <c r="B136" s="2">
-        <v>41747</v>
+        <v>41744</v>
       </c>
       <c r="C136" s="44"/>
       <c r="D136" s="44"/>
@@ -4471,65 +4524,65 @@
       <c r="N136" s="54"/>
     </row>
     <row r="137" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="64">
-        <v>25</v>
-      </c>
-      <c r="B137" s="9">
-        <v>41750</v>
-      </c>
-      <c r="C137" s="37"/>
-      <c r="D137" s="37"/>
-      <c r="E137" s="37"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="37"/>
-      <c r="I137" s="37"/>
-      <c r="J137" s="37"/>
+      <c r="A137" s="95"/>
+      <c r="B137" s="2">
+        <v>41745</v>
+      </c>
+      <c r="C137" s="44"/>
+      <c r="D137" s="44"/>
+      <c r="E137" s="44"/>
+      <c r="F137" s="44"/>
+      <c r="G137" s="44"/>
+      <c r="H137" s="44"/>
+      <c r="I137" s="44"/>
+      <c r="J137" s="44"/>
       <c r="K137" s="54"/>
       <c r="L137" s="54"/>
       <c r="M137" s="54"/>
       <c r="N137" s="54"/>
     </row>
     <row r="138" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="64"/>
-      <c r="B138" s="9">
-        <v>41751</v>
-      </c>
-      <c r="C138" s="37"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="37"/>
-      <c r="I138" s="37"/>
-      <c r="J138" s="37"/>
+      <c r="A138" s="95"/>
+      <c r="B138" s="2">
+        <v>41746</v>
+      </c>
+      <c r="C138" s="44"/>
+      <c r="D138" s="44"/>
+      <c r="E138" s="44"/>
+      <c r="F138" s="44"/>
+      <c r="G138" s="44"/>
+      <c r="H138" s="44"/>
+      <c r="I138" s="44"/>
+      <c r="J138" s="44"/>
       <c r="K138" s="54"/>
       <c r="L138" s="54"/>
       <c r="M138" s="54"/>
       <c r="N138" s="54"/>
     </row>
     <row r="139" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="64"/>
-      <c r="B139" s="9">
-        <v>41752</v>
-      </c>
-      <c r="C139" s="37"/>
-      <c r="D139" s="37"/>
-      <c r="E139" s="37"/>
-      <c r="F139" s="37"/>
-      <c r="G139" s="37"/>
-      <c r="H139" s="37"/>
-      <c r="I139" s="37"/>
-      <c r="J139" s="37"/>
+      <c r="A139" s="95"/>
+      <c r="B139" s="2">
+        <v>41747</v>
+      </c>
+      <c r="C139" s="44"/>
+      <c r="D139" s="44"/>
+      <c r="E139" s="44"/>
+      <c r="F139" s="44"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="44"/>
+      <c r="I139" s="44"/>
+      <c r="J139" s="44"/>
       <c r="K139" s="54"/>
       <c r="L139" s="54"/>
       <c r="M139" s="54"/>
       <c r="N139" s="54"/>
     </row>
     <row r="140" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="64"/>
+      <c r="A140" s="94">
+        <v>25</v>
+      </c>
       <c r="B140" s="9">
-        <v>41753</v>
+        <v>41750</v>
       </c>
       <c r="C140" s="37"/>
       <c r="D140" s="37"/>
@@ -4545,9 +4598,9 @@
       <c r="N140" s="54"/>
     </row>
     <row r="141" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="64"/>
+      <c r="A141" s="94"/>
       <c r="B141" s="9">
-        <v>41754</v>
+        <v>41751</v>
       </c>
       <c r="C141" s="37"/>
       <c r="D141" s="37"/>
@@ -4563,65 +4616,65 @@
       <c r="N141" s="54"/>
     </row>
     <row r="142" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="67">
-        <v>26</v>
-      </c>
-      <c r="B142" s="2">
-        <v>41757</v>
-      </c>
-      <c r="C142" s="44"/>
-      <c r="D142" s="44"/>
-      <c r="E142" s="44"/>
-      <c r="F142" s="44"/>
-      <c r="G142" s="44"/>
-      <c r="H142" s="44"/>
-      <c r="I142" s="44"/>
-      <c r="J142" s="44"/>
+      <c r="A142" s="94"/>
+      <c r="B142" s="9">
+        <v>41752</v>
+      </c>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="37"/>
+      <c r="F142" s="37"/>
+      <c r="G142" s="37"/>
+      <c r="H142" s="37"/>
+      <c r="I142" s="37"/>
+      <c r="J142" s="37"/>
       <c r="K142" s="54"/>
       <c r="L142" s="54"/>
       <c r="M142" s="54"/>
       <c r="N142" s="54"/>
     </row>
     <row r="143" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="67"/>
-      <c r="B143" s="2">
-        <v>41758</v>
-      </c>
-      <c r="C143" s="44"/>
-      <c r="D143" s="44"/>
-      <c r="E143" s="44"/>
-      <c r="F143" s="44"/>
-      <c r="G143" s="44"/>
-      <c r="H143" s="44"/>
-      <c r="I143" s="44"/>
-      <c r="J143" s="44"/>
+      <c r="A143" s="94"/>
+      <c r="B143" s="9">
+        <v>41753</v>
+      </c>
+      <c r="C143" s="37"/>
+      <c r="D143" s="37"/>
+      <c r="E143" s="37"/>
+      <c r="F143" s="37"/>
+      <c r="G143" s="37"/>
+      <c r="H143" s="37"/>
+      <c r="I143" s="37"/>
+      <c r="J143" s="37"/>
       <c r="K143" s="54"/>
       <c r="L143" s="54"/>
       <c r="M143" s="54"/>
       <c r="N143" s="54"/>
     </row>
     <row r="144" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="67"/>
-      <c r="B144" s="2">
-        <v>41759</v>
-      </c>
-      <c r="C144" s="44"/>
-      <c r="D144" s="44"/>
-      <c r="E144" s="44"/>
-      <c r="F144" s="44"/>
-      <c r="G144" s="44"/>
-      <c r="H144" s="44"/>
-      <c r="I144" s="44"/>
-      <c r="J144" s="44"/>
+      <c r="A144" s="94"/>
+      <c r="B144" s="9">
+        <v>41754</v>
+      </c>
+      <c r="C144" s="37"/>
+      <c r="D144" s="37"/>
+      <c r="E144" s="37"/>
+      <c r="F144" s="37"/>
+      <c r="G144" s="37"/>
+      <c r="H144" s="37"/>
+      <c r="I144" s="37"/>
+      <c r="J144" s="37"/>
       <c r="K144" s="54"/>
       <c r="L144" s="54"/>
       <c r="M144" s="54"/>
       <c r="N144" s="54"/>
     </row>
     <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="67"/>
+      <c r="A145" s="95">
+        <v>26</v>
+      </c>
       <c r="B145" s="2">
-        <v>41760</v>
+        <v>41757</v>
       </c>
       <c r="C145" s="44"/>
       <c r="D145" s="44"/>
@@ -4637,9 +4690,9 @@
       <c r="N145" s="54"/>
     </row>
     <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="67"/>
+      <c r="A146" s="95"/>
       <c r="B146" s="2">
-        <v>41761</v>
+        <v>41758</v>
       </c>
       <c r="C146" s="44"/>
       <c r="D146" s="44"/>
@@ -4655,65 +4708,65 @@
       <c r="N146" s="54"/>
     </row>
     <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="64">
-        <v>27</v>
-      </c>
-      <c r="B147" s="9">
-        <v>41764</v>
-      </c>
-      <c r="C147" s="37"/>
-      <c r="D147" s="37"/>
-      <c r="E147" s="37"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="37"/>
-      <c r="H147" s="37"/>
-      <c r="I147" s="37"/>
-      <c r="J147" s="37"/>
+      <c r="A147" s="95"/>
+      <c r="B147" s="2">
+        <v>41759</v>
+      </c>
+      <c r="C147" s="44"/>
+      <c r="D147" s="44"/>
+      <c r="E147" s="44"/>
+      <c r="F147" s="44"/>
+      <c r="G147" s="44"/>
+      <c r="H147" s="44"/>
+      <c r="I147" s="44"/>
+      <c r="J147" s="44"/>
       <c r="K147" s="54"/>
       <c r="L147" s="54"/>
       <c r="M147" s="54"/>
       <c r="N147" s="54"/>
     </row>
     <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="64"/>
-      <c r="B148" s="9">
-        <v>41765</v>
-      </c>
-      <c r="C148" s="37"/>
-      <c r="D148" s="37"/>
-      <c r="E148" s="37"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="37"/>
-      <c r="H148" s="37"/>
-      <c r="I148" s="37"/>
-      <c r="J148" s="37"/>
+      <c r="A148" s="95"/>
+      <c r="B148" s="2">
+        <v>41760</v>
+      </c>
+      <c r="C148" s="44"/>
+      <c r="D148" s="44"/>
+      <c r="E148" s="44"/>
+      <c r="F148" s="44"/>
+      <c r="G148" s="44"/>
+      <c r="H148" s="44"/>
+      <c r="I148" s="44"/>
+      <c r="J148" s="44"/>
       <c r="K148" s="54"/>
       <c r="L148" s="54"/>
       <c r="M148" s="54"/>
       <c r="N148" s="54"/>
     </row>
     <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="64"/>
-      <c r="B149" s="9">
-        <v>41766</v>
-      </c>
-      <c r="C149" s="37"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
-      <c r="F149" s="37"/>
-      <c r="G149" s="37"/>
-      <c r="H149" s="37"/>
-      <c r="I149" s="37"/>
-      <c r="J149" s="37"/>
+      <c r="A149" s="95"/>
+      <c r="B149" s="2">
+        <v>41761</v>
+      </c>
+      <c r="C149" s="44"/>
+      <c r="D149" s="44"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="44"/>
+      <c r="G149" s="44"/>
+      <c r="H149" s="44"/>
+      <c r="I149" s="44"/>
+      <c r="J149" s="44"/>
       <c r="K149" s="54"/>
       <c r="L149" s="54"/>
       <c r="M149" s="54"/>
       <c r="N149" s="54"/>
     </row>
     <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="64"/>
+      <c r="A150" s="94">
+        <v>27</v>
+      </c>
       <c r="B150" s="9">
-        <v>41767</v>
+        <v>41764</v>
       </c>
       <c r="C150" s="37"/>
       <c r="D150" s="37"/>
@@ -4729,9 +4782,9 @@
       <c r="N150" s="54"/>
     </row>
     <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="64"/>
+      <c r="A151" s="94"/>
       <c r="B151" s="9">
-        <v>41768</v>
+        <v>41765</v>
       </c>
       <c r="C151" s="37"/>
       <c r="D151" s="37"/>
@@ -4747,65 +4800,65 @@
       <c r="N151" s="54"/>
     </row>
     <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="67">
-        <v>28</v>
-      </c>
-      <c r="B152" s="2">
-        <v>41771</v>
-      </c>
-      <c r="C152" s="44"/>
-      <c r="D152" s="44"/>
-      <c r="E152" s="44"/>
-      <c r="F152" s="44"/>
-      <c r="G152" s="44"/>
-      <c r="H152" s="44"/>
-      <c r="I152" s="44"/>
-      <c r="J152" s="44"/>
+      <c r="A152" s="94"/>
+      <c r="B152" s="9">
+        <v>41766</v>
+      </c>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="37"/>
+      <c r="F152" s="37"/>
+      <c r="G152" s="37"/>
+      <c r="H152" s="37"/>
+      <c r="I152" s="37"/>
+      <c r="J152" s="37"/>
       <c r="K152" s="54"/>
       <c r="L152" s="54"/>
       <c r="M152" s="54"/>
       <c r="N152" s="54"/>
     </row>
     <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="67"/>
-      <c r="B153" s="2">
-        <v>41772</v>
-      </c>
-      <c r="C153" s="44"/>
-      <c r="D153" s="44"/>
-      <c r="E153" s="44"/>
-      <c r="F153" s="44"/>
-      <c r="G153" s="44"/>
-      <c r="H153" s="44"/>
-      <c r="I153" s="44"/>
-      <c r="J153" s="44"/>
+      <c r="A153" s="94"/>
+      <c r="B153" s="9">
+        <v>41767</v>
+      </c>
+      <c r="C153" s="37"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="37"/>
+      <c r="F153" s="37"/>
+      <c r="G153" s="37"/>
+      <c r="H153" s="37"/>
+      <c r="I153" s="37"/>
+      <c r="J153" s="37"/>
       <c r="K153" s="54"/>
       <c r="L153" s="54"/>
       <c r="M153" s="54"/>
       <c r="N153" s="54"/>
     </row>
     <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="67"/>
-      <c r="B154" s="2">
-        <v>41773</v>
-      </c>
-      <c r="C154" s="44"/>
-      <c r="D154" s="44"/>
-      <c r="E154" s="44"/>
-      <c r="F154" s="44"/>
-      <c r="G154" s="44"/>
-      <c r="H154" s="44"/>
-      <c r="I154" s="44"/>
-      <c r="J154" s="44"/>
+      <c r="A154" s="94"/>
+      <c r="B154" s="9">
+        <v>41768</v>
+      </c>
+      <c r="C154" s="37"/>
+      <c r="D154" s="37"/>
+      <c r="E154" s="37"/>
+      <c r="F154" s="37"/>
+      <c r="G154" s="37"/>
+      <c r="H154" s="37"/>
+      <c r="I154" s="37"/>
+      <c r="J154" s="37"/>
       <c r="K154" s="54"/>
       <c r="L154" s="54"/>
       <c r="M154" s="54"/>
       <c r="N154" s="54"/>
     </row>
     <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="67"/>
+      <c r="A155" s="95">
+        <v>28</v>
+      </c>
       <c r="B155" s="2">
-        <v>41774</v>
+        <v>41771</v>
       </c>
       <c r="C155" s="44"/>
       <c r="D155" s="44"/>
@@ -4821,9 +4874,9 @@
       <c r="N155" s="54"/>
     </row>
     <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="67"/>
+      <c r="A156" s="95"/>
       <c r="B156" s="2">
-        <v>41775</v>
+        <v>41772</v>
       </c>
       <c r="C156" s="44"/>
       <c r="D156" s="44"/>
@@ -4839,65 +4892,65 @@
       <c r="N156" s="54"/>
     </row>
     <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="64">
-        <v>29</v>
-      </c>
-      <c r="B157" s="9">
-        <v>41778</v>
-      </c>
-      <c r="C157" s="37"/>
-      <c r="D157" s="37"/>
-      <c r="E157" s="37"/>
-      <c r="F157" s="37"/>
-      <c r="G157" s="37"/>
-      <c r="H157" s="37"/>
-      <c r="I157" s="37"/>
-      <c r="J157" s="37"/>
+      <c r="A157" s="95"/>
+      <c r="B157" s="2">
+        <v>41773</v>
+      </c>
+      <c r="C157" s="44"/>
+      <c r="D157" s="44"/>
+      <c r="E157" s="44"/>
+      <c r="F157" s="44"/>
+      <c r="G157" s="44"/>
+      <c r="H157" s="44"/>
+      <c r="I157" s="44"/>
+      <c r="J157" s="44"/>
       <c r="K157" s="54"/>
       <c r="L157" s="54"/>
       <c r="M157" s="54"/>
       <c r="N157" s="54"/>
     </row>
     <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="64"/>
-      <c r="B158" s="9">
-        <v>41779</v>
-      </c>
-      <c r="C158" s="37"/>
-      <c r="D158" s="37"/>
-      <c r="E158" s="37"/>
-      <c r="F158" s="37"/>
-      <c r="G158" s="37"/>
-      <c r="H158" s="37"/>
-      <c r="I158" s="37"/>
-      <c r="J158" s="37"/>
+      <c r="A158" s="95"/>
+      <c r="B158" s="2">
+        <v>41774</v>
+      </c>
+      <c r="C158" s="44"/>
+      <c r="D158" s="44"/>
+      <c r="E158" s="44"/>
+      <c r="F158" s="44"/>
+      <c r="G158" s="44"/>
+      <c r="H158" s="44"/>
+      <c r="I158" s="44"/>
+      <c r="J158" s="44"/>
       <c r="K158" s="54"/>
       <c r="L158" s="54"/>
       <c r="M158" s="54"/>
       <c r="N158" s="54"/>
     </row>
     <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="64"/>
-      <c r="B159" s="9">
-        <v>41780</v>
-      </c>
-      <c r="C159" s="37"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
-      <c r="F159" s="37"/>
-      <c r="G159" s="37"/>
-      <c r="H159" s="37"/>
-      <c r="I159" s="37"/>
-      <c r="J159" s="37"/>
+      <c r="A159" s="95"/>
+      <c r="B159" s="2">
+        <v>41775</v>
+      </c>
+      <c r="C159" s="44"/>
+      <c r="D159" s="44"/>
+      <c r="E159" s="44"/>
+      <c r="F159" s="44"/>
+      <c r="G159" s="44"/>
+      <c r="H159" s="44"/>
+      <c r="I159" s="44"/>
+      <c r="J159" s="44"/>
       <c r="K159" s="54"/>
       <c r="L159" s="54"/>
       <c r="M159" s="54"/>
       <c r="N159" s="54"/>
     </row>
     <row r="160" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="64"/>
+      <c r="A160" s="94">
+        <v>29</v>
+      </c>
       <c r="B160" s="9">
-        <v>41781</v>
+        <v>41778</v>
       </c>
       <c r="C160" s="37"/>
       <c r="D160" s="37"/>
@@ -4913,9 +4966,9 @@
       <c r="N160" s="54"/>
     </row>
     <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="64"/>
+      <c r="A161" s="94"/>
       <c r="B161" s="9">
-        <v>41782</v>
+        <v>41779</v>
       </c>
       <c r="C161" s="37"/>
       <c r="D161" s="37"/>
@@ -4931,65 +4984,65 @@
       <c r="N161" s="54"/>
     </row>
     <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="68">
-        <v>30</v>
-      </c>
-      <c r="B162" s="2">
-        <v>41785</v>
-      </c>
-      <c r="C162" s="40"/>
-      <c r="D162" s="40"/>
-      <c r="E162" s="40"/>
-      <c r="F162" s="40"/>
-      <c r="G162" s="40"/>
-      <c r="H162" s="40"/>
-      <c r="I162" s="40"/>
-      <c r="J162" s="40"/>
+      <c r="A162" s="94"/>
+      <c r="B162" s="9">
+        <v>41780</v>
+      </c>
+      <c r="C162" s="37"/>
+      <c r="D162" s="37"/>
+      <c r="E162" s="37"/>
+      <c r="F162" s="37"/>
+      <c r="G162" s="37"/>
+      <c r="H162" s="37"/>
+      <c r="I162" s="37"/>
+      <c r="J162" s="37"/>
       <c r="K162" s="54"/>
       <c r="L162" s="54"/>
       <c r="M162" s="54"/>
       <c r="N162" s="54"/>
     </row>
     <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="68"/>
-      <c r="B163" s="2">
-        <v>41786</v>
-      </c>
-      <c r="C163" s="40"/>
-      <c r="D163" s="40"/>
-      <c r="E163" s="40"/>
-      <c r="F163" s="40"/>
-      <c r="G163" s="40"/>
-      <c r="H163" s="40"/>
-      <c r="I163" s="40"/>
-      <c r="J163" s="40"/>
+      <c r="A163" s="94"/>
+      <c r="B163" s="9">
+        <v>41781</v>
+      </c>
+      <c r="C163" s="37"/>
+      <c r="D163" s="37"/>
+      <c r="E163" s="37"/>
+      <c r="F163" s="37"/>
+      <c r="G163" s="37"/>
+      <c r="H163" s="37"/>
+      <c r="I163" s="37"/>
+      <c r="J163" s="37"/>
       <c r="K163" s="54"/>
       <c r="L163" s="54"/>
       <c r="M163" s="54"/>
       <c r="N163" s="54"/>
     </row>
     <row r="164" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="68"/>
-      <c r="B164" s="2">
-        <v>41787</v>
-      </c>
-      <c r="C164" s="40"/>
-      <c r="D164" s="40"/>
-      <c r="E164" s="40"/>
-      <c r="F164" s="40"/>
-      <c r="G164" s="40"/>
-      <c r="H164" s="40"/>
-      <c r="I164" s="40"/>
-      <c r="J164" s="40"/>
+      <c r="A164" s="94"/>
+      <c r="B164" s="9">
+        <v>41782</v>
+      </c>
+      <c r="C164" s="37"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
+      <c r="F164" s="37"/>
+      <c r="G164" s="37"/>
+      <c r="H164" s="37"/>
+      <c r="I164" s="37"/>
+      <c r="J164" s="37"/>
       <c r="K164" s="54"/>
       <c r="L164" s="54"/>
       <c r="M164" s="54"/>
       <c r="N164" s="54"/>
     </row>
     <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="68"/>
+      <c r="A165" s="98">
+        <v>30</v>
+      </c>
       <c r="B165" s="2">
-        <v>41788</v>
+        <v>41785</v>
       </c>
       <c r="C165" s="40"/>
       <c r="D165" s="40"/>
@@ -5005,9 +5058,9 @@
       <c r="N165" s="54"/>
     </row>
     <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="68"/>
+      <c r="A166" s="98"/>
       <c r="B166" s="2">
-        <v>41789</v>
+        <v>41786</v>
       </c>
       <c r="C166" s="40"/>
       <c r="D166" s="40"/>
@@ -5023,63 +5076,63 @@
       <c r="N166" s="54"/>
     </row>
     <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="68"/>
-      <c r="B167" s="10">
-        <v>41790</v>
-      </c>
-      <c r="C167" s="54"/>
-      <c r="D167" s="54"/>
-      <c r="E167" s="54"/>
-      <c r="F167" s="54"/>
-      <c r="G167" s="54"/>
-      <c r="H167" s="54"/>
-      <c r="I167" s="54"/>
-      <c r="J167" s="54"/>
+      <c r="A167" s="98"/>
+      <c r="B167" s="2">
+        <v>41787</v>
+      </c>
+      <c r="C167" s="40"/>
+      <c r="D167" s="40"/>
+      <c r="E167" s="40"/>
+      <c r="F167" s="40"/>
+      <c r="G167" s="40"/>
+      <c r="H167" s="40"/>
+      <c r="I167" s="40"/>
+      <c r="J167" s="40"/>
       <c r="K167" s="54"/>
       <c r="L167" s="54"/>
       <c r="M167" s="54"/>
       <c r="N167" s="54"/>
     </row>
     <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="55"/>
+      <c r="A168" s="98"/>
       <c r="B168" s="2">
-        <v>41791</v>
-      </c>
-      <c r="C168" s="54"/>
-      <c r="D168" s="54"/>
-      <c r="E168" s="54"/>
-      <c r="F168" s="54"/>
-      <c r="G168" s="54"/>
-      <c r="H168" s="54"/>
-      <c r="I168" s="54"/>
-      <c r="J168" s="54"/>
+        <v>41788</v>
+      </c>
+      <c r="C168" s="40"/>
+      <c r="D168" s="40"/>
+      <c r="E168" s="40"/>
+      <c r="F168" s="40"/>
+      <c r="G168" s="40"/>
+      <c r="H168" s="40"/>
+      <c r="I168" s="40"/>
+      <c r="J168" s="40"/>
       <c r="K168" s="54"/>
       <c r="L168" s="54"/>
       <c r="M168" s="54"/>
       <c r="N168" s="54"/>
     </row>
     <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="54"/>
+      <c r="A169" s="98"/>
       <c r="B169" s="2">
-        <v>41792</v>
-      </c>
-      <c r="C169" s="54"/>
-      <c r="D169" s="54"/>
-      <c r="E169" s="54"/>
-      <c r="F169" s="54"/>
-      <c r="G169" s="54"/>
-      <c r="H169" s="54"/>
-      <c r="I169" s="54"/>
-      <c r="J169" s="54"/>
+        <v>41789</v>
+      </c>
+      <c r="C169" s="40"/>
+      <c r="D169" s="40"/>
+      <c r="E169" s="40"/>
+      <c r="F169" s="40"/>
+      <c r="G169" s="40"/>
+      <c r="H169" s="40"/>
+      <c r="I169" s="40"/>
+      <c r="J169" s="40"/>
       <c r="K169" s="54"/>
       <c r="L169" s="54"/>
       <c r="M169" s="54"/>
       <c r="N169" s="54"/>
     </row>
     <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="54"/>
-      <c r="B170" s="2">
-        <v>41793</v>
+      <c r="A170" s="98"/>
+      <c r="B170" s="10">
+        <v>41790</v>
       </c>
       <c r="C170" s="54"/>
       <c r="D170" s="54"/>
@@ -5095,9 +5148,9 @@
       <c r="N170" s="54"/>
     </row>
     <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="54"/>
+      <c r="A171" s="55"/>
       <c r="B171" s="2">
-        <v>41794</v>
+        <v>41791</v>
       </c>
       <c r="C171" s="54"/>
       <c r="D171" s="54"/>
@@ -5115,7 +5168,7 @@
     <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A172" s="54"/>
       <c r="B172" s="2">
-        <v>41795</v>
+        <v>41792</v>
       </c>
       <c r="C172" s="54"/>
       <c r="D172" s="54"/>
@@ -5133,7 +5186,7 @@
     <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A173" s="54"/>
       <c r="B173" s="2">
-        <v>41796</v>
+        <v>41793</v>
       </c>
       <c r="C173" s="54"/>
       <c r="D173" s="54"/>
@@ -5151,7 +5204,7 @@
     <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A174" s="54"/>
       <c r="B174" s="2">
-        <v>41797</v>
+        <v>41794</v>
       </c>
       <c r="C174" s="54"/>
       <c r="D174" s="54"/>
@@ -5169,7 +5222,7 @@
     <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" s="54"/>
       <c r="B175" s="2">
-        <v>41798</v>
+        <v>41795</v>
       </c>
       <c r="C175" s="54"/>
       <c r="D175" s="54"/>
@@ -5187,7 +5240,7 @@
     <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A176" s="54"/>
       <c r="B176" s="2">
-        <v>41799</v>
+        <v>41796</v>
       </c>
       <c r="C176" s="54"/>
       <c r="D176" s="54"/>
@@ -5205,7 +5258,7 @@
     <row r="177" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A177" s="54"/>
       <c r="B177" s="2">
-        <v>41800</v>
+        <v>41797</v>
       </c>
       <c r="C177" s="54"/>
       <c r="D177" s="54"/>
@@ -5223,7 +5276,7 @@
     <row r="178" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A178" s="54"/>
       <c r="B178" s="2">
-        <v>41801</v>
+        <v>41798</v>
       </c>
       <c r="C178" s="54"/>
       <c r="D178" s="54"/>
@@ -5241,7 +5294,7 @@
     <row r="179" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A179" s="54"/>
       <c r="B179" s="2">
-        <v>41802</v>
+        <v>41799</v>
       </c>
       <c r="C179" s="54"/>
       <c r="D179" s="54"/>
@@ -5259,7 +5312,7 @@
     <row r="180" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" s="54"/>
       <c r="B180" s="2">
-        <v>41803</v>
+        <v>41800</v>
       </c>
       <c r="C180" s="54"/>
       <c r="D180" s="54"/>
@@ -5277,7 +5330,7 @@
     <row r="181" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A181" s="54"/>
       <c r="B181" s="2">
-        <v>41804</v>
+        <v>41801</v>
       </c>
       <c r="C181" s="54"/>
       <c r="D181" s="54"/>
@@ -5295,7 +5348,7 @@
     <row r="182" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A182" s="54"/>
       <c r="B182" s="2">
-        <v>41805</v>
+        <v>41802</v>
       </c>
       <c r="C182" s="54"/>
       <c r="D182" s="54"/>
@@ -5313,7 +5366,7 @@
     <row r="183" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" s="54"/>
       <c r="B183" s="2">
-        <v>41806</v>
+        <v>41803</v>
       </c>
       <c r="C183" s="54"/>
       <c r="D183" s="54"/>
@@ -5331,7 +5384,7 @@
     <row r="184" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" s="54"/>
       <c r="B184" s="2">
-        <v>41807</v>
+        <v>41804</v>
       </c>
       <c r="C184" s="54"/>
       <c r="D184" s="54"/>
@@ -5349,7 +5402,7 @@
     <row r="185" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="54"/>
       <c r="B185" s="2">
-        <v>41808</v>
+        <v>41805</v>
       </c>
       <c r="C185" s="54"/>
       <c r="D185" s="54"/>
@@ -5367,7 +5420,7 @@
     <row r="186" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="54"/>
       <c r="B186" s="2">
-        <v>41809</v>
+        <v>41806</v>
       </c>
       <c r="C186" s="54"/>
       <c r="D186" s="54"/>
@@ -5385,7 +5438,7 @@
     <row r="187" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="54"/>
       <c r="B187" s="2">
-        <v>41810</v>
+        <v>41807</v>
       </c>
       <c r="C187" s="54"/>
       <c r="D187" s="54"/>
@@ -5403,7 +5456,7 @@
     <row r="188" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="54"/>
       <c r="B188" s="2">
-        <v>41811</v>
+        <v>41808</v>
       </c>
       <c r="C188" s="54"/>
       <c r="D188" s="54"/>
@@ -5421,7 +5474,7 @@
     <row r="189" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="54"/>
       <c r="B189" s="2">
-        <v>41812</v>
+        <v>41809</v>
       </c>
       <c r="C189" s="54"/>
       <c r="D189" s="54"/>
@@ -5439,7 +5492,7 @@
     <row r="190" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="54"/>
       <c r="B190" s="2">
-        <v>41813</v>
+        <v>41810</v>
       </c>
       <c r="C190" s="54"/>
       <c r="D190" s="54"/>
@@ -5457,7 +5510,7 @@
     <row r="191" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="54"/>
       <c r="B191" s="2">
-        <v>41814</v>
+        <v>41811</v>
       </c>
       <c r="C191" s="54"/>
       <c r="D191" s="54"/>
@@ -5475,7 +5528,7 @@
     <row r="192" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" s="54"/>
       <c r="B192" s="2">
-        <v>41815</v>
+        <v>41812</v>
       </c>
       <c r="C192" s="54"/>
       <c r="D192" s="54"/>
@@ -5493,7 +5546,7 @@
     <row r="193" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" s="54"/>
       <c r="B193" s="2">
-        <v>41816</v>
+        <v>41813</v>
       </c>
       <c r="C193" s="54"/>
       <c r="D193" s="54"/>
@@ -5511,7 +5564,7 @@
     <row r="194" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="54"/>
       <c r="B194" s="2">
-        <v>41817</v>
+        <v>41814</v>
       </c>
       <c r="C194" s="54"/>
       <c r="D194" s="54"/>
@@ -5529,7 +5582,7 @@
     <row r="195" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="54"/>
       <c r="B195" s="2">
-        <v>41818</v>
+        <v>41815</v>
       </c>
       <c r="C195" s="54"/>
       <c r="D195" s="54"/>
@@ -5547,7 +5600,7 @@
     <row r="196" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="54"/>
       <c r="B196" s="2">
-        <v>41819</v>
+        <v>41816</v>
       </c>
       <c r="C196" s="54"/>
       <c r="D196" s="54"/>
@@ -5565,7 +5618,7 @@
     <row r="197" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="54"/>
       <c r="B197" s="2">
-        <v>41820</v>
+        <v>41817</v>
       </c>
       <c r="C197" s="54"/>
       <c r="D197" s="54"/>
@@ -5583,7 +5636,7 @@
     <row r="198" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="54"/>
       <c r="B198" s="2">
-        <v>41821</v>
+        <v>41818</v>
       </c>
       <c r="C198" s="54"/>
       <c r="D198" s="54"/>
@@ -5601,7 +5654,7 @@
     <row r="199" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" s="54"/>
       <c r="B199" s="2">
-        <v>41822</v>
+        <v>41819</v>
       </c>
       <c r="C199" s="54"/>
       <c r="D199" s="54"/>
@@ -5615,7 +5668,7 @@
     <row r="200" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="54"/>
       <c r="B200" s="2">
-        <v>41823</v>
+        <v>41820</v>
       </c>
       <c r="C200" s="54"/>
       <c r="D200" s="54"/>
@@ -5629,7 +5682,7 @@
     <row r="201" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="54"/>
       <c r="B201" s="2">
-        <v>41824</v>
+        <v>41821</v>
       </c>
       <c r="C201" s="54"/>
       <c r="D201" s="54"/>
@@ -5640,13 +5693,84 @@
       <c r="I201" s="54"/>
       <c r="J201" s="54"/>
     </row>
+    <row r="202" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="54"/>
+      <c r="B202" s="2">
+        <v>41822</v>
+      </c>
+      <c r="C202" s="54"/>
+      <c r="D202" s="54"/>
+      <c r="E202" s="54"/>
+      <c r="F202" s="54"/>
+      <c r="G202" s="54"/>
+      <c r="H202" s="54"/>
+      <c r="I202" s="54"/>
+      <c r="J202" s="54"/>
+    </row>
+    <row r="203" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A203" s="54"/>
+      <c r="B203" s="2">
+        <v>41823</v>
+      </c>
+      <c r="C203" s="54"/>
+      <c r="D203" s="54"/>
+      <c r="E203" s="54"/>
+      <c r="F203" s="54"/>
+      <c r="G203" s="54"/>
+      <c r="H203" s="54"/>
+      <c r="I203" s="54"/>
+      <c r="J203" s="54"/>
+    </row>
+    <row r="204" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A204" s="54"/>
+      <c r="B204" s="2">
+        <v>41824</v>
+      </c>
+      <c r="C204" s="54"/>
+      <c r="D204" s="54"/>
+      <c r="E204" s="54"/>
+      <c r="F204" s="54"/>
+      <c r="G204" s="54"/>
+      <c r="H204" s="54"/>
+      <c r="I204" s="54"/>
+      <c r="J204" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F23:F28"/>
+  <mergeCells count="46">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A155:A159"/>
+    <mergeCell ref="A160:A164"/>
+    <mergeCell ref="A165:A170"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A130:A134"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A120:A124"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="A110:A114"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A18:A31"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
@@ -5654,38 +5778,11 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A18:A31"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="A162:A167"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F23:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -5693,7 +5790,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{4014B23A-9A92-4C0A-84AA-38D1DDC243A5}">
+          <x14:cfRule type="iconSet" priority="16" id="{4014B23A-9A92-4C0A-84AA-38D1DDC243A5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5712,7 +5809,7 @@
           <xm:sqref>F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{06A2D883-25A5-47A0-9E42-1356F547AC95}">
+          <x14:cfRule type="iconSet" priority="15" id="{06A2D883-25A5-47A0-9E42-1356F547AC95}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5731,7 +5828,7 @@
           <xm:sqref>F7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{F0155C6B-E81B-4907-9A36-C4DCA4908A78}">
+          <x14:cfRule type="iconSet" priority="14" id="{F0155C6B-E81B-4907-9A36-C4DCA4908A78}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5750,7 +5847,7 @@
           <xm:sqref>F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{B227CB59-278E-4A9D-98EB-7894CC307006}">
+          <x14:cfRule type="iconSet" priority="13" id="{B227CB59-278E-4A9D-98EB-7894CC307006}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5769,7 +5866,7 @@
           <xm:sqref>F13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{4FD1D166-C211-4511-AC07-D417ED483D0B}">
+          <x14:cfRule type="iconSet" priority="12" id="{4FD1D166-C211-4511-AC07-D417ED483D0B}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5788,7 +5885,7 @@
           <xm:sqref>F15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{8ED16EE5-9A95-4A55-8A04-0D8356EDEB0F}">
+          <x14:cfRule type="iconSet" priority="11" id="{8ED16EE5-9A95-4A55-8A04-0D8356EDEB0F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5807,7 +5904,7 @@
           <xm:sqref>F16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{00B9764F-B5E5-41A8-9F73-CE8C6FDA6D14}">
+          <x14:cfRule type="iconSet" priority="10" id="{00B9764F-B5E5-41A8-9F73-CE8C6FDA6D14}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5826,7 +5923,7 @@
           <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{D256993F-A47B-4EA7-86F9-CCDBFB57FDF7}">
+          <x14:cfRule type="iconSet" priority="9" id="{D256993F-A47B-4EA7-86F9-CCDBFB57FDF7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5845,7 +5942,7 @@
           <xm:sqref>F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{D41896BE-84C3-40A6-BA74-3E16B3A102FC}">
+          <x14:cfRule type="iconSet" priority="8" id="{D41896BE-84C3-40A6-BA74-3E16B3A102FC}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5864,7 +5961,7 @@
           <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{CFF9B7E8-896C-4401-A02A-3BD376BFEA70}">
+          <x14:cfRule type="iconSet" priority="7" id="{CFF9B7E8-896C-4401-A02A-3BD376BFEA70}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5883,7 +5980,7 @@
           <xm:sqref>F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{5C24DFB2-DBCA-41B9-8745-C2D5AB086724}">
+          <x14:cfRule type="iconSet" priority="6" id="{5C24DFB2-DBCA-41B9-8745-C2D5AB086724}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5902,7 +5999,7 @@
           <xm:sqref>F19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{883D7404-1110-4331-92AF-9AC0C5174910}">
+          <x14:cfRule type="iconSet" priority="5" id="{883D7404-1110-4331-92AF-9AC0C5174910}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5921,7 +6018,7 @@
           <xm:sqref>F23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{0DC21843-99CC-4844-8211-8B5CBDE1D20E}">
+          <x14:cfRule type="iconSet" priority="3" id="{0DC21843-99CC-4844-8211-8B5CBDE1D20E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5939,6 +6036,44 @@
           </x14:cfRule>
           <xm:sqref>F29</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{E009B2CC-5658-4E63-B7A4-30A20613C5F8}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{0177AC9F-6321-4526-94F0-85D67025A301}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F34</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="133">
   <si>
     <t>Week</t>
   </si>
@@ -424,6 +424,40 @@
   <si>
     <t>Define table that show description of phase 3 ACDM, inculde Name Steps, image of Process, description 
 Write Meeting Minutes</t>
+  </si>
+  <si>
+    <t>4:00PM</t>
+  </si>
+  <si>
+    <t>Update Architecture Plan</t>
+  </si>
+  <si>
+    <t>Report content that team will do it on the week before</t>
+  </si>
+  <si>
+    <t>2:45PM</t>
+  </si>
+  <si>
+    <t>Overview RE phase, divide module for each member to reaserch and give question for this module that members is assigned</t>
+  </si>
+  <si>
+    <t>Brainstroming and give question that related to module Question &amp; Anwser</t>
+  </si>
+  <si>
+    <t>3:50PM</t>
+  </si>
+  <si>
+    <t>Discuss about question that is used to ask customer in each module
+Discuss Scrum model with Mrs.Hong</t>
+  </si>
+  <si>
+    <t>11:90PM</t>
+  </si>
+  <si>
+    <t>Write meeting minustes</t>
+  </si>
+  <si>
+    <t>12:30PM</t>
   </si>
 </sst>
 </file>
@@ -756,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -903,131 +937,155 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1424,13 +1482,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N204"/>
+  <dimension ref="A1:N207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="6" topLeftCell="J16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1452,82 +1510,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="70"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="78"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="71" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="73"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="81"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="76"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="84"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="79"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="87"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
       <c r="G5" s="32"/>
       <c r="H5" s="58" t="s">
         <v>112</v>
@@ -1572,10 +1630,10 @@
       <c r="J6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -1603,20 +1661,20 @@
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="86" t="s">
+      <c r="K7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="86"/>
+      <c r="L7" s="94"/>
       <c r="M7" s="38">
         <f>SUM(M8:M37)</f>
-        <v>48.6</v>
+        <v>59.18</v>
       </c>
       <c r="N7" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="91">
+      <c r="A8" s="69">
         <v>2</v>
       </c>
       <c r="B8" s="2">
@@ -1631,7 +1689,7 @@
       <c r="E8" s="13">
         <v>1.5</v>
       </c>
-      <c r="F8" s="60">
+      <c r="F8" s="99">
         <f>SUM(E8:E9)</f>
         <v>3</v>
       </c>
@@ -1656,7 +1714,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="92"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="2">
         <v>41589</v>
       </c>
@@ -1669,7 +1727,7 @@
       <c r="E9" s="13">
         <v>1.5</v>
       </c>
-      <c r="F9" s="61"/>
+      <c r="F9" s="100"/>
       <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1691,7 +1749,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="2">
         <v>41590</v>
       </c>
@@ -1704,7 +1762,7 @@
       <c r="E10" s="13">
         <v>2</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="99">
         <f>SUM(E10:E11)</f>
         <v>4</v>
       </c>
@@ -1729,7 +1787,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="2">
         <v>41590</v>
       </c>
@@ -1742,7 +1800,7 @@
       <c r="E11" s="13">
         <v>2</v>
       </c>
-      <c r="F11" s="61"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1756,15 +1814,15 @@
       </c>
       <c r="L11" s="44"/>
       <c r="M11" s="45">
-        <f>SUM(F35:F39)</f>
-        <v>0</v>
+        <f>SUM(F35:F42)</f>
+        <v>10.58</v>
       </c>
       <c r="N11" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="2">
         <v>41591</v>
       </c>
@@ -1794,7 +1852,7 @@
       </c>
       <c r="L12" s="44"/>
       <c r="M12" s="45">
-        <f>SUM(F40:F44)</f>
+        <f>SUM(F43:F47)</f>
         <v>0</v>
       </c>
       <c r="N12" s="39" t="s">
@@ -1802,7 +1860,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="92"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="2">
         <v>41592</v>
       </c>
@@ -1815,7 +1873,7 @@
       <c r="E13" s="13">
         <v>1</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="99">
         <f>SUM(E13:E14)</f>
         <v>2.25</v>
       </c>
@@ -1832,7 +1890,7 @@
       </c>
       <c r="L13" s="44"/>
       <c r="M13" s="45">
-        <f>SUM(F45:F49)</f>
+        <f>SUM(F48:F52)</f>
         <v>0</v>
       </c>
       <c r="N13" s="39" t="s">
@@ -1840,7 +1898,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="2">
         <v>41592</v>
       </c>
@@ -1853,7 +1911,7 @@
       <c r="E14" s="13">
         <v>1.25</v>
       </c>
-      <c r="F14" s="61"/>
+      <c r="F14" s="100"/>
       <c r="G14" s="21" t="s">
         <v>28</v>
       </c>
@@ -1867,7 +1925,7 @@
       </c>
       <c r="L14" s="44"/>
       <c r="M14" s="45">
-        <f>SUM(F50:F54)</f>
+        <f>SUM(F53:F57)</f>
         <v>0</v>
       </c>
       <c r="N14" s="39" t="s">
@@ -1875,7 +1933,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="2">
         <v>41593</v>
       </c>
@@ -1905,7 +1963,7 @@
       </c>
       <c r="L15" s="44"/>
       <c r="M15" s="45">
-        <f>SUM(F55:F59)</f>
+        <f>SUM(F58:F62)</f>
         <v>0</v>
       </c>
       <c r="N15" s="39" t="s">
@@ -1913,7 +1971,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="23">
         <v>41594</v>
       </c>
@@ -1943,7 +2001,7 @@
       </c>
       <c r="L16" s="44"/>
       <c r="M16" s="45">
-        <f>SUM(F60:F64)</f>
+        <f>SUM(F63:F67)</f>
         <v>0</v>
       </c>
       <c r="N16" s="39" t="s">
@@ -1951,7 +2009,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="23">
         <v>41595</v>
       </c>
@@ -1981,7 +2039,7 @@
       </c>
       <c r="L17" s="44"/>
       <c r="M17" s="45">
-        <f>SUM(F65:F69)</f>
+        <f>SUM(F68:F72)</f>
         <v>0</v>
       </c>
       <c r="N17" s="39" t="s">
@@ -1989,7 +2047,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="96">
+      <c r="A18" s="72">
         <v>3</v>
       </c>
       <c r="B18" s="9">
@@ -2021,7 +2079,7 @@
       </c>
       <c r="L18" s="44"/>
       <c r="M18" s="45">
-        <f>SUM(F70:F74)</f>
+        <f>SUM(F73:F77)</f>
         <v>0</v>
       </c>
       <c r="N18" s="39" t="s">
@@ -2029,8 +2087,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="99">
+      <c r="A19" s="63"/>
+      <c r="B19" s="60">
         <v>41597</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2042,7 +2100,7 @@
       <c r="E19" s="22">
         <v>1</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="64">
         <f>SUM(E19:E21)</f>
         <v>4.6500000000000004</v>
       </c>
@@ -2059,7 +2117,7 @@
       </c>
       <c r="L19" s="44"/>
       <c r="M19" s="45">
-        <f>SUM(F75:F79)</f>
+        <f>SUM(F78:F82)</f>
         <v>0</v>
       </c>
       <c r="N19" s="39" t="s">
@@ -2067,8 +2125,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="100"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="3" t="s">
         <v>91</v>
       </c>
@@ -2078,7 +2136,7 @@
       <c r="E20" s="22">
         <v>1.5</v>
       </c>
-      <c r="F20" s="63"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="28" t="s">
         <v>27</v>
       </c>
@@ -2094,7 +2152,7 @@
       </c>
       <c r="L20" s="44"/>
       <c r="M20" s="45">
-        <f>SUM(F80:F84)</f>
+        <f>SUM(F83:F87)</f>
         <v>0</v>
       </c>
       <c r="N20" s="39" t="s">
@@ -2102,8 +2160,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
@@ -2113,7 +2171,7 @@
       <c r="E21" s="22">
         <v>2.15</v>
       </c>
-      <c r="F21" s="64"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="28" t="s">
         <v>27</v>
       </c>
@@ -2129,7 +2187,7 @@
       </c>
       <c r="L21" s="44"/>
       <c r="M21" s="45">
-        <f>SUM(F85:F89)</f>
+        <f>SUM(F88:F92)</f>
         <v>0</v>
       </c>
       <c r="N21" s="39" t="s">
@@ -2137,7 +2195,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="9">
         <v>41598</v>
       </c>
@@ -2169,7 +2227,7 @@
       </c>
       <c r="L22" s="44"/>
       <c r="M22" s="45">
-        <f>SUM(F90:F94)</f>
+        <f>SUM(F93:F97)</f>
         <v>0</v>
       </c>
       <c r="N22" s="39" t="s">
@@ -2177,8 +2235,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-      <c r="B23" s="99">
+      <c r="A23" s="63"/>
+      <c r="B23" s="60">
         <v>41599</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2190,7 +2248,7 @@
       <c r="E23" s="22">
         <v>1</v>
       </c>
-      <c r="F23" s="62">
+      <c r="F23" s="64">
         <f>SUM(E23:E28)</f>
         <v>9.65</v>
       </c>
@@ -2209,7 +2267,7 @@
       </c>
       <c r="L23" s="44"/>
       <c r="M23" s="45">
-        <f>SUM(F95:F99)</f>
+        <f>SUM(F98:F102)</f>
         <v>0</v>
       </c>
       <c r="N23" s="39" t="s">
@@ -2217,8 +2275,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="100"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
@@ -2228,7 +2286,7 @@
       <c r="E24" s="22">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F24" s="63"/>
+      <c r="F24" s="65"/>
       <c r="G24" s="29" t="s">
         <v>28</v>
       </c>
@@ -2242,7 +2300,7 @@
       </c>
       <c r="L24" s="44"/>
       <c r="M24" s="45">
-        <f>SUM(F100:F104)</f>
+        <f>SUM(F103:F107)</f>
         <v>0</v>
       </c>
       <c r="N24" s="39" t="s">
@@ -2250,8 +2308,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
-      <c r="B25" s="100"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="3" t="s">
         <v>101</v>
       </c>
@@ -2261,7 +2319,7 @@
       <c r="E25" s="22">
         <v>1.33</v>
       </c>
-      <c r="F25" s="63"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="26" t="s">
         <v>64</v>
       </c>
@@ -2275,7 +2333,7 @@
       </c>
       <c r="L25" s="44"/>
       <c r="M25" s="45">
-        <f>SUM(F105:F109)</f>
+        <f>SUM(F108:F112)</f>
         <v>0</v>
       </c>
       <c r="N25" s="39" t="s">
@@ -2283,8 +2341,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
-      <c r="B26" s="100"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
@@ -2294,7 +2352,7 @@
       <c r="E26" s="22">
         <v>1.5</v>
       </c>
-      <c r="F26" s="63"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="28" t="s">
         <v>27</v>
       </c>
@@ -2308,7 +2366,7 @@
       </c>
       <c r="L26" s="44"/>
       <c r="M26" s="45">
-        <f>SUM(F110:F114)</f>
+        <f>SUM(F113:F117)</f>
         <v>0</v>
       </c>
       <c r="N26" s="39" t="s">
@@ -2316,8 +2374,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="100"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
@@ -2327,7 +2385,7 @@
       <c r="E27" s="22">
         <v>2.16</v>
       </c>
-      <c r="F27" s="63"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="26" t="s">
         <v>64</v>
       </c>
@@ -2341,7 +2399,7 @@
       </c>
       <c r="L27" s="44"/>
       <c r="M27" s="45">
-        <f>SUM(F115:F119)</f>
+        <f>SUM(F118:F122)</f>
         <v>0</v>
       </c>
       <c r="N27" s="39" t="s">
@@ -2349,8 +2407,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="101"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
@@ -2360,7 +2418,7 @@
       <c r="E28" s="22">
         <v>2.5</v>
       </c>
-      <c r="F28" s="64"/>
+      <c r="F28" s="66"/>
       <c r="G28" s="28" t="s">
         <v>27</v>
       </c>
@@ -2376,7 +2434,7 @@
       </c>
       <c r="L28" s="44"/>
       <c r="M28" s="45">
-        <f>SUM(F120:F124)</f>
+        <f>SUM(F123:F127)</f>
         <v>0</v>
       </c>
       <c r="N28" s="39" t="s">
@@ -2384,8 +2442,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
-      <c r="B29" s="99">
+      <c r="A29" s="63"/>
+      <c r="B29" s="60">
         <v>41600</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2397,7 +2455,7 @@
       <c r="E29" s="22">
         <v>1.5</v>
       </c>
-      <c r="F29" s="62">
+      <c r="F29" s="64">
         <f>SUM(E29:E31)</f>
         <v>5.5</v>
       </c>
@@ -2416,7 +2474,7 @@
       </c>
       <c r="L29" s="44"/>
       <c r="M29" s="45">
-        <f>SUM(F125:F129)</f>
+        <f>SUM(F128:F132)</f>
         <v>0</v>
       </c>
       <c r="N29" s="39" t="s">
@@ -2424,8 +2482,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
-      <c r="B30" s="100"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
@@ -2435,7 +2493,7 @@
       <c r="E30" s="22">
         <v>1.5</v>
       </c>
-      <c r="F30" s="63"/>
+      <c r="F30" s="65"/>
       <c r="G30" s="28" t="s">
         <v>27</v>
       </c>
@@ -2451,7 +2509,7 @@
       </c>
       <c r="L30" s="44"/>
       <c r="M30" s="45">
-        <f>SUM(F130:F134)</f>
+        <f>SUM(F133:F137)</f>
         <v>0</v>
       </c>
       <c r="N30" s="39" t="s">
@@ -2459,8 +2517,8 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="97"/>
-      <c r="B31" s="101"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
@@ -2470,7 +2528,7 @@
       <c r="E31" s="22">
         <v>2.5</v>
       </c>
-      <c r="F31" s="64"/>
+      <c r="F31" s="66"/>
       <c r="G31" s="28" t="s">
         <v>27</v>
       </c>
@@ -2486,7 +2544,7 @@
       </c>
       <c r="L31" s="44"/>
       <c r="M31" s="45">
-        <f>SUM(F135:F139)</f>
+        <f>SUM(F138:F142)</f>
         <v>0</v>
       </c>
       <c r="N31" s="39" t="s">
@@ -2494,8 +2552,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="99">
+      <c r="A32" s="63"/>
+      <c r="B32" s="60">
         <v>41601</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2507,11 +2565,11 @@
       <c r="E32" s="22">
         <v>1.5</v>
       </c>
-      <c r="F32" s="62">
+      <c r="F32" s="64">
         <f>SUM(E32:E33)</f>
         <v>2.5</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="26" t="s">
         <v>64</v>
       </c>
       <c r="H32" s="27" t="s">
@@ -2524,7 +2582,7 @@
       </c>
       <c r="L32" s="44"/>
       <c r="M32" s="45">
-        <f>SUM(F140:F144)</f>
+        <f>SUM(F143:F147)</f>
         <v>0</v>
       </c>
       <c r="N32" s="39" t="s">
@@ -2532,8 +2590,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="59"/>
-      <c r="B33" s="101"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="3" t="s">
         <v>83</v>
       </c>
@@ -2543,7 +2601,7 @@
       <c r="E33" s="22">
         <v>1</v>
       </c>
-      <c r="F33" s="64"/>
+      <c r="F33" s="66"/>
       <c r="G33" s="28" t="s">
         <v>27</v>
       </c>
@@ -2559,7 +2617,7 @@
       </c>
       <c r="L33" s="44"/>
       <c r="M33" s="45">
-        <f>SUM(F145:F149)</f>
+        <f>SUM(F148:F152)</f>
         <v>0</v>
       </c>
       <c r="N33" s="39" t="s">
@@ -2581,7 +2639,7 @@
         <v>4</v>
       </c>
       <c r="F34" s="56">
-        <f t="shared" ref="F34" si="4">E34</f>
+        <f t="shared" ref="F34:F35" si="4">E34</f>
         <v>4</v>
       </c>
       <c r="G34" s="28" t="s">
@@ -2597,7 +2655,7 @@
       </c>
       <c r="L34" s="44"/>
       <c r="M34" s="45">
-        <f>SUM(F150:F154)</f>
+        <f>SUM(F153:F157)</f>
         <v>0</v>
       </c>
       <c r="N34" s="39" t="s">
@@ -2611,12 +2669,25 @@
       <c r="B35" s="2">
         <v>41603</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
+      <c r="C35" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="25">
+        <v>2</v>
+      </c>
+      <c r="F35" s="57">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="I35" s="44"/>
       <c r="J35" s="44"/>
       <c r="K35" s="41" t="s">
@@ -2624,7 +2695,7 @@
       </c>
       <c r="L35" s="44"/>
       <c r="M35" s="45">
-        <f>SUM(F155:F159)</f>
+        <f>SUM(F158:F162)</f>
         <v>0</v>
       </c>
       <c r="N35" s="39" t="s">
@@ -2633,15 +2704,28 @@
     </row>
     <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
-      <c r="B36" s="2">
+      <c r="B36" s="101">
         <v>41604</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
+      <c r="C36" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="F36" s="106">
+        <f>SUM(E36:E38)</f>
+        <v>5.25</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>124</v>
+      </c>
       <c r="I36" s="44"/>
       <c r="J36" s="44"/>
       <c r="K36" s="41" t="s">
@@ -2649,24 +2733,32 @@
       </c>
       <c r="L36" s="44"/>
       <c r="M36" s="45">
-        <f>SUM(F160:F164)</f>
+        <f>SUM(F163:F167)</f>
         <v>0</v>
       </c>
       <c r="N36" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="53"/>
-      <c r="B37" s="2">
-        <v>41605</v>
-      </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="F37" s="107"/>
+      <c r="G37" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="103" t="s">
+        <v>126</v>
+      </c>
       <c r="I37" s="44"/>
       <c r="J37" s="44"/>
       <c r="K37" s="41" t="s">
@@ -2674,24 +2766,32 @@
       </c>
       <c r="L37" s="44"/>
       <c r="M37" s="45">
-        <f>SUM(F165:F169)</f>
+        <f>SUM(F168:F172)</f>
         <v>0</v>
       </c>
       <c r="N37" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="33" x14ac:dyDescent="0.25">
       <c r="A38" s="53"/>
-      <c r="B38" s="2">
-        <v>41606</v>
-      </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="F38" s="108"/>
+      <c r="G38" s="104" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="103" t="s">
+        <v>127</v>
+      </c>
       <c r="I38" s="44"/>
       <c r="J38" s="44"/>
       <c r="K38" s="54"/>
@@ -2701,15 +2801,28 @@
     </row>
     <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
-      <c r="B39" s="2">
-        <v>41607</v>
-      </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
+      <c r="B39" s="101">
+        <v>41605</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="25">
+        <v>1</v>
+      </c>
+      <c r="F39" s="106">
+        <f>SUM(E39:E40)</f>
+        <v>3.33</v>
+      </c>
+      <c r="G39" s="104" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="103" t="s">
+        <v>131</v>
+      </c>
       <c r="I39" s="44"/>
       <c r="J39" s="44"/>
       <c r="K39" s="54"/>
@@ -2717,66 +2830,73 @@
       <c r="M39" s="54"/>
       <c r="N39" s="54"/>
     </row>
-    <row r="40" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="94">
-        <v>5</v>
-      </c>
-      <c r="B40" s="9">
-        <v>41610</v>
-      </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
+    <row r="40" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="53"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="25">
+        <v>2.33</v>
+      </c>
+      <c r="F40" s="108"/>
+      <c r="G40" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="109" t="s">
+        <v>129</v>
+      </c>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
       <c r="K40" s="54"/>
       <c r="L40" s="54"/>
       <c r="M40" s="54"/>
       <c r="N40" s="54"/>
     </row>
     <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="94"/>
-      <c r="B41" s="9">
-        <v>41611</v>
-      </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="2">
+        <v>41606</v>
+      </c>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
       <c r="K41" s="54"/>
       <c r="L41" s="54"/>
       <c r="M41" s="54"/>
       <c r="N41" s="54"/>
     </row>
     <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="94"/>
-      <c r="B42" s="9">
-        <v>41612</v>
-      </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="2">
+        <v>41607</v>
+      </c>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
       <c r="K42" s="54"/>
       <c r="L42" s="54"/>
       <c r="M42" s="54"/>
       <c r="N42" s="54"/>
     </row>
     <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="94"/>
+      <c r="A43" s="63">
+        <v>5</v>
+      </c>
       <c r="B43" s="9">
-        <v>41613</v>
+        <v>41610</v>
       </c>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -2792,9 +2912,9 @@
       <c r="N43" s="54"/>
     </row>
     <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="94"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="9">
-        <v>41614</v>
+        <v>41611</v>
       </c>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -2810,65 +2930,65 @@
       <c r="N44" s="54"/>
     </row>
     <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="95">
-        <v>6</v>
-      </c>
-      <c r="B45" s="2">
-        <v>41617</v>
-      </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="9">
+        <v>41612</v>
+      </c>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
       <c r="K45" s="54"/>
       <c r="L45" s="54"/>
       <c r="M45" s="54"/>
       <c r="N45" s="54"/>
     </row>
     <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="95"/>
-      <c r="B46" s="2">
-        <v>41618</v>
-      </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="9">
+        <v>41613</v>
+      </c>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
       <c r="K46" s="54"/>
       <c r="L46" s="54"/>
       <c r="M46" s="54"/>
       <c r="N46" s="54"/>
     </row>
     <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="95"/>
-      <c r="B47" s="2">
-        <v>41619</v>
-      </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="9">
+        <v>41614</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
       <c r="K47" s="54"/>
       <c r="L47" s="54"/>
       <c r="M47" s="54"/>
       <c r="N47" s="54"/>
     </row>
     <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="95"/>
+      <c r="A48" s="67">
+        <v>6</v>
+      </c>
       <c r="B48" s="2">
-        <v>41620</v>
+        <v>41617</v>
       </c>
       <c r="C48" s="44"/>
       <c r="D48" s="44"/>
@@ -2884,9 +3004,9 @@
       <c r="N48" s="54"/>
     </row>
     <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="95"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="2">
-        <v>41621</v>
+        <v>41618</v>
       </c>
       <c r="C49" s="44"/>
       <c r="D49" s="44"/>
@@ -2902,65 +3022,65 @@
       <c r="N49" s="54"/>
     </row>
     <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="94">
-        <v>7</v>
-      </c>
-      <c r="B50" s="9">
-        <v>41624</v>
-      </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="2">
+        <v>41619</v>
+      </c>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
       <c r="K50" s="54"/>
       <c r="L50" s="54"/>
       <c r="M50" s="54"/>
       <c r="N50" s="54"/>
     </row>
     <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="94"/>
-      <c r="B51" s="9">
-        <v>41625</v>
-      </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="2">
+        <v>41620</v>
+      </c>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
       <c r="K51" s="54"/>
       <c r="L51" s="54"/>
       <c r="M51" s="54"/>
       <c r="N51" s="54"/>
     </row>
     <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="94"/>
-      <c r="B52" s="9">
-        <v>41626</v>
-      </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="2">
+        <v>41621</v>
+      </c>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
       <c r="K52" s="54"/>
       <c r="L52" s="54"/>
       <c r="M52" s="54"/>
       <c r="N52" s="54"/>
     </row>
     <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="94"/>
+      <c r="A53" s="63">
+        <v>7</v>
+      </c>
       <c r="B53" s="9">
-        <v>41627</v>
+        <v>41624</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
@@ -2976,9 +3096,9 @@
       <c r="N53" s="54"/>
     </row>
     <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="94"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="9">
-        <v>41628</v>
+        <v>41625</v>
       </c>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
@@ -2994,65 +3114,65 @@
       <c r="N54" s="54"/>
     </row>
     <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="95">
-        <v>8</v>
-      </c>
-      <c r="B55" s="2">
-        <v>41631</v>
-      </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="9">
+        <v>41626</v>
+      </c>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
       <c r="K55" s="54"/>
       <c r="L55" s="54"/>
       <c r="M55" s="54"/>
       <c r="N55" s="54"/>
     </row>
     <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="95"/>
-      <c r="B56" s="2">
-        <v>41632</v>
-      </c>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="44"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="9">
+        <v>41627</v>
+      </c>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
       <c r="K56" s="54"/>
       <c r="L56" s="54"/>
       <c r="M56" s="54"/>
       <c r="N56" s="54"/>
     </row>
     <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="95"/>
-      <c r="B57" s="2">
-        <v>41633</v>
-      </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="44"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="9">
+        <v>41628</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
       <c r="K57" s="54"/>
       <c r="L57" s="54"/>
       <c r="M57" s="54"/>
       <c r="N57" s="54"/>
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="95"/>
+      <c r="A58" s="67">
+        <v>8</v>
+      </c>
       <c r="B58" s="2">
-        <v>41634</v>
+        <v>41631</v>
       </c>
       <c r="C58" s="44"/>
       <c r="D58" s="44"/>
@@ -3068,9 +3188,9 @@
       <c r="N58" s="54"/>
     </row>
     <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="95"/>
+      <c r="A59" s="67"/>
       <c r="B59" s="2">
-        <v>41635</v>
+        <v>41632</v>
       </c>
       <c r="C59" s="44"/>
       <c r="D59" s="44"/>
@@ -3086,65 +3206,65 @@
       <c r="N59" s="54"/>
     </row>
     <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="94">
-        <v>9</v>
-      </c>
-      <c r="B60" s="9">
-        <v>41638</v>
-      </c>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="2">
+        <v>41633</v>
+      </c>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
       <c r="K60" s="54"/>
       <c r="L60" s="54"/>
       <c r="M60" s="54"/>
       <c r="N60" s="54"/>
     </row>
     <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="94"/>
-      <c r="B61" s="9">
-        <v>41639</v>
-      </c>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
+      <c r="A61" s="67"/>
+      <c r="B61" s="2">
+        <v>41634</v>
+      </c>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
       <c r="K61" s="54"/>
       <c r="L61" s="54"/>
       <c r="M61" s="54"/>
       <c r="N61" s="54"/>
     </row>
     <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="94"/>
-      <c r="B62" s="9">
-        <v>41640</v>
-      </c>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="2">
+        <v>41635</v>
+      </c>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
       <c r="K62" s="54"/>
       <c r="L62" s="54"/>
       <c r="M62" s="54"/>
       <c r="N62" s="54"/>
     </row>
     <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="94"/>
+      <c r="A63" s="63">
+        <v>9</v>
+      </c>
       <c r="B63" s="9">
-        <v>41641</v>
+        <v>41638</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -3160,9 +3280,9 @@
       <c r="N63" s="54"/>
     </row>
     <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="94"/>
+      <c r="A64" s="63"/>
       <c r="B64" s="9">
-        <v>41642</v>
+        <v>41639</v>
       </c>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
@@ -3178,65 +3298,65 @@
       <c r="N64" s="54"/>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="95">
-        <v>10</v>
-      </c>
-      <c r="B65" s="2">
-        <v>41645</v>
-      </c>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
+      <c r="A65" s="63"/>
+      <c r="B65" s="9">
+        <v>41640</v>
+      </c>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
       <c r="K65" s="54"/>
       <c r="L65" s="54"/>
       <c r="M65" s="54"/>
       <c r="N65" s="54"/>
     </row>
     <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="95"/>
-      <c r="B66" s="2">
-        <v>41646</v>
-      </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="9">
+        <v>41641</v>
+      </c>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
       <c r="K66" s="54"/>
       <c r="L66" s="54"/>
       <c r="M66" s="54"/>
       <c r="N66" s="54"/>
     </row>
     <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="95"/>
-      <c r="B67" s="2">
-        <v>41647</v>
-      </c>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
+      <c r="A67" s="63"/>
+      <c r="B67" s="9">
+        <v>41642</v>
+      </c>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
       <c r="K67" s="54"/>
       <c r="L67" s="54"/>
       <c r="M67" s="54"/>
       <c r="N67" s="54"/>
     </row>
     <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="95"/>
+      <c r="A68" s="67">
+        <v>10</v>
+      </c>
       <c r="B68" s="2">
-        <v>41648</v>
+        <v>41645</v>
       </c>
       <c r="C68" s="44"/>
       <c r="D68" s="44"/>
@@ -3252,9 +3372,9 @@
       <c r="N68" s="54"/>
     </row>
     <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="95"/>
+      <c r="A69" s="67"/>
       <c r="B69" s="2">
-        <v>41649</v>
+        <v>41646</v>
       </c>
       <c r="C69" s="44"/>
       <c r="D69" s="44"/>
@@ -3270,65 +3390,65 @@
       <c r="N69" s="54"/>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="94">
-        <v>11</v>
-      </c>
-      <c r="B70" s="9">
-        <v>41652</v>
-      </c>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="2">
+        <v>41647</v>
+      </c>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
       <c r="K70" s="54"/>
       <c r="L70" s="54"/>
       <c r="M70" s="54"/>
       <c r="N70" s="54"/>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="94"/>
-      <c r="B71" s="9">
-        <v>41653</v>
-      </c>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="2">
+        <v>41648</v>
+      </c>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
       <c r="K71" s="54"/>
       <c r="L71" s="54"/>
       <c r="M71" s="54"/>
       <c r="N71" s="54"/>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="94"/>
-      <c r="B72" s="9">
-        <v>41654</v>
-      </c>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
+      <c r="A72" s="67"/>
+      <c r="B72" s="2">
+        <v>41649</v>
+      </c>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
       <c r="K72" s="54"/>
       <c r="L72" s="54"/>
       <c r="M72" s="54"/>
       <c r="N72" s="54"/>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="94"/>
+      <c r="A73" s="63">
+        <v>11</v>
+      </c>
       <c r="B73" s="9">
-        <v>41655</v>
+        <v>41652</v>
       </c>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -3344,9 +3464,9 @@
       <c r="N73" s="54"/>
     </row>
     <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="94"/>
+      <c r="A74" s="63"/>
       <c r="B74" s="9">
-        <v>41656</v>
+        <v>41653</v>
       </c>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -3362,65 +3482,65 @@
       <c r="N74" s="54"/>
     </row>
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="95">
-        <v>12</v>
-      </c>
-      <c r="B75" s="2">
-        <v>41659</v>
-      </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="44"/>
+      <c r="A75" s="63"/>
+      <c r="B75" s="9">
+        <v>41654</v>
+      </c>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
       <c r="K75" s="54"/>
       <c r="L75" s="54"/>
       <c r="M75" s="54"/>
       <c r="N75" s="54"/>
     </row>
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="95"/>
-      <c r="B76" s="2">
-        <v>41660</v>
-      </c>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="44"/>
+      <c r="A76" s="63"/>
+      <c r="B76" s="9">
+        <v>41655</v>
+      </c>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
       <c r="K76" s="54"/>
       <c r="L76" s="54"/>
       <c r="M76" s="54"/>
       <c r="N76" s="54"/>
     </row>
     <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="95"/>
-      <c r="B77" s="2">
-        <v>41661</v>
-      </c>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="44"/>
+      <c r="A77" s="63"/>
+      <c r="B77" s="9">
+        <v>41656</v>
+      </c>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
       <c r="K77" s="54"/>
       <c r="L77" s="54"/>
       <c r="M77" s="54"/>
       <c r="N77" s="54"/>
     </row>
     <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="95"/>
+      <c r="A78" s="67">
+        <v>12</v>
+      </c>
       <c r="B78" s="2">
-        <v>41662</v>
+        <v>41659</v>
       </c>
       <c r="C78" s="44"/>
       <c r="D78" s="44"/>
@@ -3436,9 +3556,9 @@
       <c r="N78" s="54"/>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="95"/>
+      <c r="A79" s="67"/>
       <c r="B79" s="2">
-        <v>41663</v>
+        <v>41660</v>
       </c>
       <c r="C79" s="44"/>
       <c r="D79" s="44"/>
@@ -3454,71 +3574,65 @@
       <c r="N79" s="54"/>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="94">
-        <v>13</v>
-      </c>
-      <c r="B80" s="9">
-        <v>41666</v>
-      </c>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="2">
+        <v>41661</v>
+      </c>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
       <c r="K80" s="54"/>
       <c r="L80" s="54"/>
       <c r="M80" s="54"/>
       <c r="N80" s="54"/>
     </row>
     <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="94"/>
-      <c r="B81" s="9">
-        <v>41667</v>
-      </c>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
+      <c r="A81" s="67"/>
+      <c r="B81" s="2">
+        <v>41662</v>
+      </c>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="44"/>
       <c r="K81" s="54"/>
       <c r="L81" s="54"/>
       <c r="M81" s="54"/>
       <c r="N81" s="54"/>
     </row>
     <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="94"/>
-      <c r="B82" s="9">
-        <v>41668</v>
-      </c>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
+      <c r="A82" s="67"/>
+      <c r="B82" s="2">
+        <v>41663</v>
+      </c>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
       <c r="K82" s="54"/>
       <c r="L82" s="54"/>
       <c r="M82" s="54"/>
       <c r="N82" s="54"/>
     </row>
     <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="94"/>
+      <c r="A83" s="63">
+        <v>13</v>
+      </c>
       <c r="B83" s="9">
-        <v>41669</v>
+        <v>41666</v>
       </c>
       <c r="C83" s="37"/>
       <c r="D83" s="37"/>
@@ -3536,9 +3650,9 @@
       <c r="N83" s="54"/>
     </row>
     <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="94"/>
+      <c r="A84" s="63"/>
       <c r="B84" s="9">
-        <v>41670</v>
+        <v>41667</v>
       </c>
       <c r="C84" s="37"/>
       <c r="D84" s="37"/>
@@ -3556,71 +3670,71 @@
       <c r="N84" s="54"/>
     </row>
     <row r="85" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="95">
-        <v>14</v>
-      </c>
-      <c r="B85" s="2">
-        <v>41673</v>
-      </c>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="40" t="s">
+      <c r="A85" s="63"/>
+      <c r="B85" s="9">
+        <v>41668</v>
+      </c>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="44"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
       <c r="K85" s="54"/>
       <c r="L85" s="54"/>
       <c r="M85" s="54"/>
       <c r="N85" s="54"/>
     </row>
     <row r="86" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="95"/>
-      <c r="B86" s="2">
-        <v>41674</v>
-      </c>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="40" t="s">
+      <c r="A86" s="63"/>
+      <c r="B86" s="9">
+        <v>41669</v>
+      </c>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H86" s="44"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="44"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
       <c r="K86" s="54"/>
       <c r="L86" s="54"/>
       <c r="M86" s="54"/>
       <c r="N86" s="54"/>
     </row>
     <row r="87" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="95"/>
-      <c r="B87" s="2">
-        <v>41675</v>
-      </c>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="40" t="s">
+      <c r="A87" s="63"/>
+      <c r="B87" s="9">
+        <v>41670</v>
+      </c>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="44"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
       <c r="K87" s="54"/>
       <c r="L87" s="54"/>
       <c r="M87" s="54"/>
       <c r="N87" s="54"/>
     </row>
     <row r="88" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="95"/>
+      <c r="A88" s="67">
+        <v>14</v>
+      </c>
       <c r="B88" s="2">
-        <v>41676</v>
+        <v>41673</v>
       </c>
       <c r="C88" s="44"/>
       <c r="D88" s="44"/>
@@ -3638,9 +3752,9 @@
       <c r="N88" s="54"/>
     </row>
     <row r="89" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="95"/>
+      <c r="A89" s="67"/>
       <c r="B89" s="2">
-        <v>41677</v>
+        <v>41674</v>
       </c>
       <c r="C89" s="44"/>
       <c r="D89" s="44"/>
@@ -3658,65 +3772,71 @@
       <c r="N89" s="54"/>
     </row>
     <row r="90" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="94">
-        <v>15</v>
-      </c>
-      <c r="B90" s="9">
-        <v>41680</v>
-      </c>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37"/>
+      <c r="A90" s="67"/>
+      <c r="B90" s="2">
+        <v>41675</v>
+      </c>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
       <c r="K90" s="54"/>
       <c r="L90" s="54"/>
       <c r="M90" s="54"/>
       <c r="N90" s="54"/>
     </row>
     <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="94"/>
-      <c r="B91" s="9">
-        <v>41681</v>
-      </c>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="37"/>
+      <c r="A91" s="67"/>
+      <c r="B91" s="2">
+        <v>41676</v>
+      </c>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
       <c r="K91" s="54"/>
       <c r="L91" s="54"/>
       <c r="M91" s="54"/>
       <c r="N91" s="54"/>
     </row>
     <row r="92" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="94"/>
-      <c r="B92" s="9">
-        <v>41682</v>
-      </c>
-      <c r="C92" s="37"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="37"/>
+      <c r="A92" s="67"/>
+      <c r="B92" s="2">
+        <v>41677</v>
+      </c>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
       <c r="K92" s="54"/>
       <c r="L92" s="54"/>
       <c r="M92" s="54"/>
       <c r="N92" s="54"/>
     </row>
     <row r="93" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="94"/>
+      <c r="A93" s="63">
+        <v>15</v>
+      </c>
       <c r="B93" s="9">
-        <v>41683</v>
+        <v>41680</v>
       </c>
       <c r="C93" s="37"/>
       <c r="D93" s="37"/>
@@ -3732,9 +3852,9 @@
       <c r="N93" s="54"/>
     </row>
     <row r="94" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="94"/>
+      <c r="A94" s="63"/>
       <c r="B94" s="9">
-        <v>41684</v>
+        <v>41681</v>
       </c>
       <c r="C94" s="37"/>
       <c r="D94" s="37"/>
@@ -3750,65 +3870,65 @@
       <c r="N94" s="54"/>
     </row>
     <row r="95" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="95">
-        <v>16</v>
-      </c>
-      <c r="B95" s="2">
-        <v>41687</v>
-      </c>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="44"/>
-      <c r="I95" s="44"/>
-      <c r="J95" s="44"/>
+      <c r="A95" s="63"/>
+      <c r="B95" s="9">
+        <v>41682</v>
+      </c>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
       <c r="K95" s="54"/>
       <c r="L95" s="54"/>
       <c r="M95" s="54"/>
       <c r="N95" s="54"/>
     </row>
     <row r="96" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="95"/>
-      <c r="B96" s="2">
-        <v>41688</v>
-      </c>
-      <c r="C96" s="44"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="44"/>
-      <c r="F96" s="44"/>
-      <c r="G96" s="44"/>
-      <c r="H96" s="44"/>
-      <c r="I96" s="44"/>
-      <c r="J96" s="44"/>
+      <c r="A96" s="63"/>
+      <c r="B96" s="9">
+        <v>41683</v>
+      </c>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
       <c r="K96" s="54"/>
       <c r="L96" s="54"/>
       <c r="M96" s="54"/>
       <c r="N96" s="54"/>
     </row>
     <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="95"/>
-      <c r="B97" s="2">
-        <v>41689</v>
-      </c>
-      <c r="C97" s="44"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="44"/>
-      <c r="G97" s="44"/>
-      <c r="H97" s="44"/>
-      <c r="I97" s="44"/>
-      <c r="J97" s="44"/>
+      <c r="A97" s="63"/>
+      <c r="B97" s="9">
+        <v>41684</v>
+      </c>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="37"/>
       <c r="K97" s="54"/>
       <c r="L97" s="54"/>
       <c r="M97" s="54"/>
       <c r="N97" s="54"/>
     </row>
     <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="95"/>
+      <c r="A98" s="67">
+        <v>16</v>
+      </c>
       <c r="B98" s="2">
-        <v>41690</v>
+        <v>41687</v>
       </c>
       <c r="C98" s="44"/>
       <c r="D98" s="44"/>
@@ -3824,9 +3944,9 @@
       <c r="N98" s="54"/>
     </row>
     <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="95"/>
+      <c r="A99" s="67"/>
       <c r="B99" s="2">
-        <v>41691</v>
+        <v>41688</v>
       </c>
       <c r="C99" s="44"/>
       <c r="D99" s="44"/>
@@ -3842,65 +3962,65 @@
       <c r="N99" s="54"/>
     </row>
     <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="94">
-        <v>17</v>
-      </c>
-      <c r="B100" s="9">
-        <v>41694</v>
-      </c>
-      <c r="C100" s="37"/>
-      <c r="D100" s="37"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="37"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="37"/>
+      <c r="A100" s="67"/>
+      <c r="B100" s="2">
+        <v>41689</v>
+      </c>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="44"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
       <c r="K100" s="54"/>
       <c r="L100" s="54"/>
       <c r="M100" s="54"/>
       <c r="N100" s="54"/>
     </row>
     <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="94"/>
-      <c r="B101" s="9">
-        <v>41695</v>
-      </c>
-      <c r="C101" s="37"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="37"/>
+      <c r="A101" s="67"/>
+      <c r="B101" s="2">
+        <v>41690</v>
+      </c>
+      <c r="C101" s="44"/>
+      <c r="D101" s="44"/>
+      <c r="E101" s="44"/>
+      <c r="F101" s="44"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="44"/>
+      <c r="J101" s="44"/>
       <c r="K101" s="54"/>
       <c r="L101" s="54"/>
       <c r="M101" s="54"/>
       <c r="N101" s="54"/>
     </row>
     <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="94"/>
-      <c r="B102" s="9">
-        <v>41696</v>
-      </c>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="37"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="37"/>
+      <c r="A102" s="67"/>
+      <c r="B102" s="2">
+        <v>41691</v>
+      </c>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="44"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
       <c r="K102" s="54"/>
       <c r="L102" s="54"/>
       <c r="M102" s="54"/>
       <c r="N102" s="54"/>
     </row>
     <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="94"/>
+      <c r="A103" s="63">
+        <v>17</v>
+      </c>
       <c r="B103" s="9">
-        <v>41697</v>
+        <v>41694</v>
       </c>
       <c r="C103" s="37"/>
       <c r="D103" s="37"/>
@@ -3916,9 +4036,9 @@
       <c r="N103" s="54"/>
     </row>
     <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="94"/>
+      <c r="A104" s="63"/>
       <c r="B104" s="9">
-        <v>41698</v>
+        <v>41695</v>
       </c>
       <c r="C104" s="37"/>
       <c r="D104" s="37"/>
@@ -3934,65 +4054,65 @@
       <c r="N104" s="54"/>
     </row>
     <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="95">
-        <v>18</v>
-      </c>
-      <c r="B105" s="2">
-        <v>41701</v>
-      </c>
-      <c r="C105" s="44"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="44"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="44"/>
-      <c r="I105" s="44"/>
-      <c r="J105" s="44"/>
+      <c r="A105" s="63"/>
+      <c r="B105" s="9">
+        <v>41696</v>
+      </c>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37"/>
       <c r="K105" s="54"/>
       <c r="L105" s="54"/>
       <c r="M105" s="54"/>
       <c r="N105" s="54"/>
     </row>
     <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="95"/>
-      <c r="B106" s="2">
-        <v>41702</v>
-      </c>
-      <c r="C106" s="44"/>
-      <c r="D106" s="44"/>
-      <c r="E106" s="44"/>
-      <c r="F106" s="44"/>
-      <c r="G106" s="44"/>
-      <c r="H106" s="44"/>
-      <c r="I106" s="44"/>
-      <c r="J106" s="44"/>
+      <c r="A106" s="63"/>
+      <c r="B106" s="9">
+        <v>41697</v>
+      </c>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
       <c r="K106" s="54"/>
       <c r="L106" s="54"/>
       <c r="M106" s="54"/>
       <c r="N106" s="54"/>
     </row>
     <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="95"/>
-      <c r="B107" s="2">
-        <v>41703</v>
-      </c>
-      <c r="C107" s="44"/>
-      <c r="D107" s="44"/>
-      <c r="E107" s="44"/>
-      <c r="F107" s="44"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="44"/>
-      <c r="I107" s="44"/>
-      <c r="J107" s="44"/>
+      <c r="A107" s="63"/>
+      <c r="B107" s="9">
+        <v>41698</v>
+      </c>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="37"/>
+      <c r="J107" s="37"/>
       <c r="K107" s="54"/>
       <c r="L107" s="54"/>
       <c r="M107" s="54"/>
       <c r="N107" s="54"/>
     </row>
     <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="95"/>
+      <c r="A108" s="67">
+        <v>18</v>
+      </c>
       <c r="B108" s="2">
-        <v>41704</v>
+        <v>41701</v>
       </c>
       <c r="C108" s="44"/>
       <c r="D108" s="44"/>
@@ -4008,9 +4128,9 @@
       <c r="N108" s="54"/>
     </row>
     <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="95"/>
+      <c r="A109" s="67"/>
       <c r="B109" s="2">
-        <v>41705</v>
+        <v>41702</v>
       </c>
       <c r="C109" s="44"/>
       <c r="D109" s="44"/>
@@ -4026,65 +4146,65 @@
       <c r="N109" s="54"/>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="94">
-        <v>19</v>
-      </c>
-      <c r="B110" s="9">
-        <v>41708</v>
-      </c>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
-      <c r="E110" s="37"/>
-      <c r="F110" s="37"/>
-      <c r="G110" s="37"/>
-      <c r="H110" s="37"/>
-      <c r="I110" s="37"/>
-      <c r="J110" s="37"/>
+      <c r="A110" s="67"/>
+      <c r="B110" s="2">
+        <v>41703</v>
+      </c>
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="44"/>
       <c r="K110" s="54"/>
       <c r="L110" s="54"/>
       <c r="M110" s="54"/>
       <c r="N110" s="54"/>
     </row>
     <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="94"/>
-      <c r="B111" s="9">
-        <v>41709</v>
-      </c>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="37"/>
-      <c r="I111" s="37"/>
-      <c r="J111" s="37"/>
+      <c r="A111" s="67"/>
+      <c r="B111" s="2">
+        <v>41704</v>
+      </c>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="44"/>
+      <c r="I111" s="44"/>
+      <c r="J111" s="44"/>
       <c r="K111" s="54"/>
       <c r="L111" s="54"/>
       <c r="M111" s="54"/>
       <c r="N111" s="54"/>
     </row>
     <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="94"/>
-      <c r="B112" s="9">
-        <v>41710</v>
-      </c>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37"/>
-      <c r="E112" s="37"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="37"/>
-      <c r="I112" s="37"/>
-      <c r="J112" s="37"/>
+      <c r="A112" s="67"/>
+      <c r="B112" s="2">
+        <v>41705</v>
+      </c>
+      <c r="C112" s="44"/>
+      <c r="D112" s="44"/>
+      <c r="E112" s="44"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="44"/>
+      <c r="I112" s="44"/>
+      <c r="J112" s="44"/>
       <c r="K112" s="54"/>
       <c r="L112" s="54"/>
       <c r="M112" s="54"/>
       <c r="N112" s="54"/>
     </row>
     <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="94"/>
+      <c r="A113" s="63">
+        <v>19</v>
+      </c>
       <c r="B113" s="9">
-        <v>41711</v>
+        <v>41708</v>
       </c>
       <c r="C113" s="37"/>
       <c r="D113" s="37"/>
@@ -4100,9 +4220,9 @@
       <c r="N113" s="54"/>
     </row>
     <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="94"/>
+      <c r="A114" s="63"/>
       <c r="B114" s="9">
-        <v>41712</v>
+        <v>41709</v>
       </c>
       <c r="C114" s="37"/>
       <c r="D114" s="37"/>
@@ -4118,65 +4238,65 @@
       <c r="N114" s="54"/>
     </row>
     <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="95">
-        <v>20</v>
-      </c>
-      <c r="B115" s="2">
-        <v>41715</v>
-      </c>
-      <c r="C115" s="44"/>
-      <c r="D115" s="44"/>
-      <c r="E115" s="44"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="44"/>
-      <c r="I115" s="44"/>
-      <c r="J115" s="44"/>
+      <c r="A115" s="63"/>
+      <c r="B115" s="9">
+        <v>41710</v>
+      </c>
+      <c r="C115" s="37"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="37"/>
       <c r="K115" s="54"/>
       <c r="L115" s="54"/>
       <c r="M115" s="54"/>
       <c r="N115" s="54"/>
     </row>
     <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="95"/>
-      <c r="B116" s="2">
-        <v>41716</v>
-      </c>
-      <c r="C116" s="44"/>
-      <c r="D116" s="44"/>
-      <c r="E116" s="44"/>
-      <c r="F116" s="44"/>
-      <c r="G116" s="44"/>
-      <c r="H116" s="44"/>
-      <c r="I116" s="44"/>
-      <c r="J116" s="44"/>
+      <c r="A116" s="63"/>
+      <c r="B116" s="9">
+        <v>41711</v>
+      </c>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="37"/>
       <c r="K116" s="54"/>
       <c r="L116" s="54"/>
       <c r="M116" s="54"/>
       <c r="N116" s="54"/>
     </row>
     <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="95"/>
-      <c r="B117" s="2">
-        <v>41717</v>
-      </c>
-      <c r="C117" s="44"/>
-      <c r="D117" s="44"/>
-      <c r="E117" s="44"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="44"/>
-      <c r="H117" s="44"/>
-      <c r="I117" s="44"/>
-      <c r="J117" s="44"/>
+      <c r="A117" s="63"/>
+      <c r="B117" s="9">
+        <v>41712</v>
+      </c>
+      <c r="C117" s="37"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="37"/>
+      <c r="I117" s="37"/>
+      <c r="J117" s="37"/>
       <c r="K117" s="54"/>
       <c r="L117" s="54"/>
       <c r="M117" s="54"/>
       <c r="N117" s="54"/>
     </row>
     <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="95"/>
+      <c r="A118" s="67">
+        <v>20</v>
+      </c>
       <c r="B118" s="2">
-        <v>41718</v>
+        <v>41715</v>
       </c>
       <c r="C118" s="44"/>
       <c r="D118" s="44"/>
@@ -4192,9 +4312,9 @@
       <c r="N118" s="54"/>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="95"/>
+      <c r="A119" s="67"/>
       <c r="B119" s="2">
-        <v>41719</v>
+        <v>41716</v>
       </c>
       <c r="C119" s="44"/>
       <c r="D119" s="44"/>
@@ -4210,65 +4330,65 @@
       <c r="N119" s="54"/>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="94">
-        <v>21</v>
-      </c>
-      <c r="B120" s="9">
-        <v>41722</v>
-      </c>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37"/>
-      <c r="F120" s="37"/>
-      <c r="G120" s="37"/>
-      <c r="H120" s="37"/>
-      <c r="I120" s="37"/>
-      <c r="J120" s="37"/>
+      <c r="A120" s="67"/>
+      <c r="B120" s="2">
+        <v>41717</v>
+      </c>
+      <c r="C120" s="44"/>
+      <c r="D120" s="44"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="44"/>
+      <c r="I120" s="44"/>
+      <c r="J120" s="44"/>
       <c r="K120" s="54"/>
       <c r="L120" s="54"/>
       <c r="M120" s="54"/>
       <c r="N120" s="54"/>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="94"/>
-      <c r="B121" s="9">
-        <v>41723</v>
-      </c>
-      <c r="C121" s="37"/>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="37"/>
-      <c r="I121" s="37"/>
-      <c r="J121" s="37"/>
+      <c r="A121" s="67"/>
+      <c r="B121" s="2">
+        <v>41718</v>
+      </c>
+      <c r="C121" s="44"/>
+      <c r="D121" s="44"/>
+      <c r="E121" s="44"/>
+      <c r="F121" s="44"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="44"/>
+      <c r="I121" s="44"/>
+      <c r="J121" s="44"/>
       <c r="K121" s="54"/>
       <c r="L121" s="54"/>
       <c r="M121" s="54"/>
       <c r="N121" s="54"/>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="94"/>
-      <c r="B122" s="9">
-        <v>41724</v>
-      </c>
-      <c r="C122" s="37"/>
-      <c r="D122" s="37"/>
-      <c r="E122" s="37"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="37"/>
-      <c r="H122" s="37"/>
-      <c r="I122" s="37"/>
-      <c r="J122" s="37"/>
+      <c r="A122" s="67"/>
+      <c r="B122" s="2">
+        <v>41719</v>
+      </c>
+      <c r="C122" s="44"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="44"/>
+      <c r="I122" s="44"/>
+      <c r="J122" s="44"/>
       <c r="K122" s="54"/>
       <c r="L122" s="54"/>
       <c r="M122" s="54"/>
       <c r="N122" s="54"/>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="94"/>
+      <c r="A123" s="63">
+        <v>21</v>
+      </c>
       <c r="B123" s="9">
-        <v>41725</v>
+        <v>41722</v>
       </c>
       <c r="C123" s="37"/>
       <c r="D123" s="37"/>
@@ -4284,9 +4404,9 @@
       <c r="N123" s="54"/>
     </row>
     <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="94"/>
+      <c r="A124" s="63"/>
       <c r="B124" s="9">
-        <v>41726</v>
+        <v>41723</v>
       </c>
       <c r="C124" s="37"/>
       <c r="D124" s="37"/>
@@ -4302,65 +4422,65 @@
       <c r="N124" s="54"/>
     </row>
     <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="95">
-        <v>22</v>
-      </c>
-      <c r="B125" s="2">
-        <v>41729</v>
-      </c>
-      <c r="C125" s="44"/>
-      <c r="D125" s="44"/>
-      <c r="E125" s="44"/>
-      <c r="F125" s="44"/>
-      <c r="G125" s="44"/>
-      <c r="H125" s="44"/>
-      <c r="I125" s="44"/>
-      <c r="J125" s="44"/>
+      <c r="A125" s="63"/>
+      <c r="B125" s="9">
+        <v>41724</v>
+      </c>
+      <c r="C125" s="37"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="37"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="37"/>
       <c r="K125" s="54"/>
       <c r="L125" s="54"/>
       <c r="M125" s="54"/>
       <c r="N125" s="54"/>
     </row>
     <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="95"/>
-      <c r="B126" s="2">
-        <v>41730</v>
-      </c>
-      <c r="C126" s="44"/>
-      <c r="D126" s="44"/>
-      <c r="E126" s="44"/>
-      <c r="F126" s="44"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="44"/>
-      <c r="I126" s="44"/>
-      <c r="J126" s="44"/>
+      <c r="A126" s="63"/>
+      <c r="B126" s="9">
+        <v>41725</v>
+      </c>
+      <c r="C126" s="37"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="37"/>
       <c r="K126" s="54"/>
       <c r="L126" s="54"/>
       <c r="M126" s="54"/>
       <c r="N126" s="54"/>
     </row>
     <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="95"/>
-      <c r="B127" s="2">
-        <v>41731</v>
-      </c>
-      <c r="C127" s="44"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="44"/>
-      <c r="F127" s="44"/>
-      <c r="G127" s="44"/>
-      <c r="H127" s="44"/>
-      <c r="I127" s="44"/>
-      <c r="J127" s="44"/>
+      <c r="A127" s="63"/>
+      <c r="B127" s="9">
+        <v>41726</v>
+      </c>
+      <c r="C127" s="37"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="37"/>
+      <c r="H127" s="37"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="37"/>
       <c r="K127" s="54"/>
       <c r="L127" s="54"/>
       <c r="M127" s="54"/>
       <c r="N127" s="54"/>
     </row>
     <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="95"/>
+      <c r="A128" s="67">
+        <v>22</v>
+      </c>
       <c r="B128" s="2">
-        <v>41732</v>
+        <v>41729</v>
       </c>
       <c r="C128" s="44"/>
       <c r="D128" s="44"/>
@@ -4376,9 +4496,9 @@
       <c r="N128" s="54"/>
     </row>
     <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="95"/>
+      <c r="A129" s="67"/>
       <c r="B129" s="2">
-        <v>41733</v>
+        <v>41730</v>
       </c>
       <c r="C129" s="44"/>
       <c r="D129" s="44"/>
@@ -4394,65 +4514,65 @@
       <c r="N129" s="54"/>
     </row>
     <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="94">
-        <v>23</v>
-      </c>
-      <c r="B130" s="9">
-        <v>41736</v>
-      </c>
-      <c r="C130" s="37"/>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="37"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="37"/>
+      <c r="A130" s="67"/>
+      <c r="B130" s="2">
+        <v>41731</v>
+      </c>
+      <c r="C130" s="44"/>
+      <c r="D130" s="44"/>
+      <c r="E130" s="44"/>
+      <c r="F130" s="44"/>
+      <c r="G130" s="44"/>
+      <c r="H130" s="44"/>
+      <c r="I130" s="44"/>
+      <c r="J130" s="44"/>
       <c r="K130" s="54"/>
       <c r="L130" s="54"/>
       <c r="M130" s="54"/>
       <c r="N130" s="54"/>
     </row>
     <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="94"/>
-      <c r="B131" s="9">
-        <v>41737</v>
-      </c>
-      <c r="C131" s="37"/>
-      <c r="D131" s="37"/>
-      <c r="E131" s="37"/>
-      <c r="F131" s="37"/>
-      <c r="G131" s="37"/>
-      <c r="H131" s="37"/>
-      <c r="I131" s="37"/>
-      <c r="J131" s="37"/>
+      <c r="A131" s="67"/>
+      <c r="B131" s="2">
+        <v>41732</v>
+      </c>
+      <c r="C131" s="44"/>
+      <c r="D131" s="44"/>
+      <c r="E131" s="44"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="44"/>
+      <c r="I131" s="44"/>
+      <c r="J131" s="44"/>
       <c r="K131" s="54"/>
       <c r="L131" s="54"/>
       <c r="M131" s="54"/>
       <c r="N131" s="54"/>
     </row>
     <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="94"/>
-      <c r="B132" s="9">
-        <v>41738</v>
-      </c>
-      <c r="C132" s="37"/>
-      <c r="D132" s="37"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="37"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="37"/>
-      <c r="I132" s="37"/>
-      <c r="J132" s="37"/>
+      <c r="A132" s="67"/>
+      <c r="B132" s="2">
+        <v>41733</v>
+      </c>
+      <c r="C132" s="44"/>
+      <c r="D132" s="44"/>
+      <c r="E132" s="44"/>
+      <c r="F132" s="44"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="44"/>
+      <c r="I132" s="44"/>
+      <c r="J132" s="44"/>
       <c r="K132" s="54"/>
       <c r="L132" s="54"/>
       <c r="M132" s="54"/>
       <c r="N132" s="54"/>
     </row>
     <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="94"/>
+      <c r="A133" s="63">
+        <v>23</v>
+      </c>
       <c r="B133" s="9">
-        <v>41739</v>
+        <v>41736</v>
       </c>
       <c r="C133" s="37"/>
       <c r="D133" s="37"/>
@@ -4468,9 +4588,9 @@
       <c r="N133" s="54"/>
     </row>
     <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="94"/>
+      <c r="A134" s="63"/>
       <c r="B134" s="9">
-        <v>41740</v>
+        <v>41737</v>
       </c>
       <c r="C134" s="37"/>
       <c r="D134" s="37"/>
@@ -4486,65 +4606,65 @@
       <c r="N134" s="54"/>
     </row>
     <row r="135" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="95">
-        <v>24</v>
-      </c>
-      <c r="B135" s="2">
-        <v>41743</v>
-      </c>
-      <c r="C135" s="44"/>
-      <c r="D135" s="44"/>
-      <c r="E135" s="44"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="44"/>
-      <c r="I135" s="44"/>
-      <c r="J135" s="44"/>
+      <c r="A135" s="63"/>
+      <c r="B135" s="9">
+        <v>41738</v>
+      </c>
+      <c r="C135" s="37"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="37"/>
+      <c r="F135" s="37"/>
+      <c r="G135" s="37"/>
+      <c r="H135" s="37"/>
+      <c r="I135" s="37"/>
+      <c r="J135" s="37"/>
       <c r="K135" s="54"/>
       <c r="L135" s="54"/>
       <c r="M135" s="54"/>
       <c r="N135" s="54"/>
     </row>
     <row r="136" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="95"/>
-      <c r="B136" s="2">
-        <v>41744</v>
-      </c>
-      <c r="C136" s="44"/>
-      <c r="D136" s="44"/>
-      <c r="E136" s="44"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="44"/>
-      <c r="I136" s="44"/>
-      <c r="J136" s="44"/>
+      <c r="A136" s="63"/>
+      <c r="B136" s="9">
+        <v>41739</v>
+      </c>
+      <c r="C136" s="37"/>
+      <c r="D136" s="37"/>
+      <c r="E136" s="37"/>
+      <c r="F136" s="37"/>
+      <c r="G136" s="37"/>
+      <c r="H136" s="37"/>
+      <c r="I136" s="37"/>
+      <c r="J136" s="37"/>
       <c r="K136" s="54"/>
       <c r="L136" s="54"/>
       <c r="M136" s="54"/>
       <c r="N136" s="54"/>
     </row>
     <row r="137" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="95"/>
-      <c r="B137" s="2">
-        <v>41745</v>
-      </c>
-      <c r="C137" s="44"/>
-      <c r="D137" s="44"/>
-      <c r="E137" s="44"/>
-      <c r="F137" s="44"/>
-      <c r="G137" s="44"/>
-      <c r="H137" s="44"/>
-      <c r="I137" s="44"/>
-      <c r="J137" s="44"/>
+      <c r="A137" s="63"/>
+      <c r="B137" s="9">
+        <v>41740</v>
+      </c>
+      <c r="C137" s="37"/>
+      <c r="D137" s="37"/>
+      <c r="E137" s="37"/>
+      <c r="F137" s="37"/>
+      <c r="G137" s="37"/>
+      <c r="H137" s="37"/>
+      <c r="I137" s="37"/>
+      <c r="J137" s="37"/>
       <c r="K137" s="54"/>
       <c r="L137" s="54"/>
       <c r="M137" s="54"/>
       <c r="N137" s="54"/>
     </row>
     <row r="138" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="95"/>
+      <c r="A138" s="67">
+        <v>24</v>
+      </c>
       <c r="B138" s="2">
-        <v>41746</v>
+        <v>41743</v>
       </c>
       <c r="C138" s="44"/>
       <c r="D138" s="44"/>
@@ -4560,9 +4680,9 @@
       <c r="N138" s="54"/>
     </row>
     <row r="139" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="95"/>
+      <c r="A139" s="67"/>
       <c r="B139" s="2">
-        <v>41747</v>
+        <v>41744</v>
       </c>
       <c r="C139" s="44"/>
       <c r="D139" s="44"/>
@@ -4578,65 +4698,65 @@
       <c r="N139" s="54"/>
     </row>
     <row r="140" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="94">
-        <v>25</v>
-      </c>
-      <c r="B140" s="9">
-        <v>41750</v>
-      </c>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="37"/>
-      <c r="I140" s="37"/>
-      <c r="J140" s="37"/>
+      <c r="A140" s="67"/>
+      <c r="B140" s="2">
+        <v>41745</v>
+      </c>
+      <c r="C140" s="44"/>
+      <c r="D140" s="44"/>
+      <c r="E140" s="44"/>
+      <c r="F140" s="44"/>
+      <c r="G140" s="44"/>
+      <c r="H140" s="44"/>
+      <c r="I140" s="44"/>
+      <c r="J140" s="44"/>
       <c r="K140" s="54"/>
       <c r="L140" s="54"/>
       <c r="M140" s="54"/>
       <c r="N140" s="54"/>
     </row>
     <row r="141" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="94"/>
-      <c r="B141" s="9">
-        <v>41751</v>
-      </c>
-      <c r="C141" s="37"/>
-      <c r="D141" s="37"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="37"/>
-      <c r="H141" s="37"/>
-      <c r="I141" s="37"/>
-      <c r="J141" s="37"/>
+      <c r="A141" s="67"/>
+      <c r="B141" s="2">
+        <v>41746</v>
+      </c>
+      <c r="C141" s="44"/>
+      <c r="D141" s="44"/>
+      <c r="E141" s="44"/>
+      <c r="F141" s="44"/>
+      <c r="G141" s="44"/>
+      <c r="H141" s="44"/>
+      <c r="I141" s="44"/>
+      <c r="J141" s="44"/>
       <c r="K141" s="54"/>
       <c r="L141" s="54"/>
       <c r="M141" s="54"/>
       <c r="N141" s="54"/>
     </row>
     <row r="142" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="94"/>
-      <c r="B142" s="9">
-        <v>41752</v>
-      </c>
-      <c r="C142" s="37"/>
-      <c r="D142" s="37"/>
-      <c r="E142" s="37"/>
-      <c r="F142" s="37"/>
-      <c r="G142" s="37"/>
-      <c r="H142" s="37"/>
-      <c r="I142" s="37"/>
-      <c r="J142" s="37"/>
+      <c r="A142" s="67"/>
+      <c r="B142" s="2">
+        <v>41747</v>
+      </c>
+      <c r="C142" s="44"/>
+      <c r="D142" s="44"/>
+      <c r="E142" s="44"/>
+      <c r="F142" s="44"/>
+      <c r="G142" s="44"/>
+      <c r="H142" s="44"/>
+      <c r="I142" s="44"/>
+      <c r="J142" s="44"/>
       <c r="K142" s="54"/>
       <c r="L142" s="54"/>
       <c r="M142" s="54"/>
       <c r="N142" s="54"/>
     </row>
     <row r="143" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="94"/>
+      <c r="A143" s="63">
+        <v>25</v>
+      </c>
       <c r="B143" s="9">
-        <v>41753</v>
+        <v>41750</v>
       </c>
       <c r="C143" s="37"/>
       <c r="D143" s="37"/>
@@ -4652,9 +4772,9 @@
       <c r="N143" s="54"/>
     </row>
     <row r="144" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="94"/>
+      <c r="A144" s="63"/>
       <c r="B144" s="9">
-        <v>41754</v>
+        <v>41751</v>
       </c>
       <c r="C144" s="37"/>
       <c r="D144" s="37"/>
@@ -4670,65 +4790,65 @@
       <c r="N144" s="54"/>
     </row>
     <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="95">
-        <v>26</v>
-      </c>
-      <c r="B145" s="2">
-        <v>41757</v>
-      </c>
-      <c r="C145" s="44"/>
-      <c r="D145" s="44"/>
-      <c r="E145" s="44"/>
-      <c r="F145" s="44"/>
-      <c r="G145" s="44"/>
-      <c r="H145" s="44"/>
-      <c r="I145" s="44"/>
-      <c r="J145" s="44"/>
+      <c r="A145" s="63"/>
+      <c r="B145" s="9">
+        <v>41752</v>
+      </c>
+      <c r="C145" s="37"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="37"/>
+      <c r="F145" s="37"/>
+      <c r="G145" s="37"/>
+      <c r="H145" s="37"/>
+      <c r="I145" s="37"/>
+      <c r="J145" s="37"/>
       <c r="K145" s="54"/>
       <c r="L145" s="54"/>
       <c r="M145" s="54"/>
       <c r="N145" s="54"/>
     </row>
     <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="95"/>
-      <c r="B146" s="2">
-        <v>41758</v>
-      </c>
-      <c r="C146" s="44"/>
-      <c r="D146" s="44"/>
-      <c r="E146" s="44"/>
-      <c r="F146" s="44"/>
-      <c r="G146" s="44"/>
-      <c r="H146" s="44"/>
-      <c r="I146" s="44"/>
-      <c r="J146" s="44"/>
+      <c r="A146" s="63"/>
+      <c r="B146" s="9">
+        <v>41753</v>
+      </c>
+      <c r="C146" s="37"/>
+      <c r="D146" s="37"/>
+      <c r="E146" s="37"/>
+      <c r="F146" s="37"/>
+      <c r="G146" s="37"/>
+      <c r="H146" s="37"/>
+      <c r="I146" s="37"/>
+      <c r="J146" s="37"/>
       <c r="K146" s="54"/>
       <c r="L146" s="54"/>
       <c r="M146" s="54"/>
       <c r="N146" s="54"/>
     </row>
     <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="95"/>
-      <c r="B147" s="2">
-        <v>41759</v>
-      </c>
-      <c r="C147" s="44"/>
-      <c r="D147" s="44"/>
-      <c r="E147" s="44"/>
-      <c r="F147" s="44"/>
-      <c r="G147" s="44"/>
-      <c r="H147" s="44"/>
-      <c r="I147" s="44"/>
-      <c r="J147" s="44"/>
+      <c r="A147" s="63"/>
+      <c r="B147" s="9">
+        <v>41754</v>
+      </c>
+      <c r="C147" s="37"/>
+      <c r="D147" s="37"/>
+      <c r="E147" s="37"/>
+      <c r="F147" s="37"/>
+      <c r="G147" s="37"/>
+      <c r="H147" s="37"/>
+      <c r="I147" s="37"/>
+      <c r="J147" s="37"/>
       <c r="K147" s="54"/>
       <c r="L147" s="54"/>
       <c r="M147" s="54"/>
       <c r="N147" s="54"/>
     </row>
     <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="95"/>
+      <c r="A148" s="67">
+        <v>26</v>
+      </c>
       <c r="B148" s="2">
-        <v>41760</v>
+        <v>41757</v>
       </c>
       <c r="C148" s="44"/>
       <c r="D148" s="44"/>
@@ -4744,9 +4864,9 @@
       <c r="N148" s="54"/>
     </row>
     <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="95"/>
+      <c r="A149" s="67"/>
       <c r="B149" s="2">
-        <v>41761</v>
+        <v>41758</v>
       </c>
       <c r="C149" s="44"/>
       <c r="D149" s="44"/>
@@ -4762,65 +4882,65 @@
       <c r="N149" s="54"/>
     </row>
     <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="94">
-        <v>27</v>
-      </c>
-      <c r="B150" s="9">
-        <v>41764</v>
-      </c>
-      <c r="C150" s="37"/>
-      <c r="D150" s="37"/>
-      <c r="E150" s="37"/>
-      <c r="F150" s="37"/>
-      <c r="G150" s="37"/>
-      <c r="H150" s="37"/>
-      <c r="I150" s="37"/>
-      <c r="J150" s="37"/>
+      <c r="A150" s="67"/>
+      <c r="B150" s="2">
+        <v>41759</v>
+      </c>
+      <c r="C150" s="44"/>
+      <c r="D150" s="44"/>
+      <c r="E150" s="44"/>
+      <c r="F150" s="44"/>
+      <c r="G150" s="44"/>
+      <c r="H150" s="44"/>
+      <c r="I150" s="44"/>
+      <c r="J150" s="44"/>
       <c r="K150" s="54"/>
       <c r="L150" s="54"/>
       <c r="M150" s="54"/>
       <c r="N150" s="54"/>
     </row>
     <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="94"/>
-      <c r="B151" s="9">
-        <v>41765</v>
-      </c>
-      <c r="C151" s="37"/>
-      <c r="D151" s="37"/>
-      <c r="E151" s="37"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="37"/>
-      <c r="H151" s="37"/>
-      <c r="I151" s="37"/>
-      <c r="J151" s="37"/>
+      <c r="A151" s="67"/>
+      <c r="B151" s="2">
+        <v>41760</v>
+      </c>
+      <c r="C151" s="44"/>
+      <c r="D151" s="44"/>
+      <c r="E151" s="44"/>
+      <c r="F151" s="44"/>
+      <c r="G151" s="44"/>
+      <c r="H151" s="44"/>
+      <c r="I151" s="44"/>
+      <c r="J151" s="44"/>
       <c r="K151" s="54"/>
       <c r="L151" s="54"/>
       <c r="M151" s="54"/>
       <c r="N151" s="54"/>
     </row>
     <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="94"/>
-      <c r="B152" s="9">
-        <v>41766</v>
-      </c>
-      <c r="C152" s="37"/>
-      <c r="D152" s="37"/>
-      <c r="E152" s="37"/>
-      <c r="F152" s="37"/>
-      <c r="G152" s="37"/>
-      <c r="H152" s="37"/>
-      <c r="I152" s="37"/>
-      <c r="J152" s="37"/>
+      <c r="A152" s="67"/>
+      <c r="B152" s="2">
+        <v>41761</v>
+      </c>
+      <c r="C152" s="44"/>
+      <c r="D152" s="44"/>
+      <c r="E152" s="44"/>
+      <c r="F152" s="44"/>
+      <c r="G152" s="44"/>
+      <c r="H152" s="44"/>
+      <c r="I152" s="44"/>
+      <c r="J152" s="44"/>
       <c r="K152" s="54"/>
       <c r="L152" s="54"/>
       <c r="M152" s="54"/>
       <c r="N152" s="54"/>
     </row>
     <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="94"/>
+      <c r="A153" s="63">
+        <v>27</v>
+      </c>
       <c r="B153" s="9">
-        <v>41767</v>
+        <v>41764</v>
       </c>
       <c r="C153" s="37"/>
       <c r="D153" s="37"/>
@@ -4836,9 +4956,9 @@
       <c r="N153" s="54"/>
     </row>
     <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="94"/>
+      <c r="A154" s="63"/>
       <c r="B154" s="9">
-        <v>41768</v>
+        <v>41765</v>
       </c>
       <c r="C154" s="37"/>
       <c r="D154" s="37"/>
@@ -4854,65 +4974,65 @@
       <c r="N154" s="54"/>
     </row>
     <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="95">
-        <v>28</v>
-      </c>
-      <c r="B155" s="2">
-        <v>41771</v>
-      </c>
-      <c r="C155" s="44"/>
-      <c r="D155" s="44"/>
-      <c r="E155" s="44"/>
-      <c r="F155" s="44"/>
-      <c r="G155" s="44"/>
-      <c r="H155" s="44"/>
-      <c r="I155" s="44"/>
-      <c r="J155" s="44"/>
+      <c r="A155" s="63"/>
+      <c r="B155" s="9">
+        <v>41766</v>
+      </c>
+      <c r="C155" s="37"/>
+      <c r="D155" s="37"/>
+      <c r="E155" s="37"/>
+      <c r="F155" s="37"/>
+      <c r="G155" s="37"/>
+      <c r="H155" s="37"/>
+      <c r="I155" s="37"/>
+      <c r="J155" s="37"/>
       <c r="K155" s="54"/>
       <c r="L155" s="54"/>
       <c r="M155" s="54"/>
       <c r="N155" s="54"/>
     </row>
     <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="95"/>
-      <c r="B156" s="2">
-        <v>41772</v>
-      </c>
-      <c r="C156" s="44"/>
-      <c r="D156" s="44"/>
-      <c r="E156" s="44"/>
-      <c r="F156" s="44"/>
-      <c r="G156" s="44"/>
-      <c r="H156" s="44"/>
-      <c r="I156" s="44"/>
-      <c r="J156" s="44"/>
+      <c r="A156" s="63"/>
+      <c r="B156" s="9">
+        <v>41767</v>
+      </c>
+      <c r="C156" s="37"/>
+      <c r="D156" s="37"/>
+      <c r="E156" s="37"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="37"/>
+      <c r="H156" s="37"/>
+      <c r="I156" s="37"/>
+      <c r="J156" s="37"/>
       <c r="K156" s="54"/>
       <c r="L156" s="54"/>
       <c r="M156" s="54"/>
       <c r="N156" s="54"/>
     </row>
     <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="95"/>
-      <c r="B157" s="2">
-        <v>41773</v>
-      </c>
-      <c r="C157" s="44"/>
-      <c r="D157" s="44"/>
-      <c r="E157" s="44"/>
-      <c r="F157" s="44"/>
-      <c r="G157" s="44"/>
-      <c r="H157" s="44"/>
-      <c r="I157" s="44"/>
-      <c r="J157" s="44"/>
+      <c r="A157" s="63"/>
+      <c r="B157" s="9">
+        <v>41768</v>
+      </c>
+      <c r="C157" s="37"/>
+      <c r="D157" s="37"/>
+      <c r="E157" s="37"/>
+      <c r="F157" s="37"/>
+      <c r="G157" s="37"/>
+      <c r="H157" s="37"/>
+      <c r="I157" s="37"/>
+      <c r="J157" s="37"/>
       <c r="K157" s="54"/>
       <c r="L157" s="54"/>
       <c r="M157" s="54"/>
       <c r="N157" s="54"/>
     </row>
     <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="95"/>
+      <c r="A158" s="67">
+        <v>28</v>
+      </c>
       <c r="B158" s="2">
-        <v>41774</v>
+        <v>41771</v>
       </c>
       <c r="C158" s="44"/>
       <c r="D158" s="44"/>
@@ -4928,9 +5048,9 @@
       <c r="N158" s="54"/>
     </row>
     <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="95"/>
+      <c r="A159" s="67"/>
       <c r="B159" s="2">
-        <v>41775</v>
+        <v>41772</v>
       </c>
       <c r="C159" s="44"/>
       <c r="D159" s="44"/>
@@ -4946,65 +5066,65 @@
       <c r="N159" s="54"/>
     </row>
     <row r="160" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="94">
-        <v>29</v>
-      </c>
-      <c r="B160" s="9">
-        <v>41778</v>
-      </c>
-      <c r="C160" s="37"/>
-      <c r="D160" s="37"/>
-      <c r="E160" s="37"/>
-      <c r="F160" s="37"/>
-      <c r="G160" s="37"/>
-      <c r="H160" s="37"/>
-      <c r="I160" s="37"/>
-      <c r="J160" s="37"/>
+      <c r="A160" s="67"/>
+      <c r="B160" s="2">
+        <v>41773</v>
+      </c>
+      <c r="C160" s="44"/>
+      <c r="D160" s="44"/>
+      <c r="E160" s="44"/>
+      <c r="F160" s="44"/>
+      <c r="G160" s="44"/>
+      <c r="H160" s="44"/>
+      <c r="I160" s="44"/>
+      <c r="J160" s="44"/>
       <c r="K160" s="54"/>
       <c r="L160" s="54"/>
       <c r="M160" s="54"/>
       <c r="N160" s="54"/>
     </row>
     <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="94"/>
-      <c r="B161" s="9">
-        <v>41779</v>
-      </c>
-      <c r="C161" s="37"/>
-      <c r="D161" s="37"/>
-      <c r="E161" s="37"/>
-      <c r="F161" s="37"/>
-      <c r="G161" s="37"/>
-      <c r="H161" s="37"/>
-      <c r="I161" s="37"/>
-      <c r="J161" s="37"/>
+      <c r="A161" s="67"/>
+      <c r="B161" s="2">
+        <v>41774</v>
+      </c>
+      <c r="C161" s="44"/>
+      <c r="D161" s="44"/>
+      <c r="E161" s="44"/>
+      <c r="F161" s="44"/>
+      <c r="G161" s="44"/>
+      <c r="H161" s="44"/>
+      <c r="I161" s="44"/>
+      <c r="J161" s="44"/>
       <c r="K161" s="54"/>
       <c r="L161" s="54"/>
       <c r="M161" s="54"/>
       <c r="N161" s="54"/>
     </row>
     <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="94"/>
-      <c r="B162" s="9">
-        <v>41780</v>
-      </c>
-      <c r="C162" s="37"/>
-      <c r="D162" s="37"/>
-      <c r="E162" s="37"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="37"/>
-      <c r="H162" s="37"/>
-      <c r="I162" s="37"/>
-      <c r="J162" s="37"/>
+      <c r="A162" s="67"/>
+      <c r="B162" s="2">
+        <v>41775</v>
+      </c>
+      <c r="C162" s="44"/>
+      <c r="D162" s="44"/>
+      <c r="E162" s="44"/>
+      <c r="F162" s="44"/>
+      <c r="G162" s="44"/>
+      <c r="H162" s="44"/>
+      <c r="I162" s="44"/>
+      <c r="J162" s="44"/>
       <c r="K162" s="54"/>
       <c r="L162" s="54"/>
       <c r="M162" s="54"/>
       <c r="N162" s="54"/>
     </row>
     <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="94"/>
+      <c r="A163" s="63">
+        <v>29</v>
+      </c>
       <c r="B163" s="9">
-        <v>41781</v>
+        <v>41778</v>
       </c>
       <c r="C163" s="37"/>
       <c r="D163" s="37"/>
@@ -5020,9 +5140,9 @@
       <c r="N163" s="54"/>
     </row>
     <row r="164" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="94"/>
+      <c r="A164" s="63"/>
       <c r="B164" s="9">
-        <v>41782</v>
+        <v>41779</v>
       </c>
       <c r="C164" s="37"/>
       <c r="D164" s="37"/>
@@ -5038,65 +5158,65 @@
       <c r="N164" s="54"/>
     </row>
     <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="98">
-        <v>30</v>
-      </c>
-      <c r="B165" s="2">
-        <v>41785</v>
-      </c>
-      <c r="C165" s="40"/>
-      <c r="D165" s="40"/>
-      <c r="E165" s="40"/>
-      <c r="F165" s="40"/>
-      <c r="G165" s="40"/>
-      <c r="H165" s="40"/>
-      <c r="I165" s="40"/>
-      <c r="J165" s="40"/>
+      <c r="A165" s="63"/>
+      <c r="B165" s="9">
+        <v>41780</v>
+      </c>
+      <c r="C165" s="37"/>
+      <c r="D165" s="37"/>
+      <c r="E165" s="37"/>
+      <c r="F165" s="37"/>
+      <c r="G165" s="37"/>
+      <c r="H165" s="37"/>
+      <c r="I165" s="37"/>
+      <c r="J165" s="37"/>
       <c r="K165" s="54"/>
       <c r="L165" s="54"/>
       <c r="M165" s="54"/>
       <c r="N165" s="54"/>
     </row>
     <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="98"/>
-      <c r="B166" s="2">
-        <v>41786</v>
-      </c>
-      <c r="C166" s="40"/>
-      <c r="D166" s="40"/>
-      <c r="E166" s="40"/>
-      <c r="F166" s="40"/>
-      <c r="G166" s="40"/>
-      <c r="H166" s="40"/>
-      <c r="I166" s="40"/>
-      <c r="J166" s="40"/>
+      <c r="A166" s="63"/>
+      <c r="B166" s="9">
+        <v>41781</v>
+      </c>
+      <c r="C166" s="37"/>
+      <c r="D166" s="37"/>
+      <c r="E166" s="37"/>
+      <c r="F166" s="37"/>
+      <c r="G166" s="37"/>
+      <c r="H166" s="37"/>
+      <c r="I166" s="37"/>
+      <c r="J166" s="37"/>
       <c r="K166" s="54"/>
       <c r="L166" s="54"/>
       <c r="M166" s="54"/>
       <c r="N166" s="54"/>
     </row>
     <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="98"/>
-      <c r="B167" s="2">
-        <v>41787</v>
-      </c>
-      <c r="C167" s="40"/>
-      <c r="D167" s="40"/>
-      <c r="E167" s="40"/>
-      <c r="F167" s="40"/>
-      <c r="G167" s="40"/>
-      <c r="H167" s="40"/>
-      <c r="I167" s="40"/>
-      <c r="J167" s="40"/>
+      <c r="A167" s="63"/>
+      <c r="B167" s="9">
+        <v>41782</v>
+      </c>
+      <c r="C167" s="37"/>
+      <c r="D167" s="37"/>
+      <c r="E167" s="37"/>
+      <c r="F167" s="37"/>
+      <c r="G167" s="37"/>
+      <c r="H167" s="37"/>
+      <c r="I167" s="37"/>
+      <c r="J167" s="37"/>
       <c r="K167" s="54"/>
       <c r="L167" s="54"/>
       <c r="M167" s="54"/>
       <c r="N167" s="54"/>
     </row>
     <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="98"/>
+      <c r="A168" s="68">
+        <v>30</v>
+      </c>
       <c r="B168" s="2">
-        <v>41788</v>
+        <v>41785</v>
       </c>
       <c r="C168" s="40"/>
       <c r="D168" s="40"/>
@@ -5112,9 +5232,9 @@
       <c r="N168" s="54"/>
     </row>
     <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="98"/>
+      <c r="A169" s="68"/>
       <c r="B169" s="2">
-        <v>41789</v>
+        <v>41786</v>
       </c>
       <c r="C169" s="40"/>
       <c r="D169" s="40"/>
@@ -5130,63 +5250,63 @@
       <c r="N169" s="54"/>
     </row>
     <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="98"/>
-      <c r="B170" s="10">
-        <v>41790</v>
-      </c>
-      <c r="C170" s="54"/>
-      <c r="D170" s="54"/>
-      <c r="E170" s="54"/>
-      <c r="F170" s="54"/>
-      <c r="G170" s="54"/>
-      <c r="H170" s="54"/>
-      <c r="I170" s="54"/>
-      <c r="J170" s="54"/>
+      <c r="A170" s="68"/>
+      <c r="B170" s="2">
+        <v>41787</v>
+      </c>
+      <c r="C170" s="40"/>
+      <c r="D170" s="40"/>
+      <c r="E170" s="40"/>
+      <c r="F170" s="40"/>
+      <c r="G170" s="40"/>
+      <c r="H170" s="40"/>
+      <c r="I170" s="40"/>
+      <c r="J170" s="40"/>
       <c r="K170" s="54"/>
       <c r="L170" s="54"/>
       <c r="M170" s="54"/>
       <c r="N170" s="54"/>
     </row>
     <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="55"/>
+      <c r="A171" s="68"/>
       <c r="B171" s="2">
-        <v>41791</v>
-      </c>
-      <c r="C171" s="54"/>
-      <c r="D171" s="54"/>
-      <c r="E171" s="54"/>
-      <c r="F171" s="54"/>
-      <c r="G171" s="54"/>
-      <c r="H171" s="54"/>
-      <c r="I171" s="54"/>
-      <c r="J171" s="54"/>
+        <v>41788</v>
+      </c>
+      <c r="C171" s="40"/>
+      <c r="D171" s="40"/>
+      <c r="E171" s="40"/>
+      <c r="F171" s="40"/>
+      <c r="G171" s="40"/>
+      <c r="H171" s="40"/>
+      <c r="I171" s="40"/>
+      <c r="J171" s="40"/>
       <c r="K171" s="54"/>
       <c r="L171" s="54"/>
       <c r="M171" s="54"/>
       <c r="N171" s="54"/>
     </row>
     <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="54"/>
+      <c r="A172" s="68"/>
       <c r="B172" s="2">
-        <v>41792</v>
-      </c>
-      <c r="C172" s="54"/>
-      <c r="D172" s="54"/>
-      <c r="E172" s="54"/>
-      <c r="F172" s="54"/>
-      <c r="G172" s="54"/>
-      <c r="H172" s="54"/>
-      <c r="I172" s="54"/>
-      <c r="J172" s="54"/>
+        <v>41789</v>
+      </c>
+      <c r="C172" s="40"/>
+      <c r="D172" s="40"/>
+      <c r="E172" s="40"/>
+      <c r="F172" s="40"/>
+      <c r="G172" s="40"/>
+      <c r="H172" s="40"/>
+      <c r="I172" s="40"/>
+      <c r="J172" s="40"/>
       <c r="K172" s="54"/>
       <c r="L172" s="54"/>
       <c r="M172" s="54"/>
       <c r="N172" s="54"/>
     </row>
     <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="54"/>
-      <c r="B173" s="2">
-        <v>41793</v>
+      <c r="A173" s="68"/>
+      <c r="B173" s="10">
+        <v>41790</v>
       </c>
       <c r="C173" s="54"/>
       <c r="D173" s="54"/>
@@ -5202,9 +5322,9 @@
       <c r="N173" s="54"/>
     </row>
     <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="54"/>
+      <c r="A174" s="55"/>
       <c r="B174" s="2">
-        <v>41794</v>
+        <v>41791</v>
       </c>
       <c r="C174" s="54"/>
       <c r="D174" s="54"/>
@@ -5222,7 +5342,7 @@
     <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" s="54"/>
       <c r="B175" s="2">
-        <v>41795</v>
+        <v>41792</v>
       </c>
       <c r="C175" s="54"/>
       <c r="D175" s="54"/>
@@ -5240,7 +5360,7 @@
     <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A176" s="54"/>
       <c r="B176" s="2">
-        <v>41796</v>
+        <v>41793</v>
       </c>
       <c r="C176" s="54"/>
       <c r="D176" s="54"/>
@@ -5258,7 +5378,7 @@
     <row r="177" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A177" s="54"/>
       <c r="B177" s="2">
-        <v>41797</v>
+        <v>41794</v>
       </c>
       <c r="C177" s="54"/>
       <c r="D177" s="54"/>
@@ -5276,7 +5396,7 @@
     <row r="178" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A178" s="54"/>
       <c r="B178" s="2">
-        <v>41798</v>
+        <v>41795</v>
       </c>
       <c r="C178" s="54"/>
       <c r="D178" s="54"/>
@@ -5294,7 +5414,7 @@
     <row r="179" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A179" s="54"/>
       <c r="B179" s="2">
-        <v>41799</v>
+        <v>41796</v>
       </c>
       <c r="C179" s="54"/>
       <c r="D179" s="54"/>
@@ -5312,7 +5432,7 @@
     <row r="180" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" s="54"/>
       <c r="B180" s="2">
-        <v>41800</v>
+        <v>41797</v>
       </c>
       <c r="C180" s="54"/>
       <c r="D180" s="54"/>
@@ -5330,7 +5450,7 @@
     <row r="181" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A181" s="54"/>
       <c r="B181" s="2">
-        <v>41801</v>
+        <v>41798</v>
       </c>
       <c r="C181" s="54"/>
       <c r="D181" s="54"/>
@@ -5348,7 +5468,7 @@
     <row r="182" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A182" s="54"/>
       <c r="B182" s="2">
-        <v>41802</v>
+        <v>41799</v>
       </c>
       <c r="C182" s="54"/>
       <c r="D182" s="54"/>
@@ -5366,7 +5486,7 @@
     <row r="183" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" s="54"/>
       <c r="B183" s="2">
-        <v>41803</v>
+        <v>41800</v>
       </c>
       <c r="C183" s="54"/>
       <c r="D183" s="54"/>
@@ -5384,7 +5504,7 @@
     <row r="184" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" s="54"/>
       <c r="B184" s="2">
-        <v>41804</v>
+        <v>41801</v>
       </c>
       <c r="C184" s="54"/>
       <c r="D184" s="54"/>
@@ -5402,7 +5522,7 @@
     <row r="185" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="54"/>
       <c r="B185" s="2">
-        <v>41805</v>
+        <v>41802</v>
       </c>
       <c r="C185" s="54"/>
       <c r="D185" s="54"/>
@@ -5420,7 +5540,7 @@
     <row r="186" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="54"/>
       <c r="B186" s="2">
-        <v>41806</v>
+        <v>41803</v>
       </c>
       <c r="C186" s="54"/>
       <c r="D186" s="54"/>
@@ -5438,7 +5558,7 @@
     <row r="187" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="54"/>
       <c r="B187" s="2">
-        <v>41807</v>
+        <v>41804</v>
       </c>
       <c r="C187" s="54"/>
       <c r="D187" s="54"/>
@@ -5456,7 +5576,7 @@
     <row r="188" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="54"/>
       <c r="B188" s="2">
-        <v>41808</v>
+        <v>41805</v>
       </c>
       <c r="C188" s="54"/>
       <c r="D188" s="54"/>
@@ -5474,7 +5594,7 @@
     <row r="189" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="54"/>
       <c r="B189" s="2">
-        <v>41809</v>
+        <v>41806</v>
       </c>
       <c r="C189" s="54"/>
       <c r="D189" s="54"/>
@@ -5492,7 +5612,7 @@
     <row r="190" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="54"/>
       <c r="B190" s="2">
-        <v>41810</v>
+        <v>41807</v>
       </c>
       <c r="C190" s="54"/>
       <c r="D190" s="54"/>
@@ -5510,7 +5630,7 @@
     <row r="191" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="54"/>
       <c r="B191" s="2">
-        <v>41811</v>
+        <v>41808</v>
       </c>
       <c r="C191" s="54"/>
       <c r="D191" s="54"/>
@@ -5528,7 +5648,7 @@
     <row r="192" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" s="54"/>
       <c r="B192" s="2">
-        <v>41812</v>
+        <v>41809</v>
       </c>
       <c r="C192" s="54"/>
       <c r="D192" s="54"/>
@@ -5546,7 +5666,7 @@
     <row r="193" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" s="54"/>
       <c r="B193" s="2">
-        <v>41813</v>
+        <v>41810</v>
       </c>
       <c r="C193" s="54"/>
       <c r="D193" s="54"/>
@@ -5564,7 +5684,7 @@
     <row r="194" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="54"/>
       <c r="B194" s="2">
-        <v>41814</v>
+        <v>41811</v>
       </c>
       <c r="C194" s="54"/>
       <c r="D194" s="54"/>
@@ -5582,7 +5702,7 @@
     <row r="195" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="54"/>
       <c r="B195" s="2">
-        <v>41815</v>
+        <v>41812</v>
       </c>
       <c r="C195" s="54"/>
       <c r="D195" s="54"/>
@@ -5600,7 +5720,7 @@
     <row r="196" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="54"/>
       <c r="B196" s="2">
-        <v>41816</v>
+        <v>41813</v>
       </c>
       <c r="C196" s="54"/>
       <c r="D196" s="54"/>
@@ -5618,7 +5738,7 @@
     <row r="197" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="54"/>
       <c r="B197" s="2">
-        <v>41817</v>
+        <v>41814</v>
       </c>
       <c r="C197" s="54"/>
       <c r="D197" s="54"/>
@@ -5636,7 +5756,7 @@
     <row r="198" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="54"/>
       <c r="B198" s="2">
-        <v>41818</v>
+        <v>41815</v>
       </c>
       <c r="C198" s="54"/>
       <c r="D198" s="54"/>
@@ -5654,7 +5774,7 @@
     <row r="199" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" s="54"/>
       <c r="B199" s="2">
-        <v>41819</v>
+        <v>41816</v>
       </c>
       <c r="C199" s="54"/>
       <c r="D199" s="54"/>
@@ -5668,7 +5788,7 @@
     <row r="200" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="54"/>
       <c r="B200" s="2">
-        <v>41820</v>
+        <v>41817</v>
       </c>
       <c r="C200" s="54"/>
       <c r="D200" s="54"/>
@@ -5682,7 +5802,7 @@
     <row r="201" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="54"/>
       <c r="B201" s="2">
-        <v>41821</v>
+        <v>41818</v>
       </c>
       <c r="C201" s="54"/>
       <c r="D201" s="54"/>
@@ -5696,7 +5816,7 @@
     <row r="202" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="54"/>
       <c r="B202" s="2">
-        <v>41822</v>
+        <v>41819</v>
       </c>
       <c r="C202" s="54"/>
       <c r="D202" s="54"/>
@@ -5710,7 +5830,7 @@
     <row r="203" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="54"/>
       <c r="B203" s="2">
-        <v>41823</v>
+        <v>41820</v>
       </c>
       <c r="C203" s="54"/>
       <c r="D203" s="54"/>
@@ -5724,7 +5844,7 @@
     <row r="204" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" s="54"/>
       <c r="B204" s="2">
-        <v>41824</v>
+        <v>41821</v>
       </c>
       <c r="C204" s="54"/>
       <c r="D204" s="54"/>
@@ -5735,42 +5855,55 @@
       <c r="I204" s="54"/>
       <c r="J204" s="54"/>
     </row>
+    <row r="205" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A205" s="54"/>
+      <c r="B205" s="2">
+        <v>41822</v>
+      </c>
+      <c r="C205" s="54"/>
+      <c r="D205" s="54"/>
+      <c r="E205" s="54"/>
+      <c r="F205" s="54"/>
+      <c r="G205" s="54"/>
+      <c r="H205" s="54"/>
+      <c r="I205" s="54"/>
+      <c r="J205" s="54"/>
+    </row>
+    <row r="206" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A206" s="54"/>
+      <c r="B206" s="2">
+        <v>41823</v>
+      </c>
+      <c r="C206" s="54"/>
+      <c r="D206" s="54"/>
+      <c r="E206" s="54"/>
+      <c r="F206" s="54"/>
+      <c r="G206" s="54"/>
+      <c r="H206" s="54"/>
+      <c r="I206" s="54"/>
+      <c r="J206" s="54"/>
+    </row>
+    <row r="207" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A207" s="54"/>
+      <c r="B207" s="2">
+        <v>41824</v>
+      </c>
+      <c r="C207" s="54"/>
+      <c r="D207" s="54"/>
+      <c r="E207" s="54"/>
+      <c r="F207" s="54"/>
+      <c r="G207" s="54"/>
+      <c r="H207" s="54"/>
+      <c r="I207" s="54"/>
+      <c r="J207" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A155:A159"/>
-    <mergeCell ref="A160:A164"/>
-    <mergeCell ref="A165:A170"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="A140:A144"/>
-    <mergeCell ref="A145:A149"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A120:A124"/>
-    <mergeCell ref="A125:A129"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="A110:A114"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A18:A31"/>
+  <mergeCells count="50">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F23:F28"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G2:N4"/>
@@ -5778,11 +5911,44 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="F39:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -5790,7 +5956,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{4014B23A-9A92-4C0A-84AA-38D1DDC243A5}">
+          <x14:cfRule type="iconSet" priority="21" id="{4014B23A-9A92-4C0A-84AA-38D1DDC243A5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5809,7 +5975,7 @@
           <xm:sqref>F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{06A2D883-25A5-47A0-9E42-1356F547AC95}">
+          <x14:cfRule type="iconSet" priority="20" id="{06A2D883-25A5-47A0-9E42-1356F547AC95}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5828,7 +5994,7 @@
           <xm:sqref>F7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{F0155C6B-E81B-4907-9A36-C4DCA4908A78}">
+          <x14:cfRule type="iconSet" priority="19" id="{F0155C6B-E81B-4907-9A36-C4DCA4908A78}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5847,7 +6013,7 @@
           <xm:sqref>F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{B227CB59-278E-4A9D-98EB-7894CC307006}">
+          <x14:cfRule type="iconSet" priority="18" id="{B227CB59-278E-4A9D-98EB-7894CC307006}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5866,7 +6032,7 @@
           <xm:sqref>F13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{4FD1D166-C211-4511-AC07-D417ED483D0B}">
+          <x14:cfRule type="iconSet" priority="17" id="{4FD1D166-C211-4511-AC07-D417ED483D0B}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5885,7 +6051,7 @@
           <xm:sqref>F15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{8ED16EE5-9A95-4A55-8A04-0D8356EDEB0F}">
+          <x14:cfRule type="iconSet" priority="16" id="{8ED16EE5-9A95-4A55-8A04-0D8356EDEB0F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5904,7 +6070,7 @@
           <xm:sqref>F16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{00B9764F-B5E5-41A8-9F73-CE8C6FDA6D14}">
+          <x14:cfRule type="iconSet" priority="15" id="{00B9764F-B5E5-41A8-9F73-CE8C6FDA6D14}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5923,7 +6089,7 @@
           <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{D256993F-A47B-4EA7-86F9-CCDBFB57FDF7}">
+          <x14:cfRule type="iconSet" priority="14" id="{D256993F-A47B-4EA7-86F9-CCDBFB57FDF7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5942,7 +6108,7 @@
           <xm:sqref>F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{D41896BE-84C3-40A6-BA74-3E16B3A102FC}">
+          <x14:cfRule type="iconSet" priority="13" id="{D41896BE-84C3-40A6-BA74-3E16B3A102FC}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5961,7 +6127,7 @@
           <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{CFF9B7E8-896C-4401-A02A-3BD376BFEA70}">
+          <x14:cfRule type="iconSet" priority="12" id="{CFF9B7E8-896C-4401-A02A-3BD376BFEA70}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5980,7 +6146,7 @@
           <xm:sqref>F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{5C24DFB2-DBCA-41B9-8745-C2D5AB086724}">
+          <x14:cfRule type="iconSet" priority="11" id="{5C24DFB2-DBCA-41B9-8745-C2D5AB086724}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5999,7 +6165,7 @@
           <xm:sqref>F19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{883D7404-1110-4331-92AF-9AC0C5174910}">
+          <x14:cfRule type="iconSet" priority="10" id="{883D7404-1110-4331-92AF-9AC0C5174910}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6018,7 +6184,7 @@
           <xm:sqref>F23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{0DC21843-99CC-4844-8211-8B5CBDE1D20E}">
+          <x14:cfRule type="iconSet" priority="8" id="{0DC21843-99CC-4844-8211-8B5CBDE1D20E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6037,7 +6203,7 @@
           <xm:sqref>F29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{E009B2CC-5658-4E63-B7A4-30A20613C5F8}">
+          <x14:cfRule type="iconSet" priority="7" id="{E009B2CC-5658-4E63-B7A4-30A20613C5F8}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6056,7 +6222,7 @@
           <xm:sqref>F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{0177AC9F-6321-4526-94F0-85D67025A301}">
+          <x14:cfRule type="iconSet" priority="6" id="{0177AC9F-6321-4526-94F0-85D67025A301}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6074,6 +6240,63 @@
           </x14:cfRule>
           <xm:sqref>F34</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{D0F9F74B-6C0F-44C8-901E-7631CAAAA939}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{FFD958AA-637C-45FF-AACC-9F33CFE79B58}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{E59CAFDB-01A9-45D0-A1AC-9C4A4BB12EED}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F39</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="135">
   <si>
     <t>Week</t>
   </si>
@@ -458,6 +458,15 @@
   </si>
   <si>
     <t>12:30PM</t>
+  </si>
+  <si>
+    <t>5:00PM</t>
+  </si>
+  <si>
+    <t>Discuss and draw activity diagram of module Ban Tin, Hoi-Dap
+Design interface of system
+Divide task
+Update time log</t>
   </si>
 </sst>
 </file>
@@ -937,6 +946,129 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -946,135 +1078,15 @@
     <xf numFmtId="16" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1083,9 +1095,6 @@
     </xf>
     <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1485,10 +1494,10 @@
   <dimension ref="A1:N207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="J16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1510,82 +1519,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="78"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="73"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="79" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="81"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="76"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="87"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="82"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="96"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="93"/>
       <c r="G5" s="32"/>
       <c r="H5" s="58" t="s">
         <v>112</v>
@@ -1630,10 +1639,10 @@
       <c r="J6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="90"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -1661,20 +1670,20 @@
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="94" t="s">
+      <c r="K7" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="94"/>
+      <c r="L7" s="89"/>
       <c r="M7" s="38">
         <f>SUM(M8:M37)</f>
-        <v>59.18</v>
+        <v>62.68</v>
       </c>
       <c r="N7" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="69">
+      <c r="A8" s="94">
         <v>2</v>
       </c>
       <c r="B8" s="2">
@@ -1689,7 +1698,7 @@
       <c r="E8" s="13">
         <v>1.5</v>
       </c>
-      <c r="F8" s="99">
+      <c r="F8" s="63">
         <f>SUM(E8:E9)</f>
         <v>3</v>
       </c>
@@ -1714,7 +1723,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="2">
         <v>41589</v>
       </c>
@@ -1727,7 +1736,7 @@
       <c r="E9" s="13">
         <v>1.5</v>
       </c>
-      <c r="F9" s="100"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1749,7 +1758,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="2">
         <v>41590</v>
       </c>
@@ -1762,7 +1771,7 @@
       <c r="E10" s="13">
         <v>2</v>
       </c>
-      <c r="F10" s="99">
+      <c r="F10" s="63">
         <f>SUM(E10:E11)</f>
         <v>4</v>
       </c>
@@ -1787,7 +1796,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="2">
         <v>41590</v>
       </c>
@@ -1800,7 +1809,7 @@
       <c r="E11" s="13">
         <v>2</v>
       </c>
-      <c r="F11" s="100"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1815,14 +1824,14 @@
       <c r="L11" s="44"/>
       <c r="M11" s="45">
         <f>SUM(F35:F42)</f>
-        <v>10.58</v>
+        <v>14.08</v>
       </c>
       <c r="N11" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="2">
         <v>41591</v>
       </c>
@@ -1860,7 +1869,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="2">
         <v>41592</v>
       </c>
@@ -1873,7 +1882,7 @@
       <c r="E13" s="13">
         <v>1</v>
       </c>
-      <c r="F13" s="99">
+      <c r="F13" s="63">
         <f>SUM(E13:E14)</f>
         <v>2.25</v>
       </c>
@@ -1898,7 +1907,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="2">
         <v>41592</v>
       </c>
@@ -1911,7 +1920,7 @@
       <c r="E14" s="13">
         <v>1.25</v>
       </c>
-      <c r="F14" s="100"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="21" t="s">
         <v>28</v>
       </c>
@@ -1933,7 +1942,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="2">
         <v>41593</v>
       </c>
@@ -1971,7 +1980,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="23">
         <v>41594</v>
       </c>
@@ -2009,7 +2018,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="23">
         <v>41595</v>
       </c>
@@ -2047,7 +2056,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="72">
+      <c r="A18" s="99">
         <v>3</v>
       </c>
       <c r="B18" s="9">
@@ -2087,8 +2096,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="60">
+      <c r="A19" s="97"/>
+      <c r="B19" s="101">
         <v>41597</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2100,7 +2109,7 @@
       <c r="E19" s="22">
         <v>1</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="65">
         <f>SUM(E19:E21)</f>
         <v>4.6500000000000004</v>
       </c>
@@ -2125,8 +2134,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="3" t="s">
         <v>91</v>
       </c>
@@ -2136,7 +2145,7 @@
       <c r="E20" s="22">
         <v>1.5</v>
       </c>
-      <c r="F20" s="65"/>
+      <c r="F20" s="66"/>
       <c r="G20" s="28" t="s">
         <v>27</v>
       </c>
@@ -2160,8 +2169,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
-      <c r="B21" s="62"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
@@ -2171,7 +2180,7 @@
       <c r="E21" s="22">
         <v>2.15</v>
       </c>
-      <c r="F21" s="66"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="28" t="s">
         <v>27</v>
       </c>
@@ -2195,7 +2204,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
+      <c r="A22" s="97"/>
       <c r="B22" s="9">
         <v>41598</v>
       </c>
@@ -2235,8 +2244,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="60">
+      <c r="A23" s="97"/>
+      <c r="B23" s="101">
         <v>41599</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2248,7 +2257,7 @@
       <c r="E23" s="22">
         <v>1</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="65">
         <f>SUM(E23:E28)</f>
         <v>9.65</v>
       </c>
@@ -2275,8 +2284,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="61"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
@@ -2286,7 +2295,7 @@
       <c r="E24" s="22">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F24" s="65"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="29" t="s">
         <v>28</v>
       </c>
@@ -2308,8 +2317,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="61"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="3" t="s">
         <v>101</v>
       </c>
@@ -2319,7 +2328,7 @@
       <c r="E25" s="22">
         <v>1.33</v>
       </c>
-      <c r="F25" s="65"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="26" t="s">
         <v>64</v>
       </c>
@@ -2341,8 +2350,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
-      <c r="B26" s="61"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
@@ -2352,7 +2361,7 @@
       <c r="E26" s="22">
         <v>1.5</v>
       </c>
-      <c r="F26" s="65"/>
+      <c r="F26" s="66"/>
       <c r="G26" s="28" t="s">
         <v>27</v>
       </c>
@@ -2374,8 +2383,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
-      <c r="B27" s="61"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
@@ -2385,7 +2394,7 @@
       <c r="E27" s="22">
         <v>2.16</v>
       </c>
-      <c r="F27" s="65"/>
+      <c r="F27" s="66"/>
       <c r="G27" s="26" t="s">
         <v>64</v>
       </c>
@@ -2407,8 +2416,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
-      <c r="B28" s="62"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
@@ -2418,7 +2427,7 @@
       <c r="E28" s="22">
         <v>2.5</v>
       </c>
-      <c r="F28" s="66"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="28" t="s">
         <v>27</v>
       </c>
@@ -2442,8 +2451,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A29" s="63"/>
-      <c r="B29" s="60">
+      <c r="A29" s="97"/>
+      <c r="B29" s="101">
         <v>41600</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2455,7 +2464,7 @@
       <c r="E29" s="22">
         <v>1.5</v>
       </c>
-      <c r="F29" s="64">
+      <c r="F29" s="65">
         <f>SUM(E29:E31)</f>
         <v>5.5</v>
       </c>
@@ -2482,8 +2491,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
-      <c r="B30" s="61"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
@@ -2493,7 +2502,7 @@
       <c r="E30" s="22">
         <v>1.5</v>
       </c>
-      <c r="F30" s="65"/>
+      <c r="F30" s="66"/>
       <c r="G30" s="28" t="s">
         <v>27</v>
       </c>
@@ -2517,8 +2526,8 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
-      <c r="B31" s="62"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
@@ -2528,7 +2537,7 @@
       <c r="E31" s="22">
         <v>2.5</v>
       </c>
-      <c r="F31" s="66"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="28" t="s">
         <v>27</v>
       </c>
@@ -2552,8 +2561,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
-      <c r="B32" s="60">
+      <c r="A32" s="97"/>
+      <c r="B32" s="101">
         <v>41601</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2565,7 +2574,7 @@
       <c r="E32" s="22">
         <v>1.5</v>
       </c>
-      <c r="F32" s="64">
+      <c r="F32" s="65">
         <f>SUM(E32:E33)</f>
         <v>2.5</v>
       </c>
@@ -2590,8 +2599,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="62"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="3" t="s">
         <v>83</v>
       </c>
@@ -2601,7 +2610,7 @@
       <c r="E33" s="22">
         <v>1</v>
       </c>
-      <c r="F33" s="66"/>
+      <c r="F33" s="67"/>
       <c r="G33" s="28" t="s">
         <v>27</v>
       </c>
@@ -2704,7 +2713,7 @@
     </row>
     <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
-      <c r="B36" s="101">
+      <c r="B36" s="104">
         <v>41604</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -2716,7 +2725,7 @@
       <c r="E36" s="25">
         <v>2.5</v>
       </c>
-      <c r="F36" s="106">
+      <c r="F36" s="107">
         <f>SUM(E36:E38)</f>
         <v>5.25</v>
       </c>
@@ -2752,11 +2761,11 @@
       <c r="E37" s="25">
         <v>1.25</v>
       </c>
-      <c r="F37" s="107"/>
-      <c r="G37" s="104" t="s">
+      <c r="F37" s="108"/>
+      <c r="G37" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="H37" s="103" t="s">
+      <c r="H37" s="60" t="s">
         <v>126</v>
       </c>
       <c r="I37" s="44"/>
@@ -2775,7 +2784,7 @@
     </row>
     <row r="38" spans="1:14" ht="33" x14ac:dyDescent="0.25">
       <c r="A38" s="53"/>
-      <c r="B38" s="102"/>
+      <c r="B38" s="106"/>
       <c r="C38" s="24" t="s">
         <v>84</v>
       </c>
@@ -2785,11 +2794,11 @@
       <c r="E38" s="25">
         <v>1.5</v>
       </c>
-      <c r="F38" s="108"/>
-      <c r="G38" s="104" t="s">
+      <c r="F38" s="109"/>
+      <c r="G38" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="103" t="s">
+      <c r="H38" s="60" t="s">
         <v>127</v>
       </c>
       <c r="I38" s="44"/>
@@ -2801,7 +2810,7 @@
     </row>
     <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
-      <c r="B39" s="101">
+      <c r="B39" s="104">
         <v>41605</v>
       </c>
       <c r="C39" s="24" t="s">
@@ -2813,14 +2822,14 @@
       <c r="E39" s="25">
         <v>1</v>
       </c>
-      <c r="F39" s="106">
+      <c r="F39" s="107">
         <f>SUM(E39:E40)</f>
         <v>3.33</v>
       </c>
-      <c r="G39" s="104" t="s">
+      <c r="G39" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="103" t="s">
+      <c r="H39" s="60" t="s">
         <v>131</v>
       </c>
       <c r="I39" s="44"/>
@@ -2832,7 +2841,7 @@
     </row>
     <row r="40" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A40" s="53"/>
-      <c r="B40" s="102"/>
+      <c r="B40" s="106"/>
       <c r="C40" s="24" t="s">
         <v>63</v>
       </c>
@@ -2842,11 +2851,11 @@
       <c r="E40" s="25">
         <v>2.33</v>
       </c>
-      <c r="F40" s="108"/>
-      <c r="G40" s="104" t="s">
+      <c r="F40" s="109"/>
+      <c r="G40" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="109" t="s">
+      <c r="H40" s="62" t="s">
         <v>129</v>
       </c>
       <c r="I40" s="44"/>
@@ -2874,16 +2883,30 @@
       <c r="M41" s="54"/>
       <c r="N41" s="54"/>
     </row>
-    <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="A42" s="53"/>
       <c r="B42" s="2">
         <v>41607</v>
       </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
+      <c r="C42" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="F42" s="57">
+        <f t="shared" ref="F42" si="5">E42</f>
+        <v>3.5</v>
+      </c>
+      <c r="G42" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="60" t="s">
+        <v>134</v>
+      </c>
       <c r="I42" s="44"/>
       <c r="J42" s="44"/>
       <c r="K42" s="54"/>
@@ -2892,7 +2915,7 @@
       <c r="N42" s="54"/>
     </row>
     <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="63">
+      <c r="A43" s="97">
         <v>5</v>
       </c>
       <c r="B43" s="9">
@@ -2912,7 +2935,7 @@
       <c r="N43" s="54"/>
     </row>
     <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
+      <c r="A44" s="97"/>
       <c r="B44" s="9">
         <v>41611</v>
       </c>
@@ -2930,7 +2953,7 @@
       <c r="N44" s="54"/>
     </row>
     <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
+      <c r="A45" s="97"/>
       <c r="B45" s="9">
         <v>41612</v>
       </c>
@@ -2948,7 +2971,7 @@
       <c r="N45" s="54"/>
     </row>
     <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
+      <c r="A46" s="97"/>
       <c r="B46" s="9">
         <v>41613</v>
       </c>
@@ -2966,7 +2989,7 @@
       <c r="N46" s="54"/>
     </row>
     <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
+      <c r="A47" s="97"/>
       <c r="B47" s="9">
         <v>41614</v>
       </c>
@@ -2984,7 +3007,7 @@
       <c r="N47" s="54"/>
     </row>
     <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="67">
+      <c r="A48" s="98">
         <v>6</v>
       </c>
       <c r="B48" s="2">
@@ -3004,7 +3027,7 @@
       <c r="N48" s="54"/>
     </row>
     <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
+      <c r="A49" s="98"/>
       <c r="B49" s="2">
         <v>41618</v>
       </c>
@@ -3022,7 +3045,7 @@
       <c r="N49" s="54"/>
     </row>
     <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="67"/>
+      <c r="A50" s="98"/>
       <c r="B50" s="2">
         <v>41619</v>
       </c>
@@ -3040,7 +3063,7 @@
       <c r="N50" s="54"/>
     </row>
     <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
+      <c r="A51" s="98"/>
       <c r="B51" s="2">
         <v>41620</v>
       </c>
@@ -3058,7 +3081,7 @@
       <c r="N51" s="54"/>
     </row>
     <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="67"/>
+      <c r="A52" s="98"/>
       <c r="B52" s="2">
         <v>41621</v>
       </c>
@@ -3076,7 +3099,7 @@
       <c r="N52" s="54"/>
     </row>
     <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="63">
+      <c r="A53" s="97">
         <v>7</v>
       </c>
       <c r="B53" s="9">
@@ -3096,7 +3119,7 @@
       <c r="N53" s="54"/>
     </row>
     <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="63"/>
+      <c r="A54" s="97"/>
       <c r="B54" s="9">
         <v>41625</v>
       </c>
@@ -3114,7 +3137,7 @@
       <c r="N54" s="54"/>
     </row>
     <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="63"/>
+      <c r="A55" s="97"/>
       <c r="B55" s="9">
         <v>41626</v>
       </c>
@@ -3132,7 +3155,7 @@
       <c r="N55" s="54"/>
     </row>
     <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
+      <c r="A56" s="97"/>
       <c r="B56" s="9">
         <v>41627</v>
       </c>
@@ -3150,7 +3173,7 @@
       <c r="N56" s="54"/>
     </row>
     <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
+      <c r="A57" s="97"/>
       <c r="B57" s="9">
         <v>41628</v>
       </c>
@@ -3168,7 +3191,7 @@
       <c r="N57" s="54"/>
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="67">
+      <c r="A58" s="98">
         <v>8</v>
       </c>
       <c r="B58" s="2">
@@ -3188,7 +3211,7 @@
       <c r="N58" s="54"/>
     </row>
     <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="67"/>
+      <c r="A59" s="98"/>
       <c r="B59" s="2">
         <v>41632</v>
       </c>
@@ -3206,7 +3229,7 @@
       <c r="N59" s="54"/>
     </row>
     <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="67"/>
+      <c r="A60" s="98"/>
       <c r="B60" s="2">
         <v>41633</v>
       </c>
@@ -3224,7 +3247,7 @@
       <c r="N60" s="54"/>
     </row>
     <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="67"/>
+      <c r="A61" s="98"/>
       <c r="B61" s="2">
         <v>41634</v>
       </c>
@@ -3242,7 +3265,7 @@
       <c r="N61" s="54"/>
     </row>
     <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="67"/>
+      <c r="A62" s="98"/>
       <c r="B62" s="2">
         <v>41635</v>
       </c>
@@ -3260,7 +3283,7 @@
       <c r="N62" s="54"/>
     </row>
     <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="63">
+      <c r="A63" s="97">
         <v>9</v>
       </c>
       <c r="B63" s="9">
@@ -3280,7 +3303,7 @@
       <c r="N63" s="54"/>
     </row>
     <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
+      <c r="A64" s="97"/>
       <c r="B64" s="9">
         <v>41639</v>
       </c>
@@ -3298,7 +3321,7 @@
       <c r="N64" s="54"/>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
+      <c r="A65" s="97"/>
       <c r="B65" s="9">
         <v>41640</v>
       </c>
@@ -3316,7 +3339,7 @@
       <c r="N65" s="54"/>
     </row>
     <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="63"/>
+      <c r="A66" s="97"/>
       <c r="B66" s="9">
         <v>41641</v>
       </c>
@@ -3334,7 +3357,7 @@
       <c r="N66" s="54"/>
     </row>
     <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="63"/>
+      <c r="A67" s="97"/>
       <c r="B67" s="9">
         <v>41642</v>
       </c>
@@ -3352,7 +3375,7 @@
       <c r="N67" s="54"/>
     </row>
     <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="67">
+      <c r="A68" s="98">
         <v>10</v>
       </c>
       <c r="B68" s="2">
@@ -3372,7 +3395,7 @@
       <c r="N68" s="54"/>
     </row>
     <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="67"/>
+      <c r="A69" s="98"/>
       <c r="B69" s="2">
         <v>41646</v>
       </c>
@@ -3390,7 +3413,7 @@
       <c r="N69" s="54"/>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
+      <c r="A70" s="98"/>
       <c r="B70" s="2">
         <v>41647</v>
       </c>
@@ -3408,7 +3431,7 @@
       <c r="N70" s="54"/>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="67"/>
+      <c r="A71" s="98"/>
       <c r="B71" s="2">
         <v>41648</v>
       </c>
@@ -3426,7 +3449,7 @@
       <c r="N71" s="54"/>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="67"/>
+      <c r="A72" s="98"/>
       <c r="B72" s="2">
         <v>41649</v>
       </c>
@@ -3444,7 +3467,7 @@
       <c r="N72" s="54"/>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="63">
+      <c r="A73" s="97">
         <v>11</v>
       </c>
       <c r="B73" s="9">
@@ -3464,7 +3487,7 @@
       <c r="N73" s="54"/>
     </row>
     <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="63"/>
+      <c r="A74" s="97"/>
       <c r="B74" s="9">
         <v>41653</v>
       </c>
@@ -3482,7 +3505,7 @@
       <c r="N74" s="54"/>
     </row>
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="63"/>
+      <c r="A75" s="97"/>
       <c r="B75" s="9">
         <v>41654</v>
       </c>
@@ -3500,7 +3523,7 @@
       <c r="N75" s="54"/>
     </row>
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="63"/>
+      <c r="A76" s="97"/>
       <c r="B76" s="9">
         <v>41655</v>
       </c>
@@ -3518,7 +3541,7 @@
       <c r="N76" s="54"/>
     </row>
     <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="63"/>
+      <c r="A77" s="97"/>
       <c r="B77" s="9">
         <v>41656</v>
       </c>
@@ -3536,7 +3559,7 @@
       <c r="N77" s="54"/>
     </row>
     <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="67">
+      <c r="A78" s="98">
         <v>12</v>
       </c>
       <c r="B78" s="2">
@@ -3556,7 +3579,7 @@
       <c r="N78" s="54"/>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="67"/>
+      <c r="A79" s="98"/>
       <c r="B79" s="2">
         <v>41660</v>
       </c>
@@ -3574,7 +3597,7 @@
       <c r="N79" s="54"/>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="67"/>
+      <c r="A80" s="98"/>
       <c r="B80" s="2">
         <v>41661</v>
       </c>
@@ -3592,7 +3615,7 @@
       <c r="N80" s="54"/>
     </row>
     <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
+      <c r="A81" s="98"/>
       <c r="B81" s="2">
         <v>41662</v>
       </c>
@@ -3610,7 +3633,7 @@
       <c r="N81" s="54"/>
     </row>
     <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="67"/>
+      <c r="A82" s="98"/>
       <c r="B82" s="2">
         <v>41663</v>
       </c>
@@ -3628,7 +3651,7 @@
       <c r="N82" s="54"/>
     </row>
     <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="63">
+      <c r="A83" s="97">
         <v>13</v>
       </c>
       <c r="B83" s="9">
@@ -3650,7 +3673,7 @@
       <c r="N83" s="54"/>
     </row>
     <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="63"/>
+      <c r="A84" s="97"/>
       <c r="B84" s="9">
         <v>41667</v>
       </c>
@@ -3670,7 +3693,7 @@
       <c r="N84" s="54"/>
     </row>
     <row r="85" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="63"/>
+      <c r="A85" s="97"/>
       <c r="B85" s="9">
         <v>41668</v>
       </c>
@@ -3690,7 +3713,7 @@
       <c r="N85" s="54"/>
     </row>
     <row r="86" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="63"/>
+      <c r="A86" s="97"/>
       <c r="B86" s="9">
         <v>41669</v>
       </c>
@@ -3710,7 +3733,7 @@
       <c r="N86" s="54"/>
     </row>
     <row r="87" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="63"/>
+      <c r="A87" s="97"/>
       <c r="B87" s="9">
         <v>41670</v>
       </c>
@@ -3730,7 +3753,7 @@
       <c r="N87" s="54"/>
     </row>
     <row r="88" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="67">
+      <c r="A88" s="98">
         <v>14</v>
       </c>
       <c r="B88" s="2">
@@ -3752,7 +3775,7 @@
       <c r="N88" s="54"/>
     </row>
     <row r="89" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="67"/>
+      <c r="A89" s="98"/>
       <c r="B89" s="2">
         <v>41674</v>
       </c>
@@ -3772,7 +3795,7 @@
       <c r="N89" s="54"/>
     </row>
     <row r="90" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="67"/>
+      <c r="A90" s="98"/>
       <c r="B90" s="2">
         <v>41675</v>
       </c>
@@ -3792,7 +3815,7 @@
       <c r="N90" s="54"/>
     </row>
     <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="67"/>
+      <c r="A91" s="98"/>
       <c r="B91" s="2">
         <v>41676</v>
       </c>
@@ -3812,7 +3835,7 @@
       <c r="N91" s="54"/>
     </row>
     <row r="92" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="67"/>
+      <c r="A92" s="98"/>
       <c r="B92" s="2">
         <v>41677</v>
       </c>
@@ -3832,7 +3855,7 @@
       <c r="N92" s="54"/>
     </row>
     <row r="93" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="63">
+      <c r="A93" s="97">
         <v>15</v>
       </c>
       <c r="B93" s="9">
@@ -3852,7 +3875,7 @@
       <c r="N93" s="54"/>
     </row>
     <row r="94" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="63"/>
+      <c r="A94" s="97"/>
       <c r="B94" s="9">
         <v>41681</v>
       </c>
@@ -3870,7 +3893,7 @@
       <c r="N94" s="54"/>
     </row>
     <row r="95" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="63"/>
+      <c r="A95" s="97"/>
       <c r="B95" s="9">
         <v>41682</v>
       </c>
@@ -3888,7 +3911,7 @@
       <c r="N95" s="54"/>
     </row>
     <row r="96" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="63"/>
+      <c r="A96" s="97"/>
       <c r="B96" s="9">
         <v>41683</v>
       </c>
@@ -3906,7 +3929,7 @@
       <c r="N96" s="54"/>
     </row>
     <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="63"/>
+      <c r="A97" s="97"/>
       <c r="B97" s="9">
         <v>41684</v>
       </c>
@@ -3924,7 +3947,7 @@
       <c r="N97" s="54"/>
     </row>
     <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="67">
+      <c r="A98" s="98">
         <v>16</v>
       </c>
       <c r="B98" s="2">
@@ -3944,7 +3967,7 @@
       <c r="N98" s="54"/>
     </row>
     <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="67"/>
+      <c r="A99" s="98"/>
       <c r="B99" s="2">
         <v>41688</v>
       </c>
@@ -3962,7 +3985,7 @@
       <c r="N99" s="54"/>
     </row>
     <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="67"/>
+      <c r="A100" s="98"/>
       <c r="B100" s="2">
         <v>41689</v>
       </c>
@@ -3980,7 +4003,7 @@
       <c r="N100" s="54"/>
     </row>
     <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="67"/>
+      <c r="A101" s="98"/>
       <c r="B101" s="2">
         <v>41690</v>
       </c>
@@ -3998,7 +4021,7 @@
       <c r="N101" s="54"/>
     </row>
     <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="67"/>
+      <c r="A102" s="98"/>
       <c r="B102" s="2">
         <v>41691</v>
       </c>
@@ -4016,7 +4039,7 @@
       <c r="N102" s="54"/>
     </row>
     <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="63">
+      <c r="A103" s="97">
         <v>17</v>
       </c>
       <c r="B103" s="9">
@@ -4036,7 +4059,7 @@
       <c r="N103" s="54"/>
     </row>
     <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="63"/>
+      <c r="A104" s="97"/>
       <c r="B104" s="9">
         <v>41695</v>
       </c>
@@ -4054,7 +4077,7 @@
       <c r="N104" s="54"/>
     </row>
     <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="63"/>
+      <c r="A105" s="97"/>
       <c r="B105" s="9">
         <v>41696</v>
       </c>
@@ -4072,7 +4095,7 @@
       <c r="N105" s="54"/>
     </row>
     <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="63"/>
+      <c r="A106" s="97"/>
       <c r="B106" s="9">
         <v>41697</v>
       </c>
@@ -4090,7 +4113,7 @@
       <c r="N106" s="54"/>
     </row>
     <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="63"/>
+      <c r="A107" s="97"/>
       <c r="B107" s="9">
         <v>41698</v>
       </c>
@@ -4108,7 +4131,7 @@
       <c r="N107" s="54"/>
     </row>
     <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="67">
+      <c r="A108" s="98">
         <v>18</v>
       </c>
       <c r="B108" s="2">
@@ -4128,7 +4151,7 @@
       <c r="N108" s="54"/>
     </row>
     <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="67"/>
+      <c r="A109" s="98"/>
       <c r="B109" s="2">
         <v>41702</v>
       </c>
@@ -4146,7 +4169,7 @@
       <c r="N109" s="54"/>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="67"/>
+      <c r="A110" s="98"/>
       <c r="B110" s="2">
         <v>41703</v>
       </c>
@@ -4164,7 +4187,7 @@
       <c r="N110" s="54"/>
     </row>
     <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="67"/>
+      <c r="A111" s="98"/>
       <c r="B111" s="2">
         <v>41704</v>
       </c>
@@ -4182,7 +4205,7 @@
       <c r="N111" s="54"/>
     </row>
     <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="67"/>
+      <c r="A112" s="98"/>
       <c r="B112" s="2">
         <v>41705</v>
       </c>
@@ -4200,7 +4223,7 @@
       <c r="N112" s="54"/>
     </row>
     <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="63">
+      <c r="A113" s="97">
         <v>19</v>
       </c>
       <c r="B113" s="9">
@@ -4220,7 +4243,7 @@
       <c r="N113" s="54"/>
     </row>
     <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="63"/>
+      <c r="A114" s="97"/>
       <c r="B114" s="9">
         <v>41709</v>
       </c>
@@ -4238,7 +4261,7 @@
       <c r="N114" s="54"/>
     </row>
     <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="63"/>
+      <c r="A115" s="97"/>
       <c r="B115" s="9">
         <v>41710</v>
       </c>
@@ -4256,7 +4279,7 @@
       <c r="N115" s="54"/>
     </row>
     <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="63"/>
+      <c r="A116" s="97"/>
       <c r="B116" s="9">
         <v>41711</v>
       </c>
@@ -4274,7 +4297,7 @@
       <c r="N116" s="54"/>
     </row>
     <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="63"/>
+      <c r="A117" s="97"/>
       <c r="B117" s="9">
         <v>41712</v>
       </c>
@@ -4292,7 +4315,7 @@
       <c r="N117" s="54"/>
     </row>
     <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="67">
+      <c r="A118" s="98">
         <v>20</v>
       </c>
       <c r="B118" s="2">
@@ -4312,7 +4335,7 @@
       <c r="N118" s="54"/>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="67"/>
+      <c r="A119" s="98"/>
       <c r="B119" s="2">
         <v>41716</v>
       </c>
@@ -4330,7 +4353,7 @@
       <c r="N119" s="54"/>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="67"/>
+      <c r="A120" s="98"/>
       <c r="B120" s="2">
         <v>41717</v>
       </c>
@@ -4348,7 +4371,7 @@
       <c r="N120" s="54"/>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="67"/>
+      <c r="A121" s="98"/>
       <c r="B121" s="2">
         <v>41718</v>
       </c>
@@ -4366,7 +4389,7 @@
       <c r="N121" s="54"/>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="67"/>
+      <c r="A122" s="98"/>
       <c r="B122" s="2">
         <v>41719</v>
       </c>
@@ -4384,7 +4407,7 @@
       <c r="N122" s="54"/>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="63">
+      <c r="A123" s="97">
         <v>21</v>
       </c>
       <c r="B123" s="9">
@@ -4404,7 +4427,7 @@
       <c r="N123" s="54"/>
     </row>
     <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="63"/>
+      <c r="A124" s="97"/>
       <c r="B124" s="9">
         <v>41723</v>
       </c>
@@ -4422,7 +4445,7 @@
       <c r="N124" s="54"/>
     </row>
     <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="63"/>
+      <c r="A125" s="97"/>
       <c r="B125" s="9">
         <v>41724</v>
       </c>
@@ -4440,7 +4463,7 @@
       <c r="N125" s="54"/>
     </row>
     <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="63"/>
+      <c r="A126" s="97"/>
       <c r="B126" s="9">
         <v>41725</v>
       </c>
@@ -4458,7 +4481,7 @@
       <c r="N126" s="54"/>
     </row>
     <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="63"/>
+      <c r="A127" s="97"/>
       <c r="B127" s="9">
         <v>41726</v>
       </c>
@@ -4476,7 +4499,7 @@
       <c r="N127" s="54"/>
     </row>
     <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="67">
+      <c r="A128" s="98">
         <v>22</v>
       </c>
       <c r="B128" s="2">
@@ -4496,7 +4519,7 @@
       <c r="N128" s="54"/>
     </row>
     <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="67"/>
+      <c r="A129" s="98"/>
       <c r="B129" s="2">
         <v>41730</v>
       </c>
@@ -4514,7 +4537,7 @@
       <c r="N129" s="54"/>
     </row>
     <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="67"/>
+      <c r="A130" s="98"/>
       <c r="B130" s="2">
         <v>41731</v>
       </c>
@@ -4532,7 +4555,7 @@
       <c r="N130" s="54"/>
     </row>
     <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="67"/>
+      <c r="A131" s="98"/>
       <c r="B131" s="2">
         <v>41732</v>
       </c>
@@ -4550,7 +4573,7 @@
       <c r="N131" s="54"/>
     </row>
     <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="67"/>
+      <c r="A132" s="98"/>
       <c r="B132" s="2">
         <v>41733</v>
       </c>
@@ -4568,7 +4591,7 @@
       <c r="N132" s="54"/>
     </row>
     <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="63">
+      <c r="A133" s="97">
         <v>23</v>
       </c>
       <c r="B133" s="9">
@@ -4588,7 +4611,7 @@
       <c r="N133" s="54"/>
     </row>
     <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="63"/>
+      <c r="A134" s="97"/>
       <c r="B134" s="9">
         <v>41737</v>
       </c>
@@ -4606,7 +4629,7 @@
       <c r="N134" s="54"/>
     </row>
     <row r="135" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="63"/>
+      <c r="A135" s="97"/>
       <c r="B135" s="9">
         <v>41738</v>
       </c>
@@ -4624,7 +4647,7 @@
       <c r="N135" s="54"/>
     </row>
     <row r="136" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="63"/>
+      <c r="A136" s="97"/>
       <c r="B136" s="9">
         <v>41739</v>
       </c>
@@ -4642,7 +4665,7 @@
       <c r="N136" s="54"/>
     </row>
     <row r="137" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="63"/>
+      <c r="A137" s="97"/>
       <c r="B137" s="9">
         <v>41740</v>
       </c>
@@ -4660,7 +4683,7 @@
       <c r="N137" s="54"/>
     </row>
     <row r="138" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="67">
+      <c r="A138" s="98">
         <v>24</v>
       </c>
       <c r="B138" s="2">
@@ -4680,7 +4703,7 @@
       <c r="N138" s="54"/>
     </row>
     <row r="139" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="67"/>
+      <c r="A139" s="98"/>
       <c r="B139" s="2">
         <v>41744</v>
       </c>
@@ -4698,7 +4721,7 @@
       <c r="N139" s="54"/>
     </row>
     <row r="140" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="67"/>
+      <c r="A140" s="98"/>
       <c r="B140" s="2">
         <v>41745</v>
       </c>
@@ -4716,7 +4739,7 @@
       <c r="N140" s="54"/>
     </row>
     <row r="141" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="67"/>
+      <c r="A141" s="98"/>
       <c r="B141" s="2">
         <v>41746</v>
       </c>
@@ -4734,7 +4757,7 @@
       <c r="N141" s="54"/>
     </row>
     <row r="142" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="67"/>
+      <c r="A142" s="98"/>
       <c r="B142" s="2">
         <v>41747</v>
       </c>
@@ -4752,7 +4775,7 @@
       <c r="N142" s="54"/>
     </row>
     <row r="143" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="63">
+      <c r="A143" s="97">
         <v>25</v>
       </c>
       <c r="B143" s="9">
@@ -4772,7 +4795,7 @@
       <c r="N143" s="54"/>
     </row>
     <row r="144" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="63"/>
+      <c r="A144" s="97"/>
       <c r="B144" s="9">
         <v>41751</v>
       </c>
@@ -4790,7 +4813,7 @@
       <c r="N144" s="54"/>
     </row>
     <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="63"/>
+      <c r="A145" s="97"/>
       <c r="B145" s="9">
         <v>41752</v>
       </c>
@@ -4808,7 +4831,7 @@
       <c r="N145" s="54"/>
     </row>
     <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="63"/>
+      <c r="A146" s="97"/>
       <c r="B146" s="9">
         <v>41753</v>
       </c>
@@ -4826,7 +4849,7 @@
       <c r="N146" s="54"/>
     </row>
     <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="63"/>
+      <c r="A147" s="97"/>
       <c r="B147" s="9">
         <v>41754</v>
       </c>
@@ -4844,7 +4867,7 @@
       <c r="N147" s="54"/>
     </row>
     <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="67">
+      <c r="A148" s="98">
         <v>26</v>
       </c>
       <c r="B148" s="2">
@@ -4864,7 +4887,7 @@
       <c r="N148" s="54"/>
     </row>
     <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="67"/>
+      <c r="A149" s="98"/>
       <c r="B149" s="2">
         <v>41758</v>
       </c>
@@ -4882,7 +4905,7 @@
       <c r="N149" s="54"/>
     </row>
     <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="67"/>
+      <c r="A150" s="98"/>
       <c r="B150" s="2">
         <v>41759</v>
       </c>
@@ -4900,7 +4923,7 @@
       <c r="N150" s="54"/>
     </row>
     <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="67"/>
+      <c r="A151" s="98"/>
       <c r="B151" s="2">
         <v>41760</v>
       </c>
@@ -4918,7 +4941,7 @@
       <c r="N151" s="54"/>
     </row>
     <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="67"/>
+      <c r="A152" s="98"/>
       <c r="B152" s="2">
         <v>41761</v>
       </c>
@@ -4936,7 +4959,7 @@
       <c r="N152" s="54"/>
     </row>
     <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="63">
+      <c r="A153" s="97">
         <v>27</v>
       </c>
       <c r="B153" s="9">
@@ -4956,7 +4979,7 @@
       <c r="N153" s="54"/>
     </row>
     <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="63"/>
+      <c r="A154" s="97"/>
       <c r="B154" s="9">
         <v>41765</v>
       </c>
@@ -4974,7 +4997,7 @@
       <c r="N154" s="54"/>
     </row>
     <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="63"/>
+      <c r="A155" s="97"/>
       <c r="B155" s="9">
         <v>41766</v>
       </c>
@@ -4992,7 +5015,7 @@
       <c r="N155" s="54"/>
     </row>
     <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="63"/>
+      <c r="A156" s="97"/>
       <c r="B156" s="9">
         <v>41767</v>
       </c>
@@ -5010,7 +5033,7 @@
       <c r="N156" s="54"/>
     </row>
     <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="63"/>
+      <c r="A157" s="97"/>
       <c r="B157" s="9">
         <v>41768</v>
       </c>
@@ -5028,7 +5051,7 @@
       <c r="N157" s="54"/>
     </row>
     <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="67">
+      <c r="A158" s="98">
         <v>28</v>
       </c>
       <c r="B158" s="2">
@@ -5048,7 +5071,7 @@
       <c r="N158" s="54"/>
     </row>
     <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="67"/>
+      <c r="A159" s="98"/>
       <c r="B159" s="2">
         <v>41772</v>
       </c>
@@ -5066,7 +5089,7 @@
       <c r="N159" s="54"/>
     </row>
     <row r="160" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="67"/>
+      <c r="A160" s="98"/>
       <c r="B160" s="2">
         <v>41773</v>
       </c>
@@ -5084,7 +5107,7 @@
       <c r="N160" s="54"/>
     </row>
     <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="67"/>
+      <c r="A161" s="98"/>
       <c r="B161" s="2">
         <v>41774</v>
       </c>
@@ -5102,7 +5125,7 @@
       <c r="N161" s="54"/>
     </row>
     <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="67"/>
+      <c r="A162" s="98"/>
       <c r="B162" s="2">
         <v>41775</v>
       </c>
@@ -5120,7 +5143,7 @@
       <c r="N162" s="54"/>
     </row>
     <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="63">
+      <c r="A163" s="97">
         <v>29</v>
       </c>
       <c r="B163" s="9">
@@ -5140,7 +5163,7 @@
       <c r="N163" s="54"/>
     </row>
     <row r="164" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="63"/>
+      <c r="A164" s="97"/>
       <c r="B164" s="9">
         <v>41779</v>
       </c>
@@ -5158,7 +5181,7 @@
       <c r="N164" s="54"/>
     </row>
     <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="63"/>
+      <c r="A165" s="97"/>
       <c r="B165" s="9">
         <v>41780</v>
       </c>
@@ -5176,7 +5199,7 @@
       <c r="N165" s="54"/>
     </row>
     <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="63"/>
+      <c r="A166" s="97"/>
       <c r="B166" s="9">
         <v>41781</v>
       </c>
@@ -5194,7 +5217,7 @@
       <c r="N166" s="54"/>
     </row>
     <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="63"/>
+      <c r="A167" s="97"/>
       <c r="B167" s="9">
         <v>41782</v>
       </c>
@@ -5212,7 +5235,7 @@
       <c r="N167" s="54"/>
     </row>
     <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="68">
+      <c r="A168" s="100">
         <v>30</v>
       </c>
       <c r="B168" s="2">
@@ -5232,7 +5255,7 @@
       <c r="N168" s="54"/>
     </row>
     <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="68"/>
+      <c r="A169" s="100"/>
       <c r="B169" s="2">
         <v>41786</v>
       </c>
@@ -5250,7 +5273,7 @@
       <c r="N169" s="54"/>
     </row>
     <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="68"/>
+      <c r="A170" s="100"/>
       <c r="B170" s="2">
         <v>41787</v>
       </c>
@@ -5268,7 +5291,7 @@
       <c r="N170" s="54"/>
     </row>
     <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="68"/>
+      <c r="A171" s="100"/>
       <c r="B171" s="2">
         <v>41788</v>
       </c>
@@ -5286,7 +5309,7 @@
       <c r="N171" s="54"/>
     </row>
     <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="68"/>
+      <c r="A172" s="100"/>
       <c r="B172" s="2">
         <v>41789</v>
       </c>
@@ -5304,7 +5327,7 @@
       <c r="N172" s="54"/>
     </row>
     <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="68"/>
+      <c r="A173" s="100"/>
       <c r="B173" s="10">
         <v>41790</v>
       </c>
@@ -5899,18 +5922,29 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A158:A162"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A138:A142"/>
+    <mergeCell ref="A143:A147"/>
+    <mergeCell ref="A148:A152"/>
+    <mergeCell ref="A93:A97"/>
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="A123:A127"/>
     <mergeCell ref="A128:A132"/>
@@ -5926,29 +5960,18 @@
     <mergeCell ref="A83:A87"/>
     <mergeCell ref="A88:A92"/>
     <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A158:A162"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="A168:A173"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F23:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -5956,7 +5979,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{4014B23A-9A92-4C0A-84AA-38D1DDC243A5}">
+          <x14:cfRule type="iconSet" priority="22" id="{4014B23A-9A92-4C0A-84AA-38D1DDC243A5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5975,7 +5998,7 @@
           <xm:sqref>F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{06A2D883-25A5-47A0-9E42-1356F547AC95}">
+          <x14:cfRule type="iconSet" priority="21" id="{06A2D883-25A5-47A0-9E42-1356F547AC95}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5994,7 +6017,7 @@
           <xm:sqref>F7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{F0155C6B-E81B-4907-9A36-C4DCA4908A78}">
+          <x14:cfRule type="iconSet" priority="20" id="{F0155C6B-E81B-4907-9A36-C4DCA4908A78}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6013,7 +6036,7 @@
           <xm:sqref>F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{B227CB59-278E-4A9D-98EB-7894CC307006}">
+          <x14:cfRule type="iconSet" priority="19" id="{B227CB59-278E-4A9D-98EB-7894CC307006}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6032,7 +6055,7 @@
           <xm:sqref>F13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{4FD1D166-C211-4511-AC07-D417ED483D0B}">
+          <x14:cfRule type="iconSet" priority="18" id="{4FD1D166-C211-4511-AC07-D417ED483D0B}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6051,7 +6074,7 @@
           <xm:sqref>F15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{8ED16EE5-9A95-4A55-8A04-0D8356EDEB0F}">
+          <x14:cfRule type="iconSet" priority="17" id="{8ED16EE5-9A95-4A55-8A04-0D8356EDEB0F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6070,7 +6093,7 @@
           <xm:sqref>F16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{00B9764F-B5E5-41A8-9F73-CE8C6FDA6D14}">
+          <x14:cfRule type="iconSet" priority="16" id="{00B9764F-B5E5-41A8-9F73-CE8C6FDA6D14}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6089,7 +6112,7 @@
           <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{D256993F-A47B-4EA7-86F9-CCDBFB57FDF7}">
+          <x14:cfRule type="iconSet" priority="15" id="{D256993F-A47B-4EA7-86F9-CCDBFB57FDF7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6108,7 +6131,7 @@
           <xm:sqref>F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{D41896BE-84C3-40A6-BA74-3E16B3A102FC}">
+          <x14:cfRule type="iconSet" priority="14" id="{D41896BE-84C3-40A6-BA74-3E16B3A102FC}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6127,7 +6150,7 @@
           <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{CFF9B7E8-896C-4401-A02A-3BD376BFEA70}">
+          <x14:cfRule type="iconSet" priority="13" id="{CFF9B7E8-896C-4401-A02A-3BD376BFEA70}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6146,7 +6169,7 @@
           <xm:sqref>F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{5C24DFB2-DBCA-41B9-8745-C2D5AB086724}">
+          <x14:cfRule type="iconSet" priority="12" id="{5C24DFB2-DBCA-41B9-8745-C2D5AB086724}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6165,7 +6188,7 @@
           <xm:sqref>F19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{883D7404-1110-4331-92AF-9AC0C5174910}">
+          <x14:cfRule type="iconSet" priority="11" id="{883D7404-1110-4331-92AF-9AC0C5174910}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6184,7 +6207,7 @@
           <xm:sqref>F23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{0DC21843-99CC-4844-8211-8B5CBDE1D20E}">
+          <x14:cfRule type="iconSet" priority="9" id="{0DC21843-99CC-4844-8211-8B5CBDE1D20E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6203,7 +6226,7 @@
           <xm:sqref>F29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{E009B2CC-5658-4E63-B7A4-30A20613C5F8}">
+          <x14:cfRule type="iconSet" priority="8" id="{E009B2CC-5658-4E63-B7A4-30A20613C5F8}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6222,7 +6245,7 @@
           <xm:sqref>F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{0177AC9F-6321-4526-94F0-85D67025A301}">
+          <x14:cfRule type="iconSet" priority="7" id="{0177AC9F-6321-4526-94F0-85D67025A301}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6241,7 +6264,7 @@
           <xm:sqref>F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{D0F9F74B-6C0F-44C8-901E-7631CAAAA939}">
+          <x14:cfRule type="iconSet" priority="6" id="{D0F9F74B-6C0F-44C8-901E-7631CAAAA939}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6260,7 +6283,7 @@
           <xm:sqref>F35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{FFD958AA-637C-45FF-AACC-9F33CFE79B58}">
+          <x14:cfRule type="iconSet" priority="4" id="{FFD958AA-637C-45FF-AACC-9F33CFE79B58}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6279,7 +6302,7 @@
           <xm:sqref>F36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{E59CAFDB-01A9-45D0-A1AC-9C4A4BB12EED}">
+          <x14:cfRule type="iconSet" priority="2" id="{E59CAFDB-01A9-45D0-A1AC-9C4A4BB12EED}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6297,6 +6320,25 @@
           </x14:cfRule>
           <xm:sqref>F39</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{546BE9D2-92A1-4F70-BE4D-43867BD2C299}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F42</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="143">
   <si>
     <t>Week</t>
   </si>
@@ -466,6 +466,32 @@
     <t>Discuss and draw activity diagram of module Ban Tin, Hoi-Dap
 Design interface of system
 Divide task
+Update time log</t>
+  </si>
+  <si>
+    <t>9:15AM</t>
+  </si>
+  <si>
+    <t>11:00AM</t>
+  </si>
+  <si>
+    <t>4:15PM</t>
+  </si>
+  <si>
+    <t>Review question have prepared for system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse architect drivers </t>
+  </si>
+  <si>
+    <t>Collect raw architect drivers  and develop user stories</t>
+  </si>
+  <si>
+    <t>Write meeting minustes
+Draw Activity digram of Functional Tim Kiem and Chuyen Tin</t>
+  </si>
+  <si>
+    <t>Write meeting minustes
 Update time log</t>
   </si>
 </sst>
@@ -799,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,146 +981,164 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1491,13 +1535,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N207"/>
+  <dimension ref="A1:N211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1519,82 +1563,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="73"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="87"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="74" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="90"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="79"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="93"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="82"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="96"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="91"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="93"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="107"/>
       <c r="G5" s="32"/>
       <c r="H5" s="58" t="s">
         <v>112</v>
@@ -1639,10 +1683,10 @@
       <c r="J6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -1670,20 +1714,20 @@
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="89"/>
+      <c r="L7" s="103"/>
       <c r="M7" s="38">
         <f>SUM(M8:M37)</f>
-        <v>62.68</v>
+        <v>71.010000000000005</v>
       </c>
       <c r="N7" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="94">
+      <c r="A8" s="78">
         <v>2</v>
       </c>
       <c r="B8" s="2">
@@ -1698,7 +1742,7 @@
       <c r="E8" s="13">
         <v>1.5</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="108">
         <f>SUM(E8:E9)</f>
         <v>3</v>
       </c>
@@ -1723,7 +1767,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
+      <c r="A9" s="79"/>
       <c r="B9" s="2">
         <v>41589</v>
       </c>
@@ -1736,7 +1780,7 @@
       <c r="E9" s="13">
         <v>1.5</v>
       </c>
-      <c r="F9" s="64"/>
+      <c r="F9" s="109"/>
       <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1758,7 +1802,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
+      <c r="A10" s="79"/>
       <c r="B10" s="2">
         <v>41590</v>
       </c>
@@ -1771,7 +1815,7 @@
       <c r="E10" s="13">
         <v>2</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="108">
         <f>SUM(E10:E11)</f>
         <v>4</v>
       </c>
@@ -1796,7 +1840,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="2">
         <v>41590</v>
       </c>
@@ -1809,7 +1853,7 @@
       <c r="E11" s="13">
         <v>2</v>
       </c>
-      <c r="F11" s="64"/>
+      <c r="F11" s="109"/>
       <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1823,15 +1867,15 @@
       </c>
       <c r="L11" s="44"/>
       <c r="M11" s="45">
-        <f>SUM(F35:F42)</f>
-        <v>14.08</v>
+        <f>SUM(F35:F45)</f>
+        <v>22.41</v>
       </c>
       <c r="N11" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="2">
         <v>41591</v>
       </c>
@@ -1861,7 +1905,7 @@
       </c>
       <c r="L12" s="44"/>
       <c r="M12" s="45">
-        <f>SUM(F43:F47)</f>
+        <f>SUM(F47:F51)</f>
         <v>0</v>
       </c>
       <c r="N12" s="39" t="s">
@@ -1869,7 +1913,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
+      <c r="A13" s="79"/>
       <c r="B13" s="2">
         <v>41592</v>
       </c>
@@ -1882,7 +1926,7 @@
       <c r="E13" s="13">
         <v>1</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="108">
         <f>SUM(E13:E14)</f>
         <v>2.25</v>
       </c>
@@ -1899,7 +1943,7 @@
       </c>
       <c r="L13" s="44"/>
       <c r="M13" s="45">
-        <f>SUM(F48:F52)</f>
+        <f>SUM(F52:F56)</f>
         <v>0</v>
       </c>
       <c r="N13" s="39" t="s">
@@ -1907,7 +1951,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="2">
         <v>41592</v>
       </c>
@@ -1920,7 +1964,7 @@
       <c r="E14" s="13">
         <v>1.25</v>
       </c>
-      <c r="F14" s="64"/>
+      <c r="F14" s="109"/>
       <c r="G14" s="21" t="s">
         <v>28</v>
       </c>
@@ -1934,7 +1978,7 @@
       </c>
       <c r="L14" s="44"/>
       <c r="M14" s="45">
-        <f>SUM(F53:F57)</f>
+        <f>SUM(F57:F61)</f>
         <v>0</v>
       </c>
       <c r="N14" s="39" t="s">
@@ -1942,7 +1986,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
+      <c r="A15" s="79"/>
       <c r="B15" s="2">
         <v>41593</v>
       </c>
@@ -1972,7 +2016,7 @@
       </c>
       <c r="L15" s="44"/>
       <c r="M15" s="45">
-        <f>SUM(F58:F62)</f>
+        <f>SUM(F62:F66)</f>
         <v>0</v>
       </c>
       <c r="N15" s="39" t="s">
@@ -1980,7 +2024,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="95"/>
+      <c r="A16" s="79"/>
       <c r="B16" s="23">
         <v>41594</v>
       </c>
@@ -2010,7 +2054,7 @@
       </c>
       <c r="L16" s="44"/>
       <c r="M16" s="45">
-        <f>SUM(F63:F67)</f>
+        <f>SUM(F67:F71)</f>
         <v>0</v>
       </c>
       <c r="N16" s="39" t="s">
@@ -2018,7 +2062,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
+      <c r="A17" s="80"/>
       <c r="B17" s="23">
         <v>41595</v>
       </c>
@@ -2048,7 +2092,7 @@
       </c>
       <c r="L17" s="44"/>
       <c r="M17" s="45">
-        <f>SUM(F68:F72)</f>
+        <f>SUM(F72:F76)</f>
         <v>0</v>
       </c>
       <c r="N17" s="39" t="s">
@@ -2056,7 +2100,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="99">
+      <c r="A18" s="81">
         <v>3</v>
       </c>
       <c r="B18" s="9">
@@ -2088,7 +2132,7 @@
       </c>
       <c r="L18" s="44"/>
       <c r="M18" s="45">
-        <f>SUM(F73:F77)</f>
+        <f>SUM(F77:F81)</f>
         <v>0</v>
       </c>
       <c r="N18" s="39" t="s">
@@ -2096,8 +2140,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="101">
+      <c r="A19" s="66"/>
+      <c r="B19" s="63">
         <v>41597</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2109,7 +2153,7 @@
       <c r="E19" s="22">
         <v>1</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="67">
         <f>SUM(E19:E21)</f>
         <v>4.6500000000000004</v>
       </c>
@@ -2126,7 +2170,7 @@
       </c>
       <c r="L19" s="44"/>
       <c r="M19" s="45">
-        <f>SUM(F78:F82)</f>
+        <f>SUM(F82:F86)</f>
         <v>0</v>
       </c>
       <c r="N19" s="39" t="s">
@@ -2134,8 +2178,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
-      <c r="B20" s="102"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="3" t="s">
         <v>91</v>
       </c>
@@ -2145,7 +2189,7 @@
       <c r="E20" s="22">
         <v>1.5</v>
       </c>
-      <c r="F20" s="66"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="28" t="s">
         <v>27</v>
       </c>
@@ -2161,7 +2205,7 @@
       </c>
       <c r="L20" s="44"/>
       <c r="M20" s="45">
-        <f>SUM(F83:F87)</f>
+        <f>SUM(F87:F91)</f>
         <v>0</v>
       </c>
       <c r="N20" s="39" t="s">
@@ -2169,8 +2213,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
-      <c r="B21" s="103"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
@@ -2180,7 +2224,7 @@
       <c r="E21" s="22">
         <v>2.15</v>
       </c>
-      <c r="F21" s="67"/>
+      <c r="F21" s="69"/>
       <c r="G21" s="28" t="s">
         <v>27</v>
       </c>
@@ -2196,7 +2240,7 @@
       </c>
       <c r="L21" s="44"/>
       <c r="M21" s="45">
-        <f>SUM(F88:F92)</f>
+        <f>SUM(F92:F96)</f>
         <v>0</v>
       </c>
       <c r="N21" s="39" t="s">
@@ -2204,7 +2248,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="9">
         <v>41598</v>
       </c>
@@ -2236,7 +2280,7 @@
       </c>
       <c r="L22" s="44"/>
       <c r="M22" s="45">
-        <f>SUM(F93:F97)</f>
+        <f>SUM(F97:F101)</f>
         <v>0</v>
       </c>
       <c r="N22" s="39" t="s">
@@ -2244,8 +2288,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
-      <c r="B23" s="101">
+      <c r="A23" s="66"/>
+      <c r="B23" s="63">
         <v>41599</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2257,7 +2301,7 @@
       <c r="E23" s="22">
         <v>1</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="67">
         <f>SUM(E23:E28)</f>
         <v>9.65</v>
       </c>
@@ -2276,7 +2320,7 @@
       </c>
       <c r="L23" s="44"/>
       <c r="M23" s="45">
-        <f>SUM(F98:F102)</f>
+        <f>SUM(F102:F106)</f>
         <v>0</v>
       </c>
       <c r="N23" s="39" t="s">
@@ -2284,8 +2328,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
-      <c r="B24" s="102"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
@@ -2295,7 +2339,7 @@
       <c r="E24" s="22">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F24" s="66"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="29" t="s">
         <v>28</v>
       </c>
@@ -2309,7 +2353,7 @@
       </c>
       <c r="L24" s="44"/>
       <c r="M24" s="45">
-        <f>SUM(F103:F107)</f>
+        <f>SUM(F107:F111)</f>
         <v>0</v>
       </c>
       <c r="N24" s="39" t="s">
@@ -2317,8 +2361,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
-      <c r="B25" s="102"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="3" t="s">
         <v>101</v>
       </c>
@@ -2328,7 +2372,7 @@
       <c r="E25" s="22">
         <v>1.33</v>
       </c>
-      <c r="F25" s="66"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="26" t="s">
         <v>64</v>
       </c>
@@ -2342,7 +2386,7 @@
       </c>
       <c r="L25" s="44"/>
       <c r="M25" s="45">
-        <f>SUM(F108:F112)</f>
+        <f>SUM(F112:F116)</f>
         <v>0</v>
       </c>
       <c r="N25" s="39" t="s">
@@ -2350,8 +2394,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
-      <c r="B26" s="102"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
@@ -2361,7 +2405,7 @@
       <c r="E26" s="22">
         <v>1.5</v>
       </c>
-      <c r="F26" s="66"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="28" t="s">
         <v>27</v>
       </c>
@@ -2375,7 +2419,7 @@
       </c>
       <c r="L26" s="44"/>
       <c r="M26" s="45">
-        <f>SUM(F113:F117)</f>
+        <f>SUM(F117:F121)</f>
         <v>0</v>
       </c>
       <c r="N26" s="39" t="s">
@@ -2383,8 +2427,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="97"/>
-      <c r="B27" s="102"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
@@ -2394,7 +2438,7 @@
       <c r="E27" s="22">
         <v>2.16</v>
       </c>
-      <c r="F27" s="66"/>
+      <c r="F27" s="68"/>
       <c r="G27" s="26" t="s">
         <v>64</v>
       </c>
@@ -2408,7 +2452,7 @@
       </c>
       <c r="L27" s="44"/>
       <c r="M27" s="45">
-        <f>SUM(F118:F122)</f>
+        <f>SUM(F122:F126)</f>
         <v>0</v>
       </c>
       <c r="N27" s="39" t="s">
@@ -2416,8 +2460,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="97"/>
-      <c r="B28" s="103"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
@@ -2427,7 +2471,7 @@
       <c r="E28" s="22">
         <v>2.5</v>
       </c>
-      <c r="F28" s="67"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="28" t="s">
         <v>27</v>
       </c>
@@ -2443,7 +2487,7 @@
       </c>
       <c r="L28" s="44"/>
       <c r="M28" s="45">
-        <f>SUM(F123:F127)</f>
+        <f>SUM(F127:F131)</f>
         <v>0</v>
       </c>
       <c r="N28" s="39" t="s">
@@ -2451,8 +2495,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
-      <c r="B29" s="101">
+      <c r="A29" s="66"/>
+      <c r="B29" s="63">
         <v>41600</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2464,7 +2508,7 @@
       <c r="E29" s="22">
         <v>1.5</v>
       </c>
-      <c r="F29" s="65">
+      <c r="F29" s="67">
         <f>SUM(E29:E31)</f>
         <v>5.5</v>
       </c>
@@ -2483,7 +2527,7 @@
       </c>
       <c r="L29" s="44"/>
       <c r="M29" s="45">
-        <f>SUM(F128:F132)</f>
+        <f>SUM(F132:F136)</f>
         <v>0</v>
       </c>
       <c r="N29" s="39" t="s">
@@ -2491,8 +2535,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A30" s="97"/>
-      <c r="B30" s="102"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
@@ -2502,7 +2546,7 @@
       <c r="E30" s="22">
         <v>1.5</v>
       </c>
-      <c r="F30" s="66"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="28" t="s">
         <v>27</v>
       </c>
@@ -2518,7 +2562,7 @@
       </c>
       <c r="L30" s="44"/>
       <c r="M30" s="45">
-        <f>SUM(F133:F137)</f>
+        <f>SUM(F137:F141)</f>
         <v>0</v>
       </c>
       <c r="N30" s="39" t="s">
@@ -2526,8 +2570,8 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="97"/>
-      <c r="B31" s="103"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
@@ -2537,7 +2581,7 @@
       <c r="E31" s="22">
         <v>2.5</v>
       </c>
-      <c r="F31" s="67"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="28" t="s">
         <v>27</v>
       </c>
@@ -2553,7 +2597,7 @@
       </c>
       <c r="L31" s="44"/>
       <c r="M31" s="45">
-        <f>SUM(F138:F142)</f>
+        <f>SUM(F142:F146)</f>
         <v>0</v>
       </c>
       <c r="N31" s="39" t="s">
@@ -2561,8 +2605,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A32" s="97"/>
-      <c r="B32" s="101">
+      <c r="A32" s="66"/>
+      <c r="B32" s="63">
         <v>41601</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2574,7 +2618,7 @@
       <c r="E32" s="22">
         <v>1.5</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F32" s="67">
         <f>SUM(E32:E33)</f>
         <v>2.5</v>
       </c>
@@ -2591,7 +2635,7 @@
       </c>
       <c r="L32" s="44"/>
       <c r="M32" s="45">
-        <f>SUM(F143:F147)</f>
+        <f>SUM(F147:F151)</f>
         <v>0</v>
       </c>
       <c r="N32" s="39" t="s">
@@ -2599,8 +2643,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="97"/>
-      <c r="B33" s="103"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="3" t="s">
         <v>83</v>
       </c>
@@ -2610,7 +2654,7 @@
       <c r="E33" s="22">
         <v>1</v>
       </c>
-      <c r="F33" s="67"/>
+      <c r="F33" s="69"/>
       <c r="G33" s="28" t="s">
         <v>27</v>
       </c>
@@ -2626,7 +2670,7 @@
       </c>
       <c r="L33" s="44"/>
       <c r="M33" s="45">
-        <f>SUM(F148:F152)</f>
+        <f>SUM(F152:F156)</f>
         <v>0</v>
       </c>
       <c r="N33" s="39" t="s">
@@ -2664,7 +2708,7 @@
       </c>
       <c r="L34" s="44"/>
       <c r="M34" s="45">
-        <f>SUM(F153:F157)</f>
+        <f>SUM(F157:F161)</f>
         <v>0</v>
       </c>
       <c r="N34" s="39" t="s">
@@ -2704,7 +2748,7 @@
       </c>
       <c r="L35" s="44"/>
       <c r="M35" s="45">
-        <f>SUM(F158:F162)</f>
+        <f>SUM(F162:F166)</f>
         <v>0</v>
       </c>
       <c r="N35" s="39" t="s">
@@ -2713,7 +2757,7 @@
     </row>
     <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
-      <c r="B36" s="104">
+      <c r="B36" s="70">
         <v>41604</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -2725,7 +2769,7 @@
       <c r="E36" s="25">
         <v>2.5</v>
       </c>
-      <c r="F36" s="107">
+      <c r="F36" s="73">
         <f>SUM(E36:E38)</f>
         <v>5.25</v>
       </c>
@@ -2742,7 +2786,7 @@
       </c>
       <c r="L36" s="44"/>
       <c r="M36" s="45">
-        <f>SUM(F163:F167)</f>
+        <f>SUM(F167:F171)</f>
         <v>0</v>
       </c>
       <c r="N36" s="39" t="s">
@@ -2751,7 +2795,7 @@
     </row>
     <row r="37" spans="1:14" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="53"/>
-      <c r="B37" s="105"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="24" t="s">
         <v>63</v>
       </c>
@@ -2761,7 +2805,7 @@
       <c r="E37" s="25">
         <v>1.25</v>
       </c>
-      <c r="F37" s="108"/>
+      <c r="F37" s="74"/>
       <c r="G37" s="61" t="s">
         <v>64</v>
       </c>
@@ -2775,7 +2819,7 @@
       </c>
       <c r="L37" s="44"/>
       <c r="M37" s="45">
-        <f>SUM(F168:F172)</f>
+        <f>SUM(F172:F176)</f>
         <v>0</v>
       </c>
       <c r="N37" s="39" t="s">
@@ -2784,7 +2828,7 @@
     </row>
     <row r="38" spans="1:14" ht="33" x14ac:dyDescent="0.25">
       <c r="A38" s="53"/>
-      <c r="B38" s="106"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="24" t="s">
         <v>84</v>
       </c>
@@ -2794,7 +2838,7 @@
       <c r="E38" s="25">
         <v>1.5</v>
       </c>
-      <c r="F38" s="109"/>
+      <c r="F38" s="75"/>
       <c r="G38" s="61" t="s">
         <v>27</v>
       </c>
@@ -2810,7 +2854,7 @@
     </row>
     <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
-      <c r="B39" s="104">
+      <c r="B39" s="70">
         <v>41605</v>
       </c>
       <c r="C39" s="24" t="s">
@@ -2822,7 +2866,7 @@
       <c r="E39" s="25">
         <v>1</v>
       </c>
-      <c r="F39" s="107">
+      <c r="F39" s="73">
         <f>SUM(E39:E40)</f>
         <v>3.33</v>
       </c>
@@ -2841,7 +2885,7 @@
     </row>
     <row r="40" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A40" s="53"/>
-      <c r="B40" s="106"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="24" t="s">
         <v>63</v>
       </c>
@@ -2851,7 +2895,7 @@
       <c r="E40" s="25">
         <v>2.33</v>
       </c>
-      <c r="F40" s="109"/>
+      <c r="F40" s="75"/>
       <c r="G40" s="61" t="s">
         <v>64</v>
       </c>
@@ -2867,15 +2911,28 @@
     </row>
     <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="53"/>
-      <c r="B41" s="2">
+      <c r="B41" s="70">
         <v>41606</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
+      <c r="C41" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="111" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="110">
+        <v>1.33</v>
+      </c>
+      <c r="F41" s="113">
+        <f>SUM(E41:E44)</f>
+        <v>8.33</v>
+      </c>
+      <c r="G41" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="112" t="s">
+        <v>138</v>
+      </c>
       <c r="I41" s="44"/>
       <c r="J41" s="44"/>
       <c r="K41" s="54"/>
@@ -2883,29 +2940,24 @@
       <c r="M41" s="54"/>
       <c r="N41" s="54"/>
     </row>
-    <row r="42" spans="1:14" ht="66" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="53"/>
-      <c r="B42" s="2">
-        <v>41607</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E42" s="25">
-        <v>3.5</v>
-      </c>
-      <c r="F42" s="57">
-        <f t="shared" ref="F42" si="5">E42</f>
-        <v>3.5</v>
-      </c>
+      <c r="B42" s="71"/>
+      <c r="C42" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="110">
+        <v>1.75</v>
+      </c>
+      <c r="F42" s="76"/>
       <c r="G42" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="H42" s="60" t="s">
-        <v>134</v>
+        <v>30</v>
+      </c>
+      <c r="H42" s="112" t="s">
+        <v>140</v>
       </c>
       <c r="I42" s="44"/>
       <c r="J42" s="44"/>
@@ -2915,83 +2967,123 @@
       <c r="N42" s="54"/>
     </row>
     <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="97">
-        <v>5</v>
-      </c>
-      <c r="B43" s="9">
-        <v>41610</v>
-      </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="110" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="110">
+        <v>2.75</v>
+      </c>
+      <c r="F43" s="76"/>
+      <c r="G43" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="112" t="s">
+        <v>139</v>
+      </c>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
       <c r="K43" s="54"/>
       <c r="L43" s="54"/>
       <c r="M43" s="54"/>
       <c r="N43" s="54"/>
     </row>
-    <row r="44" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="97"/>
-      <c r="B44" s="9">
-        <v>41611</v>
-      </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
+    <row r="44" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A44" s="53"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="110" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="110" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="F44" s="114"/>
+      <c r="G44" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
       <c r="K44" s="54"/>
       <c r="L44" s="54"/>
       <c r="M44" s="54"/>
       <c r="N44" s="54"/>
     </row>
-    <row r="45" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="97"/>
-      <c r="B45" s="9">
-        <v>41612</v>
-      </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
+    <row r="45" spans="1:14" ht="66" x14ac:dyDescent="0.25">
+      <c r="A45" s="53"/>
+      <c r="B45" s="70">
+        <v>41607</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="F45" s="57">
+        <f t="shared" ref="F45:F46" si="5">E45</f>
+        <v>3.5</v>
+      </c>
+      <c r="G45" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="H45" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
       <c r="K45" s="54"/>
       <c r="L45" s="54"/>
       <c r="M45" s="54"/>
       <c r="N45" s="54"/>
     </row>
-    <row r="46" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="97"/>
-      <c r="B46" s="9">
-        <v>41613</v>
-      </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
+    <row r="46" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A46" s="53"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="25">
+        <v>1</v>
+      </c>
+      <c r="F46" s="57">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
       <c r="K46" s="54"/>
       <c r="L46" s="54"/>
       <c r="M46" s="54"/>
       <c r="N46" s="54"/>
     </row>
     <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="97"/>
+      <c r="A47" s="115">
+        <v>5</v>
+      </c>
       <c r="B47" s="9">
-        <v>41614</v>
+        <v>41610</v>
       </c>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -3007,83 +3099,83 @@
       <c r="N47" s="54"/>
     </row>
     <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="98">
-        <v>6</v>
-      </c>
-      <c r="B48" s="2">
-        <v>41617</v>
-      </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
+      <c r="A48" s="115"/>
+      <c r="B48" s="9">
+        <v>41611</v>
+      </c>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
       <c r="K48" s="54"/>
       <c r="L48" s="54"/>
       <c r="M48" s="54"/>
       <c r="N48" s="54"/>
     </row>
     <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="98"/>
-      <c r="B49" s="2">
-        <v>41618</v>
-      </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
+      <c r="A49" s="115"/>
+      <c r="B49" s="9">
+        <v>41612</v>
+      </c>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
       <c r="K49" s="54"/>
       <c r="L49" s="54"/>
       <c r="M49" s="54"/>
       <c r="N49" s="54"/>
     </row>
     <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="98"/>
-      <c r="B50" s="2">
-        <v>41619</v>
-      </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
+      <c r="A50" s="115"/>
+      <c r="B50" s="9">
+        <v>41613</v>
+      </c>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
       <c r="K50" s="54"/>
       <c r="L50" s="54"/>
       <c r="M50" s="54"/>
       <c r="N50" s="54"/>
     </row>
     <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="98"/>
-      <c r="B51" s="2">
-        <v>41620</v>
-      </c>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
+      <c r="A51" s="115"/>
+      <c r="B51" s="9">
+        <v>41614</v>
+      </c>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
       <c r="K51" s="54"/>
       <c r="L51" s="54"/>
       <c r="M51" s="54"/>
       <c r="N51" s="54"/>
     </row>
     <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="98"/>
+      <c r="A52" s="76">
+        <v>6</v>
+      </c>
       <c r="B52" s="2">
-        <v>41621</v>
+        <v>41617</v>
       </c>
       <c r="C52" s="44"/>
       <c r="D52" s="44"/>
@@ -3099,83 +3191,83 @@
       <c r="N52" s="54"/>
     </row>
     <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="97">
-        <v>7</v>
-      </c>
-      <c r="B53" s="9">
-        <v>41624</v>
-      </c>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
+      <c r="A53" s="76"/>
+      <c r="B53" s="2">
+        <v>41618</v>
+      </c>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
       <c r="K53" s="54"/>
       <c r="L53" s="54"/>
       <c r="M53" s="54"/>
       <c r="N53" s="54"/>
     </row>
     <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="97"/>
-      <c r="B54" s="9">
-        <v>41625</v>
-      </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
+      <c r="A54" s="76"/>
+      <c r="B54" s="2">
+        <v>41619</v>
+      </c>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
       <c r="K54" s="54"/>
       <c r="L54" s="54"/>
       <c r="M54" s="54"/>
       <c r="N54" s="54"/>
     </row>
     <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="97"/>
-      <c r="B55" s="9">
-        <v>41626</v>
-      </c>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
+      <c r="A55" s="76"/>
+      <c r="B55" s="2">
+        <v>41620</v>
+      </c>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
       <c r="K55" s="54"/>
       <c r="L55" s="54"/>
       <c r="M55" s="54"/>
       <c r="N55" s="54"/>
     </row>
     <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="97"/>
-      <c r="B56" s="9">
-        <v>41627</v>
-      </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
+      <c r="A56" s="76"/>
+      <c r="B56" s="2">
+        <v>41621</v>
+      </c>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
       <c r="K56" s="54"/>
       <c r="L56" s="54"/>
       <c r="M56" s="54"/>
       <c r="N56" s="54"/>
     </row>
     <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="97"/>
+      <c r="A57" s="66">
+        <v>7</v>
+      </c>
       <c r="B57" s="9">
-        <v>41628</v>
+        <v>41624</v>
       </c>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -3191,83 +3283,83 @@
       <c r="N57" s="54"/>
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="98">
-        <v>8</v>
-      </c>
-      <c r="B58" s="2">
-        <v>41631</v>
-      </c>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="9">
+        <v>41625</v>
+      </c>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
       <c r="K58" s="54"/>
       <c r="L58" s="54"/>
       <c r="M58" s="54"/>
       <c r="N58" s="54"/>
     </row>
     <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="98"/>
-      <c r="B59" s="2">
-        <v>41632</v>
-      </c>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="44"/>
+      <c r="A59" s="66"/>
+      <c r="B59" s="9">
+        <v>41626</v>
+      </c>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
       <c r="K59" s="54"/>
       <c r="L59" s="54"/>
       <c r="M59" s="54"/>
       <c r="N59" s="54"/>
     </row>
     <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="98"/>
-      <c r="B60" s="2">
-        <v>41633</v>
-      </c>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="44"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="9">
+        <v>41627</v>
+      </c>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
       <c r="K60" s="54"/>
       <c r="L60" s="54"/>
       <c r="M60" s="54"/>
       <c r="N60" s="54"/>
     </row>
     <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="98"/>
-      <c r="B61" s="2">
-        <v>41634</v>
-      </c>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
+      <c r="A61" s="66"/>
+      <c r="B61" s="9">
+        <v>41628</v>
+      </c>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
       <c r="K61" s="54"/>
       <c r="L61" s="54"/>
       <c r="M61" s="54"/>
       <c r="N61" s="54"/>
     </row>
     <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="98"/>
+      <c r="A62" s="76">
+        <v>8</v>
+      </c>
       <c r="B62" s="2">
-        <v>41635</v>
+        <v>41631</v>
       </c>
       <c r="C62" s="44"/>
       <c r="D62" s="44"/>
@@ -3283,83 +3375,83 @@
       <c r="N62" s="54"/>
     </row>
     <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="97">
-        <v>9</v>
-      </c>
-      <c r="B63" s="9">
-        <v>41638</v>
-      </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
+      <c r="A63" s="76"/>
+      <c r="B63" s="2">
+        <v>41632</v>
+      </c>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
       <c r="K63" s="54"/>
       <c r="L63" s="54"/>
       <c r="M63" s="54"/>
       <c r="N63" s="54"/>
     </row>
     <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="97"/>
-      <c r="B64" s="9">
-        <v>41639</v>
-      </c>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
+      <c r="A64" s="76"/>
+      <c r="B64" s="2">
+        <v>41633</v>
+      </c>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
       <c r="K64" s="54"/>
       <c r="L64" s="54"/>
       <c r="M64" s="54"/>
       <c r="N64" s="54"/>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="97"/>
-      <c r="B65" s="9">
-        <v>41640</v>
-      </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
+      <c r="A65" s="76"/>
+      <c r="B65" s="2">
+        <v>41634</v>
+      </c>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
       <c r="K65" s="54"/>
       <c r="L65" s="54"/>
       <c r="M65" s="54"/>
       <c r="N65" s="54"/>
     </row>
     <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="97"/>
-      <c r="B66" s="9">
-        <v>41641</v>
-      </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
+      <c r="A66" s="76"/>
+      <c r="B66" s="2">
+        <v>41635</v>
+      </c>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
       <c r="K66" s="54"/>
       <c r="L66" s="54"/>
       <c r="M66" s="54"/>
       <c r="N66" s="54"/>
     </row>
     <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="97"/>
+      <c r="A67" s="66">
+        <v>9</v>
+      </c>
       <c r="B67" s="9">
-        <v>41642</v>
+        <v>41638</v>
       </c>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -3375,83 +3467,83 @@
       <c r="N67" s="54"/>
     </row>
     <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="98">
-        <v>10</v>
-      </c>
-      <c r="B68" s="2">
-        <v>41645</v>
-      </c>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="44"/>
+      <c r="A68" s="66"/>
+      <c r="B68" s="9">
+        <v>41639</v>
+      </c>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
       <c r="K68" s="54"/>
       <c r="L68" s="54"/>
       <c r="M68" s="54"/>
       <c r="N68" s="54"/>
     </row>
     <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="98"/>
-      <c r="B69" s="2">
-        <v>41646</v>
-      </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
+      <c r="A69" s="66"/>
+      <c r="B69" s="9">
+        <v>41640</v>
+      </c>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
       <c r="K69" s="54"/>
       <c r="L69" s="54"/>
       <c r="M69" s="54"/>
       <c r="N69" s="54"/>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="98"/>
-      <c r="B70" s="2">
-        <v>41647</v>
-      </c>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="44"/>
+      <c r="A70" s="66"/>
+      <c r="B70" s="9">
+        <v>41641</v>
+      </c>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
       <c r="K70" s="54"/>
       <c r="L70" s="54"/>
       <c r="M70" s="54"/>
       <c r="N70" s="54"/>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="98"/>
-      <c r="B71" s="2">
-        <v>41648</v>
-      </c>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
+      <c r="A71" s="66"/>
+      <c r="B71" s="9">
+        <v>41642</v>
+      </c>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
       <c r="K71" s="54"/>
       <c r="L71" s="54"/>
       <c r="M71" s="54"/>
       <c r="N71" s="54"/>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="98"/>
+      <c r="A72" s="76">
+        <v>10</v>
+      </c>
       <c r="B72" s="2">
-        <v>41649</v>
+        <v>41645</v>
       </c>
       <c r="C72" s="44"/>
       <c r="D72" s="44"/>
@@ -3467,83 +3559,83 @@
       <c r="N72" s="54"/>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="97">
-        <v>11</v>
-      </c>
-      <c r="B73" s="9">
-        <v>41652</v>
-      </c>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
+      <c r="A73" s="76"/>
+      <c r="B73" s="2">
+        <v>41646</v>
+      </c>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
       <c r="K73" s="54"/>
       <c r="L73" s="54"/>
       <c r="M73" s="54"/>
       <c r="N73" s="54"/>
     </row>
     <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="97"/>
-      <c r="B74" s="9">
-        <v>41653</v>
-      </c>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
+      <c r="A74" s="76"/>
+      <c r="B74" s="2">
+        <v>41647</v>
+      </c>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
       <c r="K74" s="54"/>
       <c r="L74" s="54"/>
       <c r="M74" s="54"/>
       <c r="N74" s="54"/>
     </row>
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="97"/>
-      <c r="B75" s="9">
-        <v>41654</v>
-      </c>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
+      <c r="A75" s="76"/>
+      <c r="B75" s="2">
+        <v>41648</v>
+      </c>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
       <c r="K75" s="54"/>
       <c r="L75" s="54"/>
       <c r="M75" s="54"/>
       <c r="N75" s="54"/>
     </row>
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="97"/>
-      <c r="B76" s="9">
-        <v>41655</v>
-      </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
+      <c r="A76" s="76"/>
+      <c r="B76" s="2">
+        <v>41649</v>
+      </c>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
       <c r="K76" s="54"/>
       <c r="L76" s="54"/>
       <c r="M76" s="54"/>
       <c r="N76" s="54"/>
     </row>
     <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="97"/>
+      <c r="A77" s="66">
+        <v>11</v>
+      </c>
       <c r="B77" s="9">
-        <v>41656</v>
+        <v>41652</v>
       </c>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -3559,83 +3651,83 @@
       <c r="N77" s="54"/>
     </row>
     <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="98">
-        <v>12</v>
-      </c>
-      <c r="B78" s="2">
-        <v>41659</v>
-      </c>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="44"/>
+      <c r="A78" s="66"/>
+      <c r="B78" s="9">
+        <v>41653</v>
+      </c>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
       <c r="K78" s="54"/>
       <c r="L78" s="54"/>
       <c r="M78" s="54"/>
       <c r="N78" s="54"/>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="98"/>
-      <c r="B79" s="2">
-        <v>41660</v>
-      </c>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="44"/>
+      <c r="A79" s="66"/>
+      <c r="B79" s="9">
+        <v>41654</v>
+      </c>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
       <c r="K79" s="54"/>
       <c r="L79" s="54"/>
       <c r="M79" s="54"/>
       <c r="N79" s="54"/>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="98"/>
-      <c r="B80" s="2">
-        <v>41661</v>
-      </c>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
-      <c r="I80" s="44"/>
-      <c r="J80" s="44"/>
+      <c r="A80" s="66"/>
+      <c r="B80" s="9">
+        <v>41655</v>
+      </c>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
       <c r="K80" s="54"/>
       <c r="L80" s="54"/>
       <c r="M80" s="54"/>
       <c r="N80" s="54"/>
     </row>
     <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="98"/>
-      <c r="B81" s="2">
-        <v>41662</v>
-      </c>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="44"/>
-      <c r="I81" s="44"/>
-      <c r="J81" s="44"/>
+      <c r="A81" s="66"/>
+      <c r="B81" s="9">
+        <v>41656</v>
+      </c>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
       <c r="K81" s="54"/>
       <c r="L81" s="54"/>
       <c r="M81" s="54"/>
       <c r="N81" s="54"/>
     </row>
     <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="98"/>
+      <c r="A82" s="76">
+        <v>12</v>
+      </c>
       <c r="B82" s="2">
-        <v>41663</v>
+        <v>41659</v>
       </c>
       <c r="C82" s="44"/>
       <c r="D82" s="44"/>
@@ -3651,91 +3743,83 @@
       <c r="N82" s="54"/>
     </row>
     <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="97">
-        <v>13</v>
-      </c>
-      <c r="B83" s="9">
-        <v>41666</v>
-      </c>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
+      <c r="A83" s="76"/>
+      <c r="B83" s="2">
+        <v>41660</v>
+      </c>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="44"/>
       <c r="K83" s="54"/>
       <c r="L83" s="54"/>
       <c r="M83" s="54"/>
       <c r="N83" s="54"/>
     </row>
     <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="97"/>
-      <c r="B84" s="9">
-        <v>41667</v>
-      </c>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
+      <c r="A84" s="76"/>
+      <c r="B84" s="2">
+        <v>41661</v>
+      </c>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
       <c r="K84" s="54"/>
       <c r="L84" s="54"/>
       <c r="M84" s="54"/>
       <c r="N84" s="54"/>
     </row>
     <row r="85" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="97"/>
-      <c r="B85" s="9">
-        <v>41668</v>
-      </c>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="37"/>
+      <c r="A85" s="76"/>
+      <c r="B85" s="2">
+        <v>41662</v>
+      </c>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
       <c r="K85" s="54"/>
       <c r="L85" s="54"/>
       <c r="M85" s="54"/>
       <c r="N85" s="54"/>
     </row>
     <row r="86" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="97"/>
-      <c r="B86" s="9">
-        <v>41669</v>
-      </c>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
+      <c r="A86" s="76"/>
+      <c r="B86" s="2">
+        <v>41663</v>
+      </c>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
       <c r="K86" s="54"/>
       <c r="L86" s="54"/>
       <c r="M86" s="54"/>
       <c r="N86" s="54"/>
     </row>
     <row r="87" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="97"/>
+      <c r="A87" s="66">
+        <v>13</v>
+      </c>
       <c r="B87" s="9">
-        <v>41670</v>
+        <v>41666</v>
       </c>
       <c r="C87" s="37"/>
       <c r="D87" s="37"/>
@@ -3753,91 +3837,91 @@
       <c r="N87" s="54"/>
     </row>
     <row r="88" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="98">
-        <v>14</v>
-      </c>
-      <c r="B88" s="2">
-        <v>41673</v>
-      </c>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="40" t="s">
+      <c r="A88" s="66"/>
+      <c r="B88" s="9">
+        <v>41667</v>
+      </c>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="44"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
       <c r="K88" s="54"/>
       <c r="L88" s="54"/>
       <c r="M88" s="54"/>
       <c r="N88" s="54"/>
     </row>
     <row r="89" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="98"/>
-      <c r="B89" s="2">
-        <v>41674</v>
-      </c>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="40" t="s">
+      <c r="A89" s="66"/>
+      <c r="B89" s="9">
+        <v>41668</v>
+      </c>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H89" s="44"/>
-      <c r="I89" s="44"/>
-      <c r="J89" s="44"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
       <c r="K89" s="54"/>
       <c r="L89" s="54"/>
       <c r="M89" s="54"/>
       <c r="N89" s="54"/>
     </row>
     <row r="90" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="98"/>
-      <c r="B90" s="2">
-        <v>41675</v>
-      </c>
-      <c r="C90" s="44"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="40" t="s">
+      <c r="A90" s="66"/>
+      <c r="B90" s="9">
+        <v>41669</v>
+      </c>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H90" s="44"/>
-      <c r="I90" s="44"/>
-      <c r="J90" s="44"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
       <c r="K90" s="54"/>
       <c r="L90" s="54"/>
       <c r="M90" s="54"/>
       <c r="N90" s="54"/>
     </row>
     <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="98"/>
-      <c r="B91" s="2">
-        <v>41676</v>
-      </c>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="40" t="s">
+      <c r="A91" s="66"/>
+      <c r="B91" s="9">
+        <v>41670</v>
+      </c>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
       <c r="K91" s="54"/>
       <c r="L91" s="54"/>
       <c r="M91" s="54"/>
       <c r="N91" s="54"/>
     </row>
     <row r="92" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="98"/>
+      <c r="A92" s="76">
+        <v>14</v>
+      </c>
       <c r="B92" s="2">
-        <v>41677</v>
+        <v>41673</v>
       </c>
       <c r="C92" s="44"/>
       <c r="D92" s="44"/>
@@ -3855,83 +3939,91 @@
       <c r="N92" s="54"/>
     </row>
     <row r="93" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="97">
-        <v>15</v>
-      </c>
-      <c r="B93" s="9">
-        <v>41680</v>
-      </c>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="37"/>
+      <c r="A93" s="76"/>
+      <c r="B93" s="2">
+        <v>41674</v>
+      </c>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
       <c r="K93" s="54"/>
       <c r="L93" s="54"/>
       <c r="M93" s="54"/>
       <c r="N93" s="54"/>
     </row>
     <row r="94" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="97"/>
-      <c r="B94" s="9">
-        <v>41681</v>
-      </c>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="37"/>
+      <c r="A94" s="76"/>
+      <c r="B94" s="2">
+        <v>41675</v>
+      </c>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
       <c r="K94" s="54"/>
       <c r="L94" s="54"/>
       <c r="M94" s="54"/>
       <c r="N94" s="54"/>
     </row>
     <row r="95" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="97"/>
-      <c r="B95" s="9">
-        <v>41682</v>
-      </c>
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="37"/>
+      <c r="A95" s="76"/>
+      <c r="B95" s="2">
+        <v>41676</v>
+      </c>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H95" s="44"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="44"/>
       <c r="K95" s="54"/>
       <c r="L95" s="54"/>
       <c r="M95" s="54"/>
       <c r="N95" s="54"/>
     </row>
     <row r="96" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="97"/>
-      <c r="B96" s="9">
-        <v>41683</v>
-      </c>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="37"/>
+      <c r="A96" s="76"/>
+      <c r="B96" s="2">
+        <v>41677</v>
+      </c>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
       <c r="K96" s="54"/>
       <c r="L96" s="54"/>
       <c r="M96" s="54"/>
       <c r="N96" s="54"/>
     </row>
     <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="97"/>
+      <c r="A97" s="66">
+        <v>15</v>
+      </c>
       <c r="B97" s="9">
-        <v>41684</v>
+        <v>41680</v>
       </c>
       <c r="C97" s="37"/>
       <c r="D97" s="37"/>
@@ -3947,83 +4039,83 @@
       <c r="N97" s="54"/>
     </row>
     <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="98">
-        <v>16</v>
-      </c>
-      <c r="B98" s="2">
-        <v>41687</v>
-      </c>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="44"/>
-      <c r="F98" s="44"/>
-      <c r="G98" s="44"/>
-      <c r="H98" s="44"/>
-      <c r="I98" s="44"/>
-      <c r="J98" s="44"/>
+      <c r="A98" s="66"/>
+      <c r="B98" s="9">
+        <v>41681</v>
+      </c>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
       <c r="K98" s="54"/>
       <c r="L98" s="54"/>
       <c r="M98" s="54"/>
       <c r="N98" s="54"/>
     </row>
     <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="98"/>
-      <c r="B99" s="2">
-        <v>41688</v>
-      </c>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="44"/>
-      <c r="I99" s="44"/>
-      <c r="J99" s="44"/>
+      <c r="A99" s="66"/>
+      <c r="B99" s="9">
+        <v>41682</v>
+      </c>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="37"/>
       <c r="K99" s="54"/>
       <c r="L99" s="54"/>
       <c r="M99" s="54"/>
       <c r="N99" s="54"/>
     </row>
     <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="98"/>
-      <c r="B100" s="2">
-        <v>41689</v>
-      </c>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="44"/>
-      <c r="F100" s="44"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="44"/>
-      <c r="I100" s="44"/>
-      <c r="J100" s="44"/>
+      <c r="A100" s="66"/>
+      <c r="B100" s="9">
+        <v>41683</v>
+      </c>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
       <c r="K100" s="54"/>
       <c r="L100" s="54"/>
       <c r="M100" s="54"/>
       <c r="N100" s="54"/>
     </row>
     <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="98"/>
-      <c r="B101" s="2">
-        <v>41690</v>
-      </c>
-      <c r="C101" s="44"/>
-      <c r="D101" s="44"/>
-      <c r="E101" s="44"/>
-      <c r="F101" s="44"/>
-      <c r="G101" s="44"/>
-      <c r="H101" s="44"/>
-      <c r="I101" s="44"/>
-      <c r="J101" s="44"/>
+      <c r="A101" s="66"/>
+      <c r="B101" s="9">
+        <v>41684</v>
+      </c>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
       <c r="K101" s="54"/>
       <c r="L101" s="54"/>
       <c r="M101" s="54"/>
       <c r="N101" s="54"/>
     </row>
     <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="98"/>
+      <c r="A102" s="76">
+        <v>16</v>
+      </c>
       <c r="B102" s="2">
-        <v>41691</v>
+        <v>41687</v>
       </c>
       <c r="C102" s="44"/>
       <c r="D102" s="44"/>
@@ -4039,83 +4131,83 @@
       <c r="N102" s="54"/>
     </row>
     <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="97">
-        <v>17</v>
-      </c>
-      <c r="B103" s="9">
-        <v>41694</v>
-      </c>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="37"/>
+      <c r="A103" s="76"/>
+      <c r="B103" s="2">
+        <v>41688</v>
+      </c>
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
+      <c r="E103" s="44"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="44"/>
       <c r="K103" s="54"/>
       <c r="L103" s="54"/>
       <c r="M103" s="54"/>
       <c r="N103" s="54"/>
     </row>
     <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="97"/>
-      <c r="B104" s="9">
-        <v>41695</v>
-      </c>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="37"/>
-      <c r="H104" s="37"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="37"/>
+      <c r="A104" s="76"/>
+      <c r="B104" s="2">
+        <v>41689</v>
+      </c>
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="44"/>
       <c r="K104" s="54"/>
       <c r="L104" s="54"/>
       <c r="M104" s="54"/>
       <c r="N104" s="54"/>
     </row>
     <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="97"/>
-      <c r="B105" s="9">
-        <v>41696</v>
-      </c>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="37"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="37"/>
-      <c r="H105" s="37"/>
-      <c r="I105" s="37"/>
-      <c r="J105" s="37"/>
+      <c r="A105" s="76"/>
+      <c r="B105" s="2">
+        <v>41690</v>
+      </c>
+      <c r="C105" s="44"/>
+      <c r="D105" s="44"/>
+      <c r="E105" s="44"/>
+      <c r="F105" s="44"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="44"/>
+      <c r="I105" s="44"/>
+      <c r="J105" s="44"/>
       <c r="K105" s="54"/>
       <c r="L105" s="54"/>
       <c r="M105" s="54"/>
       <c r="N105" s="54"/>
     </row>
     <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="97"/>
-      <c r="B106" s="9">
-        <v>41697</v>
-      </c>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="37"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="37"/>
+      <c r="A106" s="76"/>
+      <c r="B106" s="2">
+        <v>41691</v>
+      </c>
+      <c r="C106" s="44"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="44"/>
+      <c r="F106" s="44"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="44"/>
+      <c r="I106" s="44"/>
+      <c r="J106" s="44"/>
       <c r="K106" s="54"/>
       <c r="L106" s="54"/>
       <c r="M106" s="54"/>
       <c r="N106" s="54"/>
     </row>
     <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="97"/>
+      <c r="A107" s="66">
+        <v>17</v>
+      </c>
       <c r="B107" s="9">
-        <v>41698</v>
+        <v>41694</v>
       </c>
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>
@@ -4131,83 +4223,83 @@
       <c r="N107" s="54"/>
     </row>
     <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="98">
-        <v>18</v>
-      </c>
-      <c r="B108" s="2">
-        <v>41701</v>
-      </c>
-      <c r="C108" s="44"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="44"/>
-      <c r="F108" s="44"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="44"/>
-      <c r="I108" s="44"/>
-      <c r="J108" s="44"/>
+      <c r="A108" s="66"/>
+      <c r="B108" s="9">
+        <v>41695</v>
+      </c>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="37"/>
       <c r="K108" s="54"/>
       <c r="L108" s="54"/>
       <c r="M108" s="54"/>
       <c r="N108" s="54"/>
     </row>
     <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="98"/>
-      <c r="B109" s="2">
-        <v>41702</v>
-      </c>
-      <c r="C109" s="44"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="44"/>
-      <c r="F109" s="44"/>
-      <c r="G109" s="44"/>
-      <c r="H109" s="44"/>
-      <c r="I109" s="44"/>
-      <c r="J109" s="44"/>
+      <c r="A109" s="66"/>
+      <c r="B109" s="9">
+        <v>41696</v>
+      </c>
+      <c r="C109" s="37"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="37"/>
+      <c r="I109" s="37"/>
+      <c r="J109" s="37"/>
       <c r="K109" s="54"/>
       <c r="L109" s="54"/>
       <c r="M109" s="54"/>
       <c r="N109" s="54"/>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="98"/>
-      <c r="B110" s="2">
-        <v>41703</v>
-      </c>
-      <c r="C110" s="44"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="44"/>
-      <c r="F110" s="44"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="44"/>
-      <c r="I110" s="44"/>
-      <c r="J110" s="44"/>
+      <c r="A110" s="66"/>
+      <c r="B110" s="9">
+        <v>41697</v>
+      </c>
+      <c r="C110" s="37"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="37"/>
+      <c r="I110" s="37"/>
+      <c r="J110" s="37"/>
       <c r="K110" s="54"/>
       <c r="L110" s="54"/>
       <c r="M110" s="54"/>
       <c r="N110" s="54"/>
     </row>
     <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="98"/>
-      <c r="B111" s="2">
-        <v>41704</v>
-      </c>
-      <c r="C111" s="44"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="44"/>
-      <c r="F111" s="44"/>
-      <c r="G111" s="44"/>
-      <c r="H111" s="44"/>
-      <c r="I111" s="44"/>
-      <c r="J111" s="44"/>
+      <c r="A111" s="66"/>
+      <c r="B111" s="9">
+        <v>41698</v>
+      </c>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="37"/>
+      <c r="I111" s="37"/>
+      <c r="J111" s="37"/>
       <c r="K111" s="54"/>
       <c r="L111" s="54"/>
       <c r="M111" s="54"/>
       <c r="N111" s="54"/>
     </row>
     <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="98"/>
+      <c r="A112" s="76">
+        <v>18</v>
+      </c>
       <c r="B112" s="2">
-        <v>41705</v>
+        <v>41701</v>
       </c>
       <c r="C112" s="44"/>
       <c r="D112" s="44"/>
@@ -4223,83 +4315,83 @@
       <c r="N112" s="54"/>
     </row>
     <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="97">
-        <v>19</v>
-      </c>
-      <c r="B113" s="9">
-        <v>41708</v>
-      </c>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="37"/>
-      <c r="F113" s="37"/>
-      <c r="G113" s="37"/>
-      <c r="H113" s="37"/>
-      <c r="I113" s="37"/>
-      <c r="J113" s="37"/>
+      <c r="A113" s="76"/>
+      <c r="B113" s="2">
+        <v>41702</v>
+      </c>
+      <c r="C113" s="44"/>
+      <c r="D113" s="44"/>
+      <c r="E113" s="44"/>
+      <c r="F113" s="44"/>
+      <c r="G113" s="44"/>
+      <c r="H113" s="44"/>
+      <c r="I113" s="44"/>
+      <c r="J113" s="44"/>
       <c r="K113" s="54"/>
       <c r="L113" s="54"/>
       <c r="M113" s="54"/>
       <c r="N113" s="54"/>
     </row>
     <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="97"/>
-      <c r="B114" s="9">
-        <v>41709</v>
-      </c>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
-      <c r="E114" s="37"/>
-      <c r="F114" s="37"/>
-      <c r="G114" s="37"/>
-      <c r="H114" s="37"/>
-      <c r="I114" s="37"/>
-      <c r="J114" s="37"/>
+      <c r="A114" s="76"/>
+      <c r="B114" s="2">
+        <v>41703</v>
+      </c>
+      <c r="C114" s="44"/>
+      <c r="D114" s="44"/>
+      <c r="E114" s="44"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="44"/>
+      <c r="H114" s="44"/>
+      <c r="I114" s="44"/>
+      <c r="J114" s="44"/>
       <c r="K114" s="54"/>
       <c r="L114" s="54"/>
       <c r="M114" s="54"/>
       <c r="N114" s="54"/>
     </row>
     <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="97"/>
-      <c r="B115" s="9">
-        <v>41710</v>
-      </c>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="37"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="37"/>
-      <c r="H115" s="37"/>
-      <c r="I115" s="37"/>
-      <c r="J115" s="37"/>
+      <c r="A115" s="76"/>
+      <c r="B115" s="2">
+        <v>41704</v>
+      </c>
+      <c r="C115" s="44"/>
+      <c r="D115" s="44"/>
+      <c r="E115" s="44"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="44"/>
+      <c r="I115" s="44"/>
+      <c r="J115" s="44"/>
       <c r="K115" s="54"/>
       <c r="L115" s="54"/>
       <c r="M115" s="54"/>
       <c r="N115" s="54"/>
     </row>
     <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="97"/>
-      <c r="B116" s="9">
-        <v>41711</v>
-      </c>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
-      <c r="E116" s="37"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="37"/>
-      <c r="I116" s="37"/>
-      <c r="J116" s="37"/>
+      <c r="A116" s="76"/>
+      <c r="B116" s="2">
+        <v>41705</v>
+      </c>
+      <c r="C116" s="44"/>
+      <c r="D116" s="44"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="44"/>
+      <c r="H116" s="44"/>
+      <c r="I116" s="44"/>
+      <c r="J116" s="44"/>
       <c r="K116" s="54"/>
       <c r="L116" s="54"/>
       <c r="M116" s="54"/>
       <c r="N116" s="54"/>
     </row>
     <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="97"/>
+      <c r="A117" s="66">
+        <v>19</v>
+      </c>
       <c r="B117" s="9">
-        <v>41712</v>
+        <v>41708</v>
       </c>
       <c r="C117" s="37"/>
       <c r="D117" s="37"/>
@@ -4315,83 +4407,83 @@
       <c r="N117" s="54"/>
     </row>
     <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="98">
-        <v>20</v>
-      </c>
-      <c r="B118" s="2">
-        <v>41715</v>
-      </c>
-      <c r="C118" s="44"/>
-      <c r="D118" s="44"/>
-      <c r="E118" s="44"/>
-      <c r="F118" s="44"/>
-      <c r="G118" s="44"/>
-      <c r="H118" s="44"/>
-      <c r="I118" s="44"/>
-      <c r="J118" s="44"/>
+      <c r="A118" s="66"/>
+      <c r="B118" s="9">
+        <v>41709</v>
+      </c>
+      <c r="C118" s="37"/>
+      <c r="D118" s="37"/>
+      <c r="E118" s="37"/>
+      <c r="F118" s="37"/>
+      <c r="G118" s="37"/>
+      <c r="H118" s="37"/>
+      <c r="I118" s="37"/>
+      <c r="J118" s="37"/>
       <c r="K118" s="54"/>
       <c r="L118" s="54"/>
       <c r="M118" s="54"/>
       <c r="N118" s="54"/>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="98"/>
-      <c r="B119" s="2">
-        <v>41716</v>
-      </c>
-      <c r="C119" s="44"/>
-      <c r="D119" s="44"/>
-      <c r="E119" s="44"/>
-      <c r="F119" s="44"/>
-      <c r="G119" s="44"/>
-      <c r="H119" s="44"/>
-      <c r="I119" s="44"/>
-      <c r="J119" s="44"/>
+      <c r="A119" s="66"/>
+      <c r="B119" s="9">
+        <v>41710</v>
+      </c>
+      <c r="C119" s="37"/>
+      <c r="D119" s="37"/>
+      <c r="E119" s="37"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="37"/>
+      <c r="H119" s="37"/>
+      <c r="I119" s="37"/>
+      <c r="J119" s="37"/>
       <c r="K119" s="54"/>
       <c r="L119" s="54"/>
       <c r="M119" s="54"/>
       <c r="N119" s="54"/>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="98"/>
-      <c r="B120" s="2">
-        <v>41717</v>
-      </c>
-      <c r="C120" s="44"/>
-      <c r="D120" s="44"/>
-      <c r="E120" s="44"/>
-      <c r="F120" s="44"/>
-      <c r="G120" s="44"/>
-      <c r="H120" s="44"/>
-      <c r="I120" s="44"/>
-      <c r="J120" s="44"/>
+      <c r="A120" s="66"/>
+      <c r="B120" s="9">
+        <v>41711</v>
+      </c>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="37"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="37"/>
+      <c r="J120" s="37"/>
       <c r="K120" s="54"/>
       <c r="L120" s="54"/>
       <c r="M120" s="54"/>
       <c r="N120" s="54"/>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="98"/>
-      <c r="B121" s="2">
-        <v>41718</v>
-      </c>
-      <c r="C121" s="44"/>
-      <c r="D121" s="44"/>
-      <c r="E121" s="44"/>
-      <c r="F121" s="44"/>
-      <c r="G121" s="44"/>
-      <c r="H121" s="44"/>
-      <c r="I121" s="44"/>
-      <c r="J121" s="44"/>
+      <c r="A121" s="66"/>
+      <c r="B121" s="9">
+        <v>41712</v>
+      </c>
+      <c r="C121" s="37"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="37"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="37"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="37"/>
       <c r="K121" s="54"/>
       <c r="L121" s="54"/>
       <c r="M121" s="54"/>
       <c r="N121" s="54"/>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="98"/>
+      <c r="A122" s="76">
+        <v>20</v>
+      </c>
       <c r="B122" s="2">
-        <v>41719</v>
+        <v>41715</v>
       </c>
       <c r="C122" s="44"/>
       <c r="D122" s="44"/>
@@ -4407,83 +4499,83 @@
       <c r="N122" s="54"/>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="97">
-        <v>21</v>
-      </c>
-      <c r="B123" s="9">
-        <v>41722</v>
-      </c>
-      <c r="C123" s="37"/>
-      <c r="D123" s="37"/>
-      <c r="E123" s="37"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="37"/>
-      <c r="H123" s="37"/>
-      <c r="I123" s="37"/>
-      <c r="J123" s="37"/>
+      <c r="A123" s="76"/>
+      <c r="B123" s="2">
+        <v>41716</v>
+      </c>
+      <c r="C123" s="44"/>
+      <c r="D123" s="44"/>
+      <c r="E123" s="44"/>
+      <c r="F123" s="44"/>
+      <c r="G123" s="44"/>
+      <c r="H123" s="44"/>
+      <c r="I123" s="44"/>
+      <c r="J123" s="44"/>
       <c r="K123" s="54"/>
       <c r="L123" s="54"/>
       <c r="M123" s="54"/>
       <c r="N123" s="54"/>
     </row>
     <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="97"/>
-      <c r="B124" s="9">
-        <v>41723</v>
-      </c>
-      <c r="C124" s="37"/>
-      <c r="D124" s="37"/>
-      <c r="E124" s="37"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="37"/>
-      <c r="H124" s="37"/>
-      <c r="I124" s="37"/>
-      <c r="J124" s="37"/>
+      <c r="A124" s="76"/>
+      <c r="B124" s="2">
+        <v>41717</v>
+      </c>
+      <c r="C124" s="44"/>
+      <c r="D124" s="44"/>
+      <c r="E124" s="44"/>
+      <c r="F124" s="44"/>
+      <c r="G124" s="44"/>
+      <c r="H124" s="44"/>
+      <c r="I124" s="44"/>
+      <c r="J124" s="44"/>
       <c r="K124" s="54"/>
       <c r="L124" s="54"/>
       <c r="M124" s="54"/>
       <c r="N124" s="54"/>
     </row>
     <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="97"/>
-      <c r="B125" s="9">
-        <v>41724</v>
-      </c>
-      <c r="C125" s="37"/>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="37"/>
+      <c r="A125" s="76"/>
+      <c r="B125" s="2">
+        <v>41718</v>
+      </c>
+      <c r="C125" s="44"/>
+      <c r="D125" s="44"/>
+      <c r="E125" s="44"/>
+      <c r="F125" s="44"/>
+      <c r="G125" s="44"/>
+      <c r="H125" s="44"/>
+      <c r="I125" s="44"/>
+      <c r="J125" s="44"/>
       <c r="K125" s="54"/>
       <c r="L125" s="54"/>
       <c r="M125" s="54"/>
       <c r="N125" s="54"/>
     </row>
     <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="97"/>
-      <c r="B126" s="9">
-        <v>41725</v>
-      </c>
-      <c r="C126" s="37"/>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="37"/>
+      <c r="A126" s="76"/>
+      <c r="B126" s="2">
+        <v>41719</v>
+      </c>
+      <c r="C126" s="44"/>
+      <c r="D126" s="44"/>
+      <c r="E126" s="44"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="44"/>
+      <c r="I126" s="44"/>
+      <c r="J126" s="44"/>
       <c r="K126" s="54"/>
       <c r="L126" s="54"/>
       <c r="M126" s="54"/>
       <c r="N126" s="54"/>
     </row>
     <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="97"/>
+      <c r="A127" s="66">
+        <v>21</v>
+      </c>
       <c r="B127" s="9">
-        <v>41726</v>
+        <v>41722</v>
       </c>
       <c r="C127" s="37"/>
       <c r="D127" s="37"/>
@@ -4499,83 +4591,83 @@
       <c r="N127" s="54"/>
     </row>
     <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="98">
-        <v>22</v>
-      </c>
-      <c r="B128" s="2">
-        <v>41729</v>
-      </c>
-      <c r="C128" s="44"/>
-      <c r="D128" s="44"/>
-      <c r="E128" s="44"/>
-      <c r="F128" s="44"/>
-      <c r="G128" s="44"/>
-      <c r="H128" s="44"/>
-      <c r="I128" s="44"/>
-      <c r="J128" s="44"/>
+      <c r="A128" s="66"/>
+      <c r="B128" s="9">
+        <v>41723</v>
+      </c>
+      <c r="C128" s="37"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="37"/>
       <c r="K128" s="54"/>
       <c r="L128" s="54"/>
       <c r="M128" s="54"/>
       <c r="N128" s="54"/>
     </row>
     <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="98"/>
-      <c r="B129" s="2">
-        <v>41730</v>
-      </c>
-      <c r="C129" s="44"/>
-      <c r="D129" s="44"/>
-      <c r="E129" s="44"/>
-      <c r="F129" s="44"/>
-      <c r="G129" s="44"/>
-      <c r="H129" s="44"/>
-      <c r="I129" s="44"/>
-      <c r="J129" s="44"/>
+      <c r="A129" s="66"/>
+      <c r="B129" s="9">
+        <v>41724</v>
+      </c>
+      <c r="C129" s="37"/>
+      <c r="D129" s="37"/>
+      <c r="E129" s="37"/>
+      <c r="F129" s="37"/>
+      <c r="G129" s="37"/>
+      <c r="H129" s="37"/>
+      <c r="I129" s="37"/>
+      <c r="J129" s="37"/>
       <c r="K129" s="54"/>
       <c r="L129" s="54"/>
       <c r="M129" s="54"/>
       <c r="N129" s="54"/>
     </row>
     <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="98"/>
-      <c r="B130" s="2">
-        <v>41731</v>
-      </c>
-      <c r="C130" s="44"/>
-      <c r="D130" s="44"/>
-      <c r="E130" s="44"/>
-      <c r="F130" s="44"/>
-      <c r="G130" s="44"/>
-      <c r="H130" s="44"/>
-      <c r="I130" s="44"/>
-      <c r="J130" s="44"/>
+      <c r="A130" s="66"/>
+      <c r="B130" s="9">
+        <v>41725</v>
+      </c>
+      <c r="C130" s="37"/>
+      <c r="D130" s="37"/>
+      <c r="E130" s="37"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="37"/>
+      <c r="H130" s="37"/>
+      <c r="I130" s="37"/>
+      <c r="J130" s="37"/>
       <c r="K130" s="54"/>
       <c r="L130" s="54"/>
       <c r="M130" s="54"/>
       <c r="N130" s="54"/>
     </row>
     <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="98"/>
-      <c r="B131" s="2">
-        <v>41732</v>
-      </c>
-      <c r="C131" s="44"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="44"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="44"/>
-      <c r="I131" s="44"/>
-      <c r="J131" s="44"/>
+      <c r="A131" s="66"/>
+      <c r="B131" s="9">
+        <v>41726</v>
+      </c>
+      <c r="C131" s="37"/>
+      <c r="D131" s="37"/>
+      <c r="E131" s="37"/>
+      <c r="F131" s="37"/>
+      <c r="G131" s="37"/>
+      <c r="H131" s="37"/>
+      <c r="I131" s="37"/>
+      <c r="J131" s="37"/>
       <c r="K131" s="54"/>
       <c r="L131" s="54"/>
       <c r="M131" s="54"/>
       <c r="N131" s="54"/>
     </row>
     <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="98"/>
+      <c r="A132" s="76">
+        <v>22</v>
+      </c>
       <c r="B132" s="2">
-        <v>41733</v>
+        <v>41729</v>
       </c>
       <c r="C132" s="44"/>
       <c r="D132" s="44"/>
@@ -4591,83 +4683,83 @@
       <c r="N132" s="54"/>
     </row>
     <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="97">
-        <v>23</v>
-      </c>
-      <c r="B133" s="9">
-        <v>41736</v>
-      </c>
-      <c r="C133" s="37"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="37"/>
-      <c r="J133" s="37"/>
+      <c r="A133" s="76"/>
+      <c r="B133" s="2">
+        <v>41730</v>
+      </c>
+      <c r="C133" s="44"/>
+      <c r="D133" s="44"/>
+      <c r="E133" s="44"/>
+      <c r="F133" s="44"/>
+      <c r="G133" s="44"/>
+      <c r="H133" s="44"/>
+      <c r="I133" s="44"/>
+      <c r="J133" s="44"/>
       <c r="K133" s="54"/>
       <c r="L133" s="54"/>
       <c r="M133" s="54"/>
       <c r="N133" s="54"/>
     </row>
     <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="97"/>
-      <c r="B134" s="9">
-        <v>41737</v>
-      </c>
-      <c r="C134" s="37"/>
-      <c r="D134" s="37"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="37"/>
-      <c r="I134" s="37"/>
-      <c r="J134" s="37"/>
+      <c r="A134" s="76"/>
+      <c r="B134" s="2">
+        <v>41731</v>
+      </c>
+      <c r="C134" s="44"/>
+      <c r="D134" s="44"/>
+      <c r="E134" s="44"/>
+      <c r="F134" s="44"/>
+      <c r="G134" s="44"/>
+      <c r="H134" s="44"/>
+      <c r="I134" s="44"/>
+      <c r="J134" s="44"/>
       <c r="K134" s="54"/>
       <c r="L134" s="54"/>
       <c r="M134" s="54"/>
       <c r="N134" s="54"/>
     </row>
     <row r="135" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="97"/>
-      <c r="B135" s="9">
-        <v>41738</v>
-      </c>
-      <c r="C135" s="37"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
-      <c r="F135" s="37"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="37"/>
-      <c r="I135" s="37"/>
-      <c r="J135" s="37"/>
+      <c r="A135" s="76"/>
+      <c r="B135" s="2">
+        <v>41732</v>
+      </c>
+      <c r="C135" s="44"/>
+      <c r="D135" s="44"/>
+      <c r="E135" s="44"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="44"/>
+      <c r="I135" s="44"/>
+      <c r="J135" s="44"/>
       <c r="K135" s="54"/>
       <c r="L135" s="54"/>
       <c r="M135" s="54"/>
       <c r="N135" s="54"/>
     </row>
     <row r="136" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="97"/>
-      <c r="B136" s="9">
-        <v>41739</v>
-      </c>
-      <c r="C136" s="37"/>
-      <c r="D136" s="37"/>
-      <c r="E136" s="37"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="37"/>
-      <c r="I136" s="37"/>
-      <c r="J136" s="37"/>
+      <c r="A136" s="76"/>
+      <c r="B136" s="2">
+        <v>41733</v>
+      </c>
+      <c r="C136" s="44"/>
+      <c r="D136" s="44"/>
+      <c r="E136" s="44"/>
+      <c r="F136" s="44"/>
+      <c r="G136" s="44"/>
+      <c r="H136" s="44"/>
+      <c r="I136" s="44"/>
+      <c r="J136" s="44"/>
       <c r="K136" s="54"/>
       <c r="L136" s="54"/>
       <c r="M136" s="54"/>
       <c r="N136" s="54"/>
     </row>
     <row r="137" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="97"/>
+      <c r="A137" s="66">
+        <v>23</v>
+      </c>
       <c r="B137" s="9">
-        <v>41740</v>
+        <v>41736</v>
       </c>
       <c r="C137" s="37"/>
       <c r="D137" s="37"/>
@@ -4683,83 +4775,83 @@
       <c r="N137" s="54"/>
     </row>
     <row r="138" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="98">
-        <v>24</v>
-      </c>
-      <c r="B138" s="2">
-        <v>41743</v>
-      </c>
-      <c r="C138" s="44"/>
-      <c r="D138" s="44"/>
-      <c r="E138" s="44"/>
-      <c r="F138" s="44"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="44"/>
-      <c r="I138" s="44"/>
-      <c r="J138" s="44"/>
+      <c r="A138" s="66"/>
+      <c r="B138" s="9">
+        <v>41737</v>
+      </c>
+      <c r="C138" s="37"/>
+      <c r="D138" s="37"/>
+      <c r="E138" s="37"/>
+      <c r="F138" s="37"/>
+      <c r="G138" s="37"/>
+      <c r="H138" s="37"/>
+      <c r="I138" s="37"/>
+      <c r="J138" s="37"/>
       <c r="K138" s="54"/>
       <c r="L138" s="54"/>
       <c r="M138" s="54"/>
       <c r="N138" s="54"/>
     </row>
     <row r="139" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="98"/>
-      <c r="B139" s="2">
-        <v>41744</v>
-      </c>
-      <c r="C139" s="44"/>
-      <c r="D139" s="44"/>
-      <c r="E139" s="44"/>
-      <c r="F139" s="44"/>
-      <c r="G139" s="44"/>
-      <c r="H139" s="44"/>
-      <c r="I139" s="44"/>
-      <c r="J139" s="44"/>
+      <c r="A139" s="66"/>
+      <c r="B139" s="9">
+        <v>41738</v>
+      </c>
+      <c r="C139" s="37"/>
+      <c r="D139" s="37"/>
+      <c r="E139" s="37"/>
+      <c r="F139" s="37"/>
+      <c r="G139" s="37"/>
+      <c r="H139" s="37"/>
+      <c r="I139" s="37"/>
+      <c r="J139" s="37"/>
       <c r="K139" s="54"/>
       <c r="L139" s="54"/>
       <c r="M139" s="54"/>
       <c r="N139" s="54"/>
     </row>
     <row r="140" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="98"/>
-      <c r="B140" s="2">
-        <v>41745</v>
-      </c>
-      <c r="C140" s="44"/>
-      <c r="D140" s="44"/>
-      <c r="E140" s="44"/>
-      <c r="F140" s="44"/>
-      <c r="G140" s="44"/>
-      <c r="H140" s="44"/>
-      <c r="I140" s="44"/>
-      <c r="J140" s="44"/>
+      <c r="A140" s="66"/>
+      <c r="B140" s="9">
+        <v>41739</v>
+      </c>
+      <c r="C140" s="37"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="37"/>
+      <c r="F140" s="37"/>
+      <c r="G140" s="37"/>
+      <c r="H140" s="37"/>
+      <c r="I140" s="37"/>
+      <c r="J140" s="37"/>
       <c r="K140" s="54"/>
       <c r="L140" s="54"/>
       <c r="M140" s="54"/>
       <c r="N140" s="54"/>
     </row>
     <row r="141" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="98"/>
-      <c r="B141" s="2">
-        <v>41746</v>
-      </c>
-      <c r="C141" s="44"/>
-      <c r="D141" s="44"/>
-      <c r="E141" s="44"/>
-      <c r="F141" s="44"/>
-      <c r="G141" s="44"/>
-      <c r="H141" s="44"/>
-      <c r="I141" s="44"/>
-      <c r="J141" s="44"/>
+      <c r="A141" s="66"/>
+      <c r="B141" s="9">
+        <v>41740</v>
+      </c>
+      <c r="C141" s="37"/>
+      <c r="D141" s="37"/>
+      <c r="E141" s="37"/>
+      <c r="F141" s="37"/>
+      <c r="G141" s="37"/>
+      <c r="H141" s="37"/>
+      <c r="I141" s="37"/>
+      <c r="J141" s="37"/>
       <c r="K141" s="54"/>
       <c r="L141" s="54"/>
       <c r="M141" s="54"/>
       <c r="N141" s="54"/>
     </row>
     <row r="142" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="98"/>
+      <c r="A142" s="76">
+        <v>24</v>
+      </c>
       <c r="B142" s="2">
-        <v>41747</v>
+        <v>41743</v>
       </c>
       <c r="C142" s="44"/>
       <c r="D142" s="44"/>
@@ -4775,83 +4867,83 @@
       <c r="N142" s="54"/>
     </row>
     <row r="143" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="97">
-        <v>25</v>
-      </c>
-      <c r="B143" s="9">
-        <v>41750</v>
-      </c>
-      <c r="C143" s="37"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="37"/>
-      <c r="H143" s="37"/>
-      <c r="I143" s="37"/>
-      <c r="J143" s="37"/>
+      <c r="A143" s="76"/>
+      <c r="B143" s="2">
+        <v>41744</v>
+      </c>
+      <c r="C143" s="44"/>
+      <c r="D143" s="44"/>
+      <c r="E143" s="44"/>
+      <c r="F143" s="44"/>
+      <c r="G143" s="44"/>
+      <c r="H143" s="44"/>
+      <c r="I143" s="44"/>
+      <c r="J143" s="44"/>
       <c r="K143" s="54"/>
       <c r="L143" s="54"/>
       <c r="M143" s="54"/>
       <c r="N143" s="54"/>
     </row>
     <row r="144" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="97"/>
-      <c r="B144" s="9">
-        <v>41751</v>
-      </c>
-      <c r="C144" s="37"/>
-      <c r="D144" s="37"/>
-      <c r="E144" s="37"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="37"/>
-      <c r="H144" s="37"/>
-      <c r="I144" s="37"/>
-      <c r="J144" s="37"/>
+      <c r="A144" s="76"/>
+      <c r="B144" s="2">
+        <v>41745</v>
+      </c>
+      <c r="C144" s="44"/>
+      <c r="D144" s="44"/>
+      <c r="E144" s="44"/>
+      <c r="F144" s="44"/>
+      <c r="G144" s="44"/>
+      <c r="H144" s="44"/>
+      <c r="I144" s="44"/>
+      <c r="J144" s="44"/>
       <c r="K144" s="54"/>
       <c r="L144" s="54"/>
       <c r="M144" s="54"/>
       <c r="N144" s="54"/>
     </row>
     <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="97"/>
-      <c r="B145" s="9">
-        <v>41752</v>
-      </c>
-      <c r="C145" s="37"/>
-      <c r="D145" s="37"/>
-      <c r="E145" s="37"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="37"/>
-      <c r="H145" s="37"/>
-      <c r="I145" s="37"/>
-      <c r="J145" s="37"/>
+      <c r="A145" s="76"/>
+      <c r="B145" s="2">
+        <v>41746</v>
+      </c>
+      <c r="C145" s="44"/>
+      <c r="D145" s="44"/>
+      <c r="E145" s="44"/>
+      <c r="F145" s="44"/>
+      <c r="G145" s="44"/>
+      <c r="H145" s="44"/>
+      <c r="I145" s="44"/>
+      <c r="J145" s="44"/>
       <c r="K145" s="54"/>
       <c r="L145" s="54"/>
       <c r="M145" s="54"/>
       <c r="N145" s="54"/>
     </row>
     <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="97"/>
-      <c r="B146" s="9">
-        <v>41753</v>
-      </c>
-      <c r="C146" s="37"/>
-      <c r="D146" s="37"/>
-      <c r="E146" s="37"/>
-      <c r="F146" s="37"/>
-      <c r="G146" s="37"/>
-      <c r="H146" s="37"/>
-      <c r="I146" s="37"/>
-      <c r="J146" s="37"/>
+      <c r="A146" s="76"/>
+      <c r="B146" s="2">
+        <v>41747</v>
+      </c>
+      <c r="C146" s="44"/>
+      <c r="D146" s="44"/>
+      <c r="E146" s="44"/>
+      <c r="F146" s="44"/>
+      <c r="G146" s="44"/>
+      <c r="H146" s="44"/>
+      <c r="I146" s="44"/>
+      <c r="J146" s="44"/>
       <c r="K146" s="54"/>
       <c r="L146" s="54"/>
       <c r="M146" s="54"/>
       <c r="N146" s="54"/>
     </row>
     <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="97"/>
+      <c r="A147" s="66">
+        <v>25</v>
+      </c>
       <c r="B147" s="9">
-        <v>41754</v>
+        <v>41750</v>
       </c>
       <c r="C147" s="37"/>
       <c r="D147" s="37"/>
@@ -4867,83 +4959,83 @@
       <c r="N147" s="54"/>
     </row>
     <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="98">
-        <v>26</v>
-      </c>
-      <c r="B148" s="2">
-        <v>41757</v>
-      </c>
-      <c r="C148" s="44"/>
-      <c r="D148" s="44"/>
-      <c r="E148" s="44"/>
-      <c r="F148" s="44"/>
-      <c r="G148" s="44"/>
-      <c r="H148" s="44"/>
-      <c r="I148" s="44"/>
-      <c r="J148" s="44"/>
+      <c r="A148" s="66"/>
+      <c r="B148" s="9">
+        <v>41751</v>
+      </c>
+      <c r="C148" s="37"/>
+      <c r="D148" s="37"/>
+      <c r="E148" s="37"/>
+      <c r="F148" s="37"/>
+      <c r="G148" s="37"/>
+      <c r="H148" s="37"/>
+      <c r="I148" s="37"/>
+      <c r="J148" s="37"/>
       <c r="K148" s="54"/>
       <c r="L148" s="54"/>
       <c r="M148" s="54"/>
       <c r="N148" s="54"/>
     </row>
     <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="98"/>
-      <c r="B149" s="2">
-        <v>41758</v>
-      </c>
-      <c r="C149" s="44"/>
-      <c r="D149" s="44"/>
-      <c r="E149" s="44"/>
-      <c r="F149" s="44"/>
-      <c r="G149" s="44"/>
-      <c r="H149" s="44"/>
-      <c r="I149" s="44"/>
-      <c r="J149" s="44"/>
+      <c r="A149" s="66"/>
+      <c r="B149" s="9">
+        <v>41752</v>
+      </c>
+      <c r="C149" s="37"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="37"/>
+      <c r="F149" s="37"/>
+      <c r="G149" s="37"/>
+      <c r="H149" s="37"/>
+      <c r="I149" s="37"/>
+      <c r="J149" s="37"/>
       <c r="K149" s="54"/>
       <c r="L149" s="54"/>
       <c r="M149" s="54"/>
       <c r="N149" s="54"/>
     </row>
     <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="98"/>
-      <c r="B150" s="2">
-        <v>41759</v>
-      </c>
-      <c r="C150" s="44"/>
-      <c r="D150" s="44"/>
-      <c r="E150" s="44"/>
-      <c r="F150" s="44"/>
-      <c r="G150" s="44"/>
-      <c r="H150" s="44"/>
-      <c r="I150" s="44"/>
-      <c r="J150" s="44"/>
+      <c r="A150" s="66"/>
+      <c r="B150" s="9">
+        <v>41753</v>
+      </c>
+      <c r="C150" s="37"/>
+      <c r="D150" s="37"/>
+      <c r="E150" s="37"/>
+      <c r="F150" s="37"/>
+      <c r="G150" s="37"/>
+      <c r="H150" s="37"/>
+      <c r="I150" s="37"/>
+      <c r="J150" s="37"/>
       <c r="K150" s="54"/>
       <c r="L150" s="54"/>
       <c r="M150" s="54"/>
       <c r="N150" s="54"/>
     </row>
     <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="98"/>
-      <c r="B151" s="2">
-        <v>41760</v>
-      </c>
-      <c r="C151" s="44"/>
-      <c r="D151" s="44"/>
-      <c r="E151" s="44"/>
-      <c r="F151" s="44"/>
-      <c r="G151" s="44"/>
-      <c r="H151" s="44"/>
-      <c r="I151" s="44"/>
-      <c r="J151" s="44"/>
+      <c r="A151" s="66"/>
+      <c r="B151" s="9">
+        <v>41754</v>
+      </c>
+      <c r="C151" s="37"/>
+      <c r="D151" s="37"/>
+      <c r="E151" s="37"/>
+      <c r="F151" s="37"/>
+      <c r="G151" s="37"/>
+      <c r="H151" s="37"/>
+      <c r="I151" s="37"/>
+      <c r="J151" s="37"/>
       <c r="K151" s="54"/>
       <c r="L151" s="54"/>
       <c r="M151" s="54"/>
       <c r="N151" s="54"/>
     </row>
     <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="98"/>
+      <c r="A152" s="76">
+        <v>26</v>
+      </c>
       <c r="B152" s="2">
-        <v>41761</v>
+        <v>41757</v>
       </c>
       <c r="C152" s="44"/>
       <c r="D152" s="44"/>
@@ -4959,83 +5051,83 @@
       <c r="N152" s="54"/>
     </row>
     <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="97">
-        <v>27</v>
-      </c>
-      <c r="B153" s="9">
-        <v>41764</v>
-      </c>
-      <c r="C153" s="37"/>
-      <c r="D153" s="37"/>
-      <c r="E153" s="37"/>
-      <c r="F153" s="37"/>
-      <c r="G153" s="37"/>
-      <c r="H153" s="37"/>
-      <c r="I153" s="37"/>
-      <c r="J153" s="37"/>
+      <c r="A153" s="76"/>
+      <c r="B153" s="2">
+        <v>41758</v>
+      </c>
+      <c r="C153" s="44"/>
+      <c r="D153" s="44"/>
+      <c r="E153" s="44"/>
+      <c r="F153" s="44"/>
+      <c r="G153" s="44"/>
+      <c r="H153" s="44"/>
+      <c r="I153" s="44"/>
+      <c r="J153" s="44"/>
       <c r="K153" s="54"/>
       <c r="L153" s="54"/>
       <c r="M153" s="54"/>
       <c r="N153" s="54"/>
     </row>
     <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="97"/>
-      <c r="B154" s="9">
-        <v>41765</v>
-      </c>
-      <c r="C154" s="37"/>
-      <c r="D154" s="37"/>
-      <c r="E154" s="37"/>
-      <c r="F154" s="37"/>
-      <c r="G154" s="37"/>
-      <c r="H154" s="37"/>
-      <c r="I154" s="37"/>
-      <c r="J154" s="37"/>
+      <c r="A154" s="76"/>
+      <c r="B154" s="2">
+        <v>41759</v>
+      </c>
+      <c r="C154" s="44"/>
+      <c r="D154" s="44"/>
+      <c r="E154" s="44"/>
+      <c r="F154" s="44"/>
+      <c r="G154" s="44"/>
+      <c r="H154" s="44"/>
+      <c r="I154" s="44"/>
+      <c r="J154" s="44"/>
       <c r="K154" s="54"/>
       <c r="L154" s="54"/>
       <c r="M154" s="54"/>
       <c r="N154" s="54"/>
     </row>
     <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="97"/>
-      <c r="B155" s="9">
-        <v>41766</v>
-      </c>
-      <c r="C155" s="37"/>
-      <c r="D155" s="37"/>
-      <c r="E155" s="37"/>
-      <c r="F155" s="37"/>
-      <c r="G155" s="37"/>
-      <c r="H155" s="37"/>
-      <c r="I155" s="37"/>
-      <c r="J155" s="37"/>
+      <c r="A155" s="76"/>
+      <c r="B155" s="2">
+        <v>41760</v>
+      </c>
+      <c r="C155" s="44"/>
+      <c r="D155" s="44"/>
+      <c r="E155" s="44"/>
+      <c r="F155" s="44"/>
+      <c r="G155" s="44"/>
+      <c r="H155" s="44"/>
+      <c r="I155" s="44"/>
+      <c r="J155" s="44"/>
       <c r="K155" s="54"/>
       <c r="L155" s="54"/>
       <c r="M155" s="54"/>
       <c r="N155" s="54"/>
     </row>
     <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="97"/>
-      <c r="B156" s="9">
-        <v>41767</v>
-      </c>
-      <c r="C156" s="37"/>
-      <c r="D156" s="37"/>
-      <c r="E156" s="37"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="37"/>
-      <c r="H156" s="37"/>
-      <c r="I156" s="37"/>
-      <c r="J156" s="37"/>
+      <c r="A156" s="76"/>
+      <c r="B156" s="2">
+        <v>41761</v>
+      </c>
+      <c r="C156" s="44"/>
+      <c r="D156" s="44"/>
+      <c r="E156" s="44"/>
+      <c r="F156" s="44"/>
+      <c r="G156" s="44"/>
+      <c r="H156" s="44"/>
+      <c r="I156" s="44"/>
+      <c r="J156" s="44"/>
       <c r="K156" s="54"/>
       <c r="L156" s="54"/>
       <c r="M156" s="54"/>
       <c r="N156" s="54"/>
     </row>
     <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="97"/>
+      <c r="A157" s="66">
+        <v>27</v>
+      </c>
       <c r="B157" s="9">
-        <v>41768</v>
+        <v>41764</v>
       </c>
       <c r="C157" s="37"/>
       <c r="D157" s="37"/>
@@ -5051,83 +5143,83 @@
       <c r="N157" s="54"/>
     </row>
     <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="98">
-        <v>28</v>
-      </c>
-      <c r="B158" s="2">
-        <v>41771</v>
-      </c>
-      <c r="C158" s="44"/>
-      <c r="D158" s="44"/>
-      <c r="E158" s="44"/>
-      <c r="F158" s="44"/>
-      <c r="G158" s="44"/>
-      <c r="H158" s="44"/>
-      <c r="I158" s="44"/>
-      <c r="J158" s="44"/>
+      <c r="A158" s="66"/>
+      <c r="B158" s="9">
+        <v>41765</v>
+      </c>
+      <c r="C158" s="37"/>
+      <c r="D158" s="37"/>
+      <c r="E158" s="37"/>
+      <c r="F158" s="37"/>
+      <c r="G158" s="37"/>
+      <c r="H158" s="37"/>
+      <c r="I158" s="37"/>
+      <c r="J158" s="37"/>
       <c r="K158" s="54"/>
       <c r="L158" s="54"/>
       <c r="M158" s="54"/>
       <c r="N158" s="54"/>
     </row>
     <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="98"/>
-      <c r="B159" s="2">
-        <v>41772</v>
-      </c>
-      <c r="C159" s="44"/>
-      <c r="D159" s="44"/>
-      <c r="E159" s="44"/>
-      <c r="F159" s="44"/>
-      <c r="G159" s="44"/>
-      <c r="H159" s="44"/>
-      <c r="I159" s="44"/>
-      <c r="J159" s="44"/>
+      <c r="A159" s="66"/>
+      <c r="B159" s="9">
+        <v>41766</v>
+      </c>
+      <c r="C159" s="37"/>
+      <c r="D159" s="37"/>
+      <c r="E159" s="37"/>
+      <c r="F159" s="37"/>
+      <c r="G159" s="37"/>
+      <c r="H159" s="37"/>
+      <c r="I159" s="37"/>
+      <c r="J159" s="37"/>
       <c r="K159" s="54"/>
       <c r="L159" s="54"/>
       <c r="M159" s="54"/>
       <c r="N159" s="54"/>
     </row>
     <row r="160" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="98"/>
-      <c r="B160" s="2">
-        <v>41773</v>
-      </c>
-      <c r="C160" s="44"/>
-      <c r="D160" s="44"/>
-      <c r="E160" s="44"/>
-      <c r="F160" s="44"/>
-      <c r="G160" s="44"/>
-      <c r="H160" s="44"/>
-      <c r="I160" s="44"/>
-      <c r="J160" s="44"/>
+      <c r="A160" s="66"/>
+      <c r="B160" s="9">
+        <v>41767</v>
+      </c>
+      <c r="C160" s="37"/>
+      <c r="D160" s="37"/>
+      <c r="E160" s="37"/>
+      <c r="F160" s="37"/>
+      <c r="G160" s="37"/>
+      <c r="H160" s="37"/>
+      <c r="I160" s="37"/>
+      <c r="J160" s="37"/>
       <c r="K160" s="54"/>
       <c r="L160" s="54"/>
       <c r="M160" s="54"/>
       <c r="N160" s="54"/>
     </row>
     <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="98"/>
-      <c r="B161" s="2">
-        <v>41774</v>
-      </c>
-      <c r="C161" s="44"/>
-      <c r="D161" s="44"/>
-      <c r="E161" s="44"/>
-      <c r="F161" s="44"/>
-      <c r="G161" s="44"/>
-      <c r="H161" s="44"/>
-      <c r="I161" s="44"/>
-      <c r="J161" s="44"/>
+      <c r="A161" s="66"/>
+      <c r="B161" s="9">
+        <v>41768</v>
+      </c>
+      <c r="C161" s="37"/>
+      <c r="D161" s="37"/>
+      <c r="E161" s="37"/>
+      <c r="F161" s="37"/>
+      <c r="G161" s="37"/>
+      <c r="H161" s="37"/>
+      <c r="I161" s="37"/>
+      <c r="J161" s="37"/>
       <c r="K161" s="54"/>
       <c r="L161" s="54"/>
       <c r="M161" s="54"/>
       <c r="N161" s="54"/>
     </row>
     <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="98"/>
+      <c r="A162" s="76">
+        <v>28</v>
+      </c>
       <c r="B162" s="2">
-        <v>41775</v>
+        <v>41771</v>
       </c>
       <c r="C162" s="44"/>
       <c r="D162" s="44"/>
@@ -5143,83 +5235,83 @@
       <c r="N162" s="54"/>
     </row>
     <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="97">
-        <v>29</v>
-      </c>
-      <c r="B163" s="9">
-        <v>41778</v>
-      </c>
-      <c r="C163" s="37"/>
-      <c r="D163" s="37"/>
-      <c r="E163" s="37"/>
-      <c r="F163" s="37"/>
-      <c r="G163" s="37"/>
-      <c r="H163" s="37"/>
-      <c r="I163" s="37"/>
-      <c r="J163" s="37"/>
+      <c r="A163" s="76"/>
+      <c r="B163" s="2">
+        <v>41772</v>
+      </c>
+      <c r="C163" s="44"/>
+      <c r="D163" s="44"/>
+      <c r="E163" s="44"/>
+      <c r="F163" s="44"/>
+      <c r="G163" s="44"/>
+      <c r="H163" s="44"/>
+      <c r="I163" s="44"/>
+      <c r="J163" s="44"/>
       <c r="K163" s="54"/>
       <c r="L163" s="54"/>
       <c r="M163" s="54"/>
       <c r="N163" s="54"/>
     </row>
     <row r="164" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="97"/>
-      <c r="B164" s="9">
-        <v>41779</v>
-      </c>
-      <c r="C164" s="37"/>
-      <c r="D164" s="37"/>
-      <c r="E164" s="37"/>
-      <c r="F164" s="37"/>
-      <c r="G164" s="37"/>
-      <c r="H164" s="37"/>
-      <c r="I164" s="37"/>
-      <c r="J164" s="37"/>
+      <c r="A164" s="76"/>
+      <c r="B164" s="2">
+        <v>41773</v>
+      </c>
+      <c r="C164" s="44"/>
+      <c r="D164" s="44"/>
+      <c r="E164" s="44"/>
+      <c r="F164" s="44"/>
+      <c r="G164" s="44"/>
+      <c r="H164" s="44"/>
+      <c r="I164" s="44"/>
+      <c r="J164" s="44"/>
       <c r="K164" s="54"/>
       <c r="L164" s="54"/>
       <c r="M164" s="54"/>
       <c r="N164" s="54"/>
     </row>
     <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="97"/>
-      <c r="B165" s="9">
-        <v>41780</v>
-      </c>
-      <c r="C165" s="37"/>
-      <c r="D165" s="37"/>
-      <c r="E165" s="37"/>
-      <c r="F165" s="37"/>
-      <c r="G165" s="37"/>
-      <c r="H165" s="37"/>
-      <c r="I165" s="37"/>
-      <c r="J165" s="37"/>
+      <c r="A165" s="76"/>
+      <c r="B165" s="2">
+        <v>41774</v>
+      </c>
+      <c r="C165" s="44"/>
+      <c r="D165" s="44"/>
+      <c r="E165" s="44"/>
+      <c r="F165" s="44"/>
+      <c r="G165" s="44"/>
+      <c r="H165" s="44"/>
+      <c r="I165" s="44"/>
+      <c r="J165" s="44"/>
       <c r="K165" s="54"/>
       <c r="L165" s="54"/>
       <c r="M165" s="54"/>
       <c r="N165" s="54"/>
     </row>
     <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="97"/>
-      <c r="B166" s="9">
-        <v>41781</v>
-      </c>
-      <c r="C166" s="37"/>
-      <c r="D166" s="37"/>
-      <c r="E166" s="37"/>
-      <c r="F166" s="37"/>
-      <c r="G166" s="37"/>
-      <c r="H166" s="37"/>
-      <c r="I166" s="37"/>
-      <c r="J166" s="37"/>
+      <c r="A166" s="76"/>
+      <c r="B166" s="2">
+        <v>41775</v>
+      </c>
+      <c r="C166" s="44"/>
+      <c r="D166" s="44"/>
+      <c r="E166" s="44"/>
+      <c r="F166" s="44"/>
+      <c r="G166" s="44"/>
+      <c r="H166" s="44"/>
+      <c r="I166" s="44"/>
+      <c r="J166" s="44"/>
       <c r="K166" s="54"/>
       <c r="L166" s="54"/>
       <c r="M166" s="54"/>
       <c r="N166" s="54"/>
     </row>
     <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="97"/>
+      <c r="A167" s="66">
+        <v>29</v>
+      </c>
       <c r="B167" s="9">
-        <v>41782</v>
+        <v>41778</v>
       </c>
       <c r="C167" s="37"/>
       <c r="D167" s="37"/>
@@ -5235,83 +5327,83 @@
       <c r="N167" s="54"/>
     </row>
     <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="100">
-        <v>30</v>
-      </c>
-      <c r="B168" s="2">
-        <v>41785</v>
-      </c>
-      <c r="C168" s="40"/>
-      <c r="D168" s="40"/>
-      <c r="E168" s="40"/>
-      <c r="F168" s="40"/>
-      <c r="G168" s="40"/>
-      <c r="H168" s="40"/>
-      <c r="I168" s="40"/>
-      <c r="J168" s="40"/>
+      <c r="A168" s="66"/>
+      <c r="B168" s="9">
+        <v>41779</v>
+      </c>
+      <c r="C168" s="37"/>
+      <c r="D168" s="37"/>
+      <c r="E168" s="37"/>
+      <c r="F168" s="37"/>
+      <c r="G168" s="37"/>
+      <c r="H168" s="37"/>
+      <c r="I168" s="37"/>
+      <c r="J168" s="37"/>
       <c r="K168" s="54"/>
       <c r="L168" s="54"/>
       <c r="M168" s="54"/>
       <c r="N168" s="54"/>
     </row>
     <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="100"/>
-      <c r="B169" s="2">
-        <v>41786</v>
-      </c>
-      <c r="C169" s="40"/>
-      <c r="D169" s="40"/>
-      <c r="E169" s="40"/>
-      <c r="F169" s="40"/>
-      <c r="G169" s="40"/>
-      <c r="H169" s="40"/>
-      <c r="I169" s="40"/>
-      <c r="J169" s="40"/>
+      <c r="A169" s="66"/>
+      <c r="B169" s="9">
+        <v>41780</v>
+      </c>
+      <c r="C169" s="37"/>
+      <c r="D169" s="37"/>
+      <c r="E169" s="37"/>
+      <c r="F169" s="37"/>
+      <c r="G169" s="37"/>
+      <c r="H169" s="37"/>
+      <c r="I169" s="37"/>
+      <c r="J169" s="37"/>
       <c r="K169" s="54"/>
       <c r="L169" s="54"/>
       <c r="M169" s="54"/>
       <c r="N169" s="54"/>
     </row>
     <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="100"/>
-      <c r="B170" s="2">
-        <v>41787</v>
-      </c>
-      <c r="C170" s="40"/>
-      <c r="D170" s="40"/>
-      <c r="E170" s="40"/>
-      <c r="F170" s="40"/>
-      <c r="G170" s="40"/>
-      <c r="H170" s="40"/>
-      <c r="I170" s="40"/>
-      <c r="J170" s="40"/>
+      <c r="A170" s="66"/>
+      <c r="B170" s="9">
+        <v>41781</v>
+      </c>
+      <c r="C170" s="37"/>
+      <c r="D170" s="37"/>
+      <c r="E170" s="37"/>
+      <c r="F170" s="37"/>
+      <c r="G170" s="37"/>
+      <c r="H170" s="37"/>
+      <c r="I170" s="37"/>
+      <c r="J170" s="37"/>
       <c r="K170" s="54"/>
       <c r="L170" s="54"/>
       <c r="M170" s="54"/>
       <c r="N170" s="54"/>
     </row>
     <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="100"/>
-      <c r="B171" s="2">
-        <v>41788</v>
-      </c>
-      <c r="C171" s="40"/>
-      <c r="D171" s="40"/>
-      <c r="E171" s="40"/>
-      <c r="F171" s="40"/>
-      <c r="G171" s="40"/>
-      <c r="H171" s="40"/>
-      <c r="I171" s="40"/>
-      <c r="J171" s="40"/>
+      <c r="A171" s="66"/>
+      <c r="B171" s="9">
+        <v>41782</v>
+      </c>
+      <c r="C171" s="37"/>
+      <c r="D171" s="37"/>
+      <c r="E171" s="37"/>
+      <c r="F171" s="37"/>
+      <c r="G171" s="37"/>
+      <c r="H171" s="37"/>
+      <c r="I171" s="37"/>
+      <c r="J171" s="37"/>
       <c r="K171" s="54"/>
       <c r="L171" s="54"/>
       <c r="M171" s="54"/>
       <c r="N171" s="54"/>
     </row>
     <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="100"/>
+      <c r="A172" s="77">
+        <v>30</v>
+      </c>
       <c r="B172" s="2">
-        <v>41789</v>
+        <v>41785</v>
       </c>
       <c r="C172" s="40"/>
       <c r="D172" s="40"/>
@@ -5327,81 +5419,81 @@
       <c r="N172" s="54"/>
     </row>
     <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="100"/>
-      <c r="B173" s="10">
-        <v>41790</v>
-      </c>
-      <c r="C173" s="54"/>
-      <c r="D173" s="54"/>
-      <c r="E173" s="54"/>
-      <c r="F173" s="54"/>
-      <c r="G173" s="54"/>
-      <c r="H173" s="54"/>
-      <c r="I173" s="54"/>
-      <c r="J173" s="54"/>
+      <c r="A173" s="77"/>
+      <c r="B173" s="2">
+        <v>41786</v>
+      </c>
+      <c r="C173" s="40"/>
+      <c r="D173" s="40"/>
+      <c r="E173" s="40"/>
+      <c r="F173" s="40"/>
+      <c r="G173" s="40"/>
+      <c r="H173" s="40"/>
+      <c r="I173" s="40"/>
+      <c r="J173" s="40"/>
       <c r="K173" s="54"/>
       <c r="L173" s="54"/>
       <c r="M173" s="54"/>
       <c r="N173" s="54"/>
     </row>
     <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="55"/>
+      <c r="A174" s="77"/>
       <c r="B174" s="2">
-        <v>41791</v>
-      </c>
-      <c r="C174" s="54"/>
-      <c r="D174" s="54"/>
-      <c r="E174" s="54"/>
-      <c r="F174" s="54"/>
-      <c r="G174" s="54"/>
-      <c r="H174" s="54"/>
-      <c r="I174" s="54"/>
-      <c r="J174" s="54"/>
+        <v>41787</v>
+      </c>
+      <c r="C174" s="40"/>
+      <c r="D174" s="40"/>
+      <c r="E174" s="40"/>
+      <c r="F174" s="40"/>
+      <c r="G174" s="40"/>
+      <c r="H174" s="40"/>
+      <c r="I174" s="40"/>
+      <c r="J174" s="40"/>
       <c r="K174" s="54"/>
       <c r="L174" s="54"/>
       <c r="M174" s="54"/>
       <c r="N174" s="54"/>
     </row>
     <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="54"/>
+      <c r="A175" s="77"/>
       <c r="B175" s="2">
-        <v>41792</v>
-      </c>
-      <c r="C175" s="54"/>
-      <c r="D175" s="54"/>
-      <c r="E175" s="54"/>
-      <c r="F175" s="54"/>
-      <c r="G175" s="54"/>
-      <c r="H175" s="54"/>
-      <c r="I175" s="54"/>
-      <c r="J175" s="54"/>
+        <v>41788</v>
+      </c>
+      <c r="C175" s="40"/>
+      <c r="D175" s="40"/>
+      <c r="E175" s="40"/>
+      <c r="F175" s="40"/>
+      <c r="G175" s="40"/>
+      <c r="H175" s="40"/>
+      <c r="I175" s="40"/>
+      <c r="J175" s="40"/>
       <c r="K175" s="54"/>
       <c r="L175" s="54"/>
       <c r="M175" s="54"/>
       <c r="N175" s="54"/>
     </row>
     <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="54"/>
+      <c r="A176" s="77"/>
       <c r="B176" s="2">
-        <v>41793</v>
-      </c>
-      <c r="C176" s="54"/>
-      <c r="D176" s="54"/>
-      <c r="E176" s="54"/>
-      <c r="F176" s="54"/>
-      <c r="G176" s="54"/>
-      <c r="H176" s="54"/>
-      <c r="I176" s="54"/>
-      <c r="J176" s="54"/>
+        <v>41789</v>
+      </c>
+      <c r="C176" s="40"/>
+      <c r="D176" s="40"/>
+      <c r="E176" s="40"/>
+      <c r="F176" s="40"/>
+      <c r="G176" s="40"/>
+      <c r="H176" s="40"/>
+      <c r="I176" s="40"/>
+      <c r="J176" s="40"/>
       <c r="K176" s="54"/>
       <c r="L176" s="54"/>
       <c r="M176" s="54"/>
       <c r="N176" s="54"/>
     </row>
     <row r="177" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="54"/>
-      <c r="B177" s="2">
-        <v>41794</v>
+      <c r="A177" s="77"/>
+      <c r="B177" s="10">
+        <v>41790</v>
       </c>
       <c r="C177" s="54"/>
       <c r="D177" s="54"/>
@@ -5417,9 +5509,9 @@
       <c r="N177" s="54"/>
     </row>
     <row r="178" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="54"/>
+      <c r="A178" s="55"/>
       <c r="B178" s="2">
-        <v>41795</v>
+        <v>41791</v>
       </c>
       <c r="C178" s="54"/>
       <c r="D178" s="54"/>
@@ -5437,7 +5529,7 @@
     <row r="179" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A179" s="54"/>
       <c r="B179" s="2">
-        <v>41796</v>
+        <v>41792</v>
       </c>
       <c r="C179" s="54"/>
       <c r="D179" s="54"/>
@@ -5455,7 +5547,7 @@
     <row r="180" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" s="54"/>
       <c r="B180" s="2">
-        <v>41797</v>
+        <v>41793</v>
       </c>
       <c r="C180" s="54"/>
       <c r="D180" s="54"/>
@@ -5473,7 +5565,7 @@
     <row r="181" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A181" s="54"/>
       <c r="B181" s="2">
-        <v>41798</v>
+        <v>41794</v>
       </c>
       <c r="C181" s="54"/>
       <c r="D181" s="54"/>
@@ -5491,7 +5583,7 @@
     <row r="182" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A182" s="54"/>
       <c r="B182" s="2">
-        <v>41799</v>
+        <v>41795</v>
       </c>
       <c r="C182" s="54"/>
       <c r="D182" s="54"/>
@@ -5509,7 +5601,7 @@
     <row r="183" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" s="54"/>
       <c r="B183" s="2">
-        <v>41800</v>
+        <v>41796</v>
       </c>
       <c r="C183" s="54"/>
       <c r="D183" s="54"/>
@@ -5527,7 +5619,7 @@
     <row r="184" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" s="54"/>
       <c r="B184" s="2">
-        <v>41801</v>
+        <v>41797</v>
       </c>
       <c r="C184" s="54"/>
       <c r="D184" s="54"/>
@@ -5545,7 +5637,7 @@
     <row r="185" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="54"/>
       <c r="B185" s="2">
-        <v>41802</v>
+        <v>41798</v>
       </c>
       <c r="C185" s="54"/>
       <c r="D185" s="54"/>
@@ -5563,7 +5655,7 @@
     <row r="186" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="54"/>
       <c r="B186" s="2">
-        <v>41803</v>
+        <v>41799</v>
       </c>
       <c r="C186" s="54"/>
       <c r="D186" s="54"/>
@@ -5581,7 +5673,7 @@
     <row r="187" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="54"/>
       <c r="B187" s="2">
-        <v>41804</v>
+        <v>41800</v>
       </c>
       <c r="C187" s="54"/>
       <c r="D187" s="54"/>
@@ -5599,7 +5691,7 @@
     <row r="188" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="54"/>
       <c r="B188" s="2">
-        <v>41805</v>
+        <v>41801</v>
       </c>
       <c r="C188" s="54"/>
       <c r="D188" s="54"/>
@@ -5617,7 +5709,7 @@
     <row r="189" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="54"/>
       <c r="B189" s="2">
-        <v>41806</v>
+        <v>41802</v>
       </c>
       <c r="C189" s="54"/>
       <c r="D189" s="54"/>
@@ -5635,7 +5727,7 @@
     <row r="190" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="54"/>
       <c r="B190" s="2">
-        <v>41807</v>
+        <v>41803</v>
       </c>
       <c r="C190" s="54"/>
       <c r="D190" s="54"/>
@@ -5653,7 +5745,7 @@
     <row r="191" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="54"/>
       <c r="B191" s="2">
-        <v>41808</v>
+        <v>41804</v>
       </c>
       <c r="C191" s="54"/>
       <c r="D191" s="54"/>
@@ -5671,7 +5763,7 @@
     <row r="192" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" s="54"/>
       <c r="B192" s="2">
-        <v>41809</v>
+        <v>41805</v>
       </c>
       <c r="C192" s="54"/>
       <c r="D192" s="54"/>
@@ -5689,7 +5781,7 @@
     <row r="193" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" s="54"/>
       <c r="B193" s="2">
-        <v>41810</v>
+        <v>41806</v>
       </c>
       <c r="C193" s="54"/>
       <c r="D193" s="54"/>
@@ -5707,7 +5799,7 @@
     <row r="194" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="54"/>
       <c r="B194" s="2">
-        <v>41811</v>
+        <v>41807</v>
       </c>
       <c r="C194" s="54"/>
       <c r="D194" s="54"/>
@@ -5725,7 +5817,7 @@
     <row r="195" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="54"/>
       <c r="B195" s="2">
-        <v>41812</v>
+        <v>41808</v>
       </c>
       <c r="C195" s="54"/>
       <c r="D195" s="54"/>
@@ -5743,7 +5835,7 @@
     <row r="196" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="54"/>
       <c r="B196" s="2">
-        <v>41813</v>
+        <v>41809</v>
       </c>
       <c r="C196" s="54"/>
       <c r="D196" s="54"/>
@@ -5761,7 +5853,7 @@
     <row r="197" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="54"/>
       <c r="B197" s="2">
-        <v>41814</v>
+        <v>41810</v>
       </c>
       <c r="C197" s="54"/>
       <c r="D197" s="54"/>
@@ -5779,7 +5871,7 @@
     <row r="198" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="54"/>
       <c r="B198" s="2">
-        <v>41815</v>
+        <v>41811</v>
       </c>
       <c r="C198" s="54"/>
       <c r="D198" s="54"/>
@@ -5797,7 +5889,7 @@
     <row r="199" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" s="54"/>
       <c r="B199" s="2">
-        <v>41816</v>
+        <v>41812</v>
       </c>
       <c r="C199" s="54"/>
       <c r="D199" s="54"/>
@@ -5811,7 +5903,7 @@
     <row r="200" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="54"/>
       <c r="B200" s="2">
-        <v>41817</v>
+        <v>41813</v>
       </c>
       <c r="C200" s="54"/>
       <c r="D200" s="54"/>
@@ -5825,7 +5917,7 @@
     <row r="201" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="54"/>
       <c r="B201" s="2">
-        <v>41818</v>
+        <v>41814</v>
       </c>
       <c r="C201" s="54"/>
       <c r="D201" s="54"/>
@@ -5839,7 +5931,7 @@
     <row r="202" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="54"/>
       <c r="B202" s="2">
-        <v>41819</v>
+        <v>41815</v>
       </c>
       <c r="C202" s="54"/>
       <c r="D202" s="54"/>
@@ -5853,7 +5945,7 @@
     <row r="203" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="54"/>
       <c r="B203" s="2">
-        <v>41820</v>
+        <v>41816</v>
       </c>
       <c r="C203" s="54"/>
       <c r="D203" s="54"/>
@@ -5867,7 +5959,7 @@
     <row r="204" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" s="54"/>
       <c r="B204" s="2">
-        <v>41821</v>
+        <v>41817</v>
       </c>
       <c r="C204" s="54"/>
       <c r="D204" s="54"/>
@@ -5881,7 +5973,7 @@
     <row r="205" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A205" s="54"/>
       <c r="B205" s="2">
-        <v>41822</v>
+        <v>41818</v>
       </c>
       <c r="C205" s="54"/>
       <c r="D205" s="54"/>
@@ -5895,7 +5987,7 @@
     <row r="206" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A206" s="54"/>
       <c r="B206" s="2">
-        <v>41823</v>
+        <v>41819</v>
       </c>
       <c r="C206" s="54"/>
       <c r="D206" s="54"/>
@@ -5909,7 +6001,7 @@
     <row r="207" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A207" s="54"/>
       <c r="B207" s="2">
-        <v>41824</v>
+        <v>41820</v>
       </c>
       <c r="C207" s="54"/>
       <c r="D207" s="54"/>
@@ -5920,10 +6012,104 @@
       <c r="I207" s="54"/>
       <c r="J207" s="54"/>
     </row>
+    <row r="208" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A208" s="54"/>
+      <c r="B208" s="2">
+        <v>41821</v>
+      </c>
+      <c r="C208" s="54"/>
+      <c r="D208" s="54"/>
+      <c r="E208" s="54"/>
+      <c r="F208" s="54"/>
+      <c r="G208" s="54"/>
+      <c r="H208" s="54"/>
+      <c r="I208" s="54"/>
+      <c r="J208" s="54"/>
+    </row>
+    <row r="209" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A209" s="54"/>
+      <c r="B209" s="2">
+        <v>41822</v>
+      </c>
+      <c r="C209" s="54"/>
+      <c r="D209" s="54"/>
+      <c r="E209" s="54"/>
+      <c r="F209" s="54"/>
+      <c r="G209" s="54"/>
+      <c r="H209" s="54"/>
+      <c r="I209" s="54"/>
+      <c r="J209" s="54"/>
+    </row>
+    <row r="210" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A210" s="54"/>
+      <c r="B210" s="2">
+        <v>41823</v>
+      </c>
+      <c r="C210" s="54"/>
+      <c r="D210" s="54"/>
+      <c r="E210" s="54"/>
+      <c r="F210" s="54"/>
+      <c r="G210" s="54"/>
+      <c r="H210" s="54"/>
+      <c r="I210" s="54"/>
+      <c r="J210" s="54"/>
+    </row>
+    <row r="211" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="54"/>
+      <c r="B211" s="2">
+        <v>41824</v>
+      </c>
+      <c r="C211" s="54"/>
+      <c r="D211" s="54"/>
+      <c r="E211" s="54"/>
+      <c r="F211" s="54"/>
+      <c r="G211" s="54"/>
+      <c r="H211" s="54"/>
+      <c r="I211" s="54"/>
+      <c r="J211" s="54"/>
+    </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="52">
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A172:A177"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A97:A101"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A157:A161"/>
     <mergeCell ref="B23:B28"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="B29:B31"/>
@@ -5933,45 +6119,9 @@
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A158:A162"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="A168:A173"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A138:A142"/>
-    <mergeCell ref="A143:A147"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -6337,7 +6487,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F42</xm:sqref>
+          <xm:sqref>F45:F46</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="145">
   <si>
     <t>Week</t>
   </si>
@@ -493,6 +493,13 @@
   <si>
     <t>Write meeting minustes
 Update time log</t>
+  </si>
+  <si>
+    <t>Write Functional, Quality Attribute and Entity of Module Soan Tin</t>
+  </si>
+  <si>
+    <t>Update Functional, Quality Attribute and Entity of Module Soan Tin
+Update timlog</t>
   </si>
 </sst>
 </file>
@@ -825,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -950,12 +957,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -981,6 +982,132 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -990,18 +1117,6 @@
     <xf numFmtId="16" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1020,125 +1135,8 @@
     <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1535,13 +1533,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N211"/>
+  <dimension ref="A1:N213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1563,84 +1561,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="87"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="75"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="88" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="90"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="78"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="93"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="81"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="96"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="105"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="32"/>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="56" t="s">
         <v>112</v>
       </c>
       <c r="I5" s="33" t="s">
@@ -1683,10 +1681,10 @@
       <c r="J6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -1704,7 +1702,7 @@
       <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="54">
         <f t="shared" ref="F7" si="0">E7</f>
         <v>1</v>
       </c>
@@ -1714,20 +1712,20 @@
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="103" t="s">
+      <c r="K7" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="103"/>
+      <c r="L7" s="91"/>
       <c r="M7" s="38">
         <f>SUM(M8:M37)</f>
-        <v>71.010000000000005</v>
+        <v>77.010000000000005</v>
       </c>
       <c r="N7" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="78">
+      <c r="A8" s="96">
         <v>2</v>
       </c>
       <c r="B8" s="2">
@@ -1742,7 +1740,7 @@
       <c r="E8" s="13">
         <v>1.5</v>
       </c>
-      <c r="F8" s="108">
+      <c r="F8" s="65">
         <f>SUM(E8:E9)</f>
         <v>3</v>
       </c>
@@ -1767,7 +1765,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="2">
         <v>41589</v>
       </c>
@@ -1780,7 +1778,7 @@
       <c r="E9" s="13">
         <v>1.5</v>
       </c>
-      <c r="F9" s="109"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1802,7 +1800,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="2">
         <v>41590</v>
       </c>
@@ -1815,7 +1813,7 @@
       <c r="E10" s="13">
         <v>2</v>
       </c>
-      <c r="F10" s="108">
+      <c r="F10" s="65">
         <f>SUM(E10:E11)</f>
         <v>4</v>
       </c>
@@ -1840,7 +1838,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="2">
         <v>41590</v>
       </c>
@@ -1853,7 +1851,7 @@
       <c r="E11" s="13">
         <v>2</v>
       </c>
-      <c r="F11" s="109"/>
+      <c r="F11" s="66"/>
       <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1867,15 +1865,15 @@
       </c>
       <c r="L11" s="44"/>
       <c r="M11" s="45">
-        <f>SUM(F35:F45)</f>
-        <v>22.41</v>
+        <f>SUM(F35:F48)</f>
+        <v>28.41</v>
       </c>
       <c r="N11" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="2">
         <v>41591</v>
       </c>
@@ -1888,7 +1886,7 @@
       <c r="E12" s="13">
         <v>2</v>
       </c>
-      <c r="F12" s="57">
+      <c r="F12" s="55">
         <f t="shared" ref="F12" si="1">E12</f>
         <v>2</v>
       </c>
@@ -1905,7 +1903,7 @@
       </c>
       <c r="L12" s="44"/>
       <c r="M12" s="45">
-        <f>SUM(F47:F51)</f>
+        <f>SUM(F49:F53)</f>
         <v>0</v>
       </c>
       <c r="N12" s="39" t="s">
@@ -1913,7 +1911,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="79"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="2">
         <v>41592</v>
       </c>
@@ -1926,7 +1924,7 @@
       <c r="E13" s="13">
         <v>1</v>
       </c>
-      <c r="F13" s="108">
+      <c r="F13" s="65">
         <f>SUM(E13:E14)</f>
         <v>2.25</v>
       </c>
@@ -1943,7 +1941,7 @@
       </c>
       <c r="L13" s="44"/>
       <c r="M13" s="45">
-        <f>SUM(F52:F56)</f>
+        <f>SUM(F54:F58)</f>
         <v>0</v>
       </c>
       <c r="N13" s="39" t="s">
@@ -1951,7 +1949,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="2">
         <v>41592</v>
       </c>
@@ -1964,7 +1962,7 @@
       <c r="E14" s="13">
         <v>1.25</v>
       </c>
-      <c r="F14" s="109"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="21" t="s">
         <v>28</v>
       </c>
@@ -1978,7 +1976,7 @@
       </c>
       <c r="L14" s="44"/>
       <c r="M14" s="45">
-        <f>SUM(F57:F61)</f>
+        <f>SUM(F59:F63)</f>
         <v>0</v>
       </c>
       <c r="N14" s="39" t="s">
@@ -1986,7 +1984,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="2">
         <v>41593</v>
       </c>
@@ -1999,7 +1997,7 @@
       <c r="E15" s="13">
         <v>1.05</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="55">
         <f t="shared" ref="F15:F18" si="2">E15</f>
         <v>1.05</v>
       </c>
@@ -2016,7 +2014,7 @@
       </c>
       <c r="L15" s="44"/>
       <c r="M15" s="45">
-        <f>SUM(F62:F66)</f>
+        <f>SUM(F64:F68)</f>
         <v>0</v>
       </c>
       <c r="N15" s="39" t="s">
@@ -2024,7 +2022,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="23">
         <v>41594</v>
       </c>
@@ -2037,7 +2035,7 @@
       <c r="E16" s="25">
         <v>1</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="55">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2054,7 +2052,7 @@
       </c>
       <c r="L16" s="44"/>
       <c r="M16" s="45">
-        <f>SUM(F67:F71)</f>
+        <f>SUM(F69:F73)</f>
         <v>0</v>
       </c>
       <c r="N16" s="39" t="s">
@@ -2062,7 +2060,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="23">
         <v>41595</v>
       </c>
@@ -2075,7 +2073,7 @@
       <c r="E17" s="25">
         <v>3</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="55">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -2092,7 +2090,7 @@
       </c>
       <c r="L17" s="44"/>
       <c r="M17" s="45">
-        <f>SUM(F72:F76)</f>
+        <f>SUM(F74:F78)</f>
         <v>0</v>
       </c>
       <c r="N17" s="39" t="s">
@@ -2100,7 +2098,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="81">
+      <c r="A18" s="101">
         <v>3</v>
       </c>
       <c r="B18" s="9">
@@ -2115,7 +2113,7 @@
       <c r="E18" s="22">
         <v>1</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="54">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -2132,7 +2130,7 @@
       </c>
       <c r="L18" s="44"/>
       <c r="M18" s="45">
-        <f>SUM(F77:F81)</f>
+        <f>SUM(F79:F83)</f>
         <v>0</v>
       </c>
       <c r="N18" s="39" t="s">
@@ -2140,8 +2138,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="63">
+      <c r="A19" s="99"/>
+      <c r="B19" s="103">
         <v>41597</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2170,7 +2168,7 @@
       </c>
       <c r="L19" s="44"/>
       <c r="M19" s="45">
-        <f>SUM(F82:F86)</f>
+        <f>SUM(F84:F88)</f>
         <v>0</v>
       </c>
       <c r="N19" s="39" t="s">
@@ -2178,8 +2176,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="64"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="3" t="s">
         <v>91</v>
       </c>
@@ -2205,7 +2203,7 @@
       </c>
       <c r="L20" s="44"/>
       <c r="M20" s="45">
-        <f>SUM(F87:F91)</f>
+        <f>SUM(F89:F93)</f>
         <v>0</v>
       </c>
       <c r="N20" s="39" t="s">
@@ -2213,8 +2211,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
@@ -2240,7 +2238,7 @@
       </c>
       <c r="L21" s="44"/>
       <c r="M21" s="45">
-        <f>SUM(F92:F96)</f>
+        <f>SUM(F94:F98)</f>
         <v>0</v>
       </c>
       <c r="N21" s="39" t="s">
@@ -2248,7 +2246,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A22" s="66"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="9">
         <v>41598</v>
       </c>
@@ -2261,7 +2259,7 @@
       <c r="E22" s="22">
         <v>4</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="54">
         <f t="shared" ref="F22" si="3">E22</f>
         <v>4</v>
       </c>
@@ -2280,7 +2278,7 @@
       </c>
       <c r="L22" s="44"/>
       <c r="M22" s="45">
-        <f>SUM(F97:F101)</f>
+        <f>SUM(F99:F103)</f>
         <v>0</v>
       </c>
       <c r="N22" s="39" t="s">
@@ -2288,8 +2286,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="63">
+      <c r="A23" s="99"/>
+      <c r="B23" s="103">
         <v>41599</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2320,7 +2318,7 @@
       </c>
       <c r="L23" s="44"/>
       <c r="M23" s="45">
-        <f>SUM(F102:F106)</f>
+        <f>SUM(F104:F108)</f>
         <v>0</v>
       </c>
       <c r="N23" s="39" t="s">
@@ -2328,8 +2326,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="64"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
@@ -2353,7 +2351,7 @@
       </c>
       <c r="L24" s="44"/>
       <c r="M24" s="45">
-        <f>SUM(F107:F111)</f>
+        <f>SUM(F109:F113)</f>
         <v>0</v>
       </c>
       <c r="N24" s="39" t="s">
@@ -2361,8 +2359,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
-      <c r="B25" s="64"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="104"/>
       <c r="C25" s="3" t="s">
         <v>101</v>
       </c>
@@ -2386,7 +2384,7 @@
       </c>
       <c r="L25" s="44"/>
       <c r="M25" s="45">
-        <f>SUM(F112:F116)</f>
+        <f>SUM(F114:F118)</f>
         <v>0</v>
       </c>
       <c r="N25" s="39" t="s">
@@ -2394,8 +2392,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
-      <c r="B26" s="64"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
@@ -2419,7 +2417,7 @@
       </c>
       <c r="L26" s="44"/>
       <c r="M26" s="45">
-        <f>SUM(F117:F121)</f>
+        <f>SUM(F119:F123)</f>
         <v>0</v>
       </c>
       <c r="N26" s="39" t="s">
@@ -2427,8 +2425,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
-      <c r="B27" s="64"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
@@ -2452,7 +2450,7 @@
       </c>
       <c r="L27" s="44"/>
       <c r="M27" s="45">
-        <f>SUM(F122:F126)</f>
+        <f>SUM(F124:F128)</f>
         <v>0</v>
       </c>
       <c r="N27" s="39" t="s">
@@ -2460,8 +2458,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="65"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="105"/>
       <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
@@ -2487,7 +2485,7 @@
       </c>
       <c r="L28" s="44"/>
       <c r="M28" s="45">
-        <f>SUM(F127:F131)</f>
+        <f>SUM(F129:F133)</f>
         <v>0</v>
       </c>
       <c r="N28" s="39" t="s">
@@ -2495,8 +2493,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="63">
+      <c r="A29" s="99"/>
+      <c r="B29" s="103">
         <v>41600</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2527,7 +2525,7 @@
       </c>
       <c r="L29" s="44"/>
       <c r="M29" s="45">
-        <f>SUM(F132:F136)</f>
+        <f>SUM(F134:F138)</f>
         <v>0</v>
       </c>
       <c r="N29" s="39" t="s">
@@ -2535,8 +2533,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
@@ -2562,7 +2560,7 @@
       </c>
       <c r="L30" s="44"/>
       <c r="M30" s="45">
-        <f>SUM(F137:F141)</f>
+        <f>SUM(F139:F143)</f>
         <v>0</v>
       </c>
       <c r="N30" s="39" t="s">
@@ -2570,8 +2568,8 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
-      <c r="B31" s="65"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="105"/>
       <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
@@ -2597,7 +2595,7 @@
       </c>
       <c r="L31" s="44"/>
       <c r="M31" s="45">
-        <f>SUM(F142:F146)</f>
+        <f>SUM(F144:F148)</f>
         <v>0</v>
       </c>
       <c r="N31" s="39" t="s">
@@ -2605,8 +2603,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A32" s="66"/>
-      <c r="B32" s="63">
+      <c r="A32" s="99"/>
+      <c r="B32" s="103">
         <v>41601</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2635,7 +2633,7 @@
       </c>
       <c r="L32" s="44"/>
       <c r="M32" s="45">
-        <f>SUM(F147:F151)</f>
+        <f>SUM(F149:F153)</f>
         <v>0</v>
       </c>
       <c r="N32" s="39" t="s">
@@ -2643,8 +2641,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
-      <c r="B33" s="65"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="105"/>
       <c r="C33" s="3" t="s">
         <v>83</v>
       </c>
@@ -2670,7 +2668,7 @@
       </c>
       <c r="L33" s="44"/>
       <c r="M33" s="45">
-        <f>SUM(F152:F156)</f>
+        <f>SUM(F154:F158)</f>
         <v>0</v>
       </c>
       <c r="N33" s="39" t="s">
@@ -2678,7 +2676,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="9">
         <v>41602</v>
       </c>
@@ -2691,7 +2689,7 @@
       <c r="E34" s="22">
         <v>4</v>
       </c>
-      <c r="F34" s="56">
+      <c r="F34" s="54">
         <f t="shared" ref="F34:F35" si="4">E34</f>
         <v>4</v>
       </c>
@@ -2708,7 +2706,7 @@
       </c>
       <c r="L34" s="44"/>
       <c r="M34" s="45">
-        <f>SUM(F157:F161)</f>
+        <f>SUM(F159:F163)</f>
         <v>0</v>
       </c>
       <c r="N34" s="39" t="s">
@@ -2716,7 +2714,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="52">
+      <c r="A35" s="112">
         <v>4</v>
       </c>
       <c r="B35" s="2">
@@ -2731,7 +2729,7 @@
       <c r="E35" s="25">
         <v>2</v>
       </c>
-      <c r="F35" s="57">
+      <c r="F35" s="55">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -2748,7 +2746,7 @@
       </c>
       <c r="L35" s="44"/>
       <c r="M35" s="45">
-        <f>SUM(F162:F166)</f>
+        <f>SUM(F164:F168)</f>
         <v>0</v>
       </c>
       <c r="N35" s="39" t="s">
@@ -2756,8 +2754,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="70">
+      <c r="A36" s="100"/>
+      <c r="B36" s="106">
         <v>41604</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -2769,7 +2767,7 @@
       <c r="E36" s="25">
         <v>2.5</v>
       </c>
-      <c r="F36" s="73">
+      <c r="F36" s="109">
         <f>SUM(E36:E38)</f>
         <v>5.25</v>
       </c>
@@ -2786,7 +2784,7 @@
       </c>
       <c r="L36" s="44"/>
       <c r="M36" s="45">
-        <f>SUM(F167:F171)</f>
+        <f>SUM(F169:F173)</f>
         <v>0</v>
       </c>
       <c r="N36" s="39" t="s">
@@ -2794,8 +2792,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="71"/>
+      <c r="A37" s="100"/>
+      <c r="B37" s="107"/>
       <c r="C37" s="24" t="s">
         <v>63</v>
       </c>
@@ -2805,11 +2803,11 @@
       <c r="E37" s="25">
         <v>1.25</v>
       </c>
-      <c r="F37" s="74"/>
-      <c r="G37" s="61" t="s">
+      <c r="F37" s="110"/>
+      <c r="G37" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H37" s="60" t="s">
+      <c r="H37" s="58" t="s">
         <v>126</v>
       </c>
       <c r="I37" s="44"/>
@@ -2819,7 +2817,7 @@
       </c>
       <c r="L37" s="44"/>
       <c r="M37" s="45">
-        <f>SUM(F172:F176)</f>
+        <f>SUM(F174:F178)</f>
         <v>0</v>
       </c>
       <c r="N37" s="39" t="s">
@@ -2827,8 +2825,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="72"/>
+      <c r="A38" s="100"/>
+      <c r="B38" s="108"/>
       <c r="C38" s="24" t="s">
         <v>84</v>
       </c>
@@ -2838,23 +2836,23 @@
       <c r="E38" s="25">
         <v>1.5</v>
       </c>
-      <c r="F38" s="75"/>
-      <c r="G38" s="61" t="s">
+      <c r="F38" s="111"/>
+      <c r="G38" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="60" t="s">
+      <c r="H38" s="58" t="s">
         <v>127</v>
       </c>
       <c r="I38" s="44"/>
       <c r="J38" s="44"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
     </row>
     <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="70">
+      <c r="A39" s="100"/>
+      <c r="B39" s="106">
         <v>41605</v>
       </c>
       <c r="C39" s="24" t="s">
@@ -2866,26 +2864,26 @@
       <c r="E39" s="25">
         <v>1</v>
       </c>
-      <c r="F39" s="73">
+      <c r="F39" s="109">
         <f>SUM(E39:E40)</f>
         <v>3.33</v>
       </c>
-      <c r="G39" s="61" t="s">
+      <c r="G39" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="60" t="s">
+      <c r="H39" s="58" t="s">
         <v>131</v>
       </c>
       <c r="I39" s="44"/>
       <c r="J39" s="44"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
     </row>
     <row r="40" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="72"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="108"/>
       <c r="C40" s="24" t="s">
         <v>63</v>
       </c>
@@ -2895,132 +2893,132 @@
       <c r="E40" s="25">
         <v>2.33</v>
       </c>
-      <c r="F40" s="75"/>
-      <c r="G40" s="61" t="s">
+      <c r="F40" s="111"/>
+      <c r="G40" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="62" t="s">
+      <c r="H40" s="60" t="s">
         <v>129</v>
       </c>
       <c r="I40" s="44"/>
       <c r="J40" s="44"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
     </row>
     <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="70">
+      <c r="A41" s="100"/>
+      <c r="B41" s="106">
         <v>41606</v>
       </c>
-      <c r="C41" s="110" t="s">
+      <c r="C41" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="111" t="s">
+      <c r="D41" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="110">
+      <c r="E41" s="61">
         <v>1.33</v>
       </c>
-      <c r="F41" s="113">
+      <c r="F41" s="109">
         <f>SUM(E41:E44)</f>
         <v>8.33</v>
       </c>
-      <c r="G41" s="61" t="s">
+      <c r="G41" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="112" t="s">
+      <c r="H41" s="63" t="s">
         <v>138</v>
       </c>
       <c r="I41" s="44"/>
       <c r="J41" s="44"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
     </row>
     <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="110" t="s">
+      <c r="A42" s="100"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="111" t="s">
+      <c r="D42" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="E42" s="110">
+      <c r="E42" s="61">
         <v>1.75</v>
       </c>
-      <c r="F42" s="76"/>
-      <c r="G42" s="61" t="s">
+      <c r="F42" s="110"/>
+      <c r="G42" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="112" t="s">
+      <c r="H42" s="63" t="s">
         <v>140</v>
       </c>
       <c r="I42" s="44"/>
       <c r="J42" s="44"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
     </row>
     <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="110" t="s">
+      <c r="A43" s="100"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="110" t="s">
+      <c r="D43" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="110">
+      <c r="E43" s="61">
         <v>2.75</v>
       </c>
-      <c r="F43" s="76"/>
-      <c r="G43" s="61" t="s">
+      <c r="F43" s="110"/>
+      <c r="G43" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="112" t="s">
+      <c r="H43" s="63" t="s">
         <v>139</v>
       </c>
       <c r="I43" s="44"/>
       <c r="J43" s="44"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
     </row>
     <row r="44" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="110" t="s">
+      <c r="A44" s="100"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="110" t="s">
+      <c r="D44" s="61" t="s">
         <v>109</v>
       </c>
       <c r="E44" s="25">
         <v>2.5</v>
       </c>
-      <c r="F44" s="114"/>
-      <c r="G44" s="61" t="s">
+      <c r="F44" s="111"/>
+      <c r="G44" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="60" t="s">
+      <c r="H44" s="58" t="s">
         <v>141</v>
       </c>
       <c r="I44" s="44"/>
       <c r="J44" s="44"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
     </row>
     <row r="45" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
-      <c r="B45" s="70">
+      <c r="A45" s="100"/>
+      <c r="B45" s="106">
         <v>41607</v>
       </c>
       <c r="C45" s="24" t="s">
@@ -3032,26 +3030,26 @@
       <c r="E45" s="25">
         <v>3.5</v>
       </c>
-      <c r="F45" s="57">
-        <f t="shared" ref="F45:F46" si="5">E45</f>
+      <c r="F45" s="55">
+        <f t="shared" ref="F45:F47" si="5">E45</f>
         <v>3.5</v>
       </c>
-      <c r="G45" s="61" t="s">
+      <c r="G45" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="58" t="s">
         <v>134</v>
       </c>
       <c r="I45" s="44"/>
       <c r="J45" s="44"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
     </row>
     <row r="46" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="72"/>
+      <c r="A46" s="100"/>
+      <c r="B46" s="108"/>
       <c r="C46" s="24" t="s">
         <v>83</v>
       </c>
@@ -3061,65 +3059,86 @@
       <c r="E46" s="25">
         <v>1</v>
       </c>
-      <c r="F46" s="57">
+      <c r="F46" s="55">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G46" s="61" t="s">
+      <c r="G46" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="60" t="s">
+      <c r="H46" s="58" t="s">
         <v>142</v>
       </c>
       <c r="I46" s="44"/>
       <c r="J46" s="44"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-    </row>
-    <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="115">
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+    </row>
+    <row r="47" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A47" s="100"/>
+      <c r="B47" s="106">
+        <v>41609</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="F47" s="109">
+        <f>SUM(E47:E48)</f>
         <v>5</v>
       </c>
-      <c r="B47" s="9">
+      <c r="G47" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+    </row>
+    <row r="48" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="100"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="F48" s="111"/>
+      <c r="G48" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+    </row>
+    <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="64">
+        <v>5</v>
+      </c>
+      <c r="B49" s="9">
         <v>41610</v>
-      </c>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-    </row>
-    <row r="48" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="115"/>
-      <c r="B48" s="9">
-        <v>41611</v>
-      </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-    </row>
-    <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="115"/>
-      <c r="B49" s="9">
-        <v>41612</v>
       </c>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
@@ -3129,15 +3148,15 @@
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
       <c r="J49" s="37"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
     </row>
     <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="115"/>
+      <c r="A50" s="64"/>
       <c r="B50" s="9">
-        <v>41613</v>
+        <v>41611</v>
       </c>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -3147,15 +3166,15 @@
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
       <c r="J50" s="37"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
     </row>
     <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="115"/>
+      <c r="A51" s="64"/>
       <c r="B51" s="9">
-        <v>41614</v>
+        <v>41612</v>
       </c>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -3165,53 +3184,53 @@
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
       <c r="J51" s="37"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
     </row>
     <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="76">
+      <c r="A52" s="64"/>
+      <c r="B52" s="9">
+        <v>41613</v>
+      </c>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+    </row>
+    <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="64"/>
+      <c r="B53" s="9">
+        <v>41614</v>
+      </c>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+    </row>
+    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="100">
         <v>6</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B54" s="2">
         <v>41617</v>
-      </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-    </row>
-    <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="76"/>
-      <c r="B53" s="2">
-        <v>41618</v>
-      </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-    </row>
-    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="76"/>
-      <c r="B54" s="2">
-        <v>41619</v>
       </c>
       <c r="C54" s="44"/>
       <c r="D54" s="44"/>
@@ -3221,15 +3240,15 @@
       <c r="H54" s="44"/>
       <c r="I54" s="44"/>
       <c r="J54" s="44"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
     </row>
     <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="76"/>
+      <c r="A55" s="100"/>
       <c r="B55" s="2">
-        <v>41620</v>
+        <v>41618</v>
       </c>
       <c r="C55" s="44"/>
       <c r="D55" s="44"/>
@@ -3239,15 +3258,15 @@
       <c r="H55" s="44"/>
       <c r="I55" s="44"/>
       <c r="J55" s="44"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="52"/>
     </row>
     <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="76"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="2">
-        <v>41621</v>
+        <v>41619</v>
       </c>
       <c r="C56" s="44"/>
       <c r="D56" s="44"/>
@@ -3257,53 +3276,53 @@
       <c r="H56" s="44"/>
       <c r="I56" s="44"/>
       <c r="J56" s="44"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="54"/>
-      <c r="N56" s="54"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
     </row>
     <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="66">
+      <c r="A57" s="100"/>
+      <c r="B57" s="2">
+        <v>41620</v>
+      </c>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="52"/>
+    </row>
+    <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="100"/>
+      <c r="B58" s="2">
+        <v>41621</v>
+      </c>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+    </row>
+    <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="99">
         <v>7</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B59" s="9">
         <v>41624</v>
-      </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-    </row>
-    <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="66"/>
-      <c r="B58" s="9">
-        <v>41625</v>
-      </c>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
-    </row>
-    <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="66"/>
-      <c r="B59" s="9">
-        <v>41626</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -3313,15 +3332,15 @@
       <c r="H59" s="37"/>
       <c r="I59" s="37"/>
       <c r="J59" s="37"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
     </row>
     <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="66"/>
+      <c r="A60" s="99"/>
       <c r="B60" s="9">
-        <v>41627</v>
+        <v>41625</v>
       </c>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -3331,15 +3350,15 @@
       <c r="H60" s="37"/>
       <c r="I60" s="37"/>
       <c r="J60" s="37"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="54"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
     </row>
     <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="66"/>
+      <c r="A61" s="99"/>
       <c r="B61" s="9">
-        <v>41628</v>
+        <v>41626</v>
       </c>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -3349,53 +3368,53 @@
       <c r="H61" s="37"/>
       <c r="I61" s="37"/>
       <c r="J61" s="37"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
     </row>
     <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="76">
+      <c r="A62" s="99"/>
+      <c r="B62" s="9">
+        <v>41627</v>
+      </c>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+    </row>
+    <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="99"/>
+      <c r="B63" s="9">
+        <v>41628</v>
+      </c>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="52"/>
+    </row>
+    <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="100">
         <v>8</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B64" s="2">
         <v>41631</v>
-      </c>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
-    </row>
-    <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="76"/>
-      <c r="B63" s="2">
-        <v>41632</v>
-      </c>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-    </row>
-    <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="76"/>
-      <c r="B64" s="2">
-        <v>41633</v>
       </c>
       <c r="C64" s="44"/>
       <c r="D64" s="44"/>
@@ -3405,15 +3424,15 @@
       <c r="H64" s="44"/>
       <c r="I64" s="44"/>
       <c r="J64" s="44"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="76"/>
+      <c r="A65" s="100"/>
       <c r="B65" s="2">
-        <v>41634</v>
+        <v>41632</v>
       </c>
       <c r="C65" s="44"/>
       <c r="D65" s="44"/>
@@ -3423,15 +3442,15 @@
       <c r="H65" s="44"/>
       <c r="I65" s="44"/>
       <c r="J65" s="44"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="52"/>
     </row>
     <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="76"/>
+      <c r="A66" s="100"/>
       <c r="B66" s="2">
-        <v>41635</v>
+        <v>41633</v>
       </c>
       <c r="C66" s="44"/>
       <c r="D66" s="44"/>
@@ -3441,53 +3460,53 @@
       <c r="H66" s="44"/>
       <c r="I66" s="44"/>
       <c r="J66" s="44"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="54"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
     </row>
     <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="66">
+      <c r="A67" s="100"/>
+      <c r="B67" s="2">
+        <v>41634</v>
+      </c>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="52"/>
+    </row>
+    <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="100"/>
+      <c r="B68" s="2">
+        <v>41635</v>
+      </c>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="52"/>
+    </row>
+    <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="99">
         <v>9</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B69" s="9">
         <v>41638</v>
-      </c>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-    </row>
-    <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="66"/>
-      <c r="B68" s="9">
-        <v>41639</v>
-      </c>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-    </row>
-    <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="66"/>
-      <c r="B69" s="9">
-        <v>41640</v>
       </c>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
@@ -3497,15 +3516,15 @@
       <c r="H69" s="37"/>
       <c r="I69" s="37"/>
       <c r="J69" s="37"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="54"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
+      <c r="N69" s="52"/>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="66"/>
+      <c r="A70" s="99"/>
       <c r="B70" s="9">
-        <v>41641</v>
+        <v>41639</v>
       </c>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -3515,15 +3534,15 @@
       <c r="H70" s="37"/>
       <c r="I70" s="37"/>
       <c r="J70" s="37"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="54"/>
-      <c r="M70" s="54"/>
-      <c r="N70" s="54"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="52"/>
+      <c r="N70" s="52"/>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
+      <c r="A71" s="99"/>
       <c r="B71" s="9">
-        <v>41642</v>
+        <v>41640</v>
       </c>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -3533,53 +3552,53 @@
       <c r="H71" s="37"/>
       <c r="I71" s="37"/>
       <c r="J71" s="37"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="52"/>
+      <c r="N71" s="52"/>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="76">
+      <c r="A72" s="99"/>
+      <c r="B72" s="9">
+        <v>41641</v>
+      </c>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+    </row>
+    <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="99"/>
+      <c r="B73" s="9">
+        <v>41642</v>
+      </c>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="52"/>
+      <c r="L73" s="52"/>
+      <c r="M73" s="52"/>
+      <c r="N73" s="52"/>
+    </row>
+    <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="100">
         <v>10</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B74" s="2">
         <v>41645</v>
-      </c>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="44"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="54"/>
-    </row>
-    <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="76"/>
-      <c r="B73" s="2">
-        <v>41646</v>
-      </c>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
-    </row>
-    <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="76"/>
-      <c r="B74" s="2">
-        <v>41647</v>
       </c>
       <c r="C74" s="44"/>
       <c r="D74" s="44"/>
@@ -3589,15 +3608,15 @@
       <c r="H74" s="44"/>
       <c r="I74" s="44"/>
       <c r="J74" s="44"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="52"/>
+      <c r="N74" s="52"/>
     </row>
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="76"/>
+      <c r="A75" s="100"/>
       <c r="B75" s="2">
-        <v>41648</v>
+        <v>41646</v>
       </c>
       <c r="C75" s="44"/>
       <c r="D75" s="44"/>
@@ -3607,15 +3626,15 @@
       <c r="H75" s="44"/>
       <c r="I75" s="44"/>
       <c r="J75" s="44"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="54"/>
-      <c r="M75" s="54"/>
-      <c r="N75" s="54"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="52"/>
+      <c r="M75" s="52"/>
+      <c r="N75" s="52"/>
     </row>
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="76"/>
+      <c r="A76" s="100"/>
       <c r="B76" s="2">
-        <v>41649</v>
+        <v>41647</v>
       </c>
       <c r="C76" s="44"/>
       <c r="D76" s="44"/>
@@ -3625,53 +3644,53 @@
       <c r="H76" s="44"/>
       <c r="I76" s="44"/>
       <c r="J76" s="44"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="54"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="54"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="52"/>
+      <c r="N76" s="52"/>
     </row>
     <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="66">
+      <c r="A77" s="100"/>
+      <c r="B77" s="2">
+        <v>41648</v>
+      </c>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="52"/>
+      <c r="L77" s="52"/>
+      <c r="M77" s="52"/>
+      <c r="N77" s="52"/>
+    </row>
+    <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="100"/>
+      <c r="B78" s="2">
+        <v>41649</v>
+      </c>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="52"/>
+      <c r="M78" s="52"/>
+      <c r="N78" s="52"/>
+    </row>
+    <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="99">
         <v>11</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B79" s="9">
         <v>41652</v>
-      </c>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="54"/>
-    </row>
-    <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="66"/>
-      <c r="B78" s="9">
-        <v>41653</v>
-      </c>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="37"/>
-      <c r="K78" s="54"/>
-      <c r="L78" s="54"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="54"/>
-    </row>
-    <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="66"/>
-      <c r="B79" s="9">
-        <v>41654</v>
       </c>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
@@ -3681,15 +3700,15 @@
       <c r="H79" s="37"/>
       <c r="I79" s="37"/>
       <c r="J79" s="37"/>
-      <c r="K79" s="54"/>
-      <c r="L79" s="54"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="54"/>
+      <c r="K79" s="52"/>
+      <c r="L79" s="52"/>
+      <c r="M79" s="52"/>
+      <c r="N79" s="52"/>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="66"/>
+      <c r="A80" s="99"/>
       <c r="B80" s="9">
-        <v>41655</v>
+        <v>41653</v>
       </c>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -3699,15 +3718,15 @@
       <c r="H80" s="37"/>
       <c r="I80" s="37"/>
       <c r="J80" s="37"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="54"/>
+      <c r="K80" s="52"/>
+      <c r="L80" s="52"/>
+      <c r="M80" s="52"/>
+      <c r="N80" s="52"/>
     </row>
     <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="66"/>
+      <c r="A81" s="99"/>
       <c r="B81" s="9">
-        <v>41656</v>
+        <v>41654</v>
       </c>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -3717,53 +3736,53 @@
       <c r="H81" s="37"/>
       <c r="I81" s="37"/>
       <c r="J81" s="37"/>
-      <c r="K81" s="54"/>
-      <c r="L81" s="54"/>
-      <c r="M81" s="54"/>
-      <c r="N81" s="54"/>
+      <c r="K81" s="52"/>
+      <c r="L81" s="52"/>
+      <c r="M81" s="52"/>
+      <c r="N81" s="52"/>
     </row>
     <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="76">
+      <c r="A82" s="99"/>
+      <c r="B82" s="9">
+        <v>41655</v>
+      </c>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="52"/>
+      <c r="L82" s="52"/>
+      <c r="M82" s="52"/>
+      <c r="N82" s="52"/>
+    </row>
+    <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="99"/>
+      <c r="B83" s="9">
+        <v>41656</v>
+      </c>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="52"/>
+      <c r="L83" s="52"/>
+      <c r="M83" s="52"/>
+      <c r="N83" s="52"/>
+    </row>
+    <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="100">
         <v>12</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B84" s="2">
         <v>41659</v>
-      </c>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="44"/>
-      <c r="I82" s="44"/>
-      <c r="J82" s="44"/>
-      <c r="K82" s="54"/>
-      <c r="L82" s="54"/>
-      <c r="M82" s="54"/>
-      <c r="N82" s="54"/>
-    </row>
-    <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="76"/>
-      <c r="B83" s="2">
-        <v>41660</v>
-      </c>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="44"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="54"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="54"/>
-    </row>
-    <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="76"/>
-      <c r="B84" s="2">
-        <v>41661</v>
       </c>
       <c r="C84" s="44"/>
       <c r="D84" s="44"/>
@@ -3773,15 +3792,15 @@
       <c r="H84" s="44"/>
       <c r="I84" s="44"/>
       <c r="J84" s="44"/>
-      <c r="K84" s="54"/>
-      <c r="L84" s="54"/>
-      <c r="M84" s="54"/>
-      <c r="N84" s="54"/>
+      <c r="K84" s="52"/>
+      <c r="L84" s="52"/>
+      <c r="M84" s="52"/>
+      <c r="N84" s="52"/>
     </row>
     <row r="85" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="76"/>
+      <c r="A85" s="100"/>
       <c r="B85" s="2">
-        <v>41662</v>
+        <v>41660</v>
       </c>
       <c r="C85" s="44"/>
       <c r="D85" s="44"/>
@@ -3791,15 +3810,15 @@
       <c r="H85" s="44"/>
       <c r="I85" s="44"/>
       <c r="J85" s="44"/>
-      <c r="K85" s="54"/>
-      <c r="L85" s="54"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="54"/>
+      <c r="K85" s="52"/>
+      <c r="L85" s="52"/>
+      <c r="M85" s="52"/>
+      <c r="N85" s="52"/>
     </row>
     <row r="86" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="76"/>
+      <c r="A86" s="100"/>
       <c r="B86" s="2">
-        <v>41663</v>
+        <v>41661</v>
       </c>
       <c r="C86" s="44"/>
       <c r="D86" s="44"/>
@@ -3809,57 +3828,53 @@
       <c r="H86" s="44"/>
       <c r="I86" s="44"/>
       <c r="J86" s="44"/>
-      <c r="K86" s="54"/>
-      <c r="L86" s="54"/>
-      <c r="M86" s="54"/>
-      <c r="N86" s="54"/>
+      <c r="K86" s="52"/>
+      <c r="L86" s="52"/>
+      <c r="M86" s="52"/>
+      <c r="N86" s="52"/>
     </row>
     <row r="87" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="66">
+      <c r="A87" s="100"/>
+      <c r="B87" s="2">
+        <v>41662</v>
+      </c>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="52"/>
+      <c r="L87" s="52"/>
+      <c r="M87" s="52"/>
+      <c r="N87" s="52"/>
+    </row>
+    <row r="88" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="100"/>
+      <c r="B88" s="2">
+        <v>41663</v>
+      </c>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="52"/>
+      <c r="L88" s="52"/>
+      <c r="M88" s="52"/>
+      <c r="N88" s="52"/>
+    </row>
+    <row r="89" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="99">
         <v>13</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B89" s="9">
         <v>41666</v>
-      </c>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="54"/>
-      <c r="M87" s="54"/>
-      <c r="N87" s="54"/>
-    </row>
-    <row r="88" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="66"/>
-      <c r="B88" s="9">
-        <v>41667</v>
-      </c>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="54"/>
-      <c r="L88" s="54"/>
-      <c r="M88" s="54"/>
-      <c r="N88" s="54"/>
-    </row>
-    <row r="89" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="66"/>
-      <c r="B89" s="9">
-        <v>41668</v>
       </c>
       <c r="C89" s="37"/>
       <c r="D89" s="37"/>
@@ -3871,15 +3886,15 @@
       <c r="H89" s="37"/>
       <c r="I89" s="37"/>
       <c r="J89" s="37"/>
-      <c r="K89" s="54"/>
-      <c r="L89" s="54"/>
-      <c r="M89" s="54"/>
-      <c r="N89" s="54"/>
+      <c r="K89" s="52"/>
+      <c r="L89" s="52"/>
+      <c r="M89" s="52"/>
+      <c r="N89" s="52"/>
     </row>
     <row r="90" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="66"/>
+      <c r="A90" s="99"/>
       <c r="B90" s="9">
-        <v>41669</v>
+        <v>41667</v>
       </c>
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
@@ -3891,15 +3906,15 @@
       <c r="H90" s="37"/>
       <c r="I90" s="37"/>
       <c r="J90" s="37"/>
-      <c r="K90" s="54"/>
-      <c r="L90" s="54"/>
-      <c r="M90" s="54"/>
-      <c r="N90" s="54"/>
+      <c r="K90" s="52"/>
+      <c r="L90" s="52"/>
+      <c r="M90" s="52"/>
+      <c r="N90" s="52"/>
     </row>
     <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="66"/>
+      <c r="A91" s="99"/>
       <c r="B91" s="9">
-        <v>41670</v>
+        <v>41668</v>
       </c>
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
@@ -3911,57 +3926,57 @@
       <c r="H91" s="37"/>
       <c r="I91" s="37"/>
       <c r="J91" s="37"/>
-      <c r="K91" s="54"/>
-      <c r="L91" s="54"/>
-      <c r="M91" s="54"/>
-      <c r="N91" s="54"/>
+      <c r="K91" s="52"/>
+      <c r="L91" s="52"/>
+      <c r="M91" s="52"/>
+      <c r="N91" s="52"/>
     </row>
     <row r="92" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="76">
+      <c r="A92" s="99"/>
+      <c r="B92" s="9">
+        <v>41669</v>
+      </c>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="52"/>
+      <c r="L92" s="52"/>
+      <c r="M92" s="52"/>
+      <c r="N92" s="52"/>
+    </row>
+    <row r="93" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="99"/>
+      <c r="B93" s="9">
+        <v>41670</v>
+      </c>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="52"/>
+      <c r="L93" s="52"/>
+      <c r="M93" s="52"/>
+      <c r="N93" s="52"/>
+    </row>
+    <row r="94" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="100">
         <v>14</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B94" s="2">
         <v>41673</v>
-      </c>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H92" s="44"/>
-      <c r="I92" s="44"/>
-      <c r="J92" s="44"/>
-      <c r="K92" s="54"/>
-      <c r="L92" s="54"/>
-      <c r="M92" s="54"/>
-      <c r="N92" s="54"/>
-    </row>
-    <row r="93" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="76"/>
-      <c r="B93" s="2">
-        <v>41674</v>
-      </c>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H93" s="44"/>
-      <c r="I93" s="44"/>
-      <c r="J93" s="44"/>
-      <c r="K93" s="54"/>
-      <c r="L93" s="54"/>
-      <c r="M93" s="54"/>
-      <c r="N93" s="54"/>
-    </row>
-    <row r="94" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="76"/>
-      <c r="B94" s="2">
-        <v>41675</v>
       </c>
       <c r="C94" s="44"/>
       <c r="D94" s="44"/>
@@ -3973,15 +3988,15 @@
       <c r="H94" s="44"/>
       <c r="I94" s="44"/>
       <c r="J94" s="44"/>
-      <c r="K94" s="54"/>
-      <c r="L94" s="54"/>
-      <c r="M94" s="54"/>
-      <c r="N94" s="54"/>
+      <c r="K94" s="52"/>
+      <c r="L94" s="52"/>
+      <c r="M94" s="52"/>
+      <c r="N94" s="52"/>
     </row>
     <row r="95" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="76"/>
+      <c r="A95" s="100"/>
       <c r="B95" s="2">
-        <v>41676</v>
+        <v>41674</v>
       </c>
       <c r="C95" s="44"/>
       <c r="D95" s="44"/>
@@ -3993,15 +4008,15 @@
       <c r="H95" s="44"/>
       <c r="I95" s="44"/>
       <c r="J95" s="44"/>
-      <c r="K95" s="54"/>
-      <c r="L95" s="54"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="54"/>
+      <c r="K95" s="52"/>
+      <c r="L95" s="52"/>
+      <c r="M95" s="52"/>
+      <c r="N95" s="52"/>
     </row>
     <row r="96" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="76"/>
+      <c r="A96" s="100"/>
       <c r="B96" s="2">
-        <v>41677</v>
+        <v>41675</v>
       </c>
       <c r="C96" s="44"/>
       <c r="D96" s="44"/>
@@ -4013,53 +4028,57 @@
       <c r="H96" s="44"/>
       <c r="I96" s="44"/>
       <c r="J96" s="44"/>
-      <c r="K96" s="54"/>
-      <c r="L96" s="54"/>
-      <c r="M96" s="54"/>
-      <c r="N96" s="54"/>
+      <c r="K96" s="52"/>
+      <c r="L96" s="52"/>
+      <c r="M96" s="52"/>
+      <c r="N96" s="52"/>
     </row>
     <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="66">
+      <c r="A97" s="100"/>
+      <c r="B97" s="2">
+        <v>41676</v>
+      </c>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="52"/>
+      <c r="L97" s="52"/>
+      <c r="M97" s="52"/>
+      <c r="N97" s="52"/>
+    </row>
+    <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="100"/>
+      <c r="B98" s="2">
+        <v>41677</v>
+      </c>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="52"/>
+      <c r="L98" s="52"/>
+      <c r="M98" s="52"/>
+      <c r="N98" s="52"/>
+    </row>
+    <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="99">
         <v>15</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B99" s="9">
         <v>41680</v>
-      </c>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="37"/>
-      <c r="K97" s="54"/>
-      <c r="L97" s="54"/>
-      <c r="M97" s="54"/>
-      <c r="N97" s="54"/>
-    </row>
-    <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="66"/>
-      <c r="B98" s="9">
-        <v>41681</v>
-      </c>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="37"/>
-      <c r="K98" s="54"/>
-      <c r="L98" s="54"/>
-      <c r="M98" s="54"/>
-      <c r="N98" s="54"/>
-    </row>
-    <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="66"/>
-      <c r="B99" s="9">
-        <v>41682</v>
       </c>
       <c r="C99" s="37"/>
       <c r="D99" s="37"/>
@@ -4069,15 +4088,15 @@
       <c r="H99" s="37"/>
       <c r="I99" s="37"/>
       <c r="J99" s="37"/>
-      <c r="K99" s="54"/>
-      <c r="L99" s="54"/>
-      <c r="M99" s="54"/>
-      <c r="N99" s="54"/>
+      <c r="K99" s="52"/>
+      <c r="L99" s="52"/>
+      <c r="M99" s="52"/>
+      <c r="N99" s="52"/>
     </row>
     <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="66"/>
+      <c r="A100" s="99"/>
       <c r="B100" s="9">
-        <v>41683</v>
+        <v>41681</v>
       </c>
       <c r="C100" s="37"/>
       <c r="D100" s="37"/>
@@ -4087,15 +4106,15 @@
       <c r="H100" s="37"/>
       <c r="I100" s="37"/>
       <c r="J100" s="37"/>
-      <c r="K100" s="54"/>
-      <c r="L100" s="54"/>
-      <c r="M100" s="54"/>
-      <c r="N100" s="54"/>
+      <c r="K100" s="52"/>
+      <c r="L100" s="52"/>
+      <c r="M100" s="52"/>
+      <c r="N100" s="52"/>
     </row>
     <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="66"/>
+      <c r="A101" s="99"/>
       <c r="B101" s="9">
-        <v>41684</v>
+        <v>41682</v>
       </c>
       <c r="C101" s="37"/>
       <c r="D101" s="37"/>
@@ -4105,53 +4124,53 @@
       <c r="H101" s="37"/>
       <c r="I101" s="37"/>
       <c r="J101" s="37"/>
-      <c r="K101" s="54"/>
-      <c r="L101" s="54"/>
-      <c r="M101" s="54"/>
-      <c r="N101" s="54"/>
+      <c r="K101" s="52"/>
+      <c r="L101" s="52"/>
+      <c r="M101" s="52"/>
+      <c r="N101" s="52"/>
     </row>
     <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="76">
+      <c r="A102" s="99"/>
+      <c r="B102" s="9">
+        <v>41683</v>
+      </c>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="52"/>
+      <c r="L102" s="52"/>
+      <c r="M102" s="52"/>
+      <c r="N102" s="52"/>
+    </row>
+    <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="99"/>
+      <c r="B103" s="9">
+        <v>41684</v>
+      </c>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="52"/>
+      <c r="L103" s="52"/>
+      <c r="M103" s="52"/>
+      <c r="N103" s="52"/>
+    </row>
+    <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="100">
         <v>16</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B104" s="2">
         <v>41687</v>
-      </c>
-      <c r="C102" s="44"/>
-      <c r="D102" s="44"/>
-      <c r="E102" s="44"/>
-      <c r="F102" s="44"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="44"/>
-      <c r="J102" s="44"/>
-      <c r="K102" s="54"/>
-      <c r="L102" s="54"/>
-      <c r="M102" s="54"/>
-      <c r="N102" s="54"/>
-    </row>
-    <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="76"/>
-      <c r="B103" s="2">
-        <v>41688</v>
-      </c>
-      <c r="C103" s="44"/>
-      <c r="D103" s="44"/>
-      <c r="E103" s="44"/>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
-      <c r="I103" s="44"/>
-      <c r="J103" s="44"/>
-      <c r="K103" s="54"/>
-      <c r="L103" s="54"/>
-      <c r="M103" s="54"/>
-      <c r="N103" s="54"/>
-    </row>
-    <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="76"/>
-      <c r="B104" s="2">
-        <v>41689</v>
       </c>
       <c r="C104" s="44"/>
       <c r="D104" s="44"/>
@@ -4161,15 +4180,15 @@
       <c r="H104" s="44"/>
       <c r="I104" s="44"/>
       <c r="J104" s="44"/>
-      <c r="K104" s="54"/>
-      <c r="L104" s="54"/>
-      <c r="M104" s="54"/>
-      <c r="N104" s="54"/>
+      <c r="K104" s="52"/>
+      <c r="L104" s="52"/>
+      <c r="M104" s="52"/>
+      <c r="N104" s="52"/>
     </row>
     <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="76"/>
+      <c r="A105" s="100"/>
       <c r="B105" s="2">
-        <v>41690</v>
+        <v>41688</v>
       </c>
       <c r="C105" s="44"/>
       <c r="D105" s="44"/>
@@ -4179,15 +4198,15 @@
       <c r="H105" s="44"/>
       <c r="I105" s="44"/>
       <c r="J105" s="44"/>
-      <c r="K105" s="54"/>
-      <c r="L105" s="54"/>
-      <c r="M105" s="54"/>
-      <c r="N105" s="54"/>
+      <c r="K105" s="52"/>
+      <c r="L105" s="52"/>
+      <c r="M105" s="52"/>
+      <c r="N105" s="52"/>
     </row>
     <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="76"/>
+      <c r="A106" s="100"/>
       <c r="B106" s="2">
-        <v>41691</v>
+        <v>41689</v>
       </c>
       <c r="C106" s="44"/>
       <c r="D106" s="44"/>
@@ -4197,53 +4216,53 @@
       <c r="H106" s="44"/>
       <c r="I106" s="44"/>
       <c r="J106" s="44"/>
-      <c r="K106" s="54"/>
-      <c r="L106" s="54"/>
-      <c r="M106" s="54"/>
-      <c r="N106" s="54"/>
+      <c r="K106" s="52"/>
+      <c r="L106" s="52"/>
+      <c r="M106" s="52"/>
+      <c r="N106" s="52"/>
     </row>
     <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="66">
+      <c r="A107" s="100"/>
+      <c r="B107" s="2">
+        <v>41690</v>
+      </c>
+      <c r="C107" s="44"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="44"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="44"/>
+      <c r="I107" s="44"/>
+      <c r="J107" s="44"/>
+      <c r="K107" s="52"/>
+      <c r="L107" s="52"/>
+      <c r="M107" s="52"/>
+      <c r="N107" s="52"/>
+    </row>
+    <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="100"/>
+      <c r="B108" s="2">
+        <v>41691</v>
+      </c>
+      <c r="C108" s="44"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="44"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="44"/>
+      <c r="I108" s="44"/>
+      <c r="J108" s="44"/>
+      <c r="K108" s="52"/>
+      <c r="L108" s="52"/>
+      <c r="M108" s="52"/>
+      <c r="N108" s="52"/>
+    </row>
+    <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="99">
         <v>17</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B109" s="9">
         <v>41694</v>
-      </c>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="37"/>
-      <c r="I107" s="37"/>
-      <c r="J107" s="37"/>
-      <c r="K107" s="54"/>
-      <c r="L107" s="54"/>
-      <c r="M107" s="54"/>
-      <c r="N107" s="54"/>
-    </row>
-    <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="66"/>
-      <c r="B108" s="9">
-        <v>41695</v>
-      </c>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="37"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="37"/>
-      <c r="K108" s="54"/>
-      <c r="L108" s="54"/>
-      <c r="M108" s="54"/>
-      <c r="N108" s="54"/>
-    </row>
-    <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="66"/>
-      <c r="B109" s="9">
-        <v>41696</v>
       </c>
       <c r="C109" s="37"/>
       <c r="D109" s="37"/>
@@ -4253,15 +4272,15 @@
       <c r="H109" s="37"/>
       <c r="I109" s="37"/>
       <c r="J109" s="37"/>
-      <c r="K109" s="54"/>
-      <c r="L109" s="54"/>
-      <c r="M109" s="54"/>
-      <c r="N109" s="54"/>
+      <c r="K109" s="52"/>
+      <c r="L109" s="52"/>
+      <c r="M109" s="52"/>
+      <c r="N109" s="52"/>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="66"/>
+      <c r="A110" s="99"/>
       <c r="B110" s="9">
-        <v>41697</v>
+        <v>41695</v>
       </c>
       <c r="C110" s="37"/>
       <c r="D110" s="37"/>
@@ -4271,15 +4290,15 @@
       <c r="H110" s="37"/>
       <c r="I110" s="37"/>
       <c r="J110" s="37"/>
-      <c r="K110" s="54"/>
-      <c r="L110" s="54"/>
-      <c r="M110" s="54"/>
-      <c r="N110" s="54"/>
+      <c r="K110" s="52"/>
+      <c r="L110" s="52"/>
+      <c r="M110" s="52"/>
+      <c r="N110" s="52"/>
     </row>
     <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="66"/>
+      <c r="A111" s="99"/>
       <c r="B111" s="9">
-        <v>41698</v>
+        <v>41696</v>
       </c>
       <c r="C111" s="37"/>
       <c r="D111" s="37"/>
@@ -4289,53 +4308,53 @@
       <c r="H111" s="37"/>
       <c r="I111" s="37"/>
       <c r="J111" s="37"/>
-      <c r="K111" s="54"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="54"/>
-      <c r="N111" s="54"/>
+      <c r="K111" s="52"/>
+      <c r="L111" s="52"/>
+      <c r="M111" s="52"/>
+      <c r="N111" s="52"/>
     </row>
     <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="76">
+      <c r="A112" s="99"/>
+      <c r="B112" s="9">
+        <v>41697</v>
+      </c>
+      <c r="C112" s="37"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="37"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="37"/>
+      <c r="K112" s="52"/>
+      <c r="L112" s="52"/>
+      <c r="M112" s="52"/>
+      <c r="N112" s="52"/>
+    </row>
+    <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="99"/>
+      <c r="B113" s="9">
+        <v>41698</v>
+      </c>
+      <c r="C113" s="37"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="37"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="37"/>
+      <c r="I113" s="37"/>
+      <c r="J113" s="37"/>
+      <c r="K113" s="52"/>
+      <c r="L113" s="52"/>
+      <c r="M113" s="52"/>
+      <c r="N113" s="52"/>
+    </row>
+    <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="100">
         <v>18</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B114" s="2">
         <v>41701</v>
-      </c>
-      <c r="C112" s="44"/>
-      <c r="D112" s="44"/>
-      <c r="E112" s="44"/>
-      <c r="F112" s="44"/>
-      <c r="G112" s="44"/>
-      <c r="H112" s="44"/>
-      <c r="I112" s="44"/>
-      <c r="J112" s="44"/>
-      <c r="K112" s="54"/>
-      <c r="L112" s="54"/>
-      <c r="M112" s="54"/>
-      <c r="N112" s="54"/>
-    </row>
-    <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="76"/>
-      <c r="B113" s="2">
-        <v>41702</v>
-      </c>
-      <c r="C113" s="44"/>
-      <c r="D113" s="44"/>
-      <c r="E113" s="44"/>
-      <c r="F113" s="44"/>
-      <c r="G113" s="44"/>
-      <c r="H113" s="44"/>
-      <c r="I113" s="44"/>
-      <c r="J113" s="44"/>
-      <c r="K113" s="54"/>
-      <c r="L113" s="54"/>
-      <c r="M113" s="54"/>
-      <c r="N113" s="54"/>
-    </row>
-    <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="76"/>
-      <c r="B114" s="2">
-        <v>41703</v>
       </c>
       <c r="C114" s="44"/>
       <c r="D114" s="44"/>
@@ -4345,15 +4364,15 @@
       <c r="H114" s="44"/>
       <c r="I114" s="44"/>
       <c r="J114" s="44"/>
-      <c r="K114" s="54"/>
-      <c r="L114" s="54"/>
-      <c r="M114" s="54"/>
-      <c r="N114" s="54"/>
+      <c r="K114" s="52"/>
+      <c r="L114" s="52"/>
+      <c r="M114" s="52"/>
+      <c r="N114" s="52"/>
     </row>
     <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="76"/>
+      <c r="A115" s="100"/>
       <c r="B115" s="2">
-        <v>41704</v>
+        <v>41702</v>
       </c>
       <c r="C115" s="44"/>
       <c r="D115" s="44"/>
@@ -4363,15 +4382,15 @@
       <c r="H115" s="44"/>
       <c r="I115" s="44"/>
       <c r="J115" s="44"/>
-      <c r="K115" s="54"/>
-      <c r="L115" s="54"/>
-      <c r="M115" s="54"/>
-      <c r="N115" s="54"/>
+      <c r="K115" s="52"/>
+      <c r="L115" s="52"/>
+      <c r="M115" s="52"/>
+      <c r="N115" s="52"/>
     </row>
     <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="76"/>
+      <c r="A116" s="100"/>
       <c r="B116" s="2">
-        <v>41705</v>
+        <v>41703</v>
       </c>
       <c r="C116" s="44"/>
       <c r="D116" s="44"/>
@@ -4381,53 +4400,53 @@
       <c r="H116" s="44"/>
       <c r="I116" s="44"/>
       <c r="J116" s="44"/>
-      <c r="K116" s="54"/>
-      <c r="L116" s="54"/>
-      <c r="M116" s="54"/>
-      <c r="N116" s="54"/>
+      <c r="K116" s="52"/>
+      <c r="L116" s="52"/>
+      <c r="M116" s="52"/>
+      <c r="N116" s="52"/>
     </row>
     <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="66">
+      <c r="A117" s="100"/>
+      <c r="B117" s="2">
+        <v>41704</v>
+      </c>
+      <c r="C117" s="44"/>
+      <c r="D117" s="44"/>
+      <c r="E117" s="44"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="44"/>
+      <c r="I117" s="44"/>
+      <c r="J117" s="44"/>
+      <c r="K117" s="52"/>
+      <c r="L117" s="52"/>
+      <c r="M117" s="52"/>
+      <c r="N117" s="52"/>
+    </row>
+    <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="100"/>
+      <c r="B118" s="2">
+        <v>41705</v>
+      </c>
+      <c r="C118" s="44"/>
+      <c r="D118" s="44"/>
+      <c r="E118" s="44"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="44"/>
+      <c r="I118" s="44"/>
+      <c r="J118" s="44"/>
+      <c r="K118" s="52"/>
+      <c r="L118" s="52"/>
+      <c r="M118" s="52"/>
+      <c r="N118" s="52"/>
+    </row>
+    <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="99">
         <v>19</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B119" s="9">
         <v>41708</v>
-      </c>
-      <c r="C117" s="37"/>
-      <c r="D117" s="37"/>
-      <c r="E117" s="37"/>
-      <c r="F117" s="37"/>
-      <c r="G117" s="37"/>
-      <c r="H117" s="37"/>
-      <c r="I117" s="37"/>
-      <c r="J117" s="37"/>
-      <c r="K117" s="54"/>
-      <c r="L117" s="54"/>
-      <c r="M117" s="54"/>
-      <c r="N117" s="54"/>
-    </row>
-    <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="66"/>
-      <c r="B118" s="9">
-        <v>41709</v>
-      </c>
-      <c r="C118" s="37"/>
-      <c r="D118" s="37"/>
-      <c r="E118" s="37"/>
-      <c r="F118" s="37"/>
-      <c r="G118" s="37"/>
-      <c r="H118" s="37"/>
-      <c r="I118" s="37"/>
-      <c r="J118" s="37"/>
-      <c r="K118" s="54"/>
-      <c r="L118" s="54"/>
-      <c r="M118" s="54"/>
-      <c r="N118" s="54"/>
-    </row>
-    <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="66"/>
-      <c r="B119" s="9">
-        <v>41710</v>
       </c>
       <c r="C119" s="37"/>
       <c r="D119" s="37"/>
@@ -4437,15 +4456,15 @@
       <c r="H119" s="37"/>
       <c r="I119" s="37"/>
       <c r="J119" s="37"/>
-      <c r="K119" s="54"/>
-      <c r="L119" s="54"/>
-      <c r="M119" s="54"/>
-      <c r="N119" s="54"/>
+      <c r="K119" s="52"/>
+      <c r="L119" s="52"/>
+      <c r="M119" s="52"/>
+      <c r="N119" s="52"/>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="66"/>
+      <c r="A120" s="99"/>
       <c r="B120" s="9">
-        <v>41711</v>
+        <v>41709</v>
       </c>
       <c r="C120" s="37"/>
       <c r="D120" s="37"/>
@@ -4455,15 +4474,15 @@
       <c r="H120" s="37"/>
       <c r="I120" s="37"/>
       <c r="J120" s="37"/>
-      <c r="K120" s="54"/>
-      <c r="L120" s="54"/>
-      <c r="M120" s="54"/>
-      <c r="N120" s="54"/>
+      <c r="K120" s="52"/>
+      <c r="L120" s="52"/>
+      <c r="M120" s="52"/>
+      <c r="N120" s="52"/>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="66"/>
+      <c r="A121" s="99"/>
       <c r="B121" s="9">
-        <v>41712</v>
+        <v>41710</v>
       </c>
       <c r="C121" s="37"/>
       <c r="D121" s="37"/>
@@ -4473,53 +4492,53 @@
       <c r="H121" s="37"/>
       <c r="I121" s="37"/>
       <c r="J121" s="37"/>
-      <c r="K121" s="54"/>
-      <c r="L121" s="54"/>
-      <c r="M121" s="54"/>
-      <c r="N121" s="54"/>
+      <c r="K121" s="52"/>
+      <c r="L121" s="52"/>
+      <c r="M121" s="52"/>
+      <c r="N121" s="52"/>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="76">
+      <c r="A122" s="99"/>
+      <c r="B122" s="9">
+        <v>41711</v>
+      </c>
+      <c r="C122" s="37"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="37"/>
+      <c r="F122" s="37"/>
+      <c r="G122" s="37"/>
+      <c r="H122" s="37"/>
+      <c r="I122" s="37"/>
+      <c r="J122" s="37"/>
+      <c r="K122" s="52"/>
+      <c r="L122" s="52"/>
+      <c r="M122" s="52"/>
+      <c r="N122" s="52"/>
+    </row>
+    <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="99"/>
+      <c r="B123" s="9">
+        <v>41712</v>
+      </c>
+      <c r="C123" s="37"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="37"/>
+      <c r="F123" s="37"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="37"/>
+      <c r="I123" s="37"/>
+      <c r="J123" s="37"/>
+      <c r="K123" s="52"/>
+      <c r="L123" s="52"/>
+      <c r="M123" s="52"/>
+      <c r="N123" s="52"/>
+    </row>
+    <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="100">
         <v>20</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B124" s="2">
         <v>41715</v>
-      </c>
-      <c r="C122" s="44"/>
-      <c r="D122" s="44"/>
-      <c r="E122" s="44"/>
-      <c r="F122" s="44"/>
-      <c r="G122" s="44"/>
-      <c r="H122" s="44"/>
-      <c r="I122" s="44"/>
-      <c r="J122" s="44"/>
-      <c r="K122" s="54"/>
-      <c r="L122" s="54"/>
-      <c r="M122" s="54"/>
-      <c r="N122" s="54"/>
-    </row>
-    <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="76"/>
-      <c r="B123" s="2">
-        <v>41716</v>
-      </c>
-      <c r="C123" s="44"/>
-      <c r="D123" s="44"/>
-      <c r="E123" s="44"/>
-      <c r="F123" s="44"/>
-      <c r="G123" s="44"/>
-      <c r="H123" s="44"/>
-      <c r="I123" s="44"/>
-      <c r="J123" s="44"/>
-      <c r="K123" s="54"/>
-      <c r="L123" s="54"/>
-      <c r="M123" s="54"/>
-      <c r="N123" s="54"/>
-    </row>
-    <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="76"/>
-      <c r="B124" s="2">
-        <v>41717</v>
       </c>
       <c r="C124" s="44"/>
       <c r="D124" s="44"/>
@@ -4529,15 +4548,15 @@
       <c r="H124" s="44"/>
       <c r="I124" s="44"/>
       <c r="J124" s="44"/>
-      <c r="K124" s="54"/>
-      <c r="L124" s="54"/>
-      <c r="M124" s="54"/>
-      <c r="N124" s="54"/>
+      <c r="K124" s="52"/>
+      <c r="L124" s="52"/>
+      <c r="M124" s="52"/>
+      <c r="N124" s="52"/>
     </row>
     <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="76"/>
+      <c r="A125" s="100"/>
       <c r="B125" s="2">
-        <v>41718</v>
+        <v>41716</v>
       </c>
       <c r="C125" s="44"/>
       <c r="D125" s="44"/>
@@ -4547,15 +4566,15 @@
       <c r="H125" s="44"/>
       <c r="I125" s="44"/>
       <c r="J125" s="44"/>
-      <c r="K125" s="54"/>
-      <c r="L125" s="54"/>
-      <c r="M125" s="54"/>
-      <c r="N125" s="54"/>
+      <c r="K125" s="52"/>
+      <c r="L125" s="52"/>
+      <c r="M125" s="52"/>
+      <c r="N125" s="52"/>
     </row>
     <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="76"/>
+      <c r="A126" s="100"/>
       <c r="B126" s="2">
-        <v>41719</v>
+        <v>41717</v>
       </c>
       <c r="C126" s="44"/>
       <c r="D126" s="44"/>
@@ -4565,53 +4584,53 @@
       <c r="H126" s="44"/>
       <c r="I126" s="44"/>
       <c r="J126" s="44"/>
-      <c r="K126" s="54"/>
-      <c r="L126" s="54"/>
-      <c r="M126" s="54"/>
-      <c r="N126" s="54"/>
+      <c r="K126" s="52"/>
+      <c r="L126" s="52"/>
+      <c r="M126" s="52"/>
+      <c r="N126" s="52"/>
     </row>
     <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="66">
+      <c r="A127" s="100"/>
+      <c r="B127" s="2">
+        <v>41718</v>
+      </c>
+      <c r="C127" s="44"/>
+      <c r="D127" s="44"/>
+      <c r="E127" s="44"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="44"/>
+      <c r="H127" s="44"/>
+      <c r="I127" s="44"/>
+      <c r="J127" s="44"/>
+      <c r="K127" s="52"/>
+      <c r="L127" s="52"/>
+      <c r="M127" s="52"/>
+      <c r="N127" s="52"/>
+    </row>
+    <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="100"/>
+      <c r="B128" s="2">
+        <v>41719</v>
+      </c>
+      <c r="C128" s="44"/>
+      <c r="D128" s="44"/>
+      <c r="E128" s="44"/>
+      <c r="F128" s="44"/>
+      <c r="G128" s="44"/>
+      <c r="H128" s="44"/>
+      <c r="I128" s="44"/>
+      <c r="J128" s="44"/>
+      <c r="K128" s="52"/>
+      <c r="L128" s="52"/>
+      <c r="M128" s="52"/>
+      <c r="N128" s="52"/>
+    </row>
+    <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="99">
         <v>21</v>
       </c>
-      <c r="B127" s="9">
+      <c r="B129" s="9">
         <v>41722</v>
-      </c>
-      <c r="C127" s="37"/>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="37"/>
-      <c r="K127" s="54"/>
-      <c r="L127" s="54"/>
-      <c r="M127" s="54"/>
-      <c r="N127" s="54"/>
-    </row>
-    <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="66"/>
-      <c r="B128" s="9">
-        <v>41723</v>
-      </c>
-      <c r="C128" s="37"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="37"/>
-      <c r="K128" s="54"/>
-      <c r="L128" s="54"/>
-      <c r="M128" s="54"/>
-      <c r="N128" s="54"/>
-    </row>
-    <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="66"/>
-      <c r="B129" s="9">
-        <v>41724</v>
       </c>
       <c r="C129" s="37"/>
       <c r="D129" s="37"/>
@@ -4621,15 +4640,15 @@
       <c r="H129" s="37"/>
       <c r="I129" s="37"/>
       <c r="J129" s="37"/>
-      <c r="K129" s="54"/>
-      <c r="L129" s="54"/>
-      <c r="M129" s="54"/>
-      <c r="N129" s="54"/>
+      <c r="K129" s="52"/>
+      <c r="L129" s="52"/>
+      <c r="M129" s="52"/>
+      <c r="N129" s="52"/>
     </row>
     <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="66"/>
+      <c r="A130" s="99"/>
       <c r="B130" s="9">
-        <v>41725</v>
+        <v>41723</v>
       </c>
       <c r="C130" s="37"/>
       <c r="D130" s="37"/>
@@ -4639,15 +4658,15 @@
       <c r="H130" s="37"/>
       <c r="I130" s="37"/>
       <c r="J130" s="37"/>
-      <c r="K130" s="54"/>
-      <c r="L130" s="54"/>
-      <c r="M130" s="54"/>
-      <c r="N130" s="54"/>
+      <c r="K130" s="52"/>
+      <c r="L130" s="52"/>
+      <c r="M130" s="52"/>
+      <c r="N130" s="52"/>
     </row>
     <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="66"/>
+      <c r="A131" s="99"/>
       <c r="B131" s="9">
-        <v>41726</v>
+        <v>41724</v>
       </c>
       <c r="C131" s="37"/>
       <c r="D131" s="37"/>
@@ -4657,53 +4676,53 @@
       <c r="H131" s="37"/>
       <c r="I131" s="37"/>
       <c r="J131" s="37"/>
-      <c r="K131" s="54"/>
-      <c r="L131" s="54"/>
-      <c r="M131" s="54"/>
-      <c r="N131" s="54"/>
+      <c r="K131" s="52"/>
+      <c r="L131" s="52"/>
+      <c r="M131" s="52"/>
+      <c r="N131" s="52"/>
     </row>
     <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="76">
+      <c r="A132" s="99"/>
+      <c r="B132" s="9">
+        <v>41725</v>
+      </c>
+      <c r="C132" s="37"/>
+      <c r="D132" s="37"/>
+      <c r="E132" s="37"/>
+      <c r="F132" s="37"/>
+      <c r="G132" s="37"/>
+      <c r="H132" s="37"/>
+      <c r="I132" s="37"/>
+      <c r="J132" s="37"/>
+      <c r="K132" s="52"/>
+      <c r="L132" s="52"/>
+      <c r="M132" s="52"/>
+      <c r="N132" s="52"/>
+    </row>
+    <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="99"/>
+      <c r="B133" s="9">
+        <v>41726</v>
+      </c>
+      <c r="C133" s="37"/>
+      <c r="D133" s="37"/>
+      <c r="E133" s="37"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="37"/>
+      <c r="H133" s="37"/>
+      <c r="I133" s="37"/>
+      <c r="J133" s="37"/>
+      <c r="K133" s="52"/>
+      <c r="L133" s="52"/>
+      <c r="M133" s="52"/>
+      <c r="N133" s="52"/>
+    </row>
+    <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="100">
         <v>22</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B134" s="2">
         <v>41729</v>
-      </c>
-      <c r="C132" s="44"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="44"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="44"/>
-      <c r="I132" s="44"/>
-      <c r="J132" s="44"/>
-      <c r="K132" s="54"/>
-      <c r="L132" s="54"/>
-      <c r="M132" s="54"/>
-      <c r="N132" s="54"/>
-    </row>
-    <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="76"/>
-      <c r="B133" s="2">
-        <v>41730</v>
-      </c>
-      <c r="C133" s="44"/>
-      <c r="D133" s="44"/>
-      <c r="E133" s="44"/>
-      <c r="F133" s="44"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="44"/>
-      <c r="I133" s="44"/>
-      <c r="J133" s="44"/>
-      <c r="K133" s="54"/>
-      <c r="L133" s="54"/>
-      <c r="M133" s="54"/>
-      <c r="N133" s="54"/>
-    </row>
-    <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="76"/>
-      <c r="B134" s="2">
-        <v>41731</v>
       </c>
       <c r="C134" s="44"/>
       <c r="D134" s="44"/>
@@ -4713,15 +4732,15 @@
       <c r="H134" s="44"/>
       <c r="I134" s="44"/>
       <c r="J134" s="44"/>
-      <c r="K134" s="54"/>
-      <c r="L134" s="54"/>
-      <c r="M134" s="54"/>
-      <c r="N134" s="54"/>
+      <c r="K134" s="52"/>
+      <c r="L134" s="52"/>
+      <c r="M134" s="52"/>
+      <c r="N134" s="52"/>
     </row>
     <row r="135" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="76"/>
+      <c r="A135" s="100"/>
       <c r="B135" s="2">
-        <v>41732</v>
+        <v>41730</v>
       </c>
       <c r="C135" s="44"/>
       <c r="D135" s="44"/>
@@ -4731,15 +4750,15 @@
       <c r="H135" s="44"/>
       <c r="I135" s="44"/>
       <c r="J135" s="44"/>
-      <c r="K135" s="54"/>
-      <c r="L135" s="54"/>
-      <c r="M135" s="54"/>
-      <c r="N135" s="54"/>
+      <c r="K135" s="52"/>
+      <c r="L135" s="52"/>
+      <c r="M135" s="52"/>
+      <c r="N135" s="52"/>
     </row>
     <row r="136" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="76"/>
+      <c r="A136" s="100"/>
       <c r="B136" s="2">
-        <v>41733</v>
+        <v>41731</v>
       </c>
       <c r="C136" s="44"/>
       <c r="D136" s="44"/>
@@ -4749,53 +4768,53 @@
       <c r="H136" s="44"/>
       <c r="I136" s="44"/>
       <c r="J136" s="44"/>
-      <c r="K136" s="54"/>
-      <c r="L136" s="54"/>
-      <c r="M136" s="54"/>
-      <c r="N136" s="54"/>
+      <c r="K136" s="52"/>
+      <c r="L136" s="52"/>
+      <c r="M136" s="52"/>
+      <c r="N136" s="52"/>
     </row>
     <row r="137" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="66">
+      <c r="A137" s="100"/>
+      <c r="B137" s="2">
+        <v>41732</v>
+      </c>
+      <c r="C137" s="44"/>
+      <c r="D137" s="44"/>
+      <c r="E137" s="44"/>
+      <c r="F137" s="44"/>
+      <c r="G137" s="44"/>
+      <c r="H137" s="44"/>
+      <c r="I137" s="44"/>
+      <c r="J137" s="44"/>
+      <c r="K137" s="52"/>
+      <c r="L137" s="52"/>
+      <c r="M137" s="52"/>
+      <c r="N137" s="52"/>
+    </row>
+    <row r="138" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="100"/>
+      <c r="B138" s="2">
+        <v>41733</v>
+      </c>
+      <c r="C138" s="44"/>
+      <c r="D138" s="44"/>
+      <c r="E138" s="44"/>
+      <c r="F138" s="44"/>
+      <c r="G138" s="44"/>
+      <c r="H138" s="44"/>
+      <c r="I138" s="44"/>
+      <c r="J138" s="44"/>
+      <c r="K138" s="52"/>
+      <c r="L138" s="52"/>
+      <c r="M138" s="52"/>
+      <c r="N138" s="52"/>
+    </row>
+    <row r="139" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="99">
         <v>23</v>
       </c>
-      <c r="B137" s="9">
+      <c r="B139" s="9">
         <v>41736</v>
-      </c>
-      <c r="C137" s="37"/>
-      <c r="D137" s="37"/>
-      <c r="E137" s="37"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="37"/>
-      <c r="I137" s="37"/>
-      <c r="J137" s="37"/>
-      <c r="K137" s="54"/>
-      <c r="L137" s="54"/>
-      <c r="M137" s="54"/>
-      <c r="N137" s="54"/>
-    </row>
-    <row r="138" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="66"/>
-      <c r="B138" s="9">
-        <v>41737</v>
-      </c>
-      <c r="C138" s="37"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="37"/>
-      <c r="I138" s="37"/>
-      <c r="J138" s="37"/>
-      <c r="K138" s="54"/>
-      <c r="L138" s="54"/>
-      <c r="M138" s="54"/>
-      <c r="N138" s="54"/>
-    </row>
-    <row r="139" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="66"/>
-      <c r="B139" s="9">
-        <v>41738</v>
       </c>
       <c r="C139" s="37"/>
       <c r="D139" s="37"/>
@@ -4805,15 +4824,15 @@
       <c r="H139" s="37"/>
       <c r="I139" s="37"/>
       <c r="J139" s="37"/>
-      <c r="K139" s="54"/>
-      <c r="L139" s="54"/>
-      <c r="M139" s="54"/>
-      <c r="N139" s="54"/>
+      <c r="K139" s="52"/>
+      <c r="L139" s="52"/>
+      <c r="M139" s="52"/>
+      <c r="N139" s="52"/>
     </row>
     <row r="140" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="66"/>
+      <c r="A140" s="99"/>
       <c r="B140" s="9">
-        <v>41739</v>
+        <v>41737</v>
       </c>
       <c r="C140" s="37"/>
       <c r="D140" s="37"/>
@@ -4823,15 +4842,15 @@
       <c r="H140" s="37"/>
       <c r="I140" s="37"/>
       <c r="J140" s="37"/>
-      <c r="K140" s="54"/>
-      <c r="L140" s="54"/>
-      <c r="M140" s="54"/>
-      <c r="N140" s="54"/>
+      <c r="K140" s="52"/>
+      <c r="L140" s="52"/>
+      <c r="M140" s="52"/>
+      <c r="N140" s="52"/>
     </row>
     <row r="141" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="66"/>
+      <c r="A141" s="99"/>
       <c r="B141" s="9">
-        <v>41740</v>
+        <v>41738</v>
       </c>
       <c r="C141" s="37"/>
       <c r="D141" s="37"/>
@@ -4841,53 +4860,53 @@
       <c r="H141" s="37"/>
       <c r="I141" s="37"/>
       <c r="J141" s="37"/>
-      <c r="K141" s="54"/>
-      <c r="L141" s="54"/>
-      <c r="M141" s="54"/>
-      <c r="N141" s="54"/>
+      <c r="K141" s="52"/>
+      <c r="L141" s="52"/>
+      <c r="M141" s="52"/>
+      <c r="N141" s="52"/>
     </row>
     <row r="142" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="76">
+      <c r="A142" s="99"/>
+      <c r="B142" s="9">
+        <v>41739</v>
+      </c>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="37"/>
+      <c r="F142" s="37"/>
+      <c r="G142" s="37"/>
+      <c r="H142" s="37"/>
+      <c r="I142" s="37"/>
+      <c r="J142" s="37"/>
+      <c r="K142" s="52"/>
+      <c r="L142" s="52"/>
+      <c r="M142" s="52"/>
+      <c r="N142" s="52"/>
+    </row>
+    <row r="143" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="99"/>
+      <c r="B143" s="9">
+        <v>41740</v>
+      </c>
+      <c r="C143" s="37"/>
+      <c r="D143" s="37"/>
+      <c r="E143" s="37"/>
+      <c r="F143" s="37"/>
+      <c r="G143" s="37"/>
+      <c r="H143" s="37"/>
+      <c r="I143" s="37"/>
+      <c r="J143" s="37"/>
+      <c r="K143" s="52"/>
+      <c r="L143" s="52"/>
+      <c r="M143" s="52"/>
+      <c r="N143" s="52"/>
+    </row>
+    <row r="144" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="100">
         <v>24</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B144" s="2">
         <v>41743</v>
-      </c>
-      <c r="C142" s="44"/>
-      <c r="D142" s="44"/>
-      <c r="E142" s="44"/>
-      <c r="F142" s="44"/>
-      <c r="G142" s="44"/>
-      <c r="H142" s="44"/>
-      <c r="I142" s="44"/>
-      <c r="J142" s="44"/>
-      <c r="K142" s="54"/>
-      <c r="L142" s="54"/>
-      <c r="M142" s="54"/>
-      <c r="N142" s="54"/>
-    </row>
-    <row r="143" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="76"/>
-      <c r="B143" s="2">
-        <v>41744</v>
-      </c>
-      <c r="C143" s="44"/>
-      <c r="D143" s="44"/>
-      <c r="E143" s="44"/>
-      <c r="F143" s="44"/>
-      <c r="G143" s="44"/>
-      <c r="H143" s="44"/>
-      <c r="I143" s="44"/>
-      <c r="J143" s="44"/>
-      <c r="K143" s="54"/>
-      <c r="L143" s="54"/>
-      <c r="M143" s="54"/>
-      <c r="N143" s="54"/>
-    </row>
-    <row r="144" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="76"/>
-      <c r="B144" s="2">
-        <v>41745</v>
       </c>
       <c r="C144" s="44"/>
       <c r="D144" s="44"/>
@@ -4897,15 +4916,15 @@
       <c r="H144" s="44"/>
       <c r="I144" s="44"/>
       <c r="J144" s="44"/>
-      <c r="K144" s="54"/>
-      <c r="L144" s="54"/>
-      <c r="M144" s="54"/>
-      <c r="N144" s="54"/>
+      <c r="K144" s="52"/>
+      <c r="L144" s="52"/>
+      <c r="M144" s="52"/>
+      <c r="N144" s="52"/>
     </row>
     <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="76"/>
+      <c r="A145" s="100"/>
       <c r="B145" s="2">
-        <v>41746</v>
+        <v>41744</v>
       </c>
       <c r="C145" s="44"/>
       <c r="D145" s="44"/>
@@ -4915,15 +4934,15 @@
       <c r="H145" s="44"/>
       <c r="I145" s="44"/>
       <c r="J145" s="44"/>
-      <c r="K145" s="54"/>
-      <c r="L145" s="54"/>
-      <c r="M145" s="54"/>
-      <c r="N145" s="54"/>
+      <c r="K145" s="52"/>
+      <c r="L145" s="52"/>
+      <c r="M145" s="52"/>
+      <c r="N145" s="52"/>
     </row>
     <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="76"/>
+      <c r="A146" s="100"/>
       <c r="B146" s="2">
-        <v>41747</v>
+        <v>41745</v>
       </c>
       <c r="C146" s="44"/>
       <c r="D146" s="44"/>
@@ -4933,53 +4952,53 @@
       <c r="H146" s="44"/>
       <c r="I146" s="44"/>
       <c r="J146" s="44"/>
-      <c r="K146" s="54"/>
-      <c r="L146" s="54"/>
-      <c r="M146" s="54"/>
-      <c r="N146" s="54"/>
+      <c r="K146" s="52"/>
+      <c r="L146" s="52"/>
+      <c r="M146" s="52"/>
+      <c r="N146" s="52"/>
     </row>
     <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="66">
+      <c r="A147" s="100"/>
+      <c r="B147" s="2">
+        <v>41746</v>
+      </c>
+      <c r="C147" s="44"/>
+      <c r="D147" s="44"/>
+      <c r="E147" s="44"/>
+      <c r="F147" s="44"/>
+      <c r="G147" s="44"/>
+      <c r="H147" s="44"/>
+      <c r="I147" s="44"/>
+      <c r="J147" s="44"/>
+      <c r="K147" s="52"/>
+      <c r="L147" s="52"/>
+      <c r="M147" s="52"/>
+      <c r="N147" s="52"/>
+    </row>
+    <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="100"/>
+      <c r="B148" s="2">
+        <v>41747</v>
+      </c>
+      <c r="C148" s="44"/>
+      <c r="D148" s="44"/>
+      <c r="E148" s="44"/>
+      <c r="F148" s="44"/>
+      <c r="G148" s="44"/>
+      <c r="H148" s="44"/>
+      <c r="I148" s="44"/>
+      <c r="J148" s="44"/>
+      <c r="K148" s="52"/>
+      <c r="L148" s="52"/>
+      <c r="M148" s="52"/>
+      <c r="N148" s="52"/>
+    </row>
+    <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="99">
         <v>25</v>
       </c>
-      <c r="B147" s="9">
+      <c r="B149" s="9">
         <v>41750</v>
-      </c>
-      <c r="C147" s="37"/>
-      <c r="D147" s="37"/>
-      <c r="E147" s="37"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="37"/>
-      <c r="H147" s="37"/>
-      <c r="I147" s="37"/>
-      <c r="J147" s="37"/>
-      <c r="K147" s="54"/>
-      <c r="L147" s="54"/>
-      <c r="M147" s="54"/>
-      <c r="N147" s="54"/>
-    </row>
-    <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="66"/>
-      <c r="B148" s="9">
-        <v>41751</v>
-      </c>
-      <c r="C148" s="37"/>
-      <c r="D148" s="37"/>
-      <c r="E148" s="37"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="37"/>
-      <c r="H148" s="37"/>
-      <c r="I148" s="37"/>
-      <c r="J148" s="37"/>
-      <c r="K148" s="54"/>
-      <c r="L148" s="54"/>
-      <c r="M148" s="54"/>
-      <c r="N148" s="54"/>
-    </row>
-    <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="66"/>
-      <c r="B149" s="9">
-        <v>41752</v>
       </c>
       <c r="C149" s="37"/>
       <c r="D149" s="37"/>
@@ -4989,15 +5008,15 @@
       <c r="H149" s="37"/>
       <c r="I149" s="37"/>
       <c r="J149" s="37"/>
-      <c r="K149" s="54"/>
-      <c r="L149" s="54"/>
-      <c r="M149" s="54"/>
-      <c r="N149" s="54"/>
+      <c r="K149" s="52"/>
+      <c r="L149" s="52"/>
+      <c r="M149" s="52"/>
+      <c r="N149" s="52"/>
     </row>
     <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="66"/>
+      <c r="A150" s="99"/>
       <c r="B150" s="9">
-        <v>41753</v>
+        <v>41751</v>
       </c>
       <c r="C150" s="37"/>
       <c r="D150" s="37"/>
@@ -5007,15 +5026,15 @@
       <c r="H150" s="37"/>
       <c r="I150" s="37"/>
       <c r="J150" s="37"/>
-      <c r="K150" s="54"/>
-      <c r="L150" s="54"/>
-      <c r="M150" s="54"/>
-      <c r="N150" s="54"/>
+      <c r="K150" s="52"/>
+      <c r="L150" s="52"/>
+      <c r="M150" s="52"/>
+      <c r="N150" s="52"/>
     </row>
     <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="66"/>
+      <c r="A151" s="99"/>
       <c r="B151" s="9">
-        <v>41754</v>
+        <v>41752</v>
       </c>
       <c r="C151" s="37"/>
       <c r="D151" s="37"/>
@@ -5025,53 +5044,53 @@
       <c r="H151" s="37"/>
       <c r="I151" s="37"/>
       <c r="J151" s="37"/>
-      <c r="K151" s="54"/>
-      <c r="L151" s="54"/>
-      <c r="M151" s="54"/>
-      <c r="N151" s="54"/>
+      <c r="K151" s="52"/>
+      <c r="L151" s="52"/>
+      <c r="M151" s="52"/>
+      <c r="N151" s="52"/>
     </row>
     <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="76">
+      <c r="A152" s="99"/>
+      <c r="B152" s="9">
+        <v>41753</v>
+      </c>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="37"/>
+      <c r="F152" s="37"/>
+      <c r="G152" s="37"/>
+      <c r="H152" s="37"/>
+      <c r="I152" s="37"/>
+      <c r="J152" s="37"/>
+      <c r="K152" s="52"/>
+      <c r="L152" s="52"/>
+      <c r="M152" s="52"/>
+      <c r="N152" s="52"/>
+    </row>
+    <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="99"/>
+      <c r="B153" s="9">
+        <v>41754</v>
+      </c>
+      <c r="C153" s="37"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="37"/>
+      <c r="F153" s="37"/>
+      <c r="G153" s="37"/>
+      <c r="H153" s="37"/>
+      <c r="I153" s="37"/>
+      <c r="J153" s="37"/>
+      <c r="K153" s="52"/>
+      <c r="L153" s="52"/>
+      <c r="M153" s="52"/>
+      <c r="N153" s="52"/>
+    </row>
+    <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="100">
         <v>26</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B154" s="2">
         <v>41757</v>
-      </c>
-      <c r="C152" s="44"/>
-      <c r="D152" s="44"/>
-      <c r="E152" s="44"/>
-      <c r="F152" s="44"/>
-      <c r="G152" s="44"/>
-      <c r="H152" s="44"/>
-      <c r="I152" s="44"/>
-      <c r="J152" s="44"/>
-      <c r="K152" s="54"/>
-      <c r="L152" s="54"/>
-      <c r="M152" s="54"/>
-      <c r="N152" s="54"/>
-    </row>
-    <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="76"/>
-      <c r="B153" s="2">
-        <v>41758</v>
-      </c>
-      <c r="C153" s="44"/>
-      <c r="D153" s="44"/>
-      <c r="E153" s="44"/>
-      <c r="F153" s="44"/>
-      <c r="G153" s="44"/>
-      <c r="H153" s="44"/>
-      <c r="I153" s="44"/>
-      <c r="J153" s="44"/>
-      <c r="K153" s="54"/>
-      <c r="L153" s="54"/>
-      <c r="M153" s="54"/>
-      <c r="N153" s="54"/>
-    </row>
-    <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="76"/>
-      <c r="B154" s="2">
-        <v>41759</v>
       </c>
       <c r="C154" s="44"/>
       <c r="D154" s="44"/>
@@ -5081,15 +5100,15 @@
       <c r="H154" s="44"/>
       <c r="I154" s="44"/>
       <c r="J154" s="44"/>
-      <c r="K154" s="54"/>
-      <c r="L154" s="54"/>
-      <c r="M154" s="54"/>
-      <c r="N154" s="54"/>
+      <c r="K154" s="52"/>
+      <c r="L154" s="52"/>
+      <c r="M154" s="52"/>
+      <c r="N154" s="52"/>
     </row>
     <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="76"/>
+      <c r="A155" s="100"/>
       <c r="B155" s="2">
-        <v>41760</v>
+        <v>41758</v>
       </c>
       <c r="C155" s="44"/>
       <c r="D155" s="44"/>
@@ -5099,15 +5118,15 @@
       <c r="H155" s="44"/>
       <c r="I155" s="44"/>
       <c r="J155" s="44"/>
-      <c r="K155" s="54"/>
-      <c r="L155" s="54"/>
-      <c r="M155" s="54"/>
-      <c r="N155" s="54"/>
+      <c r="K155" s="52"/>
+      <c r="L155" s="52"/>
+      <c r="M155" s="52"/>
+      <c r="N155" s="52"/>
     </row>
     <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="76"/>
+      <c r="A156" s="100"/>
       <c r="B156" s="2">
-        <v>41761</v>
+        <v>41759</v>
       </c>
       <c r="C156" s="44"/>
       <c r="D156" s="44"/>
@@ -5117,53 +5136,53 @@
       <c r="H156" s="44"/>
       <c r="I156" s="44"/>
       <c r="J156" s="44"/>
-      <c r="K156" s="54"/>
-      <c r="L156" s="54"/>
-      <c r="M156" s="54"/>
-      <c r="N156" s="54"/>
+      <c r="K156" s="52"/>
+      <c r="L156" s="52"/>
+      <c r="M156" s="52"/>
+      <c r="N156" s="52"/>
     </row>
     <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="66">
+      <c r="A157" s="100"/>
+      <c r="B157" s="2">
+        <v>41760</v>
+      </c>
+      <c r="C157" s="44"/>
+      <c r="D157" s="44"/>
+      <c r="E157" s="44"/>
+      <c r="F157" s="44"/>
+      <c r="G157" s="44"/>
+      <c r="H157" s="44"/>
+      <c r="I157" s="44"/>
+      <c r="J157" s="44"/>
+      <c r="K157" s="52"/>
+      <c r="L157" s="52"/>
+      <c r="M157" s="52"/>
+      <c r="N157" s="52"/>
+    </row>
+    <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A158" s="100"/>
+      <c r="B158" s="2">
+        <v>41761</v>
+      </c>
+      <c r="C158" s="44"/>
+      <c r="D158" s="44"/>
+      <c r="E158" s="44"/>
+      <c r="F158" s="44"/>
+      <c r="G158" s="44"/>
+      <c r="H158" s="44"/>
+      <c r="I158" s="44"/>
+      <c r="J158" s="44"/>
+      <c r="K158" s="52"/>
+      <c r="L158" s="52"/>
+      <c r="M158" s="52"/>
+      <c r="N158" s="52"/>
+    </row>
+    <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="99">
         <v>27</v>
       </c>
-      <c r="B157" s="9">
+      <c r="B159" s="9">
         <v>41764</v>
-      </c>
-      <c r="C157" s="37"/>
-      <c r="D157" s="37"/>
-      <c r="E157" s="37"/>
-      <c r="F157" s="37"/>
-      <c r="G157" s="37"/>
-      <c r="H157" s="37"/>
-      <c r="I157" s="37"/>
-      <c r="J157" s="37"/>
-      <c r="K157" s="54"/>
-      <c r="L157" s="54"/>
-      <c r="M157" s="54"/>
-      <c r="N157" s="54"/>
-    </row>
-    <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="66"/>
-      <c r="B158" s="9">
-        <v>41765</v>
-      </c>
-      <c r="C158" s="37"/>
-      <c r="D158" s="37"/>
-      <c r="E158" s="37"/>
-      <c r="F158" s="37"/>
-      <c r="G158" s="37"/>
-      <c r="H158" s="37"/>
-      <c r="I158" s="37"/>
-      <c r="J158" s="37"/>
-      <c r="K158" s="54"/>
-      <c r="L158" s="54"/>
-      <c r="M158" s="54"/>
-      <c r="N158" s="54"/>
-    </row>
-    <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="66"/>
-      <c r="B159" s="9">
-        <v>41766</v>
       </c>
       <c r="C159" s="37"/>
       <c r="D159" s="37"/>
@@ -5173,15 +5192,15 @@
       <c r="H159" s="37"/>
       <c r="I159" s="37"/>
       <c r="J159" s="37"/>
-      <c r="K159" s="54"/>
-      <c r="L159" s="54"/>
-      <c r="M159" s="54"/>
-      <c r="N159" s="54"/>
+      <c r="K159" s="52"/>
+      <c r="L159" s="52"/>
+      <c r="M159" s="52"/>
+      <c r="N159" s="52"/>
     </row>
     <row r="160" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="66"/>
+      <c r="A160" s="99"/>
       <c r="B160" s="9">
-        <v>41767</v>
+        <v>41765</v>
       </c>
       <c r="C160" s="37"/>
       <c r="D160" s="37"/>
@@ -5191,15 +5210,15 @@
       <c r="H160" s="37"/>
       <c r="I160" s="37"/>
       <c r="J160" s="37"/>
-      <c r="K160" s="54"/>
-      <c r="L160" s="54"/>
-      <c r="M160" s="54"/>
-      <c r="N160" s="54"/>
+      <c r="K160" s="52"/>
+      <c r="L160" s="52"/>
+      <c r="M160" s="52"/>
+      <c r="N160" s="52"/>
     </row>
     <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="66"/>
+      <c r="A161" s="99"/>
       <c r="B161" s="9">
-        <v>41768</v>
+        <v>41766</v>
       </c>
       <c r="C161" s="37"/>
       <c r="D161" s="37"/>
@@ -5209,53 +5228,53 @@
       <c r="H161" s="37"/>
       <c r="I161" s="37"/>
       <c r="J161" s="37"/>
-      <c r="K161" s="54"/>
-      <c r="L161" s="54"/>
-      <c r="M161" s="54"/>
-      <c r="N161" s="54"/>
+      <c r="K161" s="52"/>
+      <c r="L161" s="52"/>
+      <c r="M161" s="52"/>
+      <c r="N161" s="52"/>
     </row>
     <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="76">
+      <c r="A162" s="99"/>
+      <c r="B162" s="9">
+        <v>41767</v>
+      </c>
+      <c r="C162" s="37"/>
+      <c r="D162" s="37"/>
+      <c r="E162" s="37"/>
+      <c r="F162" s="37"/>
+      <c r="G162" s="37"/>
+      <c r="H162" s="37"/>
+      <c r="I162" s="37"/>
+      <c r="J162" s="37"/>
+      <c r="K162" s="52"/>
+      <c r="L162" s="52"/>
+      <c r="M162" s="52"/>
+      <c r="N162" s="52"/>
+    </row>
+    <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="99"/>
+      <c r="B163" s="9">
+        <v>41768</v>
+      </c>
+      <c r="C163" s="37"/>
+      <c r="D163" s="37"/>
+      <c r="E163" s="37"/>
+      <c r="F163" s="37"/>
+      <c r="G163" s="37"/>
+      <c r="H163" s="37"/>
+      <c r="I163" s="37"/>
+      <c r="J163" s="37"/>
+      <c r="K163" s="52"/>
+      <c r="L163" s="52"/>
+      <c r="M163" s="52"/>
+      <c r="N163" s="52"/>
+    </row>
+    <row r="164" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="100">
         <v>28</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B164" s="2">
         <v>41771</v>
-      </c>
-      <c r="C162" s="44"/>
-      <c r="D162" s="44"/>
-      <c r="E162" s="44"/>
-      <c r="F162" s="44"/>
-      <c r="G162" s="44"/>
-      <c r="H162" s="44"/>
-      <c r="I162" s="44"/>
-      <c r="J162" s="44"/>
-      <c r="K162" s="54"/>
-      <c r="L162" s="54"/>
-      <c r="M162" s="54"/>
-      <c r="N162" s="54"/>
-    </row>
-    <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="76"/>
-      <c r="B163" s="2">
-        <v>41772</v>
-      </c>
-      <c r="C163" s="44"/>
-      <c r="D163" s="44"/>
-      <c r="E163" s="44"/>
-      <c r="F163" s="44"/>
-      <c r="G163" s="44"/>
-      <c r="H163" s="44"/>
-      <c r="I163" s="44"/>
-      <c r="J163" s="44"/>
-      <c r="K163" s="54"/>
-      <c r="L163" s="54"/>
-      <c r="M163" s="54"/>
-      <c r="N163" s="54"/>
-    </row>
-    <row r="164" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="76"/>
-      <c r="B164" s="2">
-        <v>41773</v>
       </c>
       <c r="C164" s="44"/>
       <c r="D164" s="44"/>
@@ -5265,15 +5284,15 @@
       <c r="H164" s="44"/>
       <c r="I164" s="44"/>
       <c r="J164" s="44"/>
-      <c r="K164" s="54"/>
-      <c r="L164" s="54"/>
-      <c r="M164" s="54"/>
-      <c r="N164" s="54"/>
+      <c r="K164" s="52"/>
+      <c r="L164" s="52"/>
+      <c r="M164" s="52"/>
+      <c r="N164" s="52"/>
     </row>
     <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="76"/>
+      <c r="A165" s="100"/>
       <c r="B165" s="2">
-        <v>41774</v>
+        <v>41772</v>
       </c>
       <c r="C165" s="44"/>
       <c r="D165" s="44"/>
@@ -5283,15 +5302,15 @@
       <c r="H165" s="44"/>
       <c r="I165" s="44"/>
       <c r="J165" s="44"/>
-      <c r="K165" s="54"/>
-      <c r="L165" s="54"/>
-      <c r="M165" s="54"/>
-      <c r="N165" s="54"/>
+      <c r="K165" s="52"/>
+      <c r="L165" s="52"/>
+      <c r="M165" s="52"/>
+      <c r="N165" s="52"/>
     </row>
     <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="76"/>
+      <c r="A166" s="100"/>
       <c r="B166" s="2">
-        <v>41775</v>
+        <v>41773</v>
       </c>
       <c r="C166" s="44"/>
       <c r="D166" s="44"/>
@@ -5301,53 +5320,53 @@
       <c r="H166" s="44"/>
       <c r="I166" s="44"/>
       <c r="J166" s="44"/>
-      <c r="K166" s="54"/>
-      <c r="L166" s="54"/>
-      <c r="M166" s="54"/>
-      <c r="N166" s="54"/>
+      <c r="K166" s="52"/>
+      <c r="L166" s="52"/>
+      <c r="M166" s="52"/>
+      <c r="N166" s="52"/>
     </row>
     <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="66">
+      <c r="A167" s="100"/>
+      <c r="B167" s="2">
+        <v>41774</v>
+      </c>
+      <c r="C167" s="44"/>
+      <c r="D167" s="44"/>
+      <c r="E167" s="44"/>
+      <c r="F167" s="44"/>
+      <c r="G167" s="44"/>
+      <c r="H167" s="44"/>
+      <c r="I167" s="44"/>
+      <c r="J167" s="44"/>
+      <c r="K167" s="52"/>
+      <c r="L167" s="52"/>
+      <c r="M167" s="52"/>
+      <c r="N167" s="52"/>
+    </row>
+    <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A168" s="100"/>
+      <c r="B168" s="2">
+        <v>41775</v>
+      </c>
+      <c r="C168" s="44"/>
+      <c r="D168" s="44"/>
+      <c r="E168" s="44"/>
+      <c r="F168" s="44"/>
+      <c r="G168" s="44"/>
+      <c r="H168" s="44"/>
+      <c r="I168" s="44"/>
+      <c r="J168" s="44"/>
+      <c r="K168" s="52"/>
+      <c r="L168" s="52"/>
+      <c r="M168" s="52"/>
+      <c r="N168" s="52"/>
+    </row>
+    <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A169" s="99">
         <v>29</v>
       </c>
-      <c r="B167" s="9">
+      <c r="B169" s="9">
         <v>41778</v>
-      </c>
-      <c r="C167" s="37"/>
-      <c r="D167" s="37"/>
-      <c r="E167" s="37"/>
-      <c r="F167" s="37"/>
-      <c r="G167" s="37"/>
-      <c r="H167" s="37"/>
-      <c r="I167" s="37"/>
-      <c r="J167" s="37"/>
-      <c r="K167" s="54"/>
-      <c r="L167" s="54"/>
-      <c r="M167" s="54"/>
-      <c r="N167" s="54"/>
-    </row>
-    <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="66"/>
-      <c r="B168" s="9">
-        <v>41779</v>
-      </c>
-      <c r="C168" s="37"/>
-      <c r="D168" s="37"/>
-      <c r="E168" s="37"/>
-      <c r="F168" s="37"/>
-      <c r="G168" s="37"/>
-      <c r="H168" s="37"/>
-      <c r="I168" s="37"/>
-      <c r="J168" s="37"/>
-      <c r="K168" s="54"/>
-      <c r="L168" s="54"/>
-      <c r="M168" s="54"/>
-      <c r="N168" s="54"/>
-    </row>
-    <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="66"/>
-      <c r="B169" s="9">
-        <v>41780</v>
       </c>
       <c r="C169" s="37"/>
       <c r="D169" s="37"/>
@@ -5357,15 +5376,15 @@
       <c r="H169" s="37"/>
       <c r="I169" s="37"/>
       <c r="J169" s="37"/>
-      <c r="K169" s="54"/>
-      <c r="L169" s="54"/>
-      <c r="M169" s="54"/>
-      <c r="N169" s="54"/>
+      <c r="K169" s="52"/>
+      <c r="L169" s="52"/>
+      <c r="M169" s="52"/>
+      <c r="N169" s="52"/>
     </row>
     <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="66"/>
+      <c r="A170" s="99"/>
       <c r="B170" s="9">
-        <v>41781</v>
+        <v>41779</v>
       </c>
       <c r="C170" s="37"/>
       <c r="D170" s="37"/>
@@ -5375,15 +5394,15 @@
       <c r="H170" s="37"/>
       <c r="I170" s="37"/>
       <c r="J170" s="37"/>
-      <c r="K170" s="54"/>
-      <c r="L170" s="54"/>
-      <c r="M170" s="54"/>
-      <c r="N170" s="54"/>
+      <c r="K170" s="52"/>
+      <c r="L170" s="52"/>
+      <c r="M170" s="52"/>
+      <c r="N170" s="52"/>
     </row>
     <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="66"/>
+      <c r="A171" s="99"/>
       <c r="B171" s="9">
-        <v>41782</v>
+        <v>41780</v>
       </c>
       <c r="C171" s="37"/>
       <c r="D171" s="37"/>
@@ -5393,53 +5412,53 @@
       <c r="H171" s="37"/>
       <c r="I171" s="37"/>
       <c r="J171" s="37"/>
-      <c r="K171" s="54"/>
-      <c r="L171" s="54"/>
-      <c r="M171" s="54"/>
-      <c r="N171" s="54"/>
+      <c r="K171" s="52"/>
+      <c r="L171" s="52"/>
+      <c r="M171" s="52"/>
+      <c r="N171" s="52"/>
     </row>
     <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="77">
+      <c r="A172" s="99"/>
+      <c r="B172" s="9">
+        <v>41781</v>
+      </c>
+      <c r="C172" s="37"/>
+      <c r="D172" s="37"/>
+      <c r="E172" s="37"/>
+      <c r="F172" s="37"/>
+      <c r="G172" s="37"/>
+      <c r="H172" s="37"/>
+      <c r="I172" s="37"/>
+      <c r="J172" s="37"/>
+      <c r="K172" s="52"/>
+      <c r="L172" s="52"/>
+      <c r="M172" s="52"/>
+      <c r="N172" s="52"/>
+    </row>
+    <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="99"/>
+      <c r="B173" s="9">
+        <v>41782</v>
+      </c>
+      <c r="C173" s="37"/>
+      <c r="D173" s="37"/>
+      <c r="E173" s="37"/>
+      <c r="F173" s="37"/>
+      <c r="G173" s="37"/>
+      <c r="H173" s="37"/>
+      <c r="I173" s="37"/>
+      <c r="J173" s="37"/>
+      <c r="K173" s="52"/>
+      <c r="L173" s="52"/>
+      <c r="M173" s="52"/>
+      <c r="N173" s="52"/>
+    </row>
+    <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A174" s="102">
         <v>30</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B174" s="2">
         <v>41785</v>
-      </c>
-      <c r="C172" s="40"/>
-      <c r="D172" s="40"/>
-      <c r="E172" s="40"/>
-      <c r="F172" s="40"/>
-      <c r="G172" s="40"/>
-      <c r="H172" s="40"/>
-      <c r="I172" s="40"/>
-      <c r="J172" s="40"/>
-      <c r="K172" s="54"/>
-      <c r="L172" s="54"/>
-      <c r="M172" s="54"/>
-      <c r="N172" s="54"/>
-    </row>
-    <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="77"/>
-      <c r="B173" s="2">
-        <v>41786</v>
-      </c>
-      <c r="C173" s="40"/>
-      <c r="D173" s="40"/>
-      <c r="E173" s="40"/>
-      <c r="F173" s="40"/>
-      <c r="G173" s="40"/>
-      <c r="H173" s="40"/>
-      <c r="I173" s="40"/>
-      <c r="J173" s="40"/>
-      <c r="K173" s="54"/>
-      <c r="L173" s="54"/>
-      <c r="M173" s="54"/>
-      <c r="N173" s="54"/>
-    </row>
-    <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="77"/>
-      <c r="B174" s="2">
-        <v>41787</v>
       </c>
       <c r="C174" s="40"/>
       <c r="D174" s="40"/>
@@ -5449,15 +5468,15 @@
       <c r="H174" s="40"/>
       <c r="I174" s="40"/>
       <c r="J174" s="40"/>
-      <c r="K174" s="54"/>
-      <c r="L174" s="54"/>
-      <c r="M174" s="54"/>
-      <c r="N174" s="54"/>
+      <c r="K174" s="52"/>
+      <c r="L174" s="52"/>
+      <c r="M174" s="52"/>
+      <c r="N174" s="52"/>
     </row>
     <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="77"/>
+      <c r="A175" s="102"/>
       <c r="B175" s="2">
-        <v>41788</v>
+        <v>41786</v>
       </c>
       <c r="C175" s="40"/>
       <c r="D175" s="40"/>
@@ -5467,15 +5486,15 @@
       <c r="H175" s="40"/>
       <c r="I175" s="40"/>
       <c r="J175" s="40"/>
-      <c r="K175" s="54"/>
-      <c r="L175" s="54"/>
-      <c r="M175" s="54"/>
-      <c r="N175" s="54"/>
+      <c r="K175" s="52"/>
+      <c r="L175" s="52"/>
+      <c r="M175" s="52"/>
+      <c r="N175" s="52"/>
     </row>
     <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="77"/>
+      <c r="A176" s="102"/>
       <c r="B176" s="2">
-        <v>41789</v>
+        <v>41787</v>
       </c>
       <c r="C176" s="40"/>
       <c r="D176" s="40"/>
@@ -5485,631 +5504,622 @@
       <c r="H176" s="40"/>
       <c r="I176" s="40"/>
       <c r="J176" s="40"/>
-      <c r="K176" s="54"/>
-      <c r="L176" s="54"/>
-      <c r="M176" s="54"/>
-      <c r="N176" s="54"/>
+      <c r="K176" s="52"/>
+      <c r="L176" s="52"/>
+      <c r="M176" s="52"/>
+      <c r="N176" s="52"/>
     </row>
     <row r="177" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="77"/>
-      <c r="B177" s="10">
+      <c r="A177" s="102"/>
+      <c r="B177" s="2">
+        <v>41788</v>
+      </c>
+      <c r="C177" s="40"/>
+      <c r="D177" s="40"/>
+      <c r="E177" s="40"/>
+      <c r="F177" s="40"/>
+      <c r="G177" s="40"/>
+      <c r="H177" s="40"/>
+      <c r="I177" s="40"/>
+      <c r="J177" s="40"/>
+      <c r="K177" s="52"/>
+      <c r="L177" s="52"/>
+      <c r="M177" s="52"/>
+      <c r="N177" s="52"/>
+    </row>
+    <row r="178" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="102"/>
+      <c r="B178" s="2">
+        <v>41789</v>
+      </c>
+      <c r="C178" s="40"/>
+      <c r="D178" s="40"/>
+      <c r="E178" s="40"/>
+      <c r="F178" s="40"/>
+      <c r="G178" s="40"/>
+      <c r="H178" s="40"/>
+      <c r="I178" s="40"/>
+      <c r="J178" s="40"/>
+      <c r="K178" s="52"/>
+      <c r="L178" s="52"/>
+      <c r="M178" s="52"/>
+      <c r="N178" s="52"/>
+    </row>
+    <row r="179" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A179" s="102"/>
+      <c r="B179" s="10">
         <v>41790</v>
       </c>
-      <c r="C177" s="54"/>
-      <c r="D177" s="54"/>
-      <c r="E177" s="54"/>
-      <c r="F177" s="54"/>
-      <c r="G177" s="54"/>
-      <c r="H177" s="54"/>
-      <c r="I177" s="54"/>
-      <c r="J177" s="54"/>
-      <c r="K177" s="54"/>
-      <c r="L177" s="54"/>
-      <c r="M177" s="54"/>
-      <c r="N177" s="54"/>
-    </row>
-    <row r="178" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="55"/>
-      <c r="B178" s="2">
+      <c r="C179" s="52"/>
+      <c r="D179" s="52"/>
+      <c r="E179" s="52"/>
+      <c r="F179" s="52"/>
+      <c r="G179" s="52"/>
+      <c r="H179" s="52"/>
+      <c r="I179" s="52"/>
+      <c r="J179" s="52"/>
+      <c r="K179" s="52"/>
+      <c r="L179" s="52"/>
+      <c r="M179" s="52"/>
+      <c r="N179" s="52"/>
+    </row>
+    <row r="180" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A180" s="53"/>
+      <c r="B180" s="2">
         <v>41791</v>
       </c>
-      <c r="C178" s="54"/>
-      <c r="D178" s="54"/>
-      <c r="E178" s="54"/>
-      <c r="F178" s="54"/>
-      <c r="G178" s="54"/>
-      <c r="H178" s="54"/>
-      <c r="I178" s="54"/>
-      <c r="J178" s="54"/>
-      <c r="K178" s="54"/>
-      <c r="L178" s="54"/>
-      <c r="M178" s="54"/>
-      <c r="N178" s="54"/>
-    </row>
-    <row r="179" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="54"/>
-      <c r="B179" s="2">
+      <c r="C180" s="52"/>
+      <c r="D180" s="52"/>
+      <c r="E180" s="52"/>
+      <c r="F180" s="52"/>
+      <c r="G180" s="52"/>
+      <c r="H180" s="52"/>
+      <c r="I180" s="52"/>
+      <c r="J180" s="52"/>
+      <c r="K180" s="52"/>
+      <c r="L180" s="52"/>
+      <c r="M180" s="52"/>
+      <c r="N180" s="52"/>
+    </row>
+    <row r="181" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="52"/>
+      <c r="B181" s="2">
         <v>41792</v>
       </c>
-      <c r="C179" s="54"/>
-      <c r="D179" s="54"/>
-      <c r="E179" s="54"/>
-      <c r="F179" s="54"/>
-      <c r="G179" s="54"/>
-      <c r="H179" s="54"/>
-      <c r="I179" s="54"/>
-      <c r="J179" s="54"/>
-      <c r="K179" s="54"/>
-      <c r="L179" s="54"/>
-      <c r="M179" s="54"/>
-      <c r="N179" s="54"/>
-    </row>
-    <row r="180" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="54"/>
-      <c r="B180" s="2">
+      <c r="C181" s="52"/>
+      <c r="D181" s="52"/>
+      <c r="E181" s="52"/>
+      <c r="F181" s="52"/>
+      <c r="G181" s="52"/>
+      <c r="H181" s="52"/>
+      <c r="I181" s="52"/>
+      <c r="J181" s="52"/>
+      <c r="K181" s="52"/>
+      <c r="L181" s="52"/>
+      <c r="M181" s="52"/>
+      <c r="N181" s="52"/>
+    </row>
+    <row r="182" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A182" s="52"/>
+      <c r="B182" s="2">
         <v>41793</v>
       </c>
-      <c r="C180" s="54"/>
-      <c r="D180" s="54"/>
-      <c r="E180" s="54"/>
-      <c r="F180" s="54"/>
-      <c r="G180" s="54"/>
-      <c r="H180" s="54"/>
-      <c r="I180" s="54"/>
-      <c r="J180" s="54"/>
-      <c r="K180" s="54"/>
-      <c r="L180" s="54"/>
-      <c r="M180" s="54"/>
-      <c r="N180" s="54"/>
-    </row>
-    <row r="181" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="54"/>
-      <c r="B181" s="2">
+      <c r="C182" s="52"/>
+      <c r="D182" s="52"/>
+      <c r="E182" s="52"/>
+      <c r="F182" s="52"/>
+      <c r="G182" s="52"/>
+      <c r="H182" s="52"/>
+      <c r="I182" s="52"/>
+      <c r="J182" s="52"/>
+      <c r="K182" s="52"/>
+      <c r="L182" s="52"/>
+      <c r="M182" s="52"/>
+      <c r="N182" s="52"/>
+    </row>
+    <row r="183" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A183" s="52"/>
+      <c r="B183" s="2">
         <v>41794</v>
       </c>
-      <c r="C181" s="54"/>
-      <c r="D181" s="54"/>
-      <c r="E181" s="54"/>
-      <c r="F181" s="54"/>
-      <c r="G181" s="54"/>
-      <c r="H181" s="54"/>
-      <c r="I181" s="54"/>
-      <c r="J181" s="54"/>
-      <c r="K181" s="54"/>
-      <c r="L181" s="54"/>
-      <c r="M181" s="54"/>
-      <c r="N181" s="54"/>
-    </row>
-    <row r="182" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="54"/>
-      <c r="B182" s="2">
+      <c r="C183" s="52"/>
+      <c r="D183" s="52"/>
+      <c r="E183" s="52"/>
+      <c r="F183" s="52"/>
+      <c r="G183" s="52"/>
+      <c r="H183" s="52"/>
+      <c r="I183" s="52"/>
+      <c r="J183" s="52"/>
+      <c r="K183" s="52"/>
+      <c r="L183" s="52"/>
+      <c r="M183" s="52"/>
+      <c r="N183" s="52"/>
+    </row>
+    <row r="184" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A184" s="52"/>
+      <c r="B184" s="2">
         <v>41795</v>
       </c>
-      <c r="C182" s="54"/>
-      <c r="D182" s="54"/>
-      <c r="E182" s="54"/>
-      <c r="F182" s="54"/>
-      <c r="G182" s="54"/>
-      <c r="H182" s="54"/>
-      <c r="I182" s="54"/>
-      <c r="J182" s="54"/>
-      <c r="K182" s="54"/>
-      <c r="L182" s="54"/>
-      <c r="M182" s="54"/>
-      <c r="N182" s="54"/>
-    </row>
-    <row r="183" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="54"/>
-      <c r="B183" s="2">
+      <c r="C184" s="52"/>
+      <c r="D184" s="52"/>
+      <c r="E184" s="52"/>
+      <c r="F184" s="52"/>
+      <c r="G184" s="52"/>
+      <c r="H184" s="52"/>
+      <c r="I184" s="52"/>
+      <c r="J184" s="52"/>
+      <c r="K184" s="52"/>
+      <c r="L184" s="52"/>
+      <c r="M184" s="52"/>
+      <c r="N184" s="52"/>
+    </row>
+    <row r="185" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A185" s="52"/>
+      <c r="B185" s="2">
         <v>41796</v>
       </c>
-      <c r="C183" s="54"/>
-      <c r="D183" s="54"/>
-      <c r="E183" s="54"/>
-      <c r="F183" s="54"/>
-      <c r="G183" s="54"/>
-      <c r="H183" s="54"/>
-      <c r="I183" s="54"/>
-      <c r="J183" s="54"/>
-      <c r="K183" s="54"/>
-      <c r="L183" s="54"/>
-      <c r="M183" s="54"/>
-      <c r="N183" s="54"/>
-    </row>
-    <row r="184" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="54"/>
-      <c r="B184" s="2">
+      <c r="C185" s="52"/>
+      <c r="D185" s="52"/>
+      <c r="E185" s="52"/>
+      <c r="F185" s="52"/>
+      <c r="G185" s="52"/>
+      <c r="H185" s="52"/>
+      <c r="I185" s="52"/>
+      <c r="J185" s="52"/>
+      <c r="K185" s="52"/>
+      <c r="L185" s="52"/>
+      <c r="M185" s="52"/>
+      <c r="N185" s="52"/>
+    </row>
+    <row r="186" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A186" s="52"/>
+      <c r="B186" s="2">
         <v>41797</v>
       </c>
-      <c r="C184" s="54"/>
-      <c r="D184" s="54"/>
-      <c r="E184" s="54"/>
-      <c r="F184" s="54"/>
-      <c r="G184" s="54"/>
-      <c r="H184" s="54"/>
-      <c r="I184" s="54"/>
-      <c r="J184" s="54"/>
-      <c r="K184" s="54"/>
-      <c r="L184" s="54"/>
-      <c r="M184" s="54"/>
-      <c r="N184" s="54"/>
-    </row>
-    <row r="185" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="54"/>
-      <c r="B185" s="2">
+      <c r="C186" s="52"/>
+      <c r="D186" s="52"/>
+      <c r="E186" s="52"/>
+      <c r="F186" s="52"/>
+      <c r="G186" s="52"/>
+      <c r="H186" s="52"/>
+      <c r="I186" s="52"/>
+      <c r="J186" s="52"/>
+      <c r="K186" s="52"/>
+      <c r="L186" s="52"/>
+      <c r="M186" s="52"/>
+      <c r="N186" s="52"/>
+    </row>
+    <row r="187" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A187" s="52"/>
+      <c r="B187" s="2">
         <v>41798</v>
       </c>
-      <c r="C185" s="54"/>
-      <c r="D185" s="54"/>
-      <c r="E185" s="54"/>
-      <c r="F185" s="54"/>
-      <c r="G185" s="54"/>
-      <c r="H185" s="54"/>
-      <c r="I185" s="54"/>
-      <c r="J185" s="54"/>
-      <c r="K185" s="54"/>
-      <c r="L185" s="54"/>
-      <c r="M185" s="54"/>
-      <c r="N185" s="54"/>
-    </row>
-    <row r="186" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="54"/>
-      <c r="B186" s="2">
+      <c r="C187" s="52"/>
+      <c r="D187" s="52"/>
+      <c r="E187" s="52"/>
+      <c r="F187" s="52"/>
+      <c r="G187" s="52"/>
+      <c r="H187" s="52"/>
+      <c r="I187" s="52"/>
+      <c r="J187" s="52"/>
+      <c r="K187" s="52"/>
+      <c r="L187" s="52"/>
+      <c r="M187" s="52"/>
+      <c r="N187" s="52"/>
+    </row>
+    <row r="188" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A188" s="52"/>
+      <c r="B188" s="2">
         <v>41799</v>
       </c>
-      <c r="C186" s="54"/>
-      <c r="D186" s="54"/>
-      <c r="E186" s="54"/>
-      <c r="F186" s="54"/>
-      <c r="G186" s="54"/>
-      <c r="H186" s="54"/>
-      <c r="I186" s="54"/>
-      <c r="J186" s="54"/>
-      <c r="K186" s="54"/>
-      <c r="L186" s="54"/>
-      <c r="M186" s="54"/>
-      <c r="N186" s="54"/>
-    </row>
-    <row r="187" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="54"/>
-      <c r="B187" s="2">
+      <c r="C188" s="52"/>
+      <c r="D188" s="52"/>
+      <c r="E188" s="52"/>
+      <c r="F188" s="52"/>
+      <c r="G188" s="52"/>
+      <c r="H188" s="52"/>
+      <c r="I188" s="52"/>
+      <c r="J188" s="52"/>
+      <c r="K188" s="52"/>
+      <c r="L188" s="52"/>
+      <c r="M188" s="52"/>
+      <c r="N188" s="52"/>
+    </row>
+    <row r="189" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A189" s="52"/>
+      <c r="B189" s="2">
         <v>41800</v>
       </c>
-      <c r="C187" s="54"/>
-      <c r="D187" s="54"/>
-      <c r="E187" s="54"/>
-      <c r="F187" s="54"/>
-      <c r="G187" s="54"/>
-      <c r="H187" s="54"/>
-      <c r="I187" s="54"/>
-      <c r="J187" s="54"/>
-      <c r="K187" s="54"/>
-      <c r="L187" s="54"/>
-      <c r="M187" s="54"/>
-      <c r="N187" s="54"/>
-    </row>
-    <row r="188" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="54"/>
-      <c r="B188" s="2">
+      <c r="C189" s="52"/>
+      <c r="D189" s="52"/>
+      <c r="E189" s="52"/>
+      <c r="F189" s="52"/>
+      <c r="G189" s="52"/>
+      <c r="H189" s="52"/>
+      <c r="I189" s="52"/>
+      <c r="J189" s="52"/>
+      <c r="K189" s="52"/>
+      <c r="L189" s="52"/>
+      <c r="M189" s="52"/>
+      <c r="N189" s="52"/>
+    </row>
+    <row r="190" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A190" s="52"/>
+      <c r="B190" s="2">
         <v>41801</v>
       </c>
-      <c r="C188" s="54"/>
-      <c r="D188" s="54"/>
-      <c r="E188" s="54"/>
-      <c r="F188" s="54"/>
-      <c r="G188" s="54"/>
-      <c r="H188" s="54"/>
-      <c r="I188" s="54"/>
-      <c r="J188" s="54"/>
-      <c r="K188" s="54"/>
-      <c r="L188" s="54"/>
-      <c r="M188" s="54"/>
-      <c r="N188" s="54"/>
-    </row>
-    <row r="189" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A189" s="54"/>
-      <c r="B189" s="2">
+      <c r="C190" s="52"/>
+      <c r="D190" s="52"/>
+      <c r="E190" s="52"/>
+      <c r="F190" s="52"/>
+      <c r="G190" s="52"/>
+      <c r="H190" s="52"/>
+      <c r="I190" s="52"/>
+      <c r="J190" s="52"/>
+      <c r="K190" s="52"/>
+      <c r="L190" s="52"/>
+      <c r="M190" s="52"/>
+      <c r="N190" s="52"/>
+    </row>
+    <row r="191" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A191" s="52"/>
+      <c r="B191" s="2">
         <v>41802</v>
       </c>
-      <c r="C189" s="54"/>
-      <c r="D189" s="54"/>
-      <c r="E189" s="54"/>
-      <c r="F189" s="54"/>
-      <c r="G189" s="54"/>
-      <c r="H189" s="54"/>
-      <c r="I189" s="54"/>
-      <c r="J189" s="54"/>
-      <c r="K189" s="54"/>
-      <c r="L189" s="54"/>
-      <c r="M189" s="54"/>
-      <c r="N189" s="54"/>
-    </row>
-    <row r="190" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="54"/>
-      <c r="B190" s="2">
+      <c r="C191" s="52"/>
+      <c r="D191" s="52"/>
+      <c r="E191" s="52"/>
+      <c r="F191" s="52"/>
+      <c r="G191" s="52"/>
+      <c r="H191" s="52"/>
+      <c r="I191" s="52"/>
+      <c r="J191" s="52"/>
+      <c r="K191" s="52"/>
+      <c r="L191" s="52"/>
+      <c r="M191" s="52"/>
+      <c r="N191" s="52"/>
+    </row>
+    <row r="192" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A192" s="52"/>
+      <c r="B192" s="2">
         <v>41803</v>
       </c>
-      <c r="C190" s="54"/>
-      <c r="D190" s="54"/>
-      <c r="E190" s="54"/>
-      <c r="F190" s="54"/>
-      <c r="G190" s="54"/>
-      <c r="H190" s="54"/>
-      <c r="I190" s="54"/>
-      <c r="J190" s="54"/>
-      <c r="K190" s="54"/>
-      <c r="L190" s="54"/>
-      <c r="M190" s="54"/>
-      <c r="N190" s="54"/>
-    </row>
-    <row r="191" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="54"/>
-      <c r="B191" s="2">
+      <c r="C192" s="52"/>
+      <c r="D192" s="52"/>
+      <c r="E192" s="52"/>
+      <c r="F192" s="52"/>
+      <c r="G192" s="52"/>
+      <c r="H192" s="52"/>
+      <c r="I192" s="52"/>
+      <c r="J192" s="52"/>
+      <c r="K192" s="52"/>
+      <c r="L192" s="52"/>
+      <c r="M192" s="52"/>
+      <c r="N192" s="52"/>
+    </row>
+    <row r="193" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="52"/>
+      <c r="B193" s="2">
         <v>41804</v>
       </c>
-      <c r="C191" s="54"/>
-      <c r="D191" s="54"/>
-      <c r="E191" s="54"/>
-      <c r="F191" s="54"/>
-      <c r="G191" s="54"/>
-      <c r="H191" s="54"/>
-      <c r="I191" s="54"/>
-      <c r="J191" s="54"/>
-      <c r="K191" s="54"/>
-      <c r="L191" s="54"/>
-      <c r="M191" s="54"/>
-      <c r="N191" s="54"/>
-    </row>
-    <row r="192" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="54"/>
-      <c r="B192" s="2">
+      <c r="C193" s="52"/>
+      <c r="D193" s="52"/>
+      <c r="E193" s="52"/>
+      <c r="F193" s="52"/>
+      <c r="G193" s="52"/>
+      <c r="H193" s="52"/>
+      <c r="I193" s="52"/>
+      <c r="J193" s="52"/>
+      <c r="K193" s="52"/>
+      <c r="L193" s="52"/>
+      <c r="M193" s="52"/>
+      <c r="N193" s="52"/>
+    </row>
+    <row r="194" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A194" s="52"/>
+      <c r="B194" s="2">
         <v>41805</v>
       </c>
-      <c r="C192" s="54"/>
-      <c r="D192" s="54"/>
-      <c r="E192" s="54"/>
-      <c r="F192" s="54"/>
-      <c r="G192" s="54"/>
-      <c r="H192" s="54"/>
-      <c r="I192" s="54"/>
-      <c r="J192" s="54"/>
-      <c r="K192" s="54"/>
-      <c r="L192" s="54"/>
-      <c r="M192" s="54"/>
-      <c r="N192" s="54"/>
-    </row>
-    <row r="193" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="54"/>
-      <c r="B193" s="2">
+      <c r="C194" s="52"/>
+      <c r="D194" s="52"/>
+      <c r="E194" s="52"/>
+      <c r="F194" s="52"/>
+      <c r="G194" s="52"/>
+      <c r="H194" s="52"/>
+      <c r="I194" s="52"/>
+      <c r="J194" s="52"/>
+      <c r="K194" s="52"/>
+      <c r="L194" s="52"/>
+      <c r="M194" s="52"/>
+      <c r="N194" s="52"/>
+    </row>
+    <row r="195" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A195" s="52"/>
+      <c r="B195" s="2">
         <v>41806</v>
       </c>
-      <c r="C193" s="54"/>
-      <c r="D193" s="54"/>
-      <c r="E193" s="54"/>
-      <c r="F193" s="54"/>
-      <c r="G193" s="54"/>
-      <c r="H193" s="54"/>
-      <c r="I193" s="54"/>
-      <c r="J193" s="54"/>
-      <c r="K193" s="54"/>
-      <c r="L193" s="54"/>
-      <c r="M193" s="54"/>
-      <c r="N193" s="54"/>
-    </row>
-    <row r="194" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="54"/>
-      <c r="B194" s="2">
+      <c r="C195" s="52"/>
+      <c r="D195" s="52"/>
+      <c r="E195" s="52"/>
+      <c r="F195" s="52"/>
+      <c r="G195" s="52"/>
+      <c r="H195" s="52"/>
+      <c r="I195" s="52"/>
+      <c r="J195" s="52"/>
+      <c r="K195" s="52"/>
+      <c r="L195" s="52"/>
+      <c r="M195" s="52"/>
+      <c r="N195" s="52"/>
+    </row>
+    <row r="196" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A196" s="52"/>
+      <c r="B196" s="2">
         <v>41807</v>
       </c>
-      <c r="C194" s="54"/>
-      <c r="D194" s="54"/>
-      <c r="E194" s="54"/>
-      <c r="F194" s="54"/>
-      <c r="G194" s="54"/>
-      <c r="H194" s="54"/>
-      <c r="I194" s="54"/>
-      <c r="J194" s="54"/>
-      <c r="K194" s="54"/>
-      <c r="L194" s="54"/>
-      <c r="M194" s="54"/>
-      <c r="N194" s="54"/>
-    </row>
-    <row r="195" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="54"/>
-      <c r="B195" s="2">
+      <c r="C196" s="52"/>
+      <c r="D196" s="52"/>
+      <c r="E196" s="52"/>
+      <c r="F196" s="52"/>
+      <c r="G196" s="52"/>
+      <c r="H196" s="52"/>
+      <c r="I196" s="52"/>
+      <c r="J196" s="52"/>
+      <c r="K196" s="52"/>
+      <c r="L196" s="52"/>
+      <c r="M196" s="52"/>
+      <c r="N196" s="52"/>
+    </row>
+    <row r="197" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A197" s="52"/>
+      <c r="B197" s="2">
         <v>41808</v>
       </c>
-      <c r="C195" s="54"/>
-      <c r="D195" s="54"/>
-      <c r="E195" s="54"/>
-      <c r="F195" s="54"/>
-      <c r="G195" s="54"/>
-      <c r="H195" s="54"/>
-      <c r="I195" s="54"/>
-      <c r="J195" s="54"/>
-      <c r="K195" s="54"/>
-      <c r="L195" s="54"/>
-      <c r="M195" s="54"/>
-      <c r="N195" s="54"/>
-    </row>
-    <row r="196" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="54"/>
-      <c r="B196" s="2">
+      <c r="C197" s="52"/>
+      <c r="D197" s="52"/>
+      <c r="E197" s="52"/>
+      <c r="F197" s="52"/>
+      <c r="G197" s="52"/>
+      <c r="H197" s="52"/>
+      <c r="I197" s="52"/>
+      <c r="J197" s="52"/>
+      <c r="K197" s="52"/>
+      <c r="L197" s="52"/>
+      <c r="M197" s="52"/>
+      <c r="N197" s="52"/>
+    </row>
+    <row r="198" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A198" s="52"/>
+      <c r="B198" s="2">
         <v>41809</v>
       </c>
-      <c r="C196" s="54"/>
-      <c r="D196" s="54"/>
-      <c r="E196" s="54"/>
-      <c r="F196" s="54"/>
-      <c r="G196" s="54"/>
-      <c r="H196" s="54"/>
-      <c r="I196" s="54"/>
-      <c r="J196" s="54"/>
-      <c r="K196" s="54"/>
-      <c r="L196" s="54"/>
-      <c r="M196" s="54"/>
-      <c r="N196" s="54"/>
-    </row>
-    <row r="197" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="54"/>
-      <c r="B197" s="2">
+      <c r="C198" s="52"/>
+      <c r="D198" s="52"/>
+      <c r="E198" s="52"/>
+      <c r="F198" s="52"/>
+      <c r="G198" s="52"/>
+      <c r="H198" s="52"/>
+      <c r="I198" s="52"/>
+      <c r="J198" s="52"/>
+      <c r="K198" s="52"/>
+      <c r="L198" s="52"/>
+      <c r="M198" s="52"/>
+      <c r="N198" s="52"/>
+    </row>
+    <row r="199" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="52"/>
+      <c r="B199" s="2">
         <v>41810</v>
       </c>
-      <c r="C197" s="54"/>
-      <c r="D197" s="54"/>
-      <c r="E197" s="54"/>
-      <c r="F197" s="54"/>
-      <c r="G197" s="54"/>
-      <c r="H197" s="54"/>
-      <c r="I197" s="54"/>
-      <c r="J197" s="54"/>
-      <c r="K197" s="54"/>
-      <c r="L197" s="54"/>
-      <c r="M197" s="54"/>
-      <c r="N197" s="54"/>
-    </row>
-    <row r="198" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="54"/>
-      <c r="B198" s="2">
+      <c r="C199" s="52"/>
+      <c r="D199" s="52"/>
+      <c r="E199" s="52"/>
+      <c r="F199" s="52"/>
+      <c r="G199" s="52"/>
+      <c r="H199" s="52"/>
+      <c r="I199" s="52"/>
+      <c r="J199" s="52"/>
+    </row>
+    <row r="200" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A200" s="52"/>
+      <c r="B200" s="2">
         <v>41811</v>
       </c>
-      <c r="C198" s="54"/>
-      <c r="D198" s="54"/>
-      <c r="E198" s="54"/>
-      <c r="F198" s="54"/>
-      <c r="G198" s="54"/>
-      <c r="H198" s="54"/>
-      <c r="I198" s="54"/>
-      <c r="J198" s="54"/>
-      <c r="K198" s="54"/>
-      <c r="L198" s="54"/>
-      <c r="M198" s="54"/>
-      <c r="N198" s="54"/>
-    </row>
-    <row r="199" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="54"/>
-      <c r="B199" s="2">
+      <c r="C200" s="52"/>
+      <c r="D200" s="52"/>
+      <c r="E200" s="52"/>
+      <c r="F200" s="52"/>
+      <c r="G200" s="52"/>
+      <c r="H200" s="52"/>
+      <c r="I200" s="52"/>
+      <c r="J200" s="52"/>
+    </row>
+    <row r="201" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="52"/>
+      <c r="B201" s="2">
         <v>41812</v>
       </c>
-      <c r="C199" s="54"/>
-      <c r="D199" s="54"/>
-      <c r="E199" s="54"/>
-      <c r="F199" s="54"/>
-      <c r="G199" s="54"/>
-      <c r="H199" s="54"/>
-      <c r="I199" s="54"/>
-      <c r="J199" s="54"/>
-    </row>
-    <row r="200" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="54"/>
-      <c r="B200" s="2">
+      <c r="C201" s="52"/>
+      <c r="D201" s="52"/>
+      <c r="E201" s="52"/>
+      <c r="F201" s="52"/>
+      <c r="G201" s="52"/>
+      <c r="H201" s="52"/>
+      <c r="I201" s="52"/>
+      <c r="J201" s="52"/>
+    </row>
+    <row r="202" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="52"/>
+      <c r="B202" s="2">
         <v>41813</v>
       </c>
-      <c r="C200" s="54"/>
-      <c r="D200" s="54"/>
-      <c r="E200" s="54"/>
-      <c r="F200" s="54"/>
-      <c r="G200" s="54"/>
-      <c r="H200" s="54"/>
-      <c r="I200" s="54"/>
-      <c r="J200" s="54"/>
-    </row>
-    <row r="201" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="54"/>
-      <c r="B201" s="2">
+      <c r="C202" s="52"/>
+      <c r="D202" s="52"/>
+      <c r="E202" s="52"/>
+      <c r="F202" s="52"/>
+      <c r="G202" s="52"/>
+      <c r="H202" s="52"/>
+      <c r="I202" s="52"/>
+      <c r="J202" s="52"/>
+    </row>
+    <row r="203" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A203" s="52"/>
+      <c r="B203" s="2">
         <v>41814</v>
       </c>
-      <c r="C201" s="54"/>
-      <c r="D201" s="54"/>
-      <c r="E201" s="54"/>
-      <c r="F201" s="54"/>
-      <c r="G201" s="54"/>
-      <c r="H201" s="54"/>
-      <c r="I201" s="54"/>
-      <c r="J201" s="54"/>
-    </row>
-    <row r="202" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="54"/>
-      <c r="B202" s="2">
+      <c r="C203" s="52"/>
+      <c r="D203" s="52"/>
+      <c r="E203" s="52"/>
+      <c r="F203" s="52"/>
+      <c r="G203" s="52"/>
+      <c r="H203" s="52"/>
+      <c r="I203" s="52"/>
+      <c r="J203" s="52"/>
+    </row>
+    <row r="204" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A204" s="52"/>
+      <c r="B204" s="2">
         <v>41815</v>
       </c>
-      <c r="C202" s="54"/>
-      <c r="D202" s="54"/>
-      <c r="E202" s="54"/>
-      <c r="F202" s="54"/>
-      <c r="G202" s="54"/>
-      <c r="H202" s="54"/>
-      <c r="I202" s="54"/>
-      <c r="J202" s="54"/>
-    </row>
-    <row r="203" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A203" s="54"/>
-      <c r="B203" s="2">
+      <c r="C204" s="52"/>
+      <c r="D204" s="52"/>
+      <c r="E204" s="52"/>
+      <c r="F204" s="52"/>
+      <c r="G204" s="52"/>
+      <c r="H204" s="52"/>
+      <c r="I204" s="52"/>
+      <c r="J204" s="52"/>
+    </row>
+    <row r="205" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A205" s="52"/>
+      <c r="B205" s="2">
         <v>41816</v>
       </c>
-      <c r="C203" s="54"/>
-      <c r="D203" s="54"/>
-      <c r="E203" s="54"/>
-      <c r="F203" s="54"/>
-      <c r="G203" s="54"/>
-      <c r="H203" s="54"/>
-      <c r="I203" s="54"/>
-      <c r="J203" s="54"/>
-    </row>
-    <row r="204" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="54"/>
-      <c r="B204" s="2">
+      <c r="C205" s="52"/>
+      <c r="D205" s="52"/>
+      <c r="E205" s="52"/>
+      <c r="F205" s="52"/>
+      <c r="G205" s="52"/>
+      <c r="H205" s="52"/>
+      <c r="I205" s="52"/>
+      <c r="J205" s="52"/>
+    </row>
+    <row r="206" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A206" s="52"/>
+      <c r="B206" s="2">
         <v>41817</v>
       </c>
-      <c r="C204" s="54"/>
-      <c r="D204" s="54"/>
-      <c r="E204" s="54"/>
-      <c r="F204" s="54"/>
-      <c r="G204" s="54"/>
-      <c r="H204" s="54"/>
-      <c r="I204" s="54"/>
-      <c r="J204" s="54"/>
-    </row>
-    <row r="205" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="54"/>
-      <c r="B205" s="2">
+      <c r="C206" s="52"/>
+      <c r="D206" s="52"/>
+      <c r="E206" s="52"/>
+      <c r="F206" s="52"/>
+      <c r="G206" s="52"/>
+      <c r="H206" s="52"/>
+      <c r="I206" s="52"/>
+      <c r="J206" s="52"/>
+    </row>
+    <row r="207" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A207" s="52"/>
+      <c r="B207" s="2">
         <v>41818</v>
       </c>
-      <c r="C205" s="54"/>
-      <c r="D205" s="54"/>
-      <c r="E205" s="54"/>
-      <c r="F205" s="54"/>
-      <c r="G205" s="54"/>
-      <c r="H205" s="54"/>
-      <c r="I205" s="54"/>
-      <c r="J205" s="54"/>
-    </row>
-    <row r="206" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A206" s="54"/>
-      <c r="B206" s="2">
+      <c r="C207" s="52"/>
+      <c r="D207" s="52"/>
+      <c r="E207" s="52"/>
+      <c r="F207" s="52"/>
+      <c r="G207" s="52"/>
+      <c r="H207" s="52"/>
+      <c r="I207" s="52"/>
+      <c r="J207" s="52"/>
+    </row>
+    <row r="208" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A208" s="52"/>
+      <c r="B208" s="2">
         <v>41819</v>
       </c>
-      <c r="C206" s="54"/>
-      <c r="D206" s="54"/>
-      <c r="E206" s="54"/>
-      <c r="F206" s="54"/>
-      <c r="G206" s="54"/>
-      <c r="H206" s="54"/>
-      <c r="I206" s="54"/>
-      <c r="J206" s="54"/>
-    </row>
-    <row r="207" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="54"/>
-      <c r="B207" s="2">
+      <c r="C208" s="52"/>
+      <c r="D208" s="52"/>
+      <c r="E208" s="52"/>
+      <c r="F208" s="52"/>
+      <c r="G208" s="52"/>
+      <c r="H208" s="52"/>
+      <c r="I208" s="52"/>
+      <c r="J208" s="52"/>
+    </row>
+    <row r="209" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A209" s="52"/>
+      <c r="B209" s="2">
         <v>41820</v>
       </c>
-      <c r="C207" s="54"/>
-      <c r="D207" s="54"/>
-      <c r="E207" s="54"/>
-      <c r="F207" s="54"/>
-      <c r="G207" s="54"/>
-      <c r="H207" s="54"/>
-      <c r="I207" s="54"/>
-      <c r="J207" s="54"/>
-    </row>
-    <row r="208" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A208" s="54"/>
-      <c r="B208" s="2">
+      <c r="C209" s="52"/>
+      <c r="D209" s="52"/>
+      <c r="E209" s="52"/>
+      <c r="F209" s="52"/>
+      <c r="G209" s="52"/>
+      <c r="H209" s="52"/>
+      <c r="I209" s="52"/>
+      <c r="J209" s="52"/>
+    </row>
+    <row r="210" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A210" s="52"/>
+      <c r="B210" s="2">
         <v>41821</v>
       </c>
-      <c r="C208" s="54"/>
-      <c r="D208" s="54"/>
-      <c r="E208" s="54"/>
-      <c r="F208" s="54"/>
-      <c r="G208" s="54"/>
-      <c r="H208" s="54"/>
-      <c r="I208" s="54"/>
-      <c r="J208" s="54"/>
-    </row>
-    <row r="209" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="54"/>
-      <c r="B209" s="2">
+      <c r="C210" s="52"/>
+      <c r="D210" s="52"/>
+      <c r="E210" s="52"/>
+      <c r="F210" s="52"/>
+      <c r="G210" s="52"/>
+      <c r="H210" s="52"/>
+      <c r="I210" s="52"/>
+      <c r="J210" s="52"/>
+    </row>
+    <row r="211" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="52"/>
+      <c r="B211" s="2">
         <v>41822</v>
       </c>
-      <c r="C209" s="54"/>
-      <c r="D209" s="54"/>
-      <c r="E209" s="54"/>
-      <c r="F209" s="54"/>
-      <c r="G209" s="54"/>
-      <c r="H209" s="54"/>
-      <c r="I209" s="54"/>
-      <c r="J209" s="54"/>
-    </row>
-    <row r="210" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="54"/>
-      <c r="B210" s="2">
+      <c r="C211" s="52"/>
+      <c r="D211" s="52"/>
+      <c r="E211" s="52"/>
+      <c r="F211" s="52"/>
+      <c r="G211" s="52"/>
+      <c r="H211" s="52"/>
+      <c r="I211" s="52"/>
+      <c r="J211" s="52"/>
+    </row>
+    <row r="212" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A212" s="52"/>
+      <c r="B212" s="2">
         <v>41823</v>
       </c>
-      <c r="C210" s="54"/>
-      <c r="D210" s="54"/>
-      <c r="E210" s="54"/>
-      <c r="F210" s="54"/>
-      <c r="G210" s="54"/>
-      <c r="H210" s="54"/>
-      <c r="I210" s="54"/>
-      <c r="J210" s="54"/>
-    </row>
-    <row r="211" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="54"/>
-      <c r="B211" s="2">
+      <c r="C212" s="52"/>
+      <c r="D212" s="52"/>
+      <c r="E212" s="52"/>
+      <c r="F212" s="52"/>
+      <c r="G212" s="52"/>
+      <c r="H212" s="52"/>
+      <c r="I212" s="52"/>
+      <c r="J212" s="52"/>
+    </row>
+    <row r="213" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A213" s="52"/>
+      <c r="B213" s="2">
         <v>41824</v>
       </c>
-      <c r="C211" s="54"/>
-      <c r="D211" s="54"/>
-      <c r="E211" s="54"/>
-      <c r="F211" s="54"/>
-      <c r="G211" s="54"/>
-      <c r="H211" s="54"/>
-      <c r="I211" s="54"/>
-      <c r="J211" s="54"/>
+      <c r="C213" s="52"/>
+      <c r="D213" s="52"/>
+      <c r="E213" s="52"/>
+      <c r="F213" s="52"/>
+      <c r="G213" s="52"/>
+      <c r="H213" s="52"/>
+      <c r="I213" s="52"/>
+      <c r="J213" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A172:A177"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A97:A101"/>
+  <mergeCells count="55">
+    <mergeCell ref="A35:A48"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A159:A163"/>
     <mergeCell ref="B23:B28"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="B29:B31"/>
@@ -6122,6 +6132,46 @@
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="F41:F44"/>
     <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F23:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -6129,7 +6179,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{4014B23A-9A92-4C0A-84AA-38D1DDC243A5}">
+          <x14:cfRule type="iconSet" priority="23" id="{4014B23A-9A92-4C0A-84AA-38D1DDC243A5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6148,7 +6198,7 @@
           <xm:sqref>F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{06A2D883-25A5-47A0-9E42-1356F547AC95}">
+          <x14:cfRule type="iconSet" priority="22" id="{06A2D883-25A5-47A0-9E42-1356F547AC95}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6167,7 +6217,7 @@
           <xm:sqref>F7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{F0155C6B-E81B-4907-9A36-C4DCA4908A78}">
+          <x14:cfRule type="iconSet" priority="21" id="{F0155C6B-E81B-4907-9A36-C4DCA4908A78}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6186,7 +6236,7 @@
           <xm:sqref>F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{B227CB59-278E-4A9D-98EB-7894CC307006}">
+          <x14:cfRule type="iconSet" priority="20" id="{B227CB59-278E-4A9D-98EB-7894CC307006}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6205,7 +6255,7 @@
           <xm:sqref>F13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{4FD1D166-C211-4511-AC07-D417ED483D0B}">
+          <x14:cfRule type="iconSet" priority="19" id="{4FD1D166-C211-4511-AC07-D417ED483D0B}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6224,7 +6274,7 @@
           <xm:sqref>F15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{8ED16EE5-9A95-4A55-8A04-0D8356EDEB0F}">
+          <x14:cfRule type="iconSet" priority="18" id="{8ED16EE5-9A95-4A55-8A04-0D8356EDEB0F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6243,7 +6293,7 @@
           <xm:sqref>F16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{00B9764F-B5E5-41A8-9F73-CE8C6FDA6D14}">
+          <x14:cfRule type="iconSet" priority="17" id="{00B9764F-B5E5-41A8-9F73-CE8C6FDA6D14}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6262,7 +6312,7 @@
           <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{D256993F-A47B-4EA7-86F9-CCDBFB57FDF7}">
+          <x14:cfRule type="iconSet" priority="16" id="{D256993F-A47B-4EA7-86F9-CCDBFB57FDF7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6281,7 +6331,7 @@
           <xm:sqref>F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{D41896BE-84C3-40A6-BA74-3E16B3A102FC}">
+          <x14:cfRule type="iconSet" priority="15" id="{D41896BE-84C3-40A6-BA74-3E16B3A102FC}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6300,7 +6350,7 @@
           <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{CFF9B7E8-896C-4401-A02A-3BD376BFEA70}">
+          <x14:cfRule type="iconSet" priority="14" id="{CFF9B7E8-896C-4401-A02A-3BD376BFEA70}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6319,7 +6369,7 @@
           <xm:sqref>F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{5C24DFB2-DBCA-41B9-8745-C2D5AB086724}">
+          <x14:cfRule type="iconSet" priority="13" id="{5C24DFB2-DBCA-41B9-8745-C2D5AB086724}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6338,7 +6388,7 @@
           <xm:sqref>F19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{883D7404-1110-4331-92AF-9AC0C5174910}">
+          <x14:cfRule type="iconSet" priority="12" id="{883D7404-1110-4331-92AF-9AC0C5174910}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6357,7 +6407,7 @@
           <xm:sqref>F23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{0DC21843-99CC-4844-8211-8B5CBDE1D20E}">
+          <x14:cfRule type="iconSet" priority="10" id="{0DC21843-99CC-4844-8211-8B5CBDE1D20E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6376,7 +6426,7 @@
           <xm:sqref>F29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{E009B2CC-5658-4E63-B7A4-30A20613C5F8}">
+          <x14:cfRule type="iconSet" priority="9" id="{E009B2CC-5658-4E63-B7A4-30A20613C5F8}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6395,7 +6445,7 @@
           <xm:sqref>F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{0177AC9F-6321-4526-94F0-85D67025A301}">
+          <x14:cfRule type="iconSet" priority="8" id="{0177AC9F-6321-4526-94F0-85D67025A301}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6414,7 +6464,7 @@
           <xm:sqref>F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{D0F9F74B-6C0F-44C8-901E-7631CAAAA939}">
+          <x14:cfRule type="iconSet" priority="7" id="{D0F9F74B-6C0F-44C8-901E-7631CAAAA939}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6433,7 +6483,7 @@
           <xm:sqref>F35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{FFD958AA-637C-45FF-AACC-9F33CFE79B58}">
+          <x14:cfRule type="iconSet" priority="5" id="{FFD958AA-637C-45FF-AACC-9F33CFE79B58}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6452,7 +6502,7 @@
           <xm:sqref>F36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{E59CAFDB-01A9-45D0-A1AC-9C4A4BB12EED}">
+          <x14:cfRule type="iconSet" priority="3" id="{E59CAFDB-01A9-45D0-A1AC-9C4A4BB12EED}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6471,7 +6521,7 @@
           <xm:sqref>F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{546BE9D2-92A1-4F70-BE4D-43867BD2C299}">
+          <x14:cfRule type="iconSet" priority="24" id="{546BE9D2-92A1-4F70-BE4D-43867BD2C299}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6487,7 +6537,26 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F45:F46</xm:sqref>
+          <xm:sqref>F45:F47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{CFC03F01-B4FB-415A-A288-68BA86806685}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F41</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
@@ -994,148 +994,148 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1536,10 +1536,10 @@
   <dimension ref="A1:N213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1561,82 +1561,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="73"/>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="75"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="90"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="76" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="78"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="93"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="81"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="84"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" spans="1:14" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="93"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="95"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="32"/>
       <c r="H5" s="56" t="s">
         <v>112</v>
@@ -1681,10 +1681,10 @@
       <c r="J6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -1712,10 +1712,10 @@
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="91" t="s">
+      <c r="K7" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="91"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="38">
         <f>SUM(M8:M37)</f>
         <v>77.010000000000005</v>
@@ -1725,7 +1725,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="96">
+      <c r="A8" s="81">
         <v>2</v>
       </c>
       <c r="B8" s="2">
@@ -1740,7 +1740,7 @@
       <c r="E8" s="13">
         <v>1.5</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="111">
         <f>SUM(E8:E9)</f>
         <v>3</v>
       </c>
@@ -1765,7 +1765,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="2">
         <v>41589</v>
       </c>
@@ -1778,7 +1778,7 @@
       <c r="E9" s="13">
         <v>1.5</v>
       </c>
-      <c r="F9" s="66"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1800,7 +1800,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="2">
         <v>41590</v>
       </c>
@@ -1813,7 +1813,7 @@
       <c r="E10" s="13">
         <v>2</v>
       </c>
-      <c r="F10" s="65">
+      <c r="F10" s="111">
         <f>SUM(E10:E11)</f>
         <v>4</v>
       </c>
@@ -1838,7 +1838,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="2">
         <v>41590</v>
       </c>
@@ -1851,7 +1851,7 @@
       <c r="E11" s="13">
         <v>2</v>
       </c>
-      <c r="F11" s="66"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1873,7 +1873,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="97"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="2">
         <v>41591</v>
       </c>
@@ -1911,7 +1911,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="97"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="2">
         <v>41592</v>
       </c>
@@ -1924,7 +1924,7 @@
       <c r="E13" s="13">
         <v>1</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="111">
         <f>SUM(E13:E14)</f>
         <v>2.25</v>
       </c>
@@ -1949,7 +1949,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="97"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="2">
         <v>41592</v>
       </c>
@@ -1962,7 +1962,7 @@
       <c r="E14" s="13">
         <v>1.25</v>
       </c>
-      <c r="F14" s="66"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="21" t="s">
         <v>28</v>
       </c>
@@ -1984,7 +1984,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="2">
         <v>41593</v>
       </c>
@@ -2022,7 +2022,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="97"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="23">
         <v>41594</v>
       </c>
@@ -2060,7 +2060,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="23">
         <v>41595</v>
       </c>
@@ -2098,7 +2098,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="101">
+      <c r="A18" s="84">
         <v>3</v>
       </c>
       <c r="B18" s="9">
@@ -2138,8 +2138,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
-      <c r="B19" s="103">
+      <c r="A19" s="70"/>
+      <c r="B19" s="67">
         <v>41597</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2151,7 +2151,7 @@
       <c r="E19" s="22">
         <v>1</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="71">
         <f>SUM(E19:E21)</f>
         <v>4.6500000000000004</v>
       </c>
@@ -2176,8 +2176,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="99"/>
-      <c r="B20" s="104"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="3" t="s">
         <v>91</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="E20" s="22">
         <v>1.5</v>
       </c>
-      <c r="F20" s="68"/>
+      <c r="F20" s="72"/>
       <c r="G20" s="28" t="s">
         <v>27</v>
       </c>
@@ -2211,8 +2211,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="99"/>
-      <c r="B21" s="105"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="E21" s="22">
         <v>2.15</v>
       </c>
-      <c r="F21" s="69"/>
+      <c r="F21" s="73"/>
       <c r="G21" s="28" t="s">
         <v>27</v>
       </c>
@@ -2246,7 +2246,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A22" s="99"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="9">
         <v>41598</v>
       </c>
@@ -2286,8 +2286,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="99"/>
-      <c r="B23" s="103">
+      <c r="A23" s="70"/>
+      <c r="B23" s="67">
         <v>41599</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2299,7 +2299,7 @@
       <c r="E23" s="22">
         <v>1</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F23" s="71">
         <f>SUM(E23:E28)</f>
         <v>9.65</v>
       </c>
@@ -2326,8 +2326,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="99"/>
-      <c r="B24" s="104"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
@@ -2337,7 +2337,7 @@
       <c r="E24" s="22">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F24" s="68"/>
+      <c r="F24" s="72"/>
       <c r="G24" s="29" t="s">
         <v>28</v>
       </c>
@@ -2359,8 +2359,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="99"/>
-      <c r="B25" s="104"/>
+      <c r="A25" s="70"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="3" t="s">
         <v>101</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="E25" s="22">
         <v>1.33</v>
       </c>
-      <c r="F25" s="68"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="26" t="s">
         <v>64</v>
       </c>
@@ -2392,8 +2392,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
-      <c r="B26" s="104"/>
+      <c r="A26" s="70"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
@@ -2403,7 +2403,7 @@
       <c r="E26" s="22">
         <v>1.5</v>
       </c>
-      <c r="F26" s="68"/>
+      <c r="F26" s="72"/>
       <c r="G26" s="28" t="s">
         <v>27</v>
       </c>
@@ -2425,8 +2425,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="99"/>
-      <c r="B27" s="104"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="E27" s="22">
         <v>2.16</v>
       </c>
-      <c r="F27" s="68"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="26" t="s">
         <v>64</v>
       </c>
@@ -2458,8 +2458,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="99"/>
-      <c r="B28" s="105"/>
+      <c r="A28" s="70"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
@@ -2469,7 +2469,7 @@
       <c r="E28" s="22">
         <v>2.5</v>
       </c>
-      <c r="F28" s="69"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="28" t="s">
         <v>27</v>
       </c>
@@ -2493,8 +2493,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A29" s="99"/>
-      <c r="B29" s="103">
+      <c r="A29" s="70"/>
+      <c r="B29" s="67">
         <v>41600</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2506,7 +2506,7 @@
       <c r="E29" s="22">
         <v>1.5</v>
       </c>
-      <c r="F29" s="67">
+      <c r="F29" s="71">
         <f>SUM(E29:E31)</f>
         <v>5.5</v>
       </c>
@@ -2533,8 +2533,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A30" s="99"/>
-      <c r="B30" s="104"/>
+      <c r="A30" s="70"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
@@ -2544,7 +2544,7 @@
       <c r="E30" s="22">
         <v>1.5</v>
       </c>
-      <c r="F30" s="68"/>
+      <c r="F30" s="72"/>
       <c r="G30" s="28" t="s">
         <v>27</v>
       </c>
@@ -2568,8 +2568,8 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="99"/>
-      <c r="B31" s="105"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
@@ -2579,7 +2579,7 @@
       <c r="E31" s="22">
         <v>2.5</v>
       </c>
-      <c r="F31" s="69"/>
+      <c r="F31" s="73"/>
       <c r="G31" s="28" t="s">
         <v>27</v>
       </c>
@@ -2603,8 +2603,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A32" s="99"/>
-      <c r="B32" s="103">
+      <c r="A32" s="70"/>
+      <c r="B32" s="67">
         <v>41601</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2616,7 +2616,7 @@
       <c r="E32" s="22">
         <v>1.5</v>
       </c>
-      <c r="F32" s="67">
+      <c r="F32" s="71">
         <f>SUM(E32:E33)</f>
         <v>2.5</v>
       </c>
@@ -2641,8 +2641,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="99"/>
-      <c r="B33" s="105"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="3" t="s">
         <v>83</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="E33" s="22">
         <v>1</v>
       </c>
-      <c r="F33" s="69"/>
+      <c r="F33" s="73"/>
       <c r="G33" s="28" t="s">
         <v>27</v>
       </c>
@@ -2714,7 +2714,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="112">
+      <c r="A35" s="65">
         <v>4</v>
       </c>
       <c r="B35" s="2">
@@ -2754,8 +2754,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="100"/>
-      <c r="B36" s="106">
+      <c r="A36" s="66"/>
+      <c r="B36" s="74">
         <v>41604</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -2767,7 +2767,7 @@
       <c r="E36" s="25">
         <v>2.5</v>
       </c>
-      <c r="F36" s="109">
+      <c r="F36" s="77">
         <f>SUM(E36:E38)</f>
         <v>5.25</v>
       </c>
@@ -2792,8 +2792,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A37" s="100"/>
-      <c r="B37" s="107"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="75"/>
       <c r="C37" s="24" t="s">
         <v>63</v>
       </c>
@@ -2803,7 +2803,7 @@
       <c r="E37" s="25">
         <v>1.25</v>
       </c>
-      <c r="F37" s="110"/>
+      <c r="F37" s="78"/>
       <c r="G37" s="59" t="s">
         <v>64</v>
       </c>
@@ -2825,8 +2825,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A38" s="100"/>
-      <c r="B38" s="108"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="76"/>
       <c r="C38" s="24" t="s">
         <v>84</v>
       </c>
@@ -2836,7 +2836,7 @@
       <c r="E38" s="25">
         <v>1.5</v>
       </c>
-      <c r="F38" s="111"/>
+      <c r="F38" s="79"/>
       <c r="G38" s="59" t="s">
         <v>27</v>
       </c>
@@ -2851,8 +2851,8 @@
       <c r="N38" s="52"/>
     </row>
     <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="100"/>
-      <c r="B39" s="106">
+      <c r="A39" s="66"/>
+      <c r="B39" s="74">
         <v>41605</v>
       </c>
       <c r="C39" s="24" t="s">
@@ -2864,7 +2864,7 @@
       <c r="E39" s="25">
         <v>1</v>
       </c>
-      <c r="F39" s="109">
+      <c r="F39" s="77">
         <f>SUM(E39:E40)</f>
         <v>3.33</v>
       </c>
@@ -2882,8 +2882,8 @@
       <c r="N39" s="52"/>
     </row>
     <row r="40" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="100"/>
-      <c r="B40" s="108"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="76"/>
       <c r="C40" s="24" t="s">
         <v>63</v>
       </c>
@@ -2893,7 +2893,7 @@
       <c r="E40" s="25">
         <v>2.33</v>
       </c>
-      <c r="F40" s="111"/>
+      <c r="F40" s="79"/>
       <c r="G40" s="59" t="s">
         <v>64</v>
       </c>
@@ -2908,8 +2908,8 @@
       <c r="N40" s="52"/>
     </row>
     <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="100"/>
-      <c r="B41" s="106">
+      <c r="A41" s="66"/>
+      <c r="B41" s="74">
         <v>41606</v>
       </c>
       <c r="C41" s="61" t="s">
@@ -2921,7 +2921,7 @@
       <c r="E41" s="61">
         <v>1.33</v>
       </c>
-      <c r="F41" s="109">
+      <c r="F41" s="77">
         <f>SUM(E41:E44)</f>
         <v>8.33</v>
       </c>
@@ -2939,8 +2939,8 @@
       <c r="N41" s="52"/>
     </row>
     <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="100"/>
-      <c r="B42" s="107"/>
+      <c r="A42" s="66"/>
+      <c r="B42" s="75"/>
       <c r="C42" s="61" t="s">
         <v>135</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="E42" s="61">
         <v>1.75</v>
       </c>
-      <c r="F42" s="110"/>
+      <c r="F42" s="78"/>
       <c r="G42" s="59" t="s">
         <v>30</v>
       </c>
@@ -2965,8 +2965,8 @@
       <c r="N42" s="52"/>
     </row>
     <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="100"/>
-      <c r="B43" s="107"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="75"/>
       <c r="C43" s="61" t="s">
         <v>63</v>
       </c>
@@ -2976,7 +2976,7 @@
       <c r="E43" s="61">
         <v>2.75</v>
       </c>
-      <c r="F43" s="110"/>
+      <c r="F43" s="78"/>
       <c r="G43" s="59" t="s">
         <v>24</v>
       </c>
@@ -2991,8 +2991,8 @@
       <c r="N43" s="52"/>
     </row>
     <row r="44" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A44" s="100"/>
-      <c r="B44" s="108"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="76"/>
       <c r="C44" s="61" t="s">
         <v>67</v>
       </c>
@@ -3002,7 +3002,7 @@
       <c r="E44" s="25">
         <v>2.5</v>
       </c>
-      <c r="F44" s="111"/>
+      <c r="F44" s="79"/>
       <c r="G44" s="59" t="s">
         <v>27</v>
       </c>
@@ -3017,8 +3017,8 @@
       <c r="N44" s="52"/>
     </row>
     <row r="45" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A45" s="100"/>
-      <c r="B45" s="106">
+      <c r="A45" s="66"/>
+      <c r="B45" s="74">
         <v>41607</v>
       </c>
       <c r="C45" s="24" t="s">
@@ -3030,9 +3030,9 @@
       <c r="E45" s="25">
         <v>3.5</v>
       </c>
-      <c r="F45" s="55">
-        <f t="shared" ref="F45:F47" si="5">E45</f>
-        <v>3.5</v>
+      <c r="F45" s="77">
+        <f>SUM(E45:E46)</f>
+        <v>4.5</v>
       </c>
       <c r="G45" s="59" t="s">
         <v>64</v>
@@ -3048,8 +3048,8 @@
       <c r="N45" s="52"/>
     </row>
     <row r="46" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A46" s="100"/>
-      <c r="B46" s="108"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="76"/>
       <c r="C46" s="24" t="s">
         <v>83</v>
       </c>
@@ -3059,10 +3059,7 @@
       <c r="E46" s="25">
         <v>1</v>
       </c>
-      <c r="F46" s="55">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="F46" s="79"/>
       <c r="G46" s="59" t="s">
         <v>27</v>
       </c>
@@ -3077,8 +3074,8 @@
       <c r="N46" s="52"/>
     </row>
     <row r="47" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A47" s="100"/>
-      <c r="B47" s="106">
+      <c r="A47" s="66"/>
+      <c r="B47" s="74">
         <v>41609</v>
       </c>
       <c r="C47" s="24" t="s">
@@ -3090,7 +3087,7 @@
       <c r="E47" s="25">
         <v>3.5</v>
       </c>
-      <c r="F47" s="109">
+      <c r="F47" s="77">
         <f>SUM(E47:E48)</f>
         <v>5</v>
       </c>
@@ -3108,8 +3105,8 @@
       <c r="N47" s="52"/>
     </row>
     <row r="48" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="100"/>
-      <c r="B48" s="108"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="76"/>
       <c r="C48" s="24" t="s">
         <v>69</v>
       </c>
@@ -3119,7 +3116,7 @@
       <c r="E48" s="25">
         <v>1.5</v>
       </c>
-      <c r="F48" s="111"/>
+      <c r="F48" s="79"/>
       <c r="G48" s="59" t="s">
         <v>27</v>
       </c>
@@ -3226,7 +3223,7 @@
       <c r="N53" s="52"/>
     </row>
     <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="100">
+      <c r="A54" s="66">
         <v>6</v>
       </c>
       <c r="B54" s="2">
@@ -3246,7 +3243,7 @@
       <c r="N54" s="52"/>
     </row>
     <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="100"/>
+      <c r="A55" s="66"/>
       <c r="B55" s="2">
         <v>41618</v>
       </c>
@@ -3264,7 +3261,7 @@
       <c r="N55" s="52"/>
     </row>
     <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="100"/>
+      <c r="A56" s="66"/>
       <c r="B56" s="2">
         <v>41619</v>
       </c>
@@ -3282,7 +3279,7 @@
       <c r="N56" s="52"/>
     </row>
     <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="100"/>
+      <c r="A57" s="66"/>
       <c r="B57" s="2">
         <v>41620</v>
       </c>
@@ -3300,7 +3297,7 @@
       <c r="N57" s="52"/>
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="100"/>
+      <c r="A58" s="66"/>
       <c r="B58" s="2">
         <v>41621</v>
       </c>
@@ -3318,7 +3315,7 @@
       <c r="N58" s="52"/>
     </row>
     <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="99">
+      <c r="A59" s="70">
         <v>7</v>
       </c>
       <c r="B59" s="9">
@@ -3338,7 +3335,7 @@
       <c r="N59" s="52"/>
     </row>
     <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="99"/>
+      <c r="A60" s="70"/>
       <c r="B60" s="9">
         <v>41625</v>
       </c>
@@ -3356,7 +3353,7 @@
       <c r="N60" s="52"/>
     </row>
     <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="99"/>
+      <c r="A61" s="70"/>
       <c r="B61" s="9">
         <v>41626</v>
       </c>
@@ -3374,7 +3371,7 @@
       <c r="N61" s="52"/>
     </row>
     <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="99"/>
+      <c r="A62" s="70"/>
       <c r="B62" s="9">
         <v>41627</v>
       </c>
@@ -3392,7 +3389,7 @@
       <c r="N62" s="52"/>
     </row>
     <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="99"/>
+      <c r="A63" s="70"/>
       <c r="B63" s="9">
         <v>41628</v>
       </c>
@@ -3410,7 +3407,7 @@
       <c r="N63" s="52"/>
     </row>
     <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="100">
+      <c r="A64" s="66">
         <v>8</v>
       </c>
       <c r="B64" s="2">
@@ -3430,7 +3427,7 @@
       <c r="N64" s="52"/>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="100"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="2">
         <v>41632</v>
       </c>
@@ -3448,7 +3445,7 @@
       <c r="N65" s="52"/>
     </row>
     <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="100"/>
+      <c r="A66" s="66"/>
       <c r="B66" s="2">
         <v>41633</v>
       </c>
@@ -3466,7 +3463,7 @@
       <c r="N66" s="52"/>
     </row>
     <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="100"/>
+      <c r="A67" s="66"/>
       <c r="B67" s="2">
         <v>41634</v>
       </c>
@@ -3484,7 +3481,7 @@
       <c r="N67" s="52"/>
     </row>
     <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="100"/>
+      <c r="A68" s="66"/>
       <c r="B68" s="2">
         <v>41635</v>
       </c>
@@ -3502,7 +3499,7 @@
       <c r="N68" s="52"/>
     </row>
     <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="99">
+      <c r="A69" s="70">
         <v>9</v>
       </c>
       <c r="B69" s="9">
@@ -3522,7 +3519,7 @@
       <c r="N69" s="52"/>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="99"/>
+      <c r="A70" s="70"/>
       <c r="B70" s="9">
         <v>41639</v>
       </c>
@@ -3540,7 +3537,7 @@
       <c r="N70" s="52"/>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="99"/>
+      <c r="A71" s="70"/>
       <c r="B71" s="9">
         <v>41640</v>
       </c>
@@ -3558,7 +3555,7 @@
       <c r="N71" s="52"/>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="99"/>
+      <c r="A72" s="70"/>
       <c r="B72" s="9">
         <v>41641</v>
       </c>
@@ -3576,7 +3573,7 @@
       <c r="N72" s="52"/>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="99"/>
+      <c r="A73" s="70"/>
       <c r="B73" s="9">
         <v>41642</v>
       </c>
@@ -3594,7 +3591,7 @@
       <c r="N73" s="52"/>
     </row>
     <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="100">
+      <c r="A74" s="66">
         <v>10</v>
       </c>
       <c r="B74" s="2">
@@ -3614,7 +3611,7 @@
       <c r="N74" s="52"/>
     </row>
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="100"/>
+      <c r="A75" s="66"/>
       <c r="B75" s="2">
         <v>41646</v>
       </c>
@@ -3632,7 +3629,7 @@
       <c r="N75" s="52"/>
     </row>
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="100"/>
+      <c r="A76" s="66"/>
       <c r="B76" s="2">
         <v>41647</v>
       </c>
@@ -3650,7 +3647,7 @@
       <c r="N76" s="52"/>
     </row>
     <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="100"/>
+      <c r="A77" s="66"/>
       <c r="B77" s="2">
         <v>41648</v>
       </c>
@@ -3668,7 +3665,7 @@
       <c r="N77" s="52"/>
     </row>
     <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="100"/>
+      <c r="A78" s="66"/>
       <c r="B78" s="2">
         <v>41649</v>
       </c>
@@ -3686,7 +3683,7 @@
       <c r="N78" s="52"/>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="99">
+      <c r="A79" s="70">
         <v>11</v>
       </c>
       <c r="B79" s="9">
@@ -3706,7 +3703,7 @@
       <c r="N79" s="52"/>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="99"/>
+      <c r="A80" s="70"/>
       <c r="B80" s="9">
         <v>41653</v>
       </c>
@@ -3724,7 +3721,7 @@
       <c r="N80" s="52"/>
     </row>
     <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="99"/>
+      <c r="A81" s="70"/>
       <c r="B81" s="9">
         <v>41654</v>
       </c>
@@ -3742,7 +3739,7 @@
       <c r="N81" s="52"/>
     </row>
     <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="99"/>
+      <c r="A82" s="70"/>
       <c r="B82" s="9">
         <v>41655</v>
       </c>
@@ -3760,7 +3757,7 @@
       <c r="N82" s="52"/>
     </row>
     <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="99"/>
+      <c r="A83" s="70"/>
       <c r="B83" s="9">
         <v>41656</v>
       </c>
@@ -3778,7 +3775,7 @@
       <c r="N83" s="52"/>
     </row>
     <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="100">
+      <c r="A84" s="66">
         <v>12</v>
       </c>
       <c r="B84" s="2">
@@ -3798,7 +3795,7 @@
       <c r="N84" s="52"/>
     </row>
     <row r="85" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="100"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="2">
         <v>41660</v>
       </c>
@@ -3816,7 +3813,7 @@
       <c r="N85" s="52"/>
     </row>
     <row r="86" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="100"/>
+      <c r="A86" s="66"/>
       <c r="B86" s="2">
         <v>41661</v>
       </c>
@@ -3834,7 +3831,7 @@
       <c r="N86" s="52"/>
     </row>
     <row r="87" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="100"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="2">
         <v>41662</v>
       </c>
@@ -3852,7 +3849,7 @@
       <c r="N87" s="52"/>
     </row>
     <row r="88" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="100"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="2">
         <v>41663</v>
       </c>
@@ -3870,7 +3867,7 @@
       <c r="N88" s="52"/>
     </row>
     <row r="89" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="99">
+      <c r="A89" s="70">
         <v>13</v>
       </c>
       <c r="B89" s="9">
@@ -3892,7 +3889,7 @@
       <c r="N89" s="52"/>
     </row>
     <row r="90" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="99"/>
+      <c r="A90" s="70"/>
       <c r="B90" s="9">
         <v>41667</v>
       </c>
@@ -3912,7 +3909,7 @@
       <c r="N90" s="52"/>
     </row>
     <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="99"/>
+      <c r="A91" s="70"/>
       <c r="B91" s="9">
         <v>41668</v>
       </c>
@@ -3932,7 +3929,7 @@
       <c r="N91" s="52"/>
     </row>
     <row r="92" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="99"/>
+      <c r="A92" s="70"/>
       <c r="B92" s="9">
         <v>41669</v>
       </c>
@@ -3952,7 +3949,7 @@
       <c r="N92" s="52"/>
     </row>
     <row r="93" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="99"/>
+      <c r="A93" s="70"/>
       <c r="B93" s="9">
         <v>41670</v>
       </c>
@@ -3972,7 +3969,7 @@
       <c r="N93" s="52"/>
     </row>
     <row r="94" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="100">
+      <c r="A94" s="66">
         <v>14</v>
       </c>
       <c r="B94" s="2">
@@ -3994,7 +3991,7 @@
       <c r="N94" s="52"/>
     </row>
     <row r="95" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="100"/>
+      <c r="A95" s="66"/>
       <c r="B95" s="2">
         <v>41674</v>
       </c>
@@ -4014,7 +4011,7 @@
       <c r="N95" s="52"/>
     </row>
     <row r="96" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="100"/>
+      <c r="A96" s="66"/>
       <c r="B96" s="2">
         <v>41675</v>
       </c>
@@ -4034,7 +4031,7 @@
       <c r="N96" s="52"/>
     </row>
     <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="100"/>
+      <c r="A97" s="66"/>
       <c r="B97" s="2">
         <v>41676</v>
       </c>
@@ -4054,7 +4051,7 @@
       <c r="N97" s="52"/>
     </row>
     <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="100"/>
+      <c r="A98" s="66"/>
       <c r="B98" s="2">
         <v>41677</v>
       </c>
@@ -4074,7 +4071,7 @@
       <c r="N98" s="52"/>
     </row>
     <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="99">
+      <c r="A99" s="70">
         <v>15</v>
       </c>
       <c r="B99" s="9">
@@ -4094,7 +4091,7 @@
       <c r="N99" s="52"/>
     </row>
     <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="99"/>
+      <c r="A100" s="70"/>
       <c r="B100" s="9">
         <v>41681</v>
       </c>
@@ -4112,7 +4109,7 @@
       <c r="N100" s="52"/>
     </row>
     <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="99"/>
+      <c r="A101" s="70"/>
       <c r="B101" s="9">
         <v>41682</v>
       </c>
@@ -4130,7 +4127,7 @@
       <c r="N101" s="52"/>
     </row>
     <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="99"/>
+      <c r="A102" s="70"/>
       <c r="B102" s="9">
         <v>41683</v>
       </c>
@@ -4148,7 +4145,7 @@
       <c r="N102" s="52"/>
     </row>
     <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="99"/>
+      <c r="A103" s="70"/>
       <c r="B103" s="9">
         <v>41684</v>
       </c>
@@ -4166,7 +4163,7 @@
       <c r="N103" s="52"/>
     </row>
     <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="100">
+      <c r="A104" s="66">
         <v>16</v>
       </c>
       <c r="B104" s="2">
@@ -4186,7 +4183,7 @@
       <c r="N104" s="52"/>
     </row>
     <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="100"/>
+      <c r="A105" s="66"/>
       <c r="B105" s="2">
         <v>41688</v>
       </c>
@@ -4204,7 +4201,7 @@
       <c r="N105" s="52"/>
     </row>
     <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="100"/>
+      <c r="A106" s="66"/>
       <c r="B106" s="2">
         <v>41689</v>
       </c>
@@ -4222,7 +4219,7 @@
       <c r="N106" s="52"/>
     </row>
     <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="100"/>
+      <c r="A107" s="66"/>
       <c r="B107" s="2">
         <v>41690</v>
       </c>
@@ -4240,7 +4237,7 @@
       <c r="N107" s="52"/>
     </row>
     <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="100"/>
+      <c r="A108" s="66"/>
       <c r="B108" s="2">
         <v>41691</v>
       </c>
@@ -4258,7 +4255,7 @@
       <c r="N108" s="52"/>
     </row>
     <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="99">
+      <c r="A109" s="70">
         <v>17</v>
       </c>
       <c r="B109" s="9">
@@ -4278,7 +4275,7 @@
       <c r="N109" s="52"/>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="99"/>
+      <c r="A110" s="70"/>
       <c r="B110" s="9">
         <v>41695</v>
       </c>
@@ -4296,7 +4293,7 @@
       <c r="N110" s="52"/>
     </row>
     <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="99"/>
+      <c r="A111" s="70"/>
       <c r="B111" s="9">
         <v>41696</v>
       </c>
@@ -4314,7 +4311,7 @@
       <c r="N111" s="52"/>
     </row>
     <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="99"/>
+      <c r="A112" s="70"/>
       <c r="B112" s="9">
         <v>41697</v>
       </c>
@@ -4332,7 +4329,7 @@
       <c r="N112" s="52"/>
     </row>
     <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="99"/>
+      <c r="A113" s="70"/>
       <c r="B113" s="9">
         <v>41698</v>
       </c>
@@ -4350,7 +4347,7 @@
       <c r="N113" s="52"/>
     </row>
     <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="100">
+      <c r="A114" s="66">
         <v>18</v>
       </c>
       <c r="B114" s="2">
@@ -4370,7 +4367,7 @@
       <c r="N114" s="52"/>
     </row>
     <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="100"/>
+      <c r="A115" s="66"/>
       <c r="B115" s="2">
         <v>41702</v>
       </c>
@@ -4388,7 +4385,7 @@
       <c r="N115" s="52"/>
     </row>
     <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="100"/>
+      <c r="A116" s="66"/>
       <c r="B116" s="2">
         <v>41703</v>
       </c>
@@ -4406,7 +4403,7 @@
       <c r="N116" s="52"/>
     </row>
     <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="100"/>
+      <c r="A117" s="66"/>
       <c r="B117" s="2">
         <v>41704</v>
       </c>
@@ -4424,7 +4421,7 @@
       <c r="N117" s="52"/>
     </row>
     <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="100"/>
+      <c r="A118" s="66"/>
       <c r="B118" s="2">
         <v>41705</v>
       </c>
@@ -4442,7 +4439,7 @@
       <c r="N118" s="52"/>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="99">
+      <c r="A119" s="70">
         <v>19</v>
       </c>
       <c r="B119" s="9">
@@ -4462,7 +4459,7 @@
       <c r="N119" s="52"/>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="99"/>
+      <c r="A120" s="70"/>
       <c r="B120" s="9">
         <v>41709</v>
       </c>
@@ -4480,7 +4477,7 @@
       <c r="N120" s="52"/>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="99"/>
+      <c r="A121" s="70"/>
       <c r="B121" s="9">
         <v>41710</v>
       </c>
@@ -4498,7 +4495,7 @@
       <c r="N121" s="52"/>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="99"/>
+      <c r="A122" s="70"/>
       <c r="B122" s="9">
         <v>41711</v>
       </c>
@@ -4516,7 +4513,7 @@
       <c r="N122" s="52"/>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="99"/>
+      <c r="A123" s="70"/>
       <c r="B123" s="9">
         <v>41712</v>
       </c>
@@ -4534,7 +4531,7 @@
       <c r="N123" s="52"/>
     </row>
     <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="100">
+      <c r="A124" s="66">
         <v>20</v>
       </c>
       <c r="B124" s="2">
@@ -4554,7 +4551,7 @@
       <c r="N124" s="52"/>
     </row>
     <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="100"/>
+      <c r="A125" s="66"/>
       <c r="B125" s="2">
         <v>41716</v>
       </c>
@@ -4572,7 +4569,7 @@
       <c r="N125" s="52"/>
     </row>
     <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="100"/>
+      <c r="A126" s="66"/>
       <c r="B126" s="2">
         <v>41717</v>
       </c>
@@ -4590,7 +4587,7 @@
       <c r="N126" s="52"/>
     </row>
     <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="100"/>
+      <c r="A127" s="66"/>
       <c r="B127" s="2">
         <v>41718</v>
       </c>
@@ -4608,7 +4605,7 @@
       <c r="N127" s="52"/>
     </row>
     <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="100"/>
+      <c r="A128" s="66"/>
       <c r="B128" s="2">
         <v>41719</v>
       </c>
@@ -4626,7 +4623,7 @@
       <c r="N128" s="52"/>
     </row>
     <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="99">
+      <c r="A129" s="70">
         <v>21</v>
       </c>
       <c r="B129" s="9">
@@ -4646,7 +4643,7 @@
       <c r="N129" s="52"/>
     </row>
     <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="99"/>
+      <c r="A130" s="70"/>
       <c r="B130" s="9">
         <v>41723</v>
       </c>
@@ -4664,7 +4661,7 @@
       <c r="N130" s="52"/>
     </row>
     <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="99"/>
+      <c r="A131" s="70"/>
       <c r="B131" s="9">
         <v>41724</v>
       </c>
@@ -4682,7 +4679,7 @@
       <c r="N131" s="52"/>
     </row>
     <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="99"/>
+      <c r="A132" s="70"/>
       <c r="B132" s="9">
         <v>41725</v>
       </c>
@@ -4700,7 +4697,7 @@
       <c r="N132" s="52"/>
     </row>
     <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="99"/>
+      <c r="A133" s="70"/>
       <c r="B133" s="9">
         <v>41726</v>
       </c>
@@ -4718,7 +4715,7 @@
       <c r="N133" s="52"/>
     </row>
     <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="100">
+      <c r="A134" s="66">
         <v>22</v>
       </c>
       <c r="B134" s="2">
@@ -4738,7 +4735,7 @@
       <c r="N134" s="52"/>
     </row>
     <row r="135" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="100"/>
+      <c r="A135" s="66"/>
       <c r="B135" s="2">
         <v>41730</v>
       </c>
@@ -4756,7 +4753,7 @@
       <c r="N135" s="52"/>
     </row>
     <row r="136" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="100"/>
+      <c r="A136" s="66"/>
       <c r="B136" s="2">
         <v>41731</v>
       </c>
@@ -4774,7 +4771,7 @@
       <c r="N136" s="52"/>
     </row>
     <row r="137" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="100"/>
+      <c r="A137" s="66"/>
       <c r="B137" s="2">
         <v>41732</v>
       </c>
@@ -4792,7 +4789,7 @@
       <c r="N137" s="52"/>
     </row>
     <row r="138" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="100"/>
+      <c r="A138" s="66"/>
       <c r="B138" s="2">
         <v>41733</v>
       </c>
@@ -4810,7 +4807,7 @@
       <c r="N138" s="52"/>
     </row>
     <row r="139" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="99">
+      <c r="A139" s="70">
         <v>23</v>
       </c>
       <c r="B139" s="9">
@@ -4830,7 +4827,7 @@
       <c r="N139" s="52"/>
     </row>
     <row r="140" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="99"/>
+      <c r="A140" s="70"/>
       <c r="B140" s="9">
         <v>41737</v>
       </c>
@@ -4848,7 +4845,7 @@
       <c r="N140" s="52"/>
     </row>
     <row r="141" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="99"/>
+      <c r="A141" s="70"/>
       <c r="B141" s="9">
         <v>41738</v>
       </c>
@@ -4866,7 +4863,7 @@
       <c r="N141" s="52"/>
     </row>
     <row r="142" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="99"/>
+      <c r="A142" s="70"/>
       <c r="B142" s="9">
         <v>41739</v>
       </c>
@@ -4884,7 +4881,7 @@
       <c r="N142" s="52"/>
     </row>
     <row r="143" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="99"/>
+      <c r="A143" s="70"/>
       <c r="B143" s="9">
         <v>41740</v>
       </c>
@@ -4902,7 +4899,7 @@
       <c r="N143" s="52"/>
     </row>
     <row r="144" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="100">
+      <c r="A144" s="66">
         <v>24</v>
       </c>
       <c r="B144" s="2">
@@ -4922,7 +4919,7 @@
       <c r="N144" s="52"/>
     </row>
     <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="100"/>
+      <c r="A145" s="66"/>
       <c r="B145" s="2">
         <v>41744</v>
       </c>
@@ -4940,7 +4937,7 @@
       <c r="N145" s="52"/>
     </row>
     <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="100"/>
+      <c r="A146" s="66"/>
       <c r="B146" s="2">
         <v>41745</v>
       </c>
@@ -4958,7 +4955,7 @@
       <c r="N146" s="52"/>
     </row>
     <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="100"/>
+      <c r="A147" s="66"/>
       <c r="B147" s="2">
         <v>41746</v>
       </c>
@@ -4976,7 +4973,7 @@
       <c r="N147" s="52"/>
     </row>
     <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="100"/>
+      <c r="A148" s="66"/>
       <c r="B148" s="2">
         <v>41747</v>
       </c>
@@ -4994,7 +4991,7 @@
       <c r="N148" s="52"/>
     </row>
     <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="99">
+      <c r="A149" s="70">
         <v>25</v>
       </c>
       <c r="B149" s="9">
@@ -5014,7 +5011,7 @@
       <c r="N149" s="52"/>
     </row>
     <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="99"/>
+      <c r="A150" s="70"/>
       <c r="B150" s="9">
         <v>41751</v>
       </c>
@@ -5032,7 +5029,7 @@
       <c r="N150" s="52"/>
     </row>
     <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="99"/>
+      <c r="A151" s="70"/>
       <c r="B151" s="9">
         <v>41752</v>
       </c>
@@ -5050,7 +5047,7 @@
       <c r="N151" s="52"/>
     </row>
     <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="99"/>
+      <c r="A152" s="70"/>
       <c r="B152" s="9">
         <v>41753</v>
       </c>
@@ -5068,7 +5065,7 @@
       <c r="N152" s="52"/>
     </row>
     <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="99"/>
+      <c r="A153" s="70"/>
       <c r="B153" s="9">
         <v>41754</v>
       </c>
@@ -5086,7 +5083,7 @@
       <c r="N153" s="52"/>
     </row>
     <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="100">
+      <c r="A154" s="66">
         <v>26</v>
       </c>
       <c r="B154" s="2">
@@ -5106,7 +5103,7 @@
       <c r="N154" s="52"/>
     </row>
     <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="100"/>
+      <c r="A155" s="66"/>
       <c r="B155" s="2">
         <v>41758</v>
       </c>
@@ -5124,7 +5121,7 @@
       <c r="N155" s="52"/>
     </row>
     <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="100"/>
+      <c r="A156" s="66"/>
       <c r="B156" s="2">
         <v>41759</v>
       </c>
@@ -5142,7 +5139,7 @@
       <c r="N156" s="52"/>
     </row>
     <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="100"/>
+      <c r="A157" s="66"/>
       <c r="B157" s="2">
         <v>41760</v>
       </c>
@@ -5160,7 +5157,7 @@
       <c r="N157" s="52"/>
     </row>
     <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="100"/>
+      <c r="A158" s="66"/>
       <c r="B158" s="2">
         <v>41761</v>
       </c>
@@ -5178,7 +5175,7 @@
       <c r="N158" s="52"/>
     </row>
     <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="99">
+      <c r="A159" s="70">
         <v>27</v>
       </c>
       <c r="B159" s="9">
@@ -5198,7 +5195,7 @@
       <c r="N159" s="52"/>
     </row>
     <row r="160" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="99"/>
+      <c r="A160" s="70"/>
       <c r="B160" s="9">
         <v>41765</v>
       </c>
@@ -5216,7 +5213,7 @@
       <c r="N160" s="52"/>
     </row>
     <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="99"/>
+      <c r="A161" s="70"/>
       <c r="B161" s="9">
         <v>41766</v>
       </c>
@@ -5234,7 +5231,7 @@
       <c r="N161" s="52"/>
     </row>
     <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="99"/>
+      <c r="A162" s="70"/>
       <c r="B162" s="9">
         <v>41767</v>
       </c>
@@ -5252,7 +5249,7 @@
       <c r="N162" s="52"/>
     </row>
     <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="99"/>
+      <c r="A163" s="70"/>
       <c r="B163" s="9">
         <v>41768</v>
       </c>
@@ -5270,7 +5267,7 @@
       <c r="N163" s="52"/>
     </row>
     <row r="164" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="100">
+      <c r="A164" s="66">
         <v>28</v>
       </c>
       <c r="B164" s="2">
@@ -5290,7 +5287,7 @@
       <c r="N164" s="52"/>
     </row>
     <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="100"/>
+      <c r="A165" s="66"/>
       <c r="B165" s="2">
         <v>41772</v>
       </c>
@@ -5308,7 +5305,7 @@
       <c r="N165" s="52"/>
     </row>
     <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="100"/>
+      <c r="A166" s="66"/>
       <c r="B166" s="2">
         <v>41773</v>
       </c>
@@ -5326,7 +5323,7 @@
       <c r="N166" s="52"/>
     </row>
     <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="100"/>
+      <c r="A167" s="66"/>
       <c r="B167" s="2">
         <v>41774</v>
       </c>
@@ -5344,7 +5341,7 @@
       <c r="N167" s="52"/>
     </row>
     <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="100"/>
+      <c r="A168" s="66"/>
       <c r="B168" s="2">
         <v>41775</v>
       </c>
@@ -5362,7 +5359,7 @@
       <c r="N168" s="52"/>
     </row>
     <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="99">
+      <c r="A169" s="70">
         <v>29</v>
       </c>
       <c r="B169" s="9">
@@ -5382,7 +5379,7 @@
       <c r="N169" s="52"/>
     </row>
     <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="99"/>
+      <c r="A170" s="70"/>
       <c r="B170" s="9">
         <v>41779</v>
       </c>
@@ -5400,7 +5397,7 @@
       <c r="N170" s="52"/>
     </row>
     <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="99"/>
+      <c r="A171" s="70"/>
       <c r="B171" s="9">
         <v>41780</v>
       </c>
@@ -5418,7 +5415,7 @@
       <c r="N171" s="52"/>
     </row>
     <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="99"/>
+      <c r="A172" s="70"/>
       <c r="B172" s="9">
         <v>41781</v>
       </c>
@@ -5436,7 +5433,7 @@
       <c r="N172" s="52"/>
     </row>
     <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="99"/>
+      <c r="A173" s="70"/>
       <c r="B173" s="9">
         <v>41782</v>
       </c>
@@ -5454,7 +5451,7 @@
       <c r="N173" s="52"/>
     </row>
     <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="102">
+      <c r="A174" s="80">
         <v>30</v>
       </c>
       <c r="B174" s="2">
@@ -5474,7 +5471,7 @@
       <c r="N174" s="52"/>
     </row>
     <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="102"/>
+      <c r="A175" s="80"/>
       <c r="B175" s="2">
         <v>41786</v>
       </c>
@@ -5492,7 +5489,7 @@
       <c r="N175" s="52"/>
     </row>
     <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="102"/>
+      <c r="A176" s="80"/>
       <c r="B176" s="2">
         <v>41787</v>
       </c>
@@ -5510,7 +5507,7 @@
       <c r="N176" s="52"/>
     </row>
     <row r="177" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="102"/>
+      <c r="A177" s="80"/>
       <c r="B177" s="2">
         <v>41788</v>
       </c>
@@ -5528,7 +5525,7 @@
       <c r="N177" s="52"/>
     </row>
     <row r="178" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="102"/>
+      <c r="A178" s="80"/>
       <c r="B178" s="2">
         <v>41789</v>
       </c>
@@ -5546,7 +5543,7 @@
       <c r="N178" s="52"/>
     </row>
     <row r="179" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="102"/>
+      <c r="A179" s="80"/>
       <c r="B179" s="10">
         <v>41790</v>
       </c>
@@ -6116,7 +6113,47 @@
       <c r="J213" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="56">
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A99:A103"/>
     <mergeCell ref="A35:A48"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A159:A163"/>
@@ -6133,45 +6170,6 @@
     <mergeCell ref="F41:F44"/>
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B47:B48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="A169:A173"/>
-    <mergeCell ref="A174:A179"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F23:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -6537,7 +6535,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F45:F47</xm:sqref>
+          <xm:sqref>F45 F47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{CFC03F01-B4FB-415A-A288-68BA86806685}">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thienphu\Desktop\Capstone\1. Project management\9. Timelog\individual time log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="List main task" sheetId="2" r:id="rId1"/>
     <sheet name="AS-PROJECT" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="147">
   <si>
     <t>Week</t>
   </si>
@@ -500,6 +495,17 @@
   <si>
     <t>Update Functional, Quality Attribute and Entity of Module Soan Tin
 Update timlog</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t>Review documents:
+Master plan
+Risk management
+Measuremet
+Process
+Entities</t>
   </si>
 </sst>
 </file>
@@ -509,7 +515,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,12 +1000,129 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1009,18 +1132,6 @@
     <xf numFmtId="16" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1030,112 +1141,7 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1198,7 +1204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1233,7 +1239,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1410,7 +1416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1424,13 +1430,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
         <v>31</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -1454,7 +1460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="15">
         <v>3</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="15">
         <v>4</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -1478,7 +1484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="15">
         <v>6</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="15">
         <v>7</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="15">
         <v>8</v>
       </c>
@@ -1502,7 +1508,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="15">
         <v>9</v>
       </c>
@@ -1510,7 +1516,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="15">
         <v>10</v>
       </c>
@@ -1518,7 +1524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="15">
         <v>11</v>
       </c>
@@ -1536,13 +1542,13 @@
   <dimension ref="A1:N213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="H54:H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
@@ -1560,83 +1566,83 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="90"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="77"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="91" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="93"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="80"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A3" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="96"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="103"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="99"/>
-    </row>
-    <row r="5" spans="1:14" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="108"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="110"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="83"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="86"/>
+    </row>
+    <row r="5" spans="1:14" ht="51.75">
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="32"/>
       <c r="H5" s="56" t="s">
         <v>112</v>
@@ -1650,7 +1656,7 @@
       <c r="M5" s="34"/>
       <c r="N5" s="34"/>
     </row>
-    <row r="6" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="33">
       <c r="A6" s="36" t="s">
         <v>0</v>
       </c>
@@ -1681,12 +1687,12 @@
       <c r="J6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1712,20 +1718,20 @@
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="106" t="s">
+      <c r="K7" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="106"/>
+      <c r="L7" s="93"/>
       <c r="M7" s="38">
         <f>SUM(M8:M37)</f>
-        <v>77.010000000000005</v>
+        <v>81.510000000000005</v>
       </c>
       <c r="N7" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
+    <row r="8" spans="1:14" ht="16.5">
+      <c r="A8" s="98">
         <v>2</v>
       </c>
       <c r="B8" s="2">
@@ -1740,7 +1746,7 @@
       <c r="E8" s="13">
         <v>1.5</v>
       </c>
-      <c r="F8" s="111">
+      <c r="F8" s="67">
         <f>SUM(E8:E9)</f>
         <v>3</v>
       </c>
@@ -1764,8 +1770,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
+    <row r="9" spans="1:14" ht="33">
+      <c r="A9" s="99"/>
       <c r="B9" s="2">
         <v>41589</v>
       </c>
@@ -1778,7 +1784,7 @@
       <c r="E9" s="13">
         <v>1.5</v>
       </c>
-      <c r="F9" s="112"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1799,8 +1805,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
+    <row r="10" spans="1:14" ht="66">
+      <c r="A10" s="99"/>
       <c r="B10" s="2">
         <v>41590</v>
       </c>
@@ -1813,7 +1819,7 @@
       <c r="E10" s="13">
         <v>2</v>
       </c>
-      <c r="F10" s="111">
+      <c r="F10" s="67">
         <f>SUM(E10:E11)</f>
         <v>4</v>
       </c>
@@ -1837,8 +1843,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
+    <row r="11" spans="1:14" ht="33">
+      <c r="A11" s="99"/>
       <c r="B11" s="2">
         <v>41590</v>
       </c>
@@ -1851,7 +1857,7 @@
       <c r="E11" s="13">
         <v>2</v>
       </c>
-      <c r="F11" s="112"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1872,8 +1878,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
+    <row r="12" spans="1:14" ht="82.5">
+      <c r="A12" s="99"/>
       <c r="B12" s="2">
         <v>41591</v>
       </c>
@@ -1904,14 +1910,14 @@
       <c r="L12" s="44"/>
       <c r="M12" s="45">
         <f>SUM(F49:F53)</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N12" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
+    <row r="13" spans="1:14" ht="16.5">
+      <c r="A13" s="99"/>
       <c r="B13" s="2">
         <v>41592</v>
       </c>
@@ -1924,7 +1930,7 @@
       <c r="E13" s="13">
         <v>1</v>
       </c>
-      <c r="F13" s="111">
+      <c r="F13" s="67">
         <f>SUM(E13:E14)</f>
         <v>2.25</v>
       </c>
@@ -1948,8 +1954,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
+    <row r="14" spans="1:14" ht="16.5">
+      <c r="A14" s="99"/>
       <c r="B14" s="2">
         <v>41592</v>
       </c>
@@ -1962,7 +1968,7 @@
       <c r="E14" s="13">
         <v>1.25</v>
       </c>
-      <c r="F14" s="112"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="21" t="s">
         <v>28</v>
       </c>
@@ -1983,8 +1989,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
+    <row r="15" spans="1:14" ht="33">
+      <c r="A15" s="99"/>
       <c r="B15" s="2">
         <v>41593</v>
       </c>
@@ -2021,8 +2027,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+    <row r="16" spans="1:14" ht="16.5">
+      <c r="A16" s="99"/>
       <c r="B16" s="23">
         <v>41594</v>
       </c>
@@ -2059,8 +2065,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
+    <row r="17" spans="1:14" ht="33">
+      <c r="A17" s="100"/>
       <c r="B17" s="23">
         <v>41595</v>
       </c>
@@ -2097,8 +2103,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="84">
+    <row r="18" spans="1:14" ht="16.5">
+      <c r="A18" s="103">
         <v>3</v>
       </c>
       <c r="B18" s="9">
@@ -2137,9 +2143,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="67">
+    <row r="19" spans="1:14" ht="82.5">
+      <c r="A19" s="101"/>
+      <c r="B19" s="106">
         <v>41597</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2151,7 +2157,7 @@
       <c r="E19" s="22">
         <v>1</v>
       </c>
-      <c r="F19" s="71">
+      <c r="F19" s="69">
         <f>SUM(E19:E21)</f>
         <v>4.6500000000000004</v>
       </c>
@@ -2175,9 +2181,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="68"/>
+    <row r="20" spans="1:14" ht="33">
+      <c r="A20" s="101"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="3" t="s">
         <v>91</v>
       </c>
@@ -2187,7 +2193,7 @@
       <c r="E20" s="22">
         <v>1.5</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="70"/>
       <c r="G20" s="28" t="s">
         <v>27</v>
       </c>
@@ -2210,9 +2216,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="69"/>
+    <row r="21" spans="1:14" ht="33">
+      <c r="A21" s="101"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
@@ -2222,7 +2228,7 @@
       <c r="E21" s="22">
         <v>2.15</v>
       </c>
-      <c r="F21" s="73"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="28" t="s">
         <v>27</v>
       </c>
@@ -2245,8 +2251,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
+    <row r="22" spans="1:14" ht="66">
+      <c r="A22" s="101"/>
       <c r="B22" s="9">
         <v>41598</v>
       </c>
@@ -2285,9 +2291,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="70"/>
-      <c r="B23" s="67">
+    <row r="23" spans="1:14" ht="49.5">
+      <c r="A23" s="101"/>
+      <c r="B23" s="106">
         <v>41599</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2299,7 +2305,7 @@
       <c r="E23" s="22">
         <v>1</v>
       </c>
-      <c r="F23" s="71">
+      <c r="F23" s="69">
         <f>SUM(E23:E28)</f>
         <v>9.65</v>
       </c>
@@ -2325,9 +2331,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
-      <c r="B24" s="68"/>
+    <row r="24" spans="1:14" ht="115.5">
+      <c r="A24" s="101"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
@@ -2337,7 +2343,7 @@
       <c r="E24" s="22">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F24" s="72"/>
+      <c r="F24" s="70"/>
       <c r="G24" s="29" t="s">
         <v>28</v>
       </c>
@@ -2358,9 +2364,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="68"/>
+    <row r="25" spans="1:14" ht="16.5">
+      <c r="A25" s="101"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="3" t="s">
         <v>101</v>
       </c>
@@ -2370,7 +2376,7 @@
       <c r="E25" s="22">
         <v>1.33</v>
       </c>
-      <c r="F25" s="72"/>
+      <c r="F25" s="70"/>
       <c r="G25" s="26" t="s">
         <v>64</v>
       </c>
@@ -2391,9 +2397,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="68"/>
+    <row r="26" spans="1:14" ht="16.5">
+      <c r="A26" s="101"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
@@ -2403,7 +2409,7 @@
       <c r="E26" s="22">
         <v>1.5</v>
       </c>
-      <c r="F26" s="72"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="28" t="s">
         <v>27</v>
       </c>
@@ -2424,9 +2430,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="68"/>
+    <row r="27" spans="1:14" ht="16.5">
+      <c r="A27" s="101"/>
+      <c r="B27" s="107"/>
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
@@ -2436,7 +2442,7 @@
       <c r="E27" s="22">
         <v>2.16</v>
       </c>
-      <c r="F27" s="72"/>
+      <c r="F27" s="70"/>
       <c r="G27" s="26" t="s">
         <v>64</v>
       </c>
@@ -2457,9 +2463,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="69"/>
+    <row r="28" spans="1:14" ht="49.5">
+      <c r="A28" s="101"/>
+      <c r="B28" s="108"/>
       <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
@@ -2469,7 +2475,7 @@
       <c r="E28" s="22">
         <v>2.5</v>
       </c>
-      <c r="F28" s="73"/>
+      <c r="F28" s="71"/>
       <c r="G28" s="28" t="s">
         <v>27</v>
       </c>
@@ -2492,9 +2498,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="67">
+    <row r="29" spans="1:14" ht="33">
+      <c r="A29" s="101"/>
+      <c r="B29" s="106">
         <v>41600</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2506,7 +2512,7 @@
       <c r="E29" s="22">
         <v>1.5</v>
       </c>
-      <c r="F29" s="71">
+      <c r="F29" s="69">
         <f>SUM(E29:E31)</f>
         <v>5.5</v>
       </c>
@@ -2532,9 +2538,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="68"/>
+    <row r="30" spans="1:14" ht="33">
+      <c r="A30" s="101"/>
+      <c r="B30" s="107"/>
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
@@ -2544,7 +2550,7 @@
       <c r="E30" s="22">
         <v>1.5</v>
       </c>
-      <c r="F30" s="72"/>
+      <c r="F30" s="70"/>
       <c r="G30" s="28" t="s">
         <v>27</v>
       </c>
@@ -2567,9 +2573,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
-      <c r="B31" s="69"/>
+    <row r="31" spans="1:14" ht="49.5">
+      <c r="A31" s="101"/>
+      <c r="B31" s="108"/>
       <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
@@ -2579,7 +2585,7 @@
       <c r="E31" s="22">
         <v>2.5</v>
       </c>
-      <c r="F31" s="73"/>
+      <c r="F31" s="71"/>
       <c r="G31" s="28" t="s">
         <v>27</v>
       </c>
@@ -2602,9 +2608,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
-      <c r="B32" s="67">
+    <row r="32" spans="1:14" ht="33">
+      <c r="A32" s="101"/>
+      <c r="B32" s="106">
         <v>41601</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2616,7 +2622,7 @@
       <c r="E32" s="22">
         <v>1.5</v>
       </c>
-      <c r="F32" s="71">
+      <c r="F32" s="69">
         <f>SUM(E32:E33)</f>
         <v>2.5</v>
       </c>
@@ -2640,9 +2646,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="70"/>
-      <c r="B33" s="69"/>
+    <row r="33" spans="1:14" ht="49.5">
+      <c r="A33" s="101"/>
+      <c r="B33" s="108"/>
       <c r="C33" s="3" t="s">
         <v>83</v>
       </c>
@@ -2652,7 +2658,7 @@
       <c r="E33" s="22">
         <v>1</v>
       </c>
-      <c r="F33" s="73"/>
+      <c r="F33" s="71"/>
       <c r="G33" s="28" t="s">
         <v>27</v>
       </c>
@@ -2675,7 +2681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="16.5">
       <c r="A34" s="57"/>
       <c r="B34" s="9">
         <v>41602</v>
@@ -2713,8 +2719,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="65">
+    <row r="35" spans="1:14" ht="16.5">
+      <c r="A35" s="105">
         <v>4</v>
       </c>
       <c r="B35" s="2">
@@ -2753,9 +2759,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="66"/>
-      <c r="B36" s="74">
+    <row r="36" spans="1:14" ht="16.5">
+      <c r="A36" s="102"/>
+      <c r="B36" s="109">
         <v>41604</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -2767,7 +2773,7 @@
       <c r="E36" s="25">
         <v>2.5</v>
       </c>
-      <c r="F36" s="77">
+      <c r="F36" s="65">
         <f>SUM(E36:E38)</f>
         <v>5.25</v>
       </c>
@@ -2791,9 +2797,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
-      <c r="B37" s="75"/>
+    <row r="37" spans="1:14" ht="33">
+      <c r="A37" s="102"/>
+      <c r="B37" s="110"/>
       <c r="C37" s="24" t="s">
         <v>63</v>
       </c>
@@ -2803,7 +2809,7 @@
       <c r="E37" s="25">
         <v>1.25</v>
       </c>
-      <c r="F37" s="78"/>
+      <c r="F37" s="112"/>
       <c r="G37" s="59" t="s">
         <v>64</v>
       </c>
@@ -2824,9 +2830,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A38" s="66"/>
-      <c r="B38" s="76"/>
+    <row r="38" spans="1:14" ht="33">
+      <c r="A38" s="102"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="24" t="s">
         <v>84</v>
       </c>
@@ -2836,7 +2842,7 @@
       <c r="E38" s="25">
         <v>1.5</v>
       </c>
-      <c r="F38" s="79"/>
+      <c r="F38" s="66"/>
       <c r="G38" s="59" t="s">
         <v>27</v>
       </c>
@@ -2850,9 +2856,9 @@
       <c r="M38" s="52"/>
       <c r="N38" s="52"/>
     </row>
-    <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="66"/>
-      <c r="B39" s="74">
+    <row r="39" spans="1:14" ht="16.5">
+      <c r="A39" s="102"/>
+      <c r="B39" s="109">
         <v>41605</v>
       </c>
       <c r="C39" s="24" t="s">
@@ -2864,7 +2870,7 @@
       <c r="E39" s="25">
         <v>1</v>
       </c>
-      <c r="F39" s="77">
+      <c r="F39" s="65">
         <f>SUM(E39:E40)</f>
         <v>3.33</v>
       </c>
@@ -2881,9 +2887,9 @@
       <c r="M39" s="52"/>
       <c r="N39" s="52"/>
     </row>
-    <row r="40" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="66"/>
-      <c r="B40" s="76"/>
+    <row r="40" spans="1:14" ht="49.5">
+      <c r="A40" s="102"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="24" t="s">
         <v>63</v>
       </c>
@@ -2893,7 +2899,7 @@
       <c r="E40" s="25">
         <v>2.33</v>
       </c>
-      <c r="F40" s="79"/>
+      <c r="F40" s="66"/>
       <c r="G40" s="59" t="s">
         <v>64</v>
       </c>
@@ -2907,9 +2913,9 @@
       <c r="M40" s="52"/>
       <c r="N40" s="52"/>
     </row>
-    <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="66"/>
-      <c r="B41" s="74">
+    <row r="41" spans="1:14" ht="16.5">
+      <c r="A41" s="102"/>
+      <c r="B41" s="109">
         <v>41606</v>
       </c>
       <c r="C41" s="61" t="s">
@@ -2921,7 +2927,7 @@
       <c r="E41" s="61">
         <v>1.33</v>
       </c>
-      <c r="F41" s="77">
+      <c r="F41" s="65">
         <f>SUM(E41:E44)</f>
         <v>8.33</v>
       </c>
@@ -2938,9 +2944,9 @@
       <c r="M41" s="52"/>
       <c r="N41" s="52"/>
     </row>
-    <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="66"/>
-      <c r="B42" s="75"/>
+    <row r="42" spans="1:14" ht="16.5">
+      <c r="A42" s="102"/>
+      <c r="B42" s="110"/>
       <c r="C42" s="61" t="s">
         <v>135</v>
       </c>
@@ -2950,7 +2956,7 @@
       <c r="E42" s="61">
         <v>1.75</v>
       </c>
-      <c r="F42" s="78"/>
+      <c r="F42" s="112"/>
       <c r="G42" s="59" t="s">
         <v>30</v>
       </c>
@@ -2964,9 +2970,9 @@
       <c r="M42" s="52"/>
       <c r="N42" s="52"/>
     </row>
-    <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="66"/>
-      <c r="B43" s="75"/>
+    <row r="43" spans="1:14" ht="16.5">
+      <c r="A43" s="102"/>
+      <c r="B43" s="110"/>
       <c r="C43" s="61" t="s">
         <v>63</v>
       </c>
@@ -2976,7 +2982,7 @@
       <c r="E43" s="61">
         <v>2.75</v>
       </c>
-      <c r="F43" s="78"/>
+      <c r="F43" s="112"/>
       <c r="G43" s="59" t="s">
         <v>24</v>
       </c>
@@ -2990,9 +2996,9 @@
       <c r="M43" s="52"/>
       <c r="N43" s="52"/>
     </row>
-    <row r="44" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A44" s="66"/>
-      <c r="B44" s="76"/>
+    <row r="44" spans="1:14" ht="33">
+      <c r="A44" s="102"/>
+      <c r="B44" s="111"/>
       <c r="C44" s="61" t="s">
         <v>67</v>
       </c>
@@ -3002,7 +3008,7 @@
       <c r="E44" s="25">
         <v>2.5</v>
       </c>
-      <c r="F44" s="79"/>
+      <c r="F44" s="66"/>
       <c r="G44" s="59" t="s">
         <v>27</v>
       </c>
@@ -3016,9 +3022,9 @@
       <c r="M44" s="52"/>
       <c r="N44" s="52"/>
     </row>
-    <row r="45" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A45" s="66"/>
-      <c r="B45" s="74">
+    <row r="45" spans="1:14" ht="66">
+      <c r="A45" s="102"/>
+      <c r="B45" s="109">
         <v>41607</v>
       </c>
       <c r="C45" s="24" t="s">
@@ -3030,7 +3036,7 @@
       <c r="E45" s="25">
         <v>3.5</v>
       </c>
-      <c r="F45" s="77">
+      <c r="F45" s="65">
         <f>SUM(E45:E46)</f>
         <v>4.5</v>
       </c>
@@ -3047,9 +3053,9 @@
       <c r="M45" s="52"/>
       <c r="N45" s="52"/>
     </row>
-    <row r="46" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
-      <c r="B46" s="76"/>
+    <row r="46" spans="1:14" ht="33">
+      <c r="A46" s="102"/>
+      <c r="B46" s="111"/>
       <c r="C46" s="24" t="s">
         <v>83</v>
       </c>
@@ -3059,7 +3065,7 @@
       <c r="E46" s="25">
         <v>1</v>
       </c>
-      <c r="F46" s="79"/>
+      <c r="F46" s="66"/>
       <c r="G46" s="59" t="s">
         <v>27</v>
       </c>
@@ -3073,9 +3079,9 @@
       <c r="M46" s="52"/>
       <c r="N46" s="52"/>
     </row>
-    <row r="47" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
-      <c r="B47" s="74">
+    <row r="47" spans="1:14" ht="33">
+      <c r="A47" s="102"/>
+      <c r="B47" s="109">
         <v>41609</v>
       </c>
       <c r="C47" s="24" t="s">
@@ -3087,7 +3093,7 @@
       <c r="E47" s="25">
         <v>3.5</v>
       </c>
-      <c r="F47" s="77">
+      <c r="F47" s="65">
         <f>SUM(E47:E48)</f>
         <v>5</v>
       </c>
@@ -3104,9 +3110,9 @@
       <c r="M47" s="52"/>
       <c r="N47" s="52"/>
     </row>
-    <row r="48" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
-      <c r="B48" s="76"/>
+    <row r="48" spans="1:14" ht="49.5">
+      <c r="A48" s="102"/>
+      <c r="B48" s="111"/>
       <c r="C48" s="24" t="s">
         <v>69</v>
       </c>
@@ -3116,7 +3122,7 @@
       <c r="E48" s="25">
         <v>1.5</v>
       </c>
-      <c r="F48" s="79"/>
+      <c r="F48" s="66"/>
       <c r="G48" s="59" t="s">
         <v>27</v>
       </c>
@@ -3130,7 +3136,7 @@
       <c r="M48" s="52"/>
       <c r="N48" s="52"/>
     </row>
-    <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="16.5">
       <c r="A49" s="64">
         <v>5</v>
       </c>
@@ -3150,7 +3156,7 @@
       <c r="M49" s="52"/>
       <c r="N49" s="52"/>
     </row>
-    <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="16.5">
       <c r="A50" s="64"/>
       <c r="B50" s="9">
         <v>41611</v>
@@ -3168,17 +3174,30 @@
       <c r="M50" s="52"/>
       <c r="N50" s="52"/>
     </row>
-    <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="99">
       <c r="A51" s="64"/>
       <c r="B51" s="9">
         <v>41612</v>
       </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
+      <c r="C51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="F51" s="54">
+        <f t="shared" ref="F51" si="5">E51</f>
+        <v>4.5</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>146</v>
+      </c>
       <c r="I51" s="37"/>
       <c r="J51" s="37"/>
       <c r="K51" s="52"/>
@@ -3186,7 +3205,7 @@
       <c r="M51" s="52"/>
       <c r="N51" s="52"/>
     </row>
-    <row r="52" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="16.5">
       <c r="A52" s="64"/>
       <c r="B52" s="9">
         <v>41613</v>
@@ -3204,7 +3223,7 @@
       <c r="M52" s="52"/>
       <c r="N52" s="52"/>
     </row>
-    <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="16.5">
       <c r="A53" s="64"/>
       <c r="B53" s="9">
         <v>41614</v>
@@ -3222,8 +3241,8 @@
       <c r="M53" s="52"/>
       <c r="N53" s="52"/>
     </row>
-    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="66">
+    <row r="54" spans="1:14" ht="16.5">
+      <c r="A54" s="102">
         <v>6</v>
       </c>
       <c r="B54" s="2">
@@ -3242,8 +3261,8 @@
       <c r="M54" s="52"/>
       <c r="N54" s="52"/>
     </row>
-    <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="66"/>
+    <row r="55" spans="1:14" ht="16.5">
+      <c r="A55" s="102"/>
       <c r="B55" s="2">
         <v>41618</v>
       </c>
@@ -3260,8 +3279,8 @@
       <c r="M55" s="52"/>
       <c r="N55" s="52"/>
     </row>
-    <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="66"/>
+    <row r="56" spans="1:14" ht="16.5">
+      <c r="A56" s="102"/>
       <c r="B56" s="2">
         <v>41619</v>
       </c>
@@ -3278,8 +3297,8 @@
       <c r="M56" s="52"/>
       <c r="N56" s="52"/>
     </row>
-    <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="66"/>
+    <row r="57" spans="1:14" ht="16.5">
+      <c r="A57" s="102"/>
       <c r="B57" s="2">
         <v>41620</v>
       </c>
@@ -3296,8 +3315,8 @@
       <c r="M57" s="52"/>
       <c r="N57" s="52"/>
     </row>
-    <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="66"/>
+    <row r="58" spans="1:14" ht="16.5">
+      <c r="A58" s="102"/>
       <c r="B58" s="2">
         <v>41621</v>
       </c>
@@ -3314,8 +3333,8 @@
       <c r="M58" s="52"/>
       <c r="N58" s="52"/>
     </row>
-    <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="70">
+    <row r="59" spans="1:14" ht="16.5">
+      <c r="A59" s="101">
         <v>7</v>
       </c>
       <c r="B59" s="9">
@@ -3334,8 +3353,8 @@
       <c r="M59" s="52"/>
       <c r="N59" s="52"/>
     </row>
-    <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
+    <row r="60" spans="1:14" ht="16.5">
+      <c r="A60" s="101"/>
       <c r="B60" s="9">
         <v>41625</v>
       </c>
@@ -3352,8 +3371,8 @@
       <c r="M60" s="52"/>
       <c r="N60" s="52"/>
     </row>
-    <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
+    <row r="61" spans="1:14" ht="16.5">
+      <c r="A61" s="101"/>
       <c r="B61" s="9">
         <v>41626</v>
       </c>
@@ -3370,8 +3389,8 @@
       <c r="M61" s="52"/>
       <c r="N61" s="52"/>
     </row>
-    <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="70"/>
+    <row r="62" spans="1:14" ht="16.5">
+      <c r="A62" s="101"/>
       <c r="B62" s="9">
         <v>41627</v>
       </c>
@@ -3388,8 +3407,8 @@
       <c r="M62" s="52"/>
       <c r="N62" s="52"/>
     </row>
-    <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="70"/>
+    <row r="63" spans="1:14" ht="16.5">
+      <c r="A63" s="101"/>
       <c r="B63" s="9">
         <v>41628</v>
       </c>
@@ -3406,8 +3425,8 @@
       <c r="M63" s="52"/>
       <c r="N63" s="52"/>
     </row>
-    <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="66">
+    <row r="64" spans="1:14" ht="16.5">
+      <c r="A64" s="102">
         <v>8</v>
       </c>
       <c r="B64" s="2">
@@ -3426,8 +3445,8 @@
       <c r="M64" s="52"/>
       <c r="N64" s="52"/>
     </row>
-    <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="66"/>
+    <row r="65" spans="1:14" ht="16.5">
+      <c r="A65" s="102"/>
       <c r="B65" s="2">
         <v>41632</v>
       </c>
@@ -3444,8 +3463,8 @@
       <c r="M65" s="52"/>
       <c r="N65" s="52"/>
     </row>
-    <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="66"/>
+    <row r="66" spans="1:14" ht="16.5">
+      <c r="A66" s="102"/>
       <c r="B66" s="2">
         <v>41633</v>
       </c>
@@ -3462,8 +3481,8 @@
       <c r="M66" s="52"/>
       <c r="N66" s="52"/>
     </row>
-    <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="66"/>
+    <row r="67" spans="1:14" ht="16.5">
+      <c r="A67" s="102"/>
       <c r="B67" s="2">
         <v>41634</v>
       </c>
@@ -3480,8 +3499,8 @@
       <c r="M67" s="52"/>
       <c r="N67" s="52"/>
     </row>
-    <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="66"/>
+    <row r="68" spans="1:14" ht="16.5">
+      <c r="A68" s="102"/>
       <c r="B68" s="2">
         <v>41635</v>
       </c>
@@ -3498,8 +3517,8 @@
       <c r="M68" s="52"/>
       <c r="N68" s="52"/>
     </row>
-    <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="70">
+    <row r="69" spans="1:14" ht="16.5">
+      <c r="A69" s="101">
         <v>9</v>
       </c>
       <c r="B69" s="9">
@@ -3518,8 +3537,8 @@
       <c r="M69" s="52"/>
       <c r="N69" s="52"/>
     </row>
-    <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="70"/>
+    <row r="70" spans="1:14" ht="16.5">
+      <c r="A70" s="101"/>
       <c r="B70" s="9">
         <v>41639</v>
       </c>
@@ -3536,8 +3555,8 @@
       <c r="M70" s="52"/>
       <c r="N70" s="52"/>
     </row>
-    <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="70"/>
+    <row r="71" spans="1:14" ht="16.5">
+      <c r="A71" s="101"/>
       <c r="B71" s="9">
         <v>41640</v>
       </c>
@@ -3554,8 +3573,8 @@
       <c r="M71" s="52"/>
       <c r="N71" s="52"/>
     </row>
-    <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="70"/>
+    <row r="72" spans="1:14" ht="16.5">
+      <c r="A72" s="101"/>
       <c r="B72" s="9">
         <v>41641</v>
       </c>
@@ -3572,8 +3591,8 @@
       <c r="M72" s="52"/>
       <c r="N72" s="52"/>
     </row>
-    <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="70"/>
+    <row r="73" spans="1:14" ht="16.5">
+      <c r="A73" s="101"/>
       <c r="B73" s="9">
         <v>41642</v>
       </c>
@@ -3590,8 +3609,8 @@
       <c r="M73" s="52"/>
       <c r="N73" s="52"/>
     </row>
-    <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="66">
+    <row r="74" spans="1:14" ht="16.5">
+      <c r="A74" s="102">
         <v>10</v>
       </c>
       <c r="B74" s="2">
@@ -3610,8 +3629,8 @@
       <c r="M74" s="52"/>
       <c r="N74" s="52"/>
     </row>
-    <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="66"/>
+    <row r="75" spans="1:14" ht="16.5">
+      <c r="A75" s="102"/>
       <c r="B75" s="2">
         <v>41646</v>
       </c>
@@ -3628,8 +3647,8 @@
       <c r="M75" s="52"/>
       <c r="N75" s="52"/>
     </row>
-    <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="66"/>
+    <row r="76" spans="1:14" ht="16.5">
+      <c r="A76" s="102"/>
       <c r="B76" s="2">
         <v>41647</v>
       </c>
@@ -3646,8 +3665,8 @@
       <c r="M76" s="52"/>
       <c r="N76" s="52"/>
     </row>
-    <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="66"/>
+    <row r="77" spans="1:14" ht="16.5">
+      <c r="A77" s="102"/>
       <c r="B77" s="2">
         <v>41648</v>
       </c>
@@ -3664,8 +3683,8 @@
       <c r="M77" s="52"/>
       <c r="N77" s="52"/>
     </row>
-    <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="66"/>
+    <row r="78" spans="1:14" ht="16.5">
+      <c r="A78" s="102"/>
       <c r="B78" s="2">
         <v>41649</v>
       </c>
@@ -3682,8 +3701,8 @@
       <c r="M78" s="52"/>
       <c r="N78" s="52"/>
     </row>
-    <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="70">
+    <row r="79" spans="1:14" ht="16.5">
+      <c r="A79" s="101">
         <v>11</v>
       </c>
       <c r="B79" s="9">
@@ -3702,8 +3721,8 @@
       <c r="M79" s="52"/>
       <c r="N79" s="52"/>
     </row>
-    <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="70"/>
+    <row r="80" spans="1:14" ht="16.5">
+      <c r="A80" s="101"/>
       <c r="B80" s="9">
         <v>41653</v>
       </c>
@@ -3720,8 +3739,8 @@
       <c r="M80" s="52"/>
       <c r="N80" s="52"/>
     </row>
-    <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="70"/>
+    <row r="81" spans="1:14" ht="16.5">
+      <c r="A81" s="101"/>
       <c r="B81" s="9">
         <v>41654</v>
       </c>
@@ -3738,8 +3757,8 @@
       <c r="M81" s="52"/>
       <c r="N81" s="52"/>
     </row>
-    <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="70"/>
+    <row r="82" spans="1:14" ht="16.5">
+      <c r="A82" s="101"/>
       <c r="B82" s="9">
         <v>41655</v>
       </c>
@@ -3756,8 +3775,8 @@
       <c r="M82" s="52"/>
       <c r="N82" s="52"/>
     </row>
-    <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="70"/>
+    <row r="83" spans="1:14" ht="16.5">
+      <c r="A83" s="101"/>
       <c r="B83" s="9">
         <v>41656</v>
       </c>
@@ -3774,8 +3793,8 @@
       <c r="M83" s="52"/>
       <c r="N83" s="52"/>
     </row>
-    <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="66">
+    <row r="84" spans="1:14" ht="16.5">
+      <c r="A84" s="102">
         <v>12</v>
       </c>
       <c r="B84" s="2">
@@ -3794,8 +3813,8 @@
       <c r="M84" s="52"/>
       <c r="N84" s="52"/>
     </row>
-    <row r="85" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="66"/>
+    <row r="85" spans="1:14" ht="16.5">
+      <c r="A85" s="102"/>
       <c r="B85" s="2">
         <v>41660</v>
       </c>
@@ -3812,8 +3831,8 @@
       <c r="M85" s="52"/>
       <c r="N85" s="52"/>
     </row>
-    <row r="86" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="66"/>
+    <row r="86" spans="1:14" ht="16.5">
+      <c r="A86" s="102"/>
       <c r="B86" s="2">
         <v>41661</v>
       </c>
@@ -3830,8 +3849,8 @@
       <c r="M86" s="52"/>
       <c r="N86" s="52"/>
     </row>
-    <row r="87" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="66"/>
+    <row r="87" spans="1:14" ht="16.5">
+      <c r="A87" s="102"/>
       <c r="B87" s="2">
         <v>41662</v>
       </c>
@@ -3848,8 +3867,8 @@
       <c r="M87" s="52"/>
       <c r="N87" s="52"/>
     </row>
-    <row r="88" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="66"/>
+    <row r="88" spans="1:14" ht="16.5">
+      <c r="A88" s="102"/>
       <c r="B88" s="2">
         <v>41663</v>
       </c>
@@ -3866,8 +3885,8 @@
       <c r="M88" s="52"/>
       <c r="N88" s="52"/>
     </row>
-    <row r="89" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="70">
+    <row r="89" spans="1:14" ht="16.5">
+      <c r="A89" s="101">
         <v>13</v>
       </c>
       <c r="B89" s="9">
@@ -3888,8 +3907,8 @@
       <c r="M89" s="52"/>
       <c r="N89" s="52"/>
     </row>
-    <row r="90" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="70"/>
+    <row r="90" spans="1:14" ht="16.5">
+      <c r="A90" s="101"/>
       <c r="B90" s="9">
         <v>41667</v>
       </c>
@@ -3908,8 +3927,8 @@
       <c r="M90" s="52"/>
       <c r="N90" s="52"/>
     </row>
-    <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="70"/>
+    <row r="91" spans="1:14" ht="16.5">
+      <c r="A91" s="101"/>
       <c r="B91" s="9">
         <v>41668</v>
       </c>
@@ -3928,8 +3947,8 @@
       <c r="M91" s="52"/>
       <c r="N91" s="52"/>
     </row>
-    <row r="92" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="70"/>
+    <row r="92" spans="1:14" ht="16.5">
+      <c r="A92" s="101"/>
       <c r="B92" s="9">
         <v>41669</v>
       </c>
@@ -3948,8 +3967,8 @@
       <c r="M92" s="52"/>
       <c r="N92" s="52"/>
     </row>
-    <row r="93" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="70"/>
+    <row r="93" spans="1:14" ht="16.5">
+      <c r="A93" s="101"/>
       <c r="B93" s="9">
         <v>41670</v>
       </c>
@@ -3968,8 +3987,8 @@
       <c r="M93" s="52"/>
       <c r="N93" s="52"/>
     </row>
-    <row r="94" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="66">
+    <row r="94" spans="1:14" ht="16.5">
+      <c r="A94" s="102">
         <v>14</v>
       </c>
       <c r="B94" s="2">
@@ -3990,8 +4009,8 @@
       <c r="M94" s="52"/>
       <c r="N94" s="52"/>
     </row>
-    <row r="95" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="66"/>
+    <row r="95" spans="1:14" ht="16.5">
+      <c r="A95" s="102"/>
       <c r="B95" s="2">
         <v>41674</v>
       </c>
@@ -4010,8 +4029,8 @@
       <c r="M95" s="52"/>
       <c r="N95" s="52"/>
     </row>
-    <row r="96" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="66"/>
+    <row r="96" spans="1:14" ht="16.5">
+      <c r="A96" s="102"/>
       <c r="B96" s="2">
         <v>41675</v>
       </c>
@@ -4030,8 +4049,8 @@
       <c r="M96" s="52"/>
       <c r="N96" s="52"/>
     </row>
-    <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="66"/>
+    <row r="97" spans="1:14" ht="16.5">
+      <c r="A97" s="102"/>
       <c r="B97" s="2">
         <v>41676</v>
       </c>
@@ -4050,8 +4069,8 @@
       <c r="M97" s="52"/>
       <c r="N97" s="52"/>
     </row>
-    <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="66"/>
+    <row r="98" spans="1:14" ht="16.5">
+      <c r="A98" s="102"/>
       <c r="B98" s="2">
         <v>41677</v>
       </c>
@@ -4070,8 +4089,8 @@
       <c r="M98" s="52"/>
       <c r="N98" s="52"/>
     </row>
-    <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="70">
+    <row r="99" spans="1:14" ht="16.5">
+      <c r="A99" s="101">
         <v>15</v>
       </c>
       <c r="B99" s="9">
@@ -4090,8 +4109,8 @@
       <c r="M99" s="52"/>
       <c r="N99" s="52"/>
     </row>
-    <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="70"/>
+    <row r="100" spans="1:14" ht="16.5">
+      <c r="A100" s="101"/>
       <c r="B100" s="9">
         <v>41681</v>
       </c>
@@ -4108,8 +4127,8 @@
       <c r="M100" s="52"/>
       <c r="N100" s="52"/>
     </row>
-    <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="70"/>
+    <row r="101" spans="1:14" ht="16.5">
+      <c r="A101" s="101"/>
       <c r="B101" s="9">
         <v>41682</v>
       </c>
@@ -4126,8 +4145,8 @@
       <c r="M101" s="52"/>
       <c r="N101" s="52"/>
     </row>
-    <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="70"/>
+    <row r="102" spans="1:14" ht="16.5">
+      <c r="A102" s="101"/>
       <c r="B102" s="9">
         <v>41683</v>
       </c>
@@ -4144,8 +4163,8 @@
       <c r="M102" s="52"/>
       <c r="N102" s="52"/>
     </row>
-    <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="70"/>
+    <row r="103" spans="1:14" ht="16.5">
+      <c r="A103" s="101"/>
       <c r="B103" s="9">
         <v>41684</v>
       </c>
@@ -4162,8 +4181,8 @@
       <c r="M103" s="52"/>
       <c r="N103" s="52"/>
     </row>
-    <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="66">
+    <row r="104" spans="1:14" ht="16.5">
+      <c r="A104" s="102">
         <v>16</v>
       </c>
       <c r="B104" s="2">
@@ -4182,8 +4201,8 @@
       <c r="M104" s="52"/>
       <c r="N104" s="52"/>
     </row>
-    <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="66"/>
+    <row r="105" spans="1:14" ht="16.5">
+      <c r="A105" s="102"/>
       <c r="B105" s="2">
         <v>41688</v>
       </c>
@@ -4200,8 +4219,8 @@
       <c r="M105" s="52"/>
       <c r="N105" s="52"/>
     </row>
-    <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="66"/>
+    <row r="106" spans="1:14" ht="16.5">
+      <c r="A106" s="102"/>
       <c r="B106" s="2">
         <v>41689</v>
       </c>
@@ -4218,8 +4237,8 @@
       <c r="M106" s="52"/>
       <c r="N106" s="52"/>
     </row>
-    <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="66"/>
+    <row r="107" spans="1:14" ht="16.5">
+      <c r="A107" s="102"/>
       <c r="B107" s="2">
         <v>41690</v>
       </c>
@@ -4236,8 +4255,8 @@
       <c r="M107" s="52"/>
       <c r="N107" s="52"/>
     </row>
-    <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="66"/>
+    <row r="108" spans="1:14" ht="16.5">
+      <c r="A108" s="102"/>
       <c r="B108" s="2">
         <v>41691</v>
       </c>
@@ -4254,8 +4273,8 @@
       <c r="M108" s="52"/>
       <c r="N108" s="52"/>
     </row>
-    <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="70">
+    <row r="109" spans="1:14" ht="16.5">
+      <c r="A109" s="101">
         <v>17</v>
       </c>
       <c r="B109" s="9">
@@ -4274,8 +4293,8 @@
       <c r="M109" s="52"/>
       <c r="N109" s="52"/>
     </row>
-    <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="70"/>
+    <row r="110" spans="1:14" ht="16.5">
+      <c r="A110" s="101"/>
       <c r="B110" s="9">
         <v>41695</v>
       </c>
@@ -4292,8 +4311,8 @@
       <c r="M110" s="52"/>
       <c r="N110" s="52"/>
     </row>
-    <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="70"/>
+    <row r="111" spans="1:14" ht="16.5">
+      <c r="A111" s="101"/>
       <c r="B111" s="9">
         <v>41696</v>
       </c>
@@ -4310,8 +4329,8 @@
       <c r="M111" s="52"/>
       <c r="N111" s="52"/>
     </row>
-    <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="70"/>
+    <row r="112" spans="1:14" ht="16.5">
+      <c r="A112" s="101"/>
       <c r="B112" s="9">
         <v>41697</v>
       </c>
@@ -4328,8 +4347,8 @@
       <c r="M112" s="52"/>
       <c r="N112" s="52"/>
     </row>
-    <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="70"/>
+    <row r="113" spans="1:14" ht="16.5">
+      <c r="A113" s="101"/>
       <c r="B113" s="9">
         <v>41698</v>
       </c>
@@ -4346,8 +4365,8 @@
       <c r="M113" s="52"/>
       <c r="N113" s="52"/>
     </row>
-    <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="66">
+    <row r="114" spans="1:14" ht="16.5">
+      <c r="A114" s="102">
         <v>18</v>
       </c>
       <c r="B114" s="2">
@@ -4366,8 +4385,8 @@
       <c r="M114" s="52"/>
       <c r="N114" s="52"/>
     </row>
-    <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="66"/>
+    <row r="115" spans="1:14" ht="16.5">
+      <c r="A115" s="102"/>
       <c r="B115" s="2">
         <v>41702</v>
       </c>
@@ -4384,8 +4403,8 @@
       <c r="M115" s="52"/>
       <c r="N115" s="52"/>
     </row>
-    <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="66"/>
+    <row r="116" spans="1:14" ht="16.5">
+      <c r="A116" s="102"/>
       <c r="B116" s="2">
         <v>41703</v>
       </c>
@@ -4402,8 +4421,8 @@
       <c r="M116" s="52"/>
       <c r="N116" s="52"/>
     </row>
-    <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="66"/>
+    <row r="117" spans="1:14" ht="16.5">
+      <c r="A117" s="102"/>
       <c r="B117" s="2">
         <v>41704</v>
       </c>
@@ -4420,8 +4439,8 @@
       <c r="M117" s="52"/>
       <c r="N117" s="52"/>
     </row>
-    <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="66"/>
+    <row r="118" spans="1:14" ht="16.5">
+      <c r="A118" s="102"/>
       <c r="B118" s="2">
         <v>41705</v>
       </c>
@@ -4438,8 +4457,8 @@
       <c r="M118" s="52"/>
       <c r="N118" s="52"/>
     </row>
-    <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="70">
+    <row r="119" spans="1:14" ht="16.5">
+      <c r="A119" s="101">
         <v>19</v>
       </c>
       <c r="B119" s="9">
@@ -4458,8 +4477,8 @@
       <c r="M119" s="52"/>
       <c r="N119" s="52"/>
     </row>
-    <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="70"/>
+    <row r="120" spans="1:14" ht="16.5">
+      <c r="A120" s="101"/>
       <c r="B120" s="9">
         <v>41709</v>
       </c>
@@ -4476,8 +4495,8 @@
       <c r="M120" s="52"/>
       <c r="N120" s="52"/>
     </row>
-    <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="70"/>
+    <row r="121" spans="1:14" ht="16.5">
+      <c r="A121" s="101"/>
       <c r="B121" s="9">
         <v>41710</v>
       </c>
@@ -4494,8 +4513,8 @@
       <c r="M121" s="52"/>
       <c r="N121" s="52"/>
     </row>
-    <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="70"/>
+    <row r="122" spans="1:14" ht="16.5">
+      <c r="A122" s="101"/>
       <c r="B122" s="9">
         <v>41711</v>
       </c>
@@ -4512,8 +4531,8 @@
       <c r="M122" s="52"/>
       <c r="N122" s="52"/>
     </row>
-    <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="70"/>
+    <row r="123" spans="1:14" ht="16.5">
+      <c r="A123" s="101"/>
       <c r="B123" s="9">
         <v>41712</v>
       </c>
@@ -4530,8 +4549,8 @@
       <c r="M123" s="52"/>
       <c r="N123" s="52"/>
     </row>
-    <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="66">
+    <row r="124" spans="1:14" ht="16.5">
+      <c r="A124" s="102">
         <v>20</v>
       </c>
       <c r="B124" s="2">
@@ -4550,8 +4569,8 @@
       <c r="M124" s="52"/>
       <c r="N124" s="52"/>
     </row>
-    <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="66"/>
+    <row r="125" spans="1:14" ht="16.5">
+      <c r="A125" s="102"/>
       <c r="B125" s="2">
         <v>41716</v>
       </c>
@@ -4568,8 +4587,8 @@
       <c r="M125" s="52"/>
       <c r="N125" s="52"/>
     </row>
-    <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="66"/>
+    <row r="126" spans="1:14" ht="16.5">
+      <c r="A126" s="102"/>
       <c r="B126" s="2">
         <v>41717</v>
       </c>
@@ -4586,8 +4605,8 @@
       <c r="M126" s="52"/>
       <c r="N126" s="52"/>
     </row>
-    <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="66"/>
+    <row r="127" spans="1:14" ht="16.5">
+      <c r="A127" s="102"/>
       <c r="B127" s="2">
         <v>41718</v>
       </c>
@@ -4604,8 +4623,8 @@
       <c r="M127" s="52"/>
       <c r="N127" s="52"/>
     </row>
-    <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="66"/>
+    <row r="128" spans="1:14" ht="16.5">
+      <c r="A128" s="102"/>
       <c r="B128" s="2">
         <v>41719</v>
       </c>
@@ -4622,8 +4641,8 @@
       <c r="M128" s="52"/>
       <c r="N128" s="52"/>
     </row>
-    <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="70">
+    <row r="129" spans="1:14" ht="16.5">
+      <c r="A129" s="101">
         <v>21</v>
       </c>
       <c r="B129" s="9">
@@ -4642,8 +4661,8 @@
       <c r="M129" s="52"/>
       <c r="N129" s="52"/>
     </row>
-    <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="70"/>
+    <row r="130" spans="1:14" ht="16.5">
+      <c r="A130" s="101"/>
       <c r="B130" s="9">
         <v>41723</v>
       </c>
@@ -4660,8 +4679,8 @@
       <c r="M130" s="52"/>
       <c r="N130" s="52"/>
     </row>
-    <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="70"/>
+    <row r="131" spans="1:14" ht="16.5">
+      <c r="A131" s="101"/>
       <c r="B131" s="9">
         <v>41724</v>
       </c>
@@ -4678,8 +4697,8 @@
       <c r="M131" s="52"/>
       <c r="N131" s="52"/>
     </row>
-    <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="70"/>
+    <row r="132" spans="1:14" ht="16.5">
+      <c r="A132" s="101"/>
       <c r="B132" s="9">
         <v>41725</v>
       </c>
@@ -4696,8 +4715,8 @@
       <c r="M132" s="52"/>
       <c r="N132" s="52"/>
     </row>
-    <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="70"/>
+    <row r="133" spans="1:14" ht="16.5">
+      <c r="A133" s="101"/>
       <c r="B133" s="9">
         <v>41726</v>
       </c>
@@ -4714,8 +4733,8 @@
       <c r="M133" s="52"/>
       <c r="N133" s="52"/>
     </row>
-    <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="66">
+    <row r="134" spans="1:14" ht="16.5">
+      <c r="A134" s="102">
         <v>22</v>
       </c>
       <c r="B134" s="2">
@@ -4734,8 +4753,8 @@
       <c r="M134" s="52"/>
       <c r="N134" s="52"/>
     </row>
-    <row r="135" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="66"/>
+    <row r="135" spans="1:14" ht="16.5">
+      <c r="A135" s="102"/>
       <c r="B135" s="2">
         <v>41730</v>
       </c>
@@ -4752,8 +4771,8 @@
       <c r="M135" s="52"/>
       <c r="N135" s="52"/>
     </row>
-    <row r="136" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="66"/>
+    <row r="136" spans="1:14" ht="16.5">
+      <c r="A136" s="102"/>
       <c r="B136" s="2">
         <v>41731</v>
       </c>
@@ -4770,8 +4789,8 @@
       <c r="M136" s="52"/>
       <c r="N136" s="52"/>
     </row>
-    <row r="137" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="66"/>
+    <row r="137" spans="1:14" ht="16.5">
+      <c r="A137" s="102"/>
       <c r="B137" s="2">
         <v>41732</v>
       </c>
@@ -4788,8 +4807,8 @@
       <c r="M137" s="52"/>
       <c r="N137" s="52"/>
     </row>
-    <row r="138" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="66"/>
+    <row r="138" spans="1:14" ht="16.5">
+      <c r="A138" s="102"/>
       <c r="B138" s="2">
         <v>41733</v>
       </c>
@@ -4806,8 +4825,8 @@
       <c r="M138" s="52"/>
       <c r="N138" s="52"/>
     </row>
-    <row r="139" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="70">
+    <row r="139" spans="1:14" ht="16.5">
+      <c r="A139" s="101">
         <v>23</v>
       </c>
       <c r="B139" s="9">
@@ -4826,8 +4845,8 @@
       <c r="M139" s="52"/>
       <c r="N139" s="52"/>
     </row>
-    <row r="140" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="70"/>
+    <row r="140" spans="1:14" ht="16.5">
+      <c r="A140" s="101"/>
       <c r="B140" s="9">
         <v>41737</v>
       </c>
@@ -4844,8 +4863,8 @@
       <c r="M140" s="52"/>
       <c r="N140" s="52"/>
     </row>
-    <row r="141" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="70"/>
+    <row r="141" spans="1:14" ht="16.5">
+      <c r="A141" s="101"/>
       <c r="B141" s="9">
         <v>41738</v>
       </c>
@@ -4862,8 +4881,8 @@
       <c r="M141" s="52"/>
       <c r="N141" s="52"/>
     </row>
-    <row r="142" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="70"/>
+    <row r="142" spans="1:14" ht="16.5">
+      <c r="A142" s="101"/>
       <c r="B142" s="9">
         <v>41739</v>
       </c>
@@ -4880,8 +4899,8 @@
       <c r="M142" s="52"/>
       <c r="N142" s="52"/>
     </row>
-    <row r="143" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="70"/>
+    <row r="143" spans="1:14" ht="16.5">
+      <c r="A143" s="101"/>
       <c r="B143" s="9">
         <v>41740</v>
       </c>
@@ -4898,8 +4917,8 @@
       <c r="M143" s="52"/>
       <c r="N143" s="52"/>
     </row>
-    <row r="144" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="66">
+    <row r="144" spans="1:14" ht="16.5">
+      <c r="A144" s="102">
         <v>24</v>
       </c>
       <c r="B144" s="2">
@@ -4918,8 +4937,8 @@
       <c r="M144" s="52"/>
       <c r="N144" s="52"/>
     </row>
-    <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="66"/>
+    <row r="145" spans="1:14" ht="16.5">
+      <c r="A145" s="102"/>
       <c r="B145" s="2">
         <v>41744</v>
       </c>
@@ -4936,8 +4955,8 @@
       <c r="M145" s="52"/>
       <c r="N145" s="52"/>
     </row>
-    <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="66"/>
+    <row r="146" spans="1:14" ht="16.5">
+      <c r="A146" s="102"/>
       <c r="B146" s="2">
         <v>41745</v>
       </c>
@@ -4954,8 +4973,8 @@
       <c r="M146" s="52"/>
       <c r="N146" s="52"/>
     </row>
-    <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="66"/>
+    <row r="147" spans="1:14" ht="16.5">
+      <c r="A147" s="102"/>
       <c r="B147" s="2">
         <v>41746</v>
       </c>
@@ -4972,8 +4991,8 @@
       <c r="M147" s="52"/>
       <c r="N147" s="52"/>
     </row>
-    <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="66"/>
+    <row r="148" spans="1:14" ht="16.5">
+      <c r="A148" s="102"/>
       <c r="B148" s="2">
         <v>41747</v>
       </c>
@@ -4990,8 +5009,8 @@
       <c r="M148" s="52"/>
       <c r="N148" s="52"/>
     </row>
-    <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="70">
+    <row r="149" spans="1:14" ht="16.5">
+      <c r="A149" s="101">
         <v>25</v>
       </c>
       <c r="B149" s="9">
@@ -5010,8 +5029,8 @@
       <c r="M149" s="52"/>
       <c r="N149" s="52"/>
     </row>
-    <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="70"/>
+    <row r="150" spans="1:14" ht="16.5">
+      <c r="A150" s="101"/>
       <c r="B150" s="9">
         <v>41751</v>
       </c>
@@ -5028,8 +5047,8 @@
       <c r="M150" s="52"/>
       <c r="N150" s="52"/>
     </row>
-    <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="70"/>
+    <row r="151" spans="1:14" ht="16.5">
+      <c r="A151" s="101"/>
       <c r="B151" s="9">
         <v>41752</v>
       </c>
@@ -5046,8 +5065,8 @@
       <c r="M151" s="52"/>
       <c r="N151" s="52"/>
     </row>
-    <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="70"/>
+    <row r="152" spans="1:14" ht="16.5">
+      <c r="A152" s="101"/>
       <c r="B152" s="9">
         <v>41753</v>
       </c>
@@ -5064,8 +5083,8 @@
       <c r="M152" s="52"/>
       <c r="N152" s="52"/>
     </row>
-    <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="70"/>
+    <row r="153" spans="1:14" ht="16.5">
+      <c r="A153" s="101"/>
       <c r="B153" s="9">
         <v>41754</v>
       </c>
@@ -5082,8 +5101,8 @@
       <c r="M153" s="52"/>
       <c r="N153" s="52"/>
     </row>
-    <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="66">
+    <row r="154" spans="1:14" ht="16.5">
+      <c r="A154" s="102">
         <v>26</v>
       </c>
       <c r="B154" s="2">
@@ -5102,8 +5121,8 @@
       <c r="M154" s="52"/>
       <c r="N154" s="52"/>
     </row>
-    <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="66"/>
+    <row r="155" spans="1:14" ht="16.5">
+      <c r="A155" s="102"/>
       <c r="B155" s="2">
         <v>41758</v>
       </c>
@@ -5120,8 +5139,8 @@
       <c r="M155" s="52"/>
       <c r="N155" s="52"/>
     </row>
-    <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="66"/>
+    <row r="156" spans="1:14" ht="16.5">
+      <c r="A156" s="102"/>
       <c r="B156" s="2">
         <v>41759</v>
       </c>
@@ -5138,8 +5157,8 @@
       <c r="M156" s="52"/>
       <c r="N156" s="52"/>
     </row>
-    <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="66"/>
+    <row r="157" spans="1:14" ht="16.5">
+      <c r="A157" s="102"/>
       <c r="B157" s="2">
         <v>41760</v>
       </c>
@@ -5156,8 +5175,8 @@
       <c r="M157" s="52"/>
       <c r="N157" s="52"/>
     </row>
-    <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="66"/>
+    <row r="158" spans="1:14" ht="16.5">
+      <c r="A158" s="102"/>
       <c r="B158" s="2">
         <v>41761</v>
       </c>
@@ -5174,8 +5193,8 @@
       <c r="M158" s="52"/>
       <c r="N158" s="52"/>
     </row>
-    <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="70">
+    <row r="159" spans="1:14" ht="16.5">
+      <c r="A159" s="101">
         <v>27</v>
       </c>
       <c r="B159" s="9">
@@ -5194,8 +5213,8 @@
       <c r="M159" s="52"/>
       <c r="N159" s="52"/>
     </row>
-    <row r="160" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="70"/>
+    <row r="160" spans="1:14" ht="16.5">
+      <c r="A160" s="101"/>
       <c r="B160" s="9">
         <v>41765</v>
       </c>
@@ -5212,8 +5231,8 @@
       <c r="M160" s="52"/>
       <c r="N160" s="52"/>
     </row>
-    <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="70"/>
+    <row r="161" spans="1:14" ht="16.5">
+      <c r="A161" s="101"/>
       <c r="B161" s="9">
         <v>41766</v>
       </c>
@@ -5230,8 +5249,8 @@
       <c r="M161" s="52"/>
       <c r="N161" s="52"/>
     </row>
-    <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="70"/>
+    <row r="162" spans="1:14" ht="16.5">
+      <c r="A162" s="101"/>
       <c r="B162" s="9">
         <v>41767</v>
       </c>
@@ -5248,8 +5267,8 @@
       <c r="M162" s="52"/>
       <c r="N162" s="52"/>
     </row>
-    <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="70"/>
+    <row r="163" spans="1:14" ht="16.5">
+      <c r="A163" s="101"/>
       <c r="B163" s="9">
         <v>41768</v>
       </c>
@@ -5266,8 +5285,8 @@
       <c r="M163" s="52"/>
       <c r="N163" s="52"/>
     </row>
-    <row r="164" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="66">
+    <row r="164" spans="1:14" ht="16.5">
+      <c r="A164" s="102">
         <v>28</v>
       </c>
       <c r="B164" s="2">
@@ -5286,8 +5305,8 @@
       <c r="M164" s="52"/>
       <c r="N164" s="52"/>
     </row>
-    <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="66"/>
+    <row r="165" spans="1:14" ht="16.5">
+      <c r="A165" s="102"/>
       <c r="B165" s="2">
         <v>41772</v>
       </c>
@@ -5304,8 +5323,8 @@
       <c r="M165" s="52"/>
       <c r="N165" s="52"/>
     </row>
-    <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="66"/>
+    <row r="166" spans="1:14" ht="16.5">
+      <c r="A166" s="102"/>
       <c r="B166" s="2">
         <v>41773</v>
       </c>
@@ -5322,8 +5341,8 @@
       <c r="M166" s="52"/>
       <c r="N166" s="52"/>
     </row>
-    <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="66"/>
+    <row r="167" spans="1:14" ht="16.5">
+      <c r="A167" s="102"/>
       <c r="B167" s="2">
         <v>41774</v>
       </c>
@@ -5340,8 +5359,8 @@
       <c r="M167" s="52"/>
       <c r="N167" s="52"/>
     </row>
-    <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="66"/>
+    <row r="168" spans="1:14" ht="16.5">
+      <c r="A168" s="102"/>
       <c r="B168" s="2">
         <v>41775</v>
       </c>
@@ -5358,8 +5377,8 @@
       <c r="M168" s="52"/>
       <c r="N168" s="52"/>
     </row>
-    <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="70">
+    <row r="169" spans="1:14" ht="16.5">
+      <c r="A169" s="101">
         <v>29</v>
       </c>
       <c r="B169" s="9">
@@ -5378,8 +5397,8 @@
       <c r="M169" s="52"/>
       <c r="N169" s="52"/>
     </row>
-    <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="70"/>
+    <row r="170" spans="1:14" ht="16.5">
+      <c r="A170" s="101"/>
       <c r="B170" s="9">
         <v>41779</v>
       </c>
@@ -5396,8 +5415,8 @@
       <c r="M170" s="52"/>
       <c r="N170" s="52"/>
     </row>
-    <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="70"/>
+    <row r="171" spans="1:14" ht="16.5">
+      <c r="A171" s="101"/>
       <c r="B171" s="9">
         <v>41780</v>
       </c>
@@ -5414,8 +5433,8 @@
       <c r="M171" s="52"/>
       <c r="N171" s="52"/>
     </row>
-    <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="70"/>
+    <row r="172" spans="1:14" ht="16.5">
+      <c r="A172" s="101"/>
       <c r="B172" s="9">
         <v>41781</v>
       </c>
@@ -5432,8 +5451,8 @@
       <c r="M172" s="52"/>
       <c r="N172" s="52"/>
     </row>
-    <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="70"/>
+    <row r="173" spans="1:14" ht="16.5">
+      <c r="A173" s="101"/>
       <c r="B173" s="9">
         <v>41782</v>
       </c>
@@ -5450,8 +5469,8 @@
       <c r="M173" s="52"/>
       <c r="N173" s="52"/>
     </row>
-    <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="80">
+    <row r="174" spans="1:14" ht="16.5">
+      <c r="A174" s="104">
         <v>30</v>
       </c>
       <c r="B174" s="2">
@@ -5470,8 +5489,8 @@
       <c r="M174" s="52"/>
       <c r="N174" s="52"/>
     </row>
-    <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="80"/>
+    <row r="175" spans="1:14" ht="16.5">
+      <c r="A175" s="104"/>
       <c r="B175" s="2">
         <v>41786</v>
       </c>
@@ -5488,8 +5507,8 @@
       <c r="M175" s="52"/>
       <c r="N175" s="52"/>
     </row>
-    <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="80"/>
+    <row r="176" spans="1:14" ht="16.5">
+      <c r="A176" s="104"/>
       <c r="B176" s="2">
         <v>41787</v>
       </c>
@@ -5506,8 +5525,8 @@
       <c r="M176" s="52"/>
       <c r="N176" s="52"/>
     </row>
-    <row r="177" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="80"/>
+    <row r="177" spans="1:14" ht="16.5">
+      <c r="A177" s="104"/>
       <c r="B177" s="2">
         <v>41788</v>
       </c>
@@ -5524,8 +5543,8 @@
       <c r="M177" s="52"/>
       <c r="N177" s="52"/>
     </row>
-    <row r="178" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="80"/>
+    <row r="178" spans="1:14" ht="16.5">
+      <c r="A178" s="104"/>
       <c r="B178" s="2">
         <v>41789</v>
       </c>
@@ -5542,8 +5561,8 @@
       <c r="M178" s="52"/>
       <c r="N178" s="52"/>
     </row>
-    <row r="179" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="80"/>
+    <row r="179" spans="1:14" ht="16.5">
+      <c r="A179" s="104"/>
       <c r="B179" s="10">
         <v>41790</v>
       </c>
@@ -5560,7 +5579,7 @@
       <c r="M179" s="52"/>
       <c r="N179" s="52"/>
     </row>
-    <row r="180" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" ht="16.5">
       <c r="A180" s="53"/>
       <c r="B180" s="2">
         <v>41791</v>
@@ -5578,7 +5597,7 @@
       <c r="M180" s="52"/>
       <c r="N180" s="52"/>
     </row>
-    <row r="181" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" ht="16.5">
       <c r="A181" s="52"/>
       <c r="B181" s="2">
         <v>41792</v>
@@ -5596,7 +5615,7 @@
       <c r="M181" s="52"/>
       <c r="N181" s="52"/>
     </row>
-    <row r="182" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" ht="16.5">
       <c r="A182" s="52"/>
       <c r="B182" s="2">
         <v>41793</v>
@@ -5614,7 +5633,7 @@
       <c r="M182" s="52"/>
       <c r="N182" s="52"/>
     </row>
-    <row r="183" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" ht="16.5">
       <c r="A183" s="52"/>
       <c r="B183" s="2">
         <v>41794</v>
@@ -5632,7 +5651,7 @@
       <c r="M183" s="52"/>
       <c r="N183" s="52"/>
     </row>
-    <row r="184" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" ht="16.5">
       <c r="A184" s="52"/>
       <c r="B184" s="2">
         <v>41795</v>
@@ -5650,7 +5669,7 @@
       <c r="M184" s="52"/>
       <c r="N184" s="52"/>
     </row>
-    <row r="185" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" ht="16.5">
       <c r="A185" s="52"/>
       <c r="B185" s="2">
         <v>41796</v>
@@ -5668,7 +5687,7 @@
       <c r="M185" s="52"/>
       <c r="N185" s="52"/>
     </row>
-    <row r="186" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" ht="16.5">
       <c r="A186" s="52"/>
       <c r="B186" s="2">
         <v>41797</v>
@@ -5686,7 +5705,7 @@
       <c r="M186" s="52"/>
       <c r="N186" s="52"/>
     </row>
-    <row r="187" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" ht="16.5">
       <c r="A187" s="52"/>
       <c r="B187" s="2">
         <v>41798</v>
@@ -5704,7 +5723,7 @@
       <c r="M187" s="52"/>
       <c r="N187" s="52"/>
     </row>
-    <row r="188" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" ht="16.5">
       <c r="A188" s="52"/>
       <c r="B188" s="2">
         <v>41799</v>
@@ -5722,7 +5741,7 @@
       <c r="M188" s="52"/>
       <c r="N188" s="52"/>
     </row>
-    <row r="189" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" ht="16.5">
       <c r="A189" s="52"/>
       <c r="B189" s="2">
         <v>41800</v>
@@ -5740,7 +5759,7 @@
       <c r="M189" s="52"/>
       <c r="N189" s="52"/>
     </row>
-    <row r="190" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" ht="16.5">
       <c r="A190" s="52"/>
       <c r="B190" s="2">
         <v>41801</v>
@@ -5758,7 +5777,7 @@
       <c r="M190" s="52"/>
       <c r="N190" s="52"/>
     </row>
-    <row r="191" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" ht="16.5">
       <c r="A191" s="52"/>
       <c r="B191" s="2">
         <v>41802</v>
@@ -5776,7 +5795,7 @@
       <c r="M191" s="52"/>
       <c r="N191" s="52"/>
     </row>
-    <row r="192" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" ht="16.5">
       <c r="A192" s="52"/>
       <c r="B192" s="2">
         <v>41803</v>
@@ -5794,7 +5813,7 @@
       <c r="M192" s="52"/>
       <c r="N192" s="52"/>
     </row>
-    <row r="193" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" ht="16.5">
       <c r="A193" s="52"/>
       <c r="B193" s="2">
         <v>41804</v>
@@ -5812,7 +5831,7 @@
       <c r="M193" s="52"/>
       <c r="N193" s="52"/>
     </row>
-    <row r="194" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" ht="16.5">
       <c r="A194" s="52"/>
       <c r="B194" s="2">
         <v>41805</v>
@@ -5830,7 +5849,7 @@
       <c r="M194" s="52"/>
       <c r="N194" s="52"/>
     </row>
-    <row r="195" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" ht="16.5">
       <c r="A195" s="52"/>
       <c r="B195" s="2">
         <v>41806</v>
@@ -5848,7 +5867,7 @@
       <c r="M195" s="52"/>
       <c r="N195" s="52"/>
     </row>
-    <row r="196" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" ht="16.5">
       <c r="A196" s="52"/>
       <c r="B196" s="2">
         <v>41807</v>
@@ -5866,7 +5885,7 @@
       <c r="M196" s="52"/>
       <c r="N196" s="52"/>
     </row>
-    <row r="197" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" ht="16.5">
       <c r="A197" s="52"/>
       <c r="B197" s="2">
         <v>41808</v>
@@ -5884,7 +5903,7 @@
       <c r="M197" s="52"/>
       <c r="N197" s="52"/>
     </row>
-    <row r="198" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" ht="16.5">
       <c r="A198" s="52"/>
       <c r="B198" s="2">
         <v>41809</v>
@@ -5902,7 +5921,7 @@
       <c r="M198" s="52"/>
       <c r="N198" s="52"/>
     </row>
-    <row r="199" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" ht="16.5">
       <c r="A199" s="52"/>
       <c r="B199" s="2">
         <v>41810</v>
@@ -5916,7 +5935,7 @@
       <c r="I199" s="52"/>
       <c r="J199" s="52"/>
     </row>
-    <row r="200" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" ht="16.5">
       <c r="A200" s="52"/>
       <c r="B200" s="2">
         <v>41811</v>
@@ -5930,7 +5949,7 @@
       <c r="I200" s="52"/>
       <c r="J200" s="52"/>
     </row>
-    <row r="201" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" ht="16.5">
       <c r="A201" s="52"/>
       <c r="B201" s="2">
         <v>41812</v>
@@ -5944,7 +5963,7 @@
       <c r="I201" s="52"/>
       <c r="J201" s="52"/>
     </row>
-    <row r="202" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" ht="16.5">
       <c r="A202" s="52"/>
       <c r="B202" s="2">
         <v>41813</v>
@@ -5958,7 +5977,7 @@
       <c r="I202" s="52"/>
       <c r="J202" s="52"/>
     </row>
-    <row r="203" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" ht="16.5">
       <c r="A203" s="52"/>
       <c r="B203" s="2">
         <v>41814</v>
@@ -5972,7 +5991,7 @@
       <c r="I203" s="52"/>
       <c r="J203" s="52"/>
     </row>
-    <row r="204" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" ht="16.5">
       <c r="A204" s="52"/>
       <c r="B204" s="2">
         <v>41815</v>
@@ -5986,7 +6005,7 @@
       <c r="I204" s="52"/>
       <c r="J204" s="52"/>
     </row>
-    <row r="205" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" ht="16.5">
       <c r="A205" s="52"/>
       <c r="B205" s="2">
         <v>41816</v>
@@ -6000,7 +6019,7 @@
       <c r="I205" s="52"/>
       <c r="J205" s="52"/>
     </row>
-    <row r="206" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" ht="16.5">
       <c r="A206" s="52"/>
       <c r="B206" s="2">
         <v>41817</v>
@@ -6014,7 +6033,7 @@
       <c r="I206" s="52"/>
       <c r="J206" s="52"/>
     </row>
-    <row r="207" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" ht="16.5">
       <c r="A207" s="52"/>
       <c r="B207" s="2">
         <v>41818</v>
@@ -6028,7 +6047,7 @@
       <c r="I207" s="52"/>
       <c r="J207" s="52"/>
     </row>
-    <row r="208" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" ht="16.5">
       <c r="A208" s="52"/>
       <c r="B208" s="2">
         <v>41819</v>
@@ -6042,7 +6061,7 @@
       <c r="I208" s="52"/>
       <c r="J208" s="52"/>
     </row>
-    <row r="209" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="16.5">
       <c r="A209" s="52"/>
       <c r="B209" s="2">
         <v>41820</v>
@@ -6056,7 +6075,7 @@
       <c r="I209" s="52"/>
       <c r="J209" s="52"/>
     </row>
-    <row r="210" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="16.5">
       <c r="A210" s="52"/>
       <c r="B210" s="2">
         <v>41821</v>
@@ -6070,7 +6089,7 @@
       <c r="I210" s="52"/>
       <c r="J210" s="52"/>
     </row>
-    <row r="211" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="16.5">
       <c r="A211" s="52"/>
       <c r="B211" s="2">
         <v>41822</v>
@@ -6084,7 +6103,7 @@
       <c r="I211" s="52"/>
       <c r="J211" s="52"/>
     </row>
-    <row r="212" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="16.5">
       <c r="A212" s="52"/>
       <c r="B212" s="2">
         <v>41823</v>
@@ -6098,7 +6117,7 @@
       <c r="I212" s="52"/>
       <c r="J212" s="52"/>
     </row>
-    <row r="213" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" ht="16.5">
       <c r="A213" s="52"/>
       <c r="B213" s="2">
         <v>41824</v>
@@ -6114,19 +6133,34 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A35:A48"/>
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="A129:A133"/>
     <mergeCell ref="A134:A138"/>
@@ -6142,34 +6176,19 @@
     <mergeCell ref="A89:A93"/>
     <mergeCell ref="A94:A98"/>
     <mergeCell ref="A18:A33"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="A169:A173"/>
-    <mergeCell ref="A174:A179"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A35:A48"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F23:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -6177,7 +6196,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{4014B23A-9A92-4C0A-84AA-38D1DDC243A5}">
+          <x14:cfRule type="iconSet" priority="24" id="{4014B23A-9A92-4C0A-84AA-38D1DDC243A5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6196,7 +6215,7 @@
           <xm:sqref>F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{06A2D883-25A5-47A0-9E42-1356F547AC95}">
+          <x14:cfRule type="iconSet" priority="23" id="{06A2D883-25A5-47A0-9E42-1356F547AC95}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6215,7 +6234,7 @@
           <xm:sqref>F7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{F0155C6B-E81B-4907-9A36-C4DCA4908A78}">
+          <x14:cfRule type="iconSet" priority="22" id="{F0155C6B-E81B-4907-9A36-C4DCA4908A78}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6234,7 +6253,7 @@
           <xm:sqref>F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{B227CB59-278E-4A9D-98EB-7894CC307006}">
+          <x14:cfRule type="iconSet" priority="21" id="{B227CB59-278E-4A9D-98EB-7894CC307006}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6253,7 +6272,7 @@
           <xm:sqref>F13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{4FD1D166-C211-4511-AC07-D417ED483D0B}">
+          <x14:cfRule type="iconSet" priority="20" id="{4FD1D166-C211-4511-AC07-D417ED483D0B}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6272,7 +6291,7 @@
           <xm:sqref>F15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{8ED16EE5-9A95-4A55-8A04-0D8356EDEB0F}">
+          <x14:cfRule type="iconSet" priority="19" id="{8ED16EE5-9A95-4A55-8A04-0D8356EDEB0F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6291,7 +6310,7 @@
           <xm:sqref>F16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{00B9764F-B5E5-41A8-9F73-CE8C6FDA6D14}">
+          <x14:cfRule type="iconSet" priority="18" id="{00B9764F-B5E5-41A8-9F73-CE8C6FDA6D14}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6310,7 +6329,7 @@
           <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{D256993F-A47B-4EA7-86F9-CCDBFB57FDF7}">
+          <x14:cfRule type="iconSet" priority="17" id="{D256993F-A47B-4EA7-86F9-CCDBFB57FDF7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6329,7 +6348,7 @@
           <xm:sqref>F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{D41896BE-84C3-40A6-BA74-3E16B3A102FC}">
+          <x14:cfRule type="iconSet" priority="16" id="{D41896BE-84C3-40A6-BA74-3E16B3A102FC}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6348,7 +6367,7 @@
           <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{CFF9B7E8-896C-4401-A02A-3BD376BFEA70}">
+          <x14:cfRule type="iconSet" priority="15" id="{CFF9B7E8-896C-4401-A02A-3BD376BFEA70}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6367,7 +6386,7 @@
           <xm:sqref>F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{5C24DFB2-DBCA-41B9-8745-C2D5AB086724}">
+          <x14:cfRule type="iconSet" priority="14" id="{5C24DFB2-DBCA-41B9-8745-C2D5AB086724}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6386,7 +6405,7 @@
           <xm:sqref>F19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{883D7404-1110-4331-92AF-9AC0C5174910}">
+          <x14:cfRule type="iconSet" priority="13" id="{883D7404-1110-4331-92AF-9AC0C5174910}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6405,7 +6424,7 @@
           <xm:sqref>F23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{0DC21843-99CC-4844-8211-8B5CBDE1D20E}">
+          <x14:cfRule type="iconSet" priority="11" id="{0DC21843-99CC-4844-8211-8B5CBDE1D20E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6424,7 +6443,7 @@
           <xm:sqref>F29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{E009B2CC-5658-4E63-B7A4-30A20613C5F8}">
+          <x14:cfRule type="iconSet" priority="10" id="{E009B2CC-5658-4E63-B7A4-30A20613C5F8}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6443,7 +6462,7 @@
           <xm:sqref>F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{0177AC9F-6321-4526-94F0-85D67025A301}">
+          <x14:cfRule type="iconSet" priority="9" id="{0177AC9F-6321-4526-94F0-85D67025A301}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6462,7 +6481,7 @@
           <xm:sqref>F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{D0F9F74B-6C0F-44C8-901E-7631CAAAA939}">
+          <x14:cfRule type="iconSet" priority="8" id="{D0F9F74B-6C0F-44C8-901E-7631CAAAA939}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6481,7 +6500,7 @@
           <xm:sqref>F35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{FFD958AA-637C-45FF-AACC-9F33CFE79B58}">
+          <x14:cfRule type="iconSet" priority="6" id="{FFD958AA-637C-45FF-AACC-9F33CFE79B58}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6500,7 +6519,7 @@
           <xm:sqref>F36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{E59CAFDB-01A9-45D0-A1AC-9C4A4BB12EED}">
+          <x14:cfRule type="iconSet" priority="4" id="{E59CAFDB-01A9-45D0-A1AC-9C4A4BB12EED}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6519,7 +6538,7 @@
           <xm:sqref>F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{546BE9D2-92A1-4F70-BE4D-43867BD2C299}">
+          <x14:cfRule type="iconSet" priority="25" id="{546BE9D2-92A1-4F70-BE4D-43867BD2C299}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6538,7 +6557,7 @@
           <xm:sqref>F45 F47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{CFC03F01-B4FB-415A-A288-68BA86806685}">
+          <x14:cfRule type="iconSet" priority="2" id="{CFC03F01-B4FB-415A-A288-68BA86806685}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6556,6 +6575,25 @@
           </x14:cfRule>
           <xm:sqref>F41</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{EC9A83DA-F3F9-4A75-9F04-C0A338AFE16A}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F51</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="149">
   <si>
     <t>Week</t>
   </si>
@@ -506,6 +506,14 @@
 Measuremet
 Process
 Entities</t>
+  </si>
+  <si>
+    <t>6:30PM</t>
+  </si>
+  <si>
+    <t>Update Entity
+Write Use case
+Update architecture plan document</t>
   </si>
 </sst>
 </file>
@@ -1000,148 +1008,148 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1416,7 +1424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1542,10 +1550,10 @@
   <dimension ref="A1:N213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54:H55"/>
+      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1567,82 +1575,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="77"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="90"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="80"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="93"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="86"/>
-    </row>
-    <row r="5" spans="1:14" ht="51.75">
-      <c r="A5" s="95"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
+    </row>
+    <row r="5" spans="1:14" ht="49.5">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="32"/>
       <c r="H5" s="56" t="s">
         <v>112</v>
@@ -1687,10 +1695,10 @@
       <c r="J6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
     </row>
     <row r="7" spans="1:14" ht="16.5">
       <c r="A7" s="6">
@@ -1718,20 +1726,20 @@
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="93"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="38">
         <f>SUM(M8:M37)</f>
-        <v>81.510000000000005</v>
+        <v>85.51</v>
       </c>
       <c r="N7" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5">
-      <c r="A8" s="98">
+      <c r="A8" s="81">
         <v>2</v>
       </c>
       <c r="B8" s="2">
@@ -1746,7 +1754,7 @@
       <c r="E8" s="13">
         <v>1.5</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="111">
         <f>SUM(E8:E9)</f>
         <v>3</v>
       </c>
@@ -1771,7 +1779,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="33">
-      <c r="A9" s="99"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="2">
         <v>41589</v>
       </c>
@@ -1784,7 +1792,7 @@
       <c r="E9" s="13">
         <v>1.5</v>
       </c>
-      <c r="F9" s="68"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1806,7 +1814,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="66">
-      <c r="A10" s="99"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="2">
         <v>41590</v>
       </c>
@@ -1819,7 +1827,7 @@
       <c r="E10" s="13">
         <v>2</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="111">
         <f>SUM(E10:E11)</f>
         <v>4</v>
       </c>
@@ -1844,7 +1852,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="33">
-      <c r="A11" s="99"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="2">
         <v>41590</v>
       </c>
@@ -1857,7 +1865,7 @@
       <c r="E11" s="13">
         <v>2</v>
       </c>
-      <c r="F11" s="68"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1879,7 +1887,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="82.5">
-      <c r="A12" s="99"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="2">
         <v>41591</v>
       </c>
@@ -1910,14 +1918,14 @@
       <c r="L12" s="44"/>
       <c r="M12" s="45">
         <f>SUM(F49:F53)</f>
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="N12" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5">
-      <c r="A13" s="99"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="2">
         <v>41592</v>
       </c>
@@ -1930,7 +1938,7 @@
       <c r="E13" s="13">
         <v>1</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="111">
         <f>SUM(E13:E14)</f>
         <v>2.25</v>
       </c>
@@ -1955,7 +1963,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5">
-      <c r="A14" s="99"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="2">
         <v>41592</v>
       </c>
@@ -1968,7 +1976,7 @@
       <c r="E14" s="13">
         <v>1.25</v>
       </c>
-      <c r="F14" s="68"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="21" t="s">
         <v>28</v>
       </c>
@@ -1990,7 +1998,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="33">
-      <c r="A15" s="99"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="2">
         <v>41593</v>
       </c>
@@ -2028,7 +2036,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5">
-      <c r="A16" s="99"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="23">
         <v>41594</v>
       </c>
@@ -2066,7 +2074,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="33">
-      <c r="A17" s="100"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="23">
         <v>41595</v>
       </c>
@@ -2104,7 +2112,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5">
-      <c r="A18" s="103">
+      <c r="A18" s="84">
         <v>3</v>
       </c>
       <c r="B18" s="9">
@@ -2144,8 +2152,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="82.5">
-      <c r="A19" s="101"/>
-      <c r="B19" s="106">
+      <c r="A19" s="68"/>
+      <c r="B19" s="65">
         <v>41597</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2182,8 +2190,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="33">
-      <c r="A20" s="101"/>
-      <c r="B20" s="107"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="3" t="s">
         <v>91</v>
       </c>
@@ -2217,8 +2225,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="33">
-      <c r="A21" s="101"/>
-      <c r="B21" s="108"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
@@ -2252,7 +2260,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="66">
-      <c r="A22" s="101"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="9">
         <v>41598</v>
       </c>
@@ -2292,8 +2300,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="49.5">
-      <c r="A23" s="101"/>
-      <c r="B23" s="106">
+      <c r="A23" s="68"/>
+      <c r="B23" s="65">
         <v>41599</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2332,8 +2340,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="115.5">
-      <c r="A24" s="101"/>
-      <c r="B24" s="107"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
@@ -2365,8 +2373,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5">
-      <c r="A25" s="101"/>
-      <c r="B25" s="107"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="3" t="s">
         <v>101</v>
       </c>
@@ -2398,8 +2406,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5">
-      <c r="A26" s="101"/>
-      <c r="B26" s="107"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
@@ -2431,8 +2439,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5">
-      <c r="A27" s="101"/>
-      <c r="B27" s="107"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
@@ -2464,8 +2472,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="49.5">
-      <c r="A28" s="101"/>
-      <c r="B28" s="108"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
@@ -2499,8 +2507,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="33">
-      <c r="A29" s="101"/>
-      <c r="B29" s="106">
+      <c r="A29" s="68"/>
+      <c r="B29" s="65">
         <v>41600</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2539,8 +2547,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="33">
-      <c r="A30" s="101"/>
-      <c r="B30" s="107"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
@@ -2574,8 +2582,8 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="49.5">
-      <c r="A31" s="101"/>
-      <c r="B31" s="108"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
@@ -2609,8 +2617,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="33">
-      <c r="A32" s="101"/>
-      <c r="B32" s="106">
+      <c r="A32" s="68"/>
+      <c r="B32" s="65">
         <v>41601</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2647,8 +2655,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="49.5">
-      <c r="A33" s="101"/>
-      <c r="B33" s="108"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="3" t="s">
         <v>83</v>
       </c>
@@ -2720,7 +2728,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="16.5">
-      <c r="A35" s="105">
+      <c r="A35" s="80">
         <v>4</v>
       </c>
       <c r="B35" s="2">
@@ -2760,8 +2768,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="16.5">
-      <c r="A36" s="102"/>
-      <c r="B36" s="109">
+      <c r="A36" s="78"/>
+      <c r="B36" s="72">
         <v>41604</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -2773,7 +2781,7 @@
       <c r="E36" s="25">
         <v>2.5</v>
       </c>
-      <c r="F36" s="65">
+      <c r="F36" s="75">
         <f>SUM(E36:E38)</f>
         <v>5.25</v>
       </c>
@@ -2798,8 +2806,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="33">
-      <c r="A37" s="102"/>
-      <c r="B37" s="110"/>
+      <c r="A37" s="78"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="24" t="s">
         <v>63</v>
       </c>
@@ -2809,7 +2817,7 @@
       <c r="E37" s="25">
         <v>1.25</v>
       </c>
-      <c r="F37" s="112"/>
+      <c r="F37" s="76"/>
       <c r="G37" s="59" t="s">
         <v>64</v>
       </c>
@@ -2831,8 +2839,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="33">
-      <c r="A38" s="102"/>
-      <c r="B38" s="111"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="74"/>
       <c r="C38" s="24" t="s">
         <v>84</v>
       </c>
@@ -2842,7 +2850,7 @@
       <c r="E38" s="25">
         <v>1.5</v>
       </c>
-      <c r="F38" s="66"/>
+      <c r="F38" s="77"/>
       <c r="G38" s="59" t="s">
         <v>27</v>
       </c>
@@ -2857,8 +2865,8 @@
       <c r="N38" s="52"/>
     </row>
     <row r="39" spans="1:14" ht="16.5">
-      <c r="A39" s="102"/>
-      <c r="B39" s="109">
+      <c r="A39" s="78"/>
+      <c r="B39" s="72">
         <v>41605</v>
       </c>
       <c r="C39" s="24" t="s">
@@ -2870,7 +2878,7 @@
       <c r="E39" s="25">
         <v>1</v>
       </c>
-      <c r="F39" s="65">
+      <c r="F39" s="75">
         <f>SUM(E39:E40)</f>
         <v>3.33</v>
       </c>
@@ -2888,8 +2896,8 @@
       <c r="N39" s="52"/>
     </row>
     <row r="40" spans="1:14" ht="49.5">
-      <c r="A40" s="102"/>
-      <c r="B40" s="111"/>
+      <c r="A40" s="78"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="24" t="s">
         <v>63</v>
       </c>
@@ -2899,7 +2907,7 @@
       <c r="E40" s="25">
         <v>2.33</v>
       </c>
-      <c r="F40" s="66"/>
+      <c r="F40" s="77"/>
       <c r="G40" s="59" t="s">
         <v>64</v>
       </c>
@@ -2914,8 +2922,8 @@
       <c r="N40" s="52"/>
     </row>
     <row r="41" spans="1:14" ht="16.5">
-      <c r="A41" s="102"/>
-      <c r="B41" s="109">
+      <c r="A41" s="78"/>
+      <c r="B41" s="72">
         <v>41606</v>
       </c>
       <c r="C41" s="61" t="s">
@@ -2927,7 +2935,7 @@
       <c r="E41" s="61">
         <v>1.33</v>
       </c>
-      <c r="F41" s="65">
+      <c r="F41" s="75">
         <f>SUM(E41:E44)</f>
         <v>8.33</v>
       </c>
@@ -2945,8 +2953,8 @@
       <c r="N41" s="52"/>
     </row>
     <row r="42" spans="1:14" ht="16.5">
-      <c r="A42" s="102"/>
-      <c r="B42" s="110"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="61" t="s">
         <v>135</v>
       </c>
@@ -2956,7 +2964,7 @@
       <c r="E42" s="61">
         <v>1.75</v>
       </c>
-      <c r="F42" s="112"/>
+      <c r="F42" s="76"/>
       <c r="G42" s="59" t="s">
         <v>30</v>
       </c>
@@ -2971,8 +2979,8 @@
       <c r="N42" s="52"/>
     </row>
     <row r="43" spans="1:14" ht="16.5">
-      <c r="A43" s="102"/>
-      <c r="B43" s="110"/>
+      <c r="A43" s="78"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="61" t="s">
         <v>63</v>
       </c>
@@ -2982,7 +2990,7 @@
       <c r="E43" s="61">
         <v>2.75</v>
       </c>
-      <c r="F43" s="112"/>
+      <c r="F43" s="76"/>
       <c r="G43" s="59" t="s">
         <v>24</v>
       </c>
@@ -2997,8 +3005,8 @@
       <c r="N43" s="52"/>
     </row>
     <row r="44" spans="1:14" ht="33">
-      <c r="A44" s="102"/>
-      <c r="B44" s="111"/>
+      <c r="A44" s="78"/>
+      <c r="B44" s="74"/>
       <c r="C44" s="61" t="s">
         <v>67</v>
       </c>
@@ -3008,7 +3016,7 @@
       <c r="E44" s="25">
         <v>2.5</v>
       </c>
-      <c r="F44" s="66"/>
+      <c r="F44" s="77"/>
       <c r="G44" s="59" t="s">
         <v>27</v>
       </c>
@@ -3023,8 +3031,8 @@
       <c r="N44" s="52"/>
     </row>
     <row r="45" spans="1:14" ht="66">
-      <c r="A45" s="102"/>
-      <c r="B45" s="109">
+      <c r="A45" s="78"/>
+      <c r="B45" s="72">
         <v>41607</v>
       </c>
       <c r="C45" s="24" t="s">
@@ -3036,7 +3044,7 @@
       <c r="E45" s="25">
         <v>3.5</v>
       </c>
-      <c r="F45" s="65">
+      <c r="F45" s="75">
         <f>SUM(E45:E46)</f>
         <v>4.5</v>
       </c>
@@ -3054,8 +3062,8 @@
       <c r="N45" s="52"/>
     </row>
     <row r="46" spans="1:14" ht="33">
-      <c r="A46" s="102"/>
-      <c r="B46" s="111"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="74"/>
       <c r="C46" s="24" t="s">
         <v>83</v>
       </c>
@@ -3065,7 +3073,7 @@
       <c r="E46" s="25">
         <v>1</v>
       </c>
-      <c r="F46" s="66"/>
+      <c r="F46" s="77"/>
       <c r="G46" s="59" t="s">
         <v>27</v>
       </c>
@@ -3080,8 +3088,8 @@
       <c r="N46" s="52"/>
     </row>
     <row r="47" spans="1:14" ht="33">
-      <c r="A47" s="102"/>
-      <c r="B47" s="109">
+      <c r="A47" s="78"/>
+      <c r="B47" s="72">
         <v>41609</v>
       </c>
       <c r="C47" s="24" t="s">
@@ -3093,7 +3101,7 @@
       <c r="E47" s="25">
         <v>3.5</v>
       </c>
-      <c r="F47" s="65">
+      <c r="F47" s="75">
         <f>SUM(E47:E48)</f>
         <v>5</v>
       </c>
@@ -3111,8 +3119,8 @@
       <c r="N47" s="52"/>
     </row>
     <row r="48" spans="1:14" ht="49.5">
-      <c r="A48" s="102"/>
-      <c r="B48" s="111"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="74"/>
       <c r="C48" s="24" t="s">
         <v>69</v>
       </c>
@@ -3122,7 +3130,7 @@
       <c r="E48" s="25">
         <v>1.5</v>
       </c>
-      <c r="F48" s="66"/>
+      <c r="F48" s="77"/>
       <c r="G48" s="59" t="s">
         <v>27</v>
       </c>
@@ -3156,17 +3164,30 @@
       <c r="M49" s="52"/>
       <c r="N49" s="52"/>
     </row>
-    <row r="50" spans="1:14" ht="16.5">
+    <row r="50" spans="1:14" ht="49.5">
       <c r="A50" s="64"/>
       <c r="B50" s="9">
         <v>41611</v>
       </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
+      <c r="C50" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="22">
+        <v>4</v>
+      </c>
+      <c r="F50" s="54">
+        <f t="shared" ref="F50:F51" si="5">E50</f>
+        <v>4</v>
+      </c>
+      <c r="G50" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>148</v>
+      </c>
       <c r="I50" s="37"/>
       <c r="J50" s="37"/>
       <c r="K50" s="52"/>
@@ -3189,7 +3210,7 @@
         <v>4.5</v>
       </c>
       <c r="F51" s="54">
-        <f t="shared" ref="F51" si="5">E51</f>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="G51" s="37" t="s">
@@ -3242,7 +3263,7 @@
       <c r="N53" s="52"/>
     </row>
     <row r="54" spans="1:14" ht="16.5">
-      <c r="A54" s="102">
+      <c r="A54" s="78">
         <v>6</v>
       </c>
       <c r="B54" s="2">
@@ -3262,7 +3283,7 @@
       <c r="N54" s="52"/>
     </row>
     <row r="55" spans="1:14" ht="16.5">
-      <c r="A55" s="102"/>
+      <c r="A55" s="78"/>
       <c r="B55" s="2">
         <v>41618</v>
       </c>
@@ -3280,7 +3301,7 @@
       <c r="N55" s="52"/>
     </row>
     <row r="56" spans="1:14" ht="16.5">
-      <c r="A56" s="102"/>
+      <c r="A56" s="78"/>
       <c r="B56" s="2">
         <v>41619</v>
       </c>
@@ -3298,7 +3319,7 @@
       <c r="N56" s="52"/>
     </row>
     <row r="57" spans="1:14" ht="16.5">
-      <c r="A57" s="102"/>
+      <c r="A57" s="78"/>
       <c r="B57" s="2">
         <v>41620</v>
       </c>
@@ -3316,7 +3337,7 @@
       <c r="N57" s="52"/>
     </row>
     <row r="58" spans="1:14" ht="16.5">
-      <c r="A58" s="102"/>
+      <c r="A58" s="78"/>
       <c r="B58" s="2">
         <v>41621</v>
       </c>
@@ -3334,7 +3355,7 @@
       <c r="N58" s="52"/>
     </row>
     <row r="59" spans="1:14" ht="16.5">
-      <c r="A59" s="101">
+      <c r="A59" s="68">
         <v>7</v>
       </c>
       <c r="B59" s="9">
@@ -3354,7 +3375,7 @@
       <c r="N59" s="52"/>
     </row>
     <row r="60" spans="1:14" ht="16.5">
-      <c r="A60" s="101"/>
+      <c r="A60" s="68"/>
       <c r="B60" s="9">
         <v>41625</v>
       </c>
@@ -3372,7 +3393,7 @@
       <c r="N60" s="52"/>
     </row>
     <row r="61" spans="1:14" ht="16.5">
-      <c r="A61" s="101"/>
+      <c r="A61" s="68"/>
       <c r="B61" s="9">
         <v>41626</v>
       </c>
@@ -3390,7 +3411,7 @@
       <c r="N61" s="52"/>
     </row>
     <row r="62" spans="1:14" ht="16.5">
-      <c r="A62" s="101"/>
+      <c r="A62" s="68"/>
       <c r="B62" s="9">
         <v>41627</v>
       </c>
@@ -3408,7 +3429,7 @@
       <c r="N62" s="52"/>
     </row>
     <row r="63" spans="1:14" ht="16.5">
-      <c r="A63" s="101"/>
+      <c r="A63" s="68"/>
       <c r="B63" s="9">
         <v>41628</v>
       </c>
@@ -3426,7 +3447,7 @@
       <c r="N63" s="52"/>
     </row>
     <row r="64" spans="1:14" ht="16.5">
-      <c r="A64" s="102">
+      <c r="A64" s="78">
         <v>8</v>
       </c>
       <c r="B64" s="2">
@@ -3446,7 +3467,7 @@
       <c r="N64" s="52"/>
     </row>
     <row r="65" spans="1:14" ht="16.5">
-      <c r="A65" s="102"/>
+      <c r="A65" s="78"/>
       <c r="B65" s="2">
         <v>41632</v>
       </c>
@@ -3464,7 +3485,7 @@
       <c r="N65" s="52"/>
     </row>
     <row r="66" spans="1:14" ht="16.5">
-      <c r="A66" s="102"/>
+      <c r="A66" s="78"/>
       <c r="B66" s="2">
         <v>41633</v>
       </c>
@@ -3482,7 +3503,7 @@
       <c r="N66" s="52"/>
     </row>
     <row r="67" spans="1:14" ht="16.5">
-      <c r="A67" s="102"/>
+      <c r="A67" s="78"/>
       <c r="B67" s="2">
         <v>41634</v>
       </c>
@@ -3500,7 +3521,7 @@
       <c r="N67" s="52"/>
     </row>
     <row r="68" spans="1:14" ht="16.5">
-      <c r="A68" s="102"/>
+      <c r="A68" s="78"/>
       <c r="B68" s="2">
         <v>41635</v>
       </c>
@@ -3518,7 +3539,7 @@
       <c r="N68" s="52"/>
     </row>
     <row r="69" spans="1:14" ht="16.5">
-      <c r="A69" s="101">
+      <c r="A69" s="68">
         <v>9</v>
       </c>
       <c r="B69" s="9">
@@ -3538,7 +3559,7 @@
       <c r="N69" s="52"/>
     </row>
     <row r="70" spans="1:14" ht="16.5">
-      <c r="A70" s="101"/>
+      <c r="A70" s="68"/>
       <c r="B70" s="9">
         <v>41639</v>
       </c>
@@ -3556,7 +3577,7 @@
       <c r="N70" s="52"/>
     </row>
     <row r="71" spans="1:14" ht="16.5">
-      <c r="A71" s="101"/>
+      <c r="A71" s="68"/>
       <c r="B71" s="9">
         <v>41640</v>
       </c>
@@ -3574,7 +3595,7 @@
       <c r="N71" s="52"/>
     </row>
     <row r="72" spans="1:14" ht="16.5">
-      <c r="A72" s="101"/>
+      <c r="A72" s="68"/>
       <c r="B72" s="9">
         <v>41641</v>
       </c>
@@ -3592,7 +3613,7 @@
       <c r="N72" s="52"/>
     </row>
     <row r="73" spans="1:14" ht="16.5">
-      <c r="A73" s="101"/>
+      <c r="A73" s="68"/>
       <c r="B73" s="9">
         <v>41642</v>
       </c>
@@ -3610,7 +3631,7 @@
       <c r="N73" s="52"/>
     </row>
     <row r="74" spans="1:14" ht="16.5">
-      <c r="A74" s="102">
+      <c r="A74" s="78">
         <v>10</v>
       </c>
       <c r="B74" s="2">
@@ -3630,7 +3651,7 @@
       <c r="N74" s="52"/>
     </row>
     <row r="75" spans="1:14" ht="16.5">
-      <c r="A75" s="102"/>
+      <c r="A75" s="78"/>
       <c r="B75" s="2">
         <v>41646</v>
       </c>
@@ -3648,7 +3669,7 @@
       <c r="N75" s="52"/>
     </row>
     <row r="76" spans="1:14" ht="16.5">
-      <c r="A76" s="102"/>
+      <c r="A76" s="78"/>
       <c r="B76" s="2">
         <v>41647</v>
       </c>
@@ -3666,7 +3687,7 @@
       <c r="N76" s="52"/>
     </row>
     <row r="77" spans="1:14" ht="16.5">
-      <c r="A77" s="102"/>
+      <c r="A77" s="78"/>
       <c r="B77" s="2">
         <v>41648</v>
       </c>
@@ -3684,7 +3705,7 @@
       <c r="N77" s="52"/>
     </row>
     <row r="78" spans="1:14" ht="16.5">
-      <c r="A78" s="102"/>
+      <c r="A78" s="78"/>
       <c r="B78" s="2">
         <v>41649</v>
       </c>
@@ -3702,7 +3723,7 @@
       <c r="N78" s="52"/>
     </row>
     <row r="79" spans="1:14" ht="16.5">
-      <c r="A79" s="101">
+      <c r="A79" s="68">
         <v>11</v>
       </c>
       <c r="B79" s="9">
@@ -3722,7 +3743,7 @@
       <c r="N79" s="52"/>
     </row>
     <row r="80" spans="1:14" ht="16.5">
-      <c r="A80" s="101"/>
+      <c r="A80" s="68"/>
       <c r="B80" s="9">
         <v>41653</v>
       </c>
@@ -3740,7 +3761,7 @@
       <c r="N80" s="52"/>
     </row>
     <row r="81" spans="1:14" ht="16.5">
-      <c r="A81" s="101"/>
+      <c r="A81" s="68"/>
       <c r="B81" s="9">
         <v>41654</v>
       </c>
@@ -3758,7 +3779,7 @@
       <c r="N81" s="52"/>
     </row>
     <row r="82" spans="1:14" ht="16.5">
-      <c r="A82" s="101"/>
+      <c r="A82" s="68"/>
       <c r="B82" s="9">
         <v>41655</v>
       </c>
@@ -3776,7 +3797,7 @@
       <c r="N82" s="52"/>
     </row>
     <row r="83" spans="1:14" ht="16.5">
-      <c r="A83" s="101"/>
+      <c r="A83" s="68"/>
       <c r="B83" s="9">
         <v>41656</v>
       </c>
@@ -3794,7 +3815,7 @@
       <c r="N83" s="52"/>
     </row>
     <row r="84" spans="1:14" ht="16.5">
-      <c r="A84" s="102">
+      <c r="A84" s="78">
         <v>12</v>
       </c>
       <c r="B84" s="2">
@@ -3814,7 +3835,7 @@
       <c r="N84" s="52"/>
     </row>
     <row r="85" spans="1:14" ht="16.5">
-      <c r="A85" s="102"/>
+      <c r="A85" s="78"/>
       <c r="B85" s="2">
         <v>41660</v>
       </c>
@@ -3832,7 +3853,7 @@
       <c r="N85" s="52"/>
     </row>
     <row r="86" spans="1:14" ht="16.5">
-      <c r="A86" s="102"/>
+      <c r="A86" s="78"/>
       <c r="B86" s="2">
         <v>41661</v>
       </c>
@@ -3850,7 +3871,7 @@
       <c r="N86" s="52"/>
     </row>
     <row r="87" spans="1:14" ht="16.5">
-      <c r="A87" s="102"/>
+      <c r="A87" s="78"/>
       <c r="B87" s="2">
         <v>41662</v>
       </c>
@@ -3868,7 +3889,7 @@
       <c r="N87" s="52"/>
     </row>
     <row r="88" spans="1:14" ht="16.5">
-      <c r="A88" s="102"/>
+      <c r="A88" s="78"/>
       <c r="B88" s="2">
         <v>41663</v>
       </c>
@@ -3886,7 +3907,7 @@
       <c r="N88" s="52"/>
     </row>
     <row r="89" spans="1:14" ht="16.5">
-      <c r="A89" s="101">
+      <c r="A89" s="68">
         <v>13</v>
       </c>
       <c r="B89" s="9">
@@ -3908,7 +3929,7 @@
       <c r="N89" s="52"/>
     </row>
     <row r="90" spans="1:14" ht="16.5">
-      <c r="A90" s="101"/>
+      <c r="A90" s="68"/>
       <c r="B90" s="9">
         <v>41667</v>
       </c>
@@ -3928,7 +3949,7 @@
       <c r="N90" s="52"/>
     </row>
     <row r="91" spans="1:14" ht="16.5">
-      <c r="A91" s="101"/>
+      <c r="A91" s="68"/>
       <c r="B91" s="9">
         <v>41668</v>
       </c>
@@ -3948,7 +3969,7 @@
       <c r="N91" s="52"/>
     </row>
     <row r="92" spans="1:14" ht="16.5">
-      <c r="A92" s="101"/>
+      <c r="A92" s="68"/>
       <c r="B92" s="9">
         <v>41669</v>
       </c>
@@ -3968,7 +3989,7 @@
       <c r="N92" s="52"/>
     </row>
     <row r="93" spans="1:14" ht="16.5">
-      <c r="A93" s="101"/>
+      <c r="A93" s="68"/>
       <c r="B93" s="9">
         <v>41670</v>
       </c>
@@ -3988,7 +4009,7 @@
       <c r="N93" s="52"/>
     </row>
     <row r="94" spans="1:14" ht="16.5">
-      <c r="A94" s="102">
+      <c r="A94" s="78">
         <v>14</v>
       </c>
       <c r="B94" s="2">
@@ -4010,7 +4031,7 @@
       <c r="N94" s="52"/>
     </row>
     <row r="95" spans="1:14" ht="16.5">
-      <c r="A95" s="102"/>
+      <c r="A95" s="78"/>
       <c r="B95" s="2">
         <v>41674</v>
       </c>
@@ -4030,7 +4051,7 @@
       <c r="N95" s="52"/>
     </row>
     <row r="96" spans="1:14" ht="16.5">
-      <c r="A96" s="102"/>
+      <c r="A96" s="78"/>
       <c r="B96" s="2">
         <v>41675</v>
       </c>
@@ -4050,7 +4071,7 @@
       <c r="N96" s="52"/>
     </row>
     <row r="97" spans="1:14" ht="16.5">
-      <c r="A97" s="102"/>
+      <c r="A97" s="78"/>
       <c r="B97" s="2">
         <v>41676</v>
       </c>
@@ -4070,7 +4091,7 @@
       <c r="N97" s="52"/>
     </row>
     <row r="98" spans="1:14" ht="16.5">
-      <c r="A98" s="102"/>
+      <c r="A98" s="78"/>
       <c r="B98" s="2">
         <v>41677</v>
       </c>
@@ -4090,7 +4111,7 @@
       <c r="N98" s="52"/>
     </row>
     <row r="99" spans="1:14" ht="16.5">
-      <c r="A99" s="101">
+      <c r="A99" s="68">
         <v>15</v>
       </c>
       <c r="B99" s="9">
@@ -4110,7 +4131,7 @@
       <c r="N99" s="52"/>
     </row>
     <row r="100" spans="1:14" ht="16.5">
-      <c r="A100" s="101"/>
+      <c r="A100" s="68"/>
       <c r="B100" s="9">
         <v>41681</v>
       </c>
@@ -4128,7 +4149,7 @@
       <c r="N100" s="52"/>
     </row>
     <row r="101" spans="1:14" ht="16.5">
-      <c r="A101" s="101"/>
+      <c r="A101" s="68"/>
       <c r="B101" s="9">
         <v>41682</v>
       </c>
@@ -4146,7 +4167,7 @@
       <c r="N101" s="52"/>
     </row>
     <row r="102" spans="1:14" ht="16.5">
-      <c r="A102" s="101"/>
+      <c r="A102" s="68"/>
       <c r="B102" s="9">
         <v>41683</v>
       </c>
@@ -4164,7 +4185,7 @@
       <c r="N102" s="52"/>
     </row>
     <row r="103" spans="1:14" ht="16.5">
-      <c r="A103" s="101"/>
+      <c r="A103" s="68"/>
       <c r="B103" s="9">
         <v>41684</v>
       </c>
@@ -4182,7 +4203,7 @@
       <c r="N103" s="52"/>
     </row>
     <row r="104" spans="1:14" ht="16.5">
-      <c r="A104" s="102">
+      <c r="A104" s="78">
         <v>16</v>
       </c>
       <c r="B104" s="2">
@@ -4202,7 +4223,7 @@
       <c r="N104" s="52"/>
     </row>
     <row r="105" spans="1:14" ht="16.5">
-      <c r="A105" s="102"/>
+      <c r="A105" s="78"/>
       <c r="B105" s="2">
         <v>41688</v>
       </c>
@@ -4220,7 +4241,7 @@
       <c r="N105" s="52"/>
     </row>
     <row r="106" spans="1:14" ht="16.5">
-      <c r="A106" s="102"/>
+      <c r="A106" s="78"/>
       <c r="B106" s="2">
         <v>41689</v>
       </c>
@@ -4238,7 +4259,7 @@
       <c r="N106" s="52"/>
     </row>
     <row r="107" spans="1:14" ht="16.5">
-      <c r="A107" s="102"/>
+      <c r="A107" s="78"/>
       <c r="B107" s="2">
         <v>41690</v>
       </c>
@@ -4256,7 +4277,7 @@
       <c r="N107" s="52"/>
     </row>
     <row r="108" spans="1:14" ht="16.5">
-      <c r="A108" s="102"/>
+      <c r="A108" s="78"/>
       <c r="B108" s="2">
         <v>41691</v>
       </c>
@@ -4274,7 +4295,7 @@
       <c r="N108" s="52"/>
     </row>
     <row r="109" spans="1:14" ht="16.5">
-      <c r="A109" s="101">
+      <c r="A109" s="68">
         <v>17</v>
       </c>
       <c r="B109" s="9">
@@ -4294,7 +4315,7 @@
       <c r="N109" s="52"/>
     </row>
     <row r="110" spans="1:14" ht="16.5">
-      <c r="A110" s="101"/>
+      <c r="A110" s="68"/>
       <c r="B110" s="9">
         <v>41695</v>
       </c>
@@ -4312,7 +4333,7 @@
       <c r="N110" s="52"/>
     </row>
     <row r="111" spans="1:14" ht="16.5">
-      <c r="A111" s="101"/>
+      <c r="A111" s="68"/>
       <c r="B111" s="9">
         <v>41696</v>
       </c>
@@ -4330,7 +4351,7 @@
       <c r="N111" s="52"/>
     </row>
     <row r="112" spans="1:14" ht="16.5">
-      <c r="A112" s="101"/>
+      <c r="A112" s="68"/>
       <c r="B112" s="9">
         <v>41697</v>
       </c>
@@ -4348,7 +4369,7 @@
       <c r="N112" s="52"/>
     </row>
     <row r="113" spans="1:14" ht="16.5">
-      <c r="A113" s="101"/>
+      <c r="A113" s="68"/>
       <c r="B113" s="9">
         <v>41698</v>
       </c>
@@ -4366,7 +4387,7 @@
       <c r="N113" s="52"/>
     </row>
     <row r="114" spans="1:14" ht="16.5">
-      <c r="A114" s="102">
+      <c r="A114" s="78">
         <v>18</v>
       </c>
       <c r="B114" s="2">
@@ -4386,7 +4407,7 @@
       <c r="N114" s="52"/>
     </row>
     <row r="115" spans="1:14" ht="16.5">
-      <c r="A115" s="102"/>
+      <c r="A115" s="78"/>
       <c r="B115" s="2">
         <v>41702</v>
       </c>
@@ -4404,7 +4425,7 @@
       <c r="N115" s="52"/>
     </row>
     <row r="116" spans="1:14" ht="16.5">
-      <c r="A116" s="102"/>
+      <c r="A116" s="78"/>
       <c r="B116" s="2">
         <v>41703</v>
       </c>
@@ -4422,7 +4443,7 @@
       <c r="N116" s="52"/>
     </row>
     <row r="117" spans="1:14" ht="16.5">
-      <c r="A117" s="102"/>
+      <c r="A117" s="78"/>
       <c r="B117" s="2">
         <v>41704</v>
       </c>
@@ -4440,7 +4461,7 @@
       <c r="N117" s="52"/>
     </row>
     <row r="118" spans="1:14" ht="16.5">
-      <c r="A118" s="102"/>
+      <c r="A118" s="78"/>
       <c r="B118" s="2">
         <v>41705</v>
       </c>
@@ -4458,7 +4479,7 @@
       <c r="N118" s="52"/>
     </row>
     <row r="119" spans="1:14" ht="16.5">
-      <c r="A119" s="101">
+      <c r="A119" s="68">
         <v>19</v>
       </c>
       <c r="B119" s="9">
@@ -4478,7 +4499,7 @@
       <c r="N119" s="52"/>
     </row>
     <row r="120" spans="1:14" ht="16.5">
-      <c r="A120" s="101"/>
+      <c r="A120" s="68"/>
       <c r="B120" s="9">
         <v>41709</v>
       </c>
@@ -4496,7 +4517,7 @@
       <c r="N120" s="52"/>
     </row>
     <row r="121" spans="1:14" ht="16.5">
-      <c r="A121" s="101"/>
+      <c r="A121" s="68"/>
       <c r="B121" s="9">
         <v>41710</v>
       </c>
@@ -4514,7 +4535,7 @@
       <c r="N121" s="52"/>
     </row>
     <row r="122" spans="1:14" ht="16.5">
-      <c r="A122" s="101"/>
+      <c r="A122" s="68"/>
       <c r="B122" s="9">
         <v>41711</v>
       </c>
@@ -4532,7 +4553,7 @@
       <c r="N122" s="52"/>
     </row>
     <row r="123" spans="1:14" ht="16.5">
-      <c r="A123" s="101"/>
+      <c r="A123" s="68"/>
       <c r="B123" s="9">
         <v>41712</v>
       </c>
@@ -4550,7 +4571,7 @@
       <c r="N123" s="52"/>
     </row>
     <row r="124" spans="1:14" ht="16.5">
-      <c r="A124" s="102">
+      <c r="A124" s="78">
         <v>20</v>
       </c>
       <c r="B124" s="2">
@@ -4570,7 +4591,7 @@
       <c r="N124" s="52"/>
     </row>
     <row r="125" spans="1:14" ht="16.5">
-      <c r="A125" s="102"/>
+      <c r="A125" s="78"/>
       <c r="B125" s="2">
         <v>41716</v>
       </c>
@@ -4588,7 +4609,7 @@
       <c r="N125" s="52"/>
     </row>
     <row r="126" spans="1:14" ht="16.5">
-      <c r="A126" s="102"/>
+      <c r="A126" s="78"/>
       <c r="B126" s="2">
         <v>41717</v>
       </c>
@@ -4606,7 +4627,7 @@
       <c r="N126" s="52"/>
     </row>
     <row r="127" spans="1:14" ht="16.5">
-      <c r="A127" s="102"/>
+      <c r="A127" s="78"/>
       <c r="B127" s="2">
         <v>41718</v>
       </c>
@@ -4624,7 +4645,7 @@
       <c r="N127" s="52"/>
     </row>
     <row r="128" spans="1:14" ht="16.5">
-      <c r="A128" s="102"/>
+      <c r="A128" s="78"/>
       <c r="B128" s="2">
         <v>41719</v>
       </c>
@@ -4642,7 +4663,7 @@
       <c r="N128" s="52"/>
     </row>
     <row r="129" spans="1:14" ht="16.5">
-      <c r="A129" s="101">
+      <c r="A129" s="68">
         <v>21</v>
       </c>
       <c r="B129" s="9">
@@ -4662,7 +4683,7 @@
       <c r="N129" s="52"/>
     </row>
     <row r="130" spans="1:14" ht="16.5">
-      <c r="A130" s="101"/>
+      <c r="A130" s="68"/>
       <c r="B130" s="9">
         <v>41723</v>
       </c>
@@ -4680,7 +4701,7 @@
       <c r="N130" s="52"/>
     </row>
     <row r="131" spans="1:14" ht="16.5">
-      <c r="A131" s="101"/>
+      <c r="A131" s="68"/>
       <c r="B131" s="9">
         <v>41724</v>
       </c>
@@ -4698,7 +4719,7 @@
       <c r="N131" s="52"/>
     </row>
     <row r="132" spans="1:14" ht="16.5">
-      <c r="A132" s="101"/>
+      <c r="A132" s="68"/>
       <c r="B132" s="9">
         <v>41725</v>
       </c>
@@ -4716,7 +4737,7 @@
       <c r="N132" s="52"/>
     </row>
     <row r="133" spans="1:14" ht="16.5">
-      <c r="A133" s="101"/>
+      <c r="A133" s="68"/>
       <c r="B133" s="9">
         <v>41726</v>
       </c>
@@ -4734,7 +4755,7 @@
       <c r="N133" s="52"/>
     </row>
     <row r="134" spans="1:14" ht="16.5">
-      <c r="A134" s="102">
+      <c r="A134" s="78">
         <v>22</v>
       </c>
       <c r="B134" s="2">
@@ -4754,7 +4775,7 @@
       <c r="N134" s="52"/>
     </row>
     <row r="135" spans="1:14" ht="16.5">
-      <c r="A135" s="102"/>
+      <c r="A135" s="78"/>
       <c r="B135" s="2">
         <v>41730</v>
       </c>
@@ -4772,7 +4793,7 @@
       <c r="N135" s="52"/>
     </row>
     <row r="136" spans="1:14" ht="16.5">
-      <c r="A136" s="102"/>
+      <c r="A136" s="78"/>
       <c r="B136" s="2">
         <v>41731</v>
       </c>
@@ -4790,7 +4811,7 @@
       <c r="N136" s="52"/>
     </row>
     <row r="137" spans="1:14" ht="16.5">
-      <c r="A137" s="102"/>
+      <c r="A137" s="78"/>
       <c r="B137" s="2">
         <v>41732</v>
       </c>
@@ -4808,7 +4829,7 @@
       <c r="N137" s="52"/>
     </row>
     <row r="138" spans="1:14" ht="16.5">
-      <c r="A138" s="102"/>
+      <c r="A138" s="78"/>
       <c r="B138" s="2">
         <v>41733</v>
       </c>
@@ -4826,7 +4847,7 @@
       <c r="N138" s="52"/>
     </row>
     <row r="139" spans="1:14" ht="16.5">
-      <c r="A139" s="101">
+      <c r="A139" s="68">
         <v>23</v>
       </c>
       <c r="B139" s="9">
@@ -4846,7 +4867,7 @@
       <c r="N139" s="52"/>
     </row>
     <row r="140" spans="1:14" ht="16.5">
-      <c r="A140" s="101"/>
+      <c r="A140" s="68"/>
       <c r="B140" s="9">
         <v>41737</v>
       </c>
@@ -4864,7 +4885,7 @@
       <c r="N140" s="52"/>
     </row>
     <row r="141" spans="1:14" ht="16.5">
-      <c r="A141" s="101"/>
+      <c r="A141" s="68"/>
       <c r="B141" s="9">
         <v>41738</v>
       </c>
@@ -4882,7 +4903,7 @@
       <c r="N141" s="52"/>
     </row>
     <row r="142" spans="1:14" ht="16.5">
-      <c r="A142" s="101"/>
+      <c r="A142" s="68"/>
       <c r="B142" s="9">
         <v>41739</v>
       </c>
@@ -4900,7 +4921,7 @@
       <c r="N142" s="52"/>
     </row>
     <row r="143" spans="1:14" ht="16.5">
-      <c r="A143" s="101"/>
+      <c r="A143" s="68"/>
       <c r="B143" s="9">
         <v>41740</v>
       </c>
@@ -4918,7 +4939,7 @@
       <c r="N143" s="52"/>
     </row>
     <row r="144" spans="1:14" ht="16.5">
-      <c r="A144" s="102">
+      <c r="A144" s="78">
         <v>24</v>
       </c>
       <c r="B144" s="2">
@@ -4938,7 +4959,7 @@
       <c r="N144" s="52"/>
     </row>
     <row r="145" spans="1:14" ht="16.5">
-      <c r="A145" s="102"/>
+      <c r="A145" s="78"/>
       <c r="B145" s="2">
         <v>41744</v>
       </c>
@@ -4956,7 +4977,7 @@
       <c r="N145" s="52"/>
     </row>
     <row r="146" spans="1:14" ht="16.5">
-      <c r="A146" s="102"/>
+      <c r="A146" s="78"/>
       <c r="B146" s="2">
         <v>41745</v>
       </c>
@@ -4974,7 +4995,7 @@
       <c r="N146" s="52"/>
     </row>
     <row r="147" spans="1:14" ht="16.5">
-      <c r="A147" s="102"/>
+      <c r="A147" s="78"/>
       <c r="B147" s="2">
         <v>41746</v>
       </c>
@@ -4992,7 +5013,7 @@
       <c r="N147" s="52"/>
     </row>
     <row r="148" spans="1:14" ht="16.5">
-      <c r="A148" s="102"/>
+      <c r="A148" s="78"/>
       <c r="B148" s="2">
         <v>41747</v>
       </c>
@@ -5010,7 +5031,7 @@
       <c r="N148" s="52"/>
     </row>
     <row r="149" spans="1:14" ht="16.5">
-      <c r="A149" s="101">
+      <c r="A149" s="68">
         <v>25</v>
       </c>
       <c r="B149" s="9">
@@ -5030,7 +5051,7 @@
       <c r="N149" s="52"/>
     </row>
     <row r="150" spans="1:14" ht="16.5">
-      <c r="A150" s="101"/>
+      <c r="A150" s="68"/>
       <c r="B150" s="9">
         <v>41751</v>
       </c>
@@ -5048,7 +5069,7 @@
       <c r="N150" s="52"/>
     </row>
     <row r="151" spans="1:14" ht="16.5">
-      <c r="A151" s="101"/>
+      <c r="A151" s="68"/>
       <c r="B151" s="9">
         <v>41752</v>
       </c>
@@ -5066,7 +5087,7 @@
       <c r="N151" s="52"/>
     </row>
     <row r="152" spans="1:14" ht="16.5">
-      <c r="A152" s="101"/>
+      <c r="A152" s="68"/>
       <c r="B152" s="9">
         <v>41753</v>
       </c>
@@ -5084,7 +5105,7 @@
       <c r="N152" s="52"/>
     </row>
     <row r="153" spans="1:14" ht="16.5">
-      <c r="A153" s="101"/>
+      <c r="A153" s="68"/>
       <c r="B153" s="9">
         <v>41754</v>
       </c>
@@ -5102,7 +5123,7 @@
       <c r="N153" s="52"/>
     </row>
     <row r="154" spans="1:14" ht="16.5">
-      <c r="A154" s="102">
+      <c r="A154" s="78">
         <v>26</v>
       </c>
       <c r="B154" s="2">
@@ -5122,7 +5143,7 @@
       <c r="N154" s="52"/>
     </row>
     <row r="155" spans="1:14" ht="16.5">
-      <c r="A155" s="102"/>
+      <c r="A155" s="78"/>
       <c r="B155" s="2">
         <v>41758</v>
       </c>
@@ -5140,7 +5161,7 @@
       <c r="N155" s="52"/>
     </row>
     <row r="156" spans="1:14" ht="16.5">
-      <c r="A156" s="102"/>
+      <c r="A156" s="78"/>
       <c r="B156" s="2">
         <v>41759</v>
       </c>
@@ -5158,7 +5179,7 @@
       <c r="N156" s="52"/>
     </row>
     <row r="157" spans="1:14" ht="16.5">
-      <c r="A157" s="102"/>
+      <c r="A157" s="78"/>
       <c r="B157" s="2">
         <v>41760</v>
       </c>
@@ -5176,7 +5197,7 @@
       <c r="N157" s="52"/>
     </row>
     <row r="158" spans="1:14" ht="16.5">
-      <c r="A158" s="102"/>
+      <c r="A158" s="78"/>
       <c r="B158" s="2">
         <v>41761</v>
       </c>
@@ -5194,7 +5215,7 @@
       <c r="N158" s="52"/>
     </row>
     <row r="159" spans="1:14" ht="16.5">
-      <c r="A159" s="101">
+      <c r="A159" s="68">
         <v>27</v>
       </c>
       <c r="B159" s="9">
@@ -5214,7 +5235,7 @@
       <c r="N159" s="52"/>
     </row>
     <row r="160" spans="1:14" ht="16.5">
-      <c r="A160" s="101"/>
+      <c r="A160" s="68"/>
       <c r="B160" s="9">
         <v>41765</v>
       </c>
@@ -5232,7 +5253,7 @@
       <c r="N160" s="52"/>
     </row>
     <row r="161" spans="1:14" ht="16.5">
-      <c r="A161" s="101"/>
+      <c r="A161" s="68"/>
       <c r="B161" s="9">
         <v>41766</v>
       </c>
@@ -5250,7 +5271,7 @@
       <c r="N161" s="52"/>
     </row>
     <row r="162" spans="1:14" ht="16.5">
-      <c r="A162" s="101"/>
+      <c r="A162" s="68"/>
       <c r="B162" s="9">
         <v>41767</v>
       </c>
@@ -5268,7 +5289,7 @@
       <c r="N162" s="52"/>
     </row>
     <row r="163" spans="1:14" ht="16.5">
-      <c r="A163" s="101"/>
+      <c r="A163" s="68"/>
       <c r="B163" s="9">
         <v>41768</v>
       </c>
@@ -5286,7 +5307,7 @@
       <c r="N163" s="52"/>
     </row>
     <row r="164" spans="1:14" ht="16.5">
-      <c r="A164" s="102">
+      <c r="A164" s="78">
         <v>28</v>
       </c>
       <c r="B164" s="2">
@@ -5306,7 +5327,7 @@
       <c r="N164" s="52"/>
     </row>
     <row r="165" spans="1:14" ht="16.5">
-      <c r="A165" s="102"/>
+      <c r="A165" s="78"/>
       <c r="B165" s="2">
         <v>41772</v>
       </c>
@@ -5324,7 +5345,7 @@
       <c r="N165" s="52"/>
     </row>
     <row r="166" spans="1:14" ht="16.5">
-      <c r="A166" s="102"/>
+      <c r="A166" s="78"/>
       <c r="B166" s="2">
         <v>41773</v>
       </c>
@@ -5342,7 +5363,7 @@
       <c r="N166" s="52"/>
     </row>
     <row r="167" spans="1:14" ht="16.5">
-      <c r="A167" s="102"/>
+      <c r="A167" s="78"/>
       <c r="B167" s="2">
         <v>41774</v>
       </c>
@@ -5360,7 +5381,7 @@
       <c r="N167" s="52"/>
     </row>
     <row r="168" spans="1:14" ht="16.5">
-      <c r="A168" s="102"/>
+      <c r="A168" s="78"/>
       <c r="B168" s="2">
         <v>41775</v>
       </c>
@@ -5378,7 +5399,7 @@
       <c r="N168" s="52"/>
     </row>
     <row r="169" spans="1:14" ht="16.5">
-      <c r="A169" s="101">
+      <c r="A169" s="68">
         <v>29</v>
       </c>
       <c r="B169" s="9">
@@ -5398,7 +5419,7 @@
       <c r="N169" s="52"/>
     </row>
     <row r="170" spans="1:14" ht="16.5">
-      <c r="A170" s="101"/>
+      <c r="A170" s="68"/>
       <c r="B170" s="9">
         <v>41779</v>
       </c>
@@ -5416,7 +5437,7 @@
       <c r="N170" s="52"/>
     </row>
     <row r="171" spans="1:14" ht="16.5">
-      <c r="A171" s="101"/>
+      <c r="A171" s="68"/>
       <c r="B171" s="9">
         <v>41780</v>
       </c>
@@ -5434,7 +5455,7 @@
       <c r="N171" s="52"/>
     </row>
     <row r="172" spans="1:14" ht="16.5">
-      <c r="A172" s="101"/>
+      <c r="A172" s="68"/>
       <c r="B172" s="9">
         <v>41781</v>
       </c>
@@ -5452,7 +5473,7 @@
       <c r="N172" s="52"/>
     </row>
     <row r="173" spans="1:14" ht="16.5">
-      <c r="A173" s="101"/>
+      <c r="A173" s="68"/>
       <c r="B173" s="9">
         <v>41782</v>
       </c>
@@ -5470,7 +5491,7 @@
       <c r="N173" s="52"/>
     </row>
     <row r="174" spans="1:14" ht="16.5">
-      <c r="A174" s="104">
+      <c r="A174" s="79">
         <v>30</v>
       </c>
       <c r="B174" s="2">
@@ -5490,7 +5511,7 @@
       <c r="N174" s="52"/>
     </row>
     <row r="175" spans="1:14" ht="16.5">
-      <c r="A175" s="104"/>
+      <c r="A175" s="79"/>
       <c r="B175" s="2">
         <v>41786</v>
       </c>
@@ -5508,7 +5529,7 @@
       <c r="N175" s="52"/>
     </row>
     <row r="176" spans="1:14" ht="16.5">
-      <c r="A176" s="104"/>
+      <c r="A176" s="79"/>
       <c r="B176" s="2">
         <v>41787</v>
       </c>
@@ -5526,7 +5547,7 @@
       <c r="N176" s="52"/>
     </row>
     <row r="177" spans="1:14" ht="16.5">
-      <c r="A177" s="104"/>
+      <c r="A177" s="79"/>
       <c r="B177" s="2">
         <v>41788</v>
       </c>
@@ -5544,7 +5565,7 @@
       <c r="N177" s="52"/>
     </row>
     <row r="178" spans="1:14" ht="16.5">
-      <c r="A178" s="104"/>
+      <c r="A178" s="79"/>
       <c r="B178" s="2">
         <v>41789</v>
       </c>
@@ -5562,7 +5583,7 @@
       <c r="N178" s="52"/>
     </row>
     <row r="179" spans="1:14" ht="16.5">
-      <c r="A179" s="104"/>
+      <c r="A179" s="79"/>
       <c r="B179" s="10">
         <v>41790</v>
       </c>
@@ -6133,6 +6154,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A35:A48"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A129:A133"/>
+    <mergeCell ref="A134:A138"/>
+    <mergeCell ref="A104:A108"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A118"/>
+    <mergeCell ref="A119:A123"/>
+    <mergeCell ref="A124:A128"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A169:A173"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A63"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="A99:A103"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="A159:A163"/>
     <mergeCell ref="B23:B28"/>
@@ -6149,46 +6210,6 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="A169:A173"/>
-    <mergeCell ref="A174:A179"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A35:A48"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F23:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -6196,7 +6217,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{4014B23A-9A92-4C0A-84AA-38D1DDC243A5}">
+          <x14:cfRule type="iconSet" priority="25" id="{4014B23A-9A92-4C0A-84AA-38D1DDC243A5}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6215,7 +6236,7 @@
           <xm:sqref>F8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{06A2D883-25A5-47A0-9E42-1356F547AC95}">
+          <x14:cfRule type="iconSet" priority="24" id="{06A2D883-25A5-47A0-9E42-1356F547AC95}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6234,7 +6255,7 @@
           <xm:sqref>F7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{F0155C6B-E81B-4907-9A36-C4DCA4908A78}">
+          <x14:cfRule type="iconSet" priority="23" id="{F0155C6B-E81B-4907-9A36-C4DCA4908A78}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6253,7 +6274,7 @@
           <xm:sqref>F12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{B227CB59-278E-4A9D-98EB-7894CC307006}">
+          <x14:cfRule type="iconSet" priority="22" id="{B227CB59-278E-4A9D-98EB-7894CC307006}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6272,7 +6293,7 @@
           <xm:sqref>F13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="20" id="{4FD1D166-C211-4511-AC07-D417ED483D0B}">
+          <x14:cfRule type="iconSet" priority="21" id="{4FD1D166-C211-4511-AC07-D417ED483D0B}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6291,7 +6312,7 @@
           <xm:sqref>F15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{8ED16EE5-9A95-4A55-8A04-0D8356EDEB0F}">
+          <x14:cfRule type="iconSet" priority="20" id="{8ED16EE5-9A95-4A55-8A04-0D8356EDEB0F}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6310,7 +6331,7 @@
           <xm:sqref>F16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{00B9764F-B5E5-41A8-9F73-CE8C6FDA6D14}">
+          <x14:cfRule type="iconSet" priority="19" id="{00B9764F-B5E5-41A8-9F73-CE8C6FDA6D14}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6329,7 +6350,7 @@
           <xm:sqref>F17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{D256993F-A47B-4EA7-86F9-CCDBFB57FDF7}">
+          <x14:cfRule type="iconSet" priority="18" id="{D256993F-A47B-4EA7-86F9-CCDBFB57FDF7}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6348,7 +6369,7 @@
           <xm:sqref>F18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{D41896BE-84C3-40A6-BA74-3E16B3A102FC}">
+          <x14:cfRule type="iconSet" priority="17" id="{D41896BE-84C3-40A6-BA74-3E16B3A102FC}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6367,7 +6388,7 @@
           <xm:sqref>F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{CFF9B7E8-896C-4401-A02A-3BD376BFEA70}">
+          <x14:cfRule type="iconSet" priority="16" id="{CFF9B7E8-896C-4401-A02A-3BD376BFEA70}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6386,7 +6407,7 @@
           <xm:sqref>F10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{5C24DFB2-DBCA-41B9-8745-C2D5AB086724}">
+          <x14:cfRule type="iconSet" priority="15" id="{5C24DFB2-DBCA-41B9-8745-C2D5AB086724}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6405,7 +6426,7 @@
           <xm:sqref>F19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{883D7404-1110-4331-92AF-9AC0C5174910}">
+          <x14:cfRule type="iconSet" priority="14" id="{883D7404-1110-4331-92AF-9AC0C5174910}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6424,7 +6445,7 @@
           <xm:sqref>F23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{0DC21843-99CC-4844-8211-8B5CBDE1D20E}">
+          <x14:cfRule type="iconSet" priority="12" id="{0DC21843-99CC-4844-8211-8B5CBDE1D20E}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6443,7 +6464,7 @@
           <xm:sqref>F29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{E009B2CC-5658-4E63-B7A4-30A20613C5F8}">
+          <x14:cfRule type="iconSet" priority="11" id="{E009B2CC-5658-4E63-B7A4-30A20613C5F8}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6462,7 +6483,7 @@
           <xm:sqref>F32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{0177AC9F-6321-4526-94F0-85D67025A301}">
+          <x14:cfRule type="iconSet" priority="10" id="{0177AC9F-6321-4526-94F0-85D67025A301}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6481,7 +6502,7 @@
           <xm:sqref>F34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{D0F9F74B-6C0F-44C8-901E-7631CAAAA939}">
+          <x14:cfRule type="iconSet" priority="9" id="{D0F9F74B-6C0F-44C8-901E-7631CAAAA939}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6500,7 +6521,7 @@
           <xm:sqref>F35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{FFD958AA-637C-45FF-AACC-9F33CFE79B58}">
+          <x14:cfRule type="iconSet" priority="7" id="{FFD958AA-637C-45FF-AACC-9F33CFE79B58}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6519,7 +6540,7 @@
           <xm:sqref>F36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{E59CAFDB-01A9-45D0-A1AC-9C4A4BB12EED}">
+          <x14:cfRule type="iconSet" priority="5" id="{E59CAFDB-01A9-45D0-A1AC-9C4A4BB12EED}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6538,7 +6559,7 @@
           <xm:sqref>F39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{546BE9D2-92A1-4F70-BE4D-43867BD2C299}">
+          <x14:cfRule type="iconSet" priority="26" id="{546BE9D2-92A1-4F70-BE4D-43867BD2C299}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6557,7 +6578,7 @@
           <xm:sqref>F45 F47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{CFC03F01-B4FB-415A-A288-68BA86806685}">
+          <x14:cfRule type="iconSet" priority="3" id="{CFC03F01-B4FB-415A-A288-68BA86806685}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6576,7 +6597,7 @@
           <xm:sqref>F41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{EC9A83DA-F3F9-4A75-9F04-C0A338AFE16A}">
+          <x14:cfRule type="iconSet" priority="2" id="{EC9A83DA-F3F9-4A75-9F04-C0A338AFE16A}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -6594,6 +6615,25 @@
           </x14:cfRule>
           <xm:sqref>F51</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{3414DE04-4AA7-4EA1-9251-85D8CF7D1059}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>24</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F50</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thienphu\Desktop\Capstone\1. Project management\9. Timelog\individual time log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755" activeTab="1"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="List main task" sheetId="2" r:id="rId1"/>
     <sheet name="AS-PROJECT" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="152">
   <si>
     <t>Week</t>
   </si>
@@ -500,20 +505,36 @@
     <t>Team Meeting</t>
   </si>
   <si>
+    <t>6:30PM</t>
+  </si>
+  <si>
+    <t>10:30AM</t>
+  </si>
+  <si>
+    <t>Discuss entities and collection document
++ Rework entities
++ Implement analysis document &lt;Archi Driver specification&gt;</t>
+  </si>
+  <si>
+    <t>First Training Java + Spring with Mr. Thanh
++ Setup nessecsary tools
++ Understand DI and AOP in Spring framework
++ Demo Hello world with Spring</t>
+  </si>
+  <si>
     <t>Review documents:
-Master plan
-Risk management
-Measuremet
-Process
-Entities</t>
-  </si>
-  <si>
-    <t>6:30PM</t>
-  </si>
-  <si>
-    <t>Update Entity
+-Master plan
+-Risk management
+-Measuremet management
+-Process 
+-Entities
+Update timelog</t>
+  </si>
+  <si>
+    <t>Update Entities
 Write Use case
-Update architecture plan document</t>
+Update architecture plan document
+Update timelog</t>
   </si>
 </sst>
 </file>
@@ -523,7 +544,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,6 +1029,129 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1017,18 +1161,6 @@
     <xf numFmtId="16" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1038,118 +1170,7 @@
     <xf numFmtId="16" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1424,7 +1445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1435,16 +1456,16 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>31</v>
       </c>
@@ -1452,7 +1473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -1460,7 +1481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -1468,7 +1489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>3</v>
       </c>
@@ -1476,7 +1497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>4</v>
       </c>
@@ -1484,7 +1505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -1492,7 +1513,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>6</v>
       </c>
@@ -1500,7 +1521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>7</v>
       </c>
@@ -1508,7 +1529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>8</v>
       </c>
@@ -1516,7 +1537,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>9</v>
       </c>
@@ -1524,7 +1545,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>10</v>
       </c>
@@ -1532,7 +1553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>11</v>
       </c>
@@ -1547,16 +1568,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N213"/>
+  <dimension ref="A1:N215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="G52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G51" sqref="G51"/>
+      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
@@ -1574,83 +1595,83 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="88"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="90"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="85" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="77"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="91" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="93"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A3" s="100" t="s">
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="80"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="96"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="103"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="99"/>
-    </row>
-    <row r="5" spans="1:14" ht="49.5">
-      <c r="A5" s="108"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="110"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="83"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="86"/>
+    </row>
+    <row r="5" spans="1:14" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="32"/>
       <c r="H5" s="56" t="s">
         <v>112</v>
@@ -1664,7 +1685,7 @@
       <c r="M5" s="34"/>
       <c r="N5" s="34"/>
     </row>
-    <row r="6" spans="1:14" ht="33">
+    <row r="6" spans="1:14" ht="33" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>0</v>
       </c>
@@ -1695,12 +1716,12 @@
       <c r="J6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5">
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1726,20 +1747,20 @@
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="106" t="s">
+      <c r="K7" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="106"/>
+      <c r="L7" s="93"/>
       <c r="M7" s="38">
         <f>SUM(M8:M37)</f>
-        <v>85.51</v>
+        <v>90.51</v>
       </c>
       <c r="N7" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5">
-      <c r="A8" s="81">
+    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="100">
         <v>2</v>
       </c>
       <c r="B8" s="2">
@@ -1754,7 +1775,7 @@
       <c r="E8" s="13">
         <v>1.5</v>
       </c>
-      <c r="F8" s="111">
+      <c r="F8" s="67">
         <f>SUM(E8:E9)</f>
         <v>3</v>
       </c>
@@ -1778,8 +1799,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="33">
-      <c r="A9" s="82"/>
+    <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A9" s="101"/>
       <c r="B9" s="2">
         <v>41589</v>
       </c>
@@ -1792,7 +1813,7 @@
       <c r="E9" s="13">
         <v>1.5</v>
       </c>
-      <c r="F9" s="112"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1813,8 +1834,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="66">
-      <c r="A10" s="82"/>
+    <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.25">
+      <c r="A10" s="101"/>
       <c r="B10" s="2">
         <v>41590</v>
       </c>
@@ -1827,7 +1848,7 @@
       <c r="E10" s="13">
         <v>2</v>
       </c>
-      <c r="F10" s="111">
+      <c r="F10" s="67">
         <f>SUM(E10:E11)</f>
         <v>4</v>
       </c>
@@ -1851,8 +1872,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="33">
-      <c r="A11" s="82"/>
+    <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A11" s="101"/>
       <c r="B11" s="2">
         <v>41590</v>
       </c>
@@ -1865,7 +1886,7 @@
       <c r="E11" s="13">
         <v>2</v>
       </c>
-      <c r="F11" s="112"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1886,8 +1907,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="82.5">
-      <c r="A12" s="82"/>
+    <row r="12" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="101"/>
       <c r="B12" s="2">
         <v>41591</v>
       </c>
@@ -1917,15 +1938,15 @@
       </c>
       <c r="L12" s="44"/>
       <c r="M12" s="45">
-        <f>SUM(F49:F53)</f>
-        <v>8.5</v>
+        <f>SUM(F49:F55)</f>
+        <v>13.5</v>
       </c>
       <c r="N12" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5">
-      <c r="A13" s="82"/>
+    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="101"/>
       <c r="B13" s="2">
         <v>41592</v>
       </c>
@@ -1938,7 +1959,7 @@
       <c r="E13" s="13">
         <v>1</v>
       </c>
-      <c r="F13" s="111">
+      <c r="F13" s="67">
         <f>SUM(E13:E14)</f>
         <v>2.25</v>
       </c>
@@ -1955,15 +1976,15 @@
       </c>
       <c r="L13" s="44"/>
       <c r="M13" s="45">
-        <f>SUM(F54:F58)</f>
+        <f>SUM(F56:F60)</f>
         <v>0</v>
       </c>
       <c r="N13" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5">
-      <c r="A14" s="82"/>
+    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="101"/>
       <c r="B14" s="2">
         <v>41592</v>
       </c>
@@ -1976,7 +1997,7 @@
       <c r="E14" s="13">
         <v>1.25</v>
       </c>
-      <c r="F14" s="112"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="21" t="s">
         <v>28</v>
       </c>
@@ -1990,15 +2011,15 @@
       </c>
       <c r="L14" s="44"/>
       <c r="M14" s="45">
-        <f>SUM(F59:F63)</f>
+        <f>SUM(F61:F65)</f>
         <v>0</v>
       </c>
       <c r="N14" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="33">
-      <c r="A15" s="82"/>
+    <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A15" s="101"/>
       <c r="B15" s="2">
         <v>41593</v>
       </c>
@@ -2028,15 +2049,15 @@
       </c>
       <c r="L15" s="44"/>
       <c r="M15" s="45">
-        <f>SUM(F64:F68)</f>
+        <f>SUM(F66:F70)</f>
         <v>0</v>
       </c>
       <c r="N15" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.5">
-      <c r="A16" s="82"/>
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="101"/>
       <c r="B16" s="23">
         <v>41594</v>
       </c>
@@ -2066,15 +2087,15 @@
       </c>
       <c r="L16" s="44"/>
       <c r="M16" s="45">
-        <f>SUM(F69:F73)</f>
+        <f>SUM(F71:F75)</f>
         <v>0</v>
       </c>
       <c r="N16" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="33">
-      <c r="A17" s="83"/>
+    <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A17" s="102"/>
       <c r="B17" s="23">
         <v>41595</v>
       </c>
@@ -2104,15 +2125,15 @@
       </c>
       <c r="L17" s="44"/>
       <c r="M17" s="45">
-        <f>SUM(F74:F78)</f>
+        <f>SUM(F76:F80)</f>
         <v>0</v>
       </c>
       <c r="N17" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.5">
-      <c r="A18" s="84">
+    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="104">
         <v>3</v>
       </c>
       <c r="B18" s="9">
@@ -2144,16 +2165,16 @@
       </c>
       <c r="L18" s="44"/>
       <c r="M18" s="45">
-        <f>SUM(F79:F83)</f>
+        <f>SUM(F81:F85)</f>
         <v>0</v>
       </c>
       <c r="N18" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="82.5">
-      <c r="A19" s="68"/>
-      <c r="B19" s="65">
+    <row r="19" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="103"/>
+      <c r="B19" s="106">
         <v>41597</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2182,16 +2203,16 @@
       </c>
       <c r="L19" s="44"/>
       <c r="M19" s="45">
-        <f>SUM(F84:F88)</f>
+        <f>SUM(F86:F90)</f>
         <v>0</v>
       </c>
       <c r="N19" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="33">
-      <c r="A20" s="68"/>
-      <c r="B20" s="66"/>
+    <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A20" s="103"/>
+      <c r="B20" s="107"/>
       <c r="C20" s="3" t="s">
         <v>91</v>
       </c>
@@ -2217,16 +2238,16 @@
       </c>
       <c r="L20" s="44"/>
       <c r="M20" s="45">
-        <f>SUM(F89:F93)</f>
+        <f>SUM(F91:F95)</f>
         <v>0</v>
       </c>
       <c r="N20" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="33">
-      <c r="A21" s="68"/>
-      <c r="B21" s="67"/>
+    <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A21" s="103"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
@@ -2252,15 +2273,15 @@
       </c>
       <c r="L21" s="44"/>
       <c r="M21" s="45">
-        <f>SUM(F94:F98)</f>
+        <f>SUM(F96:F100)</f>
         <v>0</v>
       </c>
       <c r="N21" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="66">
-      <c r="A22" s="68"/>
+    <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.25">
+      <c r="A22" s="103"/>
       <c r="B22" s="9">
         <v>41598</v>
       </c>
@@ -2292,16 +2313,16 @@
       </c>
       <c r="L22" s="44"/>
       <c r="M22" s="45">
-        <f>SUM(F99:F103)</f>
+        <f>SUM(F101:F105)</f>
         <v>0</v>
       </c>
       <c r="N22" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="49.5">
-      <c r="A23" s="68"/>
-      <c r="B23" s="65">
+    <row r="23" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="103"/>
+      <c r="B23" s="106">
         <v>41599</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2332,16 +2353,16 @@
       </c>
       <c r="L23" s="44"/>
       <c r="M23" s="45">
-        <f>SUM(F104:F108)</f>
+        <f>SUM(F106:F110)</f>
         <v>0</v>
       </c>
       <c r="N23" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="115.5">
-      <c r="A24" s="68"/>
-      <c r="B24" s="66"/>
+    <row r="24" spans="1:14" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="103"/>
+      <c r="B24" s="107"/>
       <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
@@ -2365,16 +2386,16 @@
       </c>
       <c r="L24" s="44"/>
       <c r="M24" s="45">
-        <f>SUM(F109:F113)</f>
+        <f>SUM(F111:F115)</f>
         <v>0</v>
       </c>
       <c r="N24" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="16.5">
-      <c r="A25" s="68"/>
-      <c r="B25" s="66"/>
+    <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="103"/>
+      <c r="B25" s="107"/>
       <c r="C25" s="3" t="s">
         <v>101</v>
       </c>
@@ -2398,16 +2419,16 @@
       </c>
       <c r="L25" s="44"/>
       <c r="M25" s="45">
-        <f>SUM(F114:F118)</f>
+        <f>SUM(F116:F120)</f>
         <v>0</v>
       </c>
       <c r="N25" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16.5">
-      <c r="A26" s="68"/>
-      <c r="B26" s="66"/>
+    <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="103"/>
+      <c r="B26" s="107"/>
       <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
@@ -2431,16 +2452,16 @@
       </c>
       <c r="L26" s="44"/>
       <c r="M26" s="45">
-        <f>SUM(F119:F123)</f>
+        <f>SUM(F121:F125)</f>
         <v>0</v>
       </c>
       <c r="N26" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="16.5">
-      <c r="A27" s="68"/>
-      <c r="B27" s="66"/>
+    <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="103"/>
+      <c r="B27" s="107"/>
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
@@ -2464,16 +2485,16 @@
       </c>
       <c r="L27" s="44"/>
       <c r="M27" s="45">
-        <f>SUM(F124:F128)</f>
+        <f>SUM(F126:F130)</f>
         <v>0</v>
       </c>
       <c r="N27" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="49.5">
-      <c r="A28" s="68"/>
-      <c r="B28" s="67"/>
+    <row r="28" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="103"/>
+      <c r="B28" s="108"/>
       <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
@@ -2499,16 +2520,16 @@
       </c>
       <c r="L28" s="44"/>
       <c r="M28" s="45">
-        <f>SUM(F129:F133)</f>
+        <f>SUM(F131:F135)</f>
         <v>0</v>
       </c>
       <c r="N28" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="33">
-      <c r="A29" s="68"/>
-      <c r="B29" s="65">
+    <row r="29" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A29" s="103"/>
+      <c r="B29" s="106">
         <v>41600</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2539,16 +2560,16 @@
       </c>
       <c r="L29" s="44"/>
       <c r="M29" s="45">
-        <f>SUM(F134:F138)</f>
+        <f>SUM(F136:F140)</f>
         <v>0</v>
       </c>
       <c r="N29" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="33">
-      <c r="A30" s="68"/>
-      <c r="B30" s="66"/>
+    <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A30" s="103"/>
+      <c r="B30" s="107"/>
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
@@ -2574,16 +2595,16 @@
       </c>
       <c r="L30" s="44"/>
       <c r="M30" s="45">
-        <f>SUM(F139:F143)</f>
+        <f>SUM(F141:F145)</f>
         <v>0</v>
       </c>
       <c r="N30" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="49.5">
-      <c r="A31" s="68"/>
-      <c r="B31" s="67"/>
+    <row r="31" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="103"/>
+      <c r="B31" s="108"/>
       <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
@@ -2609,16 +2630,16 @@
       </c>
       <c r="L31" s="44"/>
       <c r="M31" s="45">
-        <f>SUM(F144:F148)</f>
+        <f>SUM(F146:F150)</f>
         <v>0</v>
       </c>
       <c r="N31" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="33">
-      <c r="A32" s="68"/>
-      <c r="B32" s="65">
+    <row r="32" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A32" s="103"/>
+      <c r="B32" s="106">
         <v>41601</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2647,16 +2668,16 @@
       </c>
       <c r="L32" s="44"/>
       <c r="M32" s="45">
-        <f>SUM(F149:F153)</f>
+        <f>SUM(F151:F155)</f>
         <v>0</v>
       </c>
       <c r="N32" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="49.5">
-      <c r="A33" s="68"/>
-      <c r="B33" s="67"/>
+    <row r="33" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="103"/>
+      <c r="B33" s="108"/>
       <c r="C33" s="3" t="s">
         <v>83</v>
       </c>
@@ -2682,14 +2703,14 @@
       </c>
       <c r="L33" s="44"/>
       <c r="M33" s="45">
-        <f>SUM(F154:F158)</f>
+        <f>SUM(F156:F160)</f>
         <v>0</v>
       </c>
       <c r="N33" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="16.5">
+    <row r="34" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="57"/>
       <c r="B34" s="9">
         <v>41602</v>
@@ -2720,15 +2741,15 @@
       </c>
       <c r="L34" s="44"/>
       <c r="M34" s="45">
-        <f>SUM(F159:F163)</f>
+        <f>SUM(F161:F165)</f>
         <v>0</v>
       </c>
       <c r="N34" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="16.5">
-      <c r="A35" s="80">
+    <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="98">
         <v>4</v>
       </c>
       <c r="B35" s="2">
@@ -2760,16 +2781,16 @@
       </c>
       <c r="L35" s="44"/>
       <c r="M35" s="45">
-        <f>SUM(F164:F168)</f>
+        <f>SUM(F166:F170)</f>
         <v>0</v>
       </c>
       <c r="N35" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="16.5">
-      <c r="A36" s="78"/>
-      <c r="B36" s="72">
+    <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="99"/>
+      <c r="B36" s="109">
         <v>41604</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -2781,7 +2802,7 @@
       <c r="E36" s="25">
         <v>2.5</v>
       </c>
-      <c r="F36" s="75">
+      <c r="F36" s="65">
         <f>SUM(E36:E38)</f>
         <v>5.25</v>
       </c>
@@ -2798,16 +2819,16 @@
       </c>
       <c r="L36" s="44"/>
       <c r="M36" s="45">
-        <f>SUM(F169:F173)</f>
+        <f>SUM(F171:F175)</f>
         <v>0</v>
       </c>
       <c r="N36" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="33">
-      <c r="A37" s="78"/>
-      <c r="B37" s="73"/>
+    <row r="37" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A37" s="99"/>
+      <c r="B37" s="110"/>
       <c r="C37" s="24" t="s">
         <v>63</v>
       </c>
@@ -2817,7 +2838,7 @@
       <c r="E37" s="25">
         <v>1.25</v>
       </c>
-      <c r="F37" s="76"/>
+      <c r="F37" s="112"/>
       <c r="G37" s="59" t="s">
         <v>64</v>
       </c>
@@ -2831,16 +2852,16 @@
       </c>
       <c r="L37" s="44"/>
       <c r="M37" s="45">
-        <f>SUM(F174:F178)</f>
+        <f>SUM(F176:F180)</f>
         <v>0</v>
       </c>
       <c r="N37" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="33">
-      <c r="A38" s="78"/>
-      <c r="B38" s="74"/>
+    <row r="38" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A38" s="99"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="24" t="s">
         <v>84</v>
       </c>
@@ -2850,7 +2871,7 @@
       <c r="E38" s="25">
         <v>1.5</v>
       </c>
-      <c r="F38" s="77"/>
+      <c r="F38" s="66"/>
       <c r="G38" s="59" t="s">
         <v>27</v>
       </c>
@@ -2864,9 +2885,9 @@
       <c r="M38" s="52"/>
       <c r="N38" s="52"/>
     </row>
-    <row r="39" spans="1:14" ht="16.5">
-      <c r="A39" s="78"/>
-      <c r="B39" s="72">
+    <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="99"/>
+      <c r="B39" s="109">
         <v>41605</v>
       </c>
       <c r="C39" s="24" t="s">
@@ -2878,7 +2899,7 @@
       <c r="E39" s="25">
         <v>1</v>
       </c>
-      <c r="F39" s="75">
+      <c r="F39" s="65">
         <f>SUM(E39:E40)</f>
         <v>3.33</v>
       </c>
@@ -2895,9 +2916,9 @@
       <c r="M39" s="52"/>
       <c r="N39" s="52"/>
     </row>
-    <row r="40" spans="1:14" ht="49.5">
-      <c r="A40" s="78"/>
-      <c r="B40" s="74"/>
+    <row r="40" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="99"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="24" t="s">
         <v>63</v>
       </c>
@@ -2907,7 +2928,7 @@
       <c r="E40" s="25">
         <v>2.33</v>
       </c>
-      <c r="F40" s="77"/>
+      <c r="F40" s="66"/>
       <c r="G40" s="59" t="s">
         <v>64</v>
       </c>
@@ -2921,9 +2942,9 @@
       <c r="M40" s="52"/>
       <c r="N40" s="52"/>
     </row>
-    <row r="41" spans="1:14" ht="16.5">
-      <c r="A41" s="78"/>
-      <c r="B41" s="72">
+    <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="99"/>
+      <c r="B41" s="109">
         <v>41606</v>
       </c>
       <c r="C41" s="61" t="s">
@@ -2935,7 +2956,7 @@
       <c r="E41" s="61">
         <v>1.33</v>
       </c>
-      <c r="F41" s="75">
+      <c r="F41" s="65">
         <f>SUM(E41:E44)</f>
         <v>8.33</v>
       </c>
@@ -2952,9 +2973,9 @@
       <c r="M41" s="52"/>
       <c r="N41" s="52"/>
     </row>
-    <row r="42" spans="1:14" ht="16.5">
-      <c r="A42" s="78"/>
-      <c r="B42" s="73"/>
+    <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="99"/>
+      <c r="B42" s="110"/>
       <c r="C42" s="61" t="s">
         <v>135</v>
       </c>
@@ -2964,7 +2985,7 @@
       <c r="E42" s="61">
         <v>1.75</v>
       </c>
-      <c r="F42" s="76"/>
+      <c r="F42" s="112"/>
       <c r="G42" s="59" t="s">
         <v>30</v>
       </c>
@@ -2978,9 +2999,9 @@
       <c r="M42" s="52"/>
       <c r="N42" s="52"/>
     </row>
-    <row r="43" spans="1:14" ht="16.5">
-      <c r="A43" s="78"/>
-      <c r="B43" s="73"/>
+    <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="99"/>
+      <c r="B43" s="110"/>
       <c r="C43" s="61" t="s">
         <v>63</v>
       </c>
@@ -2990,7 +3011,7 @@
       <c r="E43" s="61">
         <v>2.75</v>
       </c>
-      <c r="F43" s="76"/>
+      <c r="F43" s="112"/>
       <c r="G43" s="59" t="s">
         <v>24</v>
       </c>
@@ -3004,9 +3025,9 @@
       <c r="M43" s="52"/>
       <c r="N43" s="52"/>
     </row>
-    <row r="44" spans="1:14" ht="33">
-      <c r="A44" s="78"/>
-      <c r="B44" s="74"/>
+    <row r="44" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A44" s="99"/>
+      <c r="B44" s="111"/>
       <c r="C44" s="61" t="s">
         <v>67</v>
       </c>
@@ -3016,7 +3037,7 @@
       <c r="E44" s="25">
         <v>2.5</v>
       </c>
-      <c r="F44" s="77"/>
+      <c r="F44" s="66"/>
       <c r="G44" s="59" t="s">
         <v>27</v>
       </c>
@@ -3030,9 +3051,9 @@
       <c r="M44" s="52"/>
       <c r="N44" s="52"/>
     </row>
-    <row r="45" spans="1:14" ht="66">
-      <c r="A45" s="78"/>
-      <c r="B45" s="72">
+    <row r="45" spans="1:14" ht="66" x14ac:dyDescent="0.25">
+      <c r="A45" s="99"/>
+      <c r="B45" s="109">
         <v>41607</v>
       </c>
       <c r="C45" s="24" t="s">
@@ -3044,7 +3065,7 @@
       <c r="E45" s="25">
         <v>3.5</v>
       </c>
-      <c r="F45" s="75">
+      <c r="F45" s="65">
         <f>SUM(E45:E46)</f>
         <v>4.5</v>
       </c>
@@ -3061,9 +3082,9 @@
       <c r="M45" s="52"/>
       <c r="N45" s="52"/>
     </row>
-    <row r="46" spans="1:14" ht="33">
-      <c r="A46" s="78"/>
-      <c r="B46" s="74"/>
+    <row r="46" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A46" s="99"/>
+      <c r="B46" s="111"/>
       <c r="C46" s="24" t="s">
         <v>83</v>
       </c>
@@ -3073,7 +3094,7 @@
       <c r="E46" s="25">
         <v>1</v>
       </c>
-      <c r="F46" s="77"/>
+      <c r="F46" s="66"/>
       <c r="G46" s="59" t="s">
         <v>27</v>
       </c>
@@ -3087,9 +3108,9 @@
       <c r="M46" s="52"/>
       <c r="N46" s="52"/>
     </row>
-    <row r="47" spans="1:14" ht="33">
-      <c r="A47" s="78"/>
-      <c r="B47" s="72">
+    <row r="47" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A47" s="99"/>
+      <c r="B47" s="109">
         <v>41609</v>
       </c>
       <c r="C47" s="24" t="s">
@@ -3101,7 +3122,7 @@
       <c r="E47" s="25">
         <v>3.5</v>
       </c>
-      <c r="F47" s="75">
+      <c r="F47" s="65">
         <f>SUM(E47:E48)</f>
         <v>5</v>
       </c>
@@ -3118,9 +3139,9 @@
       <c r="M47" s="52"/>
       <c r="N47" s="52"/>
     </row>
-    <row r="48" spans="1:14" ht="49.5">
-      <c r="A48" s="78"/>
-      <c r="B48" s="74"/>
+    <row r="48" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="99"/>
+      <c r="B48" s="111"/>
       <c r="C48" s="24" t="s">
         <v>69</v>
       </c>
@@ -3130,7 +3151,7 @@
       <c r="E48" s="25">
         <v>1.5</v>
       </c>
-      <c r="F48" s="77"/>
+      <c r="F48" s="66"/>
       <c r="G48" s="59" t="s">
         <v>27</v>
       </c>
@@ -3144,7 +3165,7 @@
       <c r="M48" s="52"/>
       <c r="N48" s="52"/>
     </row>
-    <row r="49" spans="1:14" ht="16.5">
+    <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="64">
         <v>5</v>
       </c>
@@ -3164,26 +3185,26 @@
       <c r="M49" s="52"/>
       <c r="N49" s="52"/>
     </row>
-    <row r="50" spans="1:14" ht="49.5">
+    <row r="50" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A50" s="64"/>
-      <c r="B50" s="9">
+      <c r="B50" s="106">
         <v>41611</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="E50" s="22">
-        <v>4</v>
-      </c>
-      <c r="F50" s="54">
-        <f t="shared" ref="F50:F51" si="5">E50</f>
-        <v>4</v>
-      </c>
-      <c r="G50" s="37" t="s">
-        <v>27</v>
+        <v>1.5</v>
+      </c>
+      <c r="F50" s="69">
+        <f>SUM(E50:E52)</f>
+        <v>9</v>
+      </c>
+      <c r="G50" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="H50" s="27" t="s">
         <v>148</v>
@@ -3195,29 +3216,24 @@
       <c r="M50" s="52"/>
       <c r="N50" s="52"/>
     </row>
-    <row r="51" spans="1:14" ht="99">
+    <row r="51" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="A51" s="64"/>
-      <c r="B51" s="9">
-        <v>41612</v>
-      </c>
+      <c r="B51" s="107"/>
       <c r="C51" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="E51" s="22">
-        <v>4.5</v>
-      </c>
-      <c r="F51" s="54">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
-      <c r="G51" s="37" t="s">
-        <v>145</v>
+        <v>3.5</v>
+      </c>
+      <c r="F51" s="70"/>
+      <c r="G51" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I51" s="37"/>
       <c r="J51" s="37"/>
@@ -3226,17 +3242,25 @@
       <c r="M51" s="52"/>
       <c r="N51" s="52"/>
     </row>
-    <row r="52" spans="1:14" ht="16.5">
+    <row r="52" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="A52" s="64"/>
-      <c r="B52" s="9">
-        <v>41613</v>
-      </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="22">
+        <v>4</v>
+      </c>
+      <c r="F52" s="71"/>
+      <c r="G52" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>151</v>
+      </c>
       <c r="I52" s="37"/>
       <c r="J52" s="37"/>
       <c r="K52" s="52"/>
@@ -3244,17 +3268,30 @@
       <c r="M52" s="52"/>
       <c r="N52" s="52"/>
     </row>
-    <row r="53" spans="1:14" ht="16.5">
+    <row r="53" spans="1:14" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A53" s="64"/>
       <c r="B53" s="9">
-        <v>41614</v>
-      </c>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
+        <v>41612</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="F53" s="54">
+        <f t="shared" ref="F52:F53" si="5">E53</f>
+        <v>4.5</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>150</v>
+      </c>
       <c r="I53" s="37"/>
       <c r="J53" s="37"/>
       <c r="K53" s="52"/>
@@ -3262,48 +3299,48 @@
       <c r="M53" s="52"/>
       <c r="N53" s="52"/>
     </row>
-    <row r="54" spans="1:14" ht="16.5">
-      <c r="A54" s="78">
-        <v>6</v>
-      </c>
-      <c r="B54" s="2">
-        <v>41617</v>
-      </c>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="44"/>
+    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="64"/>
+      <c r="B54" s="9">
+        <v>41613</v>
+      </c>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
       <c r="K54" s="52"/>
       <c r="L54" s="52"/>
       <c r="M54" s="52"/>
       <c r="N54" s="52"/>
     </row>
-    <row r="55" spans="1:14" ht="16.5">
-      <c r="A55" s="78"/>
-      <c r="B55" s="2">
-        <v>41618</v>
-      </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="44"/>
+    <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="64"/>
+      <c r="B55" s="9">
+        <v>41614</v>
+      </c>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
       <c r="K55" s="52"/>
       <c r="L55" s="52"/>
       <c r="M55" s="52"/>
       <c r="N55" s="52"/>
     </row>
-    <row r="56" spans="1:14" ht="16.5">
-      <c r="A56" s="78"/>
+    <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="99">
+        <v>6</v>
+      </c>
       <c r="B56" s="2">
-        <v>41619</v>
+        <v>41617</v>
       </c>
       <c r="C56" s="44"/>
       <c r="D56" s="44"/>
@@ -3318,10 +3355,10 @@
       <c r="M56" s="52"/>
       <c r="N56" s="52"/>
     </row>
-    <row r="57" spans="1:14" ht="16.5">
-      <c r="A57" s="78"/>
+    <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="99"/>
       <c r="B57" s="2">
-        <v>41620</v>
+        <v>41618</v>
       </c>
       <c r="C57" s="44"/>
       <c r="D57" s="44"/>
@@ -3336,10 +3373,10 @@
       <c r="M57" s="52"/>
       <c r="N57" s="52"/>
     </row>
-    <row r="58" spans="1:14" ht="16.5">
-      <c r="A58" s="78"/>
+    <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="99"/>
       <c r="B58" s="2">
-        <v>41621</v>
+        <v>41619</v>
       </c>
       <c r="C58" s="44"/>
       <c r="D58" s="44"/>
@@ -3354,48 +3391,48 @@
       <c r="M58" s="52"/>
       <c r="N58" s="52"/>
     </row>
-    <row r="59" spans="1:14" ht="16.5">
-      <c r="A59" s="68">
-        <v>7</v>
-      </c>
-      <c r="B59" s="9">
-        <v>41624</v>
-      </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
+    <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="99"/>
+      <c r="B59" s="2">
+        <v>41620</v>
+      </c>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
       <c r="K59" s="52"/>
       <c r="L59" s="52"/>
       <c r="M59" s="52"/>
       <c r="N59" s="52"/>
     </row>
-    <row r="60" spans="1:14" ht="16.5">
-      <c r="A60" s="68"/>
-      <c r="B60" s="9">
-        <v>41625</v>
-      </c>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
+    <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="99"/>
+      <c r="B60" s="2">
+        <v>41621</v>
+      </c>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
       <c r="K60" s="52"/>
       <c r="L60" s="52"/>
       <c r="M60" s="52"/>
       <c r="N60" s="52"/>
     </row>
-    <row r="61" spans="1:14" ht="16.5">
-      <c r="A61" s="68"/>
+    <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="103">
+        <v>7</v>
+      </c>
       <c r="B61" s="9">
-        <v>41626</v>
+        <v>41624</v>
       </c>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -3410,10 +3447,10 @@
       <c r="M61" s="52"/>
       <c r="N61" s="52"/>
     </row>
-    <row r="62" spans="1:14" ht="16.5">
-      <c r="A62" s="68"/>
+    <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="103"/>
       <c r="B62" s="9">
-        <v>41627</v>
+        <v>41625</v>
       </c>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -3428,10 +3465,10 @@
       <c r="M62" s="52"/>
       <c r="N62" s="52"/>
     </row>
-    <row r="63" spans="1:14" ht="16.5">
-      <c r="A63" s="68"/>
+    <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="103"/>
       <c r="B63" s="9">
-        <v>41628</v>
+        <v>41626</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -3446,48 +3483,48 @@
       <c r="M63" s="52"/>
       <c r="N63" s="52"/>
     </row>
-    <row r="64" spans="1:14" ht="16.5">
-      <c r="A64" s="78">
-        <v>8</v>
-      </c>
-      <c r="B64" s="2">
-        <v>41631</v>
-      </c>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
+    <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="103"/>
+      <c r="B64" s="9">
+        <v>41627</v>
+      </c>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
       <c r="K64" s="52"/>
       <c r="L64" s="52"/>
       <c r="M64" s="52"/>
       <c r="N64" s="52"/>
     </row>
-    <row r="65" spans="1:14" ht="16.5">
-      <c r="A65" s="78"/>
-      <c r="B65" s="2">
-        <v>41632</v>
-      </c>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="44"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
+    <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="103"/>
+      <c r="B65" s="9">
+        <v>41628</v>
+      </c>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
       <c r="K65" s="52"/>
       <c r="L65" s="52"/>
       <c r="M65" s="52"/>
       <c r="N65" s="52"/>
     </row>
-    <row r="66" spans="1:14" ht="16.5">
-      <c r="A66" s="78"/>
+    <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="99">
+        <v>8</v>
+      </c>
       <c r="B66" s="2">
-        <v>41633</v>
+        <v>41631</v>
       </c>
       <c r="C66" s="44"/>
       <c r="D66" s="44"/>
@@ -3502,10 +3539,10 @@
       <c r="M66" s="52"/>
       <c r="N66" s="52"/>
     </row>
-    <row r="67" spans="1:14" ht="16.5">
-      <c r="A67" s="78"/>
+    <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="99"/>
       <c r="B67" s="2">
-        <v>41634</v>
+        <v>41632</v>
       </c>
       <c r="C67" s="44"/>
       <c r="D67" s="44"/>
@@ -3520,10 +3557,10 @@
       <c r="M67" s="52"/>
       <c r="N67" s="52"/>
     </row>
-    <row r="68" spans="1:14" ht="16.5">
-      <c r="A68" s="78"/>
+    <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="99"/>
       <c r="B68" s="2">
-        <v>41635</v>
+        <v>41633</v>
       </c>
       <c r="C68" s="44"/>
       <c r="D68" s="44"/>
@@ -3538,48 +3575,48 @@
       <c r="M68" s="52"/>
       <c r="N68" s="52"/>
     </row>
-    <row r="69" spans="1:14" ht="16.5">
-      <c r="A69" s="68">
-        <v>9</v>
-      </c>
-      <c r="B69" s="9">
-        <v>41638</v>
-      </c>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
+    <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="99"/>
+      <c r="B69" s="2">
+        <v>41634</v>
+      </c>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
       <c r="K69" s="52"/>
       <c r="L69" s="52"/>
       <c r="M69" s="52"/>
       <c r="N69" s="52"/>
     </row>
-    <row r="70" spans="1:14" ht="16.5">
-      <c r="A70" s="68"/>
-      <c r="B70" s="9">
-        <v>41639</v>
-      </c>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
+    <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="99"/>
+      <c r="B70" s="2">
+        <v>41635</v>
+      </c>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
       <c r="K70" s="52"/>
       <c r="L70" s="52"/>
       <c r="M70" s="52"/>
       <c r="N70" s="52"/>
     </row>
-    <row r="71" spans="1:14" ht="16.5">
-      <c r="A71" s="68"/>
+    <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="103">
+        <v>9</v>
+      </c>
       <c r="B71" s="9">
-        <v>41640</v>
+        <v>41638</v>
       </c>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -3594,10 +3631,10 @@
       <c r="M71" s="52"/>
       <c r="N71" s="52"/>
     </row>
-    <row r="72" spans="1:14" ht="16.5">
-      <c r="A72" s="68"/>
+    <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="103"/>
       <c r="B72" s="9">
-        <v>41641</v>
+        <v>41639</v>
       </c>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -3612,10 +3649,10 @@
       <c r="M72" s="52"/>
       <c r="N72" s="52"/>
     </row>
-    <row r="73" spans="1:14" ht="16.5">
-      <c r="A73" s="68"/>
+    <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="103"/>
       <c r="B73" s="9">
-        <v>41642</v>
+        <v>41640</v>
       </c>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -3630,48 +3667,48 @@
       <c r="M73" s="52"/>
       <c r="N73" s="52"/>
     </row>
-    <row r="74" spans="1:14" ht="16.5">
-      <c r="A74" s="78">
-        <v>10</v>
-      </c>
-      <c r="B74" s="2">
-        <v>41645</v>
-      </c>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="44"/>
+    <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="103"/>
+      <c r="B74" s="9">
+        <v>41641</v>
+      </c>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
       <c r="K74" s="52"/>
       <c r="L74" s="52"/>
       <c r="M74" s="52"/>
       <c r="N74" s="52"/>
     </row>
-    <row r="75" spans="1:14" ht="16.5">
-      <c r="A75" s="78"/>
-      <c r="B75" s="2">
-        <v>41646</v>
-      </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="44"/>
+    <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="103"/>
+      <c r="B75" s="9">
+        <v>41642</v>
+      </c>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
       <c r="K75" s="52"/>
       <c r="L75" s="52"/>
       <c r="M75" s="52"/>
       <c r="N75" s="52"/>
     </row>
-    <row r="76" spans="1:14" ht="16.5">
-      <c r="A76" s="78"/>
+    <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="99">
+        <v>10</v>
+      </c>
       <c r="B76" s="2">
-        <v>41647</v>
+        <v>41645</v>
       </c>
       <c r="C76" s="44"/>
       <c r="D76" s="44"/>
@@ -3686,10 +3723,10 @@
       <c r="M76" s="52"/>
       <c r="N76" s="52"/>
     </row>
-    <row r="77" spans="1:14" ht="16.5">
-      <c r="A77" s="78"/>
+    <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="99"/>
       <c r="B77" s="2">
-        <v>41648</v>
+        <v>41646</v>
       </c>
       <c r="C77" s="44"/>
       <c r="D77" s="44"/>
@@ -3704,10 +3741,10 @@
       <c r="M77" s="52"/>
       <c r="N77" s="52"/>
     </row>
-    <row r="78" spans="1:14" ht="16.5">
-      <c r="A78" s="78"/>
+    <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="99"/>
       <c r="B78" s="2">
-        <v>41649</v>
+        <v>41647</v>
       </c>
       <c r="C78" s="44"/>
       <c r="D78" s="44"/>
@@ -3722,48 +3759,48 @@
       <c r="M78" s="52"/>
       <c r="N78" s="52"/>
     </row>
-    <row r="79" spans="1:14" ht="16.5">
-      <c r="A79" s="68">
-        <v>11</v>
-      </c>
-      <c r="B79" s="9">
-        <v>41652</v>
-      </c>
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
+    <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="99"/>
+      <c r="B79" s="2">
+        <v>41648</v>
+      </c>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
       <c r="K79" s="52"/>
       <c r="L79" s="52"/>
       <c r="M79" s="52"/>
       <c r="N79" s="52"/>
     </row>
-    <row r="80" spans="1:14" ht="16.5">
-      <c r="A80" s="68"/>
-      <c r="B80" s="9">
-        <v>41653</v>
-      </c>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
+    <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="99"/>
+      <c r="B80" s="2">
+        <v>41649</v>
+      </c>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
       <c r="K80" s="52"/>
       <c r="L80" s="52"/>
       <c r="M80" s="52"/>
       <c r="N80" s="52"/>
     </row>
-    <row r="81" spans="1:14" ht="16.5">
-      <c r="A81" s="68"/>
+    <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="103">
+        <v>11</v>
+      </c>
       <c r="B81" s="9">
-        <v>41654</v>
+        <v>41652</v>
       </c>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -3778,10 +3815,10 @@
       <c r="M81" s="52"/>
       <c r="N81" s="52"/>
     </row>
-    <row r="82" spans="1:14" ht="16.5">
-      <c r="A82" s="68"/>
+    <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="103"/>
       <c r="B82" s="9">
-        <v>41655</v>
+        <v>41653</v>
       </c>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -3796,10 +3833,10 @@
       <c r="M82" s="52"/>
       <c r="N82" s="52"/>
     </row>
-    <row r="83" spans="1:14" ht="16.5">
-      <c r="A83" s="68"/>
+    <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="103"/>
       <c r="B83" s="9">
-        <v>41656</v>
+        <v>41654</v>
       </c>
       <c r="C83" s="37"/>
       <c r="D83" s="37"/>
@@ -3814,48 +3851,48 @@
       <c r="M83" s="52"/>
       <c r="N83" s="52"/>
     </row>
-    <row r="84" spans="1:14" ht="16.5">
-      <c r="A84" s="78">
-        <v>12</v>
-      </c>
-      <c r="B84" s="2">
-        <v>41659</v>
-      </c>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="44"/>
-      <c r="I84" s="44"/>
-      <c r="J84" s="44"/>
+    <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="103"/>
+      <c r="B84" s="9">
+        <v>41655</v>
+      </c>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
       <c r="K84" s="52"/>
       <c r="L84" s="52"/>
       <c r="M84" s="52"/>
       <c r="N84" s="52"/>
     </row>
-    <row r="85" spans="1:14" ht="16.5">
-      <c r="A85" s="78"/>
-      <c r="B85" s="2">
-        <v>41660</v>
-      </c>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="44"/>
+    <row r="85" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="103"/>
+      <c r="B85" s="9">
+        <v>41656</v>
+      </c>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
       <c r="K85" s="52"/>
       <c r="L85" s="52"/>
       <c r="M85" s="52"/>
       <c r="N85" s="52"/>
     </row>
-    <row r="86" spans="1:14" ht="16.5">
-      <c r="A86" s="78"/>
+    <row r="86" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="99">
+        <v>12</v>
+      </c>
       <c r="B86" s="2">
-        <v>41661</v>
+        <v>41659</v>
       </c>
       <c r="C86" s="44"/>
       <c r="D86" s="44"/>
@@ -3870,10 +3907,10 @@
       <c r="M86" s="52"/>
       <c r="N86" s="52"/>
     </row>
-    <row r="87" spans="1:14" ht="16.5">
-      <c r="A87" s="78"/>
+    <row r="87" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="99"/>
       <c r="B87" s="2">
-        <v>41662</v>
+        <v>41660</v>
       </c>
       <c r="C87" s="44"/>
       <c r="D87" s="44"/>
@@ -3888,10 +3925,10 @@
       <c r="M87" s="52"/>
       <c r="N87" s="52"/>
     </row>
-    <row r="88" spans="1:14" ht="16.5">
-      <c r="A88" s="78"/>
+    <row r="88" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="99"/>
       <c r="B88" s="2">
-        <v>41663</v>
+        <v>41661</v>
       </c>
       <c r="C88" s="44"/>
       <c r="D88" s="44"/>
@@ -3906,52 +3943,48 @@
       <c r="M88" s="52"/>
       <c r="N88" s="52"/>
     </row>
-    <row r="89" spans="1:14" ht="16.5">
-      <c r="A89" s="68">
-        <v>13</v>
-      </c>
-      <c r="B89" s="9">
-        <v>41666</v>
-      </c>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
+    <row r="89" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="99"/>
+      <c r="B89" s="2">
+        <v>41662</v>
+      </c>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
       <c r="K89" s="52"/>
       <c r="L89" s="52"/>
       <c r="M89" s="52"/>
       <c r="N89" s="52"/>
     </row>
-    <row r="90" spans="1:14" ht="16.5">
-      <c r="A90" s="68"/>
-      <c r="B90" s="9">
-        <v>41667</v>
-      </c>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37"/>
+    <row r="90" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="99"/>
+      <c r="B90" s="2">
+        <v>41663</v>
+      </c>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
       <c r="K90" s="52"/>
       <c r="L90" s="52"/>
       <c r="M90" s="52"/>
       <c r="N90" s="52"/>
     </row>
-    <row r="91" spans="1:14" ht="16.5">
-      <c r="A91" s="68"/>
+    <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="103">
+        <v>13</v>
+      </c>
       <c r="B91" s="9">
-        <v>41668</v>
+        <v>41666</v>
       </c>
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
@@ -3968,10 +4001,10 @@
       <c r="M91" s="52"/>
       <c r="N91" s="52"/>
     </row>
-    <row r="92" spans="1:14" ht="16.5">
-      <c r="A92" s="68"/>
+    <row r="92" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="103"/>
       <c r="B92" s="9">
-        <v>41669</v>
+        <v>41667</v>
       </c>
       <c r="C92" s="37"/>
       <c r="D92" s="37"/>
@@ -3988,10 +4021,10 @@
       <c r="M92" s="52"/>
       <c r="N92" s="52"/>
     </row>
-    <row r="93" spans="1:14" ht="16.5">
-      <c r="A93" s="68"/>
+    <row r="93" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="103"/>
       <c r="B93" s="9">
-        <v>41670</v>
+        <v>41668</v>
       </c>
       <c r="C93" s="37"/>
       <c r="D93" s="37"/>
@@ -4008,52 +4041,52 @@
       <c r="M93" s="52"/>
       <c r="N93" s="52"/>
     </row>
-    <row r="94" spans="1:14" ht="16.5">
-      <c r="A94" s="78">
-        <v>14</v>
-      </c>
-      <c r="B94" s="2">
-        <v>41673</v>
-      </c>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="40" t="s">
+    <row r="94" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="103"/>
+      <c r="B94" s="9">
+        <v>41669</v>
+      </c>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H94" s="44"/>
-      <c r="I94" s="44"/>
-      <c r="J94" s="44"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
       <c r="K94" s="52"/>
       <c r="L94" s="52"/>
       <c r="M94" s="52"/>
       <c r="N94" s="52"/>
     </row>
-    <row r="95" spans="1:14" ht="16.5">
-      <c r="A95" s="78"/>
-      <c r="B95" s="2">
-        <v>41674</v>
-      </c>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="40" t="s">
+    <row r="95" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="103"/>
+      <c r="B95" s="9">
+        <v>41670</v>
+      </c>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H95" s="44"/>
-      <c r="I95" s="44"/>
-      <c r="J95" s="44"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
       <c r="K95" s="52"/>
       <c r="L95" s="52"/>
       <c r="M95" s="52"/>
       <c r="N95" s="52"/>
     </row>
-    <row r="96" spans="1:14" ht="16.5">
-      <c r="A96" s="78"/>
+    <row r="96" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="99">
+        <v>14</v>
+      </c>
       <c r="B96" s="2">
-        <v>41675</v>
+        <v>41673</v>
       </c>
       <c r="C96" s="44"/>
       <c r="D96" s="44"/>
@@ -4070,10 +4103,10 @@
       <c r="M96" s="52"/>
       <c r="N96" s="52"/>
     </row>
-    <row r="97" spans="1:14" ht="16.5">
-      <c r="A97" s="78"/>
+    <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="99"/>
       <c r="B97" s="2">
-        <v>41676</v>
+        <v>41674</v>
       </c>
       <c r="C97" s="44"/>
       <c r="D97" s="44"/>
@@ -4090,10 +4123,10 @@
       <c r="M97" s="52"/>
       <c r="N97" s="52"/>
     </row>
-    <row r="98" spans="1:14" ht="16.5">
-      <c r="A98" s="78"/>
+    <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="99"/>
       <c r="B98" s="2">
-        <v>41677</v>
+        <v>41675</v>
       </c>
       <c r="C98" s="44"/>
       <c r="D98" s="44"/>
@@ -4110,48 +4143,52 @@
       <c r="M98" s="52"/>
       <c r="N98" s="52"/>
     </row>
-    <row r="99" spans="1:14" ht="16.5">
-      <c r="A99" s="68">
-        <v>15</v>
-      </c>
-      <c r="B99" s="9">
-        <v>41680</v>
-      </c>
-      <c r="C99" s="37"/>
-      <c r="D99" s="37"/>
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="37"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="37"/>
+    <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="99"/>
+      <c r="B99" s="2">
+        <v>41676</v>
+      </c>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
       <c r="K99" s="52"/>
       <c r="L99" s="52"/>
       <c r="M99" s="52"/>
       <c r="N99" s="52"/>
     </row>
-    <row r="100" spans="1:14" ht="16.5">
-      <c r="A100" s="68"/>
-      <c r="B100" s="9">
-        <v>41681</v>
-      </c>
-      <c r="C100" s="37"/>
-      <c r="D100" s="37"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="37"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="37"/>
+    <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="99"/>
+      <c r="B100" s="2">
+        <v>41677</v>
+      </c>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="44"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
       <c r="K100" s="52"/>
       <c r="L100" s="52"/>
       <c r="M100" s="52"/>
       <c r="N100" s="52"/>
     </row>
-    <row r="101" spans="1:14" ht="16.5">
-      <c r="A101" s="68"/>
+    <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="103">
+        <v>15</v>
+      </c>
       <c r="B101" s="9">
-        <v>41682</v>
+        <v>41680</v>
       </c>
       <c r="C101" s="37"/>
       <c r="D101" s="37"/>
@@ -4166,10 +4203,10 @@
       <c r="M101" s="52"/>
       <c r="N101" s="52"/>
     </row>
-    <row r="102" spans="1:14" ht="16.5">
-      <c r="A102" s="68"/>
+    <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="103"/>
       <c r="B102" s="9">
-        <v>41683</v>
+        <v>41681</v>
       </c>
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
@@ -4184,10 +4221,10 @@
       <c r="M102" s="52"/>
       <c r="N102" s="52"/>
     </row>
-    <row r="103" spans="1:14" ht="16.5">
-      <c r="A103" s="68"/>
+    <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="103"/>
       <c r="B103" s="9">
-        <v>41684</v>
+        <v>41682</v>
       </c>
       <c r="C103" s="37"/>
       <c r="D103" s="37"/>
@@ -4202,48 +4239,48 @@
       <c r="M103" s="52"/>
       <c r="N103" s="52"/>
     </row>
-    <row r="104" spans="1:14" ht="16.5">
-      <c r="A104" s="78">
-        <v>16</v>
-      </c>
-      <c r="B104" s="2">
-        <v>41687</v>
-      </c>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
-      <c r="I104" s="44"/>
-      <c r="J104" s="44"/>
+    <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="103"/>
+      <c r="B104" s="9">
+        <v>41683</v>
+      </c>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="37"/>
       <c r="K104" s="52"/>
       <c r="L104" s="52"/>
       <c r="M104" s="52"/>
       <c r="N104" s="52"/>
     </row>
-    <row r="105" spans="1:14" ht="16.5">
-      <c r="A105" s="78"/>
-      <c r="B105" s="2">
-        <v>41688</v>
-      </c>
-      <c r="C105" s="44"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="44"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="44"/>
-      <c r="I105" s="44"/>
-      <c r="J105" s="44"/>
+    <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="103"/>
+      <c r="B105" s="9">
+        <v>41684</v>
+      </c>
+      <c r="C105" s="37"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37"/>
       <c r="K105" s="52"/>
       <c r="L105" s="52"/>
       <c r="M105" s="52"/>
       <c r="N105" s="52"/>
     </row>
-    <row r="106" spans="1:14" ht="16.5">
-      <c r="A106" s="78"/>
+    <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="99">
+        <v>16</v>
+      </c>
       <c r="B106" s="2">
-        <v>41689</v>
+        <v>41687</v>
       </c>
       <c r="C106" s="44"/>
       <c r="D106" s="44"/>
@@ -4258,10 +4295,10 @@
       <c r="M106" s="52"/>
       <c r="N106" s="52"/>
     </row>
-    <row r="107" spans="1:14" ht="16.5">
-      <c r="A107" s="78"/>
+    <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="99"/>
       <c r="B107" s="2">
-        <v>41690</v>
+        <v>41688</v>
       </c>
       <c r="C107" s="44"/>
       <c r="D107" s="44"/>
@@ -4276,10 +4313,10 @@
       <c r="M107" s="52"/>
       <c r="N107" s="52"/>
     </row>
-    <row r="108" spans="1:14" ht="16.5">
-      <c r="A108" s="78"/>
+    <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="99"/>
       <c r="B108" s="2">
-        <v>41691</v>
+        <v>41689</v>
       </c>
       <c r="C108" s="44"/>
       <c r="D108" s="44"/>
@@ -4294,48 +4331,48 @@
       <c r="M108" s="52"/>
       <c r="N108" s="52"/>
     </row>
-    <row r="109" spans="1:14" ht="16.5">
-      <c r="A109" s="68">
-        <v>17</v>
-      </c>
-      <c r="B109" s="9">
-        <v>41694</v>
-      </c>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="37"/>
-      <c r="I109" s="37"/>
-      <c r="J109" s="37"/>
+    <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="99"/>
+      <c r="B109" s="2">
+        <v>41690</v>
+      </c>
+      <c r="C109" s="44"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="44"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="44"/>
+      <c r="I109" s="44"/>
+      <c r="J109" s="44"/>
       <c r="K109" s="52"/>
       <c r="L109" s="52"/>
       <c r="M109" s="52"/>
       <c r="N109" s="52"/>
     </row>
-    <row r="110" spans="1:14" ht="16.5">
-      <c r="A110" s="68"/>
-      <c r="B110" s="9">
-        <v>41695</v>
-      </c>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
-      <c r="E110" s="37"/>
-      <c r="F110" s="37"/>
-      <c r="G110" s="37"/>
-      <c r="H110" s="37"/>
-      <c r="I110" s="37"/>
-      <c r="J110" s="37"/>
+    <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="99"/>
+      <c r="B110" s="2">
+        <v>41691</v>
+      </c>
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="44"/>
       <c r="K110" s="52"/>
       <c r="L110" s="52"/>
       <c r="M110" s="52"/>
       <c r="N110" s="52"/>
     </row>
-    <row r="111" spans="1:14" ht="16.5">
-      <c r="A111" s="68"/>
+    <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="103">
+        <v>17</v>
+      </c>
       <c r="B111" s="9">
-        <v>41696</v>
+        <v>41694</v>
       </c>
       <c r="C111" s="37"/>
       <c r="D111" s="37"/>
@@ -4350,10 +4387,10 @@
       <c r="M111" s="52"/>
       <c r="N111" s="52"/>
     </row>
-    <row r="112" spans="1:14" ht="16.5">
-      <c r="A112" s="68"/>
+    <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="103"/>
       <c r="B112" s="9">
-        <v>41697</v>
+        <v>41695</v>
       </c>
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
@@ -4368,10 +4405,10 @@
       <c r="M112" s="52"/>
       <c r="N112" s="52"/>
     </row>
-    <row r="113" spans="1:14" ht="16.5">
-      <c r="A113" s="68"/>
+    <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="103"/>
       <c r="B113" s="9">
-        <v>41698</v>
+        <v>41696</v>
       </c>
       <c r="C113" s="37"/>
       <c r="D113" s="37"/>
@@ -4386,48 +4423,48 @@
       <c r="M113" s="52"/>
       <c r="N113" s="52"/>
     </row>
-    <row r="114" spans="1:14" ht="16.5">
-      <c r="A114" s="78">
-        <v>18</v>
-      </c>
-      <c r="B114" s="2">
-        <v>41701</v>
-      </c>
-      <c r="C114" s="44"/>
-      <c r="D114" s="44"/>
-      <c r="E114" s="44"/>
-      <c r="F114" s="44"/>
-      <c r="G114" s="44"/>
-      <c r="H114" s="44"/>
-      <c r="I114" s="44"/>
-      <c r="J114" s="44"/>
+    <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="103"/>
+      <c r="B114" s="9">
+        <v>41697</v>
+      </c>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="37"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="37"/>
       <c r="K114" s="52"/>
       <c r="L114" s="52"/>
       <c r="M114" s="52"/>
       <c r="N114" s="52"/>
     </row>
-    <row r="115" spans="1:14" ht="16.5">
-      <c r="A115" s="78"/>
-      <c r="B115" s="2">
-        <v>41702</v>
-      </c>
-      <c r="C115" s="44"/>
-      <c r="D115" s="44"/>
-      <c r="E115" s="44"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="44"/>
-      <c r="I115" s="44"/>
-      <c r="J115" s="44"/>
+    <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A115" s="103"/>
+      <c r="B115" s="9">
+        <v>41698</v>
+      </c>
+      <c r="C115" s="37"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="37"/>
       <c r="K115" s="52"/>
       <c r="L115" s="52"/>
       <c r="M115" s="52"/>
       <c r="N115" s="52"/>
     </row>
-    <row r="116" spans="1:14" ht="16.5">
-      <c r="A116" s="78"/>
+    <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="99">
+        <v>18</v>
+      </c>
       <c r="B116" s="2">
-        <v>41703</v>
+        <v>41701</v>
       </c>
       <c r="C116" s="44"/>
       <c r="D116" s="44"/>
@@ -4442,10 +4479,10 @@
       <c r="M116" s="52"/>
       <c r="N116" s="52"/>
     </row>
-    <row r="117" spans="1:14" ht="16.5">
-      <c r="A117" s="78"/>
+    <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="99"/>
       <c r="B117" s="2">
-        <v>41704</v>
+        <v>41702</v>
       </c>
       <c r="C117" s="44"/>
       <c r="D117" s="44"/>
@@ -4460,10 +4497,10 @@
       <c r="M117" s="52"/>
       <c r="N117" s="52"/>
     </row>
-    <row r="118" spans="1:14" ht="16.5">
-      <c r="A118" s="78"/>
+    <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="99"/>
       <c r="B118" s="2">
-        <v>41705</v>
+        <v>41703</v>
       </c>
       <c r="C118" s="44"/>
       <c r="D118" s="44"/>
@@ -4478,48 +4515,48 @@
       <c r="M118" s="52"/>
       <c r="N118" s="52"/>
     </row>
-    <row r="119" spans="1:14" ht="16.5">
-      <c r="A119" s="68">
-        <v>19</v>
-      </c>
-      <c r="B119" s="9">
-        <v>41708</v>
-      </c>
-      <c r="C119" s="37"/>
-      <c r="D119" s="37"/>
-      <c r="E119" s="37"/>
-      <c r="F119" s="37"/>
-      <c r="G119" s="37"/>
-      <c r="H119" s="37"/>
-      <c r="I119" s="37"/>
-      <c r="J119" s="37"/>
+    <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="99"/>
+      <c r="B119" s="2">
+        <v>41704</v>
+      </c>
+      <c r="C119" s="44"/>
+      <c r="D119" s="44"/>
+      <c r="E119" s="44"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="44"/>
+      <c r="H119" s="44"/>
+      <c r="I119" s="44"/>
+      <c r="J119" s="44"/>
       <c r="K119" s="52"/>
       <c r="L119" s="52"/>
       <c r="M119" s="52"/>
       <c r="N119" s="52"/>
     </row>
-    <row r="120" spans="1:14" ht="16.5">
-      <c r="A120" s="68"/>
-      <c r="B120" s="9">
-        <v>41709</v>
-      </c>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37"/>
-      <c r="F120" s="37"/>
-      <c r="G120" s="37"/>
-      <c r="H120" s="37"/>
-      <c r="I120" s="37"/>
-      <c r="J120" s="37"/>
+    <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="99"/>
+      <c r="B120" s="2">
+        <v>41705</v>
+      </c>
+      <c r="C120" s="44"/>
+      <c r="D120" s="44"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="44"/>
+      <c r="I120" s="44"/>
+      <c r="J120" s="44"/>
       <c r="K120" s="52"/>
       <c r="L120" s="52"/>
       <c r="M120" s="52"/>
       <c r="N120" s="52"/>
     </row>
-    <row r="121" spans="1:14" ht="16.5">
-      <c r="A121" s="68"/>
+    <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="103">
+        <v>19</v>
+      </c>
       <c r="B121" s="9">
-        <v>41710</v>
+        <v>41708</v>
       </c>
       <c r="C121" s="37"/>
       <c r="D121" s="37"/>
@@ -4534,10 +4571,10 @@
       <c r="M121" s="52"/>
       <c r="N121" s="52"/>
     </row>
-    <row r="122" spans="1:14" ht="16.5">
-      <c r="A122" s="68"/>
+    <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="103"/>
       <c r="B122" s="9">
-        <v>41711</v>
+        <v>41709</v>
       </c>
       <c r="C122" s="37"/>
       <c r="D122" s="37"/>
@@ -4552,10 +4589,10 @@
       <c r="M122" s="52"/>
       <c r="N122" s="52"/>
     </row>
-    <row r="123" spans="1:14" ht="16.5">
-      <c r="A123" s="68"/>
+    <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="103"/>
       <c r="B123" s="9">
-        <v>41712</v>
+        <v>41710</v>
       </c>
       <c r="C123" s="37"/>
       <c r="D123" s="37"/>
@@ -4570,48 +4607,48 @@
       <c r="M123" s="52"/>
       <c r="N123" s="52"/>
     </row>
-    <row r="124" spans="1:14" ht="16.5">
-      <c r="A124" s="78">
-        <v>20</v>
-      </c>
-      <c r="B124" s="2">
-        <v>41715</v>
-      </c>
-      <c r="C124" s="44"/>
-      <c r="D124" s="44"/>
-      <c r="E124" s="44"/>
-      <c r="F124" s="44"/>
-      <c r="G124" s="44"/>
-      <c r="H124" s="44"/>
-      <c r="I124" s="44"/>
-      <c r="J124" s="44"/>
+    <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="103"/>
+      <c r="B124" s="9">
+        <v>41711</v>
+      </c>
+      <c r="C124" s="37"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="37"/>
+      <c r="F124" s="37"/>
+      <c r="G124" s="37"/>
+      <c r="H124" s="37"/>
+      <c r="I124" s="37"/>
+      <c r="J124" s="37"/>
       <c r="K124" s="52"/>
       <c r="L124" s="52"/>
       <c r="M124" s="52"/>
       <c r="N124" s="52"/>
     </row>
-    <row r="125" spans="1:14" ht="16.5">
-      <c r="A125" s="78"/>
-      <c r="B125" s="2">
-        <v>41716</v>
-      </c>
-      <c r="C125" s="44"/>
-      <c r="D125" s="44"/>
-      <c r="E125" s="44"/>
-      <c r="F125" s="44"/>
-      <c r="G125" s="44"/>
-      <c r="H125" s="44"/>
-      <c r="I125" s="44"/>
-      <c r="J125" s="44"/>
+    <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="103"/>
+      <c r="B125" s="9">
+        <v>41712</v>
+      </c>
+      <c r="C125" s="37"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="37"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="37"/>
       <c r="K125" s="52"/>
       <c r="L125" s="52"/>
       <c r="M125" s="52"/>
       <c r="N125" s="52"/>
     </row>
-    <row r="126" spans="1:14" ht="16.5">
-      <c r="A126" s="78"/>
+    <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="99">
+        <v>20</v>
+      </c>
       <c r="B126" s="2">
-        <v>41717</v>
+        <v>41715</v>
       </c>
       <c r="C126" s="44"/>
       <c r="D126" s="44"/>
@@ -4626,10 +4663,10 @@
       <c r="M126" s="52"/>
       <c r="N126" s="52"/>
     </row>
-    <row r="127" spans="1:14" ht="16.5">
-      <c r="A127" s="78"/>
+    <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="99"/>
       <c r="B127" s="2">
-        <v>41718</v>
+        <v>41716</v>
       </c>
       <c r="C127" s="44"/>
       <c r="D127" s="44"/>
@@ -4644,10 +4681,10 @@
       <c r="M127" s="52"/>
       <c r="N127" s="52"/>
     </row>
-    <row r="128" spans="1:14" ht="16.5">
-      <c r="A128" s="78"/>
+    <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="99"/>
       <c r="B128" s="2">
-        <v>41719</v>
+        <v>41717</v>
       </c>
       <c r="C128" s="44"/>
       <c r="D128" s="44"/>
@@ -4662,48 +4699,48 @@
       <c r="M128" s="52"/>
       <c r="N128" s="52"/>
     </row>
-    <row r="129" spans="1:14" ht="16.5">
-      <c r="A129" s="68">
-        <v>21</v>
-      </c>
-      <c r="B129" s="9">
-        <v>41722</v>
-      </c>
-      <c r="C129" s="37"/>
-      <c r="D129" s="37"/>
-      <c r="E129" s="37"/>
-      <c r="F129" s="37"/>
-      <c r="G129" s="37"/>
-      <c r="H129" s="37"/>
-      <c r="I129" s="37"/>
-      <c r="J129" s="37"/>
+    <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="99"/>
+      <c r="B129" s="2">
+        <v>41718</v>
+      </c>
+      <c r="C129" s="44"/>
+      <c r="D129" s="44"/>
+      <c r="E129" s="44"/>
+      <c r="F129" s="44"/>
+      <c r="G129" s="44"/>
+      <c r="H129" s="44"/>
+      <c r="I129" s="44"/>
+      <c r="J129" s="44"/>
       <c r="K129" s="52"/>
       <c r="L129" s="52"/>
       <c r="M129" s="52"/>
       <c r="N129" s="52"/>
     </row>
-    <row r="130" spans="1:14" ht="16.5">
-      <c r="A130" s="68"/>
-      <c r="B130" s="9">
-        <v>41723</v>
-      </c>
-      <c r="C130" s="37"/>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="37"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="37"/>
+    <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="99"/>
+      <c r="B130" s="2">
+        <v>41719</v>
+      </c>
+      <c r="C130" s="44"/>
+      <c r="D130" s="44"/>
+      <c r="E130" s="44"/>
+      <c r="F130" s="44"/>
+      <c r="G130" s="44"/>
+      <c r="H130" s="44"/>
+      <c r="I130" s="44"/>
+      <c r="J130" s="44"/>
       <c r="K130" s="52"/>
       <c r="L130" s="52"/>
       <c r="M130" s="52"/>
       <c r="N130" s="52"/>
     </row>
-    <row r="131" spans="1:14" ht="16.5">
-      <c r="A131" s="68"/>
+    <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="103">
+        <v>21</v>
+      </c>
       <c r="B131" s="9">
-        <v>41724</v>
+        <v>41722</v>
       </c>
       <c r="C131" s="37"/>
       <c r="D131" s="37"/>
@@ -4718,10 +4755,10 @@
       <c r="M131" s="52"/>
       <c r="N131" s="52"/>
     </row>
-    <row r="132" spans="1:14" ht="16.5">
-      <c r="A132" s="68"/>
+    <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="103"/>
       <c r="B132" s="9">
-        <v>41725</v>
+        <v>41723</v>
       </c>
       <c r="C132" s="37"/>
       <c r="D132" s="37"/>
@@ -4736,10 +4773,10 @@
       <c r="M132" s="52"/>
       <c r="N132" s="52"/>
     </row>
-    <row r="133" spans="1:14" ht="16.5">
-      <c r="A133" s="68"/>
+    <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="103"/>
       <c r="B133" s="9">
-        <v>41726</v>
+        <v>41724</v>
       </c>
       <c r="C133" s="37"/>
       <c r="D133" s="37"/>
@@ -4754,48 +4791,48 @@
       <c r="M133" s="52"/>
       <c r="N133" s="52"/>
     </row>
-    <row r="134" spans="1:14" ht="16.5">
-      <c r="A134" s="78">
-        <v>22</v>
-      </c>
-      <c r="B134" s="2">
-        <v>41729</v>
-      </c>
-      <c r="C134" s="44"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="44"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="44"/>
-      <c r="H134" s="44"/>
-      <c r="I134" s="44"/>
-      <c r="J134" s="44"/>
+    <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="103"/>
+      <c r="B134" s="9">
+        <v>41725</v>
+      </c>
+      <c r="C134" s="37"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="37"/>
+      <c r="F134" s="37"/>
+      <c r="G134" s="37"/>
+      <c r="H134" s="37"/>
+      <c r="I134" s="37"/>
+      <c r="J134" s="37"/>
       <c r="K134" s="52"/>
       <c r="L134" s="52"/>
       <c r="M134" s="52"/>
       <c r="N134" s="52"/>
     </row>
-    <row r="135" spans="1:14" ht="16.5">
-      <c r="A135" s="78"/>
-      <c r="B135" s="2">
-        <v>41730</v>
-      </c>
-      <c r="C135" s="44"/>
-      <c r="D135" s="44"/>
-      <c r="E135" s="44"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="44"/>
-      <c r="I135" s="44"/>
-      <c r="J135" s="44"/>
+    <row r="135" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="103"/>
+      <c r="B135" s="9">
+        <v>41726</v>
+      </c>
+      <c r="C135" s="37"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="37"/>
+      <c r="F135" s="37"/>
+      <c r="G135" s="37"/>
+      <c r="H135" s="37"/>
+      <c r="I135" s="37"/>
+      <c r="J135" s="37"/>
       <c r="K135" s="52"/>
       <c r="L135" s="52"/>
       <c r="M135" s="52"/>
       <c r="N135" s="52"/>
     </row>
-    <row r="136" spans="1:14" ht="16.5">
-      <c r="A136" s="78"/>
+    <row r="136" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="99">
+        <v>22</v>
+      </c>
       <c r="B136" s="2">
-        <v>41731</v>
+        <v>41729</v>
       </c>
       <c r="C136" s="44"/>
       <c r="D136" s="44"/>
@@ -4810,10 +4847,10 @@
       <c r="M136" s="52"/>
       <c r="N136" s="52"/>
     </row>
-    <row r="137" spans="1:14" ht="16.5">
-      <c r="A137" s="78"/>
+    <row r="137" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="99"/>
       <c r="B137" s="2">
-        <v>41732</v>
+        <v>41730</v>
       </c>
       <c r="C137" s="44"/>
       <c r="D137" s="44"/>
@@ -4828,10 +4865,10 @@
       <c r="M137" s="52"/>
       <c r="N137" s="52"/>
     </row>
-    <row r="138" spans="1:14" ht="16.5">
-      <c r="A138" s="78"/>
+    <row r="138" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="99"/>
       <c r="B138" s="2">
-        <v>41733</v>
+        <v>41731</v>
       </c>
       <c r="C138" s="44"/>
       <c r="D138" s="44"/>
@@ -4846,48 +4883,48 @@
       <c r="M138" s="52"/>
       <c r="N138" s="52"/>
     </row>
-    <row r="139" spans="1:14" ht="16.5">
-      <c r="A139" s="68">
-        <v>23</v>
-      </c>
-      <c r="B139" s="9">
-        <v>41736</v>
-      </c>
-      <c r="C139" s="37"/>
-      <c r="D139" s="37"/>
-      <c r="E139" s="37"/>
-      <c r="F139" s="37"/>
-      <c r="G139" s="37"/>
-      <c r="H139" s="37"/>
-      <c r="I139" s="37"/>
-      <c r="J139" s="37"/>
+    <row r="139" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="99"/>
+      <c r="B139" s="2">
+        <v>41732</v>
+      </c>
+      <c r="C139" s="44"/>
+      <c r="D139" s="44"/>
+      <c r="E139" s="44"/>
+      <c r="F139" s="44"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="44"/>
+      <c r="I139" s="44"/>
+      <c r="J139" s="44"/>
       <c r="K139" s="52"/>
       <c r="L139" s="52"/>
       <c r="M139" s="52"/>
       <c r="N139" s="52"/>
     </row>
-    <row r="140" spans="1:14" ht="16.5">
-      <c r="A140" s="68"/>
-      <c r="B140" s="9">
-        <v>41737</v>
-      </c>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="37"/>
-      <c r="I140" s="37"/>
-      <c r="J140" s="37"/>
+    <row r="140" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="99"/>
+      <c r="B140" s="2">
+        <v>41733</v>
+      </c>
+      <c r="C140" s="44"/>
+      <c r="D140" s="44"/>
+      <c r="E140" s="44"/>
+      <c r="F140" s="44"/>
+      <c r="G140" s="44"/>
+      <c r="H140" s="44"/>
+      <c r="I140" s="44"/>
+      <c r="J140" s="44"/>
       <c r="K140" s="52"/>
       <c r="L140" s="52"/>
       <c r="M140" s="52"/>
       <c r="N140" s="52"/>
     </row>
-    <row r="141" spans="1:14" ht="16.5">
-      <c r="A141" s="68"/>
+    <row r="141" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="103">
+        <v>23</v>
+      </c>
       <c r="B141" s="9">
-        <v>41738</v>
+        <v>41736</v>
       </c>
       <c r="C141" s="37"/>
       <c r="D141" s="37"/>
@@ -4902,10 +4939,10 @@
       <c r="M141" s="52"/>
       <c r="N141" s="52"/>
     </row>
-    <row r="142" spans="1:14" ht="16.5">
-      <c r="A142" s="68"/>
+    <row r="142" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="103"/>
       <c r="B142" s="9">
-        <v>41739</v>
+        <v>41737</v>
       </c>
       <c r="C142" s="37"/>
       <c r="D142" s="37"/>
@@ -4920,10 +4957,10 @@
       <c r="M142" s="52"/>
       <c r="N142" s="52"/>
     </row>
-    <row r="143" spans="1:14" ht="16.5">
-      <c r="A143" s="68"/>
+    <row r="143" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="103"/>
       <c r="B143" s="9">
-        <v>41740</v>
+        <v>41738</v>
       </c>
       <c r="C143" s="37"/>
       <c r="D143" s="37"/>
@@ -4938,48 +4975,48 @@
       <c r="M143" s="52"/>
       <c r="N143" s="52"/>
     </row>
-    <row r="144" spans="1:14" ht="16.5">
-      <c r="A144" s="78">
-        <v>24</v>
-      </c>
-      <c r="B144" s="2">
-        <v>41743</v>
-      </c>
-      <c r="C144" s="44"/>
-      <c r="D144" s="44"/>
-      <c r="E144" s="44"/>
-      <c r="F144" s="44"/>
-      <c r="G144" s="44"/>
-      <c r="H144" s="44"/>
-      <c r="I144" s="44"/>
-      <c r="J144" s="44"/>
+    <row r="144" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="103"/>
+      <c r="B144" s="9">
+        <v>41739</v>
+      </c>
+      <c r="C144" s="37"/>
+      <c r="D144" s="37"/>
+      <c r="E144" s="37"/>
+      <c r="F144" s="37"/>
+      <c r="G144" s="37"/>
+      <c r="H144" s="37"/>
+      <c r="I144" s="37"/>
+      <c r="J144" s="37"/>
       <c r="K144" s="52"/>
       <c r="L144" s="52"/>
       <c r="M144" s="52"/>
       <c r="N144" s="52"/>
     </row>
-    <row r="145" spans="1:14" ht="16.5">
-      <c r="A145" s="78"/>
-      <c r="B145" s="2">
-        <v>41744</v>
-      </c>
-      <c r="C145" s="44"/>
-      <c r="D145" s="44"/>
-      <c r="E145" s="44"/>
-      <c r="F145" s="44"/>
-      <c r="G145" s="44"/>
-      <c r="H145" s="44"/>
-      <c r="I145" s="44"/>
-      <c r="J145" s="44"/>
+    <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A145" s="103"/>
+      <c r="B145" s="9">
+        <v>41740</v>
+      </c>
+      <c r="C145" s="37"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="37"/>
+      <c r="F145" s="37"/>
+      <c r="G145" s="37"/>
+      <c r="H145" s="37"/>
+      <c r="I145" s="37"/>
+      <c r="J145" s="37"/>
       <c r="K145" s="52"/>
       <c r="L145" s="52"/>
       <c r="M145" s="52"/>
       <c r="N145" s="52"/>
     </row>
-    <row r="146" spans="1:14" ht="16.5">
-      <c r="A146" s="78"/>
+    <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A146" s="99">
+        <v>24</v>
+      </c>
       <c r="B146" s="2">
-        <v>41745</v>
+        <v>41743</v>
       </c>
       <c r="C146" s="44"/>
       <c r="D146" s="44"/>
@@ -4994,10 +5031,10 @@
       <c r="M146" s="52"/>
       <c r="N146" s="52"/>
     </row>
-    <row r="147" spans="1:14" ht="16.5">
-      <c r="A147" s="78"/>
+    <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="99"/>
       <c r="B147" s="2">
-        <v>41746</v>
+        <v>41744</v>
       </c>
       <c r="C147" s="44"/>
       <c r="D147" s="44"/>
@@ -5012,10 +5049,10 @@
       <c r="M147" s="52"/>
       <c r="N147" s="52"/>
     </row>
-    <row r="148" spans="1:14" ht="16.5">
-      <c r="A148" s="78"/>
+    <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A148" s="99"/>
       <c r="B148" s="2">
-        <v>41747</v>
+        <v>41745</v>
       </c>
       <c r="C148" s="44"/>
       <c r="D148" s="44"/>
@@ -5030,48 +5067,48 @@
       <c r="M148" s="52"/>
       <c r="N148" s="52"/>
     </row>
-    <row r="149" spans="1:14" ht="16.5">
-      <c r="A149" s="68">
-        <v>25</v>
-      </c>
-      <c r="B149" s="9">
-        <v>41750</v>
-      </c>
-      <c r="C149" s="37"/>
-      <c r="D149" s="37"/>
-      <c r="E149" s="37"/>
-      <c r="F149" s="37"/>
-      <c r="G149" s="37"/>
-      <c r="H149" s="37"/>
-      <c r="I149" s="37"/>
-      <c r="J149" s="37"/>
+    <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="99"/>
+      <c r="B149" s="2">
+        <v>41746</v>
+      </c>
+      <c r="C149" s="44"/>
+      <c r="D149" s="44"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="44"/>
+      <c r="G149" s="44"/>
+      <c r="H149" s="44"/>
+      <c r="I149" s="44"/>
+      <c r="J149" s="44"/>
       <c r="K149" s="52"/>
       <c r="L149" s="52"/>
       <c r="M149" s="52"/>
       <c r="N149" s="52"/>
     </row>
-    <row r="150" spans="1:14" ht="16.5">
-      <c r="A150" s="68"/>
-      <c r="B150" s="9">
-        <v>41751</v>
-      </c>
-      <c r="C150" s="37"/>
-      <c r="D150" s="37"/>
-      <c r="E150" s="37"/>
-      <c r="F150" s="37"/>
-      <c r="G150" s="37"/>
-      <c r="H150" s="37"/>
-      <c r="I150" s="37"/>
-      <c r="J150" s="37"/>
+    <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="99"/>
+      <c r="B150" s="2">
+        <v>41747</v>
+      </c>
+      <c r="C150" s="44"/>
+      <c r="D150" s="44"/>
+      <c r="E150" s="44"/>
+      <c r="F150" s="44"/>
+      <c r="G150" s="44"/>
+      <c r="H150" s="44"/>
+      <c r="I150" s="44"/>
+      <c r="J150" s="44"/>
       <c r="K150" s="52"/>
       <c r="L150" s="52"/>
       <c r="M150" s="52"/>
       <c r="N150" s="52"/>
     </row>
-    <row r="151" spans="1:14" ht="16.5">
-      <c r="A151" s="68"/>
+    <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="103">
+        <v>25</v>
+      </c>
       <c r="B151" s="9">
-        <v>41752</v>
+        <v>41750</v>
       </c>
       <c r="C151" s="37"/>
       <c r="D151" s="37"/>
@@ -5086,10 +5123,10 @@
       <c r="M151" s="52"/>
       <c r="N151" s="52"/>
     </row>
-    <row r="152" spans="1:14" ht="16.5">
-      <c r="A152" s="68"/>
+    <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="103"/>
       <c r="B152" s="9">
-        <v>41753</v>
+        <v>41751</v>
       </c>
       <c r="C152" s="37"/>
       <c r="D152" s="37"/>
@@ -5104,10 +5141,10 @@
       <c r="M152" s="52"/>
       <c r="N152" s="52"/>
     </row>
-    <row r="153" spans="1:14" ht="16.5">
-      <c r="A153" s="68"/>
+    <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="103"/>
       <c r="B153" s="9">
-        <v>41754</v>
+        <v>41752</v>
       </c>
       <c r="C153" s="37"/>
       <c r="D153" s="37"/>
@@ -5122,48 +5159,48 @@
       <c r="M153" s="52"/>
       <c r="N153" s="52"/>
     </row>
-    <row r="154" spans="1:14" ht="16.5">
-      <c r="A154" s="78">
-        <v>26</v>
-      </c>
-      <c r="B154" s="2">
-        <v>41757</v>
-      </c>
-      <c r="C154" s="44"/>
-      <c r="D154" s="44"/>
-      <c r="E154" s="44"/>
-      <c r="F154" s="44"/>
-      <c r="G154" s="44"/>
-      <c r="H154" s="44"/>
-      <c r="I154" s="44"/>
-      <c r="J154" s="44"/>
+    <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="103"/>
+      <c r="B154" s="9">
+        <v>41753</v>
+      </c>
+      <c r="C154" s="37"/>
+      <c r="D154" s="37"/>
+      <c r="E154" s="37"/>
+      <c r="F154" s="37"/>
+      <c r="G154" s="37"/>
+      <c r="H154" s="37"/>
+      <c r="I154" s="37"/>
+      <c r="J154" s="37"/>
       <c r="K154" s="52"/>
       <c r="L154" s="52"/>
       <c r="M154" s="52"/>
       <c r="N154" s="52"/>
     </row>
-    <row r="155" spans="1:14" ht="16.5">
-      <c r="A155" s="78"/>
-      <c r="B155" s="2">
-        <v>41758</v>
-      </c>
-      <c r="C155" s="44"/>
-      <c r="D155" s="44"/>
-      <c r="E155" s="44"/>
-      <c r="F155" s="44"/>
-      <c r="G155" s="44"/>
-      <c r="H155" s="44"/>
-      <c r="I155" s="44"/>
-      <c r="J155" s="44"/>
+    <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A155" s="103"/>
+      <c r="B155" s="9">
+        <v>41754</v>
+      </c>
+      <c r="C155" s="37"/>
+      <c r="D155" s="37"/>
+      <c r="E155" s="37"/>
+      <c r="F155" s="37"/>
+      <c r="G155" s="37"/>
+      <c r="H155" s="37"/>
+      <c r="I155" s="37"/>
+      <c r="J155" s="37"/>
       <c r="K155" s="52"/>
       <c r="L155" s="52"/>
       <c r="M155" s="52"/>
       <c r="N155" s="52"/>
     </row>
-    <row r="156" spans="1:14" ht="16.5">
-      <c r="A156" s="78"/>
+    <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="99">
+        <v>26</v>
+      </c>
       <c r="B156" s="2">
-        <v>41759</v>
+        <v>41757</v>
       </c>
       <c r="C156" s="44"/>
       <c r="D156" s="44"/>
@@ -5178,10 +5215,10 @@
       <c r="M156" s="52"/>
       <c r="N156" s="52"/>
     </row>
-    <row r="157" spans="1:14" ht="16.5">
-      <c r="A157" s="78"/>
+    <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="99"/>
       <c r="B157" s="2">
-        <v>41760</v>
+        <v>41758</v>
       </c>
       <c r="C157" s="44"/>
       <c r="D157" s="44"/>
@@ -5196,10 +5233,10 @@
       <c r="M157" s="52"/>
       <c r="N157" s="52"/>
     </row>
-    <row r="158" spans="1:14" ht="16.5">
-      <c r="A158" s="78"/>
+    <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A158" s="99"/>
       <c r="B158" s="2">
-        <v>41761</v>
+        <v>41759</v>
       </c>
       <c r="C158" s="44"/>
       <c r="D158" s="44"/>
@@ -5214,48 +5251,48 @@
       <c r="M158" s="52"/>
       <c r="N158" s="52"/>
     </row>
-    <row r="159" spans="1:14" ht="16.5">
-      <c r="A159" s="68">
-        <v>27</v>
-      </c>
-      <c r="B159" s="9">
-        <v>41764</v>
-      </c>
-      <c r="C159" s="37"/>
-      <c r="D159" s="37"/>
-      <c r="E159" s="37"/>
-      <c r="F159" s="37"/>
-      <c r="G159" s="37"/>
-      <c r="H159" s="37"/>
-      <c r="I159" s="37"/>
-      <c r="J159" s="37"/>
+    <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="99"/>
+      <c r="B159" s="2">
+        <v>41760</v>
+      </c>
+      <c r="C159" s="44"/>
+      <c r="D159" s="44"/>
+      <c r="E159" s="44"/>
+      <c r="F159" s="44"/>
+      <c r="G159" s="44"/>
+      <c r="H159" s="44"/>
+      <c r="I159" s="44"/>
+      <c r="J159" s="44"/>
       <c r="K159" s="52"/>
       <c r="L159" s="52"/>
       <c r="M159" s="52"/>
       <c r="N159" s="52"/>
     </row>
-    <row r="160" spans="1:14" ht="16.5">
-      <c r="A160" s="68"/>
-      <c r="B160" s="9">
-        <v>41765</v>
-      </c>
-      <c r="C160" s="37"/>
-      <c r="D160" s="37"/>
-      <c r="E160" s="37"/>
-      <c r="F160" s="37"/>
-      <c r="G160" s="37"/>
-      <c r="H160" s="37"/>
-      <c r="I160" s="37"/>
-      <c r="J160" s="37"/>
+    <row r="160" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="99"/>
+      <c r="B160" s="2">
+        <v>41761</v>
+      </c>
+      <c r="C160" s="44"/>
+      <c r="D160" s="44"/>
+      <c r="E160" s="44"/>
+      <c r="F160" s="44"/>
+      <c r="G160" s="44"/>
+      <c r="H160" s="44"/>
+      <c r="I160" s="44"/>
+      <c r="J160" s="44"/>
       <c r="K160" s="52"/>
       <c r="L160" s="52"/>
       <c r="M160" s="52"/>
       <c r="N160" s="52"/>
     </row>
-    <row r="161" spans="1:14" ht="16.5">
-      <c r="A161" s="68"/>
+    <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="103">
+        <v>27</v>
+      </c>
       <c r="B161" s="9">
-        <v>41766</v>
+        <v>41764</v>
       </c>
       <c r="C161" s="37"/>
       <c r="D161" s="37"/>
@@ -5270,10 +5307,10 @@
       <c r="M161" s="52"/>
       <c r="N161" s="52"/>
     </row>
-    <row r="162" spans="1:14" ht="16.5">
-      <c r="A162" s="68"/>
+    <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="103"/>
       <c r="B162" s="9">
-        <v>41767</v>
+        <v>41765</v>
       </c>
       <c r="C162" s="37"/>
       <c r="D162" s="37"/>
@@ -5288,10 +5325,10 @@
       <c r="M162" s="52"/>
       <c r="N162" s="52"/>
     </row>
-    <row r="163" spans="1:14" ht="16.5">
-      <c r="A163" s="68"/>
+    <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="103"/>
       <c r="B163" s="9">
-        <v>41768</v>
+        <v>41766</v>
       </c>
       <c r="C163" s="37"/>
       <c r="D163" s="37"/>
@@ -5306,48 +5343,48 @@
       <c r="M163" s="52"/>
       <c r="N163" s="52"/>
     </row>
-    <row r="164" spans="1:14" ht="16.5">
-      <c r="A164" s="78">
-        <v>28</v>
-      </c>
-      <c r="B164" s="2">
-        <v>41771</v>
-      </c>
-      <c r="C164" s="44"/>
-      <c r="D164" s="44"/>
-      <c r="E164" s="44"/>
-      <c r="F164" s="44"/>
-      <c r="G164" s="44"/>
-      <c r="H164" s="44"/>
-      <c r="I164" s="44"/>
-      <c r="J164" s="44"/>
+    <row r="164" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="103"/>
+      <c r="B164" s="9">
+        <v>41767</v>
+      </c>
+      <c r="C164" s="37"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
+      <c r="F164" s="37"/>
+      <c r="G164" s="37"/>
+      <c r="H164" s="37"/>
+      <c r="I164" s="37"/>
+      <c r="J164" s="37"/>
       <c r="K164" s="52"/>
       <c r="L164" s="52"/>
       <c r="M164" s="52"/>
       <c r="N164" s="52"/>
     </row>
-    <row r="165" spans="1:14" ht="16.5">
-      <c r="A165" s="78"/>
-      <c r="B165" s="2">
-        <v>41772</v>
-      </c>
-      <c r="C165" s="44"/>
-      <c r="D165" s="44"/>
-      <c r="E165" s="44"/>
-      <c r="F165" s="44"/>
-      <c r="G165" s="44"/>
-      <c r="H165" s="44"/>
-      <c r="I165" s="44"/>
-      <c r="J165" s="44"/>
+    <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A165" s="103"/>
+      <c r="B165" s="9">
+        <v>41768</v>
+      </c>
+      <c r="C165" s="37"/>
+      <c r="D165" s="37"/>
+      <c r="E165" s="37"/>
+      <c r="F165" s="37"/>
+      <c r="G165" s="37"/>
+      <c r="H165" s="37"/>
+      <c r="I165" s="37"/>
+      <c r="J165" s="37"/>
       <c r="K165" s="52"/>
       <c r="L165" s="52"/>
       <c r="M165" s="52"/>
       <c r="N165" s="52"/>
     </row>
-    <row r="166" spans="1:14" ht="16.5">
-      <c r="A166" s="78"/>
+    <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A166" s="99">
+        <v>28</v>
+      </c>
       <c r="B166" s="2">
-        <v>41773</v>
+        <v>41771</v>
       </c>
       <c r="C166" s="44"/>
       <c r="D166" s="44"/>
@@ -5362,10 +5399,10 @@
       <c r="M166" s="52"/>
       <c r="N166" s="52"/>
     </row>
-    <row r="167" spans="1:14" ht="16.5">
-      <c r="A167" s="78"/>
+    <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A167" s="99"/>
       <c r="B167" s="2">
-        <v>41774</v>
+        <v>41772</v>
       </c>
       <c r="C167" s="44"/>
       <c r="D167" s="44"/>
@@ -5380,10 +5417,10 @@
       <c r="M167" s="52"/>
       <c r="N167" s="52"/>
     </row>
-    <row r="168" spans="1:14" ht="16.5">
-      <c r="A168" s="78"/>
+    <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A168" s="99"/>
       <c r="B168" s="2">
-        <v>41775</v>
+        <v>41773</v>
       </c>
       <c r="C168" s="44"/>
       <c r="D168" s="44"/>
@@ -5398,48 +5435,48 @@
       <c r="M168" s="52"/>
       <c r="N168" s="52"/>
     </row>
-    <row r="169" spans="1:14" ht="16.5">
-      <c r="A169" s="68">
-        <v>29</v>
-      </c>
-      <c r="B169" s="9">
-        <v>41778</v>
-      </c>
-      <c r="C169" s="37"/>
-      <c r="D169" s="37"/>
-      <c r="E169" s="37"/>
-      <c r="F169" s="37"/>
-      <c r="G169" s="37"/>
-      <c r="H169" s="37"/>
-      <c r="I169" s="37"/>
-      <c r="J169" s="37"/>
+    <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A169" s="99"/>
+      <c r="B169" s="2">
+        <v>41774</v>
+      </c>
+      <c r="C169" s="44"/>
+      <c r="D169" s="44"/>
+      <c r="E169" s="44"/>
+      <c r="F169" s="44"/>
+      <c r="G169" s="44"/>
+      <c r="H169" s="44"/>
+      <c r="I169" s="44"/>
+      <c r="J169" s="44"/>
       <c r="K169" s="52"/>
       <c r="L169" s="52"/>
       <c r="M169" s="52"/>
       <c r="N169" s="52"/>
     </row>
-    <row r="170" spans="1:14" ht="16.5">
-      <c r="A170" s="68"/>
-      <c r="B170" s="9">
-        <v>41779</v>
-      </c>
-      <c r="C170" s="37"/>
-      <c r="D170" s="37"/>
-      <c r="E170" s="37"/>
-      <c r="F170" s="37"/>
-      <c r="G170" s="37"/>
-      <c r="H170" s="37"/>
-      <c r="I170" s="37"/>
-      <c r="J170" s="37"/>
+    <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="99"/>
+      <c r="B170" s="2">
+        <v>41775</v>
+      </c>
+      <c r="C170" s="44"/>
+      <c r="D170" s="44"/>
+      <c r="E170" s="44"/>
+      <c r="F170" s="44"/>
+      <c r="G170" s="44"/>
+      <c r="H170" s="44"/>
+      <c r="I170" s="44"/>
+      <c r="J170" s="44"/>
       <c r="K170" s="52"/>
       <c r="L170" s="52"/>
       <c r="M170" s="52"/>
       <c r="N170" s="52"/>
     </row>
-    <row r="171" spans="1:14" ht="16.5">
-      <c r="A171" s="68"/>
+    <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="103">
+        <v>29</v>
+      </c>
       <c r="B171" s="9">
-        <v>41780</v>
+        <v>41778</v>
       </c>
       <c r="C171" s="37"/>
       <c r="D171" s="37"/>
@@ -5454,10 +5491,10 @@
       <c r="M171" s="52"/>
       <c r="N171" s="52"/>
     </row>
-    <row r="172" spans="1:14" ht="16.5">
-      <c r="A172" s="68"/>
+    <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A172" s="103"/>
       <c r="B172" s="9">
-        <v>41781</v>
+        <v>41779</v>
       </c>
       <c r="C172" s="37"/>
       <c r="D172" s="37"/>
@@ -5472,10 +5509,10 @@
       <c r="M172" s="52"/>
       <c r="N172" s="52"/>
     </row>
-    <row r="173" spans="1:14" ht="16.5">
-      <c r="A173" s="68"/>
+    <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="103"/>
       <c r="B173" s="9">
-        <v>41782</v>
+        <v>41780</v>
       </c>
       <c r="C173" s="37"/>
       <c r="D173" s="37"/>
@@ -5490,48 +5527,48 @@
       <c r="M173" s="52"/>
       <c r="N173" s="52"/>
     </row>
-    <row r="174" spans="1:14" ht="16.5">
-      <c r="A174" s="79">
-        <v>30</v>
-      </c>
-      <c r="B174" s="2">
-        <v>41785</v>
-      </c>
-      <c r="C174" s="40"/>
-      <c r="D174" s="40"/>
-      <c r="E174" s="40"/>
-      <c r="F174" s="40"/>
-      <c r="G174" s="40"/>
-      <c r="H174" s="40"/>
-      <c r="I174" s="40"/>
-      <c r="J174" s="40"/>
+    <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A174" s="103"/>
+      <c r="B174" s="9">
+        <v>41781</v>
+      </c>
+      <c r="C174" s="37"/>
+      <c r="D174" s="37"/>
+      <c r="E174" s="37"/>
+      <c r="F174" s="37"/>
+      <c r="G174" s="37"/>
+      <c r="H174" s="37"/>
+      <c r="I174" s="37"/>
+      <c r="J174" s="37"/>
       <c r="K174" s="52"/>
       <c r="L174" s="52"/>
       <c r="M174" s="52"/>
       <c r="N174" s="52"/>
     </row>
-    <row r="175" spans="1:14" ht="16.5">
-      <c r="A175" s="79"/>
-      <c r="B175" s="2">
-        <v>41786</v>
-      </c>
-      <c r="C175" s="40"/>
-      <c r="D175" s="40"/>
-      <c r="E175" s="40"/>
-      <c r="F175" s="40"/>
-      <c r="G175" s="40"/>
-      <c r="H175" s="40"/>
-      <c r="I175" s="40"/>
-      <c r="J175" s="40"/>
+    <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A175" s="103"/>
+      <c r="B175" s="9">
+        <v>41782</v>
+      </c>
+      <c r="C175" s="37"/>
+      <c r="D175" s="37"/>
+      <c r="E175" s="37"/>
+      <c r="F175" s="37"/>
+      <c r="G175" s="37"/>
+      <c r="H175" s="37"/>
+      <c r="I175" s="37"/>
+      <c r="J175" s="37"/>
       <c r="K175" s="52"/>
       <c r="L175" s="52"/>
       <c r="M175" s="52"/>
       <c r="N175" s="52"/>
     </row>
-    <row r="176" spans="1:14" ht="16.5">
-      <c r="A176" s="79"/>
+    <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A176" s="105">
+        <v>30</v>
+      </c>
       <c r="B176" s="2">
-        <v>41787</v>
+        <v>41785</v>
       </c>
       <c r="C176" s="40"/>
       <c r="D176" s="40"/>
@@ -5546,10 +5583,10 @@
       <c r="M176" s="52"/>
       <c r="N176" s="52"/>
     </row>
-    <row r="177" spans="1:14" ht="16.5">
-      <c r="A177" s="79"/>
+    <row r="177" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A177" s="105"/>
       <c r="B177" s="2">
-        <v>41788</v>
+        <v>41786</v>
       </c>
       <c r="C177" s="40"/>
       <c r="D177" s="40"/>
@@ -5564,10 +5601,10 @@
       <c r="M177" s="52"/>
       <c r="N177" s="52"/>
     </row>
-    <row r="178" spans="1:14" ht="16.5">
-      <c r="A178" s="79"/>
+    <row r="178" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A178" s="105"/>
       <c r="B178" s="2">
-        <v>41789</v>
+        <v>41787</v>
       </c>
       <c r="C178" s="40"/>
       <c r="D178" s="40"/>
@@ -5582,46 +5619,46 @@
       <c r="M178" s="52"/>
       <c r="N178" s="52"/>
     </row>
-    <row r="179" spans="1:14" ht="16.5">
-      <c r="A179" s="79"/>
-      <c r="B179" s="10">
-        <v>41790</v>
-      </c>
-      <c r="C179" s="52"/>
-      <c r="D179" s="52"/>
-      <c r="E179" s="52"/>
-      <c r="F179" s="52"/>
-      <c r="G179" s="52"/>
-      <c r="H179" s="52"/>
-      <c r="I179" s="52"/>
-      <c r="J179" s="52"/>
+    <row r="179" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A179" s="105"/>
+      <c r="B179" s="2">
+        <v>41788</v>
+      </c>
+      <c r="C179" s="40"/>
+      <c r="D179" s="40"/>
+      <c r="E179" s="40"/>
+      <c r="F179" s="40"/>
+      <c r="G179" s="40"/>
+      <c r="H179" s="40"/>
+      <c r="I179" s="40"/>
+      <c r="J179" s="40"/>
       <c r="K179" s="52"/>
       <c r="L179" s="52"/>
       <c r="M179" s="52"/>
       <c r="N179" s="52"/>
     </row>
-    <row r="180" spans="1:14" ht="16.5">
-      <c r="A180" s="53"/>
+    <row r="180" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A180" s="105"/>
       <c r="B180" s="2">
-        <v>41791</v>
-      </c>
-      <c r="C180" s="52"/>
-      <c r="D180" s="52"/>
-      <c r="E180" s="52"/>
-      <c r="F180" s="52"/>
-      <c r="G180" s="52"/>
-      <c r="H180" s="52"/>
-      <c r="I180" s="52"/>
-      <c r="J180" s="52"/>
+        <v>41789</v>
+      </c>
+      <c r="C180" s="40"/>
+      <c r="D180" s="40"/>
+      <c r="E180" s="40"/>
+      <c r="F180" s="40"/>
+      <c r="G180" s="40"/>
+      <c r="H180" s="40"/>
+      <c r="I180" s="40"/>
+      <c r="J180" s="40"/>
       <c r="K180" s="52"/>
       <c r="L180" s="52"/>
       <c r="M180" s="52"/>
       <c r="N180" s="52"/>
     </row>
-    <row r="181" spans="1:14" ht="16.5">
-      <c r="A181" s="52"/>
-      <c r="B181" s="2">
-        <v>41792</v>
+    <row r="181" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="105"/>
+      <c r="B181" s="10">
+        <v>41790</v>
       </c>
       <c r="C181" s="52"/>
       <c r="D181" s="52"/>
@@ -5636,10 +5673,10 @@
       <c r="M181" s="52"/>
       <c r="N181" s="52"/>
     </row>
-    <row r="182" spans="1:14" ht="16.5">
-      <c r="A182" s="52"/>
+    <row r="182" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A182" s="53"/>
       <c r="B182" s="2">
-        <v>41793</v>
+        <v>41791</v>
       </c>
       <c r="C182" s="52"/>
       <c r="D182" s="52"/>
@@ -5654,10 +5691,10 @@
       <c r="M182" s="52"/>
       <c r="N182" s="52"/>
     </row>
-    <row r="183" spans="1:14" ht="16.5">
+    <row r="183" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" s="52"/>
       <c r="B183" s="2">
-        <v>41794</v>
+        <v>41792</v>
       </c>
       <c r="C183" s="52"/>
       <c r="D183" s="52"/>
@@ -5672,10 +5709,10 @@
       <c r="M183" s="52"/>
       <c r="N183" s="52"/>
     </row>
-    <row r="184" spans="1:14" ht="16.5">
+    <row r="184" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" s="52"/>
       <c r="B184" s="2">
-        <v>41795</v>
+        <v>41793</v>
       </c>
       <c r="C184" s="52"/>
       <c r="D184" s="52"/>
@@ -5690,10 +5727,10 @@
       <c r="M184" s="52"/>
       <c r="N184" s="52"/>
     </row>
-    <row r="185" spans="1:14" ht="16.5">
+    <row r="185" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="52"/>
       <c r="B185" s="2">
-        <v>41796</v>
+        <v>41794</v>
       </c>
       <c r="C185" s="52"/>
       <c r="D185" s="52"/>
@@ -5708,10 +5745,10 @@
       <c r="M185" s="52"/>
       <c r="N185" s="52"/>
     </row>
-    <row r="186" spans="1:14" ht="16.5">
+    <row r="186" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="52"/>
       <c r="B186" s="2">
-        <v>41797</v>
+        <v>41795</v>
       </c>
       <c r="C186" s="52"/>
       <c r="D186" s="52"/>
@@ -5726,10 +5763,10 @@
       <c r="M186" s="52"/>
       <c r="N186" s="52"/>
     </row>
-    <row r="187" spans="1:14" ht="16.5">
+    <row r="187" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="52"/>
       <c r="B187" s="2">
-        <v>41798</v>
+        <v>41796</v>
       </c>
       <c r="C187" s="52"/>
       <c r="D187" s="52"/>
@@ -5744,10 +5781,10 @@
       <c r="M187" s="52"/>
       <c r="N187" s="52"/>
     </row>
-    <row r="188" spans="1:14" ht="16.5">
+    <row r="188" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="52"/>
       <c r="B188" s="2">
-        <v>41799</v>
+        <v>41797</v>
       </c>
       <c r="C188" s="52"/>
       <c r="D188" s="52"/>
@@ -5762,10 +5799,10 @@
       <c r="M188" s="52"/>
       <c r="N188" s="52"/>
     </row>
-    <row r="189" spans="1:14" ht="16.5">
+    <row r="189" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="52"/>
       <c r="B189" s="2">
-        <v>41800</v>
+        <v>41798</v>
       </c>
       <c r="C189" s="52"/>
       <c r="D189" s="52"/>
@@ -5780,10 +5817,10 @@
       <c r="M189" s="52"/>
       <c r="N189" s="52"/>
     </row>
-    <row r="190" spans="1:14" ht="16.5">
+    <row r="190" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="52"/>
       <c r="B190" s="2">
-        <v>41801</v>
+        <v>41799</v>
       </c>
       <c r="C190" s="52"/>
       <c r="D190" s="52"/>
@@ -5798,10 +5835,10 @@
       <c r="M190" s="52"/>
       <c r="N190" s="52"/>
     </row>
-    <row r="191" spans="1:14" ht="16.5">
+    <row r="191" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="52"/>
       <c r="B191" s="2">
-        <v>41802</v>
+        <v>41800</v>
       </c>
       <c r="C191" s="52"/>
       <c r="D191" s="52"/>
@@ -5816,10 +5853,10 @@
       <c r="M191" s="52"/>
       <c r="N191" s="52"/>
     </row>
-    <row r="192" spans="1:14" ht="16.5">
+    <row r="192" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" s="52"/>
       <c r="B192" s="2">
-        <v>41803</v>
+        <v>41801</v>
       </c>
       <c r="C192" s="52"/>
       <c r="D192" s="52"/>
@@ -5834,10 +5871,10 @@
       <c r="M192" s="52"/>
       <c r="N192" s="52"/>
     </row>
-    <row r="193" spans="1:14" ht="16.5">
+    <row r="193" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" s="52"/>
       <c r="B193" s="2">
-        <v>41804</v>
+        <v>41802</v>
       </c>
       <c r="C193" s="52"/>
       <c r="D193" s="52"/>
@@ -5852,10 +5889,10 @@
       <c r="M193" s="52"/>
       <c r="N193" s="52"/>
     </row>
-    <row r="194" spans="1:14" ht="16.5">
+    <row r="194" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="52"/>
       <c r="B194" s="2">
-        <v>41805</v>
+        <v>41803</v>
       </c>
       <c r="C194" s="52"/>
       <c r="D194" s="52"/>
@@ -5870,10 +5907,10 @@
       <c r="M194" s="52"/>
       <c r="N194" s="52"/>
     </row>
-    <row r="195" spans="1:14" ht="16.5">
+    <row r="195" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="52"/>
       <c r="B195" s="2">
-        <v>41806</v>
+        <v>41804</v>
       </c>
       <c r="C195" s="52"/>
       <c r="D195" s="52"/>
@@ -5888,10 +5925,10 @@
       <c r="M195" s="52"/>
       <c r="N195" s="52"/>
     </row>
-    <row r="196" spans="1:14" ht="16.5">
+    <row r="196" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="52"/>
       <c r="B196" s="2">
-        <v>41807</v>
+        <v>41805</v>
       </c>
       <c r="C196" s="52"/>
       <c r="D196" s="52"/>
@@ -5906,10 +5943,10 @@
       <c r="M196" s="52"/>
       <c r="N196" s="52"/>
     </row>
-    <row r="197" spans="1:14" ht="16.5">
+    <row r="197" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="52"/>
       <c r="B197" s="2">
-        <v>41808</v>
+        <v>41806</v>
       </c>
       <c r="C197" s="52"/>
       <c r="D197" s="52"/>
@@ -5924,10 +5961,10 @@
       <c r="M197" s="52"/>
       <c r="N197" s="52"/>
     </row>
-    <row r="198" spans="1:14" ht="16.5">
+    <row r="198" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="52"/>
       <c r="B198" s="2">
-        <v>41809</v>
+        <v>41807</v>
       </c>
       <c r="C198" s="52"/>
       <c r="D198" s="52"/>
@@ -5942,10 +5979,10 @@
       <c r="M198" s="52"/>
       <c r="N198" s="52"/>
     </row>
-    <row r="199" spans="1:14" ht="16.5">
+    <row r="199" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" s="52"/>
       <c r="B199" s="2">
-        <v>41810</v>
+        <v>41808</v>
       </c>
       <c r="C199" s="52"/>
       <c r="D199" s="52"/>
@@ -5956,10 +5993,10 @@
       <c r="I199" s="52"/>
       <c r="J199" s="52"/>
     </row>
-    <row r="200" spans="1:14" ht="16.5">
+    <row r="200" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="52"/>
       <c r="B200" s="2">
-        <v>41811</v>
+        <v>41809</v>
       </c>
       <c r="C200" s="52"/>
       <c r="D200" s="52"/>
@@ -5970,10 +6007,10 @@
       <c r="I200" s="52"/>
       <c r="J200" s="52"/>
     </row>
-    <row r="201" spans="1:14" ht="16.5">
+    <row r="201" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="52"/>
       <c r="B201" s="2">
-        <v>41812</v>
+        <v>41810</v>
       </c>
       <c r="C201" s="52"/>
       <c r="D201" s="52"/>
@@ -5984,10 +6021,10 @@
       <c r="I201" s="52"/>
       <c r="J201" s="52"/>
     </row>
-    <row r="202" spans="1:14" ht="16.5">
+    <row r="202" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="52"/>
       <c r="B202" s="2">
-        <v>41813</v>
+        <v>41811</v>
       </c>
       <c r="C202" s="52"/>
       <c r="D202" s="52"/>
@@ -5998,10 +6035,10 @@
       <c r="I202" s="52"/>
       <c r="J202" s="52"/>
     </row>
-    <row r="203" spans="1:14" ht="16.5">
+    <row r="203" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="52"/>
       <c r="B203" s="2">
-        <v>41814</v>
+        <v>41812</v>
       </c>
       <c r="C203" s="52"/>
       <c r="D203" s="52"/>
@@ -6012,10 +6049,10 @@
       <c r="I203" s="52"/>
       <c r="J203" s="52"/>
     </row>
-    <row r="204" spans="1:14" ht="16.5">
+    <row r="204" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" s="52"/>
       <c r="B204" s="2">
-        <v>41815</v>
+        <v>41813</v>
       </c>
       <c r="C204" s="52"/>
       <c r="D204" s="52"/>
@@ -6026,10 +6063,10 @@
       <c r="I204" s="52"/>
       <c r="J204" s="52"/>
     </row>
-    <row r="205" spans="1:14" ht="16.5">
+    <row r="205" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A205" s="52"/>
       <c r="B205" s="2">
-        <v>41816</v>
+        <v>41814</v>
       </c>
       <c r="C205" s="52"/>
       <c r="D205" s="52"/>
@@ -6040,10 +6077,10 @@
       <c r="I205" s="52"/>
       <c r="J205" s="52"/>
     </row>
-    <row r="206" spans="1:14" ht="16.5">
+    <row r="206" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A206" s="52"/>
       <c r="B206" s="2">
-        <v>41817</v>
+        <v>41815</v>
       </c>
       <c r="C206" s="52"/>
       <c r="D206" s="52"/>
@@ -6054,10 +6091,10 @@
       <c r="I206" s="52"/>
       <c r="J206" s="52"/>
     </row>
-    <row r="207" spans="1:14" ht="16.5">
+    <row r="207" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A207" s="52"/>
       <c r="B207" s="2">
-        <v>41818</v>
+        <v>41816</v>
       </c>
       <c r="C207" s="52"/>
       <c r="D207" s="52"/>
@@ -6068,10 +6105,10 @@
       <c r="I207" s="52"/>
       <c r="J207" s="52"/>
     </row>
-    <row r="208" spans="1:14" ht="16.5">
+    <row r="208" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A208" s="52"/>
       <c r="B208" s="2">
-        <v>41819</v>
+        <v>41817</v>
       </c>
       <c r="C208" s="52"/>
       <c r="D208" s="52"/>
@@ -6082,10 +6119,10 @@
       <c r="I208" s="52"/>
       <c r="J208" s="52"/>
     </row>
-    <row r="209" spans="1:10" ht="16.5">
+    <row r="209" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="52"/>
       <c r="B209" s="2">
-        <v>41820</v>
+        <v>41818</v>
       </c>
       <c r="C209" s="52"/>
       <c r="D209" s="52"/>
@@ -6096,10 +6133,10 @@
       <c r="I209" s="52"/>
       <c r="J209" s="52"/>
     </row>
-    <row r="210" spans="1:10" ht="16.5">
+    <row r="210" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" s="52"/>
       <c r="B210" s="2">
-        <v>41821</v>
+        <v>41819</v>
       </c>
       <c r="C210" s="52"/>
       <c r="D210" s="52"/>
@@ -6110,10 +6147,10 @@
       <c r="I210" s="52"/>
       <c r="J210" s="52"/>
     </row>
-    <row r="211" spans="1:10" ht="16.5">
+    <row r="211" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A211" s="52"/>
       <c r="B211" s="2">
-        <v>41822</v>
+        <v>41820</v>
       </c>
       <c r="C211" s="52"/>
       <c r="D211" s="52"/>
@@ -6124,10 +6161,10 @@
       <c r="I211" s="52"/>
       <c r="J211" s="52"/>
     </row>
-    <row r="212" spans="1:10" ht="16.5">
+    <row r="212" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" s="52"/>
       <c r="B212" s="2">
-        <v>41823</v>
+        <v>41821</v>
       </c>
       <c r="C212" s="52"/>
       <c r="D212" s="52"/>
@@ -6138,10 +6175,10 @@
       <c r="I212" s="52"/>
       <c r="J212" s="52"/>
     </row>
-    <row r="213" spans="1:10" ht="16.5">
+    <row r="213" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A213" s="52"/>
       <c r="B213" s="2">
-        <v>41824</v>
+        <v>41822</v>
       </c>
       <c r="C213" s="52"/>
       <c r="D213" s="52"/>
@@ -6152,50 +6189,40 @@
       <c r="I213" s="52"/>
       <c r="J213" s="52"/>
     </row>
+    <row r="214" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A214" s="52"/>
+      <c r="B214" s="2">
+        <v>41823</v>
+      </c>
+      <c r="C214" s="52"/>
+      <c r="D214" s="52"/>
+      <c r="E214" s="52"/>
+      <c r="F214" s="52"/>
+      <c r="G214" s="52"/>
+      <c r="H214" s="52"/>
+      <c r="I214" s="52"/>
+      <c r="J214" s="52"/>
+    </row>
+    <row r="215" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A215" s="52"/>
+      <c r="B215" s="2">
+        <v>41824</v>
+      </c>
+      <c r="C215" s="52"/>
+      <c r="D215" s="52"/>
+      <c r="E215" s="52"/>
+      <c r="F215" s="52"/>
+      <c r="G215" s="52"/>
+      <c r="H215" s="52"/>
+      <c r="I215" s="52"/>
+      <c r="J215" s="52"/>
+    </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A35:A48"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A129:A133"/>
-    <mergeCell ref="A134:A138"/>
-    <mergeCell ref="A104:A108"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="A114:A118"/>
-    <mergeCell ref="A119:A123"/>
-    <mergeCell ref="A124:A128"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="A169:A173"/>
-    <mergeCell ref="A174:A179"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A63"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="A99:A103"/>
+  <mergeCells count="58">
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="F50:F52"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A159:A163"/>
+    <mergeCell ref="A161:A165"/>
     <mergeCell ref="B23:B28"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="B29:B31"/>
@@ -6210,6 +6237,46 @@
     <mergeCell ref="B45:B46"/>
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A166:A170"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A35:A48"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="A111:A115"/>
+    <mergeCell ref="A116:A120"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A91:A95"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F23:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -6613,7 +6680,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F51</xm:sqref>
+          <xm:sqref>F53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{3414DE04-4AA7-4EA1-9251-85D8CF7D1059}">

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thienphu\Desktop\Capstone\1. Project management\9. Timelog\individual time log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\1. Project management\9. Timelog\individual time log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="153">
   <si>
     <t>Week</t>
   </si>
@@ -535,6 +535,9 @@
 Write Use case
 Update architecture plan document
 Update timelog</t>
+  </si>
+  <si>
+    <t>Discuss about document</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -556,14 +559,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -581,7 +584,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -606,21 +609,21 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -628,7 +631,7 @@
       <b/>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
     </font>
@@ -1029,148 +1032,148 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1459,13 +1462,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>31</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="15">
         <v>2</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="15">
         <v>3</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>4</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>6</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>7</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>8</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>9</v>
       </c>
@@ -1545,7 +1548,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>10</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>11</v>
       </c>
@@ -1568,110 +1571,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N215"/>
+  <dimension ref="A1:N216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="66.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="73.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="72.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="66.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="73.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="72.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="77"/>
+      <c r="A1" s="88"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="90"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="78" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="80"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="93"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="83"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="86"/>
-    </row>
-    <row r="5" spans="1:14" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="95"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="97"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="99"/>
+    </row>
+    <row r="5" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="32"/>
       <c r="H5" s="56" t="s">
         <v>112</v>
@@ -1716,10 +1719,10 @@
       <c r="J6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -1747,20 +1750,20 @@
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="93" t="s">
+      <c r="K7" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="93"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="38">
         <f>SUM(M8:M37)</f>
-        <v>90.51</v>
+        <v>91.01</v>
       </c>
       <c r="N7" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="100">
+      <c r="A8" s="81">
         <v>2</v>
       </c>
       <c r="B8" s="2">
@@ -1775,7 +1778,7 @@
       <c r="E8" s="13">
         <v>1.5</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="111">
         <f>SUM(E8:E9)</f>
         <v>3</v>
       </c>
@@ -1800,7 +1803,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="101"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="2">
         <v>41589</v>
       </c>
@@ -1813,7 +1816,7 @@
       <c r="E9" s="13">
         <v>1.5</v>
       </c>
-      <c r="F9" s="68"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1835,7 +1838,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10" s="101"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="2">
         <v>41590</v>
       </c>
@@ -1848,7 +1851,7 @@
       <c r="E10" s="13">
         <v>2</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="111">
         <f>SUM(E10:E11)</f>
         <v>4</v>
       </c>
@@ -1873,7 +1876,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="101"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="2">
         <v>41590</v>
       </c>
@@ -1886,7 +1889,7 @@
       <c r="E11" s="13">
         <v>2</v>
       </c>
-      <c r="F11" s="68"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1907,8 +1910,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="101"/>
+    <row r="12" spans="1:14" ht="66" x14ac:dyDescent="0.25">
+      <c r="A12" s="82"/>
       <c r="B12" s="2">
         <v>41591</v>
       </c>
@@ -1938,15 +1941,15 @@
       </c>
       <c r="L12" s="44"/>
       <c r="M12" s="45">
-        <f>SUM(F49:F55)</f>
-        <v>13.5</v>
+        <f>SUM(F49:F56)</f>
+        <v>14</v>
       </c>
       <c r="N12" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="101"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="2">
         <v>41592</v>
       </c>
@@ -1959,7 +1962,7 @@
       <c r="E13" s="13">
         <v>1</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="111">
         <f>SUM(E13:E14)</f>
         <v>2.25</v>
       </c>
@@ -1976,7 +1979,7 @@
       </c>
       <c r="L13" s="44"/>
       <c r="M13" s="45">
-        <f>SUM(F56:F60)</f>
+        <f>SUM(F57:F61)</f>
         <v>0</v>
       </c>
       <c r="N13" s="39" t="s">
@@ -1984,7 +1987,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="101"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="2">
         <v>41592</v>
       </c>
@@ -1997,7 +2000,7 @@
       <c r="E14" s="13">
         <v>1.25</v>
       </c>
-      <c r="F14" s="68"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="21" t="s">
         <v>28</v>
       </c>
@@ -2011,7 +2014,7 @@
       </c>
       <c r="L14" s="44"/>
       <c r="M14" s="45">
-        <f>SUM(F61:F65)</f>
+        <f>SUM(F62:F66)</f>
         <v>0</v>
       </c>
       <c r="N14" s="39" t="s">
@@ -2019,7 +2022,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="101"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="2">
         <v>41593</v>
       </c>
@@ -2049,7 +2052,7 @@
       </c>
       <c r="L15" s="44"/>
       <c r="M15" s="45">
-        <f>SUM(F66:F70)</f>
+        <f>SUM(F67:F71)</f>
         <v>0</v>
       </c>
       <c r="N15" s="39" t="s">
@@ -2057,7 +2060,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="101"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="23">
         <v>41594</v>
       </c>
@@ -2087,7 +2090,7 @@
       </c>
       <c r="L16" s="44"/>
       <c r="M16" s="45">
-        <f>SUM(F71:F75)</f>
+        <f>SUM(F72:F76)</f>
         <v>0</v>
       </c>
       <c r="N16" s="39" t="s">
@@ -2095,7 +2098,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="102"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="23">
         <v>41595</v>
       </c>
@@ -2125,7 +2128,7 @@
       </c>
       <c r="L17" s="44"/>
       <c r="M17" s="45">
-        <f>SUM(F76:F80)</f>
+        <f>SUM(F77:F81)</f>
         <v>0</v>
       </c>
       <c r="N17" s="39" t="s">
@@ -2133,7 +2136,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="104">
+      <c r="A18" s="84">
         <v>3</v>
       </c>
       <c r="B18" s="9">
@@ -2165,7 +2168,7 @@
       </c>
       <c r="L18" s="44"/>
       <c r="M18" s="45">
-        <f>SUM(F81:F85)</f>
+        <f>SUM(F82:F86)</f>
         <v>0</v>
       </c>
       <c r="N18" s="39" t="s">
@@ -2173,8 +2176,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="103"/>
-      <c r="B19" s="106">
+      <c r="A19" s="71"/>
+      <c r="B19" s="65">
         <v>41597</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2186,7 +2189,7 @@
       <c r="E19" s="22">
         <v>1</v>
       </c>
-      <c r="F19" s="69">
+      <c r="F19" s="68">
         <f>SUM(E19:E21)</f>
         <v>4.6500000000000004</v>
       </c>
@@ -2203,7 +2206,7 @@
       </c>
       <c r="L19" s="44"/>
       <c r="M19" s="45">
-        <f>SUM(F86:F90)</f>
+        <f>SUM(F87:F91)</f>
         <v>0</v>
       </c>
       <c r="N19" s="39" t="s">
@@ -2211,8 +2214,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="103"/>
-      <c r="B20" s="107"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="3" t="s">
         <v>91</v>
       </c>
@@ -2222,7 +2225,7 @@
       <c r="E20" s="22">
         <v>1.5</v>
       </c>
-      <c r="F20" s="70"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="28" t="s">
         <v>27</v>
       </c>
@@ -2238,16 +2241,16 @@
       </c>
       <c r="L20" s="44"/>
       <c r="M20" s="45">
-        <f>SUM(F91:F95)</f>
+        <f>SUM(F92:F96)</f>
         <v>0</v>
       </c>
       <c r="N20" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="103"/>
-      <c r="B21" s="108"/>
+    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="71"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
@@ -2257,7 +2260,7 @@
       <c r="E21" s="22">
         <v>2.15</v>
       </c>
-      <c r="F21" s="71"/>
+      <c r="F21" s="70"/>
       <c r="G21" s="28" t="s">
         <v>27</v>
       </c>
@@ -2273,15 +2276,15 @@
       </c>
       <c r="L21" s="44"/>
       <c r="M21" s="45">
-        <f>SUM(F96:F100)</f>
+        <f>SUM(F97:F101)</f>
         <v>0</v>
       </c>
       <c r="N21" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A22" s="103"/>
+    <row r="22" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="71"/>
       <c r="B22" s="9">
         <v>41598</v>
       </c>
@@ -2313,7 +2316,7 @@
       </c>
       <c r="L22" s="44"/>
       <c r="M22" s="45">
-        <f>SUM(F101:F105)</f>
+        <f>SUM(F102:F106)</f>
         <v>0</v>
       </c>
       <c r="N22" s="39" t="s">
@@ -2321,8 +2324,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="103"/>
-      <c r="B23" s="106">
+      <c r="A23" s="71"/>
+      <c r="B23" s="65">
         <v>41599</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2334,7 +2337,7 @@
       <c r="E23" s="22">
         <v>1</v>
       </c>
-      <c r="F23" s="69">
+      <c r="F23" s="68">
         <f>SUM(E23:E28)</f>
         <v>9.65</v>
       </c>
@@ -2353,7 +2356,7 @@
       </c>
       <c r="L23" s="44"/>
       <c r="M23" s="45">
-        <f>SUM(F106:F110)</f>
+        <f>SUM(F107:F111)</f>
         <v>0</v>
       </c>
       <c r="N23" s="39" t="s">
@@ -2361,8 +2364,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="103"/>
-      <c r="B24" s="107"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
@@ -2372,7 +2375,7 @@
       <c r="E24" s="22">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F24" s="70"/>
+      <c r="F24" s="69"/>
       <c r="G24" s="29" t="s">
         <v>28</v>
       </c>
@@ -2386,7 +2389,7 @@
       </c>
       <c r="L24" s="44"/>
       <c r="M24" s="45">
-        <f>SUM(F111:F115)</f>
+        <f>SUM(F112:F116)</f>
         <v>0</v>
       </c>
       <c r="N24" s="39" t="s">
@@ -2394,8 +2397,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="103"/>
-      <c r="B25" s="107"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="3" t="s">
         <v>101</v>
       </c>
@@ -2405,7 +2408,7 @@
       <c r="E25" s="22">
         <v>1.33</v>
       </c>
-      <c r="F25" s="70"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="26" t="s">
         <v>64</v>
       </c>
@@ -2419,7 +2422,7 @@
       </c>
       <c r="L25" s="44"/>
       <c r="M25" s="45">
-        <f>SUM(F116:F120)</f>
+        <f>SUM(F117:F121)</f>
         <v>0</v>
       </c>
       <c r="N25" s="39" t="s">
@@ -2427,8 +2430,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="103"/>
-      <c r="B26" s="107"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
@@ -2438,7 +2441,7 @@
       <c r="E26" s="22">
         <v>1.5</v>
       </c>
-      <c r="F26" s="70"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="28" t="s">
         <v>27</v>
       </c>
@@ -2452,7 +2455,7 @@
       </c>
       <c r="L26" s="44"/>
       <c r="M26" s="45">
-        <f>SUM(F121:F125)</f>
+        <f>SUM(F122:F126)</f>
         <v>0</v>
       </c>
       <c r="N26" s="39" t="s">
@@ -2460,8 +2463,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="103"/>
-      <c r="B27" s="107"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
@@ -2471,7 +2474,7 @@
       <c r="E27" s="22">
         <v>2.16</v>
       </c>
-      <c r="F27" s="70"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="26" t="s">
         <v>64</v>
       </c>
@@ -2485,7 +2488,7 @@
       </c>
       <c r="L27" s="44"/>
       <c r="M27" s="45">
-        <f>SUM(F126:F130)</f>
+        <f>SUM(F127:F131)</f>
         <v>0</v>
       </c>
       <c r="N27" s="39" t="s">
@@ -2493,8 +2496,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="103"/>
-      <c r="B28" s="108"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="67"/>
       <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
@@ -2504,7 +2507,7 @@
       <c r="E28" s="22">
         <v>2.5</v>
       </c>
-      <c r="F28" s="71"/>
+      <c r="F28" s="70"/>
       <c r="G28" s="28" t="s">
         <v>27</v>
       </c>
@@ -2520,7 +2523,7 @@
       </c>
       <c r="L28" s="44"/>
       <c r="M28" s="45">
-        <f>SUM(F131:F135)</f>
+        <f>SUM(F132:F136)</f>
         <v>0</v>
       </c>
       <c r="N28" s="39" t="s">
@@ -2528,8 +2531,8 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A29" s="103"/>
-      <c r="B29" s="106">
+      <c r="A29" s="71"/>
+      <c r="B29" s="65">
         <v>41600</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2541,7 +2544,7 @@
       <c r="E29" s="22">
         <v>1.5</v>
       </c>
-      <c r="F29" s="69">
+      <c r="F29" s="68">
         <f>SUM(E29:E31)</f>
         <v>5.5</v>
       </c>
@@ -2560,7 +2563,7 @@
       </c>
       <c r="L29" s="44"/>
       <c r="M29" s="45">
-        <f>SUM(F136:F140)</f>
+        <f>SUM(F137:F141)</f>
         <v>0</v>
       </c>
       <c r="N29" s="39" t="s">
@@ -2568,8 +2571,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A30" s="103"/>
-      <c r="B30" s="107"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
@@ -2579,7 +2582,7 @@
       <c r="E30" s="22">
         <v>1.5</v>
       </c>
-      <c r="F30" s="70"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="28" t="s">
         <v>27</v>
       </c>
@@ -2595,7 +2598,7 @@
       </c>
       <c r="L30" s="44"/>
       <c r="M30" s="45">
-        <f>SUM(F141:F145)</f>
+        <f>SUM(F142:F146)</f>
         <v>0</v>
       </c>
       <c r="N30" s="39" t="s">
@@ -2603,8 +2606,8 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="103"/>
-      <c r="B31" s="108"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
@@ -2614,7 +2617,7 @@
       <c r="E31" s="22">
         <v>2.5</v>
       </c>
-      <c r="F31" s="71"/>
+      <c r="F31" s="70"/>
       <c r="G31" s="28" t="s">
         <v>27</v>
       </c>
@@ -2630,7 +2633,7 @@
       </c>
       <c r="L31" s="44"/>
       <c r="M31" s="45">
-        <f>SUM(F146:F150)</f>
+        <f>SUM(F147:F151)</f>
         <v>0</v>
       </c>
       <c r="N31" s="39" t="s">
@@ -2638,8 +2641,8 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A32" s="103"/>
-      <c r="B32" s="106">
+      <c r="A32" s="71"/>
+      <c r="B32" s="65">
         <v>41601</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2651,7 +2654,7 @@
       <c r="E32" s="22">
         <v>1.5</v>
       </c>
-      <c r="F32" s="69">
+      <c r="F32" s="68">
         <f>SUM(E32:E33)</f>
         <v>2.5</v>
       </c>
@@ -2668,7 +2671,7 @@
       </c>
       <c r="L32" s="44"/>
       <c r="M32" s="45">
-        <f>SUM(F151:F155)</f>
+        <f>SUM(F152:F156)</f>
         <v>0</v>
       </c>
       <c r="N32" s="39" t="s">
@@ -2676,8 +2679,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="103"/>
-      <c r="B33" s="108"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="67"/>
       <c r="C33" s="3" t="s">
         <v>83</v>
       </c>
@@ -2687,7 +2690,7 @@
       <c r="E33" s="22">
         <v>1</v>
       </c>
-      <c r="F33" s="71"/>
+      <c r="F33" s="70"/>
       <c r="G33" s="28" t="s">
         <v>27</v>
       </c>
@@ -2703,7 +2706,7 @@
       </c>
       <c r="L33" s="44"/>
       <c r="M33" s="45">
-        <f>SUM(F156:F160)</f>
+        <f>SUM(F157:F161)</f>
         <v>0</v>
       </c>
       <c r="N33" s="39" t="s">
@@ -2741,7 +2744,7 @@
       </c>
       <c r="L34" s="44"/>
       <c r="M34" s="45">
-        <f>SUM(F161:F165)</f>
+        <f>SUM(F162:F166)</f>
         <v>0</v>
       </c>
       <c r="N34" s="39" t="s">
@@ -2749,7 +2752,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="98">
+      <c r="A35" s="80">
         <v>4</v>
       </c>
       <c r="B35" s="2">
@@ -2781,7 +2784,7 @@
       </c>
       <c r="L35" s="44"/>
       <c r="M35" s="45">
-        <f>SUM(F166:F170)</f>
+        <f>SUM(F167:F171)</f>
         <v>0</v>
       </c>
       <c r="N35" s="39" t="s">
@@ -2789,8 +2792,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="99"/>
-      <c r="B36" s="109">
+      <c r="A36" s="78"/>
+      <c r="B36" s="72">
         <v>41604</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -2802,7 +2805,7 @@
       <c r="E36" s="25">
         <v>2.5</v>
       </c>
-      <c r="F36" s="65">
+      <c r="F36" s="75">
         <f>SUM(E36:E38)</f>
         <v>5.25</v>
       </c>
@@ -2819,7 +2822,7 @@
       </c>
       <c r="L36" s="44"/>
       <c r="M36" s="45">
-        <f>SUM(F171:F175)</f>
+        <f>SUM(F172:F176)</f>
         <v>0</v>
       </c>
       <c r="N36" s="39" t="s">
@@ -2827,8 +2830,8 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A37" s="99"/>
-      <c r="B37" s="110"/>
+      <c r="A37" s="78"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="24" t="s">
         <v>63</v>
       </c>
@@ -2838,7 +2841,7 @@
       <c r="E37" s="25">
         <v>1.25</v>
       </c>
-      <c r="F37" s="112"/>
+      <c r="F37" s="76"/>
       <c r="G37" s="59" t="s">
         <v>64</v>
       </c>
@@ -2852,7 +2855,7 @@
       </c>
       <c r="L37" s="44"/>
       <c r="M37" s="45">
-        <f>SUM(F176:F180)</f>
+        <f>SUM(F177:F181)</f>
         <v>0</v>
       </c>
       <c r="N37" s="39" t="s">
@@ -2860,8 +2863,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A38" s="99"/>
-      <c r="B38" s="111"/>
+      <c r="A38" s="78"/>
+      <c r="B38" s="74"/>
       <c r="C38" s="24" t="s">
         <v>84</v>
       </c>
@@ -2871,7 +2874,7 @@
       <c r="E38" s="25">
         <v>1.5</v>
       </c>
-      <c r="F38" s="66"/>
+      <c r="F38" s="77"/>
       <c r="G38" s="59" t="s">
         <v>27</v>
       </c>
@@ -2886,8 +2889,8 @@
       <c r="N38" s="52"/>
     </row>
     <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="99"/>
-      <c r="B39" s="109">
+      <c r="A39" s="78"/>
+      <c r="B39" s="72">
         <v>41605</v>
       </c>
       <c r="C39" s="24" t="s">
@@ -2899,7 +2902,7 @@
       <c r="E39" s="25">
         <v>1</v>
       </c>
-      <c r="F39" s="65">
+      <c r="F39" s="75">
         <f>SUM(E39:E40)</f>
         <v>3.33</v>
       </c>
@@ -2916,9 +2919,9 @@
       <c r="M39" s="52"/>
       <c r="N39" s="52"/>
     </row>
-    <row r="40" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="99"/>
-      <c r="B40" s="111"/>
+    <row r="40" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A40" s="78"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="24" t="s">
         <v>63</v>
       </c>
@@ -2928,7 +2931,7 @@
       <c r="E40" s="25">
         <v>2.33</v>
       </c>
-      <c r="F40" s="66"/>
+      <c r="F40" s="77"/>
       <c r="G40" s="59" t="s">
         <v>64</v>
       </c>
@@ -2943,8 +2946,8 @@
       <c r="N40" s="52"/>
     </row>
     <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="99"/>
-      <c r="B41" s="109">
+      <c r="A41" s="78"/>
+      <c r="B41" s="72">
         <v>41606</v>
       </c>
       <c r="C41" s="61" t="s">
@@ -2956,7 +2959,7 @@
       <c r="E41" s="61">
         <v>1.33</v>
       </c>
-      <c r="F41" s="65">
+      <c r="F41" s="75">
         <f>SUM(E41:E44)</f>
         <v>8.33</v>
       </c>
@@ -2974,8 +2977,8 @@
       <c r="N41" s="52"/>
     </row>
     <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="99"/>
-      <c r="B42" s="110"/>
+      <c r="A42" s="78"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="61" t="s">
         <v>135</v>
       </c>
@@ -2985,7 +2988,7 @@
       <c r="E42" s="61">
         <v>1.75</v>
       </c>
-      <c r="F42" s="112"/>
+      <c r="F42" s="76"/>
       <c r="G42" s="59" t="s">
         <v>30</v>
       </c>
@@ -3000,8 +3003,8 @@
       <c r="N42" s="52"/>
     </row>
     <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="99"/>
-      <c r="B43" s="110"/>
+      <c r="A43" s="78"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="61" t="s">
         <v>63</v>
       </c>
@@ -3011,7 +3014,7 @@
       <c r="E43" s="61">
         <v>2.75</v>
       </c>
-      <c r="F43" s="112"/>
+      <c r="F43" s="76"/>
       <c r="G43" s="59" t="s">
         <v>24</v>
       </c>
@@ -3026,8 +3029,8 @@
       <c r="N43" s="52"/>
     </row>
     <row r="44" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A44" s="99"/>
-      <c r="B44" s="111"/>
+      <c r="A44" s="78"/>
+      <c r="B44" s="74"/>
       <c r="C44" s="61" t="s">
         <v>67</v>
       </c>
@@ -3037,7 +3040,7 @@
       <c r="E44" s="25">
         <v>2.5</v>
       </c>
-      <c r="F44" s="66"/>
+      <c r="F44" s="77"/>
       <c r="G44" s="59" t="s">
         <v>27</v>
       </c>
@@ -3052,8 +3055,8 @@
       <c r="N44" s="52"/>
     </row>
     <row r="45" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A45" s="99"/>
-      <c r="B45" s="109">
+      <c r="A45" s="78"/>
+      <c r="B45" s="72">
         <v>41607</v>
       </c>
       <c r="C45" s="24" t="s">
@@ -3065,7 +3068,7 @@
       <c r="E45" s="25">
         <v>3.5</v>
       </c>
-      <c r="F45" s="65">
+      <c r="F45" s="75">
         <f>SUM(E45:E46)</f>
         <v>4.5</v>
       </c>
@@ -3083,8 +3086,8 @@
       <c r="N45" s="52"/>
     </row>
     <row r="46" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A46" s="99"/>
-      <c r="B46" s="111"/>
+      <c r="A46" s="78"/>
+      <c r="B46" s="74"/>
       <c r="C46" s="24" t="s">
         <v>83</v>
       </c>
@@ -3094,7 +3097,7 @@
       <c r="E46" s="25">
         <v>1</v>
       </c>
-      <c r="F46" s="66"/>
+      <c r="F46" s="77"/>
       <c r="G46" s="59" t="s">
         <v>27</v>
       </c>
@@ -3108,9 +3111,9 @@
       <c r="M46" s="52"/>
       <c r="N46" s="52"/>
     </row>
-    <row r="47" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A47" s="99"/>
-      <c r="B47" s="109">
+    <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="78"/>
+      <c r="B47" s="72">
         <v>41609</v>
       </c>
       <c r="C47" s="24" t="s">
@@ -3122,7 +3125,7 @@
       <c r="E47" s="25">
         <v>3.5</v>
       </c>
-      <c r="F47" s="65">
+      <c r="F47" s="75">
         <f>SUM(E47:E48)</f>
         <v>5</v>
       </c>
@@ -3139,9 +3142,9 @@
       <c r="M47" s="52"/>
       <c r="N47" s="52"/>
     </row>
-    <row r="48" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="99"/>
-      <c r="B48" s="111"/>
+    <row r="48" spans="1:14" ht="33" x14ac:dyDescent="0.25">
+      <c r="A48" s="78"/>
+      <c r="B48" s="74"/>
       <c r="C48" s="24" t="s">
         <v>69</v>
       </c>
@@ -3151,7 +3154,7 @@
       <c r="E48" s="25">
         <v>1.5</v>
       </c>
-      <c r="F48" s="66"/>
+      <c r="F48" s="77"/>
       <c r="G48" s="59" t="s">
         <v>27</v>
       </c>
@@ -3187,7 +3190,7 @@
     </row>
     <row r="50" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A50" s="64"/>
-      <c r="B50" s="106">
+      <c r="B50" s="65">
         <v>41611</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -3199,9 +3202,9 @@
       <c r="E50" s="22">
         <v>1.5</v>
       </c>
-      <c r="F50" s="69">
-        <f>SUM(E50:E52)</f>
-        <v>9</v>
+      <c r="F50" s="68">
+        <f>SUM(E50:E53)</f>
+        <v>9.5</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>30</v>
@@ -3216,24 +3219,24 @@
       <c r="M50" s="52"/>
       <c r="N50" s="52"/>
     </row>
-    <row r="51" spans="1:14" ht="66" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="64"/>
-      <c r="B51" s="107"/>
+      <c r="B51" s="66"/>
       <c r="C51" s="3" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E51" s="22">
-        <v>3.5</v>
-      </c>
-      <c r="F51" s="70"/>
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="69"/>
       <c r="G51" s="28" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I51" s="37"/>
       <c r="J51" s="37"/>
@@ -3244,22 +3247,22 @@
     </row>
     <row r="52" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="A52" s="64"/>
-      <c r="B52" s="108"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="3" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="E52" s="22">
-        <v>4</v>
-      </c>
-      <c r="F52" s="71"/>
+        <v>3.5</v>
+      </c>
+      <c r="F52" s="69"/>
       <c r="G52" s="28" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I52" s="37"/>
       <c r="J52" s="37"/>
@@ -3268,29 +3271,24 @@
       <c r="M52" s="52"/>
       <c r="N52" s="52"/>
     </row>
-    <row r="53" spans="1:14" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="A53" s="64"/>
-      <c r="B53" s="9">
-        <v>41612</v>
-      </c>
+      <c r="B53" s="67"/>
       <c r="C53" s="3" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E53" s="22">
-        <v>4.5</v>
-      </c>
-      <c r="F53" s="54">
-        <f t="shared" ref="F52:F53" si="5">E53</f>
-        <v>4.5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F53" s="70"/>
       <c r="G53" s="28" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I53" s="37"/>
       <c r="J53" s="37"/>
@@ -3299,17 +3297,30 @@
       <c r="M53" s="52"/>
       <c r="N53" s="52"/>
     </row>
-    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A54" s="64"/>
       <c r="B54" s="9">
-        <v>41613</v>
-      </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
+        <v>41612</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="F54" s="54">
+        <f t="shared" ref="F54" si="5">E54</f>
+        <v>4.5</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H54" s="27" t="s">
+        <v>150</v>
+      </c>
       <c r="I54" s="37"/>
       <c r="J54" s="37"/>
       <c r="K54" s="52"/>
@@ -3320,7 +3331,7 @@
     <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="64"/>
       <c r="B55" s="9">
-        <v>41614</v>
+        <v>41613</v>
       </c>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -3336,29 +3347,29 @@
       <c r="N55" s="52"/>
     </row>
     <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="99">
-        <v>6</v>
-      </c>
-      <c r="B56" s="2">
-        <v>41617</v>
-      </c>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="44"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="9">
+        <v>41614</v>
+      </c>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
       <c r="K56" s="52"/>
       <c r="L56" s="52"/>
       <c r="M56" s="52"/>
       <c r="N56" s="52"/>
     </row>
     <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="99"/>
+      <c r="A57" s="78">
+        <v>6</v>
+      </c>
       <c r="B57" s="2">
-        <v>41618</v>
+        <v>41617</v>
       </c>
       <c r="C57" s="44"/>
       <c r="D57" s="44"/>
@@ -3374,9 +3385,9 @@
       <c r="N57" s="52"/>
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="99"/>
+      <c r="A58" s="78"/>
       <c r="B58" s="2">
-        <v>41619</v>
+        <v>41618</v>
       </c>
       <c r="C58" s="44"/>
       <c r="D58" s="44"/>
@@ -3392,9 +3403,9 @@
       <c r="N58" s="52"/>
     </row>
     <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="99"/>
+      <c r="A59" s="78"/>
       <c r="B59" s="2">
-        <v>41620</v>
+        <v>41619</v>
       </c>
       <c r="C59" s="44"/>
       <c r="D59" s="44"/>
@@ -3410,9 +3421,9 @@
       <c r="N59" s="52"/>
     </row>
     <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="99"/>
+      <c r="A60" s="78"/>
       <c r="B60" s="2">
-        <v>41621</v>
+        <v>41620</v>
       </c>
       <c r="C60" s="44"/>
       <c r="D60" s="44"/>
@@ -3428,29 +3439,29 @@
       <c r="N60" s="52"/>
     </row>
     <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="103">
-        <v>7</v>
-      </c>
-      <c r="B61" s="9">
-        <v>41624</v>
-      </c>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
+      <c r="A61" s="78"/>
+      <c r="B61" s="2">
+        <v>41621</v>
+      </c>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
       <c r="K61" s="52"/>
       <c r="L61" s="52"/>
       <c r="M61" s="52"/>
       <c r="N61" s="52"/>
     </row>
     <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="103"/>
+      <c r="A62" s="71">
+        <v>7</v>
+      </c>
       <c r="B62" s="9">
-        <v>41625</v>
+        <v>41624</v>
       </c>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -3466,9 +3477,9 @@
       <c r="N62" s="52"/>
     </row>
     <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="103"/>
+      <c r="A63" s="71"/>
       <c r="B63" s="9">
-        <v>41626</v>
+        <v>41625</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -3484,9 +3495,9 @@
       <c r="N63" s="52"/>
     </row>
     <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="103"/>
+      <c r="A64" s="71"/>
       <c r="B64" s="9">
-        <v>41627</v>
+        <v>41626</v>
       </c>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
@@ -3502,9 +3513,9 @@
       <c r="N64" s="52"/>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="103"/>
+      <c r="A65" s="71"/>
       <c r="B65" s="9">
-        <v>41628</v>
+        <v>41627</v>
       </c>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -3520,29 +3531,29 @@
       <c r="N65" s="52"/>
     </row>
     <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="99">
-        <v>8</v>
-      </c>
-      <c r="B66" s="2">
-        <v>41631</v>
-      </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="9">
+        <v>41628</v>
+      </c>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
       <c r="K66" s="52"/>
       <c r="L66" s="52"/>
       <c r="M66" s="52"/>
       <c r="N66" s="52"/>
     </row>
     <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="99"/>
+      <c r="A67" s="78">
+        <v>8</v>
+      </c>
       <c r="B67" s="2">
-        <v>41632</v>
+        <v>41631</v>
       </c>
       <c r="C67" s="44"/>
       <c r="D67" s="44"/>
@@ -3558,9 +3569,9 @@
       <c r="N67" s="52"/>
     </row>
     <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="99"/>
+      <c r="A68" s="78"/>
       <c r="B68" s="2">
-        <v>41633</v>
+        <v>41632</v>
       </c>
       <c r="C68" s="44"/>
       <c r="D68" s="44"/>
@@ -3576,9 +3587,9 @@
       <c r="N68" s="52"/>
     </row>
     <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="99"/>
+      <c r="A69" s="78"/>
       <c r="B69" s="2">
-        <v>41634</v>
+        <v>41633</v>
       </c>
       <c r="C69" s="44"/>
       <c r="D69" s="44"/>
@@ -3594,9 +3605,9 @@
       <c r="N69" s="52"/>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="99"/>
+      <c r="A70" s="78"/>
       <c r="B70" s="2">
-        <v>41635</v>
+        <v>41634</v>
       </c>
       <c r="C70" s="44"/>
       <c r="D70" s="44"/>
@@ -3612,29 +3623,29 @@
       <c r="N70" s="52"/>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="103">
-        <v>9</v>
-      </c>
-      <c r="B71" s="9">
-        <v>41638</v>
-      </c>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
+      <c r="A71" s="78"/>
+      <c r="B71" s="2">
+        <v>41635</v>
+      </c>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
       <c r="K71" s="52"/>
       <c r="L71" s="52"/>
       <c r="M71" s="52"/>
       <c r="N71" s="52"/>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="103"/>
+      <c r="A72" s="71">
+        <v>9</v>
+      </c>
       <c r="B72" s="9">
-        <v>41639</v>
+        <v>41638</v>
       </c>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -3650,9 +3661,9 @@
       <c r="N72" s="52"/>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="103"/>
+      <c r="A73" s="71"/>
       <c r="B73" s="9">
-        <v>41640</v>
+        <v>41639</v>
       </c>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -3668,9 +3679,9 @@
       <c r="N73" s="52"/>
     </row>
     <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="103"/>
+      <c r="A74" s="71"/>
       <c r="B74" s="9">
-        <v>41641</v>
+        <v>41640</v>
       </c>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -3686,9 +3697,9 @@
       <c r="N74" s="52"/>
     </row>
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="103"/>
+      <c r="A75" s="71"/>
       <c r="B75" s="9">
-        <v>41642</v>
+        <v>41641</v>
       </c>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -3704,29 +3715,29 @@
       <c r="N75" s="52"/>
     </row>
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="99">
-        <v>10</v>
-      </c>
-      <c r="B76" s="2">
-        <v>41645</v>
-      </c>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="44"/>
+      <c r="A76" s="71"/>
+      <c r="B76" s="9">
+        <v>41642</v>
+      </c>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
       <c r="K76" s="52"/>
       <c r="L76" s="52"/>
       <c r="M76" s="52"/>
       <c r="N76" s="52"/>
     </row>
     <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="99"/>
+      <c r="A77" s="78">
+        <v>10</v>
+      </c>
       <c r="B77" s="2">
-        <v>41646</v>
+        <v>41645</v>
       </c>
       <c r="C77" s="44"/>
       <c r="D77" s="44"/>
@@ -3742,9 +3753,9 @@
       <c r="N77" s="52"/>
     </row>
     <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="99"/>
+      <c r="A78" s="78"/>
       <c r="B78" s="2">
-        <v>41647</v>
+        <v>41646</v>
       </c>
       <c r="C78" s="44"/>
       <c r="D78" s="44"/>
@@ -3760,9 +3771,9 @@
       <c r="N78" s="52"/>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="99"/>
+      <c r="A79" s="78"/>
       <c r="B79" s="2">
-        <v>41648</v>
+        <v>41647</v>
       </c>
       <c r="C79" s="44"/>
       <c r="D79" s="44"/>
@@ -3778,9 +3789,9 @@
       <c r="N79" s="52"/>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="99"/>
+      <c r="A80" s="78"/>
       <c r="B80" s="2">
-        <v>41649</v>
+        <v>41648</v>
       </c>
       <c r="C80" s="44"/>
       <c r="D80" s="44"/>
@@ -3796,29 +3807,29 @@
       <c r="N80" s="52"/>
     </row>
     <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="103">
-        <v>11</v>
-      </c>
-      <c r="B81" s="9">
-        <v>41652</v>
-      </c>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
+      <c r="A81" s="78"/>
+      <c r="B81" s="2">
+        <v>41649</v>
+      </c>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="44"/>
       <c r="K81" s="52"/>
       <c r="L81" s="52"/>
       <c r="M81" s="52"/>
       <c r="N81" s="52"/>
     </row>
     <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="103"/>
+      <c r="A82" s="71">
+        <v>11</v>
+      </c>
       <c r="B82" s="9">
-        <v>41653</v>
+        <v>41652</v>
       </c>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -3834,9 +3845,9 @@
       <c r="N82" s="52"/>
     </row>
     <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="103"/>
+      <c r="A83" s="71"/>
       <c r="B83" s="9">
-        <v>41654</v>
+        <v>41653</v>
       </c>
       <c r="C83" s="37"/>
       <c r="D83" s="37"/>
@@ -3852,9 +3863,9 @@
       <c r="N83" s="52"/>
     </row>
     <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="103"/>
+      <c r="A84" s="71"/>
       <c r="B84" s="9">
-        <v>41655</v>
+        <v>41654</v>
       </c>
       <c r="C84" s="37"/>
       <c r="D84" s="37"/>
@@ -3870,9 +3881,9 @@
       <c r="N84" s="52"/>
     </row>
     <row r="85" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="103"/>
+      <c r="A85" s="71"/>
       <c r="B85" s="9">
-        <v>41656</v>
+        <v>41655</v>
       </c>
       <c r="C85" s="37"/>
       <c r="D85" s="37"/>
@@ -3888,29 +3899,29 @@
       <c r="N85" s="52"/>
     </row>
     <row r="86" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="99">
-        <v>12</v>
-      </c>
-      <c r="B86" s="2">
-        <v>41659</v>
-      </c>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="44"/>
+      <c r="A86" s="71"/>
+      <c r="B86" s="9">
+        <v>41656</v>
+      </c>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
       <c r="K86" s="52"/>
       <c r="L86" s="52"/>
       <c r="M86" s="52"/>
       <c r="N86" s="52"/>
     </row>
     <row r="87" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="99"/>
+      <c r="A87" s="78">
+        <v>12</v>
+      </c>
       <c r="B87" s="2">
-        <v>41660</v>
+        <v>41659</v>
       </c>
       <c r="C87" s="44"/>
       <c r="D87" s="44"/>
@@ -3926,9 +3937,9 @@
       <c r="N87" s="52"/>
     </row>
     <row r="88" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="99"/>
+      <c r="A88" s="78"/>
       <c r="B88" s="2">
-        <v>41661</v>
+        <v>41660</v>
       </c>
       <c r="C88" s="44"/>
       <c r="D88" s="44"/>
@@ -3944,9 +3955,9 @@
       <c r="N88" s="52"/>
     </row>
     <row r="89" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="99"/>
+      <c r="A89" s="78"/>
       <c r="B89" s="2">
-        <v>41662</v>
+        <v>41661</v>
       </c>
       <c r="C89" s="44"/>
       <c r="D89" s="44"/>
@@ -3962,9 +3973,9 @@
       <c r="N89" s="52"/>
     </row>
     <row r="90" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="99"/>
+      <c r="A90" s="78"/>
       <c r="B90" s="2">
-        <v>41663</v>
+        <v>41662</v>
       </c>
       <c r="C90" s="44"/>
       <c r="D90" s="44"/>
@@ -3980,31 +3991,29 @@
       <c r="N90" s="52"/>
     </row>
     <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="103">
-        <v>13</v>
-      </c>
-      <c r="B91" s="9">
-        <v>41666</v>
-      </c>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="37"/>
+      <c r="A91" s="78"/>
+      <c r="B91" s="2">
+        <v>41663</v>
+      </c>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
       <c r="K91" s="52"/>
       <c r="L91" s="52"/>
       <c r="M91" s="52"/>
       <c r="N91" s="52"/>
     </row>
     <row r="92" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="103"/>
+      <c r="A92" s="71">
+        <v>13</v>
+      </c>
       <c r="B92" s="9">
-        <v>41667</v>
+        <v>41666</v>
       </c>
       <c r="C92" s="37"/>
       <c r="D92" s="37"/>
@@ -4022,9 +4031,9 @@
       <c r="N92" s="52"/>
     </row>
     <row r="93" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="103"/>
+      <c r="A93" s="71"/>
       <c r="B93" s="9">
-        <v>41668</v>
+        <v>41667</v>
       </c>
       <c r="C93" s="37"/>
       <c r="D93" s="37"/>
@@ -4042,9 +4051,9 @@
       <c r="N93" s="52"/>
     </row>
     <row r="94" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="103"/>
+      <c r="A94" s="71"/>
       <c r="B94" s="9">
-        <v>41669</v>
+        <v>41668</v>
       </c>
       <c r="C94" s="37"/>
       <c r="D94" s="37"/>
@@ -4062,9 +4071,9 @@
       <c r="N94" s="52"/>
     </row>
     <row r="95" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="103"/>
+      <c r="A95" s="71"/>
       <c r="B95" s="9">
-        <v>41670</v>
+        <v>41669</v>
       </c>
       <c r="C95" s="37"/>
       <c r="D95" s="37"/>
@@ -4082,31 +4091,31 @@
       <c r="N95" s="52"/>
     </row>
     <row r="96" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="99">
-        <v>14</v>
-      </c>
-      <c r="B96" s="2">
-        <v>41673</v>
-      </c>
-      <c r="C96" s="44"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="44"/>
-      <c r="F96" s="44"/>
-      <c r="G96" s="40" t="s">
+      <c r="A96" s="71"/>
+      <c r="B96" s="9">
+        <v>41670</v>
+      </c>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H96" s="44"/>
-      <c r="I96" s="44"/>
-      <c r="J96" s="44"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
       <c r="K96" s="52"/>
       <c r="L96" s="52"/>
       <c r="M96" s="52"/>
       <c r="N96" s="52"/>
     </row>
     <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="99"/>
+      <c r="A97" s="78">
+        <v>14</v>
+      </c>
       <c r="B97" s="2">
-        <v>41674</v>
+        <v>41673</v>
       </c>
       <c r="C97" s="44"/>
       <c r="D97" s="44"/>
@@ -4124,9 +4133,9 @@
       <c r="N97" s="52"/>
     </row>
     <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="99"/>
+      <c r="A98" s="78"/>
       <c r="B98" s="2">
-        <v>41675</v>
+        <v>41674</v>
       </c>
       <c r="C98" s="44"/>
       <c r="D98" s="44"/>
@@ -4144,9 +4153,9 @@
       <c r="N98" s="52"/>
     </row>
     <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="99"/>
+      <c r="A99" s="78"/>
       <c r="B99" s="2">
-        <v>41676</v>
+        <v>41675</v>
       </c>
       <c r="C99" s="44"/>
       <c r="D99" s="44"/>
@@ -4164,9 +4173,9 @@
       <c r="N99" s="52"/>
     </row>
     <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="99"/>
+      <c r="A100" s="78"/>
       <c r="B100" s="2">
-        <v>41677</v>
+        <v>41676</v>
       </c>
       <c r="C100" s="44"/>
       <c r="D100" s="44"/>
@@ -4184,29 +4193,31 @@
       <c r="N100" s="52"/>
     </row>
     <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="103">
-        <v>15</v>
-      </c>
-      <c r="B101" s="9">
-        <v>41680</v>
-      </c>
-      <c r="C101" s="37"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="37"/>
+      <c r="A101" s="78"/>
+      <c r="B101" s="2">
+        <v>41677</v>
+      </c>
+      <c r="C101" s="44"/>
+      <c r="D101" s="44"/>
+      <c r="E101" s="44"/>
+      <c r="F101" s="44"/>
+      <c r="G101" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H101" s="44"/>
+      <c r="I101" s="44"/>
+      <c r="J101" s="44"/>
       <c r="K101" s="52"/>
       <c r="L101" s="52"/>
       <c r="M101" s="52"/>
       <c r="N101" s="52"/>
     </row>
     <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="103"/>
+      <c r="A102" s="71">
+        <v>15</v>
+      </c>
       <c r="B102" s="9">
-        <v>41681</v>
+        <v>41680</v>
       </c>
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
@@ -4222,9 +4233,9 @@
       <c r="N102" s="52"/>
     </row>
     <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="103"/>
+      <c r="A103" s="71"/>
       <c r="B103" s="9">
-        <v>41682</v>
+        <v>41681</v>
       </c>
       <c r="C103" s="37"/>
       <c r="D103" s="37"/>
@@ -4240,9 +4251,9 @@
       <c r="N103" s="52"/>
     </row>
     <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="103"/>
+      <c r="A104" s="71"/>
       <c r="B104" s="9">
-        <v>41683</v>
+        <v>41682</v>
       </c>
       <c r="C104" s="37"/>
       <c r="D104" s="37"/>
@@ -4258,9 +4269,9 @@
       <c r="N104" s="52"/>
     </row>
     <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="103"/>
+      <c r="A105" s="71"/>
       <c r="B105" s="9">
-        <v>41684</v>
+        <v>41683</v>
       </c>
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
@@ -4276,29 +4287,29 @@
       <c r="N105" s="52"/>
     </row>
     <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="99">
-        <v>16</v>
-      </c>
-      <c r="B106" s="2">
-        <v>41687</v>
-      </c>
-      <c r="C106" s="44"/>
-      <c r="D106" s="44"/>
-      <c r="E106" s="44"/>
-      <c r="F106" s="44"/>
-      <c r="G106" s="44"/>
-      <c r="H106" s="44"/>
-      <c r="I106" s="44"/>
-      <c r="J106" s="44"/>
+      <c r="A106" s="71"/>
+      <c r="B106" s="9">
+        <v>41684</v>
+      </c>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
       <c r="K106" s="52"/>
       <c r="L106" s="52"/>
       <c r="M106" s="52"/>
       <c r="N106" s="52"/>
     </row>
     <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="99"/>
+      <c r="A107" s="78">
+        <v>16</v>
+      </c>
       <c r="B107" s="2">
-        <v>41688</v>
+        <v>41687</v>
       </c>
       <c r="C107" s="44"/>
       <c r="D107" s="44"/>
@@ -4314,9 +4325,9 @@
       <c r="N107" s="52"/>
     </row>
     <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="99"/>
+      <c r="A108" s="78"/>
       <c r="B108" s="2">
-        <v>41689</v>
+        <v>41688</v>
       </c>
       <c r="C108" s="44"/>
       <c r="D108" s="44"/>
@@ -4332,9 +4343,9 @@
       <c r="N108" s="52"/>
     </row>
     <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="99"/>
+      <c r="A109" s="78"/>
       <c r="B109" s="2">
-        <v>41690</v>
+        <v>41689</v>
       </c>
       <c r="C109" s="44"/>
       <c r="D109" s="44"/>
@@ -4350,9 +4361,9 @@
       <c r="N109" s="52"/>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="99"/>
+      <c r="A110" s="78"/>
       <c r="B110" s="2">
-        <v>41691</v>
+        <v>41690</v>
       </c>
       <c r="C110" s="44"/>
       <c r="D110" s="44"/>
@@ -4368,29 +4379,29 @@
       <c r="N110" s="52"/>
     </row>
     <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="103">
-        <v>17</v>
-      </c>
-      <c r="B111" s="9">
-        <v>41694</v>
-      </c>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="37"/>
-      <c r="I111" s="37"/>
-      <c r="J111" s="37"/>
+      <c r="A111" s="78"/>
+      <c r="B111" s="2">
+        <v>41691</v>
+      </c>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="44"/>
+      <c r="I111" s="44"/>
+      <c r="J111" s="44"/>
       <c r="K111" s="52"/>
       <c r="L111" s="52"/>
       <c r="M111" s="52"/>
       <c r="N111" s="52"/>
     </row>
     <row r="112" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="103"/>
+      <c r="A112" s="71">
+        <v>17</v>
+      </c>
       <c r="B112" s="9">
-        <v>41695</v>
+        <v>41694</v>
       </c>
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
@@ -4406,9 +4417,9 @@
       <c r="N112" s="52"/>
     </row>
     <row r="113" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="103"/>
+      <c r="A113" s="71"/>
       <c r="B113" s="9">
-        <v>41696</v>
+        <v>41695</v>
       </c>
       <c r="C113" s="37"/>
       <c r="D113" s="37"/>
@@ -4424,9 +4435,9 @@
       <c r="N113" s="52"/>
     </row>
     <row r="114" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="103"/>
+      <c r="A114" s="71"/>
       <c r="B114" s="9">
-        <v>41697</v>
+        <v>41696</v>
       </c>
       <c r="C114" s="37"/>
       <c r="D114" s="37"/>
@@ -4442,9 +4453,9 @@
       <c r="N114" s="52"/>
     </row>
     <row r="115" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="103"/>
+      <c r="A115" s="71"/>
       <c r="B115" s="9">
-        <v>41698</v>
+        <v>41697</v>
       </c>
       <c r="C115" s="37"/>
       <c r="D115" s="37"/>
@@ -4460,29 +4471,29 @@
       <c r="N115" s="52"/>
     </row>
     <row r="116" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="99">
-        <v>18</v>
-      </c>
-      <c r="B116" s="2">
-        <v>41701</v>
-      </c>
-      <c r="C116" s="44"/>
-      <c r="D116" s="44"/>
-      <c r="E116" s="44"/>
-      <c r="F116" s="44"/>
-      <c r="G116" s="44"/>
-      <c r="H116" s="44"/>
-      <c r="I116" s="44"/>
-      <c r="J116" s="44"/>
+      <c r="A116" s="71"/>
+      <c r="B116" s="9">
+        <v>41698</v>
+      </c>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="37"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="37"/>
       <c r="K116" s="52"/>
       <c r="L116" s="52"/>
       <c r="M116" s="52"/>
       <c r="N116" s="52"/>
     </row>
     <row r="117" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="99"/>
+      <c r="A117" s="78">
+        <v>18</v>
+      </c>
       <c r="B117" s="2">
-        <v>41702</v>
+        <v>41701</v>
       </c>
       <c r="C117" s="44"/>
       <c r="D117" s="44"/>
@@ -4498,9 +4509,9 @@
       <c r="N117" s="52"/>
     </row>
     <row r="118" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="99"/>
+      <c r="A118" s="78"/>
       <c r="B118" s="2">
-        <v>41703</v>
+        <v>41702</v>
       </c>
       <c r="C118" s="44"/>
       <c r="D118" s="44"/>
@@ -4516,9 +4527,9 @@
       <c r="N118" s="52"/>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="99"/>
+      <c r="A119" s="78"/>
       <c r="B119" s="2">
-        <v>41704</v>
+        <v>41703</v>
       </c>
       <c r="C119" s="44"/>
       <c r="D119" s="44"/>
@@ -4534,9 +4545,9 @@
       <c r="N119" s="52"/>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="99"/>
+      <c r="A120" s="78"/>
       <c r="B120" s="2">
-        <v>41705</v>
+        <v>41704</v>
       </c>
       <c r="C120" s="44"/>
       <c r="D120" s="44"/>
@@ -4552,29 +4563,29 @@
       <c r="N120" s="52"/>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="103">
-        <v>19</v>
-      </c>
-      <c r="B121" s="9">
-        <v>41708</v>
-      </c>
-      <c r="C121" s="37"/>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="37"/>
-      <c r="I121" s="37"/>
-      <c r="J121" s="37"/>
+      <c r="A121" s="78"/>
+      <c r="B121" s="2">
+        <v>41705</v>
+      </c>
+      <c r="C121" s="44"/>
+      <c r="D121" s="44"/>
+      <c r="E121" s="44"/>
+      <c r="F121" s="44"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="44"/>
+      <c r="I121" s="44"/>
+      <c r="J121" s="44"/>
       <c r="K121" s="52"/>
       <c r="L121" s="52"/>
       <c r="M121" s="52"/>
       <c r="N121" s="52"/>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="103"/>
+      <c r="A122" s="71">
+        <v>19</v>
+      </c>
       <c r="B122" s="9">
-        <v>41709</v>
+        <v>41708</v>
       </c>
       <c r="C122" s="37"/>
       <c r="D122" s="37"/>
@@ -4590,9 +4601,9 @@
       <c r="N122" s="52"/>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="103"/>
+      <c r="A123" s="71"/>
       <c r="B123" s="9">
-        <v>41710</v>
+        <v>41709</v>
       </c>
       <c r="C123" s="37"/>
       <c r="D123" s="37"/>
@@ -4608,9 +4619,9 @@
       <c r="N123" s="52"/>
     </row>
     <row r="124" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="103"/>
+      <c r="A124" s="71"/>
       <c r="B124" s="9">
-        <v>41711</v>
+        <v>41710</v>
       </c>
       <c r="C124" s="37"/>
       <c r="D124" s="37"/>
@@ -4626,9 +4637,9 @@
       <c r="N124" s="52"/>
     </row>
     <row r="125" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="103"/>
+      <c r="A125" s="71"/>
       <c r="B125" s="9">
-        <v>41712</v>
+        <v>41711</v>
       </c>
       <c r="C125" s="37"/>
       <c r="D125" s="37"/>
@@ -4644,29 +4655,29 @@
       <c r="N125" s="52"/>
     </row>
     <row r="126" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="99">
-        <v>20</v>
-      </c>
-      <c r="B126" s="2">
-        <v>41715</v>
-      </c>
-      <c r="C126" s="44"/>
-      <c r="D126" s="44"/>
-      <c r="E126" s="44"/>
-      <c r="F126" s="44"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="44"/>
-      <c r="I126" s="44"/>
-      <c r="J126" s="44"/>
+      <c r="A126" s="71"/>
+      <c r="B126" s="9">
+        <v>41712</v>
+      </c>
+      <c r="C126" s="37"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="37"/>
       <c r="K126" s="52"/>
       <c r="L126" s="52"/>
       <c r="M126" s="52"/>
       <c r="N126" s="52"/>
     </row>
     <row r="127" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="99"/>
+      <c r="A127" s="78">
+        <v>20</v>
+      </c>
       <c r="B127" s="2">
-        <v>41716</v>
+        <v>41715</v>
       </c>
       <c r="C127" s="44"/>
       <c r="D127" s="44"/>
@@ -4682,9 +4693,9 @@
       <c r="N127" s="52"/>
     </row>
     <row r="128" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="99"/>
+      <c r="A128" s="78"/>
       <c r="B128" s="2">
-        <v>41717</v>
+        <v>41716</v>
       </c>
       <c r="C128" s="44"/>
       <c r="D128" s="44"/>
@@ -4700,9 +4711,9 @@
       <c r="N128" s="52"/>
     </row>
     <row r="129" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="99"/>
+      <c r="A129" s="78"/>
       <c r="B129" s="2">
-        <v>41718</v>
+        <v>41717</v>
       </c>
       <c r="C129" s="44"/>
       <c r="D129" s="44"/>
@@ -4718,9 +4729,9 @@
       <c r="N129" s="52"/>
     </row>
     <row r="130" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="99"/>
+      <c r="A130" s="78"/>
       <c r="B130" s="2">
-        <v>41719</v>
+        <v>41718</v>
       </c>
       <c r="C130" s="44"/>
       <c r="D130" s="44"/>
@@ -4736,29 +4747,29 @@
       <c r="N130" s="52"/>
     </row>
     <row r="131" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="103">
-        <v>21</v>
-      </c>
-      <c r="B131" s="9">
-        <v>41722</v>
-      </c>
-      <c r="C131" s="37"/>
-      <c r="D131" s="37"/>
-      <c r="E131" s="37"/>
-      <c r="F131" s="37"/>
-      <c r="G131" s="37"/>
-      <c r="H131" s="37"/>
-      <c r="I131" s="37"/>
-      <c r="J131" s="37"/>
+      <c r="A131" s="78"/>
+      <c r="B131" s="2">
+        <v>41719</v>
+      </c>
+      <c r="C131" s="44"/>
+      <c r="D131" s="44"/>
+      <c r="E131" s="44"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="44"/>
+      <c r="I131" s="44"/>
+      <c r="J131" s="44"/>
       <c r="K131" s="52"/>
       <c r="L131" s="52"/>
       <c r="M131" s="52"/>
       <c r="N131" s="52"/>
     </row>
     <row r="132" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="103"/>
+      <c r="A132" s="71">
+        <v>21</v>
+      </c>
       <c r="B132" s="9">
-        <v>41723</v>
+        <v>41722</v>
       </c>
       <c r="C132" s="37"/>
       <c r="D132" s="37"/>
@@ -4774,9 +4785,9 @@
       <c r="N132" s="52"/>
     </row>
     <row r="133" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="103"/>
+      <c r="A133" s="71"/>
       <c r="B133" s="9">
-        <v>41724</v>
+        <v>41723</v>
       </c>
       <c r="C133" s="37"/>
       <c r="D133" s="37"/>
@@ -4792,9 +4803,9 @@
       <c r="N133" s="52"/>
     </row>
     <row r="134" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="103"/>
+      <c r="A134" s="71"/>
       <c r="B134" s="9">
-        <v>41725</v>
+        <v>41724</v>
       </c>
       <c r="C134" s="37"/>
       <c r="D134" s="37"/>
@@ -4810,9 +4821,9 @@
       <c r="N134" s="52"/>
     </row>
     <row r="135" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="103"/>
+      <c r="A135" s="71"/>
       <c r="B135" s="9">
-        <v>41726</v>
+        <v>41725</v>
       </c>
       <c r="C135" s="37"/>
       <c r="D135" s="37"/>
@@ -4828,29 +4839,29 @@
       <c r="N135" s="52"/>
     </row>
     <row r="136" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="99">
-        <v>22</v>
-      </c>
-      <c r="B136" s="2">
-        <v>41729</v>
-      </c>
-      <c r="C136" s="44"/>
-      <c r="D136" s="44"/>
-      <c r="E136" s="44"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="44"/>
-      <c r="I136" s="44"/>
-      <c r="J136" s="44"/>
+      <c r="A136" s="71"/>
+      <c r="B136" s="9">
+        <v>41726</v>
+      </c>
+      <c r="C136" s="37"/>
+      <c r="D136" s="37"/>
+      <c r="E136" s="37"/>
+      <c r="F136" s="37"/>
+      <c r="G136" s="37"/>
+      <c r="H136" s="37"/>
+      <c r="I136" s="37"/>
+      <c r="J136" s="37"/>
       <c r="K136" s="52"/>
       <c r="L136" s="52"/>
       <c r="M136" s="52"/>
       <c r="N136" s="52"/>
     </row>
     <row r="137" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="99"/>
+      <c r="A137" s="78">
+        <v>22</v>
+      </c>
       <c r="B137" s="2">
-        <v>41730</v>
+        <v>41729</v>
       </c>
       <c r="C137" s="44"/>
       <c r="D137" s="44"/>
@@ -4866,9 +4877,9 @@
       <c r="N137" s="52"/>
     </row>
     <row r="138" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="99"/>
+      <c r="A138" s="78"/>
       <c r="B138" s="2">
-        <v>41731</v>
+        <v>41730</v>
       </c>
       <c r="C138" s="44"/>
       <c r="D138" s="44"/>
@@ -4884,9 +4895,9 @@
       <c r="N138" s="52"/>
     </row>
     <row r="139" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="99"/>
+      <c r="A139" s="78"/>
       <c r="B139" s="2">
-        <v>41732</v>
+        <v>41731</v>
       </c>
       <c r="C139" s="44"/>
       <c r="D139" s="44"/>
@@ -4902,9 +4913,9 @@
       <c r="N139" s="52"/>
     </row>
     <row r="140" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="99"/>
+      <c r="A140" s="78"/>
       <c r="B140" s="2">
-        <v>41733</v>
+        <v>41732</v>
       </c>
       <c r="C140" s="44"/>
       <c r="D140" s="44"/>
@@ -4920,29 +4931,29 @@
       <c r="N140" s="52"/>
     </row>
     <row r="141" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="103">
-        <v>23</v>
-      </c>
-      <c r="B141" s="9">
-        <v>41736</v>
-      </c>
-      <c r="C141" s="37"/>
-      <c r="D141" s="37"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="37"/>
-      <c r="H141" s="37"/>
-      <c r="I141" s="37"/>
-      <c r="J141" s="37"/>
+      <c r="A141" s="78"/>
+      <c r="B141" s="2">
+        <v>41733</v>
+      </c>
+      <c r="C141" s="44"/>
+      <c r="D141" s="44"/>
+      <c r="E141" s="44"/>
+      <c r="F141" s="44"/>
+      <c r="G141" s="44"/>
+      <c r="H141" s="44"/>
+      <c r="I141" s="44"/>
+      <c r="J141" s="44"/>
       <c r="K141" s="52"/>
       <c r="L141" s="52"/>
       <c r="M141" s="52"/>
       <c r="N141" s="52"/>
     </row>
     <row r="142" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="103"/>
+      <c r="A142" s="71">
+        <v>23</v>
+      </c>
       <c r="B142" s="9">
-        <v>41737</v>
+        <v>41736</v>
       </c>
       <c r="C142" s="37"/>
       <c r="D142" s="37"/>
@@ -4958,9 +4969,9 @@
       <c r="N142" s="52"/>
     </row>
     <row r="143" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="103"/>
+      <c r="A143" s="71"/>
       <c r="B143" s="9">
-        <v>41738</v>
+        <v>41737</v>
       </c>
       <c r="C143" s="37"/>
       <c r="D143" s="37"/>
@@ -4976,9 +4987,9 @@
       <c r="N143" s="52"/>
     </row>
     <row r="144" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="103"/>
+      <c r="A144" s="71"/>
       <c r="B144" s="9">
-        <v>41739</v>
+        <v>41738</v>
       </c>
       <c r="C144" s="37"/>
       <c r="D144" s="37"/>
@@ -4994,9 +5005,9 @@
       <c r="N144" s="52"/>
     </row>
     <row r="145" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="103"/>
+      <c r="A145" s="71"/>
       <c r="B145" s="9">
-        <v>41740</v>
+        <v>41739</v>
       </c>
       <c r="C145" s="37"/>
       <c r="D145" s="37"/>
@@ -5012,29 +5023,29 @@
       <c r="N145" s="52"/>
     </row>
     <row r="146" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="99">
-        <v>24</v>
-      </c>
-      <c r="B146" s="2">
-        <v>41743</v>
-      </c>
-      <c r="C146" s="44"/>
-      <c r="D146" s="44"/>
-      <c r="E146" s="44"/>
-      <c r="F146" s="44"/>
-      <c r="G146" s="44"/>
-      <c r="H146" s="44"/>
-      <c r="I146" s="44"/>
-      <c r="J146" s="44"/>
+      <c r="A146" s="71"/>
+      <c r="B146" s="9">
+        <v>41740</v>
+      </c>
+      <c r="C146" s="37"/>
+      <c r="D146" s="37"/>
+      <c r="E146" s="37"/>
+      <c r="F146" s="37"/>
+      <c r="G146" s="37"/>
+      <c r="H146" s="37"/>
+      <c r="I146" s="37"/>
+      <c r="J146" s="37"/>
       <c r="K146" s="52"/>
       <c r="L146" s="52"/>
       <c r="M146" s="52"/>
       <c r="N146" s="52"/>
     </row>
     <row r="147" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="99"/>
+      <c r="A147" s="78">
+        <v>24</v>
+      </c>
       <c r="B147" s="2">
-        <v>41744</v>
+        <v>41743</v>
       </c>
       <c r="C147" s="44"/>
       <c r="D147" s="44"/>
@@ -5050,9 +5061,9 @@
       <c r="N147" s="52"/>
     </row>
     <row r="148" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="99"/>
+      <c r="A148" s="78"/>
       <c r="B148" s="2">
-        <v>41745</v>
+        <v>41744</v>
       </c>
       <c r="C148" s="44"/>
       <c r="D148" s="44"/>
@@ -5068,9 +5079,9 @@
       <c r="N148" s="52"/>
     </row>
     <row r="149" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="99"/>
+      <c r="A149" s="78"/>
       <c r="B149" s="2">
-        <v>41746</v>
+        <v>41745</v>
       </c>
       <c r="C149" s="44"/>
       <c r="D149" s="44"/>
@@ -5086,9 +5097,9 @@
       <c r="N149" s="52"/>
     </row>
     <row r="150" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="99"/>
+      <c r="A150" s="78"/>
       <c r="B150" s="2">
-        <v>41747</v>
+        <v>41746</v>
       </c>
       <c r="C150" s="44"/>
       <c r="D150" s="44"/>
@@ -5104,29 +5115,29 @@
       <c r="N150" s="52"/>
     </row>
     <row r="151" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="103">
-        <v>25</v>
-      </c>
-      <c r="B151" s="9">
-        <v>41750</v>
-      </c>
-      <c r="C151" s="37"/>
-      <c r="D151" s="37"/>
-      <c r="E151" s="37"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="37"/>
-      <c r="H151" s="37"/>
-      <c r="I151" s="37"/>
-      <c r="J151" s="37"/>
+      <c r="A151" s="78"/>
+      <c r="B151" s="2">
+        <v>41747</v>
+      </c>
+      <c r="C151" s="44"/>
+      <c r="D151" s="44"/>
+      <c r="E151" s="44"/>
+      <c r="F151" s="44"/>
+      <c r="G151" s="44"/>
+      <c r="H151" s="44"/>
+      <c r="I151" s="44"/>
+      <c r="J151" s="44"/>
       <c r="K151" s="52"/>
       <c r="L151" s="52"/>
       <c r="M151" s="52"/>
       <c r="N151" s="52"/>
     </row>
     <row r="152" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="103"/>
+      <c r="A152" s="71">
+        <v>25</v>
+      </c>
       <c r="B152" s="9">
-        <v>41751</v>
+        <v>41750</v>
       </c>
       <c r="C152" s="37"/>
       <c r="D152" s="37"/>
@@ -5142,9 +5153,9 @@
       <c r="N152" s="52"/>
     </row>
     <row r="153" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="103"/>
+      <c r="A153" s="71"/>
       <c r="B153" s="9">
-        <v>41752</v>
+        <v>41751</v>
       </c>
       <c r="C153" s="37"/>
       <c r="D153" s="37"/>
@@ -5160,9 +5171,9 @@
       <c r="N153" s="52"/>
     </row>
     <row r="154" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="103"/>
+      <c r="A154" s="71"/>
       <c r="B154" s="9">
-        <v>41753</v>
+        <v>41752</v>
       </c>
       <c r="C154" s="37"/>
       <c r="D154" s="37"/>
@@ -5178,9 +5189,9 @@
       <c r="N154" s="52"/>
     </row>
     <row r="155" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="103"/>
+      <c r="A155" s="71"/>
       <c r="B155" s="9">
-        <v>41754</v>
+        <v>41753</v>
       </c>
       <c r="C155" s="37"/>
       <c r="D155" s="37"/>
@@ -5196,29 +5207,29 @@
       <c r="N155" s="52"/>
     </row>
     <row r="156" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="99">
-        <v>26</v>
-      </c>
-      <c r="B156" s="2">
-        <v>41757</v>
-      </c>
-      <c r="C156" s="44"/>
-      <c r="D156" s="44"/>
-      <c r="E156" s="44"/>
-      <c r="F156" s="44"/>
-      <c r="G156" s="44"/>
-      <c r="H156" s="44"/>
-      <c r="I156" s="44"/>
-      <c r="J156" s="44"/>
+      <c r="A156" s="71"/>
+      <c r="B156" s="9">
+        <v>41754</v>
+      </c>
+      <c r="C156" s="37"/>
+      <c r="D156" s="37"/>
+      <c r="E156" s="37"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="37"/>
+      <c r="H156" s="37"/>
+      <c r="I156" s="37"/>
+      <c r="J156" s="37"/>
       <c r="K156" s="52"/>
       <c r="L156" s="52"/>
       <c r="M156" s="52"/>
       <c r="N156" s="52"/>
     </row>
     <row r="157" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="99"/>
+      <c r="A157" s="78">
+        <v>26</v>
+      </c>
       <c r="B157" s="2">
-        <v>41758</v>
+        <v>41757</v>
       </c>
       <c r="C157" s="44"/>
       <c r="D157" s="44"/>
@@ -5234,9 +5245,9 @@
       <c r="N157" s="52"/>
     </row>
     <row r="158" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="99"/>
+      <c r="A158" s="78"/>
       <c r="B158" s="2">
-        <v>41759</v>
+        <v>41758</v>
       </c>
       <c r="C158" s="44"/>
       <c r="D158" s="44"/>
@@ -5252,9 +5263,9 @@
       <c r="N158" s="52"/>
     </row>
     <row r="159" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="99"/>
+      <c r="A159" s="78"/>
       <c r="B159" s="2">
-        <v>41760</v>
+        <v>41759</v>
       </c>
       <c r="C159" s="44"/>
       <c r="D159" s="44"/>
@@ -5270,9 +5281,9 @@
       <c r="N159" s="52"/>
     </row>
     <row r="160" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="99"/>
+      <c r="A160" s="78"/>
       <c r="B160" s="2">
-        <v>41761</v>
+        <v>41760</v>
       </c>
       <c r="C160" s="44"/>
       <c r="D160" s="44"/>
@@ -5288,29 +5299,29 @@
       <c r="N160" s="52"/>
     </row>
     <row r="161" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="103">
-        <v>27</v>
-      </c>
-      <c r="B161" s="9">
-        <v>41764</v>
-      </c>
-      <c r="C161" s="37"/>
-      <c r="D161" s="37"/>
-      <c r="E161" s="37"/>
-      <c r="F161" s="37"/>
-      <c r="G161" s="37"/>
-      <c r="H161" s="37"/>
-      <c r="I161" s="37"/>
-      <c r="J161" s="37"/>
+      <c r="A161" s="78"/>
+      <c r="B161" s="2">
+        <v>41761</v>
+      </c>
+      <c r="C161" s="44"/>
+      <c r="D161" s="44"/>
+      <c r="E161" s="44"/>
+      <c r="F161" s="44"/>
+      <c r="G161" s="44"/>
+      <c r="H161" s="44"/>
+      <c r="I161" s="44"/>
+      <c r="J161" s="44"/>
       <c r="K161" s="52"/>
       <c r="L161" s="52"/>
       <c r="M161" s="52"/>
       <c r="N161" s="52"/>
     </row>
     <row r="162" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="103"/>
+      <c r="A162" s="71">
+        <v>27</v>
+      </c>
       <c r="B162" s="9">
-        <v>41765</v>
+        <v>41764</v>
       </c>
       <c r="C162" s="37"/>
       <c r="D162" s="37"/>
@@ -5326,9 +5337,9 @@
       <c r="N162" s="52"/>
     </row>
     <row r="163" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="103"/>
+      <c r="A163" s="71"/>
       <c r="B163" s="9">
-        <v>41766</v>
+        <v>41765</v>
       </c>
       <c r="C163" s="37"/>
       <c r="D163" s="37"/>
@@ -5344,9 +5355,9 @@
       <c r="N163" s="52"/>
     </row>
     <row r="164" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="103"/>
+      <c r="A164" s="71"/>
       <c r="B164" s="9">
-        <v>41767</v>
+        <v>41766</v>
       </c>
       <c r="C164" s="37"/>
       <c r="D164" s="37"/>
@@ -5362,9 +5373,9 @@
       <c r="N164" s="52"/>
     </row>
     <row r="165" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="103"/>
+      <c r="A165" s="71"/>
       <c r="B165" s="9">
-        <v>41768</v>
+        <v>41767</v>
       </c>
       <c r="C165" s="37"/>
       <c r="D165" s="37"/>
@@ -5380,29 +5391,29 @@
       <c r="N165" s="52"/>
     </row>
     <row r="166" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="99">
-        <v>28</v>
-      </c>
-      <c r="B166" s="2">
-        <v>41771</v>
-      </c>
-      <c r="C166" s="44"/>
-      <c r="D166" s="44"/>
-      <c r="E166" s="44"/>
-      <c r="F166" s="44"/>
-      <c r="G166" s="44"/>
-      <c r="H166" s="44"/>
-      <c r="I166" s="44"/>
-      <c r="J166" s="44"/>
+      <c r="A166" s="71"/>
+      <c r="B166" s="9">
+        <v>41768</v>
+      </c>
+      <c r="C166" s="37"/>
+      <c r="D166" s="37"/>
+      <c r="E166" s="37"/>
+      <c r="F166" s="37"/>
+      <c r="G166" s="37"/>
+      <c r="H166" s="37"/>
+      <c r="I166" s="37"/>
+      <c r="J166" s="37"/>
       <c r="K166" s="52"/>
       <c r="L166" s="52"/>
       <c r="M166" s="52"/>
       <c r="N166" s="52"/>
     </row>
     <row r="167" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="99"/>
+      <c r="A167" s="78">
+        <v>28</v>
+      </c>
       <c r="B167" s="2">
-        <v>41772</v>
+        <v>41771</v>
       </c>
       <c r="C167" s="44"/>
       <c r="D167" s="44"/>
@@ -5418,9 +5429,9 @@
       <c r="N167" s="52"/>
     </row>
     <row r="168" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="99"/>
+      <c r="A168" s="78"/>
       <c r="B168" s="2">
-        <v>41773</v>
+        <v>41772</v>
       </c>
       <c r="C168" s="44"/>
       <c r="D168" s="44"/>
@@ -5436,9 +5447,9 @@
       <c r="N168" s="52"/>
     </row>
     <row r="169" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="99"/>
+      <c r="A169" s="78"/>
       <c r="B169" s="2">
-        <v>41774</v>
+        <v>41773</v>
       </c>
       <c r="C169" s="44"/>
       <c r="D169" s="44"/>
@@ -5454,9 +5465,9 @@
       <c r="N169" s="52"/>
     </row>
     <row r="170" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="99"/>
+      <c r="A170" s="78"/>
       <c r="B170" s="2">
-        <v>41775</v>
+        <v>41774</v>
       </c>
       <c r="C170" s="44"/>
       <c r="D170" s="44"/>
@@ -5472,29 +5483,29 @@
       <c r="N170" s="52"/>
     </row>
     <row r="171" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="103">
-        <v>29</v>
-      </c>
-      <c r="B171" s="9">
-        <v>41778</v>
-      </c>
-      <c r="C171" s="37"/>
-      <c r="D171" s="37"/>
-      <c r="E171" s="37"/>
-      <c r="F171" s="37"/>
-      <c r="G171" s="37"/>
-      <c r="H171" s="37"/>
-      <c r="I171" s="37"/>
-      <c r="J171" s="37"/>
+      <c r="A171" s="78"/>
+      <c r="B171" s="2">
+        <v>41775</v>
+      </c>
+      <c r="C171" s="44"/>
+      <c r="D171" s="44"/>
+      <c r="E171" s="44"/>
+      <c r="F171" s="44"/>
+      <c r="G171" s="44"/>
+      <c r="H171" s="44"/>
+      <c r="I171" s="44"/>
+      <c r="J171" s="44"/>
       <c r="K171" s="52"/>
       <c r="L171" s="52"/>
       <c r="M171" s="52"/>
       <c r="N171" s="52"/>
     </row>
     <row r="172" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A172" s="103"/>
+      <c r="A172" s="71">
+        <v>29</v>
+      </c>
       <c r="B172" s="9">
-        <v>41779</v>
+        <v>41778</v>
       </c>
       <c r="C172" s="37"/>
       <c r="D172" s="37"/>
@@ -5510,9 +5521,9 @@
       <c r="N172" s="52"/>
     </row>
     <row r="173" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="103"/>
+      <c r="A173" s="71"/>
       <c r="B173" s="9">
-        <v>41780</v>
+        <v>41779</v>
       </c>
       <c r="C173" s="37"/>
       <c r="D173" s="37"/>
@@ -5528,9 +5539,9 @@
       <c r="N173" s="52"/>
     </row>
     <row r="174" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="103"/>
+      <c r="A174" s="71"/>
       <c r="B174" s="9">
-        <v>41781</v>
+        <v>41780</v>
       </c>
       <c r="C174" s="37"/>
       <c r="D174" s="37"/>
@@ -5546,9 +5557,9 @@
       <c r="N174" s="52"/>
     </row>
     <row r="175" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="103"/>
+      <c r="A175" s="71"/>
       <c r="B175" s="9">
-        <v>41782</v>
+        <v>41781</v>
       </c>
       <c r="C175" s="37"/>
       <c r="D175" s="37"/>
@@ -5564,29 +5575,29 @@
       <c r="N175" s="52"/>
     </row>
     <row r="176" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="105">
-        <v>30</v>
-      </c>
-      <c r="B176" s="2">
-        <v>41785</v>
-      </c>
-      <c r="C176" s="40"/>
-      <c r="D176" s="40"/>
-      <c r="E176" s="40"/>
-      <c r="F176" s="40"/>
-      <c r="G176" s="40"/>
-      <c r="H176" s="40"/>
-      <c r="I176" s="40"/>
-      <c r="J176" s="40"/>
+      <c r="A176" s="71"/>
+      <c r="B176" s="9">
+        <v>41782</v>
+      </c>
+      <c r="C176" s="37"/>
+      <c r="D176" s="37"/>
+      <c r="E176" s="37"/>
+      <c r="F176" s="37"/>
+      <c r="G176" s="37"/>
+      <c r="H176" s="37"/>
+      <c r="I176" s="37"/>
+      <c r="J176" s="37"/>
       <c r="K176" s="52"/>
       <c r="L176" s="52"/>
       <c r="M176" s="52"/>
       <c r="N176" s="52"/>
     </row>
     <row r="177" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="105"/>
+      <c r="A177" s="79">
+        <v>30</v>
+      </c>
       <c r="B177" s="2">
-        <v>41786</v>
+        <v>41785</v>
       </c>
       <c r="C177" s="40"/>
       <c r="D177" s="40"/>
@@ -5602,9 +5613,9 @@
       <c r="N177" s="52"/>
     </row>
     <row r="178" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="105"/>
+      <c r="A178" s="79"/>
       <c r="B178" s="2">
-        <v>41787</v>
+        <v>41786</v>
       </c>
       <c r="C178" s="40"/>
       <c r="D178" s="40"/>
@@ -5620,9 +5631,9 @@
       <c r="N178" s="52"/>
     </row>
     <row r="179" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="105"/>
+      <c r="A179" s="79"/>
       <c r="B179" s="2">
-        <v>41788</v>
+        <v>41787</v>
       </c>
       <c r="C179" s="40"/>
       <c r="D179" s="40"/>
@@ -5638,9 +5649,9 @@
       <c r="N179" s="52"/>
     </row>
     <row r="180" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="105"/>
+      <c r="A180" s="79"/>
       <c r="B180" s="2">
-        <v>41789</v>
+        <v>41788</v>
       </c>
       <c r="C180" s="40"/>
       <c r="D180" s="40"/>
@@ -5656,27 +5667,27 @@
       <c r="N180" s="52"/>
     </row>
     <row r="181" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="105"/>
-      <c r="B181" s="10">
-        <v>41790</v>
-      </c>
-      <c r="C181" s="52"/>
-      <c r="D181" s="52"/>
-      <c r="E181" s="52"/>
-      <c r="F181" s="52"/>
-      <c r="G181" s="52"/>
-      <c r="H181" s="52"/>
-      <c r="I181" s="52"/>
-      <c r="J181" s="52"/>
+      <c r="A181" s="79"/>
+      <c r="B181" s="2">
+        <v>41789</v>
+      </c>
+      <c r="C181" s="40"/>
+      <c r="D181" s="40"/>
+      <c r="E181" s="40"/>
+      <c r="F181" s="40"/>
+      <c r="G181" s="40"/>
+      <c r="H181" s="40"/>
+      <c r="I181" s="40"/>
+      <c r="J181" s="40"/>
       <c r="K181" s="52"/>
       <c r="L181" s="52"/>
       <c r="M181" s="52"/>
       <c r="N181" s="52"/>
     </row>
     <row r="182" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="53"/>
-      <c r="B182" s="2">
-        <v>41791</v>
+      <c r="A182" s="79"/>
+      <c r="B182" s="10">
+        <v>41790</v>
       </c>
       <c r="C182" s="52"/>
       <c r="D182" s="52"/>
@@ -5692,9 +5703,9 @@
       <c r="N182" s="52"/>
     </row>
     <row r="183" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="52"/>
+      <c r="A183" s="53"/>
       <c r="B183" s="2">
-        <v>41792</v>
+        <v>41791</v>
       </c>
       <c r="C183" s="52"/>
       <c r="D183" s="52"/>
@@ -5712,7 +5723,7 @@
     <row r="184" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A184" s="52"/>
       <c r="B184" s="2">
-        <v>41793</v>
+        <v>41792</v>
       </c>
       <c r="C184" s="52"/>
       <c r="D184" s="52"/>
@@ -5730,7 +5741,7 @@
     <row r="185" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="52"/>
       <c r="B185" s="2">
-        <v>41794</v>
+        <v>41793</v>
       </c>
       <c r="C185" s="52"/>
       <c r="D185" s="52"/>
@@ -5748,7 +5759,7 @@
     <row r="186" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="52"/>
       <c r="B186" s="2">
-        <v>41795</v>
+        <v>41794</v>
       </c>
       <c r="C186" s="52"/>
       <c r="D186" s="52"/>
@@ -5766,7 +5777,7 @@
     <row r="187" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="52"/>
       <c r="B187" s="2">
-        <v>41796</v>
+        <v>41795</v>
       </c>
       <c r="C187" s="52"/>
       <c r="D187" s="52"/>
@@ -5784,7 +5795,7 @@
     <row r="188" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A188" s="52"/>
       <c r="B188" s="2">
-        <v>41797</v>
+        <v>41796</v>
       </c>
       <c r="C188" s="52"/>
       <c r="D188" s="52"/>
@@ -5802,7 +5813,7 @@
     <row r="189" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A189" s="52"/>
       <c r="B189" s="2">
-        <v>41798</v>
+        <v>41797</v>
       </c>
       <c r="C189" s="52"/>
       <c r="D189" s="52"/>
@@ -5820,7 +5831,7 @@
     <row r="190" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A190" s="52"/>
       <c r="B190" s="2">
-        <v>41799</v>
+        <v>41798</v>
       </c>
       <c r="C190" s="52"/>
       <c r="D190" s="52"/>
@@ -5838,7 +5849,7 @@
     <row r="191" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="52"/>
       <c r="B191" s="2">
-        <v>41800</v>
+        <v>41799</v>
       </c>
       <c r="C191" s="52"/>
       <c r="D191" s="52"/>
@@ -5856,7 +5867,7 @@
     <row r="192" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A192" s="52"/>
       <c r="B192" s="2">
-        <v>41801</v>
+        <v>41800</v>
       </c>
       <c r="C192" s="52"/>
       <c r="D192" s="52"/>
@@ -5874,7 +5885,7 @@
     <row r="193" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A193" s="52"/>
       <c r="B193" s="2">
-        <v>41802</v>
+        <v>41801</v>
       </c>
       <c r="C193" s="52"/>
       <c r="D193" s="52"/>
@@ -5892,7 +5903,7 @@
     <row r="194" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A194" s="52"/>
       <c r="B194" s="2">
-        <v>41803</v>
+        <v>41802</v>
       </c>
       <c r="C194" s="52"/>
       <c r="D194" s="52"/>
@@ -5910,7 +5921,7 @@
     <row r="195" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="52"/>
       <c r="B195" s="2">
-        <v>41804</v>
+        <v>41803</v>
       </c>
       <c r="C195" s="52"/>
       <c r="D195" s="52"/>
@@ -5928,7 +5939,7 @@
     <row r="196" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="52"/>
       <c r="B196" s="2">
-        <v>41805</v>
+        <v>41804</v>
       </c>
       <c r="C196" s="52"/>
       <c r="D196" s="52"/>
@@ -5946,7 +5957,7 @@
     <row r="197" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="52"/>
       <c r="B197" s="2">
-        <v>41806</v>
+        <v>41805</v>
       </c>
       <c r="C197" s="52"/>
       <c r="D197" s="52"/>
@@ -5964,7 +5975,7 @@
     <row r="198" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A198" s="52"/>
       <c r="B198" s="2">
-        <v>41807</v>
+        <v>41806</v>
       </c>
       <c r="C198" s="52"/>
       <c r="D198" s="52"/>
@@ -5982,7 +5993,7 @@
     <row r="199" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A199" s="52"/>
       <c r="B199" s="2">
-        <v>41808</v>
+        <v>41807</v>
       </c>
       <c r="C199" s="52"/>
       <c r="D199" s="52"/>
@@ -5992,11 +6003,15 @@
       <c r="H199" s="52"/>
       <c r="I199" s="52"/>
       <c r="J199" s="52"/>
+      <c r="K199" s="52"/>
+      <c r="L199" s="52"/>
+      <c r="M199" s="52"/>
+      <c r="N199" s="52"/>
     </row>
     <row r="200" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="52"/>
       <c r="B200" s="2">
-        <v>41809</v>
+        <v>41808</v>
       </c>
       <c r="C200" s="52"/>
       <c r="D200" s="52"/>
@@ -6010,7 +6025,7 @@
     <row r="201" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A201" s="52"/>
       <c r="B201" s="2">
-        <v>41810</v>
+        <v>41809</v>
       </c>
       <c r="C201" s="52"/>
       <c r="D201" s="52"/>
@@ -6024,7 +6039,7 @@
     <row r="202" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="52"/>
       <c r="B202" s="2">
-        <v>41811</v>
+        <v>41810</v>
       </c>
       <c r="C202" s="52"/>
       <c r="D202" s="52"/>
@@ -6038,7 +6053,7 @@
     <row r="203" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="52"/>
       <c r="B203" s="2">
-        <v>41812</v>
+        <v>41811</v>
       </c>
       <c r="C203" s="52"/>
       <c r="D203" s="52"/>
@@ -6052,7 +6067,7 @@
     <row r="204" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" s="52"/>
       <c r="B204" s="2">
-        <v>41813</v>
+        <v>41812</v>
       </c>
       <c r="C204" s="52"/>
       <c r="D204" s="52"/>
@@ -6066,7 +6081,7 @@
     <row r="205" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A205" s="52"/>
       <c r="B205" s="2">
-        <v>41814</v>
+        <v>41813</v>
       </c>
       <c r="C205" s="52"/>
       <c r="D205" s="52"/>
@@ -6080,7 +6095,7 @@
     <row r="206" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A206" s="52"/>
       <c r="B206" s="2">
-        <v>41815</v>
+        <v>41814</v>
       </c>
       <c r="C206" s="52"/>
       <c r="D206" s="52"/>
@@ -6094,7 +6109,7 @@
     <row r="207" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A207" s="52"/>
       <c r="B207" s="2">
-        <v>41816</v>
+        <v>41815</v>
       </c>
       <c r="C207" s="52"/>
       <c r="D207" s="52"/>
@@ -6108,7 +6123,7 @@
     <row r="208" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A208" s="52"/>
       <c r="B208" s="2">
-        <v>41817</v>
+        <v>41816</v>
       </c>
       <c r="C208" s="52"/>
       <c r="D208" s="52"/>
@@ -6122,7 +6137,7 @@
     <row r="209" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="52"/>
       <c r="B209" s="2">
-        <v>41818</v>
+        <v>41817</v>
       </c>
       <c r="C209" s="52"/>
       <c r="D209" s="52"/>
@@ -6136,7 +6151,7 @@
     <row r="210" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" s="52"/>
       <c r="B210" s="2">
-        <v>41819</v>
+        <v>41818</v>
       </c>
       <c r="C210" s="52"/>
       <c r="D210" s="52"/>
@@ -6150,7 +6165,7 @@
     <row r="211" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A211" s="52"/>
       <c r="B211" s="2">
-        <v>41820</v>
+        <v>41819</v>
       </c>
       <c r="C211" s="52"/>
       <c r="D211" s="52"/>
@@ -6164,7 +6179,7 @@
     <row r="212" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" s="52"/>
       <c r="B212" s="2">
-        <v>41821</v>
+        <v>41820</v>
       </c>
       <c r="C212" s="52"/>
       <c r="D212" s="52"/>
@@ -6178,7 +6193,7 @@
     <row r="213" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A213" s="52"/>
       <c r="B213" s="2">
-        <v>41822</v>
+        <v>41821</v>
       </c>
       <c r="C213" s="52"/>
       <c r="D213" s="52"/>
@@ -6192,7 +6207,7 @@
     <row r="214" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" s="52"/>
       <c r="B214" s="2">
-        <v>41823</v>
+        <v>41822</v>
       </c>
       <c r="C214" s="52"/>
       <c r="D214" s="52"/>
@@ -6206,7 +6221,7 @@
     <row r="215" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" s="52"/>
       <c r="B215" s="2">
-        <v>41824</v>
+        <v>41823</v>
       </c>
       <c r="C215" s="52"/>
       <c r="D215" s="52"/>
@@ -6217,12 +6232,68 @@
       <c r="I215" s="52"/>
       <c r="J215" s="52"/>
     </row>
+    <row r="216" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A216" s="52"/>
+      <c r="B216" s="2">
+        <v>41824</v>
+      </c>
+      <c r="C216" s="52"/>
+      <c r="D216" s="52"/>
+      <c r="E216" s="52"/>
+      <c r="F216" s="52"/>
+      <c r="G216" s="52"/>
+      <c r="H216" s="52"/>
+      <c r="I216" s="52"/>
+      <c r="J216" s="52"/>
+    </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="G2:N4"/>
+    <mergeCell ref="A3:F4"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A177:A182"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A35:A48"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="F50:F53"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A161:A165"/>
+    <mergeCell ref="A162:A166"/>
     <mergeCell ref="B23:B28"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="B29:B31"/>
@@ -6235,48 +6306,6 @@
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="F41:F44"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A166:A170"/>
-    <mergeCell ref="A171:A175"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="A35:A48"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="A111:A115"/>
-    <mergeCell ref="A116:A120"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A86:A90"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="G2:N4"/>
-    <mergeCell ref="A3:F4"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F23:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
@@ -6680,7 +6709,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F53</xm:sqref>
+          <xm:sqref>F54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{3414DE04-4AA7-4EA1-9251-85D8CF7D1059}">
@@ -6699,7 +6728,7 @@
               <x14:cfIcon iconSet="3Symbols" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F50</xm:sqref>
+          <xm:sqref>F50:F51</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
+++ b/trunk/1. Project management/9. Timelog/individual time log/AS_PM_TimeLog_DeadlineTeam_PhuTa.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="154">
   <si>
     <t>Week</t>
   </si>
@@ -538,6 +538,9 @@
   </si>
   <si>
     <t>Discuss about document</t>
+  </si>
+  <si>
+    <t>1:10PM</t>
   </si>
 </sst>
 </file>
@@ -1032,6 +1035,135 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1041,139 +1173,10 @@
     <xf numFmtId="16" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1571,13 +1574,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N216"/>
+  <dimension ref="A1:N215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="H50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="6" ySplit="6" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1599,82 +1602,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="90"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="75"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="91" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="93"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="78"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="96"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="81"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="103"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="99"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="110"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="32"/>
       <c r="H5" s="56" t="s">
         <v>112</v>
@@ -1719,10 +1722,10 @@
       <c r="J6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -1750,20 +1753,20 @@
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
       <c r="J7" s="37"/>
-      <c r="K7" s="106" t="s">
+      <c r="K7" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="106"/>
+      <c r="L7" s="91"/>
       <c r="M7" s="38">
         <f>SUM(M8:M37)</f>
-        <v>91.01</v>
+        <v>89.26</v>
       </c>
       <c r="N7" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
+      <c r="A8" s="96">
         <v>2</v>
       </c>
       <c r="B8" s="2">
@@ -1778,7 +1781,7 @@
       <c r="E8" s="13">
         <v>1.5</v>
       </c>
-      <c r="F8" s="111">
+      <c r="F8" s="65">
         <f>SUM(E8:E9)</f>
         <v>3</v>
       </c>
@@ -1803,7 +1806,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="2">
         <v>41589</v>
       </c>
@@ -1816,7 +1819,7 @@
       <c r="E9" s="13">
         <v>1.5</v>
       </c>
-      <c r="F9" s="112"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1838,7 +1841,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="2">
         <v>41590</v>
       </c>
@@ -1851,7 +1854,7 @@
       <c r="E10" s="13">
         <v>2</v>
       </c>
-      <c r="F10" s="111">
+      <c r="F10" s="65">
         <f>SUM(E10:E11)</f>
         <v>4</v>
       </c>
@@ -1869,14 +1872,14 @@
       <c r="L10" s="44"/>
       <c r="M10" s="45">
         <f>SUM(F18:F34)</f>
-        <v>31.3</v>
+        <v>29.8</v>
       </c>
       <c r="N10" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="2">
         <v>41590</v>
       </c>
@@ -1889,7 +1892,7 @@
       <c r="E11" s="13">
         <v>2</v>
       </c>
-      <c r="F11" s="112"/>
+      <c r="F11" s="66"/>
       <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
@@ -1904,14 +1907,14 @@
       <c r="L11" s="44"/>
       <c r="M11" s="45">
         <f>SUM(F35:F48)</f>
-        <v>28.41</v>
+        <v>28.16</v>
       </c>
       <c r="N11" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="2">
         <v>41591</v>
       </c>
@@ -1941,7 +1944,7 @@
       </c>
       <c r="L12" s="44"/>
       <c r="M12" s="45">
-        <f>SUM(F49:F56)</f>
+        <f>SUM(F49:F55)</f>
         <v>14</v>
       </c>
       <c r="N12" s="39" t="s">
@@ -1949,8 +1952,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="2">
+      <c r="A13" s="97"/>
+      <c r="B13" s="102">
         <v>41592</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -1962,7 +1965,7 @@
       <c r="E13" s="13">
         <v>1</v>
       </c>
-      <c r="F13" s="111">
+      <c r="F13" s="65">
         <f>SUM(E13:E14)</f>
         <v>2.25</v>
       </c>
@@ -1979,7 +1982,7 @@
       </c>
       <c r="L13" s="44"/>
       <c r="M13" s="45">
-        <f>SUM(F57:F61)</f>
+        <f>SUM(F56:F60)</f>
         <v>0</v>
       </c>
       <c r="N13" s="39" t="s">
@@ -1987,10 +1990,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="2">
-        <v>41592</v>
-      </c>
+      <c r="A14" s="97"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="12" t="s">
         <v>76</v>
       </c>
@@ -2000,7 +2001,7 @@
       <c r="E14" s="13">
         <v>1.25</v>
       </c>
-      <c r="F14" s="112"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="21" t="s">
         <v>28</v>
       </c>
@@ -2014,7 +2015,7 @@
       </c>
       <c r="L14" s="44"/>
       <c r="M14" s="45">
-        <f>SUM(F62:F66)</f>
+        <f>SUM(F61:F65)</f>
         <v>0</v>
       </c>
       <c r="N14" s="39" t="s">
@@ -2022,7 +2023,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="2">
         <v>41593</v>
       </c>
@@ -2052,7 +2053,7 @@
       </c>
       <c r="L15" s="44"/>
       <c r="M15" s="45">
-        <f>SUM(F67:F71)</f>
+        <f>SUM(F66:F70)</f>
         <v>0</v>
       </c>
       <c r="N15" s="39" t="s">
@@ -2060,7 +2061,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="23">
         <v>41594</v>
       </c>
@@ -2090,7 +2091,7 @@
       </c>
       <c r="L16" s="44"/>
       <c r="M16" s="45">
-        <f>SUM(F72:F76)</f>
+        <f>SUM(F71:F75)</f>
         <v>0</v>
       </c>
       <c r="N16" s="39" t="s">
@@ -2098,7 +2099,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="23">
         <v>41595</v>
       </c>
@@ -2128,7 +2129,7 @@
       </c>
       <c r="L17" s="44"/>
       <c r="M17" s="45">
-        <f>SUM(F77:F81)</f>
+        <f>SUM(F76:F80)</f>
         <v>0</v>
       </c>
       <c r="N17" s="39" t="s">
@@ -2136,7 +2137,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="84">
+      <c r="A18" s="101">
         <v>3</v>
       </c>
       <c r="B18" s="9">
@@ -2168,7 +2169,7 @@
       </c>
       <c r="L18" s="44"/>
       <c r="M18" s="45">
-        <f>SUM(F82:F86)</f>
+        <f>SUM(F81:F85)</f>
         <v>0</v>
       </c>
       <c r="N18" s="39" t="s">
@@ -2176,8 +2177,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="65">
+      <c r="A19" s="99"/>
+      <c r="B19" s="108">
         <v>41597</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2189,7 +2190,7 @@
       <c r="E19" s="22">
         <v>1</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="67">
         <f>SUM(E19:E21)</f>
         <v>4.6500000000000004</v>
       </c>
@@ -2206,7 +2207,7 @@
       </c>
       <c r="L19" s="44"/>
       <c r="M19" s="45">
-        <f>SUM(F87:F91)</f>
+        <f>SUM(F86:F90)</f>
         <v>0</v>
       </c>
       <c r="N19" s="39" t="s">
@@ -2214,8 +2215,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="66"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="109"/>
       <c r="C20" s="3" t="s">
         <v>91</v>
       </c>
@@ -2225,7 +2226,7 @@
       <c r="E20" s="22">
         <v>1.5</v>
       </c>
-      <c r="F20" s="69"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="28" t="s">
         <v>27</v>
       </c>
@@ -2241,7 +2242,7 @@
       </c>
       <c r="L20" s="44"/>
       <c r="M20" s="45">
-        <f>SUM(F92:F96)</f>
+        <f>SUM(F91:F95)</f>
         <v>0</v>
       </c>
       <c r="N20" s="39" t="s">
@@ -2249,8 +2250,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="67"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
@@ -2260,7 +2261,7 @@
       <c r="E21" s="22">
         <v>2.15</v>
       </c>
-      <c r="F21" s="70"/>
+      <c r="F21" s="69"/>
       <c r="G21" s="28" t="s">
         <v>27</v>
       </c>
@@ -2276,7 +2277,7 @@
       </c>
       <c r="L21" s="44"/>
       <c r="M21" s="45">
-        <f>SUM(F97:F101)</f>
+        <f>SUM(F96:F100)</f>
         <v>0</v>
       </c>
       <c r="N21" s="39" t="s">
@@ -2284,7 +2285,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="9">
         <v>41598</v>
       </c>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="L22" s="44"/>
       <c r="M22" s="45">
-        <f>SUM(F102:F106)</f>
+        <f>SUM(F101:F105)</f>
         <v>0</v>
       </c>
       <c r="N22" s="39" t="s">
@@ -2324,8 +2325,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="65">
+      <c r="A23" s="99"/>
+      <c r="B23" s="108">
         <v>41599</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2337,12 +2338,12 @@
       <c r="E23" s="22">
         <v>1</v>
       </c>
-      <c r="F23" s="68">
+      <c r="F23" s="67">
         <f>SUM(E23:E28)</f>
         <v>9.65</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H23" s="30" t="s">
         <v>104</v>
@@ -2356,7 +2357,7 @@
       </c>
       <c r="L23" s="44"/>
       <c r="M23" s="45">
-        <f>SUM(F107:F111)</f>
+        <f>SUM(F106:F110)</f>
         <v>0</v>
       </c>
       <c r="N23" s="39" t="s">
@@ -2364,8 +2365,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="66"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="109"/>
       <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
@@ -2375,7 +2376,7 @@
       <c r="E24" s="22">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F24" s="69"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="29" t="s">
         <v>28</v>
       </c>
@@ -2389,7 +2390,7 @@
       </c>
       <c r="L24" s="44"/>
       <c r="M24" s="45">
-        <f>SUM(F112:F116)</f>
+        <f>SUM(F111:F115)</f>
         <v>0</v>
       </c>
       <c r="N24" s="39" t="s">
@@ -2397,8 +2398,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="66"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="109"/>
       <c r="C25" s="3" t="s">
         <v>101</v>
       </c>
@@ -2408,7 +2409,7 @@
       <c r="E25" s="22">
         <v>1.33</v>
       </c>
-      <c r="F25" s="69"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="26" t="s">
         <v>64</v>
       </c>
@@ -2422,7 +2423,7 @@
       </c>
       <c r="L25" s="44"/>
       <c r="M25" s="45">
-        <f>SUM(F117:F121)</f>
+        <f>SUM(F116:F120)</f>
         <v>0</v>
       </c>
       <c r="N25" s="39" t="s">
@@ -2430,8 +2431,8 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="66"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="109"/>
       <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
@@ -2441,7 +2442,7 @@
       <c r="E26" s="22">
         <v>1.5</v>
       </c>
-      <c r="F26" s="69"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="28" t="s">
         <v>27</v>
       </c>
@@ -2455,7 +2456,7 @@
       </c>
       <c r="L26" s="44"/>
       <c r="M26" s="45">
-        <f>SUM(F122:F126)</f>
+        <f>SUM(F121:F125)</f>
         <v>0</v>
       </c>
       <c r="N26" s="39" t="s">
@@ -2463,8 +2464,8 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="66"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="109"/>
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
@@ -2474,7 +2475,7 @@
       <c r="E27" s="22">
         <v>2.16</v>
       </c>
-      <c r="F27" s="69"/>
+      <c r="F27" s="68"/>
       <c r="G27" s="26" t="s">
         <v>64</v>
       </c>
@@ -2488,7 +2489,7 @@
       </c>
       <c r="L27" s="44"/>
       <c r="M27" s="45">
-        <f>SUM(F127:F131)</f>
+        <f>SUM(F126:F130)</f>
         <v>0</v>
       </c>
       <c r="N27" s="39" t="s">
@@ -2496,8 +2497,8 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="67"/>
+      <c r="A28" s="99"/>
+      <c r="B28" s="110"/>
       <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
@@ -2507,7 +2508,7 @@
       <c r="E28" s="22">
         <v>2.5</v>
       </c>
-      <c r="F28" s="70"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="28" t="s">
         <v>27</v>
       </c>
@@ -2523,7 +2524,7 @@
       </c>
       <c r="L28" s="44"/>
       <c r="M28" s="45">
-        <f>SUM(F132:F136)</f>
+        <f>SUM(F131:F135)</f>
         <v>0</v>
       </c>
       <c r="N28" s="39" t="s">
@@ -2531,22 +2532,22 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
-      <c r="B29" s="65">
+      <c r="A29" s="99"/>
+      <c r="B29" s="108">
         <v>41600</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="E29" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="F29" s="68">
+        <v>1.25</v>
+      </c>
+      <c r="F29" s="67">
         <f>SUM(E29:E31)</f>
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="G29" s="31" t="s">
         <v>64</v>
@@ -2563,7 +2564,7 @@
       </c>
       <c r="L29" s="44"/>
       <c r="M29" s="45">
-        <f>SUM(F137:F141)</f>
+        <f>SUM(F136:F140)</f>
         <v>0</v>
       </c>
       <c r="N29" s="39" t="s">
@@ -2571,8 +2572,8 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="66"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="3" t="s">
         <v>61</v>
       </c>
@@ -2582,7 +2583,7 @@
       <c r="E30" s="22">
         <v>1.5</v>
       </c>
-      <c r="F30" s="69"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="28" t="s">
         <v>27</v>
       </c>
@@ -2598,7 +2599,7 @@
       </c>
       <c r="L30" s="44"/>
       <c r="M30" s="45">
-        <f>SUM(F142:F146)</f>
+        <f>SUM(F141:F145)</f>
         <v>0</v>
       </c>
       <c r="N30" s="39" t="s">
@@ -2606,8 +2607,8 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
-      <c r="B31" s="67"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="110"/>
       <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
@@ -2617,7 +2618,7 @@
       <c r="E31" s="22">
         <v>2.5</v>
       </c>
-      <c r="F31" s="70"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="28" t="s">
         <v>27</v>
       </c>
@@ -2633,7 +2634,7 @@
       </c>
       <c r="L31" s="44"/>
       <c r="M31" s="45">
-        <f>SUM(F147:F151)</f>
+        <f>SUM(F146:F150)</f>
         <v>0</v>
       </c>
       <c r="N31" s="39" t="s">
@@ -2641,22 +2642,22 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
-      <c r="B32" s="65">
+      <c r="A32" s="99"/>
+      <c r="B32" s="108">
         <v>41601</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>61</v>
+        <v>153</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1.45</v>
       </c>
       <c r="E32" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="F32" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="F32" s="67">
         <f>SUM(E32:E33)</f>
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>64</v>
@@ -2671,7 +2672,7 @@
       </c>
       <c r="L32" s="44"/>
       <c r="M32" s="45">
-        <f>SUM(F152:F156)</f>
+        <f>SUM(F151:F155)</f>
         <v>0</v>
       </c>
       <c r="N32" s="39" t="s">
@@ -2679,8 +2680,8 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="67"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="110"/>
       <c r="C33" s="3" t="s">
         <v>83</v>
       </c>
@@ -2690,7 +2691,7 @@
       <c r="E33" s="22">
         <v>1</v>
       </c>
-      <c r="F33" s="70"/>
+      <c r="F33" s="69"/>
       <c r="G33" s="28" t="s">
         <v>27</v>
       </c>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="L33" s="44"/>
       <c r="M33" s="45">
-        <f>SUM(F157:F161)</f>
+        <f>SUM(F156:F160)</f>
         <v>0</v>
       </c>
       <c r="N33" s="39" t="s">
@@ -2744,7 +2745,7 @@
       </c>
       <c r="L34" s="44"/>
       <c r="M34" s="45">
-        <f>SUM(F162:F166)</f>
+        <f>SUM(F161:F165)</f>
         <v>0</v>
       </c>
       <c r="N34" s="39" t="s">
@@ -2752,7 +2753,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="80">
+      <c r="A35" s="107">
         <v>4</v>
       </c>
       <c r="B35" s="2">
@@ -2784,7 +2785,7 @@
       </c>
       <c r="L35" s="44"/>
       <c r="M35" s="45">
-        <f>SUM(F167:F171)</f>
+        <f>SUM(F166:F170)</f>
         <v>0</v>
       </c>
       <c r="N35" s="39" t="s">
@@ -2792,8 +2793,8 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="78"/>
-      <c r="B36" s="72">
+      <c r="A36" s="100"/>
+      <c r="B36" s="102">
         <v>41604</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -2805,9 +2806,9 @@
       <c r="E36" s="25">
         <v>2.5</v>
       </c>
-      <c r="F36" s="75">
+      <c r="F36" s="104">
         <f>SUM(E36:E38)</f>
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="G36" s="44" t="s">
         <v>28</v>
@@ -2822,7 +2823,7 @@
       </c>
       <c r="L36" s="44"/>
       <c r="M36" s="45">
-        <f>SUM(F172:F176)</f>
+        <f>SUM(F171:F175)</f>
         <v>0</v>
       </c>
       <c r="N36" s="39" t="s">
@@ -2830,18 +2831,18 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A37" s="78"/>
-      <c r="B37" s="73"/>
+      <c r="A37" s="100"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="E37" s="25">
-        <v>1.25</v>
-      </c>
-      <c r="F37" s="76"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="112"/>
       <c r="G37" s="59" t="s">
         <v>64</v>
       </c>
@@ -2855,7 +2856,7 @@
       </c>
       <c r="L37" s="44"/>
       <c r="M37" s="45">
-        <f>SUM(F177:F181)</f>
+        <f>SUM(F176:F180)</f>
         <v>0</v>
       </c>
       <c r="N37" s="39" t="s">
@@ -2863,8 +2864,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A38" s="78"/>
-      <c r="B38" s="74"/>
+      <c r="A38" s="100"/>
+      <c r="B38" s="103"/>
       <c r="C38" s="24" t="s">
         <v>84</v>
       </c>
@@ -2874,7 +2875,7 @@
       <c r="E38" s="25">
         <v>1.5</v>
       </c>
-      <c r="F38" s="77"/>
+      <c r="F38" s="105"/>
       <c r="G38" s="59" t="s">
         <v>27</v>
       </c>
@@ -2889,8 +2890,8 @@
       <c r="N38" s="52"/>
     </row>
     <row r="39" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
-      <c r="B39" s="72">
+      <c r="A39" s="100"/>
+      <c r="B39" s="102">
         <v>41605</v>
       </c>
       <c r="C39" s="24" t="s">
@@ -2902,7 +2903,7 @@
       <c r="E39" s="25">
         <v>1</v>
       </c>
-      <c r="F39" s="75">
+      <c r="F39" s="104">
         <f>SUM(E39:E40)</f>
         <v>3.33</v>
       </c>
@@ -2920,8 +2921,8 @@
       <c r="N39" s="52"/>
     </row>
     <row r="40" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A40" s="78"/>
-      <c r="B40" s="74"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="24" t="s">
         <v>63</v>
       </c>
@@ -2931,7 +2932,7 @@
       <c r="E40" s="25">
         <v>2.33</v>
       </c>
-      <c r="F40" s="77"/>
+      <c r="F40" s="105"/>
       <c r="G40" s="59" t="s">
         <v>64</v>
       </c>
@@ -2946,8 +2947,8 @@
       <c r="N40" s="52"/>
     </row>
     <row r="41" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="78"/>
-      <c r="B41" s="72">
+      <c r="A41" s="100"/>
+      <c r="B41" s="102">
         <v>41606</v>
       </c>
       <c r="C41" s="61" t="s">
@@ -2959,7 +2960,7 @@
       <c r="E41" s="61">
         <v>1.33</v>
       </c>
-      <c r="F41" s="75">
+      <c r="F41" s="104">
         <f>SUM(E41:E44)</f>
         <v>8.33</v>
       </c>
@@ -2977,8 +2978,8 @@
       <c r="N41" s="52"/>
     </row>
     <row r="42" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="78"/>
-      <c r="B42" s="73"/>
+      <c r="A42" s="100"/>
+      <c r="B42" s="111"/>
       <c r="C42" s="61" t="s">
         <v>135</v>
       </c>
@@ -2988,7 +2989,7 @@
       <c r="E42" s="61">
         <v>1.75</v>
       </c>
-      <c r="F42" s="76"/>
+      <c r="F42" s="112"/>
       <c r="G42" s="59" t="s">
         <v>30</v>
       </c>
@@ -3003,8 +3004,8 @@
       <c r="N42" s="52"/>
     </row>
     <row r="43" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="78"/>
-      <c r="B43" s="73"/>
+      <c r="A43" s="100"/>
+      <c r="B43" s="111"/>
       <c r="C43" s="61" t="s">
         <v>63</v>
       </c>
@@ -3014,7 +3015,7 @@
       <c r="E43" s="61">
         <v>2.75</v>
       </c>
-      <c r="F43" s="76"/>
+      <c r="F43" s="112"/>
       <c r="G43" s="59" t="s">
         <v>24</v>
       </c>
@@ -3029,8 +3030,8 @@
       <c r="N43" s="52"/>
     </row>
     <row r="44" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A44" s="78"/>
-      <c r="B44" s="74"/>
+      <c r="A44" s="100"/>
+      <c r="B44" s="103"/>
       <c r="C44" s="61" t="s">
         <v>67</v>
       </c>
@@ -3040,7 +3041,7 @@
       <c r="E44" s="25">
         <v>2.5</v>
       </c>
-      <c r="F44" s="77"/>
+      <c r="F44" s="105"/>
       <c r="G44" s="59" t="s">
         <v>27</v>
       </c>
@@ -3055,8 +3056,8 @@
       <c r="N44" s="52"/>
     </row>
     <row r="45" spans="1:14" ht="66" x14ac:dyDescent="0.25">
-      <c r="A45" s="78"/>
-      <c r="B45" s="72">
+      <c r="A45" s="100"/>
+      <c r="B45" s="102">
         <v>41607</v>
       </c>
       <c r="C45" s="24" t="s">
@@ -3068,7 +3069,7 @@
       <c r="E45" s="25">
         <v>3.5</v>
       </c>
-      <c r="F45" s="75">
+      <c r="F45" s="104">
         <f>SUM(E45:E46)</f>
         <v>4.5</v>
       </c>
@@ -3086,8 +3087,8 @@
       <c r="N45" s="52"/>
     </row>
     <row r="46" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A46" s="78"/>
-      <c r="B46" s="74"/>
+      <c r="A46" s="100"/>
+      <c r="B46" s="103"/>
       <c r="C46" s="24" t="s">
         <v>83</v>
       </c>
@@ -3097,7 +3098,7 @@
       <c r="E46" s="25">
         <v>1</v>
       </c>
-      <c r="F46" s="77"/>
+      <c r="F46" s="105"/>
       <c r="G46" s="59" t="s">
         <v>27</v>
       </c>
@@ -3112,8 +3113,8 @@
       <c r="N46" s="52"/>
     </row>
     <row r="47" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="78"/>
-      <c r="B47" s="72">
+      <c r="A47" s="100"/>
+      <c r="B47" s="102">
         <v>41609</v>
       </c>
       <c r="C47" s="24" t="s">
@@ -3125,7 +3126,7 @@
       <c r="E47" s="25">
         <v>3.5</v>
       </c>
-      <c r="F47" s="75">
+      <c r="F47" s="104">
         <f>SUM(E47:E48)</f>
         <v>5</v>
       </c>
@@ -3143,8 +3144,8 @@
       <c r="N47" s="52"/>
     </row>
     <row r="48" spans="1:14" ht="33" x14ac:dyDescent="0.25">
-      <c r="A48" s="78"/>
-      <c r="B48" s="74"/>
+      <c r="A48" s="100"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="24" t="s">
         <v>69</v>
       </c>
@@ -3154,7 +3155,7 @@
       <c r="E48" s="25">
         <v>1.5</v>
       </c>
-      <c r="F48" s="77"/>
+      <c r="F48" s="105"/>
       <c r="G48" s="59" t="s">
         <v>27</v>
       </c>
@@ -3168,19 +3169,30 @@
       <c r="M48" s="52"/>
       <c r="N48" s="52"/>
     </row>
-    <row r="49" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="64">
-        <v>5</v>
-      </c>
-      <c r="B49" s="9">
-        <v>41610</v>
-      </c>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
+    <row r="49" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="64"/>
+      <c r="B49" s="108">
+        <v>41611</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="F49" s="67">
+        <f>SUM(E49:E52)</f>
+        <v>9.5</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="27" t="s">
+        <v>148</v>
+      </c>
       <c r="I49" s="37"/>
       <c r="J49" s="37"/>
       <c r="K49" s="52"/>
@@ -3188,29 +3200,24 @@
       <c r="M49" s="52"/>
       <c r="N49" s="52"/>
     </row>
-    <row r="50" spans="1:14" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="64"/>
-      <c r="B50" s="65">
-        <v>41611</v>
-      </c>
+      <c r="B50" s="109"/>
       <c r="C50" s="3" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E50" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="F50" s="68">
-        <f>SUM(E50:E53)</f>
-        <v>9.5</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="68"/>
       <c r="G50" s="28" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I50" s="37"/>
       <c r="J50" s="37"/>
@@ -3219,24 +3226,24 @@
       <c r="M50" s="52"/>
       <c r="N50" s="52"/>
     </row>
-    <row r="51" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="A51" s="64"/>
-      <c r="B51" s="66"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="3" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E51" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="F51" s="69"/>
+        <v>3.5</v>
+      </c>
+      <c r="F51" s="68"/>
       <c r="G51" s="28" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I51" s="37"/>
       <c r="J51" s="37"/>
@@ -3247,22 +3254,22 @@
     </row>
     <row r="52" spans="1:14" ht="66" x14ac:dyDescent="0.25">
       <c r="A52" s="64"/>
-      <c r="B52" s="66"/>
+      <c r="B52" s="110"/>
       <c r="C52" s="3" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="E52" s="22">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F52" s="69"/>
       <c r="G52" s="28" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I52" s="37"/>
       <c r="J52" s="37"/>
@@ -3271,24 +3278,29 @@
       <c r="M52" s="52"/>
       <c r="N52" s="52"/>
     </row>
-    <row r="53" spans="1:14" ht="66" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A53" s="64"/>
-      <c r="B53" s="67"/>
+      <c r="B53" s="9">
+        <v>41612</v>
+      </c>
       <c r="C53" s="3" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E53" s="22">
-        <v>4</v>
-      </c>
-      <c r="F53" s="70"/>
+        <v>4.5</v>
+      </c>
+      <c r="F53" s="54">
+        <f t="shared" ref="F53" si="5">E53</f>
+        <v>4.5</v>
+      </c>
       <c r="G53" s="28" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I53" s="37"/>
       <c r="J53" s="37"/>
@@ -3297,30 +3309,17 @@
       <c r="M53" s="52"/>
       <c r="N53" s="52"/>
     </row>
-    <row r="54" spans="1:14" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="64"/>
       <c r="B54" s="9">
-        <v>41612</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="22">
-        <v>4.5</v>
-      </c>
-      <c r="F54" s="54">
-        <f t="shared" ref="F54" si="5">E54</f>
-        <v>4.5</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="H54" s="27" t="s">
-        <v>150</v>
-      </c>
+        <v>41613</v>
+      </c>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
       <c r="I54" s="37"/>
       <c r="J54" s="37"/>
       <c r="K54" s="52"/>
@@ -3331,7 +3330,7 @@
     <row r="55" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="64"/>
       <c r="B55" s="9">
-        <v>41613</v>
+        <v>41614</v>
       </c>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -3347,29 +3346,29 @@
       <c r="N55" s="52"/>
     </row>
     <row r="56" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="64"/>
-      <c r="B56" s="9">
-        <v>41614</v>
-      </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
+      <c r="A56" s="100">
+        <v>6</v>
+      </c>
+      <c r="B56" s="2">
+        <v>41617</v>
+      </c>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
       <c r="K56" s="52"/>
       <c r="L56" s="52"/>
       <c r="M56" s="52"/>
       <c r="N56" s="52"/>
     </row>
     <row r="57" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="78">
-        <v>6</v>
-      </c>
+      <c r="A57" s="100"/>
       <c r="B57" s="2">
-        <v>41617</v>
+        <v>41618</v>
       </c>
       <c r="C57" s="44"/>
       <c r="D57" s="44"/>
@@ -3385,9 +3384,9 @@
       <c r="N57" s="52"/>
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
+      <c r="A58" s="100"/>
       <c r="B58" s="2">
-        <v>41618</v>
+        <v>41619</v>
       </c>
       <c r="C58" s="44"/>
       <c r="D58" s="44"/>
@@ -3403,9 +3402,9 @@
       <c r="N58" s="52"/>
     </row>
     <row r="59" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="78"/>
+      <c r="A59" s="100"/>
       <c r="B59" s="2">
-        <v>41619</v>
+        <v>41620</v>
       </c>
       <c r="C59" s="44"/>
       <c r="D59" s="44"/>
@@ -3421,9 +3420,9 @@
       <c r="N59" s="52"/>
     </row>
     <row r="60" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="78"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="2">
-        <v>41620</v>
+        <v>41621</v>
       </c>
       <c r="C60" s="44"/>
       <c r="D60" s="44"/>
@@ -3439,29 +3438,29 @@
       <c r="N60" s="52"/>
     </row>
     <row r="61" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="78"/>
-      <c r="B61" s="2">
-        <v>41621</v>
-      </c>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="44"/>
+      <c r="A61" s="99">
+        <v>7</v>
+      </c>
+      <c r="B61" s="9">
+        <v>41624</v>
+      </c>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
       <c r="K61" s="52"/>
       <c r="L61" s="52"/>
       <c r="M61" s="52"/>
       <c r="N61" s="52"/>
     </row>
     <row r="62" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="71">
-        <v>7</v>
-      </c>
+      <c r="A62" s="99"/>
       <c r="B62" s="9">
-        <v>41624</v>
+        <v>41625</v>
       </c>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -3477,9 +3476,9 @@
       <c r="N62" s="52"/>
     </row>
     <row r="63" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
+      <c r="A63" s="99"/>
       <c r="B63" s="9">
-        <v>41625</v>
+        <v>41626</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -3495,9 +3494,9 @@
       <c r="N63" s="52"/>
     </row>
     <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="71"/>
+      <c r="A64" s="99"/>
       <c r="B64" s="9">
-        <v>41626</v>
+        <v>41627</v>
       </c>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
@@ -3513,9 +3512,9 @@
       <c r="N64" s="52"/>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
+      <c r="A65" s="99"/>
       <c r="B65" s="9">
-        <v>41627</v>
+        <v>41628</v>
       </c>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -3531,29 +3530,29 @@
       <c r="N65" s="52"/>
     </row>
     <row r="66" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="71"/>
-      <c r="B66" s="9">
-        <v>41628</v>
-      </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
+      <c r="A66" s="100">
+        <v>8</v>
+      </c>
+      <c r="B66" s="2">
+        <v>41631</v>
+      </c>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
       <c r="K66" s="52"/>
       <c r="L66" s="52"/>
       <c r="M66" s="52"/>
       <c r="N66" s="52"/>
     </row>
     <row r="67" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="78">
-        <v>8</v>
-      </c>
+      <c r="A67" s="100"/>
       <c r="B67" s="2">
-        <v>41631</v>
+        <v>41632</v>
       </c>
       <c r="C67" s="44"/>
       <c r="D67" s="44"/>
@@ -3569,9 +3568,9 @@
       <c r="N67" s="52"/>
     </row>
     <row r="68" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="78"/>
+      <c r="A68" s="100"/>
       <c r="B68" s="2">
-        <v>41632</v>
+        <v>41633</v>
       </c>
       <c r="C68" s="44"/>
       <c r="D68" s="44"/>
@@ -3587,9 +3586,9 @@
       <c r="N68" s="52"/>
     </row>
     <row r="69" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="78"/>
+      <c r="A69" s="100"/>
       <c r="B69" s="2">
-        <v>41633</v>
+        <v>41634</v>
       </c>
       <c r="C69" s="44"/>
       <c r="D69" s="44"/>
@@ -3605,9 +3604,9 @@
       <c r="N69" s="52"/>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="78"/>
+      <c r="A70" s="100"/>
       <c r="B70" s="2">
-        <v>41634</v>
+        <v>41635</v>
       </c>
       <c r="C70" s="44"/>
       <c r="D70" s="44"/>
@@ -3623,29 +3622,29 @@
       <c r="N70" s="52"/>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="78"/>
-      <c r="B71" s="2">
-        <v>41635</v>
-      </c>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
+      <c r="A71" s="99">
+        <v>9</v>
+      </c>
+      <c r="B71" s="9">
+        <v>41638</v>
+      </c>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
       <c r="K71" s="52"/>
       <c r="L71" s="52"/>
       <c r="M71" s="52"/>
       <c r="N71" s="52"/>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="71">
-        <v>9</v>
-      </c>
+      <c r="A72" s="99"/>
       <c r="B72" s="9">
-        <v>41638</v>
+        <v>41639</v>
       </c>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -3661,9 +3660,9 @@
       <c r="N72" s="52"/>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="71"/>
+      <c r="A73" s="99"/>
       <c r="B73" s="9">
-        <v>41639</v>
+        <v>41640</v>
       </c>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -3679,9 +3678,9 @@
       <c r="N73" s="52"/>
     </row>
     <row r="74" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="71"/>
+      <c r="A74" s="99"/>
       <c r="B74" s="9">
-        <v>41640</v>
+        <v>41641</v>
       </c>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -3697,9 +3696,9 @@
       <c r="N74" s="52"/>
     </row>
     <row r="75" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="71"/>
+      <c r="A75" s="99"/>
       <c r="B75" s="9">
-        <v>41641</v>
+        <v>41642</v>
       </c>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -3715,29 +3714,29 @@
       <c r="N75" s="52"/>
     </row>
     <row r="76" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="71"/>
-      <c r="B76" s="9">
-        <v>41642</v>
-      </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
+      <c r="A76" s="100">
+        <v>10</v>
+      </c>
+      <c r="B76" s="2">
+        <v>41645</v>
+      </c>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
       <c r="K76" s="52"/>
       <c r="L76" s="52"/>
       <c r="M76" s="52"/>
       <c r="N76" s="52"/>
     </row>
     <row r="77" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="78">
-        <v>10</v>
-      </c>
+      <c r="A77" s="100"/>
       <c r="B77" s="2">
-        <v>41645</v>
+        <v>41646</v>
       </c>
       <c r="C77" s="44"/>
       <c r="D77" s="44"/>
@@ -3753,9 +3752,9 @@
       <c r="N77" s="52"/>
     </row>
     <row r="78" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="78"/>
+      <c r="A78" s="100"/>
       <c r="B78" s="2">
-        <v>41646</v>
+        <v>41647</v>
       </c>
       <c r="C78" s="44"/>
       <c r="D78" s="44"/>
@@ -3771,9 +3770,9 @@
       <c r="N78" s="52"/>
     </row>
     <row r="79" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="78"/>
+      <c r="A79" s="100"/>
       <c r="B79" s="2">
-        <v>41647</v>
+        <v>41648</v>
       </c>
       <c r="C79" s="44"/>
       <c r="D79" s="44"/>
@@ -3789,9 +3788,9 @@
       <c r="N79" s="52"/>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="78"/>
+      <c r="A80" s="100"/>
       <c r="B80" s="2">
-        <v>41648</v>
+        <v>41649</v>
       </c>
       <c r="C80" s="44"/>
       <c r="D80" s="44"/>
@@ -3807,29 +3806,29 @@
       <c r="N80" s="52"/>
     </row>
     <row r="81" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="78"/>
-      <c r="B81" s="2">
-        <v>41649</v>
-      </c>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="44"/>
-      <c r="I81" s="44"/>
-      <c r="J81" s="44"/>
+      <c r="A81" s="99">
+        <v>11</v>
+      </c>
+      <c r="B81" s="9">
+        <v>41652</v>
+      </c>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
       <c r="K81" s="52"/>
       <c r="L81" s="52"/>
       <c r="M81" s="52"/>
       <c r="N81" s="52"/>
     </row>
     <row r="82" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="71">
-        <v>11</v>
-      </c>
+      <c r="A82" s="99"/>
       <c r="B82" s="9">
-        <v>41652</v>
+        <v>41653</v>
       </c>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -3845,9 +3844,9 @@
       <c r="N82" s="52"/>
     </row>
     <row r="83" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="71"/>
+      <c r="A83" s="99"/>
       <c r="B83" s="9">
-        <v>41653</v>
+        <v>41654</v>
       </c>
       <c r="C83" s="37"/>
       <c r="D83" s="37"/>
@@ -3863,9 +3862,9 @@
       <c r="N83" s="52"/>
     </row>
     <row r="84" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="71"/>
+      <c r="A84" s="99"/>
       <c r="B84" s="9">
-        <v>41654</v>
+        <v>41655</v>
       </c>
       <c r="C84" s="37"/>
       <c r="D84" s="37"/>
@@ -3881,9 +3880,9 @@
       <c r="N84" s="52"/>
     </row>
     <row r="85" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="71"/>
+      <c r="A85" s="99"/>
       <c r="B85" s="9">
-        <v>41655</v>
+        <v>41656</v>
       </c>
       <c r="C85" s="37"/>
       <c r="D85" s="37"/>
@@ -3899,29 +3898,29 @@
       <c r="N85" s="52"/>
     </row>
     <row r="86" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="71"/>
-      <c r="B86" s="9">
-        <v>41656</v>
-      </c>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
+      <c r="A86" s="100">
+        <v>12</v>
+      </c>
+      <c r="B86" s="2">
+        <v>41659</v>
+      </c>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
       <c r="K86" s="52"/>
       <c r="L86" s="52"/>
       <c r="M86" s="52"/>
       <c r="N86" s="52"/>
     </row>
     <row r="87" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="78">
-        <v>12</v>
-      </c>
+      <c r="A87" s="100"/>
       <c r="B87" s="2">
-        <v>41659</v>
+        <v>41660</v>
       </c>
       <c r="C87" s="44"/>
       <c r="D87" s="44"/>
@@ -3937,9 +3936,9 @@
       <c r="N87" s="52"/>
     </row>
     <row r="88" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="78"/>
+      <c r="A88" s="100"/>
       <c r="B88" s="2">
-        <v>41660</v>
+        <v>41661</v>
       </c>
       <c r="C88" s="44"/>
       <c r="D88" s="44"/>
@@ -3955,9 +3954,9 @@
       <c r="N88" s="52"/>
     </row>
     <row r="89" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="78"/>
+      <c r="A89" s="100"/>
       <c r="B89" s="2">
-        <v>41661</v>
+        <v>41662</v>
       </c>
       <c r="C89" s="44"/>
       <c r="D89" s="44"/>
@@ -3973,9 +3972,9 @@
       <c r="N89" s="52"/>
     </row>
     <row r="90" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="78"/>
+      <c r="A90" s="100"/>
       <c r="B90" s="2">
-        <v>41662</v>
+        <v>41663</v>
       </c>
       <c r="C90" s="44"/>
       <c r="D90" s="44"/>
@@ -3991,29 +3990,31 @@
       <c r="N90" s="52"/>
     </row>
     <row r="91" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="78"/>
-      <c r="B91" s="2">
-        <v>41663</v>
-      </c>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
+      <c r="A91" s="99">
+        <v>13</v>
+      </c>
+      <c r="B91" s="9">
+        <v>41666</v>
+      </c>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
       <c r="K91" s="52"/>
       <c r="L91" s="52"/>
       <c r="M91" s="52"/>
       <c r="N91" s="52"/>
     </row>
     <row r="92" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="71">
-        <v>13</v>
-      </c>
+      <c r="A92" s="99"/>
       <c r="B92" s="9">
-        <v>41666</v>
+        <v>41667</v>
       </c>
       <c r="C92" s="37"/>
       <c r="D92" s="37"/>
@@ -4031,9 +4032,9 @@
       <c r="N92" s="52"/>
     </row>
     <row r="93" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="71"/>
+      <c r="A93" s="99"/>
       <c r="B93" s="9">
-        <v>41667</v>
+        <v>41668</v>
       </c>
       <c r="C93" s="37"/>
       <c r="D93" s="37"/>
@@ -4051,9 +4052,9 @@
       <c r="N93" s="52"/>
     </row>
     <row r="94" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="71"/>
+      <c r="A94" s="99"/>
       <c r="B94" s="9">
-        <v>41668</v>
+        <v>41669</v>
       </c>
       <c r="C94" s="37"/>
       <c r="D94" s="37"/>
@@ -4071,9 +4072,9 @@
       <c r="N94" s="52"/>
     </row>
     <row r="95" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="71"/>
+      <c r="A95" s="99"/>
       <c r="B95" s="9">
-        <v>41669</v>
+        <v>41670</v>
       </c>
       <c r="C95" s="37"/>
       <c r="D95" s="37"/>
@@ -4091,31 +4092,31 @@
       <c r="N95" s="52"/>
     </row>
     <row r="96" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="71"/>
-      <c r="B96" s="9">
-        <v>41670</v>
-      </c>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37" t="s">
+      <c r="A96" s="100">
+        <v>14</v>
+      </c>
+      <c r="B96" s="2">
+        <v>41673</v>
+      </c>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="37"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
       <c r="K96" s="52"/>
       <c r="L96" s="52"/>
       <c r="M96" s="52"/>
       <c r="N96" s="52"/>
     </row>
     <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="78">
-        <v>14</v>
-      </c>
+      <c r="A97" s="100"/>
       <c r="B97" s="2">
-        <v>41673</v>
+        <v>41674</v>
       </c>
       <c r="C97" s="44"/>
       <c r="D97" s="44"/>
@@ -4133,9 +4134,9 @@
       <c r="N97" s="52"/>
     </row>
     <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="78"/>
+      <c r="A98" s="100"/>
       <c r="B98" s="2">
-        <v>41674</v>
+        <v>41675</v>
       </c>
       <c r="C98" s="44"/>
       <c r="D98" s="44"/>
@@ -4153,9 +4154,9 @@
       <c r="N98" s="52"/>
     </row>
     <row r="99" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="78"/>
+      <c r="A99" s="100"/>
       <c r="B99" s="2">
-        <v>41675</v>
+        <v>41676</v>
       </c>
       <c r="C99" s="44"/>
       <c r="D99" s="44"/>
@@ -4173,9 +4174,9 @@
       <c r="N99" s="52"/>
     </row>
     <row r="100" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="78"/>
+      <c r="A100" s="100"/>
       <c r="B100" s="2">
-        <v>41676</v>
+        <v>41677</v>
       </c>
       <c r="C100" s="44"/>
       <c r="D100" s="44"/>
@@ -4193,31 +4194,29 @@
       <c r="N100" s="52"/>
     </row>
     <row r="101" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="78"/>
-      <c r="B101" s="2">
-        <v>41677</v>
-      </c>
-      <c r="C101" s="44"/>
-      <c r="D101" s="44"/>
-      <c r="E101" s="44"/>
-      <c r="F101" s="44"/>
-      <c r="G101" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H101" s="44"/>
-      <c r="I101" s="44"/>
-      <c r="J101" s="44"/>
+      <c r="A101" s="99">
+        <v>15</v>
+      </c>
+      <c r="B101" s="9">
+        <v>41680</v>
+      </c>
+      <c r="C101" s="37"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
       <c r="K101" s="52"/>
       <c r="L101" s="52"/>
       <c r="M101" s="52"/>
       <c r="N101" s="52"/>
     </row>
     <row r="102" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="71">
-        <v>15</v>
-      </c>
+      <c r="A102" s="99"/>
       <c r="B102" s="9">
-        <v>41680</v>
+        <v>41681</v>
       </c>
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
@@ -4233,9 +4232,9 @@
       <c r="N102" s="52"/>
     </row>
     <row r="103" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="71"/>
+      <c r="A103" s="99"/>
       <c r="B103" s="9">
-        <v>41681</v>
+        <v>41682</v>
       </c>
       <c r="C103" s="37"/>
       <c r="D103" s="37"/>
@@ -4251,9 +4250,9 @@
       <c r="N103" s="52"/>
     </row>
     <row r="104" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="71"/>
+      <c r="A104" s="99"/>
       <c r="B104" s="9">
-        <v>41682</v>
+        <v>41683</v>
       </c>
       <c r="C104" s="37"/>
       <c r="D104" s="37"/>
@@ -4269,9 +4268,9 @@
       <c r="N104" s="52"/>
     </row>
     <row r="105" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="71"/>
+      <c r="A105" s="99"/>
       <c r="B105" s="9">
-        <v>41683</v>
+        <v>41684</v>
       </c>
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
@@ -4287,29 +4286,29 @@
       <c r="N105" s="52"/>
     </row>
     <row r="106" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="71"/>
-      <c r="B106" s="9">
-        <v>41684</v>
-      </c>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="37"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="37"/>
+      <c r="A106" s="100">
+        <v>16</v>
+      </c>
+      <c r="B106" s="2">
+        <v>41687</v>
+      </c>
+      <c r="C106" s="44"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="44"/>
+      <c r="F106" s="44"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="44"/>
+      <c r="I106" s="44"/>
+      <c r="J106" s="44"/>
       <c r="K106" s="52"/>
       <c r="L106" s="52"/>
       <c r="M106" s="52"/>
       <c r="N106" s="52"/>
     </row>
     <row r="107" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="78">
-        <v>16</v>
-      </c>
+      <c r="A107" s="100"/>
       <c r="B107" s="2">
-        <v>41687</v>
+        <v>41688</v>
       </c>
       <c r="C107" s="44"/>
       <c r="D107" s="44"/>
@@ -4325,9 +4324,9 @@
       <c r="N107" s="52"/>
     </row>
     <row r="108" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="78"/>
+      <c r="A108" s="100"/>
       <c r="B108" s="2">
-        <v>41688</v>
+        <v>41689</v>
       </c>
       <c r="C108" s="44"/>
       <c r="D108" s="44"/>
@@ -4343,9 +4342,9 @@
       <c r="N108" s="52"/>
     </row>
     <row r="109" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="78"/>
+      <c r="A109" s="100"/>
       <c r="B109" s="2">
-        <v>41689</v>
+        <v>41690</v>
       </c>
       <c r="C109" s="44"/>
       <c r="D109" s="44"/>
@@ -4361,9 +4360,9 @@
       <c r="N109" s="52"/>
     </row>
     <row r="110" 